--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,10 +463,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>mean_score</t>
         </is>
@@ -489,10 +494,13 @@
         <v>0.5</v>
       </c>
       <c r="F2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" t="n">
         <v>6.5</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.9</v>
+      <c r="H2" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
@@ -517,6 +525,9 @@
       <c r="G3" t="n">
         <v>0.5</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -540,6 +551,9 @@
       <c r="G4" t="n">
         <v>0.5</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -563,6 +577,9 @@
       <c r="G5" t="n">
         <v>0.5</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -586,6 +603,9 @@
       <c r="G6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -609,6 +629,9 @@
       <c r="G7" t="n">
         <v>0.5</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -630,6 +653,9 @@
         <v>-1</v>
       </c>
       <c r="G8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -650,10 +676,13 @@
         <v>2.5</v>
       </c>
       <c r="F9" t="n">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>4.833333333333333</v>
+        <v>-1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="10">
@@ -676,6 +705,9 @@
         <v>-1</v>
       </c>
       <c r="G10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -696,10 +728,13 @@
         <v>2.5</v>
       </c>
       <c r="F11" t="n">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>-1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -719,10 +754,13 @@
         <v>0.5</v>
       </c>
       <c r="F12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="n">
         <v>6.5</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.9</v>
+      <c r="H12" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
@@ -747,6 +785,9 @@
       <c r="G13" t="n">
         <v>0.5</v>
       </c>
+      <c r="H13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -770,6 +811,9 @@
       <c r="G14" t="n">
         <v>0.5</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -788,10 +832,13 @@
         <v>0.5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G15" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="16">
@@ -816,6 +863,9 @@
       <c r="G16" t="n">
         <v>0.5</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -839,6 +889,9 @@
       <c r="G17" t="n">
         <v>0.5</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -860,6 +913,9 @@
         <v>-1</v>
       </c>
       <c r="G18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -880,10 +936,13 @@
         <v>2.5</v>
       </c>
       <c r="F19" t="n">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>4.833333333333333</v>
+        <v>-1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="20">
@@ -906,6 +965,9 @@
         <v>-1</v>
       </c>
       <c r="G20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -926,10 +988,13 @@
         <v>2.5</v>
       </c>
       <c r="F21" t="n">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>-1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -949,10 +1014,13 @@
         <v>0.5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G22" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="23">
@@ -972,10 +1040,13 @@
         <v>0.5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="24">
@@ -995,9 +1066,12 @@
         <v>0.5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -1018,10 +1092,13 @@
         <v>0.5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -1041,10 +1118,13 @@
         <v>0.5</v>
       </c>
       <c r="F26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.5</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.7</v>
+      <c r="H26" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="27">
@@ -1067,7 +1147,10 @@
         <v>0.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="28">
@@ -1090,6 +1173,9 @@
         <v>-1</v>
       </c>
       <c r="G28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,10 +1196,13 @@
         <v>6.5</v>
       </c>
       <c r="F29" t="n">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="G29" t="n">
-        <v>5.833333333333333</v>
+        <v>-1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1136,6 +1225,9 @@
         <v>-1</v>
       </c>
       <c r="G30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1156,10 +1248,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="G31" t="n">
-        <v>7.100000000000001</v>
+        <v>-1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="32">
@@ -1184,6 +1279,9 @@
       <c r="G32" t="n">
         <v>0.5</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1207,6 +1305,9 @@
       <c r="G33" t="n">
         <v>0.5</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1228,7 +1329,10 @@
         <v>0.5</v>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="35">
@@ -1251,7 +1355,10 @@
         <v>0.5</v>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="36">
@@ -1271,10 +1378,13 @@
         <v>0.5</v>
       </c>
       <c r="F36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G36" t="n">
         <v>1.5</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.7</v>
+      <c r="H36" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="37">
@@ -1294,10 +1404,13 @@
         <v>0.5</v>
       </c>
       <c r="F37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G37" t="n">
         <v>3.5</v>
       </c>
-      <c r="G37" t="n">
-        <v>1.3</v>
+      <c r="H37" t="n">
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -1320,6 +1433,9 @@
         <v>-1</v>
       </c>
       <c r="G38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1340,10 +1456,13 @@
         <v>6.5</v>
       </c>
       <c r="F39" t="n">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="G39" t="n">
-        <v>5.833333333333333</v>
+        <v>-1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1366,6 +1485,9 @@
         <v>-1</v>
       </c>
       <c r="G40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1386,10 +1508,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="G41" t="n">
-        <v>7.100000000000001</v>
+        <v>-1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="42">
@@ -1414,6 +1539,9 @@
       <c r="G42" t="n">
         <v>0.5</v>
       </c>
+      <c r="H42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1437,6 +1565,9 @@
       <c r="G43" t="n">
         <v>0.5</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1460,6 +1591,9 @@
       <c r="G44" t="n">
         <v>0.5</v>
       </c>
+      <c r="H44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1483,6 +1617,9 @@
       <c r="G45" t="n">
         <v>0.5</v>
       </c>
+      <c r="H45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1506,6 +1643,9 @@
       <c r="G46" t="n">
         <v>0.5</v>
       </c>
+      <c r="H46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1529,6 +1669,9 @@
       <c r="G47" t="n">
         <v>0.5</v>
       </c>
+      <c r="H47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1550,6 +1693,9 @@
         <v>-1</v>
       </c>
       <c r="G48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1570,9 +1716,12 @@
         <v>0.5</v>
       </c>
       <c r="F49" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="G49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1596,6 +1745,9 @@
         <v>-1</v>
       </c>
       <c r="G50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,10 +1768,13 @@
         <v>0.5</v>
       </c>
       <c r="F51" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>-1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="52">
@@ -1639,10 +1794,13 @@
         <v>-1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G52" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="53">
@@ -1667,6 +1825,9 @@
       <c r="G53" t="n">
         <v>0.5</v>
       </c>
+      <c r="H53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1690,6 +1851,9 @@
       <c r="G54" t="n">
         <v>0.5</v>
       </c>
+      <c r="H54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1713,6 +1877,9 @@
       <c r="G55" t="n">
         <v>0.5</v>
       </c>
+      <c r="H55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1736,6 +1903,9 @@
       <c r="G56" t="n">
         <v>0.5</v>
       </c>
+      <c r="H56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1759,6 +1929,9 @@
       <c r="G57" t="n">
         <v>0.5</v>
       </c>
+      <c r="H57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1780,6 +1953,9 @@
         <v>-1</v>
       </c>
       <c r="G58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1800,10 +1976,13 @@
         <v>0.5</v>
       </c>
       <c r="F59" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>-1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1826,6 +2005,9 @@
         <v>-1</v>
       </c>
       <c r="G60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1846,10 +2028,13 @@
         <v>3.5</v>
       </c>
       <c r="F61" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="G61" t="n">
-        <v>4.166666666666667</v>
+        <v>-1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="62">
@@ -1869,10 +2054,13 @@
         <v>-1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G62" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="63">
@@ -1892,10 +2080,13 @@
         <v>-1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G63" t="n">
-        <v>2.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="64">
@@ -1920,6 +2111,9 @@
       <c r="G64" t="n">
         <v>0.5</v>
       </c>
+      <c r="H64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1938,10 +2132,13 @@
         <v>-1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G65" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="66">
@@ -1966,6 +2163,9 @@
       <c r="G66" t="n">
         <v>0.5</v>
       </c>
+      <c r="H66" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1989,6 +2189,9 @@
       <c r="G67" t="n">
         <v>0.5</v>
       </c>
+      <c r="H67" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2010,6 +2213,9 @@
         <v>-1</v>
       </c>
       <c r="G68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2030,10 +2236,13 @@
         <v>5.5</v>
       </c>
       <c r="F69" t="n">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="G69" t="n">
-        <v>4.166666666666667</v>
+        <v>-1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="70">
@@ -2056,6 +2265,9 @@
         <v>-1</v>
       </c>
       <c r="G70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2076,10 +2288,13 @@
         <v>7.5</v>
       </c>
       <c r="F71" t="n">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="G71" t="n">
-        <v>6.5</v>
+        <v>-1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="72">
@@ -2099,10 +2314,13 @@
         <v>-1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="G72" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="73">
@@ -2125,7 +2343,10 @@
         <v>0.5</v>
       </c>
       <c r="G73" t="n">
-        <v>2.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="74">
@@ -2148,7 +2369,10 @@
         <v>0.5</v>
       </c>
       <c r="G74" t="n">
-        <v>1.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="75">
@@ -2168,10 +2392,13 @@
         <v>-1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="76">
@@ -2191,10 +2418,13 @@
         <v>-1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="77">
@@ -2214,10 +2444,13 @@
         <v>-1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="78">
@@ -2240,6 +2473,9 @@
         <v>-1</v>
       </c>
       <c r="G78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2260,10 +2496,13 @@
         <v>5.5</v>
       </c>
       <c r="F79" t="n">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="G79" t="n">
-        <v>5.833333333333333</v>
+        <v>-1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -2286,6 +2525,9 @@
         <v>-1</v>
       </c>
       <c r="G80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,9 +2548,12 @@
         <v>7.5</v>
       </c>
       <c r="F81" t="n">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="G81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2329,10 +2574,13 @@
         <v>-1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="G82" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="83">
@@ -2352,10 +2600,13 @@
         <v>-1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="84">
@@ -2375,10 +2626,13 @@
         <v>-1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="G84" t="n">
-        <v>1.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="85">
@@ -2401,7 +2655,10 @@
         <v>3.5</v>
       </c>
       <c r="G85" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="86">
@@ -2421,10 +2678,13 @@
         <v>-1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="87">
@@ -2444,10 +2704,13 @@
         <v>-1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="G87" t="n">
-        <v>2.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="88">
@@ -2470,6 +2733,9 @@
         <v>-1</v>
       </c>
       <c r="G88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2490,10 +2756,13 @@
         <v>5.5</v>
       </c>
       <c r="F89" t="n">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="G89" t="n">
-        <v>6.166666666666667</v>
+        <v>-1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="90">
@@ -2516,6 +2785,9 @@
         <v>-1</v>
       </c>
       <c r="G90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2536,10 +2808,13 @@
         <v>6.5</v>
       </c>
       <c r="F91" t="n">
-        <v>-1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>5.833333333333333</v>
+        <v>-1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>6.45</v>
       </c>
     </row>
     <row r="92">
@@ -2559,10 +2834,13 @@
         <v>-1</v>
       </c>
       <c r="F92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G92" t="n">
         <v>1.5</v>
       </c>
-      <c r="G92" t="n">
-        <v>2</v>
+      <c r="H92" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="93">
@@ -2582,10 +2860,13 @@
         <v>-1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="94">
@@ -2605,10 +2886,13 @@
         <v>-1</v>
       </c>
       <c r="F94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G94" t="n">
         <v>4.5</v>
       </c>
-      <c r="G94" t="n">
-        <v>4.25</v>
+      <c r="H94" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="95">
@@ -2628,10 +2912,13 @@
         <v>-1</v>
       </c>
       <c r="F95" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G95" t="n">
         <v>1.5</v>
       </c>
-      <c r="G95" t="n">
-        <v>3.25</v>
+      <c r="H95" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="96">
@@ -2651,10 +2938,13 @@
         <v>-1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="97">
@@ -2674,10 +2964,13 @@
         <v>-1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="G97" t="n">
-        <v>2.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="98">
@@ -2700,6 +2993,9 @@
         <v>-1</v>
       </c>
       <c r="G98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2720,10 +3016,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="G99" t="n">
-        <v>7.100000000000001</v>
+        <v>-1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="100">
@@ -2746,6 +3045,9 @@
         <v>-1</v>
       </c>
       <c r="G100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2766,10 +3068,13 @@
         <v>6.5</v>
       </c>
       <c r="F101" t="n">
-        <v>-1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>6.166666666666667</v>
+        <v>-1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="102">
@@ -2789,9 +3094,12 @@
         <v>3.5</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="G102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H102" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -2812,10 +3120,13 @@
         <v>3.5</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="G103" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.166666666666667</v>
       </c>
     </row>
     <row r="104">
@@ -2838,7 +3149,10 @@
         <v>4.5</v>
       </c>
       <c r="G104" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="105">
@@ -2858,10 +3172,13 @@
         <v>7.5</v>
       </c>
       <c r="F105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G105" t="n">
         <v>1.5</v>
       </c>
-      <c r="G105" t="n">
-        <v>4.9</v>
+      <c r="H105" t="n">
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="106">
@@ -2881,10 +3198,13 @@
         <v>6.5</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="G106" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="107">
@@ -2904,10 +3224,13 @@
         <v>6.5</v>
       </c>
       <c r="F107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G107" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G107" t="n">
-        <v>6.659999999999999</v>
+      <c r="H107" t="n">
+        <v>6.633333333333333</v>
       </c>
     </row>
     <row r="108">
@@ -2927,9 +3250,12 @@
         <v>-1</v>
       </c>
       <c r="F108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G108" t="n">
         <v>1.5</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,10 +3276,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G109" t="n">
         <v>3.5</v>
       </c>
-      <c r="G109" t="n">
-        <v>5.86</v>
+      <c r="H109" t="n">
+        <v>6.133333333333333</v>
       </c>
     </row>
     <row r="110">
@@ -2976,6 +3305,9 @@
         <v>-1</v>
       </c>
       <c r="G110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2996,10 +3328,13 @@
         <v>5.5</v>
       </c>
       <c r="F111" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="G111" t="n">
         <v>4.5</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="112">
@@ -3019,10 +3354,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G112" t="n">
         <v>6.5</v>
       </c>
-      <c r="G112" t="n">
-        <v>7.780000000000001</v>
+      <c r="H112" t="n">
+        <v>7.733333333333334</v>
       </c>
     </row>
     <row r="113">
@@ -3042,10 +3380,13 @@
         <v>6.5</v>
       </c>
       <c r="F113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G113" t="n">
         <v>5.5</v>
       </c>
-      <c r="G113" t="n">
-        <v>6.859999999999999</v>
+      <c r="H113" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="114">
@@ -3065,10 +3406,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F114" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G114" t="n">
         <v>4.5</v>
       </c>
-      <c r="G114" t="n">
-        <v>7.220000000000001</v>
+      <c r="H114" t="n">
+        <v>7.400000000000001</v>
       </c>
     </row>
     <row r="115">
@@ -3088,10 +3432,13 @@
         <v>6.5</v>
       </c>
       <c r="F115" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G115" t="n">
         <v>7.5</v>
       </c>
-      <c r="G115" t="n">
-        <v>5.9</v>
+      <c r="H115" t="n">
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="116">
@@ -3111,10 +3458,13 @@
         <v>6.5</v>
       </c>
       <c r="F116" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G116" t="n">
         <v>6.5</v>
       </c>
-      <c r="G116" t="n">
-        <v>5.7</v>
+      <c r="H116" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -3134,9 +3484,12 @@
         <v>6.5</v>
       </c>
       <c r="F117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G117" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>6.659999999999999</v>
       </c>
     </row>
@@ -3157,9 +3510,12 @@
         <v>-1</v>
       </c>
       <c r="F118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G118" t="n">
         <v>7.5</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3183,7 +3539,10 @@
         <v>7.5</v>
       </c>
       <c r="G119" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
+      </c>
+      <c r="H119" t="n">
+        <v>7.42</v>
       </c>
     </row>
     <row r="120">
@@ -3206,6 +3565,9 @@
         <v>-1</v>
       </c>
       <c r="G120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3231,6 +3593,9 @@
       <c r="G121" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="H121" t="n">
+        <v>8.299999999999999</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3249,10 +3614,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="G122" t="n">
         <v>8.300000000000001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>8.166666666666666</v>
       </c>
     </row>
     <row r="123">
@@ -3275,7 +3643,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>7.980000000000001</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>8.033333333333333</v>
       </c>
     </row>
     <row r="124">
@@ -3295,10 +3666,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F124" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G124" t="n">
         <v>4.5</v>
       </c>
-      <c r="G124" t="n">
-        <v>7.15</v>
+      <c r="H124" t="n">
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="125">
@@ -3318,10 +3692,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F125" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G125" t="n">
         <v>7.5</v>
       </c>
-      <c r="G125" t="n">
-        <v>7.9</v>
+      <c r="H125" t="n">
+        <v>7.966666666666666</v>
       </c>
     </row>
     <row r="126">
@@ -3341,10 +3718,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F126" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G126" t="n">
         <v>6.5</v>
       </c>
-      <c r="G126" t="n">
-        <v>8.18</v>
+      <c r="H126" t="n">
+        <v>8.066666666666666</v>
       </c>
     </row>
     <row r="127">
@@ -3364,9 +3744,12 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G127" t="n">
         <v>4.5</v>
       </c>
-      <c r="G127" t="n">
+      <c r="H127" t="n">
         <v>7.380000000000001</v>
       </c>
     </row>
@@ -3387,9 +3770,12 @@
         <v>-1</v>
       </c>
       <c r="F128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G128" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G128" t="n">
+      <c r="H128" t="n">
         <v>7.4</v>
       </c>
     </row>
@@ -3410,10 +3796,13 @@
         <v>7.5</v>
       </c>
       <c r="F129" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G129" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G129" t="n">
-        <v>7.5</v>
+      <c r="H129" t="n">
+        <v>7.166666666666667</v>
       </c>
     </row>
     <row r="130">
@@ -3436,6 +3825,9 @@
         <v>-1</v>
       </c>
       <c r="G130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3459,7 +3851,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G131" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>8.383333333333333</v>
       </c>
     </row>
     <row r="132">
@@ -3479,10 +3874,13 @@
         <v>6.5</v>
       </c>
       <c r="F132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G132" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G132" t="n">
-        <v>6.220000000000001</v>
+      <c r="H132" t="n">
+        <v>5.600000000000001</v>
       </c>
     </row>
     <row r="133">
@@ -3505,7 +3903,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>6.62</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>6.900000000000001</v>
       </c>
     </row>
     <row r="134">
@@ -3528,7 +3929,10 @@
         <v>1.5</v>
       </c>
       <c r="G134" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="135">
@@ -3548,10 +3952,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F135" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G135" t="n">
         <v>7.5</v>
       </c>
-      <c r="G135" t="n">
-        <v>7.9</v>
+      <c r="H135" t="n">
+        <v>7.966666666666666</v>
       </c>
     </row>
     <row r="136">
@@ -3571,10 +3978,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="G136" t="n">
-        <v>6.98</v>
+        <v>0.5</v>
+      </c>
+      <c r="H136" t="n">
+        <v>6.566666666666666</v>
       </c>
     </row>
     <row r="137">
@@ -3594,10 +4004,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="G137" t="n">
-        <v>6.580000000000001</v>
+        <v>0.5</v>
+      </c>
+      <c r="H137" t="n">
+        <v>6.400000000000001</v>
       </c>
     </row>
     <row r="138">
@@ -3617,9 +4030,12 @@
         <v>-1</v>
       </c>
       <c r="F138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G138" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G138" t="n">
+      <c r="H138" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -3640,9 +4056,12 @@
         <v>7.5</v>
       </c>
       <c r="F139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G139" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G139" t="n">
+      <c r="H139" t="n">
         <v>7.5</v>
       </c>
     </row>
@@ -3666,6 +4085,9 @@
         <v>-1</v>
       </c>
       <c r="G140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3686,10 +4108,13 @@
         <v>6.5</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>4.56</v>
+        <v>0.5</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5.183333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -3703,7 +4128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3739,6 +4164,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-17</t>
         </is>
       </c>
@@ -3765,7 +4195,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>85.28865385055542</v>
       </c>
     </row>
@@ -3798,6 +4233,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3828,6 +4268,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3858,6 +4303,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3888,6 +4338,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3918,6 +4373,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3936,6 +4396,9 @@
         <v>0.4733853340148926</v>
       </c>
       <c r="F8" t="n">
+        <v>0.2859938144683838</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.3110344409942627</v>
       </c>
     </row>
@@ -3956,6 +4419,9 @@
         <v>2420.92289018631</v>
       </c>
       <c r="F9" t="n">
+        <v>1574.338675022125</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.3112995624542236</v>
       </c>
     </row>
@@ -3976,6 +4442,9 @@
         <v>0.4737164974212646</v>
       </c>
       <c r="F10" t="n">
+        <v>0.2862575054168701</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.3115518093109131</v>
       </c>
     </row>
@@ -3996,6 +4465,9 @@
         <v>2721.326892375946</v>
       </c>
       <c r="F11" t="n">
+        <v>142.6948068141937</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.3117744922637939</v>
       </c>
     </row>
@@ -4021,7 +4493,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>85.28914594650269</v>
       </c>
     </row>
@@ -4054,6 +4531,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4084,6 +4566,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4109,7 +4596,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>3619.408561468124</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4144,6 +4634,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4174,6 +4669,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4192,6 +4692,9 @@
         <v>0.4740993976593018</v>
       </c>
       <c r="F18" t="n">
+        <v>0.2866506576538086</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.3121459484100342</v>
       </c>
     </row>
@@ -4212,6 +4715,9 @@
         <v>2420.923431158066</v>
       </c>
       <c r="F19" t="n">
+        <v>1574.339131116867</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.3124051094055176</v>
       </c>
     </row>
@@ -4232,6 +4738,9 @@
         <v>0.4744205474853516</v>
       </c>
       <c r="F20" t="n">
+        <v>0.2869060039520264</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.3126590251922607</v>
       </c>
     </row>
@@ -4252,6 +4761,9 @@
         <v>2721.327751874924</v>
       </c>
       <c r="F21" t="n">
+        <v>142.6955018043518</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.312891960144043</v>
       </c>
     </row>
@@ -4279,7 +4791,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>4520.632216930389</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4309,7 +4824,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>2417.836637020111</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4337,7 +4855,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>6923.866898775101</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4365,7 +4886,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>3619.409148454666</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4395,7 +4919,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>7527.884927034378</v>
       </c>
     </row>
@@ -4426,6 +4955,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4444,6 +4978,9 @@
         <v>0.4748477935791016</v>
       </c>
       <c r="F28" t="n">
+        <v>0.287278413772583</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.3132364749908447</v>
       </c>
     </row>
@@ -4464,6 +5001,9 @@
         <v>60.26110005378723</v>
       </c>
       <c r="F29" t="n">
+        <v>92.895916223526</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.3134596347808838</v>
       </c>
     </row>
@@ -4484,6 +5024,9 @@
         <v>0.4751067161560059</v>
       </c>
       <c r="F30" t="n">
+        <v>0.2875502109527588</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.3136937618255615</v>
       </c>
     </row>
@@ -4504,6 +5047,9 @@
         <v>23.24671673774719</v>
       </c>
       <c r="F31" t="n">
+        <v>31.7048511505127</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.3139371871948242</v>
       </c>
     </row>
@@ -4536,6 +5082,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4566,6 +5117,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4594,6 +5150,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4622,6 +5183,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4647,7 +5213,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>7527.885731935501</v>
       </c>
     </row>
@@ -4673,7 +5244,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>1153.799431085587</v>
       </c>
     </row>
@@ -4694,6 +5270,9 @@
         <v>0.4755222797393799</v>
       </c>
       <c r="F38" t="n">
+        <v>0.2879290580749512</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.3143126964569092</v>
       </c>
     </row>
@@ -4714,6 +5293,9 @@
         <v>60.26168131828308</v>
       </c>
       <c r="F39" t="n">
+        <v>92.89649438858032</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.3145370483398438</v>
       </c>
     </row>
@@ -4734,6 +5316,9 @@
         <v>0.4758224487304688</v>
       </c>
       <c r="F40" t="n">
+        <v>0.2881627082824707</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.3147566318511963</v>
       </c>
     </row>
@@ -4754,6 +5339,9 @@
         <v>23.24733710289001</v>
       </c>
       <c r="F41" t="n">
+        <v>31.70533013343811</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.3149847984313965</v>
       </c>
     </row>
@@ -4786,6 +5374,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4816,6 +5409,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4846,6 +5444,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4876,6 +5479,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4906,6 +5514,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4936,6 +5549,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4954,6 +5572,9 @@
         <v>0.4762017726898193</v>
       </c>
       <c r="F48" t="n">
+        <v>0.2885258197784424</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.3153231143951416</v>
       </c>
     </row>
@@ -4979,7 +5600,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v>0.315544605255127</v>
       </c>
     </row>
@@ -5000,6 +5626,9 @@
         <v>0.4764862060546875</v>
       </c>
       <c r="F50" t="n">
+        <v>0.2887647151947021</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.3157632350921631</v>
       </c>
     </row>
@@ -5023,7 +5652,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
         <v>0.315993070602417</v>
       </c>
     </row>
@@ -5049,7 +5683,10 @@
       <c r="E52" t="n">
         <v>0.4768302440643311</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="n">
+        <v>9627.584949493408</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5082,6 +5719,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5110,6 +5752,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5138,6 +5785,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5166,6 +5818,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5194,6 +5851,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5212,6 +5874,9 @@
         <v>0.4782540798187256</v>
       </c>
       <c r="F58" t="n">
+        <v>0.2891149520874023</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.316333532333374</v>
       </c>
     </row>
@@ -5233,7 +5898,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
         <v>0.3165769577026367</v>
       </c>
     </row>
@@ -5254,6 +5924,9 @@
         <v>0.4784936904907227</v>
       </c>
       <c r="F60" t="n">
+        <v>0.2893471717834473</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.3168063163757324</v>
       </c>
     </row>
@@ -5273,7 +5946,12 @@
       <c r="E61" t="n">
         <v>1365.709166049957</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
         <v>0.3170275688171387</v>
       </c>
     </row>
@@ -5299,7 +5977,10 @@
       <c r="E62" t="n">
         <v>0.478806734085083</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="n">
+        <v>9627.585594415665</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5325,7 +6006,10 @@
       <c r="E63" t="n">
         <v>0.4790661334991455</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="n">
+        <v>3619.410120248795</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5358,6 +6042,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5381,7 +6070,10 @@
       <c r="E65" t="n">
         <v>0.4794952869415283</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="n">
+        <v>7825.171560525894</v>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5414,6 +6106,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5442,6 +6139,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5460,6 +6162,9 @@
         <v>0.4802205562591553</v>
       </c>
       <c r="F68" t="n">
+        <v>0.2897095680236816</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.3173661231994629</v>
       </c>
     </row>
@@ -5480,6 +6185,9 @@
         <v>137.775354385376</v>
       </c>
       <c r="F69" t="n">
+        <v>67.80310392379761</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.3175899982452393</v>
       </c>
     </row>
@@ -5500,6 +6208,9 @@
         <v>0.4804787635803223</v>
       </c>
       <c r="F70" t="n">
+        <v>0.2899436950683594</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.3178191184997559</v>
       </c>
     </row>
@@ -5520,6 +6231,9 @@
         <v>47.56827974319458</v>
       </c>
       <c r="F71" t="n">
+        <v>142.6970613002777</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.3180418014526367</v>
       </c>
     </row>
@@ -5543,7 +6257,10 @@
       <c r="E72" t="n">
         <v>0.480741024017334</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="n">
+        <v>1301.02250289917</v>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5574,6 +6291,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5600,6 +6322,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5621,7 +6348,10 @@
       <c r="E75" t="n">
         <v>0.4814143180847168</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="n">
+        <v>7825.171985626221</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5647,7 +6377,10 @@
       <c r="E76" t="n">
         <v>0.4816343784332275</v>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="n">
+        <v>3619.410671472549</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5673,7 +6406,10 @@
       <c r="E77" t="n">
         <v>0.4818639755249023</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="n">
+        <v>102.7289371490479</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5696,6 +6432,9 @@
         <v>0.4820854663848877</v>
       </c>
       <c r="F78" t="n">
+        <v>0.2902991771697998</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.3183803558349609</v>
       </c>
     </row>
@@ -5716,6 +6455,9 @@
         <v>137.775764465332</v>
       </c>
       <c r="F79" t="n">
+        <v>67.80367279052734</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.3186004161834717</v>
       </c>
     </row>
@@ -5736,6 +6478,9 @@
         <v>0.4823319911956787</v>
       </c>
       <c r="F80" t="n">
+        <v>0.2905416488647461</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.318831205368042</v>
       </c>
     </row>
@@ -5756,6 +6501,9 @@
         <v>47.56878876686096</v>
       </c>
       <c r="F81" t="n">
+        <v>96.29518222808838</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.3190546035766602</v>
       </c>
     </row>
@@ -5779,7 +6527,10 @@
       <c r="E82" t="n">
         <v>0.4825751781463623</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="n">
+        <v>1301.023038864136</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5803,7 +6554,10 @@
       <c r="E83" t="n">
         <v>0.4827957153320312</v>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="n">
+        <v>3018.621803283691</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5829,7 +6583,10 @@
       <c r="E84" t="n">
         <v>0.4830350875854492</v>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="n">
+        <v>1058.637485027313</v>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5856,6 +6613,9 @@
         <v>0.483245849609375</v>
       </c>
       <c r="F85" t="n">
+        <v>937.5459253787994</v>
+      </c>
+      <c r="G85" t="n">
         <v>606.2992749214172</v>
       </c>
     </row>
@@ -5879,7 +6639,10 @@
       <c r="E86" t="n">
         <v>0.483452320098877</v>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="n">
+        <v>3619.411101341248</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5903,7 +6666,10 @@
       <c r="E87" t="n">
         <v>0.4836695194244385</v>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="n">
+        <v>102.7296619415283</v>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5926,6 +6692,9 @@
         <v>0.4838769435882568</v>
       </c>
       <c r="F88" t="n">
+        <v>0.2908942699432373</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.3195133209228516</v>
       </c>
     </row>
@@ -5946,6 +6715,9 @@
         <v>224.6568253040314</v>
       </c>
       <c r="F89" t="n">
+        <v>37.81364703178406</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.3197429180145264</v>
       </c>
     </row>
@@ -5966,6 +6738,9 @@
         <v>0.4841399192810059</v>
       </c>
       <c r="F90" t="n">
+        <v>0.2911388874053955</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.3199770450592041</v>
       </c>
     </row>
@@ -5986,6 +6761,9 @@
         <v>65.95302963256836</v>
       </c>
       <c r="F91" t="n">
+        <v>29.44138121604919</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.3201994895935059</v>
       </c>
     </row>
@@ -6010,6 +6788,9 @@
         <v>0.4843754768371582</v>
       </c>
       <c r="F92" t="n">
+        <v>937.5463418960571</v>
+      </c>
+      <c r="G92" t="n">
         <v>7227.489417791367</v>
       </c>
     </row>
@@ -6034,6 +6815,9 @@
         <v>0.484607458114624</v>
       </c>
       <c r="F93" t="n">
+        <v>3018.622243404388</v>
+      </c>
+      <c r="G93" t="n">
         <v>12309.42152237892</v>
       </c>
     </row>
@@ -6056,6 +6840,9 @@
         <v>0.4848265647888184</v>
       </c>
       <c r="F94" t="n">
+        <v>1058.637942790985</v>
+      </c>
+      <c r="G94" t="n">
         <v>484.5295195579529</v>
       </c>
     </row>
@@ -6076,6 +6863,9 @@
         <v>0.4850854873657227</v>
       </c>
       <c r="F95" t="n">
+        <v>37.81416606903076</v>
+      </c>
+      <c r="G95" t="n">
         <v>4524.048715829849</v>
       </c>
     </row>
@@ -6099,7 +6889,10 @@
       <c r="E96" t="n">
         <v>0.4853160381317139</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="n">
+        <v>786.0391237735748</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6121,7 +6914,10 @@
       <c r="E97" t="n">
         <v>0.4855244159698486</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="n">
+        <v>83.70517706871033</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6144,6 +6940,9 @@
         <v>0.4857423305511475</v>
       </c>
       <c r="F98" t="n">
+        <v>0.291529655456543</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.3205544948577881</v>
       </c>
     </row>
@@ -6164,6 +6963,9 @@
         <v>27.95988178253174</v>
       </c>
       <c r="F99" t="n">
+        <v>37.8145706653595</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.320777416229248</v>
       </c>
     </row>
@@ -6184,6 +6986,9 @@
         <v>0.4859745502471924</v>
       </c>
       <c r="F100" t="n">
+        <v>0.291773796081543</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.3210086822509766</v>
       </c>
     </row>
@@ -6204,6 +7009,9 @@
         <v>65.95343589782715</v>
       </c>
       <c r="F101" t="n">
+        <v>29.44184923171997</v>
+      </c>
+      <c r="G101" t="n">
         <v>0.3212282657623291</v>
       </c>
     </row>
@@ -6225,7 +7033,10 @@
       <c r="E102" t="n">
         <v>1123.506752490997</v>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="n">
+        <v>937.5467135906219</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6249,7 +7060,10 @@
       <c r="E103" t="n">
         <v>1184.005961418152</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="n">
+        <v>74.6175856590271</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6274,6 +7088,9 @@
         <v>224.65740442276</v>
       </c>
       <c r="F104" t="n">
+        <v>392.2026243209839</v>
+      </c>
+      <c r="G104" t="n">
         <v>484.5300431251526</v>
       </c>
     </row>
@@ -6294,6 +7111,9 @@
         <v>56.7472677230835</v>
       </c>
       <c r="F105" t="n">
+        <v>58.61105585098267</v>
+      </c>
+      <c r="G105" t="n">
         <v>4524.049172878265</v>
       </c>
     </row>
@@ -6315,7 +7135,10 @@
       <c r="E106" t="n">
         <v>88.423264503479</v>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="n">
+        <v>786.0398147106171</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6338,6 +7161,9 @@
         <v>93.02811169624329</v>
       </c>
       <c r="F107" t="n">
+        <v>83.70563125610352</v>
+      </c>
+      <c r="G107" t="n">
         <v>29.01506066322327</v>
       </c>
     </row>
@@ -6360,6 +7186,9 @@
         <v>0.486365795135498</v>
       </c>
       <c r="F108" t="n">
+        <v>0.2921450138092041</v>
+      </c>
+      <c r="G108" t="n">
         <v>10532.4744386673</v>
       </c>
     </row>
@@ -6380,6 +7209,9 @@
         <v>15.16439580917358</v>
       </c>
       <c r="F109" t="n">
+        <v>34.33261013031006</v>
+      </c>
+      <c r="G109" t="n">
         <v>1729.583037853241</v>
       </c>
     </row>
@@ -6400,6 +7232,9 @@
         <v>0.48661208152771</v>
       </c>
       <c r="F110" t="n">
+        <v>0.2923786640167236</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.3216018676757812</v>
       </c>
     </row>
@@ -6422,6 +7257,9 @@
         <v>131.2627067565918</v>
       </c>
       <c r="F111" t="n">
+        <v>96.29600405693054</v>
+      </c>
+      <c r="G111" t="n">
         <v>392.9093477725983</v>
       </c>
     </row>
@@ -6442,6 +7280,9 @@
         <v>15.16478872299194</v>
       </c>
       <c r="F112" t="n">
+        <v>36.62301158905029</v>
+      </c>
+      <c r="G112" t="n">
         <v>63.43694496154785</v>
       </c>
     </row>
@@ -6462,6 +7303,9 @@
         <v>75.24866509437561</v>
       </c>
       <c r="F113" t="n">
+        <v>74.61807537078857</v>
+      </c>
+      <c r="G113" t="n">
         <v>168.7334537506104</v>
       </c>
     </row>
@@ -6482,6 +7326,9 @@
         <v>19.77280712127686</v>
       </c>
       <c r="F114" t="n">
+        <v>19.98253917694092</v>
+      </c>
+      <c r="G114" t="n">
         <v>392.9096970558167</v>
       </c>
     </row>
@@ -6502,6 +7349,9 @@
         <v>107.9008948802948</v>
       </c>
       <c r="F115" t="n">
+        <v>392.2031462192535</v>
+      </c>
+      <c r="G115" t="n">
         <v>38.12303781509399</v>
       </c>
     </row>
@@ -6522,6 +7372,9 @@
         <v>88.4239776134491</v>
       </c>
       <c r="F116" t="n">
+        <v>31.70696520805359</v>
+      </c>
+      <c r="G116" t="n">
         <v>73.92270088195801</v>
       </c>
     </row>
@@ -6542,6 +7395,9 @@
         <v>93.02852153778076</v>
       </c>
       <c r="F117" t="n">
+        <v>0.2927210330963135</v>
+      </c>
+      <c r="G117" t="n">
         <v>29.01555895805359</v>
       </c>
     </row>
@@ -6562,6 +7418,9 @@
         <v>0.4870498180389404</v>
       </c>
       <c r="F118" t="n">
+        <v>0.2929425239562988</v>
+      </c>
+      <c r="G118" t="n">
         <v>50.76859855651855</v>
       </c>
     </row>
@@ -6582,6 +7441,9 @@
         <v>15.16522455215454</v>
       </c>
       <c r="F119" t="n">
+        <v>34.3331663608551</v>
+      </c>
+      <c r="G119" t="n">
         <v>41.57435822486877</v>
       </c>
     </row>
@@ -6602,6 +7464,9 @@
         <v>0.4873366355895996</v>
       </c>
       <c r="F120" t="n">
+        <v>0.2931787967681885</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.3220047950744629</v>
       </c>
     </row>
@@ -6622,6 +7487,9 @@
         <v>25.65214419364929</v>
       </c>
       <c r="F121" t="n">
+        <v>17.48386740684509</v>
+      </c>
+      <c r="G121" t="n">
         <v>21.50876808166504</v>
       </c>
     </row>
@@ -6642,6 +7510,9 @@
         <v>15.16551184654236</v>
       </c>
       <c r="F122" t="n">
+        <v>36.62357783317566</v>
+      </c>
+      <c r="G122" t="n">
         <v>17.50112342834473</v>
       </c>
     </row>
@@ -6662,6 +7533,9 @@
         <v>45.24987554550171</v>
       </c>
       <c r="F123" t="n">
+        <v>21.24987363815308</v>
+      </c>
+      <c r="G123" t="n">
         <v>20.34866261482239</v>
       </c>
     </row>
@@ -6682,6 +7556,9 @@
         <v>20.95866727828979</v>
       </c>
       <c r="F124" t="n">
+        <v>19.98300719261169</v>
+      </c>
+      <c r="G124" t="n">
         <v>454.3250255584717</v>
       </c>
     </row>
@@ -6702,6 +7579,9 @@
         <v>24.38482999801636</v>
       </c>
       <c r="F125" t="n">
+        <v>17.48420739173889</v>
+      </c>
+      <c r="G125" t="n">
         <v>56.5850236415863</v>
       </c>
     </row>
@@ -6722,6 +7602,9 @@
         <v>22.11539769172668</v>
       </c>
       <c r="F126" t="n">
+        <v>31.70731663703918</v>
+      </c>
+      <c r="G126" t="n">
         <v>73.92324900627136</v>
       </c>
     </row>
@@ -6742,6 +7625,9 @@
         <v>16.29854130744934</v>
       </c>
       <c r="F127" t="n">
+        <v>0.2935292720794678</v>
+      </c>
+      <c r="G127" t="n">
         <v>545.106457233429</v>
       </c>
     </row>
@@ -6762,6 +7648,9 @@
         <v>0.4877209663391113</v>
       </c>
       <c r="F128" t="n">
+        <v>0.2937459945678711</v>
+      </c>
+      <c r="G128" t="n">
         <v>20.34911751747131</v>
       </c>
     </row>
@@ -6782,6 +7671,9 @@
         <v>36.15982723236084</v>
       </c>
       <c r="F129" t="n">
+        <v>151.2575430870056</v>
+      </c>
+      <c r="G129" t="n">
         <v>15.19966745376587</v>
       </c>
     </row>
@@ -6802,6 +7694,9 @@
         <v>0.4879655838012695</v>
       </c>
       <c r="F130" t="n">
+        <v>0.293987512588501</v>
+      </c>
+      <c r="G130" t="n">
         <v>0.3224718570709229</v>
       </c>
     </row>
@@ -6822,6 +7717,9 @@
         <v>25.65266585350037</v>
       </c>
       <c r="F131" t="n">
+        <v>17.48453688621521</v>
+      </c>
+      <c r="G131" t="n">
         <v>21.50934386253357</v>
       </c>
     </row>
@@ -6842,6 +7740,9 @@
         <v>61.39485931396484</v>
       </c>
       <c r="F132" t="n">
+        <v>2117.442972421646</v>
+      </c>
+      <c r="G132" t="n">
         <v>17.50164985656738</v>
       </c>
     </row>
@@ -6862,6 +7763,9 @@
         <v>45.25028681755066</v>
       </c>
       <c r="F133" t="n">
+        <v>21.25045585632324</v>
+      </c>
+      <c r="G133" t="n">
         <v>20.34942770004272</v>
       </c>
     </row>
@@ -6882,6 +7786,9 @@
         <v>107.9015069007874</v>
       </c>
       <c r="F134" t="n">
+        <v>5421.792869091034</v>
+      </c>
+      <c r="G134" t="n">
         <v>10532.47513890266</v>
       </c>
     </row>
@@ -6902,6 +7809,9 @@
         <v>24.3853006362915</v>
       </c>
       <c r="F135" t="n">
+        <v>18.81380844116211</v>
+      </c>
+      <c r="G135" t="n">
         <v>56.58557057380676</v>
       </c>
     </row>
@@ -6922,6 +7832,9 @@
         <v>22.11590886116028</v>
       </c>
       <c r="F136" t="n">
+        <v>392.2038271427155</v>
+      </c>
+      <c r="G136" t="n">
         <v>13564.30748772621</v>
       </c>
     </row>
@@ -6942,6 +7855,9 @@
         <v>16.2990665435791</v>
       </c>
       <c r="F137" t="n">
+        <v>151.2580091953278</v>
+      </c>
+      <c r="G137" t="n">
         <v>13864.72289514542</v>
       </c>
     </row>
@@ -6962,6 +7878,9 @@
         <v>0.4883909225463867</v>
       </c>
       <c r="F138" t="n">
+        <v>0.2943375110626221</v>
+      </c>
+      <c r="G138" t="n">
         <v>20.34975123405457</v>
       </c>
     </row>
@@ -6982,6 +7901,9 @@
         <v>36.16041707992554</v>
       </c>
       <c r="F139" t="n">
+        <v>0.2945518493652344</v>
+      </c>
+      <c r="G139" t="n">
         <v>15.20037889480591</v>
       </c>
     </row>
@@ -7002,6 +7924,9 @@
         <v>0.4887151718139648</v>
       </c>
       <c r="F140" t="n">
+        <v>0.2947578430175781</v>
+      </c>
+      <c r="G140" t="n">
         <v>0.3228919506072998</v>
       </c>
     </row>
@@ -7022,6 +7947,9 @@
         <v>94.16338014602661</v>
       </c>
       <c r="F141" t="n">
+        <v>27.07129716873169</v>
+      </c>
+      <c r="G141" t="n">
         <v>12963.49436283112</v>
       </c>
     </row>
@@ -7036,7 +7964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7107,6 +8035,16 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-17</t>
         </is>
       </c>
@@ -7153,10 +8091,16 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>85.28865385055542</v>
       </c>
     </row>
@@ -7204,6 +8148,12 @@
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -7249,6 +8199,12 @@
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -7294,6 +8250,12 @@
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -7339,6 +8301,12 @@
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -7384,6 +8352,12 @@
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -7437,6 +8411,14 @@
         </is>
       </c>
       <c r="M8" t="n">
+        <v>0.2859938144683838</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>0.3110344409942627</v>
       </c>
     </row>
@@ -7492,6 +8474,14 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>1574.338675022125</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
         <v>0.3112995624542236</v>
       </c>
     </row>
@@ -7547,6 +8537,14 @@
         </is>
       </c>
       <c r="M10" t="n">
+        <v>0.2862575054168701</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
         <v>0.3115518093109131</v>
       </c>
     </row>
@@ -7602,6 +8600,14 @@
         </is>
       </c>
       <c r="M11" t="n">
+        <v>142.6948068141937</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
         <v>0.3117744922637939</v>
       </c>
     </row>
@@ -7647,10 +8653,16 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
         <v>85.28914594650269</v>
       </c>
     </row>
@@ -7698,6 +8710,12 @@
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -7743,6 +8761,12 @@
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -7784,10 +8808,18 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>3619.408561468124</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -7833,6 +8865,12 @@
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -7878,6 +8916,12 @@
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -7931,6 +8975,14 @@
         </is>
       </c>
       <c r="M18" t="n">
+        <v>0.2866506576538086</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
         <v>0.3121459484100342</v>
       </c>
     </row>
@@ -7986,6 +9038,14 @@
         </is>
       </c>
       <c r="M19" t="n">
+        <v>1574.339131116867</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
         <v>0.3124051094055176</v>
       </c>
     </row>
@@ -8041,6 +9101,14 @@
         </is>
       </c>
       <c r="M20" t="n">
+        <v>0.2869060039520264</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
         <v>0.3126590251922607</v>
       </c>
     </row>
@@ -8096,6 +9164,14 @@
         </is>
       </c>
       <c r="M21" t="n">
+        <v>142.6955018043518</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
         <v>0.312891960144043</v>
       </c>
     </row>
@@ -8139,10 +9215,18 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>4520.632216930389</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -8184,10 +9268,18 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>2417.836637020111</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -8231,10 +9323,18 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>6923.866898775101</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -8278,10 +9378,18 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>3619.409148454666</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -8323,10 +9431,16 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
         <v>7527.884927034378</v>
       </c>
     </row>
@@ -8376,6 +9490,12 @@
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -8429,6 +9549,14 @@
         </is>
       </c>
       <c r="M28" t="n">
+        <v>0.287278413772583</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
         <v>0.3132364749908447</v>
       </c>
     </row>
@@ -8484,6 +9612,14 @@
         </is>
       </c>
       <c r="M29" t="n">
+        <v>92.895916223526</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
         <v>0.3134596347808838</v>
       </c>
     </row>
@@ -8539,6 +9675,14 @@
         </is>
       </c>
       <c r="M30" t="n">
+        <v>0.2875502109527588</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
         <v>0.3136937618255615</v>
       </c>
     </row>
@@ -8594,6 +9738,14 @@
         </is>
       </c>
       <c r="M31" t="n">
+        <v>31.7048511505127</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
         <v>0.3139371871948242</v>
       </c>
     </row>
@@ -8641,6 +9793,12 @@
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -8686,6 +9844,12 @@
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -8733,6 +9897,12 @@
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -8780,6 +9950,12 @@
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -8821,10 +9997,16 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
         <v>7527.885731935501</v>
       </c>
     </row>
@@ -8870,10 +10052,16 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
         <v>1153.799431085587</v>
       </c>
     </row>
@@ -8929,6 +10117,14 @@
         </is>
       </c>
       <c r="M38" t="n">
+        <v>0.2879290580749512</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
         <v>0.3143126964569092</v>
       </c>
     </row>
@@ -8984,6 +10180,14 @@
         </is>
       </c>
       <c r="M39" t="n">
+        <v>92.89649438858032</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
         <v>0.3145370483398438</v>
       </c>
     </row>
@@ -9039,6 +10243,14 @@
         </is>
       </c>
       <c r="M40" t="n">
+        <v>0.2881627082824707</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
         <v>0.3147566318511963</v>
       </c>
     </row>
@@ -9094,6 +10306,14 @@
         </is>
       </c>
       <c r="M41" t="n">
+        <v>31.70533013343811</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
         <v>0.3149847984313965</v>
       </c>
     </row>
@@ -9141,6 +10361,12 @@
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -9186,6 +10412,12 @@
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -9231,6 +10463,12 @@
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -9276,6 +10514,12 @@
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -9321,6 +10565,12 @@
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -9366,6 +10616,12 @@
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -9419,6 +10675,14 @@
         </is>
       </c>
       <c r="M48" t="n">
+        <v>0.2885258197784424</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
         <v>0.3153231143951416</v>
       </c>
     </row>
@@ -9464,10 +10728,16 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
         <v>0.315544605255127</v>
       </c>
     </row>
@@ -9523,6 +10793,14 @@
         </is>
       </c>
       <c r="M50" t="n">
+        <v>0.2887647151947021</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
         <v>0.3157632350921631</v>
       </c>
     </row>
@@ -9570,10 +10848,16 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
         <v>0.315993070602417</v>
       </c>
     </row>
@@ -9619,10 +10903,18 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>9627.584949493408</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -9670,6 +10962,12 @@
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -9717,6 +11015,12 @@
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -9764,6 +11068,12 @@
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -9811,6 +11121,12 @@
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -9858,6 +11174,12 @@
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -9911,6 +11233,14 @@
         </is>
       </c>
       <c r="M58" t="n">
+        <v>0.2891149520874023</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
         <v>0.316333532333374</v>
       </c>
     </row>
@@ -9960,10 +11290,16 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
         <v>0.3165769577026367</v>
       </c>
     </row>
@@ -10019,6 +11355,14 @@
         </is>
       </c>
       <c r="M60" t="n">
+        <v>0.2893471717834473</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
         <v>0.3168063163757324</v>
       </c>
     </row>
@@ -10070,10 +11414,16 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
         <v>0.3170275688171387</v>
       </c>
     </row>
@@ -10119,10 +11469,18 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>9627.585594415665</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -10168,10 +11526,18 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>3619.410120248795</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -10219,6 +11585,12 @@
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -10262,10 +11634,18 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>7825.171560525894</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -10313,6 +11693,12 @@
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10360,6 +11746,12 @@
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -10413,6 +11805,14 @@
         </is>
       </c>
       <c r="M68" t="n">
+        <v>0.2897095680236816</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
         <v>0.3173661231994629</v>
       </c>
     </row>
@@ -10468,6 +11868,14 @@
         </is>
       </c>
       <c r="M69" t="n">
+        <v>67.80310392379761</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
         <v>0.3175899982452393</v>
       </c>
     </row>
@@ -10523,6 +11931,14 @@
         </is>
       </c>
       <c r="M70" t="n">
+        <v>0.2899436950683594</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
         <v>0.3178191184997559</v>
       </c>
     </row>
@@ -10578,6 +11994,14 @@
         </is>
       </c>
       <c r="M71" t="n">
+        <v>142.6970613002777</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
         <v>0.3180418014526367</v>
       </c>
     </row>
@@ -10625,10 +12049,18 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>1301.02250289917</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -10678,6 +12110,12 @@
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -10727,6 +12165,12 @@
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -10772,10 +12216,18 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>7825.171985626221</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -10821,10 +12273,18 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>3619.410671472549</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -10870,10 +12330,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>102.7289371490479</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -10927,6 +12395,14 @@
         </is>
       </c>
       <c r="M78" t="n">
+        <v>0.2902991771697998</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
         <v>0.3183803558349609</v>
       </c>
     </row>
@@ -10982,6 +12458,14 @@
         </is>
       </c>
       <c r="M79" t="n">
+        <v>67.80367279052734</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
         <v>0.3186004161834717</v>
       </c>
     </row>
@@ -11037,6 +12521,14 @@
         </is>
       </c>
       <c r="M80" t="n">
+        <v>0.2905416488647461</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
         <v>0.318831205368042</v>
       </c>
     </row>
@@ -11092,6 +12584,14 @@
         </is>
       </c>
       <c r="M81" t="n">
+        <v>96.29518222808838</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
         <v>0.3190546035766602</v>
       </c>
     </row>
@@ -11139,10 +12639,18 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1301.023038864136</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -11190,10 +12698,18 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>3018.621803283691</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -11239,10 +12755,18 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>1058.637485027313</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -11292,6 +12816,14 @@
         </is>
       </c>
       <c r="M85" t="n">
+        <v>937.5459253787994</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
         <v>606.2992749214172</v>
       </c>
     </row>
@@ -11339,10 +12871,18 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>3619.411101341248</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -11390,10 +12930,18 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>102.7296619415283</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -11447,6 +12995,14 @@
         </is>
       </c>
       <c r="M88" t="n">
+        <v>0.2908942699432373</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
         <v>0.3195133209228516</v>
       </c>
     </row>
@@ -11502,6 +13058,14 @@
         </is>
       </c>
       <c r="M89" t="n">
+        <v>37.81364703178406</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
         <v>0.3197429180145264</v>
       </c>
     </row>
@@ -11557,6 +13121,14 @@
         </is>
       </c>
       <c r="M90" t="n">
+        <v>0.2911388874053955</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
         <v>0.3199770450592041</v>
       </c>
     </row>
@@ -11612,6 +13184,14 @@
         </is>
       </c>
       <c r="M91" t="n">
+        <v>29.44138121604919</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
         <v>0.3201994895935059</v>
       </c>
     </row>
@@ -11663,6 +13243,14 @@
         </is>
       </c>
       <c r="M92" t="n">
+        <v>937.5463418960571</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
         <v>7227.489417791367</v>
       </c>
     </row>
@@ -11714,6 +13302,14 @@
         </is>
       </c>
       <c r="M93" t="n">
+        <v>3018.622243404388</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
         <v>12309.42152237892</v>
       </c>
     </row>
@@ -11767,6 +13363,14 @@
         </is>
       </c>
       <c r="M94" t="n">
+        <v>1058.637942790985</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
         <v>484.5295195579529</v>
       </c>
     </row>
@@ -11822,6 +13426,14 @@
         </is>
       </c>
       <c r="M95" t="n">
+        <v>37.81416606903076</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
         <v>4524.048715829849</v>
       </c>
     </row>
@@ -11869,10 +13481,18 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>786.0391237735748</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -11922,10 +13542,18 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>83.70517706871033</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -11979,6 +13607,14 @@
         </is>
       </c>
       <c r="M98" t="n">
+        <v>0.291529655456543</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
         <v>0.3205544948577881</v>
       </c>
     </row>
@@ -12034,6 +13670,14 @@
         </is>
       </c>
       <c r="M99" t="n">
+        <v>37.8145706653595</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
         <v>0.320777416229248</v>
       </c>
     </row>
@@ -12089,6 +13733,14 @@
         </is>
       </c>
       <c r="M100" t="n">
+        <v>0.291773796081543</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
         <v>0.3210086822509766</v>
       </c>
     </row>
@@ -12144,6 +13796,14 @@
         </is>
       </c>
       <c r="M101" t="n">
+        <v>29.44184923171997</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
         <v>0.3212282657623291</v>
       </c>
     </row>
@@ -12193,10 +13853,18 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>937.5467135906219</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -12244,10 +13912,18 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>74.6175856590271</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -12299,6 +13975,14 @@
         </is>
       </c>
       <c r="M104" t="n">
+        <v>392.2026243209839</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
         <v>484.5300431251526</v>
       </c>
     </row>
@@ -12354,6 +14038,14 @@
         </is>
       </c>
       <c r="M105" t="n">
+        <v>58.61105585098267</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O105" t="n">
         <v>4524.049172878265</v>
       </c>
     </row>
@@ -12403,10 +14095,18 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>786.0398147106171</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -12460,6 +14160,14 @@
         </is>
       </c>
       <c r="M107" t="n">
+        <v>83.70563125610352</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
         <v>29.01506066322327</v>
       </c>
     </row>
@@ -12513,6 +14221,14 @@
         </is>
       </c>
       <c r="M108" t="n">
+        <v>0.2921450138092041</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O108" t="n">
         <v>10532.4744386673</v>
       </c>
     </row>
@@ -12568,6 +14284,14 @@
         </is>
       </c>
       <c r="M109" t="n">
+        <v>34.33261013031006</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O109" t="n">
         <v>1729.583037853241</v>
       </c>
     </row>
@@ -12623,6 +14347,14 @@
         </is>
       </c>
       <c r="M110" t="n">
+        <v>0.2923786640167236</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
         <v>0.3216018676757812</v>
       </c>
     </row>
@@ -12676,6 +14408,14 @@
         </is>
       </c>
       <c r="M111" t="n">
+        <v>96.29600405693054</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O111" t="n">
         <v>392.9093477725983</v>
       </c>
     </row>
@@ -12731,6 +14471,14 @@
         </is>
       </c>
       <c r="M112" t="n">
+        <v>36.62301158905029</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O112" t="n">
         <v>63.43694496154785</v>
       </c>
     </row>
@@ -12786,6 +14534,14 @@
         </is>
       </c>
       <c r="M113" t="n">
+        <v>74.61807537078857</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O113" t="n">
         <v>168.7334537506104</v>
       </c>
     </row>
@@ -12841,6 +14597,14 @@
         </is>
       </c>
       <c r="M114" t="n">
+        <v>19.98253917694092</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O114" t="n">
         <v>392.9096970558167</v>
       </c>
     </row>
@@ -12896,6 +14660,14 @@
         </is>
       </c>
       <c r="M115" t="n">
+        <v>392.2031462192535</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O115" t="n">
         <v>38.12303781509399</v>
       </c>
     </row>
@@ -12951,6 +14723,14 @@
         </is>
       </c>
       <c r="M116" t="n">
+        <v>31.70696520805359</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O116" t="n">
         <v>73.92270088195801</v>
       </c>
     </row>
@@ -13006,6 +14786,14 @@
         </is>
       </c>
       <c r="M117" t="n">
+        <v>0.2927210330963135</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O117" t="n">
         <v>29.01555895805359</v>
       </c>
     </row>
@@ -13061,6 +14849,14 @@
         </is>
       </c>
       <c r="M118" t="n">
+        <v>0.2929425239562988</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O118" t="n">
         <v>50.76859855651855</v>
       </c>
     </row>
@@ -13116,6 +14912,14 @@
         </is>
       </c>
       <c r="M119" t="n">
+        <v>34.3331663608551</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
         <v>41.57435822486877</v>
       </c>
     </row>
@@ -13171,6 +14975,14 @@
         </is>
       </c>
       <c r="M120" t="n">
+        <v>0.2931787967681885</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O120" t="n">
         <v>0.3220047950744629</v>
       </c>
     </row>
@@ -13226,6 +15038,14 @@
         </is>
       </c>
       <c r="M121" t="n">
+        <v>17.48386740684509</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O121" t="n">
         <v>21.50876808166504</v>
       </c>
     </row>
@@ -13281,6 +15101,14 @@
         </is>
       </c>
       <c r="M122" t="n">
+        <v>36.62357783317566</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O122" t="n">
         <v>17.50112342834473</v>
       </c>
     </row>
@@ -13336,6 +15164,14 @@
         </is>
       </c>
       <c r="M123" t="n">
+        <v>21.24987363815308</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O123" t="n">
         <v>20.34866261482239</v>
       </c>
     </row>
@@ -13391,6 +15227,14 @@
         </is>
       </c>
       <c r="M124" t="n">
+        <v>19.98300719261169</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O124" t="n">
         <v>454.3250255584717</v>
       </c>
     </row>
@@ -13446,6 +15290,14 @@
         </is>
       </c>
       <c r="M125" t="n">
+        <v>17.48420739173889</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O125" t="n">
         <v>56.5850236415863</v>
       </c>
     </row>
@@ -13501,6 +15353,14 @@
         </is>
       </c>
       <c r="M126" t="n">
+        <v>31.70731663703918</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O126" t="n">
         <v>73.92324900627136</v>
       </c>
     </row>
@@ -13556,6 +15416,14 @@
         </is>
       </c>
       <c r="M127" t="n">
+        <v>0.2935292720794678</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O127" t="n">
         <v>545.106457233429</v>
       </c>
     </row>
@@ -13611,6 +15479,14 @@
         </is>
       </c>
       <c r="M128" t="n">
+        <v>0.2937459945678711</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O128" t="n">
         <v>20.34911751747131</v>
       </c>
     </row>
@@ -13666,6 +15542,14 @@
         </is>
       </c>
       <c r="M129" t="n">
+        <v>151.2575430870056</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O129" t="n">
         <v>15.19966745376587</v>
       </c>
     </row>
@@ -13721,6 +15605,14 @@
         </is>
       </c>
       <c r="M130" t="n">
+        <v>0.293987512588501</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O130" t="n">
         <v>0.3224718570709229</v>
       </c>
     </row>
@@ -13776,6 +15668,14 @@
         </is>
       </c>
       <c r="M131" t="n">
+        <v>17.48453688621521</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O131" t="n">
         <v>21.50934386253357</v>
       </c>
     </row>
@@ -13831,6 +15731,14 @@
         </is>
       </c>
       <c r="M132" t="n">
+        <v>2117.442972421646</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O132" t="n">
         <v>17.50164985656738</v>
       </c>
     </row>
@@ -13886,6 +15794,14 @@
         </is>
       </c>
       <c r="M133" t="n">
+        <v>21.25045585632324</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O133" t="n">
         <v>20.34942770004272</v>
       </c>
     </row>
@@ -13941,6 +15857,14 @@
         </is>
       </c>
       <c r="M134" t="n">
+        <v>5421.792869091034</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O134" t="n">
         <v>10532.47513890266</v>
       </c>
     </row>
@@ -13996,6 +15920,14 @@
         </is>
       </c>
       <c r="M135" t="n">
+        <v>18.81380844116211</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O135" t="n">
         <v>56.58557057380676</v>
       </c>
     </row>
@@ -14051,6 +15983,14 @@
         </is>
       </c>
       <c r="M136" t="n">
+        <v>392.2038271427155</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O136" t="n">
         <v>13564.30748772621</v>
       </c>
     </row>
@@ -14106,6 +16046,14 @@
         </is>
       </c>
       <c r="M137" t="n">
+        <v>151.2580091953278</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O137" t="n">
         <v>13864.72289514542</v>
       </c>
     </row>
@@ -14161,6 +16109,14 @@
         </is>
       </c>
       <c r="M138" t="n">
+        <v>0.2943375110626221</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O138" t="n">
         <v>20.34975123405457</v>
       </c>
     </row>
@@ -14216,6 +16172,14 @@
         </is>
       </c>
       <c r="M139" t="n">
+        <v>0.2945518493652344</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O139" t="n">
         <v>15.20037889480591</v>
       </c>
     </row>
@@ -14271,6 +16235,14 @@
         </is>
       </c>
       <c r="M140" t="n">
+        <v>0.2947578430175781</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O140" t="n">
         <v>0.3228919506072998</v>
       </c>
     </row>
@@ -14326,6 +16298,14 @@
         </is>
       </c>
       <c r="M141" t="n">
+        <v>27.07129716873169</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O141" t="n">
         <v>12963.49436283112</v>
       </c>
     </row>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,10 +468,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>mean_score</t>
         </is>
@@ -497,10 +502,13 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.5</v>
+      <c r="I2" t="n">
+        <v>2.214285714285714</v>
       </c>
     </row>
     <row r="3">
@@ -528,6 +536,9 @@
       <c r="H3" t="n">
         <v>0.5</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -554,6 +565,9 @@
       <c r="H4" t="n">
         <v>0.5</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -580,6 +594,9 @@
       <c r="H5" t="n">
         <v>0.5</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +623,9 @@
       <c r="H6" t="n">
         <v>0.5</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -632,6 +652,9 @@
       <c r="H7" t="n">
         <v>0.5</v>
       </c>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -656,6 +679,9 @@
         <v>-1</v>
       </c>
       <c r="H8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -682,6 +708,9 @@
         <v>-1</v>
       </c>
       <c r="H9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I9" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -708,6 +737,9 @@
         <v>-1</v>
       </c>
       <c r="H10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -734,6 +766,9 @@
         <v>-1</v>
       </c>
       <c r="H11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -757,10 +792,13 @@
         <v>0.5</v>
       </c>
       <c r="G12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.5</v>
+      <c r="I12" t="n">
+        <v>2.214285714285714</v>
       </c>
     </row>
     <row r="13">
@@ -788,6 +826,9 @@
       <c r="H13" t="n">
         <v>0.5</v>
       </c>
+      <c r="I13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -814,6 +855,9 @@
       <c r="H14" t="n">
         <v>0.5</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -838,7 +882,10 @@
         <v>0.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="16">
@@ -866,6 +913,9 @@
       <c r="H16" t="n">
         <v>0.5</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -892,6 +942,9 @@
       <c r="H17" t="n">
         <v>0.5</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -916,6 +969,9 @@
         <v>-1</v>
       </c>
       <c r="H18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -942,6 +998,9 @@
         <v>-1</v>
       </c>
       <c r="H19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -968,6 +1027,9 @@
         <v>-1</v>
       </c>
       <c r="H20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -994,6 +1056,9 @@
         <v>-1</v>
       </c>
       <c r="H21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1020,7 +1085,10 @@
         <v>0.5</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="23">
@@ -1046,7 +1114,10 @@
         <v>0.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="24">
@@ -1072,7 +1143,10 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.357142857142857</v>
       </c>
     </row>
     <row r="25">
@@ -1098,7 +1172,10 @@
         <v>0.5</v>
       </c>
       <c r="H25" t="n">
-        <v>1.333333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.214285714285714</v>
       </c>
     </row>
     <row r="26">
@@ -1121,10 +1198,13 @@
         <v>0.5</v>
       </c>
       <c r="G26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>0.6666666666666666</v>
+      <c r="I26" t="n">
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="27">
@@ -1150,7 +1230,10 @@
         <v>0.5</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="28">
@@ -1176,6 +1259,9 @@
         <v>-1</v>
       </c>
       <c r="H28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1202,6 +1288,9 @@
         <v>-1</v>
       </c>
       <c r="H29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I29" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1228,6 +1317,9 @@
         <v>-1</v>
       </c>
       <c r="H30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1254,6 +1346,9 @@
         <v>-1</v>
       </c>
       <c r="H31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I31" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -1282,6 +1377,9 @@
       <c r="H32" t="n">
         <v>0.5</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1308,6 +1406,9 @@
       <c r="H33" t="n">
         <v>0.5</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1332,7 +1433,10 @@
         <v>0.5</v>
       </c>
       <c r="H34" t="n">
-        <v>1.333333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.214285714285714</v>
       </c>
     </row>
     <row r="35">
@@ -1358,7 +1462,10 @@
         <v>0.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1.166666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.071428571428571</v>
       </c>
     </row>
     <row r="36">
@@ -1381,10 +1488,13 @@
         <v>0.5</v>
       </c>
       <c r="G36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.5</v>
       </c>
-      <c r="H36" t="n">
-        <v>0.6666666666666666</v>
+      <c r="I36" t="n">
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="37">
@@ -1407,10 +1517,13 @@
         <v>0.5</v>
       </c>
       <c r="G37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.5</v>
       </c>
-      <c r="H37" t="n">
-        <v>1.166666666666667</v>
+      <c r="I37" t="n">
+        <v>1.071428571428571</v>
       </c>
     </row>
     <row r="38">
@@ -1436,6 +1549,9 @@
         <v>-1</v>
       </c>
       <c r="H38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1462,6 +1578,9 @@
         <v>-1</v>
       </c>
       <c r="H39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I39" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1488,6 +1607,9 @@
         <v>-1</v>
       </c>
       <c r="H40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1514,6 +1636,9 @@
         <v>-1</v>
       </c>
       <c r="H41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I41" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -1542,6 +1667,9 @@
       <c r="H42" t="n">
         <v>0.5</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1568,6 +1696,9 @@
       <c r="H43" t="n">
         <v>0.5</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1594,6 +1725,9 @@
       <c r="H44" t="n">
         <v>0.5</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1620,6 +1754,9 @@
       <c r="H45" t="n">
         <v>0.5</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1646,6 +1783,9 @@
       <c r="H46" t="n">
         <v>0.5</v>
       </c>
+      <c r="I46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1672,6 +1812,9 @@
       <c r="H47" t="n">
         <v>0.5</v>
       </c>
+      <c r="I47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1696,6 +1839,9 @@
         <v>-1</v>
       </c>
       <c r="H48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1722,6 +1868,9 @@
         <v>-1</v>
       </c>
       <c r="H49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I49" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1748,6 +1897,9 @@
         <v>-1</v>
       </c>
       <c r="H50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1774,6 +1926,9 @@
         <v>-1</v>
       </c>
       <c r="H51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I51" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -1800,7 +1955,10 @@
         <v>0.5</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="53">
@@ -1828,6 +1986,9 @@
       <c r="H53" t="n">
         <v>0.5</v>
       </c>
+      <c r="I53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1854,6 +2015,9 @@
       <c r="H54" t="n">
         <v>0.5</v>
       </c>
+      <c r="I54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1880,6 +2044,9 @@
       <c r="H55" t="n">
         <v>0.5</v>
       </c>
+      <c r="I55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1906,6 +2073,9 @@
       <c r="H56" t="n">
         <v>0.5</v>
       </c>
+      <c r="I56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1932,6 +2102,9 @@
       <c r="H57" t="n">
         <v>0.5</v>
       </c>
+      <c r="I57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1956,6 +2129,9 @@
         <v>-1</v>
       </c>
       <c r="H58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1982,6 +2158,9 @@
         <v>-1</v>
       </c>
       <c r="H59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2008,6 +2187,9 @@
         <v>-1</v>
       </c>
       <c r="H60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2034,6 +2216,9 @@
         <v>-1</v>
       </c>
       <c r="H61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I61" t="n">
         <v>3.25</v>
       </c>
     </row>
@@ -2060,7 +2245,10 @@
         <v>0.5</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="63">
@@ -2086,7 +2274,10 @@
         <v>0.5</v>
       </c>
       <c r="H63" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="64">
@@ -2114,6 +2305,9 @@
       <c r="H64" t="n">
         <v>0.5</v>
       </c>
+      <c r="I64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2138,7 +2332,10 @@
         <v>0.5</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="66">
@@ -2166,6 +2363,9 @@
       <c r="H66" t="n">
         <v>0.5</v>
       </c>
+      <c r="I66" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2192,6 +2392,9 @@
       <c r="H67" t="n">
         <v>0.5</v>
       </c>
+      <c r="I67" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2216,6 +2419,9 @@
         <v>-1</v>
       </c>
       <c r="H68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2242,6 +2448,9 @@
         <v>-1</v>
       </c>
       <c r="H69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I69" t="n">
         <v>4.75</v>
       </c>
     </row>
@@ -2268,6 +2477,9 @@
         <v>-1</v>
       </c>
       <c r="H70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2294,6 +2506,9 @@
         <v>-1</v>
       </c>
       <c r="H71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I71" t="n">
         <v>6.25</v>
       </c>
     </row>
@@ -2320,7 +2535,10 @@
         <v>0.5</v>
       </c>
       <c r="H72" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="73">
@@ -2346,7 +2564,10 @@
         <v>0.5</v>
       </c>
       <c r="H73" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="74">
@@ -2372,7 +2593,10 @@
         <v>0.5</v>
       </c>
       <c r="H74" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="75">
@@ -2398,7 +2622,10 @@
         <v>0.5</v>
       </c>
       <c r="H75" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2424,7 +2651,10 @@
         <v>0.5</v>
       </c>
       <c r="H76" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2450,7 +2680,10 @@
         <v>0.5</v>
       </c>
       <c r="H77" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="78">
@@ -2476,6 +2709,9 @@
         <v>-1</v>
       </c>
       <c r="H78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2502,6 +2738,9 @@
         <v>-1</v>
       </c>
       <c r="H79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I79" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2528,6 +2767,9 @@
         <v>-1</v>
       </c>
       <c r="H80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2554,6 +2796,9 @@
         <v>-1</v>
       </c>
       <c r="H81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2580,7 +2825,10 @@
         <v>0.5</v>
       </c>
       <c r="H82" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="83">
@@ -2606,7 +2854,10 @@
         <v>0.5</v>
       </c>
       <c r="H83" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="84">
@@ -2632,7 +2883,10 @@
         <v>0.5</v>
       </c>
       <c r="H84" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="85">
@@ -2655,10 +2909,13 @@
         <v>3.5</v>
       </c>
       <c r="G85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H85" t="n">
         <v>3.5</v>
       </c>
-      <c r="H85" t="n">
-        <v>2.9</v>
+      <c r="I85" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="86">
@@ -2684,7 +2941,10 @@
         <v>0.5</v>
       </c>
       <c r="H86" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="87">
@@ -2710,7 +2970,10 @@
         <v>0.5</v>
       </c>
       <c r="H87" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="88">
@@ -2736,6 +2999,9 @@
         <v>-1</v>
       </c>
       <c r="H88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2762,6 +3028,9 @@
         <v>-1</v>
       </c>
       <c r="H89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2788,6 +3057,9 @@
         <v>-1</v>
       </c>
       <c r="H90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2814,6 +3086,9 @@
         <v>-1</v>
       </c>
       <c r="H91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I91" t="n">
         <v>6.45</v>
       </c>
     </row>
@@ -2837,10 +3112,13 @@
         <v>3.5</v>
       </c>
       <c r="G92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.5</v>
       </c>
-      <c r="H92" t="n">
-        <v>2.3</v>
+      <c r="I92" t="n">
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="93">
@@ -2866,7 +3144,10 @@
         <v>0.5</v>
       </c>
       <c r="H93" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="94">
@@ -2889,10 +3170,13 @@
         <v>3.5</v>
       </c>
       <c r="G94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H94" t="n">
         <v>4.5</v>
       </c>
-      <c r="H94" t="n">
-        <v>4.1</v>
+      <c r="I94" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="95">
@@ -2915,10 +3199,13 @@
         <v>7.5</v>
       </c>
       <c r="G95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.5</v>
       </c>
-      <c r="H95" t="n">
-        <v>4.1</v>
+      <c r="I95" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="96">
@@ -2944,7 +3231,10 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2970,7 +3260,10 @@
         <v>0.5</v>
       </c>
       <c r="H97" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="98">
@@ -2996,6 +3289,9 @@
         <v>-1</v>
       </c>
       <c r="H98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3022,6 +3318,9 @@
         <v>-1</v>
       </c>
       <c r="H99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I99" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -3048,6 +3347,9 @@
         <v>-1</v>
       </c>
       <c r="H100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3074,6 +3376,9 @@
         <v>-1</v>
       </c>
       <c r="H101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I101" t="n">
         <v>6.7</v>
       </c>
     </row>
@@ -3097,10 +3402,13 @@
         <v>3.5</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.357142857142857</v>
       </c>
     </row>
     <row r="103">
@@ -3126,7 +3434,10 @@
         <v>0.5</v>
       </c>
       <c r="H103" t="n">
-        <v>3.166666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2.785714285714286</v>
       </c>
     </row>
     <row r="104">
@@ -3149,10 +3460,13 @@
         <v>4.5</v>
       </c>
       <c r="G104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H104" t="n">
         <v>4.5</v>
       </c>
-      <c r="H104" t="n">
-        <v>4.833333333333333</v>
+      <c r="I104" t="n">
+        <v>4.214285714285714</v>
       </c>
     </row>
     <row r="105">
@@ -3178,7 +3492,10 @@
         <v>1.5</v>
       </c>
       <c r="H105" t="n">
-        <v>5.333333333333333</v>
+        <v>1.5</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4.785714285714286</v>
       </c>
     </row>
     <row r="106">
@@ -3204,7 +3521,10 @@
         <v>0.5</v>
       </c>
       <c r="H106" t="n">
-        <v>4.166666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.642857142857143</v>
       </c>
     </row>
     <row r="107">
@@ -3227,10 +3547,13 @@
         <v>6.5</v>
       </c>
       <c r="G107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H107" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>6.633333333333333</v>
+      <c r="I107" t="n">
+        <v>5.757142857142857</v>
       </c>
     </row>
     <row r="108">
@@ -3256,7 +3579,10 @@
         <v>1.5</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="109">
@@ -3279,10 +3605,13 @@
         <v>7.5</v>
       </c>
       <c r="G109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H109" t="n">
         <v>3.5</v>
       </c>
-      <c r="H109" t="n">
-        <v>6.133333333333333</v>
+      <c r="I109" t="n">
+        <v>5.471428571428571</v>
       </c>
     </row>
     <row r="110">
@@ -3305,10 +3634,13 @@
         <v>-1</v>
       </c>
       <c r="G110" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="111">
@@ -3331,10 +3663,13 @@
         <v>6.5</v>
       </c>
       <c r="G111" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H111" t="n">
         <v>4.5</v>
       </c>
-      <c r="H111" t="n">
-        <v>4.833333333333333</v>
+      <c r="I111" t="n">
+        <v>4.928571428571429</v>
       </c>
     </row>
     <row r="112">
@@ -3357,10 +3692,13 @@
         <v>7.5</v>
       </c>
       <c r="G112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H112" t="n">
         <v>6.5</v>
       </c>
-      <c r="H112" t="n">
-        <v>7.733333333333334</v>
+      <c r="I112" t="n">
+        <v>6.985714285714287</v>
       </c>
     </row>
     <row r="113">
@@ -3383,10 +3721,13 @@
         <v>6.5</v>
       </c>
       <c r="G113" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H113" t="n">
         <v>5.5</v>
       </c>
-      <c r="H113" t="n">
-        <v>6.8</v>
+      <c r="I113" t="n">
+        <v>7.057142857142857</v>
       </c>
     </row>
     <row r="114">
@@ -3409,10 +3750,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G114" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H114" t="n">
         <v>4.5</v>
       </c>
-      <c r="H114" t="n">
-        <v>7.400000000000001</v>
+      <c r="I114" t="n">
+        <v>7.528571428571429</v>
       </c>
     </row>
     <row r="115">
@@ -3435,10 +3779,13 @@
         <v>4.5</v>
       </c>
       <c r="G115" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H115" t="n">
         <v>7.5</v>
       </c>
-      <c r="H115" t="n">
-        <v>5.666666666666667</v>
+      <c r="I115" t="n">
+        <v>5.785714285714286</v>
       </c>
     </row>
     <row r="116">
@@ -3461,10 +3808,13 @@
         <v>7.5</v>
       </c>
       <c r="G116" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H116" t="n">
         <v>6.5</v>
       </c>
-      <c r="H116" t="n">
-        <v>6</v>
+      <c r="I116" t="n">
+        <v>6.214285714285714</v>
       </c>
     </row>
     <row r="117">
@@ -3487,10 +3837,13 @@
         <v>-1</v>
       </c>
       <c r="G117" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H117" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H117" t="n">
-        <v>6.659999999999999</v>
+      <c r="I117" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="118">
@@ -3513,10 +3866,13 @@
         <v>-1</v>
       </c>
       <c r="G118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H118" t="n">
         <v>7.5</v>
       </c>
-      <c r="H118" t="n">
-        <v>7</v>
+      <c r="I118" t="n">
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="119">
@@ -3539,10 +3895,13 @@
         <v>7.5</v>
       </c>
       <c r="G119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H119" t="n">
         <v>7.5</v>
       </c>
-      <c r="H119" t="n">
-        <v>7.42</v>
+      <c r="I119" t="n">
+        <v>6.433333333333334</v>
       </c>
     </row>
     <row r="120">
@@ -3565,10 +3924,13 @@
         <v>-1</v>
       </c>
       <c r="G120" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="121">
@@ -3591,10 +3953,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G121" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H121" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>8.299999999999999</v>
+      <c r="I121" t="n">
+        <v>7.899999999999999</v>
       </c>
     </row>
     <row r="122">
@@ -3617,10 +3982,13 @@
         <v>7.5</v>
       </c>
       <c r="G122" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H122" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>8.166666666666666</v>
+      <c r="I122" t="n">
+        <v>8.071428571428571</v>
       </c>
     </row>
     <row r="123">
@@ -3643,10 +4011,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G123" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H123" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H123" t="n">
-        <v>8.033333333333333</v>
+      <c r="I123" t="n">
+        <v>8.114285714285716</v>
       </c>
     </row>
     <row r="124">
@@ -3669,10 +4040,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G124" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H124" t="n">
         <v>4.5</v>
       </c>
-      <c r="H124" t="n">
-        <v>7.380000000000001</v>
+      <c r="I124" t="n">
+        <v>7.533333333333334</v>
       </c>
     </row>
     <row r="125">
@@ -3695,10 +4069,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G125" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H125" t="n">
         <v>7.5</v>
       </c>
-      <c r="H125" t="n">
-        <v>7.966666666666666</v>
+      <c r="I125" t="n">
+        <v>7.757142857142857</v>
       </c>
     </row>
     <row r="126">
@@ -3721,10 +4098,13 @@
         <v>7.5</v>
       </c>
       <c r="G126" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H126" t="n">
         <v>6.5</v>
       </c>
-      <c r="H126" t="n">
-        <v>8.066666666666666</v>
+      <c r="I126" t="n">
+        <v>8.157142857142857</v>
       </c>
     </row>
     <row r="127">
@@ -3747,10 +4127,13 @@
         <v>-1</v>
       </c>
       <c r="G127" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H127" t="n">
         <v>4.5</v>
       </c>
-      <c r="H127" t="n">
-        <v>7.380000000000001</v>
+      <c r="I127" t="n">
+        <v>7.533333333333334</v>
       </c>
     </row>
     <row r="128">
@@ -3773,9 +4156,12 @@
         <v>-1</v>
       </c>
       <c r="G128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H128" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H128" t="n">
+      <c r="I128" t="n">
         <v>7.4</v>
       </c>
     </row>
@@ -3799,10 +4185,13 @@
         <v>5.5</v>
       </c>
       <c r="G129" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H129" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>7.166666666666667</v>
+      <c r="I129" t="n">
+        <v>7.071428571428571</v>
       </c>
     </row>
     <row r="130">
@@ -3825,10 +4214,13 @@
         <v>-1</v>
       </c>
       <c r="G130" t="n">
-        <v>-1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="131">
@@ -3851,10 +4243,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G131" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H131" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H131" t="n">
-        <v>8.383333333333333</v>
+      <c r="I131" t="n">
+        <v>7.971428571428571</v>
       </c>
     </row>
     <row r="132">
@@ -3877,10 +4272,13 @@
         <v>2.5</v>
       </c>
       <c r="G132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H132" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H132" t="n">
-        <v>5.600000000000001</v>
+      <c r="I132" t="n">
+        <v>5.871428571428571</v>
       </c>
     </row>
     <row r="133">
@@ -3903,10 +4301,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H133" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H133" t="n">
-        <v>6.900000000000001</v>
+      <c r="I133" t="n">
+        <v>5.985714285714287</v>
       </c>
     </row>
     <row r="134">
@@ -3929,10 +4330,13 @@
         <v>1.5</v>
       </c>
       <c r="G134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.5</v>
       </c>
-      <c r="H134" t="n">
-        <v>3.666666666666667</v>
+      <c r="I134" t="n">
+        <v>3.214285714285714</v>
       </c>
     </row>
     <row r="135">
@@ -3955,10 +4359,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G135" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H135" t="n">
         <v>7.5</v>
       </c>
-      <c r="H135" t="n">
-        <v>7.966666666666666</v>
+      <c r="I135" t="n">
+        <v>7.471428571428571</v>
       </c>
     </row>
     <row r="136">
@@ -3981,10 +4388,13 @@
         <v>4.5</v>
       </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H136" t="n">
-        <v>6.566666666666666</v>
+        <v>0.5</v>
+      </c>
+      <c r="I136" t="n">
+        <v>6.871428571428571</v>
       </c>
     </row>
     <row r="137">
@@ -4007,10 +4417,13 @@
         <v>5.5</v>
       </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H137" t="n">
-        <v>6.400000000000001</v>
+        <v>0.5</v>
+      </c>
+      <c r="I137" t="n">
+        <v>6.671428571428572</v>
       </c>
     </row>
     <row r="138">
@@ -4033,9 +4446,12 @@
         <v>-1</v>
       </c>
       <c r="G138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H138" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H138" t="n">
+      <c r="I138" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -4059,10 +4475,13 @@
         <v>-1</v>
       </c>
       <c r="G139" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H139" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H139" t="n">
-        <v>7.5</v>
+      <c r="I139" t="n">
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="140">
@@ -4085,10 +4504,13 @@
         <v>-1</v>
       </c>
       <c r="G140" t="n">
-        <v>-1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="141">
@@ -4111,10 +4533,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H141" t="n">
-        <v>5.183333333333334</v>
+        <v>0.5</v>
+      </c>
+      <c r="I141" t="n">
+        <v>5.228571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -4128,7 +4553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4169,6 +4594,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-17</t>
         </is>
       </c>
@@ -4200,7 +4630,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>85.28865385055542</v>
       </c>
     </row>
@@ -4238,6 +4673,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4273,6 +4713,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4308,6 +4753,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4343,6 +4793,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4378,6 +4833,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4399,6 +4859,9 @@
         <v>0.2859938144683838</v>
       </c>
       <c r="G8" t="n">
+        <v>0.2425973415374756</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3110344409942627</v>
       </c>
     </row>
@@ -4422,6 +4885,9 @@
         <v>1574.338675022125</v>
       </c>
       <c r="G9" t="n">
+        <v>0.2428357601165771</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3112995624542236</v>
       </c>
     </row>
@@ -4445,6 +4911,9 @@
         <v>0.2862575054168701</v>
       </c>
       <c r="G10" t="n">
+        <v>0.2431895732879639</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3115518093109131</v>
       </c>
     </row>
@@ -4468,6 +4937,9 @@
         <v>142.6948068141937</v>
       </c>
       <c r="G11" t="n">
+        <v>0.2434747219085693</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.3117744922637939</v>
       </c>
     </row>
@@ -4498,7 +4970,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>85.28914594650269</v>
       </c>
     </row>
@@ -4536,6 +5013,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4571,6 +5053,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4604,6 +5091,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -4639,6 +5131,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4674,6 +5171,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4695,6 +5197,9 @@
         <v>0.2866506576538086</v>
       </c>
       <c r="G18" t="n">
+        <v>0.2438995838165283</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.3121459484100342</v>
       </c>
     </row>
@@ -4718,6 +5223,9 @@
         <v>1574.339131116867</v>
       </c>
       <c r="G19" t="n">
+        <v>0.2441244125366211</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.3124051094055176</v>
       </c>
     </row>
@@ -4741,6 +5249,9 @@
         <v>0.2869060039520264</v>
       </c>
       <c r="G20" t="n">
+        <v>0.2443902492523193</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.3126590251922607</v>
       </c>
     </row>
@@ -4764,6 +5275,9 @@
         <v>142.6955018043518</v>
       </c>
       <c r="G21" t="n">
+        <v>0.2446908950805664</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.312891960144043</v>
       </c>
     </row>
@@ -4799,6 +5313,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4832,6 +5351,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4863,6 +5387,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4894,6 +5423,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4924,7 +5458,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>7527.884927034378</v>
       </c>
     </row>
@@ -4960,6 +5499,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4981,6 +5525,9 @@
         <v>0.287278413772583</v>
       </c>
       <c r="G28" t="n">
+        <v>0.2451252937316895</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.3132364749908447</v>
       </c>
     </row>
@@ -5004,6 +5551,9 @@
         <v>92.895916223526</v>
       </c>
       <c r="G29" t="n">
+        <v>0.2454361915588379</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.3134596347808838</v>
       </c>
     </row>
@@ -5027,6 +5577,9 @@
         <v>0.2875502109527588</v>
       </c>
       <c r="G30" t="n">
+        <v>0.2456734180450439</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.3136937618255615</v>
       </c>
     </row>
@@ -5050,6 +5603,9 @@
         <v>31.7048511505127</v>
       </c>
       <c r="G31" t="n">
+        <v>0.2459306716918945</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.3139371871948242</v>
       </c>
     </row>
@@ -5087,6 +5643,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5122,6 +5683,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5155,6 +5721,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5188,6 +5759,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5218,7 +5794,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>7527.885731935501</v>
       </c>
     </row>
@@ -5249,7 +5830,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>1153.799431085587</v>
       </c>
     </row>
@@ -5273,6 +5859,9 @@
         <v>0.2879290580749512</v>
       </c>
       <c r="G38" t="n">
+        <v>0.2463030815124512</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.3143126964569092</v>
       </c>
     </row>
@@ -5296,6 +5885,9 @@
         <v>92.89649438858032</v>
       </c>
       <c r="G39" t="n">
+        <v>0.2467327117919922</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.3145370483398438</v>
       </c>
     </row>
@@ -5319,6 +5911,9 @@
         <v>0.2881627082824707</v>
       </c>
       <c r="G40" t="n">
+        <v>0.2469608783721924</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.3147566318511963</v>
       </c>
     </row>
@@ -5342,6 +5937,9 @@
         <v>31.70533013343811</v>
       </c>
       <c r="G41" t="n">
+        <v>0.2473015785217285</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.3149847984313965</v>
       </c>
     </row>
@@ -5379,6 +5977,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5414,6 +6017,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5449,6 +6057,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5484,6 +6097,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5519,6 +6137,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5554,6 +6177,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5575,6 +6203,9 @@
         <v>0.2885258197784424</v>
       </c>
       <c r="G48" t="n">
+        <v>0.2476944923400879</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.3153231143951416</v>
       </c>
     </row>
@@ -5606,6 +6237,9 @@
         </is>
       </c>
       <c r="G49" t="n">
+        <v>0.2479016780853271</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.315544605255127</v>
       </c>
     </row>
@@ -5629,6 +6263,9 @@
         <v>0.2887647151947021</v>
       </c>
       <c r="G50" t="n">
+        <v>0.2482509613037109</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.3157632350921631</v>
       </c>
     </row>
@@ -5658,6 +6295,9 @@
         </is>
       </c>
       <c r="G51" t="n">
+        <v>0.2485277652740479</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.315993070602417</v>
       </c>
     </row>
@@ -5691,6 +6331,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5724,6 +6369,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5757,6 +6407,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5790,6 +6445,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5823,6 +6483,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5856,6 +6521,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5877,6 +6547,9 @@
         <v>0.2891149520874023</v>
       </c>
       <c r="G58" t="n">
+        <v>0.2489433288574219</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.316333532333374</v>
       </c>
     </row>
@@ -5904,6 +6577,9 @@
         </is>
       </c>
       <c r="G59" t="n">
+        <v>0.2491748332977295</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.3165769577026367</v>
       </c>
     </row>
@@ -5927,6 +6603,9 @@
         <v>0.2893471717834473</v>
       </c>
       <c r="G60" t="n">
+        <v>0.2494485378265381</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.3168063163757324</v>
       </c>
     </row>
@@ -5952,6 +6631,9 @@
         </is>
       </c>
       <c r="G61" t="n">
+        <v>0.2497260570526123</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.3170275688171387</v>
       </c>
     </row>
@@ -5985,6 +6667,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6014,6 +6701,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6047,6 +6739,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6078,6 +6775,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6111,6 +6813,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6144,6 +6851,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6165,6 +6877,9 @@
         <v>0.2897095680236816</v>
       </c>
       <c r="G68" t="n">
+        <v>0.2501823902130127</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.3173661231994629</v>
       </c>
     </row>
@@ -6188,6 +6903,9 @@
         <v>67.80310392379761</v>
       </c>
       <c r="G69" t="n">
+        <v>0.2504763603210449</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.3175899982452393</v>
       </c>
     </row>
@@ -6211,6 +6929,9 @@
         <v>0.2899436950683594</v>
       </c>
       <c r="G70" t="n">
+        <v>0.2506935596466064</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.3178191184997559</v>
       </c>
     </row>
@@ -6234,6 +6955,9 @@
         <v>142.6970613002777</v>
       </c>
       <c r="G71" t="n">
+        <v>0.2508988380432129</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.3180418014526367</v>
       </c>
     </row>
@@ -6265,6 +6989,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6296,6 +7025,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6327,6 +7061,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6356,6 +7095,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6385,6 +7129,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6414,6 +7163,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6435,6 +7189,9 @@
         <v>0.2902991771697998</v>
       </c>
       <c r="G78" t="n">
+        <v>0.2512526512145996</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.3183803558349609</v>
       </c>
     </row>
@@ -6458,6 +7215,9 @@
         <v>67.80367279052734</v>
       </c>
       <c r="G79" t="n">
+        <v>0.2515327930450439</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.3186004161834717</v>
       </c>
     </row>
@@ -6481,6 +7241,9 @@
         <v>0.2905416488647461</v>
       </c>
       <c r="G80" t="n">
+        <v>0.2517576217651367</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.318831205368042</v>
       </c>
     </row>
@@ -6504,6 +7267,9 @@
         <v>96.29518222808838</v>
       </c>
       <c r="G81" t="n">
+        <v>0.2519690990447998</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.3190546035766602</v>
       </c>
     </row>
@@ -6535,6 +7301,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6562,6 +7333,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6591,6 +7367,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6615,7 +7396,12 @@
       <c r="F85" t="n">
         <v>937.5459253787994</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
         <v>606.2992749214172</v>
       </c>
     </row>
@@ -6647,6 +7433,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6674,6 +7465,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6695,6 +7491,9 @@
         <v>0.2908942699432373</v>
       </c>
       <c r="G88" t="n">
+        <v>0.2525191307067871</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.3195133209228516</v>
       </c>
     </row>
@@ -6718,6 +7517,9 @@
         <v>37.81364703178406</v>
       </c>
       <c r="G89" t="n">
+        <v>0.2527885437011719</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.3197429180145264</v>
       </c>
     </row>
@@ -6741,6 +7543,9 @@
         <v>0.2911388874053955</v>
       </c>
       <c r="G90" t="n">
+        <v>0.2530832290649414</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.3199770450592041</v>
       </c>
     </row>
@@ -6764,6 +7569,9 @@
         <v>29.44138121604919</v>
       </c>
       <c r="G91" t="n">
+        <v>0.253345251083374</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.3201994895935059</v>
       </c>
     </row>
@@ -6791,6 +7599,9 @@
         <v>937.5463418960571</v>
       </c>
       <c r="G92" t="n">
+        <v>3326.028279066086</v>
+      </c>
+      <c r="H92" t="n">
         <v>7227.489417791367</v>
       </c>
     </row>
@@ -6817,7 +7628,12 @@
       <c r="F93" t="n">
         <v>3018.622243404388</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
         <v>12309.42152237892</v>
       </c>
     </row>
@@ -6842,7 +7658,12 @@
       <c r="F94" t="n">
         <v>1058.637942790985</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
         <v>484.5295195579529</v>
       </c>
     </row>
@@ -6865,7 +7686,12 @@
       <c r="F95" t="n">
         <v>37.81416606903076</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
         <v>4524.048715829849</v>
       </c>
     </row>
@@ -6897,6 +7723,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6922,6 +7753,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6943,6 +7779,9 @@
         <v>0.291529655456543</v>
       </c>
       <c r="G98" t="n">
+        <v>0.2537009716033936</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.3205544948577881</v>
       </c>
     </row>
@@ -6966,6 +7805,9 @@
         <v>37.8145706653595</v>
       </c>
       <c r="G99" t="n">
+        <v>0.2539138793945312</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.320777416229248</v>
       </c>
     </row>
@@ -6989,6 +7831,9 @@
         <v>0.291773796081543</v>
       </c>
       <c r="G100" t="n">
+        <v>0.2541427612304688</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.3210086822509766</v>
       </c>
     </row>
@@ -7012,6 +7857,9 @@
         <v>29.44184923171997</v>
       </c>
       <c r="G101" t="n">
+        <v>0.2543821334838867</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.3212282657623291</v>
       </c>
     </row>
@@ -7036,7 +7884,10 @@
       <c r="F102" t="n">
         <v>937.5467135906219</v>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G102" t="n">
+        <v>3025.614156961441</v>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7068,6 +7919,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7090,7 +7946,12 @@
       <c r="F104" t="n">
         <v>392.2026243209839</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
         <v>484.5300431251526</v>
       </c>
     </row>
@@ -7114,6 +7975,9 @@
         <v>58.61105585098267</v>
       </c>
       <c r="G105" t="n">
+        <v>9334.138869524002</v>
+      </c>
+      <c r="H105" t="n">
         <v>4524.049172878265</v>
       </c>
     </row>
@@ -7143,6 +8007,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7163,7 +8032,12 @@
       <c r="F107" t="n">
         <v>83.70563125610352</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
         <v>29.01506066322327</v>
       </c>
     </row>
@@ -7189,6 +8063,9 @@
         <v>0.2921450138092041</v>
       </c>
       <c r="G108" t="n">
+        <v>5729.306091547012</v>
+      </c>
+      <c r="H108" t="n">
         <v>10532.4744386673</v>
       </c>
     </row>
@@ -7212,6 +8089,9 @@
         <v>34.33261013031006</v>
       </c>
       <c r="G109" t="n">
+        <v>9334.139220237732</v>
+      </c>
+      <c r="H109" t="n">
         <v>1729.583037853241</v>
       </c>
     </row>
@@ -7234,7 +8114,12 @@
       <c r="F110" t="n">
         <v>0.2923786640167236</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
         <v>0.3216018676757812</v>
       </c>
     </row>
@@ -7260,6 +8145,9 @@
         <v>96.29600405693054</v>
       </c>
       <c r="G111" t="n">
+        <v>219.1100292205811</v>
+      </c>
+      <c r="H111" t="n">
         <v>392.9093477725983</v>
       </c>
     </row>
@@ -7283,6 +8171,9 @@
         <v>36.62301158905029</v>
       </c>
       <c r="G112" t="n">
+        <v>3025.61471581459</v>
+      </c>
+      <c r="H112" t="n">
         <v>63.43694496154785</v>
       </c>
     </row>
@@ -7306,6 +8197,9 @@
         <v>74.61807537078857</v>
       </c>
       <c r="G113" t="n">
+        <v>14.54750967025757</v>
+      </c>
+      <c r="H113" t="n">
         <v>168.7334537506104</v>
       </c>
     </row>
@@ -7329,6 +8223,9 @@
         <v>19.98253917694092</v>
       </c>
       <c r="G114" t="n">
+        <v>20.36714148521423</v>
+      </c>
+      <c r="H114" t="n">
         <v>392.9096970558167</v>
       </c>
     </row>
@@ -7352,6 +8249,9 @@
         <v>392.2031462192535</v>
       </c>
       <c r="G115" t="n">
+        <v>84.522376537323</v>
+      </c>
+      <c r="H115" t="n">
         <v>38.12303781509399</v>
       </c>
     </row>
@@ -7375,6 +8275,9 @@
         <v>31.70696520805359</v>
       </c>
       <c r="G116" t="n">
+        <v>59.48797988891602</v>
+      </c>
+      <c r="H116" t="n">
         <v>73.92270088195801</v>
       </c>
     </row>
@@ -7398,6 +8301,9 @@
         <v>0.2927210330963135</v>
       </c>
       <c r="G117" t="n">
+        <v>59.48833703994751</v>
+      </c>
+      <c r="H117" t="n">
         <v>29.01555895805359</v>
       </c>
     </row>
@@ -7421,6 +8327,9 @@
         <v>0.2929425239562988</v>
       </c>
       <c r="G118" t="n">
+        <v>5729.306501865387</v>
+      </c>
+      <c r="H118" t="n">
         <v>50.76859855651855</v>
       </c>
     </row>
@@ -7444,6 +8353,9 @@
         <v>34.3331663608551</v>
       </c>
       <c r="G119" t="n">
+        <v>9334.139669179916</v>
+      </c>
+      <c r="H119" t="n">
         <v>41.57435822486877</v>
       </c>
     </row>
@@ -7466,7 +8378,12 @@
       <c r="F120" t="n">
         <v>0.2931787967681885</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
         <v>0.3220047950744629</v>
       </c>
     </row>
@@ -7490,6 +8407,9 @@
         <v>17.48386740684509</v>
       </c>
       <c r="G121" t="n">
+        <v>219.110648393631</v>
+      </c>
+      <c r="H121" t="n">
         <v>21.50876808166504</v>
       </c>
     </row>
@@ -7513,6 +8433,9 @@
         <v>36.62357783317566</v>
       </c>
       <c r="G122" t="n">
+        <v>39.85473084449768</v>
+      </c>
+      <c r="H122" t="n">
         <v>17.50112342834473</v>
       </c>
     </row>
@@ -7536,6 +8459,9 @@
         <v>21.24987363815308</v>
       </c>
       <c r="G123" t="n">
+        <v>14.54829001426697</v>
+      </c>
+      <c r="H123" t="n">
         <v>20.34866261482239</v>
       </c>
     </row>
@@ -7559,6 +8485,9 @@
         <v>19.98300719261169</v>
       </c>
       <c r="G124" t="n">
+        <v>20.36783313751221</v>
+      </c>
+      <c r="H124" t="n">
         <v>454.3250255584717</v>
       </c>
     </row>
@@ -7582,6 +8511,9 @@
         <v>17.48420739173889</v>
       </c>
       <c r="G125" t="n">
+        <v>84.52291917800903</v>
+      </c>
+      <c r="H125" t="n">
         <v>56.5850236415863</v>
       </c>
     </row>
@@ -7605,6 +8537,9 @@
         <v>31.70731663703918</v>
       </c>
       <c r="G126" t="n">
+        <v>13.38175630569458</v>
+      </c>
+      <c r="H126" t="n">
         <v>73.92324900627136</v>
       </c>
     </row>
@@ -7628,6 +8563,9 @@
         <v>0.2935292720794678</v>
       </c>
       <c r="G127" t="n">
+        <v>16.86820554733276</v>
+      </c>
+      <c r="H127" t="n">
         <v>545.106457233429</v>
       </c>
     </row>
@@ -7651,6 +8589,9 @@
         <v>0.2937459945678711</v>
       </c>
       <c r="G128" t="n">
+        <v>0.2551817893981934</v>
+      </c>
+      <c r="H128" t="n">
         <v>20.34911751747131</v>
       </c>
     </row>
@@ -7674,6 +8615,9 @@
         <v>151.2575430870056</v>
       </c>
       <c r="G129" t="n">
+        <v>83.38333916664124</v>
+      </c>
+      <c r="H129" t="n">
         <v>15.19966745376587</v>
       </c>
     </row>
@@ -7697,6 +8641,9 @@
         <v>0.293987512588501</v>
       </c>
       <c r="G130" t="n">
+        <v>25.0237500667572</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.3224718570709229</v>
       </c>
     </row>
@@ -7720,6 +8667,9 @@
         <v>17.48453688621521</v>
       </c>
       <c r="G131" t="n">
+        <v>133.2313759326935</v>
+      </c>
+      <c r="H131" t="n">
         <v>21.50934386253357</v>
       </c>
     </row>
@@ -7743,6 +8693,9 @@
         <v>2117.442972421646</v>
       </c>
       <c r="G132" t="n">
+        <v>39.85525155067444</v>
+      </c>
+      <c r="H132" t="n">
         <v>17.50164985656738</v>
       </c>
     </row>
@@ -7765,7 +8718,12 @@
       <c r="F133" t="n">
         <v>21.25045585632324</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
         <v>20.34942770004272</v>
       </c>
     </row>
@@ -7788,7 +8746,12 @@
       <c r="F134" t="n">
         <v>5421.792869091034</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
         <v>10532.47513890266</v>
       </c>
     </row>
@@ -7812,6 +8775,9 @@
         <v>18.81380844116211</v>
       </c>
       <c r="G135" t="n">
+        <v>574.6699085235596</v>
+      </c>
+      <c r="H135" t="n">
         <v>56.58557057380676</v>
       </c>
     </row>
@@ -7835,6 +8801,9 @@
         <v>392.2038271427155</v>
       </c>
       <c r="G136" t="n">
+        <v>13.38233351707458</v>
+      </c>
+      <c r="H136" t="n">
         <v>13564.30748772621</v>
       </c>
     </row>
@@ -7858,6 +8827,9 @@
         <v>151.2580091953278</v>
       </c>
       <c r="G137" t="n">
+        <v>16.86874127388</v>
+      </c>
+      <c r="H137" t="n">
         <v>13864.72289514542</v>
       </c>
     </row>
@@ -7881,6 +8853,9 @@
         <v>0.2943375110626221</v>
       </c>
       <c r="G138" t="n">
+        <v>0.2556257247924805</v>
+      </c>
+      <c r="H138" t="n">
         <v>20.34975123405457</v>
       </c>
     </row>
@@ -7904,6 +8879,9 @@
         <v>0.2945518493652344</v>
       </c>
       <c r="G139" t="n">
+        <v>83.38384914398193</v>
+      </c>
+      <c r="H139" t="n">
         <v>15.20037889480591</v>
       </c>
     </row>
@@ -7927,6 +8905,9 @@
         <v>0.2947578430175781</v>
       </c>
       <c r="G140" t="n">
+        <v>25.02422308921814</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.3228919506072998</v>
       </c>
     </row>
@@ -7950,6 +8931,9 @@
         <v>27.07129716873169</v>
       </c>
       <c r="G141" t="n">
+        <v>133.2318179607391</v>
+      </c>
+      <c r="H141" t="n">
         <v>12963.49436283112</v>
       </c>
     </row>
@@ -7964,7 +8948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8045,6 +9029,16 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-17</t>
         </is>
       </c>
@@ -8097,10 +9091,16 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>85.28865385055542</v>
       </c>
     </row>
@@ -8154,6 +9154,12 @@
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -8205,6 +9211,12 @@
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -8256,6 +9268,12 @@
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -8307,6 +9325,12 @@
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -8358,6 +9382,12 @@
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -8419,6 +9449,14 @@
         </is>
       </c>
       <c r="O8" t="n">
+        <v>0.2425973415374756</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
         <v>0.3110344409942627</v>
       </c>
     </row>
@@ -8482,6 +9520,14 @@
         </is>
       </c>
       <c r="O9" t="n">
+        <v>0.2428357601165771</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>0.3112995624542236</v>
       </c>
     </row>
@@ -8545,6 +9591,14 @@
         </is>
       </c>
       <c r="O10" t="n">
+        <v>0.2431895732879639</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>0.3115518093109131</v>
       </c>
     </row>
@@ -8608,6 +9662,14 @@
         </is>
       </c>
       <c r="O11" t="n">
+        <v>0.2434747219085693</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>0.3117744922637939</v>
       </c>
     </row>
@@ -8659,10 +9721,16 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
         <v>85.28914594650269</v>
       </c>
     </row>
@@ -8716,6 +9784,12 @@
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -8767,6 +9841,12 @@
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -8820,6 +9900,12 @@
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -8871,6 +9957,12 @@
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -8922,6 +10014,12 @@
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -8983,6 +10081,14 @@
         </is>
       </c>
       <c r="O18" t="n">
+        <v>0.2438995838165283</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>0.3121459484100342</v>
       </c>
     </row>
@@ -9046,6 +10152,14 @@
         </is>
       </c>
       <c r="O19" t="n">
+        <v>0.2441244125366211</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
         <v>0.3124051094055176</v>
       </c>
     </row>
@@ -9109,6 +10223,14 @@
         </is>
       </c>
       <c r="O20" t="n">
+        <v>0.2443902492523193</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
         <v>0.3126590251922607</v>
       </c>
     </row>
@@ -9172,6 +10294,14 @@
         </is>
       </c>
       <c r="O21" t="n">
+        <v>0.2446908950805664</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
         <v>0.312891960144043</v>
       </c>
     </row>
@@ -9227,6 +10357,12 @@
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -9280,6 +10416,12 @@
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -9335,6 +10477,12 @@
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -9390,6 +10538,12 @@
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -9437,10 +10591,16 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
         <v>7527.884927034378</v>
       </c>
     </row>
@@ -9496,6 +10656,12 @@
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -9557,6 +10723,14 @@
         </is>
       </c>
       <c r="O28" t="n">
+        <v>0.2451252937316895</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
         <v>0.3132364749908447</v>
       </c>
     </row>
@@ -9620,6 +10794,14 @@
         </is>
       </c>
       <c r="O29" t="n">
+        <v>0.2454361915588379</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
         <v>0.3134596347808838</v>
       </c>
     </row>
@@ -9683,6 +10865,14 @@
         </is>
       </c>
       <c r="O30" t="n">
+        <v>0.2456734180450439</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
         <v>0.3136937618255615</v>
       </c>
     </row>
@@ -9746,6 +10936,14 @@
         </is>
       </c>
       <c r="O31" t="n">
+        <v>0.2459306716918945</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
         <v>0.3139371871948242</v>
       </c>
     </row>
@@ -9799,6 +10997,12 @@
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -9850,6 +11054,12 @@
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -9903,6 +11113,12 @@
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -9956,6 +11172,12 @@
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -10003,10 +11225,16 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
         <v>7527.885731935501</v>
       </c>
     </row>
@@ -10058,10 +11286,16 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
         <v>1153.799431085587</v>
       </c>
     </row>
@@ -10125,6 +11359,14 @@
         </is>
       </c>
       <c r="O38" t="n">
+        <v>0.2463030815124512</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
         <v>0.3143126964569092</v>
       </c>
     </row>
@@ -10188,6 +11430,14 @@
         </is>
       </c>
       <c r="O39" t="n">
+        <v>0.2467327117919922</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
         <v>0.3145370483398438</v>
       </c>
     </row>
@@ -10251,6 +11501,14 @@
         </is>
       </c>
       <c r="O40" t="n">
+        <v>0.2469608783721924</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
         <v>0.3147566318511963</v>
       </c>
     </row>
@@ -10314,6 +11572,14 @@
         </is>
       </c>
       <c r="O41" t="n">
+        <v>0.2473015785217285</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
         <v>0.3149847984313965</v>
       </c>
     </row>
@@ -10367,6 +11633,12 @@
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -10418,6 +11690,12 @@
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -10469,6 +11747,12 @@
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -10520,6 +11804,12 @@
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -10571,6 +11861,12 @@
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -10622,6 +11918,12 @@
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -10683,6 +11985,14 @@
         </is>
       </c>
       <c r="O48" t="n">
+        <v>0.2476944923400879</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
         <v>0.3153231143951416</v>
       </c>
     </row>
@@ -10738,6 +12048,14 @@
         </is>
       </c>
       <c r="O49" t="n">
+        <v>0.2479016780853271</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
         <v>0.315544605255127</v>
       </c>
     </row>
@@ -10801,6 +12119,14 @@
         </is>
       </c>
       <c r="O50" t="n">
+        <v>0.2482509613037109</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
         <v>0.3157632350921631</v>
       </c>
     </row>
@@ -10858,6 +12184,14 @@
         </is>
       </c>
       <c r="O51" t="n">
+        <v>0.2485277652740479</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
         <v>0.315993070602417</v>
       </c>
     </row>
@@ -10915,6 +12249,12 @@
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -10968,6 +12308,12 @@
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -11021,6 +12367,12 @@
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -11074,6 +12426,12 @@
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -11127,6 +12485,12 @@
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -11180,6 +12544,12 @@
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -11241,6 +12611,14 @@
         </is>
       </c>
       <c r="O58" t="n">
+        <v>0.2489433288574219</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
         <v>0.316333532333374</v>
       </c>
     </row>
@@ -11300,6 +12678,14 @@
         </is>
       </c>
       <c r="O59" t="n">
+        <v>0.2491748332977295</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
         <v>0.3165769577026367</v>
       </c>
     </row>
@@ -11363,6 +12749,14 @@
         </is>
       </c>
       <c r="O60" t="n">
+        <v>0.2494485378265381</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
         <v>0.3168063163757324</v>
       </c>
     </row>
@@ -11424,6 +12818,14 @@
         </is>
       </c>
       <c r="O61" t="n">
+        <v>0.2497260570526123</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
         <v>0.3170275688171387</v>
       </c>
     </row>
@@ -11481,6 +12883,12 @@
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -11538,6 +12946,12 @@
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -11591,6 +13005,12 @@
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -11646,6 +13066,12 @@
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -11699,6 +13125,12 @@
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -11752,6 +13184,12 @@
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -11813,6 +13251,14 @@
         </is>
       </c>
       <c r="O68" t="n">
+        <v>0.2501823902130127</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
         <v>0.3173661231994629</v>
       </c>
     </row>
@@ -11876,6 +13322,14 @@
         </is>
       </c>
       <c r="O69" t="n">
+        <v>0.2504763603210449</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
         <v>0.3175899982452393</v>
       </c>
     </row>
@@ -11939,6 +13393,14 @@
         </is>
       </c>
       <c r="O70" t="n">
+        <v>0.2506935596466064</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
         <v>0.3178191184997559</v>
       </c>
     </row>
@@ -12002,6 +13464,14 @@
         </is>
       </c>
       <c r="O71" t="n">
+        <v>0.2508988380432129</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
         <v>0.3180418014526367</v>
       </c>
     </row>
@@ -12061,6 +13531,12 @@
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -12116,6 +13592,12 @@
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -12171,6 +13653,12 @@
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -12228,6 +13716,12 @@
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -12285,6 +13779,12 @@
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -12342,6 +13842,12 @@
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -12403,6 +13909,14 @@
         </is>
       </c>
       <c r="O78" t="n">
+        <v>0.2512526512145996</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
         <v>0.3183803558349609</v>
       </c>
     </row>
@@ -12466,6 +13980,14 @@
         </is>
       </c>
       <c r="O79" t="n">
+        <v>0.2515327930450439</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
         <v>0.3186004161834717</v>
       </c>
     </row>
@@ -12529,6 +14051,14 @@
         </is>
       </c>
       <c r="O80" t="n">
+        <v>0.2517576217651367</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
         <v>0.318831205368042</v>
       </c>
     </row>
@@ -12592,6 +14122,14 @@
         </is>
       </c>
       <c r="O81" t="n">
+        <v>0.2519690990447998</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
         <v>0.3190546035766602</v>
       </c>
     </row>
@@ -12651,6 +14189,12 @@
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -12710,6 +14254,12 @@
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -12767,6 +14317,12 @@
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -12820,10 +14376,16 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O85" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
         <v>606.2992749214172</v>
       </c>
     </row>
@@ -12883,6 +14445,12 @@
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -12942,6 +14510,12 @@
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -13003,6 +14577,14 @@
         </is>
       </c>
       <c r="O88" t="n">
+        <v>0.2525191307067871</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
         <v>0.3195133209228516</v>
       </c>
     </row>
@@ -13066,6 +14648,14 @@
         </is>
       </c>
       <c r="O89" t="n">
+        <v>0.2527885437011719</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
         <v>0.3197429180145264</v>
       </c>
     </row>
@@ -13129,6 +14719,14 @@
         </is>
       </c>
       <c r="O90" t="n">
+        <v>0.2530832290649414</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
         <v>0.3199770450592041</v>
       </c>
     </row>
@@ -13192,6 +14790,14 @@
         </is>
       </c>
       <c r="O91" t="n">
+        <v>0.253345251083374</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
         <v>0.3201994895935059</v>
       </c>
     </row>
@@ -13251,6 +14857,14 @@
         </is>
       </c>
       <c r="O92" t="n">
+        <v>3326.028279066086</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
         <v>7227.489417791367</v>
       </c>
     </row>
@@ -13306,10 +14920,16 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O93" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
         <v>12309.42152237892</v>
       </c>
     </row>
@@ -13367,10 +14987,16 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O94" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
         <v>484.5295195579529</v>
       </c>
     </row>
@@ -13430,10 +15056,16 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O95" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
         <v>4524.048715829849</v>
       </c>
     </row>
@@ -13493,6 +15125,12 @@
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -13554,6 +15192,12 @@
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -13615,6 +15259,14 @@
         </is>
       </c>
       <c r="O98" t="n">
+        <v>0.2537009716033936</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
         <v>0.3205544948577881</v>
       </c>
     </row>
@@ -13678,6 +15330,14 @@
         </is>
       </c>
       <c r="O99" t="n">
+        <v>0.2539138793945312</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
         <v>0.320777416229248</v>
       </c>
     </row>
@@ -13741,6 +15401,14 @@
         </is>
       </c>
       <c r="O100" t="n">
+        <v>0.2541427612304688</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
         <v>0.3210086822509766</v>
       </c>
     </row>
@@ -13804,6 +15472,14 @@
         </is>
       </c>
       <c r="O101" t="n">
+        <v>0.2543821334838867</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
         <v>0.3212282657623291</v>
       </c>
     </row>
@@ -13861,10 +15537,18 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
+        <v>3025.614156961441</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -13924,6 +15608,12 @@
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -13979,10 +15669,16 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O104" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
         <v>484.5300431251526</v>
       </c>
     </row>
@@ -14046,6 +15742,14 @@
         </is>
       </c>
       <c r="O105" t="n">
+        <v>9334.138869524002</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
         <v>4524.049172878265</v>
       </c>
     </row>
@@ -14107,6 +15811,12 @@
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -14164,10 +15874,16 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O107" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
         <v>29.01506066322327</v>
       </c>
     </row>
@@ -14229,6 +15945,14 @@
         </is>
       </c>
       <c r="O108" t="n">
+        <v>5729.306091547012</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
         <v>10532.4744386673</v>
       </c>
     </row>
@@ -14292,6 +16016,14 @@
         </is>
       </c>
       <c r="O109" t="n">
+        <v>9334.139220237732</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
         <v>1729.583037853241</v>
       </c>
     </row>
@@ -14351,10 +16083,16 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O110" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
         <v>0.3216018676757812</v>
       </c>
     </row>
@@ -14416,6 +16154,14 @@
         </is>
       </c>
       <c r="O111" t="n">
+        <v>219.1100292205811</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
         <v>392.9093477725983</v>
       </c>
     </row>
@@ -14479,6 +16225,14 @@
         </is>
       </c>
       <c r="O112" t="n">
+        <v>3025.61471581459</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
         <v>63.43694496154785</v>
       </c>
     </row>
@@ -14542,6 +16296,14 @@
         </is>
       </c>
       <c r="O113" t="n">
+        <v>14.54750967025757</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
         <v>168.7334537506104</v>
       </c>
     </row>
@@ -14605,6 +16367,14 @@
         </is>
       </c>
       <c r="O114" t="n">
+        <v>20.36714148521423</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
         <v>392.9096970558167</v>
       </c>
     </row>
@@ -14668,6 +16438,14 @@
         </is>
       </c>
       <c r="O115" t="n">
+        <v>84.522376537323</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
         <v>38.12303781509399</v>
       </c>
     </row>
@@ -14731,6 +16509,14 @@
         </is>
       </c>
       <c r="O116" t="n">
+        <v>59.48797988891602</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
         <v>73.92270088195801</v>
       </c>
     </row>
@@ -14794,6 +16580,14 @@
         </is>
       </c>
       <c r="O117" t="n">
+        <v>59.48833703994751</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
         <v>29.01555895805359</v>
       </c>
     </row>
@@ -14857,6 +16651,14 @@
         </is>
       </c>
       <c r="O118" t="n">
+        <v>5729.306501865387</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
         <v>50.76859855651855</v>
       </c>
     </row>
@@ -14920,6 +16722,14 @@
         </is>
       </c>
       <c r="O119" t="n">
+        <v>9334.139669179916</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
         <v>41.57435822486877</v>
       </c>
     </row>
@@ -14979,10 +16789,16 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O120" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
         <v>0.3220047950744629</v>
       </c>
     </row>
@@ -15046,6 +16862,14 @@
         </is>
       </c>
       <c r="O121" t="n">
+        <v>219.110648393631</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
         <v>21.50876808166504</v>
       </c>
     </row>
@@ -15109,6 +16933,14 @@
         </is>
       </c>
       <c r="O122" t="n">
+        <v>39.85473084449768</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
         <v>17.50112342834473</v>
       </c>
     </row>
@@ -15172,6 +17004,14 @@
         </is>
       </c>
       <c r="O123" t="n">
+        <v>14.54829001426697</v>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
         <v>20.34866261482239</v>
       </c>
     </row>
@@ -15235,6 +17075,14 @@
         </is>
       </c>
       <c r="O124" t="n">
+        <v>20.36783313751221</v>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
         <v>454.3250255584717</v>
       </c>
     </row>
@@ -15298,6 +17146,14 @@
         </is>
       </c>
       <c r="O125" t="n">
+        <v>84.52291917800903</v>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
         <v>56.5850236415863</v>
       </c>
     </row>
@@ -15361,6 +17217,14 @@
         </is>
       </c>
       <c r="O126" t="n">
+        <v>13.38175630569458</v>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
         <v>73.92324900627136</v>
       </c>
     </row>
@@ -15424,6 +17288,14 @@
         </is>
       </c>
       <c r="O127" t="n">
+        <v>16.86820554733276</v>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
         <v>545.106457233429</v>
       </c>
     </row>
@@ -15487,6 +17359,14 @@
         </is>
       </c>
       <c r="O128" t="n">
+        <v>0.2551817893981934</v>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
         <v>20.34911751747131</v>
       </c>
     </row>
@@ -15550,6 +17430,14 @@
         </is>
       </c>
       <c r="O129" t="n">
+        <v>83.38333916664124</v>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
         <v>15.19966745376587</v>
       </c>
     </row>
@@ -15613,6 +17501,14 @@
         </is>
       </c>
       <c r="O130" t="n">
+        <v>25.0237500667572</v>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
         <v>0.3224718570709229</v>
       </c>
     </row>
@@ -15676,6 +17572,14 @@
         </is>
       </c>
       <c r="O131" t="n">
+        <v>133.2313759326935</v>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
         <v>21.50934386253357</v>
       </c>
     </row>
@@ -15739,6 +17643,14 @@
         </is>
       </c>
       <c r="O132" t="n">
+        <v>39.85525155067444</v>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
         <v>17.50164985656738</v>
       </c>
     </row>
@@ -15798,10 +17710,16 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O133" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
         <v>20.34942770004272</v>
       </c>
     </row>
@@ -15861,10 +17779,16 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O134" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
         <v>10532.47513890266</v>
       </c>
     </row>
@@ -15928,6 +17852,14 @@
         </is>
       </c>
       <c r="O135" t="n">
+        <v>574.6699085235596</v>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
         <v>56.58557057380676</v>
       </c>
     </row>
@@ -15991,6 +17923,14 @@
         </is>
       </c>
       <c r="O136" t="n">
+        <v>13.38233351707458</v>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
         <v>13564.30748772621</v>
       </c>
     </row>
@@ -16054,6 +17994,14 @@
         </is>
       </c>
       <c r="O137" t="n">
+        <v>16.86874127388</v>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
         <v>13864.72289514542</v>
       </c>
     </row>
@@ -16117,6 +18065,14 @@
         </is>
       </c>
       <c r="O138" t="n">
+        <v>0.2556257247924805</v>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
         <v>20.34975123405457</v>
       </c>
     </row>
@@ -16180,6 +18136,14 @@
         </is>
       </c>
       <c r="O139" t="n">
+        <v>83.38384914398193</v>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
         <v>15.20037889480591</v>
       </c>
     </row>
@@ -16243,6 +18207,14 @@
         </is>
       </c>
       <c r="O140" t="n">
+        <v>25.02422308921814</v>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
         <v>0.3228919506072998</v>
       </c>
     </row>
@@ -16306,6 +18278,14 @@
         </is>
       </c>
       <c r="O141" t="n">
+        <v>133.2318179607391</v>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
         <v>12963.49436283112</v>
       </c>
     </row>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,15 +468,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>mean_score</t>
         </is>
@@ -505,10 +510,13 @@
         <v>0.5</v>
       </c>
       <c r="H2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" t="n">
         <v>6.5</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.214285714285714</v>
+      <c r="J2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -539,6 +547,9 @@
       <c r="I3" t="n">
         <v>0.5</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -568,6 +579,9 @@
       <c r="I4" t="n">
         <v>0.5</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -597,6 +611,9 @@
       <c r="I5" t="n">
         <v>0.5</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -626,6 +643,9 @@
       <c r="I6" t="n">
         <v>0.5</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -655,6 +675,9 @@
       <c r="I7" t="n">
         <v>0.5</v>
       </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -682,6 +705,9 @@
         <v>-1</v>
       </c>
       <c r="I8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -711,6 +737,9 @@
         <v>-1</v>
       </c>
       <c r="I9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -740,6 +769,9 @@
         <v>-1</v>
       </c>
       <c r="I10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -769,6 +801,9 @@
         <v>-1</v>
       </c>
       <c r="I11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -795,10 +830,13 @@
         <v>0.5</v>
       </c>
       <c r="H12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I12" t="n">
         <v>6.5</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.214285714285714</v>
+      <c r="J12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -829,6 +867,9 @@
       <c r="I13" t="n">
         <v>0.5</v>
       </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -858,6 +899,9 @@
       <c r="I14" t="n">
         <v>0.5</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -885,7 +929,10 @@
         <v>0.5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.625</v>
       </c>
     </row>
     <row r="16">
@@ -916,6 +963,9 @@
       <c r="I16" t="n">
         <v>0.5</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -945,6 +995,9 @@
       <c r="I17" t="n">
         <v>0.5</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -972,6 +1025,9 @@
         <v>-1</v>
       </c>
       <c r="I18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1001,6 +1057,9 @@
         <v>-1</v>
       </c>
       <c r="I19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1030,6 +1089,9 @@
         <v>-1</v>
       </c>
       <c r="I20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1059,6 +1121,9 @@
         <v>-1</v>
       </c>
       <c r="I21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1088,7 +1153,10 @@
         <v>0.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.625</v>
       </c>
     </row>
     <row r="23">
@@ -1117,7 +1185,10 @@
         <v>0.5</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="24">
@@ -1146,7 +1217,10 @@
         <v>0.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.357142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="25">
@@ -1175,7 +1249,10 @@
         <v>0.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.214285714285714</v>
+        <v>0.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.125</v>
       </c>
     </row>
     <row r="26">
@@ -1201,10 +1278,13 @@
         <v>0.5</v>
       </c>
       <c r="H26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I26" t="n">
         <v>1.5</v>
       </c>
-      <c r="I26" t="n">
-        <v>0.6428571428571429</v>
+      <c r="J26" t="n">
+        <v>0.625</v>
       </c>
     </row>
     <row r="27">
@@ -1227,13 +1307,16 @@
         <v>0.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
         <v>0.5</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1262,6 +1345,9 @@
         <v>-1</v>
       </c>
       <c r="I28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1291,6 +1377,9 @@
         <v>-1</v>
       </c>
       <c r="I29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J29" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1320,6 +1409,9 @@
         <v>-1</v>
       </c>
       <c r="I30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1349,6 +1441,9 @@
         <v>-1</v>
       </c>
       <c r="I31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J31" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -1380,6 +1475,9 @@
       <c r="I32" t="n">
         <v>0.5</v>
       </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1409,6 +1507,9 @@
       <c r="I33" t="n">
         <v>0.5</v>
       </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1436,7 +1537,10 @@
         <v>0.5</v>
       </c>
       <c r="I34" t="n">
-        <v>1.214285714285714</v>
+        <v>0.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.125</v>
       </c>
     </row>
     <row r="35">
@@ -1465,7 +1569,10 @@
         <v>0.5</v>
       </c>
       <c r="I35" t="n">
-        <v>1.071428571428571</v>
+        <v>0.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1491,10 +1598,13 @@
         <v>0.5</v>
       </c>
       <c r="H36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I36" t="n">
         <v>1.5</v>
       </c>
-      <c r="I36" t="n">
-        <v>0.6428571428571429</v>
+      <c r="J36" t="n">
+        <v>0.625</v>
       </c>
     </row>
     <row r="37">
@@ -1517,13 +1627,16 @@
         <v>0.5</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I37" t="n">
         <v>3.5</v>
       </c>
-      <c r="I37" t="n">
-        <v>1.071428571428571</v>
+      <c r="J37" t="n">
+        <v>1.375</v>
       </c>
     </row>
     <row r="38">
@@ -1552,6 +1665,9 @@
         <v>-1</v>
       </c>
       <c r="I38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,6 +1697,9 @@
         <v>-1</v>
       </c>
       <c r="I39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J39" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1610,6 +1729,9 @@
         <v>-1</v>
       </c>
       <c r="I40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1639,6 +1761,9 @@
         <v>-1</v>
       </c>
       <c r="I41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J41" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -1662,12 +1787,15 @@
         <v>0.5</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H42" t="n">
         <v>0.5</v>
       </c>
       <c r="I42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J42" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1691,12 +1819,15 @@
         <v>0.5</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H43" t="n">
         <v>0.5</v>
       </c>
       <c r="I43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1720,12 +1851,15 @@
         <v>0.5</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H44" t="n">
         <v>0.5</v>
       </c>
       <c r="I44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J44" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1749,12 +1883,15 @@
         <v>0.5</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H45" t="n">
         <v>0.5</v>
       </c>
       <c r="I45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J45" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1778,12 +1915,15 @@
         <v>0.5</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H46" t="n">
         <v>0.5</v>
       </c>
       <c r="I46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1807,12 +1947,15 @@
         <v>0.5</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H47" t="n">
         <v>0.5</v>
       </c>
       <c r="I47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J47" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1842,6 +1985,9 @@
         <v>-1</v>
       </c>
       <c r="I48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1871,6 +2017,9 @@
         <v>-1</v>
       </c>
       <c r="I49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J49" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1900,6 +2049,9 @@
         <v>-1</v>
       </c>
       <c r="I50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1929,6 +2081,9 @@
         <v>-1</v>
       </c>
       <c r="I51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J51" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -1952,12 +2107,15 @@
         <v>1.5</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H52" t="n">
         <v>0.5</v>
       </c>
       <c r="I52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J52" t="n">
         <v>0.6666666666666666</v>
       </c>
     </row>
@@ -1981,12 +2139,15 @@
         <v>0.5</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H53" t="n">
         <v>0.5</v>
       </c>
       <c r="I53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J53" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2010,12 +2171,15 @@
         <v>0.5</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H54" t="n">
         <v>0.5</v>
       </c>
       <c r="I54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J54" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2039,12 +2203,15 @@
         <v>0.5</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H55" t="n">
         <v>0.5</v>
       </c>
       <c r="I55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J55" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2068,12 +2235,15 @@
         <v>0.5</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H56" t="n">
         <v>0.5</v>
       </c>
       <c r="I56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2097,12 +2267,15 @@
         <v>0.5</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H57" t="n">
         <v>0.5</v>
       </c>
       <c r="I57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J57" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2132,6 +2305,9 @@
         <v>-1</v>
       </c>
       <c r="I58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2161,6 +2337,9 @@
         <v>-1</v>
       </c>
       <c r="I59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2190,6 +2369,9 @@
         <v>-1</v>
       </c>
       <c r="I60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2219,6 +2401,9 @@
         <v>-1</v>
       </c>
       <c r="I61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J61" t="n">
         <v>3.25</v>
       </c>
     </row>
@@ -2242,12 +2427,15 @@
         <v>1.5</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H62" t="n">
         <v>0.5</v>
       </c>
       <c r="I62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J62" t="n">
         <v>0.6666666666666666</v>
       </c>
     </row>
@@ -2271,12 +2459,15 @@
         <v>1.5</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H63" t="n">
         <v>0.5</v>
       </c>
       <c r="I63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J63" t="n">
         <v>1.833333333333333</v>
       </c>
     </row>
@@ -2300,12 +2491,15 @@
         <v>0.5</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H64" t="n">
         <v>0.5</v>
       </c>
       <c r="I64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J64" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2329,12 +2523,15 @@
         <v>1.5</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H65" t="n">
         <v>0.5</v>
       </c>
       <c r="I65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J65" t="n">
         <v>0.6666666666666666</v>
       </c>
     </row>
@@ -2358,12 +2555,15 @@
         <v>0.5</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H66" t="n">
         <v>0.5</v>
       </c>
       <c r="I66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J66" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2387,12 +2587,15 @@
         <v>0.5</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H67" t="n">
         <v>0.5</v>
       </c>
       <c r="I67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J67" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2422,6 +2625,9 @@
         <v>-1</v>
       </c>
       <c r="I68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2451,6 +2657,9 @@
         <v>-1</v>
       </c>
       <c r="I69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J69" t="n">
         <v>4.75</v>
       </c>
     </row>
@@ -2480,6 +2689,9 @@
         <v>-1</v>
       </c>
       <c r="I70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2509,6 +2721,9 @@
         <v>-1</v>
       </c>
       <c r="I71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J71" t="n">
         <v>6.25</v>
       </c>
     </row>
@@ -2532,12 +2747,15 @@
         <v>3.5</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H72" t="n">
         <v>0.5</v>
       </c>
       <c r="I72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J72" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2561,12 +2779,15 @@
         <v>0.5</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H73" t="n">
         <v>0.5</v>
       </c>
       <c r="I73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J73" t="n">
         <v>1.666666666666667</v>
       </c>
     </row>
@@ -2590,12 +2811,15 @@
         <v>0.5</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H74" t="n">
         <v>0.5</v>
       </c>
       <c r="I74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J74" t="n">
         <v>1.333333333333333</v>
       </c>
     </row>
@@ -2619,12 +2843,15 @@
         <v>1.5</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H75" t="n">
         <v>0.5</v>
       </c>
       <c r="I75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2648,12 +2875,15 @@
         <v>1.5</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H76" t="n">
         <v>0.5</v>
       </c>
       <c r="I76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2677,12 +2907,15 @@
         <v>6.5</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H77" t="n">
         <v>0.5</v>
       </c>
       <c r="I77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J77" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -2712,6 +2945,9 @@
         <v>-1</v>
       </c>
       <c r="I78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2741,6 +2977,9 @@
         <v>-1</v>
       </c>
       <c r="I79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J79" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2770,6 +3009,9 @@
         <v>-1</v>
       </c>
       <c r="I80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2799,6 +3041,9 @@
         <v>-1</v>
       </c>
       <c r="I81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2822,12 +3067,15 @@
         <v>3.5</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H82" t="n">
         <v>0.5</v>
       </c>
       <c r="I82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J82" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2851,12 +3099,15 @@
         <v>2.5</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H83" t="n">
         <v>0.5</v>
       </c>
       <c r="I83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J83" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2880,12 +3131,15 @@
         <v>3.5</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H84" t="n">
         <v>0.5</v>
       </c>
       <c r="I84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J84" t="n">
         <v>1.833333333333333</v>
       </c>
     </row>
@@ -2909,12 +3163,15 @@
         <v>3.5</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I85" t="n">
         <v>3.5</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -2938,12 +3195,15 @@
         <v>1.5</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H86" t="n">
         <v>0.5</v>
       </c>
       <c r="I86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J86" t="n">
         <v>1.666666666666667</v>
       </c>
     </row>
@@ -2967,12 +3227,15 @@
         <v>6.5</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H87" t="n">
         <v>0.5</v>
       </c>
       <c r="I87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J87" t="n">
         <v>2.666666666666667</v>
       </c>
     </row>
@@ -3002,6 +3265,9 @@
         <v>-1</v>
       </c>
       <c r="I88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3031,6 +3297,9 @@
         <v>-1</v>
       </c>
       <c r="I89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3060,6 +3329,9 @@
         <v>-1</v>
       </c>
       <c r="I90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,6 +3361,9 @@
         <v>-1</v>
       </c>
       <c r="I91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J91" t="n">
         <v>6.45</v>
       </c>
     </row>
@@ -3112,12 +3387,15 @@
         <v>3.5</v>
       </c>
       <c r="G92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H92" t="n">
         <v>2.5</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>1.5</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>2.333333333333333</v>
       </c>
     </row>
@@ -3141,12 +3419,15 @@
         <v>2.5</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H93" t="n">
         <v>0.5</v>
       </c>
       <c r="I93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J93" t="n">
         <v>1.833333333333333</v>
       </c>
     </row>
@@ -3170,12 +3451,15 @@
         <v>3.5</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I94" t="n">
         <v>4.5</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -3199,12 +3483,15 @@
         <v>7.5</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I95" t="n">
         <v>1.5</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -3228,12 +3515,15 @@
         <v>3.5</v>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H96" t="n">
         <v>0.5</v>
       </c>
       <c r="I96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J96" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3257,12 +3547,15 @@
         <v>6.5</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H97" t="n">
         <v>0.5</v>
       </c>
       <c r="I97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J97" t="n">
         <v>2.666666666666667</v>
       </c>
     </row>
@@ -3292,6 +3585,9 @@
         <v>-1</v>
       </c>
       <c r="I98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3321,6 +3617,9 @@
         <v>-1</v>
       </c>
       <c r="I99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J99" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -3350,6 +3649,9 @@
         <v>-1</v>
       </c>
       <c r="I100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3379,6 +3681,9 @@
         <v>-1</v>
       </c>
       <c r="I101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J101" t="n">
         <v>6.7</v>
       </c>
     </row>
@@ -3402,13 +3707,16 @@
         <v>3.5</v>
       </c>
       <c r="G102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H102" t="n">
         <v>2.5</v>
       </c>
-      <c r="H102" t="n">
-        <v>0.5</v>
-      </c>
       <c r="I102" t="n">
-        <v>3.357142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -3431,13 +3739,16 @@
         <v>6.5</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0.5</v>
       </c>
       <c r="I103" t="n">
-        <v>2.785714285714286</v>
+        <v>0.5</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.625</v>
       </c>
     </row>
     <row r="104">
@@ -3463,10 +3774,13 @@
         <v>0.5</v>
       </c>
       <c r="H104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I104" t="n">
         <v>4.5</v>
       </c>
-      <c r="I104" t="n">
-        <v>4.214285714285714</v>
+      <c r="J104" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="105">
@@ -3489,13 +3803,16 @@
         <v>7.5</v>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>1.5</v>
       </c>
       <c r="I105" t="n">
-        <v>4.785714285714286</v>
+        <v>1.5</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="106">
@@ -3518,13 +3835,16 @@
         <v>3.5</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H106" t="n">
         <v>0.5</v>
       </c>
       <c r="I106" t="n">
-        <v>3.642857142857143</v>
+        <v>0.5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="107">
@@ -3547,13 +3867,16 @@
         <v>6.5</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I107" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I107" t="n">
-        <v>5.757142857142857</v>
+      <c r="J107" t="n">
+        <v>5.225</v>
       </c>
     </row>
     <row r="108">
@@ -3576,13 +3899,16 @@
         <v>-1</v>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H108" t="n">
         <v>1.5</v>
       </c>
       <c r="I108" t="n">
-        <v>1.166666666666667</v>
+        <v>1.5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="109">
@@ -3608,10 +3934,13 @@
         <v>1.5</v>
       </c>
       <c r="H109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I109" t="n">
         <v>3.5</v>
       </c>
-      <c r="I109" t="n">
-        <v>5.471428571428571</v>
+      <c r="J109" t="n">
+        <v>4.975</v>
       </c>
     </row>
     <row r="110">
@@ -3634,13 +3963,16 @@
         <v>-1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H110" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I110" t="n">
-        <v>0.5</v>
+        <v>-1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -3663,13 +3995,16 @@
         <v>6.5</v>
       </c>
       <c r="G111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H111" t="n">
         <v>5.5</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>4.5</v>
       </c>
-      <c r="I111" t="n">
-        <v>4.928571428571429</v>
+      <c r="J111" t="n">
+        <v>4.375</v>
       </c>
     </row>
     <row r="112">
@@ -3692,13 +4027,16 @@
         <v>7.5</v>
       </c>
       <c r="G112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H112" t="n">
         <v>2.5</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>6.5</v>
       </c>
-      <c r="I112" t="n">
-        <v>6.985714285714287</v>
+      <c r="J112" t="n">
+        <v>6.175000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -3721,13 +4059,16 @@
         <v>6.5</v>
       </c>
       <c r="G113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H113" t="n">
         <v>8.6</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>5.5</v>
       </c>
-      <c r="I113" t="n">
-        <v>7.057142857142857</v>
+      <c r="J113" t="n">
+        <v>6.362500000000001</v>
       </c>
     </row>
     <row r="114">
@@ -3750,13 +4091,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G114" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H114" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>4.5</v>
       </c>
-      <c r="I114" t="n">
-        <v>7.528571428571429</v>
+      <c r="J114" t="n">
+        <v>7.525</v>
       </c>
     </row>
     <row r="115">
@@ -3779,13 +4123,16 @@
         <v>4.5</v>
       </c>
       <c r="G115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H115" t="n">
         <v>6.5</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>7.5</v>
       </c>
-      <c r="I115" t="n">
-        <v>5.785714285714286</v>
+      <c r="J115" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -3808,13 +4155,16 @@
         <v>7.5</v>
       </c>
       <c r="G116" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H116" t="n">
         <v>7.5</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>6.5</v>
       </c>
-      <c r="I116" t="n">
-        <v>6.214285714285714</v>
+      <c r="J116" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -3837,13 +4187,16 @@
         <v>-1</v>
       </c>
       <c r="G117" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H117" t="n">
         <v>7.5</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I117" t="n">
-        <v>6.8</v>
+      <c r="J117" t="n">
+        <v>6.757142857142857</v>
       </c>
     </row>
     <row r="118">
@@ -3866,13 +4219,16 @@
         <v>-1</v>
       </c>
       <c r="G118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.5</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>7.5</v>
       </c>
-      <c r="I118" t="n">
-        <v>5.166666666666667</v>
+      <c r="J118" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="119">
@@ -3895,13 +4251,16 @@
         <v>7.5</v>
       </c>
       <c r="G119" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.5</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>7.5</v>
       </c>
-      <c r="I119" t="n">
-        <v>6.433333333333334</v>
+      <c r="J119" t="n">
+        <v>6.700000000000001</v>
       </c>
     </row>
     <row r="120">
@@ -3924,13 +4283,16 @@
         <v>-1</v>
       </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H120" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I120" t="n">
-        <v>0.5</v>
+        <v>-1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -3953,12 +4315,15 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H121" t="n">
         <v>5.5</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I121" t="n">
+      <c r="J121" t="n">
         <v>7.899999999999999</v>
       </c>
     </row>
@@ -3982,13 +4347,16 @@
         <v>7.5</v>
       </c>
       <c r="G122" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>7.5</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I122" t="n">
-        <v>8.071428571428571</v>
+      <c r="J122" t="n">
+        <v>8.15</v>
       </c>
     </row>
     <row r="123">
@@ -4011,13 +4379,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G123" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>8.6</v>
       </c>
-      <c r="H123" t="n">
+      <c r="I123" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I123" t="n">
-        <v>8.114285714285716</v>
+      <c r="J123" t="n">
+        <v>8.137499999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4040,13 +4411,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H124" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H124" t="n">
+      <c r="I124" t="n">
         <v>4.5</v>
       </c>
-      <c r="I124" t="n">
-        <v>7.533333333333334</v>
+      <c r="J124" t="n">
+        <v>7.528571428571429</v>
       </c>
     </row>
     <row r="125">
@@ -4069,13 +4443,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H125" t="n">
         <v>6.5</v>
       </c>
-      <c r="H125" t="n">
+      <c r="I125" t="n">
         <v>7.5</v>
       </c>
-      <c r="I125" t="n">
-        <v>7.757142857142857</v>
+      <c r="J125" t="n">
+        <v>7.725</v>
       </c>
     </row>
     <row r="126">
@@ -4098,13 +4475,16 @@
         <v>7.5</v>
       </c>
       <c r="G126" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H126" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="H126" t="n">
+      <c r="I126" t="n">
         <v>6.5</v>
       </c>
-      <c r="I126" t="n">
-        <v>8.157142857142857</v>
+      <c r="J126" t="n">
+        <v>7.949999999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4127,13 +4507,16 @@
         <v>-1</v>
       </c>
       <c r="G127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H127" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H127" t="n">
+      <c r="I127" t="n">
         <v>4.5</v>
       </c>
-      <c r="I127" t="n">
-        <v>7.533333333333334</v>
+      <c r="J127" t="n">
+        <v>7.385714285714286</v>
       </c>
     </row>
     <row r="128">
@@ -4156,13 +4539,16 @@
         <v>-1</v>
       </c>
       <c r="G128" t="n">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="H128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I128" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I128" t="n">
-        <v>7.4</v>
+      <c r="J128" t="n">
+        <v>6.766666666666667</v>
       </c>
     </row>
     <row r="129">
@@ -4185,13 +4571,16 @@
         <v>5.5</v>
       </c>
       <c r="G129" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H129" t="n">
         <v>6.5</v>
       </c>
-      <c r="H129" t="n">
+      <c r="I129" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I129" t="n">
-        <v>7.071428571428571</v>
+      <c r="J129" t="n">
+        <v>7.225</v>
       </c>
     </row>
     <row r="130">
@@ -4217,9 +4606,12 @@
         <v>8.300000000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>-1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J130" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
@@ -4243,12 +4635,15 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H131" t="n">
         <v>5.5</v>
       </c>
-      <c r="H131" t="n">
+      <c r="I131" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I131" t="n">
+      <c r="J131" t="n">
         <v>7.971428571428571</v>
       </c>
     </row>
@@ -4272,13 +4667,16 @@
         <v>2.5</v>
       </c>
       <c r="G132" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>7.5</v>
       </c>
-      <c r="H132" t="n">
+      <c r="I132" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I132" t="n">
-        <v>5.871428571428571</v>
+      <c r="J132" t="n">
+        <v>6.225</v>
       </c>
     </row>
     <row r="133">
@@ -4301,13 +4699,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I133" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I133" t="n">
-        <v>5.985714285714287</v>
+      <c r="J133" t="n">
+        <v>6.275</v>
       </c>
     </row>
     <row r="134">
@@ -4330,13 +4731,16 @@
         <v>1.5</v>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I134" t="n">
         <v>1.5</v>
       </c>
-      <c r="I134" t="n">
-        <v>3.214285714285714</v>
+      <c r="J134" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="135">
@@ -4359,13 +4763,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G135" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H135" t="n">
         <v>4.5</v>
       </c>
-      <c r="H135" t="n">
+      <c r="I135" t="n">
         <v>7.5</v>
       </c>
-      <c r="I135" t="n">
-        <v>7.471428571428571</v>
+      <c r="J135" t="n">
+        <v>7.475</v>
       </c>
     </row>
     <row r="136">
@@ -4388,13 +4795,16 @@
         <v>4.5</v>
       </c>
       <c r="G136" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H136" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0.5</v>
-      </c>
       <c r="I136" t="n">
-        <v>6.871428571428571</v>
+        <v>0.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>6.824999999999999</v>
       </c>
     </row>
     <row r="137">
@@ -4417,13 +4827,16 @@
         <v>5.5</v>
       </c>
       <c r="G137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H137" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>0.5</v>
-      </c>
       <c r="I137" t="n">
-        <v>6.671428571428572</v>
+        <v>0.5</v>
+      </c>
+      <c r="J137" t="n">
+        <v>6.275</v>
       </c>
     </row>
     <row r="138">
@@ -4446,13 +4859,16 @@
         <v>-1</v>
       </c>
       <c r="G138" t="n">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="H138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I138" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I138" t="n">
-        <v>4.9</v>
+      <c r="J138" t="n">
+        <v>5.100000000000001</v>
       </c>
     </row>
     <row r="139">
@@ -4475,13 +4891,16 @@
         <v>-1</v>
       </c>
       <c r="G139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H139" t="n">
         <v>6.5</v>
       </c>
-      <c r="H139" t="n">
+      <c r="I139" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I139" t="n">
-        <v>7.333333333333333</v>
+      <c r="J139" t="n">
+        <v>6.357142857142857</v>
       </c>
     </row>
     <row r="140">
@@ -4507,9 +4926,12 @@
         <v>8.300000000000001</v>
       </c>
       <c r="H140" t="n">
-        <v>-1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J140" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
@@ -4533,13 +4955,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H141" t="n">
         <v>5.5</v>
       </c>
-      <c r="H141" t="n">
-        <v>0.5</v>
-      </c>
       <c r="I141" t="n">
-        <v>5.228571428571429</v>
+        <v>0.5</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4.6375</v>
       </c>
     </row>
   </sheetData>
@@ -4553,7 +4978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4594,10 +5019,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2023-07-17</t>
         </is>
@@ -4635,7 +5065,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>85.28865385055542</v>
       </c>
     </row>
@@ -4678,6 +5113,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4718,6 +5158,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4758,6 +5203,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4798,6 +5248,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4838,6 +5293,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4859,9 +5319,12 @@
         <v>0.2859938144683838</v>
       </c>
       <c r="G8" t="n">
+        <v>0.3647332191467285</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2425973415374756</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.3110344409942627</v>
       </c>
     </row>
@@ -4885,9 +5348,12 @@
         <v>1574.338675022125</v>
       </c>
       <c r="G9" t="n">
+        <v>0.3650157451629639</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2428357601165771</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.3112995624542236</v>
       </c>
     </row>
@@ -4911,9 +5377,12 @@
         <v>0.2862575054168701</v>
       </c>
       <c r="G10" t="n">
+        <v>0.3652534484863281</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2431895732879639</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.3115518093109131</v>
       </c>
     </row>
@@ -4937,9 +5406,12 @@
         <v>142.6948068141937</v>
       </c>
       <c r="G11" t="n">
+        <v>0.3655438423156738</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2434747219085693</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.3117744922637939</v>
       </c>
     </row>
@@ -4975,7 +5447,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>85.28914594650269</v>
       </c>
     </row>
@@ -5018,6 +5495,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -5058,6 +5540,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -5096,6 +5583,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -5136,6 +5628,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -5176,6 +5673,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -5197,9 +5699,12 @@
         <v>0.2866506576538086</v>
       </c>
       <c r="G18" t="n">
+        <v>0.3659446239471436</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2438995838165283</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0.3121459484100342</v>
       </c>
     </row>
@@ -5223,9 +5728,12 @@
         <v>1574.339131116867</v>
       </c>
       <c r="G19" t="n">
+        <v>0.3661715984344482</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.2441244125366211</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>0.3124051094055176</v>
       </c>
     </row>
@@ -5249,9 +5757,12 @@
         <v>0.2869060039520264</v>
       </c>
       <c r="G20" t="n">
+        <v>0.3664009571075439</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.2443902492523193</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>0.3126590251922607</v>
       </c>
     </row>
@@ -5275,9 +5786,12 @@
         <v>142.6955018043518</v>
       </c>
       <c r="G21" t="n">
+        <v>0.3668534755706787</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.2446908950805664</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0.312891960144043</v>
       </c>
     </row>
@@ -5318,6 +5832,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5356,6 +5875,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -5392,6 +5916,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5428,6 +5957,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -5463,7 +5997,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>7527.884927034378</v>
       </c>
     </row>
@@ -5494,12 +6033,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G27" t="n">
+        <v>894.7808938026428</v>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5525,9 +6067,12 @@
         <v>0.287278413772583</v>
       </c>
       <c r="G28" t="n">
+        <v>0.3672990798950195</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.2451252937316895</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>0.3132364749908447</v>
       </c>
     </row>
@@ -5551,9 +6096,12 @@
         <v>92.895916223526</v>
       </c>
       <c r="G29" t="n">
+        <v>0.3675801753997803</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.2454361915588379</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>0.3134596347808838</v>
       </c>
     </row>
@@ -5577,9 +6125,12 @@
         <v>0.2875502109527588</v>
       </c>
       <c r="G30" t="n">
+        <v>0.3678319454193115</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.2456734180450439</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>0.3136937618255615</v>
       </c>
     </row>
@@ -5603,9 +6154,12 @@
         <v>31.7048511505127</v>
       </c>
       <c r="G31" t="n">
+        <v>0.3680808544158936</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.2459306716918945</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>0.3139371871948242</v>
       </c>
     </row>
@@ -5648,6 +6202,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5688,6 +6247,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5726,6 +6290,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5764,6 +6333,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5799,7 +6373,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>7527.885731935501</v>
       </c>
     </row>
@@ -5830,12 +6409,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
+      <c r="G37" t="n">
+        <v>894.7814412117004</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>1153.799431085587</v>
       </c>
     </row>
@@ -5859,9 +6441,12 @@
         <v>0.2879290580749512</v>
       </c>
       <c r="G38" t="n">
+        <v>0.3685061931610107</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.2463030815124512</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>0.3143126964569092</v>
       </c>
     </row>
@@ -5885,9 +6470,12 @@
         <v>92.89649438858032</v>
       </c>
       <c r="G39" t="n">
+        <v>0.3688244819641113</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.2467327117919922</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>0.3145370483398438</v>
       </c>
     </row>
@@ -5911,9 +6499,12 @@
         <v>0.2881627082824707</v>
       </c>
       <c r="G40" t="n">
+        <v>0.3690764904022217</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.2469608783721924</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>0.3147566318511963</v>
       </c>
     </row>
@@ -5937,9 +6528,12 @@
         <v>31.70533013343811</v>
       </c>
       <c r="G41" t="n">
+        <v>0.3693311214447021</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.2473015785217285</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>0.3149847984313965</v>
       </c>
     </row>
@@ -5972,12 +6566,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G42" t="n">
+        <v>0.3695776462554932</v>
       </c>
       <c r="H42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6012,12 +6609,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G43" t="n">
+        <v>0.3698222637176514</v>
       </c>
       <c r="H43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6052,12 +6652,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G44" t="n">
+        <v>0.3700687885284424</v>
       </c>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6092,12 +6695,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G45" t="n">
+        <v>0.3703184127807617</v>
       </c>
       <c r="H45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6132,12 +6738,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G46" t="n">
+        <v>0.3706300258636475</v>
       </c>
       <c r="H46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6172,12 +6781,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G47" t="n">
+        <v>0.3708846569061279</v>
       </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6203,9 +6815,12 @@
         <v>0.2885258197784424</v>
       </c>
       <c r="G48" t="n">
+        <v>0.3711283206939697</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.2476944923400879</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>0.3153231143951416</v>
       </c>
     </row>
@@ -6237,9 +6852,12 @@
         </is>
       </c>
       <c r="G49" t="n">
+        <v>0.3713796138763428</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.2479016780853271</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>0.315544605255127</v>
       </c>
     </row>
@@ -6263,9 +6881,12 @@
         <v>0.2887647151947021</v>
       </c>
       <c r="G50" t="n">
+        <v>0.3716456890106201</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.2482509613037109</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>0.3157632350921631</v>
       </c>
     </row>
@@ -6295,9 +6916,12 @@
         </is>
       </c>
       <c r="G51" t="n">
+        <v>0.3718883991241455</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.2485277652740479</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>0.315993070602417</v>
       </c>
     </row>
@@ -6326,12 +6950,15 @@
       <c r="F52" t="n">
         <v>9627.584949493408</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G52" t="n">
+        <v>0.3721308708190918</v>
       </c>
       <c r="H52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6364,12 +6991,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G53" t="n">
+        <v>0.3723824024200439</v>
       </c>
       <c r="H53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6402,12 +7032,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G54" t="n">
+        <v>0.3727250099182129</v>
       </c>
       <c r="H54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6440,12 +7073,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G55" t="n">
+        <v>0.3729739189147949</v>
       </c>
       <c r="H55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6478,12 +7114,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G56" t="n">
+        <v>0.3732213973999023</v>
       </c>
       <c r="H56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6516,12 +7155,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G57" t="n">
+        <v>0.3734753131866455</v>
       </c>
       <c r="H57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6547,9 +7189,12 @@
         <v>0.2891149520874023</v>
       </c>
       <c r="G58" t="n">
+        <v>0.3737189769744873</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.2489433288574219</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>0.316333532333374</v>
       </c>
     </row>
@@ -6577,9 +7222,12 @@
         </is>
       </c>
       <c r="G59" t="n">
+        <v>0.3739633560180664</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.2491748332977295</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>0.3165769577026367</v>
       </c>
     </row>
@@ -6603,9 +7251,12 @@
         <v>0.2893471717834473</v>
       </c>
       <c r="G60" t="n">
+        <v>0.37420654296875</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.2494485378265381</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>0.3168063163757324</v>
       </c>
     </row>
@@ -6631,9 +7282,12 @@
         </is>
       </c>
       <c r="G61" t="n">
+        <v>0.3745396137237549</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.2497260570526123</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>0.3170275688171387</v>
       </c>
     </row>
@@ -6662,12 +7316,15 @@
       <c r="F62" t="n">
         <v>9627.585594415665</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G62" t="n">
+        <v>0.3748006820678711</v>
       </c>
       <c r="H62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6696,12 +7353,15 @@
       <c r="F63" t="n">
         <v>3619.410120248795</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G63" t="n">
+        <v>0.3750481605529785</v>
       </c>
       <c r="H63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6734,12 +7394,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G64" t="n">
+        <v>0.3752987384796143</v>
       </c>
       <c r="H64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6770,12 +7433,15 @@
       <c r="F65" t="n">
         <v>7825.171560525894</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G65" t="n">
+        <v>0.3755636215209961</v>
       </c>
       <c r="H65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6808,12 +7474,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G66" t="n">
+        <v>0.375809907913208</v>
       </c>
       <c r="H66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6846,12 +7515,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G67" t="n">
+        <v>0.3760533332824707</v>
       </c>
       <c r="H67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6877,9 +7549,12 @@
         <v>0.2897095680236816</v>
       </c>
       <c r="G68" t="n">
+        <v>0.3763558864593506</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.2501823902130127</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>0.3173661231994629</v>
       </c>
     </row>
@@ -6903,9 +7578,12 @@
         <v>67.80310392379761</v>
       </c>
       <c r="G69" t="n">
+        <v>0.3766162395477295</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.2504763603210449</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>0.3175899982452393</v>
       </c>
     </row>
@@ -6929,9 +7607,12 @@
         <v>0.2899436950683594</v>
       </c>
       <c r="G70" t="n">
+        <v>0.3768622875213623</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.2506935596466064</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>0.3178191184997559</v>
       </c>
     </row>
@@ -6955,9 +7636,12 @@
         <v>142.6970613002777</v>
       </c>
       <c r="G71" t="n">
+        <v>0.3771076202392578</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.2508988380432129</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>0.3180418014526367</v>
       </c>
     </row>
@@ -6984,12 +7668,15 @@
       <c r="F72" t="n">
         <v>1301.02250289917</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G72" t="n">
+        <v>0.3773601055145264</v>
       </c>
       <c r="H72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7020,12 +7707,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G73" t="n">
+        <v>0.377605676651001</v>
       </c>
       <c r="H73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7056,12 +7746,15 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G74" t="n">
+        <v>0.3778500556945801</v>
       </c>
       <c r="H74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7090,12 +7783,15 @@
       <c r="F75" t="n">
         <v>7825.171985626221</v>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G75" t="n">
+        <v>0.3780930042266846</v>
       </c>
       <c r="H75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7124,12 +7820,15 @@
       <c r="F76" t="n">
         <v>3619.410671472549</v>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G76" t="n">
+        <v>0.3784964084625244</v>
       </c>
       <c r="H76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7158,12 +7857,15 @@
       <c r="F77" t="n">
         <v>102.7289371490479</v>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G77" t="n">
+        <v>0.378756046295166</v>
       </c>
       <c r="H77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7189,9 +7891,12 @@
         <v>0.2902991771697998</v>
       </c>
       <c r="G78" t="n">
+        <v>0.3790054321289062</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.2512526512145996</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>0.3183803558349609</v>
       </c>
     </row>
@@ -7215,9 +7920,12 @@
         <v>67.80367279052734</v>
       </c>
       <c r="G79" t="n">
+        <v>0.3792665004730225</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.2515327930450439</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>0.3186004161834717</v>
       </c>
     </row>
@@ -7241,9 +7949,12 @@
         <v>0.2905416488647461</v>
       </c>
       <c r="G80" t="n">
+        <v>0.3795394897460938</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.2517576217651367</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>0.318831205368042</v>
       </c>
     </row>
@@ -7267,9 +7978,12 @@
         <v>96.29518222808838</v>
       </c>
       <c r="G81" t="n">
+        <v>0.3797848224639893</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.2519690990447998</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>0.3190546035766602</v>
       </c>
     </row>
@@ -7296,12 +8010,15 @@
       <c r="F82" t="n">
         <v>1301.023038864136</v>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G82" t="n">
+        <v>0.380028247833252</v>
       </c>
       <c r="H82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7328,12 +8045,15 @@
       <c r="F83" t="n">
         <v>3018.621803283691</v>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G83" t="n">
+        <v>0.3803322315216064</v>
       </c>
       <c r="H83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7362,12 +8082,15 @@
       <c r="F84" t="n">
         <v>1058.637485027313</v>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G84" t="n">
+        <v>0.380589485168457</v>
       </c>
       <c r="H84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7396,12 +8119,15 @@
       <c r="F85" t="n">
         <v>937.5459253787994</v>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
+      <c r="G85" t="n">
+        <v>0.3808369636535645</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>606.2992749214172</v>
       </c>
     </row>
@@ -7428,12 +8154,15 @@
       <c r="F86" t="n">
         <v>3619.411101341248</v>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G86" t="n">
+        <v>0.3810820579528809</v>
       </c>
       <c r="H86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7460,12 +8189,15 @@
       <c r="F87" t="n">
         <v>102.7296619415283</v>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G87" t="n">
+        <v>0.3813319206237793</v>
       </c>
       <c r="H87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7491,9 +8223,12 @@
         <v>0.2908942699432373</v>
       </c>
       <c r="G88" t="n">
+        <v>0.3815782070159912</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.2525191307067871</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>0.3195133209228516</v>
       </c>
     </row>
@@ -7517,9 +8252,12 @@
         <v>37.81364703178406</v>
       </c>
       <c r="G89" t="n">
+        <v>0.3818235397338867</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.2527885437011719</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>0.3197429180145264</v>
       </c>
     </row>
@@ -7543,9 +8281,12 @@
         <v>0.2911388874053955</v>
       </c>
       <c r="G90" t="n">
+        <v>0.382068395614624</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.2530832290649414</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>0.3199770450592041</v>
       </c>
     </row>
@@ -7569,9 +8310,12 @@
         <v>29.44138121604919</v>
       </c>
       <c r="G91" t="n">
+        <v>0.382387638092041</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.253345251083374</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>0.3201994895935059</v>
       </c>
     </row>
@@ -7599,9 +8343,12 @@
         <v>937.5463418960571</v>
       </c>
       <c r="G92" t="n">
+        <v>0.3826384544372559</v>
+      </c>
+      <c r="H92" t="n">
         <v>3326.028279066086</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>7227.489417791367</v>
       </c>
     </row>
@@ -7628,12 +8375,15 @@
       <c r="F93" t="n">
         <v>3018.622243404388</v>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
+      <c r="G93" t="n">
+        <v>0.3828849792480469</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>12309.42152237892</v>
       </c>
     </row>
@@ -7658,12 +8408,15 @@
       <c r="F94" t="n">
         <v>1058.637942790985</v>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
+      <c r="G94" t="n">
+        <v>0.3831324577331543</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>484.5295195579529</v>
       </c>
     </row>
@@ -7686,12 +8439,15 @@
       <c r="F95" t="n">
         <v>37.81416606903076</v>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
+      <c r="G95" t="n">
+        <v>0.3833854198455811</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>4524.048715829849</v>
       </c>
     </row>
@@ -7718,12 +8474,15 @@
       <c r="F96" t="n">
         <v>786.0391237735748</v>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G96" t="n">
+        <v>0.3836474418640137</v>
       </c>
       <c r="H96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7748,12 +8507,15 @@
       <c r="F97" t="n">
         <v>83.70517706871033</v>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G97" t="n">
+        <v>0.3838908672332764</v>
       </c>
       <c r="H97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7779,9 +8541,12 @@
         <v>0.291529655456543</v>
       </c>
       <c r="G98" t="n">
+        <v>0.3842391967773438</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.2537009716033936</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>0.3205544948577881</v>
       </c>
     </row>
@@ -7805,9 +8570,12 @@
         <v>37.8145706653595</v>
       </c>
       <c r="G99" t="n">
+        <v>0.3845312595367432</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.2539138793945312</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>0.320777416229248</v>
       </c>
     </row>
@@ -7831,9 +8599,12 @@
         <v>0.291773796081543</v>
       </c>
       <c r="G100" t="n">
+        <v>0.384782075881958</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.2541427612304688</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>0.3210086822509766</v>
       </c>
     </row>
@@ -7857,9 +8628,12 @@
         <v>29.44184923171997</v>
       </c>
       <c r="G101" t="n">
+        <v>0.3850305080413818</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.2543821334838867</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>0.3212282657623291</v>
       </c>
     </row>
@@ -7884,10 +8658,15 @@
       <c r="F102" t="n">
         <v>937.5467135906219</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
         <v>3025.614156961441</v>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7914,12 +8693,15 @@
       <c r="F103" t="n">
         <v>74.6175856590271</v>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G103" t="n">
+        <v>3609.381393671036</v>
       </c>
       <c r="H103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7951,7 +8733,12 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="H104" t="n">
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
         <v>484.5300431251526</v>
       </c>
     </row>
@@ -7974,10 +8761,15 @@
       <c r="F105" t="n">
         <v>58.61105585098267</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
         <v>9334.138869524002</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>4524.049172878265</v>
       </c>
     </row>
@@ -8002,12 +8794,15 @@
       <c r="F106" t="n">
         <v>786.0398147106171</v>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="G106" t="n">
+        <v>491.8790836334229</v>
       </c>
       <c r="H106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8032,12 +8827,15 @@
       <c r="F107" t="n">
         <v>83.70563125610352</v>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
+      <c r="G107" t="n">
+        <v>9317.176427602768</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>29.01506066322327</v>
       </c>
     </row>
@@ -8063,9 +8861,12 @@
         <v>0.2921450138092041</v>
       </c>
       <c r="G108" t="n">
+        <v>78.04504752159119</v>
+      </c>
+      <c r="H108" t="n">
         <v>5729.306091547012</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>10532.4744386673</v>
       </c>
     </row>
@@ -8089,9 +8890,12 @@
         <v>34.33261013031006</v>
       </c>
       <c r="G109" t="n">
+        <v>6913.922839403152</v>
+      </c>
+      <c r="H109" t="n">
         <v>9334.139220237732</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>1729.583037853241</v>
       </c>
     </row>
@@ -8114,12 +8918,15 @@
       <c r="F110" t="n">
         <v>0.2923786640167236</v>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="H110" t="n">
+      <c r="G110" t="n">
+        <v>54.48941802978516</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>0.3216018676757812</v>
       </c>
     </row>
@@ -8144,10 +8951,15 @@
       <c r="F111" t="n">
         <v>96.29600405693054</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
         <v>219.1100292205811</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>392.9093477725983</v>
       </c>
     </row>
@@ -8170,10 +8982,15 @@
       <c r="F112" t="n">
         <v>36.62301158905029</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
         <v>3025.61471581459</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>63.43694496154785</v>
       </c>
     </row>
@@ -8197,9 +9014,12 @@
         <v>74.61807537078857</v>
       </c>
       <c r="G113" t="n">
+        <v>3609.38193488121</v>
+      </c>
+      <c r="H113" t="n">
         <v>14.54750967025757</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>168.7334537506104</v>
       </c>
     </row>
@@ -8223,9 +9043,12 @@
         <v>19.98253917694092</v>
       </c>
       <c r="G114" t="n">
+        <v>33.60009956359863</v>
+      </c>
+      <c r="H114" t="n">
         <v>20.36714148521423</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>392.9096970558167</v>
       </c>
     </row>
@@ -8249,9 +9072,12 @@
         <v>392.2031462192535</v>
       </c>
       <c r="G115" t="n">
+        <v>55.64487648010254</v>
+      </c>
+      <c r="H115" t="n">
         <v>84.522376537323</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>38.12303781509399</v>
       </c>
     </row>
@@ -8275,9 +9101,12 @@
         <v>31.70696520805359</v>
       </c>
       <c r="G116" t="n">
+        <v>491.8795733451843</v>
+      </c>
+      <c r="H116" t="n">
         <v>59.48797988891602</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>73.92270088195801</v>
       </c>
     </row>
@@ -8301,9 +9130,12 @@
         <v>0.2927210330963135</v>
       </c>
       <c r="G117" t="n">
+        <v>63.76572394371033</v>
+      </c>
+      <c r="H117" t="n">
         <v>59.48833703994751</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>29.01555895805359</v>
       </c>
     </row>
@@ -8327,9 +9159,12 @@
         <v>0.2929425239562988</v>
       </c>
       <c r="G118" t="n">
+        <v>78.04560375213623</v>
+      </c>
+      <c r="H118" t="n">
         <v>5729.306501865387</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>50.76859855651855</v>
       </c>
     </row>
@@ -8353,9 +9188,12 @@
         <v>34.3331663608551</v>
       </c>
       <c r="G119" t="n">
+        <v>15.04903531074524</v>
+      </c>
+      <c r="H119" t="n">
         <v>9334.139669179916</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>41.57435822486877</v>
       </c>
     </row>
@@ -8378,12 +9216,15 @@
       <c r="F120" t="n">
         <v>0.2931787967681885</v>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
+      <c r="G120" t="n">
+        <v>54.48986029624939</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>0.3220047950744629</v>
       </c>
     </row>
@@ -8407,9 +9248,12 @@
         <v>17.48386740684509</v>
       </c>
       <c r="G121" t="n">
+        <v>0.3857827186584473</v>
+      </c>
+      <c r="H121" t="n">
         <v>219.110648393631</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
         <v>21.50876808166504</v>
       </c>
     </row>
@@ -8433,9 +9277,12 @@
         <v>36.62357783317566</v>
       </c>
       <c r="G122" t="n">
+        <v>13.90477752685547</v>
+      </c>
+      <c r="H122" t="n">
         <v>39.85473084449768</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>17.50112342834473</v>
       </c>
     </row>
@@ -8459,9 +9306,12 @@
         <v>21.24987363815308</v>
       </c>
       <c r="G123" t="n">
+        <v>15.04977750778198</v>
+      </c>
+      <c r="H123" t="n">
         <v>14.54829001426697</v>
       </c>
-      <c r="H123" t="n">
+      <c r="I123" t="n">
         <v>20.34866261482239</v>
       </c>
     </row>
@@ -8485,9 +9335,12 @@
         <v>19.98300719261169</v>
       </c>
       <c r="G124" t="n">
+        <v>33.6006133556366</v>
+      </c>
+      <c r="H124" t="n">
         <v>20.36783313751221</v>
       </c>
-      <c r="H124" t="n">
+      <c r="I124" t="n">
         <v>454.3250255584717</v>
       </c>
     </row>
@@ -8511,9 +9364,12 @@
         <v>17.48420739173889</v>
       </c>
       <c r="G125" t="n">
+        <v>33.60087323188782</v>
+      </c>
+      <c r="H125" t="n">
         <v>84.52291917800903</v>
       </c>
-      <c r="H125" t="n">
+      <c r="I125" t="n">
         <v>56.5850236415863</v>
       </c>
     </row>
@@ -8537,9 +9393,12 @@
         <v>31.70731663703918</v>
       </c>
       <c r="G126" t="n">
+        <v>84.90139055252075</v>
+      </c>
+      <c r="H126" t="n">
         <v>13.38175630569458</v>
       </c>
-      <c r="H126" t="n">
+      <c r="I126" t="n">
         <v>73.92324900627136</v>
       </c>
     </row>
@@ -8563,9 +9422,12 @@
         <v>0.2935292720794678</v>
       </c>
       <c r="G127" t="n">
+        <v>63.76622986793518</v>
+      </c>
+      <c r="H127" t="n">
         <v>16.86820554733276</v>
       </c>
-      <c r="H127" t="n">
+      <c r="I127" t="n">
         <v>545.106457233429</v>
       </c>
     </row>
@@ -8589,9 +9451,12 @@
         <v>0.2937459945678711</v>
       </c>
       <c r="G128" t="n">
+        <v>286.6322414875031</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.2551817893981934</v>
       </c>
-      <c r="H128" t="n">
+      <c r="I128" t="n">
         <v>20.34911751747131</v>
       </c>
     </row>
@@ -8615,9 +9480,12 @@
         <v>151.2575430870056</v>
       </c>
       <c r="G129" t="n">
+        <v>15.05042052268982</v>
+      </c>
+      <c r="H129" t="n">
         <v>83.38333916664124</v>
       </c>
-      <c r="H129" t="n">
+      <c r="I129" t="n">
         <v>15.19966745376587</v>
       </c>
     </row>
@@ -8641,9 +9509,12 @@
         <v>0.293987512588501</v>
       </c>
       <c r="G130" t="n">
+        <v>19.6966028213501</v>
+      </c>
+      <c r="H130" t="n">
         <v>25.0237500667572</v>
       </c>
-      <c r="H130" t="n">
+      <c r="I130" t="n">
         <v>0.3224718570709229</v>
       </c>
     </row>
@@ -8667,9 +9538,12 @@
         <v>17.48453688621521</v>
       </c>
       <c r="G131" t="n">
+        <v>0.3863418102264404</v>
+      </c>
+      <c r="H131" t="n">
         <v>133.2313759326935</v>
       </c>
-      <c r="H131" t="n">
+      <c r="I131" t="n">
         <v>21.50934386253357</v>
       </c>
     </row>
@@ -8693,9 +9567,12 @@
         <v>2117.442972421646</v>
       </c>
       <c r="G132" t="n">
+        <v>13.90537643432617</v>
+      </c>
+      <c r="H132" t="n">
         <v>39.85525155067444</v>
       </c>
-      <c r="H132" t="n">
+      <c r="I132" t="n">
         <v>17.50164985656738</v>
       </c>
     </row>
@@ -8718,12 +9595,15 @@
       <c r="F133" t="n">
         <v>21.25045585632324</v>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
+      <c r="G133" t="n">
+        <v>16.19243764877319</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
         <v>20.34942770004272</v>
       </c>
     </row>
@@ -8746,12 +9626,15 @@
       <c r="F134" t="n">
         <v>5421.792869091034</v>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
+      <c r="G134" t="n">
+        <v>219.213273525238</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
         <v>10532.47513890266</v>
       </c>
     </row>
@@ -8775,9 +9658,12 @@
         <v>18.81380844116211</v>
       </c>
       <c r="G135" t="n">
+        <v>33.60128498077393</v>
+      </c>
+      <c r="H135" t="n">
         <v>574.6699085235596</v>
       </c>
-      <c r="H135" t="n">
+      <c r="I135" t="n">
         <v>56.58557057380676</v>
       </c>
     </row>
@@ -8801,9 +9687,12 @@
         <v>392.2038271427155</v>
       </c>
       <c r="G136" t="n">
+        <v>84.9018657207489</v>
+      </c>
+      <c r="H136" t="n">
         <v>13.38233351707458</v>
       </c>
-      <c r="H136" t="n">
+      <c r="I136" t="n">
         <v>13564.30748772621</v>
       </c>
     </row>
@@ -8827,9 +9716,12 @@
         <v>151.2580091953278</v>
       </c>
       <c r="G137" t="n">
+        <v>644.2702758312225</v>
+      </c>
+      <c r="H137" t="n">
         <v>16.86874127388</v>
       </c>
-      <c r="H137" t="n">
+      <c r="I137" t="n">
         <v>13864.72289514542</v>
       </c>
     </row>
@@ -8853,9 +9745,12 @@
         <v>0.2943375110626221</v>
       </c>
       <c r="G138" t="n">
+        <v>286.6326885223389</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.2556257247924805</v>
       </c>
-      <c r="H138" t="n">
+      <c r="I138" t="n">
         <v>20.34975123405457</v>
       </c>
     </row>
@@ -8878,10 +9773,15 @@
       <c r="F139" t="n">
         <v>0.2945518493652344</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
         <v>83.38384914398193</v>
       </c>
-      <c r="H139" t="n">
+      <c r="I139" t="n">
         <v>15.20037889480591</v>
       </c>
     </row>
@@ -8905,9 +9805,12 @@
         <v>0.2947578430175781</v>
       </c>
       <c r="G140" t="n">
+        <v>19.69727468490601</v>
+      </c>
+      <c r="H140" t="n">
         <v>25.02422308921814</v>
       </c>
-      <c r="H140" t="n">
+      <c r="I140" t="n">
         <v>0.3228919506072998</v>
       </c>
     </row>
@@ -8930,10 +9833,15 @@
       <c r="F141" t="n">
         <v>27.07129716873169</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
         <v>133.2318179607391</v>
       </c>
-      <c r="H141" t="n">
+      <c r="I141" t="n">
         <v>12963.49436283112</v>
       </c>
     </row>
@@ -8948,7 +9856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:S141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9029,15 +9937,25 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>statues</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2023-07-17</t>
         </is>
@@ -9097,10 +10015,16 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
         <v>85.28865385055542</v>
       </c>
     </row>
@@ -9160,6 +10084,12 @@
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -9217,6 +10147,12 @@
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -9274,6 +10210,12 @@
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -9331,6 +10273,12 @@
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -9388,6 +10336,12 @@
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -9449,14 +10403,22 @@
         </is>
       </c>
       <c r="O8" t="n">
+        <v>0.3647332191467285</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
         <v>0.2425973415374756</v>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
         <v>0.3110344409942627</v>
       </c>
     </row>
@@ -9520,14 +10482,22 @@
         </is>
       </c>
       <c r="O9" t="n">
+        <v>0.3650157451629639</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>0.2428357601165771</v>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
         <v>0.3112995624542236</v>
       </c>
     </row>
@@ -9591,14 +10561,22 @@
         </is>
       </c>
       <c r="O10" t="n">
+        <v>0.3652534484863281</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>0.2431895732879639</v>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>0.3115518093109131</v>
       </c>
     </row>
@@ -9662,14 +10640,22 @@
         </is>
       </c>
       <c r="O11" t="n">
+        <v>0.3655438423156738</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>0.2434747219085693</v>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
         <v>0.3117744922637939</v>
       </c>
     </row>
@@ -9727,10 +10713,16 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
         <v>85.28914594650269</v>
       </c>
     </row>
@@ -9790,6 +10782,12 @@
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -9847,6 +10845,12 @@
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -9906,6 +10910,12 @@
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -9963,6 +10973,12 @@
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -10020,6 +11036,12 @@
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -10081,14 +11103,22 @@
         </is>
       </c>
       <c r="O18" t="n">
+        <v>0.3659446239471436</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>0.2438995838165283</v>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
         <v>0.3121459484100342</v>
       </c>
     </row>
@@ -10152,14 +11182,22 @@
         </is>
       </c>
       <c r="O19" t="n">
+        <v>0.3661715984344482</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
         <v>0.2441244125366211</v>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
         <v>0.3124051094055176</v>
       </c>
     </row>
@@ -10223,14 +11261,22 @@
         </is>
       </c>
       <c r="O20" t="n">
+        <v>0.3664009571075439</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
         <v>0.2443902492523193</v>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
         <v>0.3126590251922607</v>
       </c>
     </row>
@@ -10294,14 +11340,22 @@
         </is>
       </c>
       <c r="O21" t="n">
+        <v>0.3668534755706787</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
         <v>0.2446908950805664</v>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
         <v>0.312891960144043</v>
       </c>
     </row>
@@ -10363,6 +11417,12 @@
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -10422,6 +11482,12 @@
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -10483,6 +11549,12 @@
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -10544,6 +11616,12 @@
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -10597,10 +11675,16 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
         <v>7527.884927034378</v>
       </c>
     </row>
@@ -10652,16 +11736,24 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>894.7808938026428</v>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -10723,14 +11815,22 @@
         </is>
       </c>
       <c r="O28" t="n">
+        <v>0.3672990798950195</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
         <v>0.2451252937316895</v>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
         <v>0.3132364749908447</v>
       </c>
     </row>
@@ -10794,14 +11894,22 @@
         </is>
       </c>
       <c r="O29" t="n">
+        <v>0.3675801753997803</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
         <v>0.2454361915588379</v>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
         <v>0.3134596347808838</v>
       </c>
     </row>
@@ -10865,14 +11973,22 @@
         </is>
       </c>
       <c r="O30" t="n">
+        <v>0.3678319454193115</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
         <v>0.2456734180450439</v>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
         <v>0.3136937618255615</v>
       </c>
     </row>
@@ -10936,14 +12052,22 @@
         </is>
       </c>
       <c r="O31" t="n">
+        <v>0.3680808544158936</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
         <v>0.2459306716918945</v>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
         <v>0.3139371871948242</v>
       </c>
     </row>
@@ -11003,6 +12127,12 @@
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -11060,6 +12190,12 @@
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -11119,6 +12255,12 @@
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -11178,6 +12320,12 @@
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -11231,10 +12379,16 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
         <v>7527.885731935501</v>
       </c>
     </row>
@@ -11286,16 +12440,24 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>894.7814412117004</v>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
         <v>1153.799431085587</v>
       </c>
     </row>
@@ -11359,14 +12521,22 @@
         </is>
       </c>
       <c r="O38" t="n">
+        <v>0.3685061931610107</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
         <v>0.2463030815124512</v>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
         <v>0.3143126964569092</v>
       </c>
     </row>
@@ -11430,14 +12600,22 @@
         </is>
       </c>
       <c r="O39" t="n">
+        <v>0.3688244819641113</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
         <v>0.2467327117919922</v>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
         <v>0.3145370483398438</v>
       </c>
     </row>
@@ -11501,14 +12679,22 @@
         </is>
       </c>
       <c r="O40" t="n">
+        <v>0.3690764904022217</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
         <v>0.2469608783721924</v>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
         <v>0.3147566318511963</v>
       </c>
     </row>
@@ -11572,14 +12758,22 @@
         </is>
       </c>
       <c r="O41" t="n">
+        <v>0.3693311214447021</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
         <v>0.2473015785217285</v>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
         <v>0.3149847984313965</v>
       </c>
     </row>
@@ -11629,16 +12823,24 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>0.3695776462554932</v>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -11686,16 +12888,24 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>0.3698222637176514</v>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -11743,16 +12953,24 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>0.3700687885284424</v>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -11800,16 +13018,24 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>0.3703184127807617</v>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -11857,16 +13083,24 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>0.3706300258636475</v>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -11914,16 +13148,24 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>0.3708846569061279</v>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -11985,14 +13227,22 @@
         </is>
       </c>
       <c r="O48" t="n">
+        <v>0.3711283206939697</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
         <v>0.2476944923400879</v>
       </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
         <v>0.3153231143951416</v>
       </c>
     </row>
@@ -12048,14 +13298,22 @@
         </is>
       </c>
       <c r="O49" t="n">
+        <v>0.3713796138763428</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
         <v>0.2479016780853271</v>
       </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
         <v>0.315544605255127</v>
       </c>
     </row>
@@ -12119,14 +13377,22 @@
         </is>
       </c>
       <c r="O50" t="n">
+        <v>0.3716456890106201</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
         <v>0.2482509613037109</v>
       </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
         <v>0.3157632350921631</v>
       </c>
     </row>
@@ -12184,14 +13450,22 @@
         </is>
       </c>
       <c r="O51" t="n">
+        <v>0.3718883991241455</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
         <v>0.2485277652740479</v>
       </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
         <v>0.315993070602417</v>
       </c>
     </row>
@@ -12245,16 +13519,24 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>0.3721308708190918</v>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -12304,16 +13586,24 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>0.3723824024200439</v>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -12363,16 +13653,24 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>0.3727250099182129</v>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -12422,16 +13720,24 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>0.3729739189147949</v>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -12481,16 +13787,24 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>0.3732213973999023</v>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -12540,16 +13854,24 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>0.3734753131866455</v>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -12611,14 +13933,22 @@
         </is>
       </c>
       <c r="O58" t="n">
+        <v>0.3737189769744873</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
         <v>0.2489433288574219</v>
       </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q58" t="n">
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
         <v>0.316333532333374</v>
       </c>
     </row>
@@ -12678,14 +14008,22 @@
         </is>
       </c>
       <c r="O59" t="n">
+        <v>0.3739633560180664</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
         <v>0.2491748332977295</v>
       </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
         <v>0.3165769577026367</v>
       </c>
     </row>
@@ -12749,14 +14087,22 @@
         </is>
       </c>
       <c r="O60" t="n">
+        <v>0.37420654296875</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
         <v>0.2494485378265381</v>
       </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S60" t="n">
         <v>0.3168063163757324</v>
       </c>
     </row>
@@ -12818,14 +14164,22 @@
         </is>
       </c>
       <c r="O61" t="n">
+        <v>0.3745396137237549</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
         <v>0.2497260570526123</v>
       </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q61" t="n">
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S61" t="n">
         <v>0.3170275688171387</v>
       </c>
     </row>
@@ -12879,16 +14233,24 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>0.3748006820678711</v>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -12942,16 +14304,24 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>0.3750481605529785</v>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -13001,16 +14371,24 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>0.3752987384796143</v>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -13062,16 +14440,24 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>0.3755636215209961</v>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -13121,16 +14507,24 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>0.375809907913208</v>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -13180,16 +14574,24 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>0.3760533332824707</v>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -13251,14 +14653,22 @@
         </is>
       </c>
       <c r="O68" t="n">
+        <v>0.3763558864593506</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
         <v>0.2501823902130127</v>
       </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S68" t="n">
         <v>0.3173661231994629</v>
       </c>
     </row>
@@ -13322,14 +14732,22 @@
         </is>
       </c>
       <c r="O69" t="n">
+        <v>0.3766162395477295</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
         <v>0.2504763603210449</v>
       </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q69" t="n">
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S69" t="n">
         <v>0.3175899982452393</v>
       </c>
     </row>
@@ -13393,14 +14811,22 @@
         </is>
       </c>
       <c r="O70" t="n">
+        <v>0.3768622875213623</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
         <v>0.2506935596466064</v>
       </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q70" t="n">
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S70" t="n">
         <v>0.3178191184997559</v>
       </c>
     </row>
@@ -13464,14 +14890,22 @@
         </is>
       </c>
       <c r="O71" t="n">
+        <v>0.3771076202392578</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
         <v>0.2508988380432129</v>
       </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q71" t="n">
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S71" t="n">
         <v>0.3180418014526367</v>
       </c>
     </row>
@@ -13527,16 +14961,24 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>0.3773601055145264</v>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -13588,16 +15030,24 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>0.377605676651001</v>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -13649,16 +15099,24 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>0.3778500556945801</v>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -13712,16 +15170,24 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>0.3780930042266846</v>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -13775,16 +15241,24 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>0.3784964084625244</v>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -13838,16 +15312,24 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>0.378756046295166</v>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -13909,14 +15391,22 @@
         </is>
       </c>
       <c r="O78" t="n">
+        <v>0.3790054321289062</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
         <v>0.2512526512145996</v>
       </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q78" t="n">
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S78" t="n">
         <v>0.3183803558349609</v>
       </c>
     </row>
@@ -13980,14 +15470,22 @@
         </is>
       </c>
       <c r="O79" t="n">
+        <v>0.3792665004730225</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
         <v>0.2515327930450439</v>
       </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q79" t="n">
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S79" t="n">
         <v>0.3186004161834717</v>
       </c>
     </row>
@@ -14051,14 +15549,22 @@
         </is>
       </c>
       <c r="O80" t="n">
+        <v>0.3795394897460938</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
         <v>0.2517576217651367</v>
       </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q80" t="n">
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S80" t="n">
         <v>0.318831205368042</v>
       </c>
     </row>
@@ -14122,14 +15628,22 @@
         </is>
       </c>
       <c r="O81" t="n">
+        <v>0.3797848224639893</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
         <v>0.2519690990447998</v>
       </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q81" t="n">
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S81" t="n">
         <v>0.3190546035766602</v>
       </c>
     </row>
@@ -14185,16 +15699,24 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>0.380028247833252</v>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -14250,16 +15772,24 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>0.3803322315216064</v>
+      </c>
       <c r="P83" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -14313,16 +15843,24 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>0.380589485168457</v>
+      </c>
       <c r="P84" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -14376,16 +15914,24 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>0.3808369636535645</v>
+      </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S85" t="n">
         <v>606.2992749214172</v>
       </c>
     </row>
@@ -14441,16 +15987,24 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>0.3810820579528809</v>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -14506,16 +16060,24 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>0.3813319206237793</v>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -14577,14 +16139,22 @@
         </is>
       </c>
       <c r="O88" t="n">
+        <v>0.3815782070159912</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
         <v>0.2525191307067871</v>
       </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q88" t="n">
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
         <v>0.3195133209228516</v>
       </c>
     </row>
@@ -14648,14 +16218,22 @@
         </is>
       </c>
       <c r="O89" t="n">
+        <v>0.3818235397338867</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
         <v>0.2527885437011719</v>
       </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q89" t="n">
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S89" t="n">
         <v>0.3197429180145264</v>
       </c>
     </row>
@@ -14719,14 +16297,22 @@
         </is>
       </c>
       <c r="O90" t="n">
+        <v>0.382068395614624</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
         <v>0.2530832290649414</v>
       </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q90" t="n">
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S90" t="n">
         <v>0.3199770450592041</v>
       </c>
     </row>
@@ -14790,14 +16376,22 @@
         </is>
       </c>
       <c r="O91" t="n">
+        <v>0.382387638092041</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
         <v>0.253345251083374</v>
       </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S91" t="n">
         <v>0.3201994895935059</v>
       </c>
     </row>
@@ -14857,14 +16451,22 @@
         </is>
       </c>
       <c r="O92" t="n">
+        <v>0.3826384544372559</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
         <v>3326.028279066086</v>
       </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q92" t="n">
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S92" t="n">
         <v>7227.489417791367</v>
       </c>
     </row>
@@ -14920,16 +16522,24 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
+        <v>0.3828849792480469</v>
+      </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q93" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S93" t="n">
         <v>12309.42152237892</v>
       </c>
     </row>
@@ -14987,16 +16597,24 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
+        <v>0.3831324577331543</v>
+      </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q94" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S94" t="n">
         <v>484.5295195579529</v>
       </c>
     </row>
@@ -15056,16 +16674,24 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
+        <v>0.3833854198455811</v>
+      </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S95" t="n">
         <v>4524.048715829849</v>
       </c>
     </row>
@@ -15121,16 +16747,24 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>0.3836474418640137</v>
+      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -15188,16 +16822,24 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
+        <v>0.3838908672332764</v>
+      </c>
       <c r="P97" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -15259,14 +16901,22 @@
         </is>
       </c>
       <c r="O98" t="n">
+        <v>0.3842391967773438</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
         <v>0.2537009716033936</v>
       </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q98" t="n">
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S98" t="n">
         <v>0.3205544948577881</v>
       </c>
     </row>
@@ -15330,14 +16980,22 @@
         </is>
       </c>
       <c r="O99" t="n">
+        <v>0.3845312595367432</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
         <v>0.2539138793945312</v>
       </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S99" t="n">
         <v>0.320777416229248</v>
       </c>
     </row>
@@ -15401,14 +17059,22 @@
         </is>
       </c>
       <c r="O100" t="n">
+        <v>0.384782075881958</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
         <v>0.2541427612304688</v>
       </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S100" t="n">
         <v>0.3210086822509766</v>
       </c>
     </row>
@@ -15472,14 +17138,22 @@
         </is>
       </c>
       <c r="O101" t="n">
+        <v>0.3850305080413818</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
         <v>0.2543821334838867</v>
       </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S101" t="n">
         <v>0.3212282657623291</v>
       </c>
     </row>
@@ -15537,18 +17211,24 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O102" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
         <v>3025.614156961441</v>
       </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -15604,16 +17284,24 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>3609.381393671036</v>
+      </c>
       <c r="P103" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -15675,10 +17363,16 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q104" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S104" t="n">
         <v>484.5300431251526</v>
       </c>
     </row>
@@ -15738,18 +17432,24 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O105" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
         <v>9334.138869524002</v>
       </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q105" t="n">
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S105" t="n">
         <v>4524.049172878265</v>
       </c>
     </row>
@@ -15807,16 +17507,24 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O106" t="n">
+        <v>491.8790836334229</v>
+      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>showed</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -15874,16 +17582,24 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
+        <v>9317.176427602768</v>
+      </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q107" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S107" t="n">
         <v>29.01506066322327</v>
       </c>
     </row>
@@ -15945,14 +17661,22 @@
         </is>
       </c>
       <c r="O108" t="n">
+        <v>78.04504752159119</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
         <v>5729.306091547012</v>
       </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q108" t="n">
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S108" t="n">
         <v>10532.4744386673</v>
       </c>
     </row>
@@ -16016,14 +17740,22 @@
         </is>
       </c>
       <c r="O109" t="n">
+        <v>6913.922839403152</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
         <v>9334.139220237732</v>
       </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q109" t="n">
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S109" t="n">
         <v>1729.583037853241</v>
       </c>
     </row>
@@ -16083,16 +17815,24 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
+        <v>54.48941802978516</v>
+      </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q110" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S110" t="n">
         <v>0.3216018676757812</v>
       </c>
     </row>
@@ -16150,18 +17890,24 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O111" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
         <v>219.1100292205811</v>
       </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q111" t="n">
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S111" t="n">
         <v>392.9093477725983</v>
       </c>
     </row>
@@ -16221,18 +17967,24 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O112" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
         <v>3025.61471581459</v>
       </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q112" t="n">
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S112" t="n">
         <v>63.43694496154785</v>
       </c>
     </row>
@@ -16296,14 +18048,22 @@
         </is>
       </c>
       <c r="O113" t="n">
+        <v>3609.38193488121</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
         <v>14.54750967025757</v>
       </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q113" t="n">
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S113" t="n">
         <v>168.7334537506104</v>
       </c>
     </row>
@@ -16367,14 +18127,22 @@
         </is>
       </c>
       <c r="O114" t="n">
+        <v>33.60009956359863</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
         <v>20.36714148521423</v>
       </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q114" t="n">
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S114" t="n">
         <v>392.9096970558167</v>
       </c>
     </row>
@@ -16438,14 +18206,22 @@
         </is>
       </c>
       <c r="O115" t="n">
+        <v>55.64487648010254</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
         <v>84.522376537323</v>
       </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q115" t="n">
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S115" t="n">
         <v>38.12303781509399</v>
       </c>
     </row>
@@ -16509,14 +18285,22 @@
         </is>
       </c>
       <c r="O116" t="n">
+        <v>491.8795733451843</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
         <v>59.48797988891602</v>
       </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q116" t="n">
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S116" t="n">
         <v>73.92270088195801</v>
       </c>
     </row>
@@ -16580,14 +18364,22 @@
         </is>
       </c>
       <c r="O117" t="n">
+        <v>63.76572394371033</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
         <v>59.48833703994751</v>
       </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q117" t="n">
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S117" t="n">
         <v>29.01555895805359</v>
       </c>
     </row>
@@ -16651,14 +18443,22 @@
         </is>
       </c>
       <c r="O118" t="n">
+        <v>78.04560375213623</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
         <v>5729.306501865387</v>
       </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q118" t="n">
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S118" t="n">
         <v>50.76859855651855</v>
       </c>
     </row>
@@ -16722,14 +18522,22 @@
         </is>
       </c>
       <c r="O119" t="n">
+        <v>15.04903531074524</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
         <v>9334.139669179916</v>
       </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q119" t="n">
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S119" t="n">
         <v>41.57435822486877</v>
       </c>
     </row>
@@ -16789,16 +18597,24 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O120" t="n">
+        <v>54.48986029624939</v>
+      </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q120" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S120" t="n">
         <v>0.3220047950744629</v>
       </c>
     </row>
@@ -16862,14 +18678,22 @@
         </is>
       </c>
       <c r="O121" t="n">
+        <v>0.3857827186584473</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
         <v>219.110648393631</v>
       </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q121" t="n">
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S121" t="n">
         <v>21.50876808166504</v>
       </c>
     </row>
@@ -16933,14 +18757,22 @@
         </is>
       </c>
       <c r="O122" t="n">
+        <v>13.90477752685547</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
         <v>39.85473084449768</v>
       </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q122" t="n">
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S122" t="n">
         <v>17.50112342834473</v>
       </c>
     </row>
@@ -17004,14 +18836,22 @@
         </is>
       </c>
       <c r="O123" t="n">
+        <v>15.04977750778198</v>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
         <v>14.54829001426697</v>
       </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S123" t="n">
         <v>20.34866261482239</v>
       </c>
     </row>
@@ -17075,14 +18915,22 @@
         </is>
       </c>
       <c r="O124" t="n">
+        <v>33.6006133556366</v>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
         <v>20.36783313751221</v>
       </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q124" t="n">
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S124" t="n">
         <v>454.3250255584717</v>
       </c>
     </row>
@@ -17146,14 +18994,22 @@
         </is>
       </c>
       <c r="O125" t="n">
+        <v>33.60087323188782</v>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
         <v>84.52291917800903</v>
       </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q125" t="n">
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S125" t="n">
         <v>56.5850236415863</v>
       </c>
     </row>
@@ -17217,14 +19073,22 @@
         </is>
       </c>
       <c r="O126" t="n">
+        <v>84.90139055252075</v>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
         <v>13.38175630569458</v>
       </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q126" t="n">
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S126" t="n">
         <v>73.92324900627136</v>
       </c>
     </row>
@@ -17288,14 +19152,22 @@
         </is>
       </c>
       <c r="O127" t="n">
+        <v>63.76622986793518</v>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
         <v>16.86820554733276</v>
       </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q127" t="n">
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S127" t="n">
         <v>545.106457233429</v>
       </c>
     </row>
@@ -17359,14 +19231,22 @@
         </is>
       </c>
       <c r="O128" t="n">
+        <v>286.6322414875031</v>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
         <v>0.2551817893981934</v>
       </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q128" t="n">
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S128" t="n">
         <v>20.34911751747131</v>
       </c>
     </row>
@@ -17430,14 +19310,22 @@
         </is>
       </c>
       <c r="O129" t="n">
+        <v>15.05042052268982</v>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
         <v>83.38333916664124</v>
       </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q129" t="n">
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S129" t="n">
         <v>15.19966745376587</v>
       </c>
     </row>
@@ -17501,14 +19389,22 @@
         </is>
       </c>
       <c r="O130" t="n">
+        <v>19.6966028213501</v>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
         <v>25.0237500667572</v>
       </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q130" t="n">
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S130" t="n">
         <v>0.3224718570709229</v>
       </c>
     </row>
@@ -17572,14 +19468,22 @@
         </is>
       </c>
       <c r="O131" t="n">
+        <v>0.3863418102264404</v>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
         <v>133.2313759326935</v>
       </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q131" t="n">
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S131" t="n">
         <v>21.50934386253357</v>
       </c>
     </row>
@@ -17643,14 +19547,22 @@
         </is>
       </c>
       <c r="O132" t="n">
+        <v>13.90537643432617</v>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
         <v>39.85525155067444</v>
       </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q132" t="n">
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S132" t="n">
         <v>17.50164985656738</v>
       </c>
     </row>
@@ -17710,16 +19622,24 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O133" t="n">
+        <v>16.19243764877319</v>
+      </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q133" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S133" t="n">
         <v>20.34942770004272</v>
       </c>
     </row>
@@ -17779,16 +19699,24 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="O134" t="n">
+        <v>219.213273525238</v>
+      </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q134" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S134" t="n">
         <v>10532.47513890266</v>
       </c>
     </row>
@@ -17852,14 +19780,22 @@
         </is>
       </c>
       <c r="O135" t="n">
+        <v>33.60128498077393</v>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
         <v>574.6699085235596</v>
       </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q135" t="n">
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S135" t="n">
         <v>56.58557057380676</v>
       </c>
     </row>
@@ -17923,14 +19859,22 @@
         </is>
       </c>
       <c r="O136" t="n">
+        <v>84.9018657207489</v>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
         <v>13.38233351707458</v>
       </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q136" t="n">
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S136" t="n">
         <v>13564.30748772621</v>
       </c>
     </row>
@@ -17994,14 +19938,22 @@
         </is>
       </c>
       <c r="O137" t="n">
+        <v>644.2702758312225</v>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
         <v>16.86874127388</v>
       </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q137" t="n">
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S137" t="n">
         <v>13864.72289514542</v>
       </c>
     </row>
@@ -18065,14 +20017,22 @@
         </is>
       </c>
       <c r="O138" t="n">
+        <v>286.6326885223389</v>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
         <v>0.2556257247924805</v>
       </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q138" t="n">
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S138" t="n">
         <v>20.34975123405457</v>
       </c>
     </row>
@@ -18132,18 +20092,24 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O139" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
         <v>83.38384914398193</v>
       </c>
-      <c r="P139" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q139" t="n">
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S139" t="n">
         <v>15.20037889480591</v>
       </c>
     </row>
@@ -18207,14 +20173,22 @@
         </is>
       </c>
       <c r="O140" t="n">
+        <v>19.69727468490601</v>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
         <v>25.02422308921814</v>
       </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q140" t="n">
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S140" t="n">
         <v>0.3228919506072998</v>
       </c>
     </row>
@@ -18274,18 +20248,24 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="O141" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
         <v>133.2318179607391</v>
       </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Q141" t="n">
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="S141" t="n">
         <v>12963.49436283112</v>
       </c>
     </row>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,11 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -532,7 +537,10 @@
         <v>6.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.590909090909091</v>
       </c>
     </row>
     <row r="3">
@@ -572,6 +580,9 @@
       <c r="L3" t="n">
         <v>0.5</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -610,6 +621,9 @@
       <c r="L4" t="n">
         <v>0.5</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -648,6 +662,9 @@
       <c r="L5" t="n">
         <v>0.5</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -686,6 +703,9 @@
       <c r="L6" t="n">
         <v>0.5</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -724,6 +744,9 @@
       <c r="L7" t="n">
         <v>0.5</v>
       </c>
+      <c r="M7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +783,9 @@
         <v>-1</v>
       </c>
       <c r="L8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,6 +824,9 @@
         <v>-1</v>
       </c>
       <c r="L9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M9" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -836,6 +865,9 @@
         <v>-1</v>
       </c>
       <c r="L10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,6 +906,9 @@
         <v>-1</v>
       </c>
       <c r="L11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -912,7 +947,10 @@
         <v>6.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.590909090909091</v>
       </c>
     </row>
     <row r="13">
@@ -952,6 +990,9 @@
       <c r="L13" t="n">
         <v>0.5</v>
       </c>
+      <c r="M13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -990,6 +1031,9 @@
       <c r="L14" t="n">
         <v>0.5</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1026,7 +1070,10 @@
         <v>0.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="16">
@@ -1066,6 +1113,9 @@
       <c r="L16" t="n">
         <v>0.5</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1104,6 +1154,9 @@
       <c r="L17" t="n">
         <v>0.5</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1140,6 +1193,9 @@
         <v>-1</v>
       </c>
       <c r="L18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1178,6 +1234,9 @@
         <v>-1</v>
       </c>
       <c r="L19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M19" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1216,6 +1275,9 @@
         <v>-1</v>
       </c>
       <c r="L20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1254,6 +1316,9 @@
         <v>-1</v>
       </c>
       <c r="L21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1292,7 +1357,10 @@
         <v>0.5</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="23">
@@ -1330,7 +1398,10 @@
         <v>0.5</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6818181818181818</v>
       </c>
     </row>
     <row r="24">
@@ -1368,7 +1439,10 @@
         <v>0.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.045454545454545</v>
       </c>
     </row>
     <row r="25">
@@ -1406,7 +1480,10 @@
         <v>0.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="26">
@@ -1444,7 +1521,10 @@
         <v>1.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="27">
@@ -1482,7 +1562,10 @@
         <v>0.5</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="28">
@@ -1520,6 +1603,9 @@
         <v>-1</v>
       </c>
       <c r="L28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1558,6 +1644,9 @@
         <v>-1</v>
       </c>
       <c r="L29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M29" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1596,6 +1685,9 @@
         <v>-1</v>
       </c>
       <c r="L30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1634,6 +1726,9 @@
         <v>-1</v>
       </c>
       <c r="L31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M31" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -1674,6 +1769,9 @@
       <c r="L32" t="n">
         <v>0.5</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1712,6 +1810,9 @@
       <c r="L33" t="n">
         <v>0.5</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1748,7 +1849,10 @@
         <v>0.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="35">
@@ -1786,7 +1890,10 @@
         <v>0.5</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="36">
@@ -1824,7 +1931,10 @@
         <v>1.5</v>
       </c>
       <c r="L36" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="37">
@@ -1862,7 +1972,10 @@
         <v>3.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.136363636363636</v>
       </c>
     </row>
     <row r="38">
@@ -1900,6 +2013,9 @@
         <v>-1</v>
       </c>
       <c r="L38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1938,6 +2054,9 @@
         <v>-1</v>
       </c>
       <c r="L39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M39" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1976,6 +2095,9 @@
         <v>-1</v>
       </c>
       <c r="L40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2014,6 +2136,9 @@
         <v>-1</v>
       </c>
       <c r="L41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M41" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -2054,6 +2179,9 @@
       <c r="L42" t="n">
         <v>0.5</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2092,6 +2220,9 @@
       <c r="L43" t="n">
         <v>0.5</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2130,6 +2261,9 @@
       <c r="L44" t="n">
         <v>0.5</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2168,6 +2302,9 @@
       <c r="L45" t="n">
         <v>0.5</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2206,6 +2343,9 @@
       <c r="L46" t="n">
         <v>0.5</v>
       </c>
+      <c r="M46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2244,6 +2384,9 @@
       <c r="L47" t="n">
         <v>0.5</v>
       </c>
+      <c r="M47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2280,6 +2423,9 @@
         <v>-1</v>
       </c>
       <c r="L48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,6 +2464,9 @@
         <v>-1</v>
       </c>
       <c r="L49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M49" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2356,6 +2505,9 @@
         <v>-1</v>
       </c>
       <c r="L50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2394,6 +2546,9 @@
         <v>-1</v>
       </c>
       <c r="L51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M51" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -2432,7 +2587,10 @@
         <v>0.5</v>
       </c>
       <c r="L52" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="53">
@@ -2472,6 +2630,9 @@
       <c r="L53" t="n">
         <v>0.5</v>
       </c>
+      <c r="M53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2510,6 +2671,9 @@
       <c r="L54" t="n">
         <v>0.5</v>
       </c>
+      <c r="M54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2548,6 +2712,9 @@
       <c r="L55" t="n">
         <v>0.5</v>
       </c>
+      <c r="M55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2586,6 +2753,9 @@
       <c r="L56" t="n">
         <v>0.5</v>
       </c>
+      <c r="M56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2624,6 +2794,9 @@
       <c r="L57" t="n">
         <v>0.5</v>
       </c>
+      <c r="M57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2660,6 +2833,9 @@
         <v>-1</v>
       </c>
       <c r="L58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2698,6 +2874,9 @@
         <v>-1</v>
       </c>
       <c r="L59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2736,6 +2915,9 @@
         <v>-1</v>
       </c>
       <c r="L60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,6 +2956,9 @@
         <v>-1</v>
       </c>
       <c r="L61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M61" t="n">
         <v>3.25</v>
       </c>
     </row>
@@ -2812,7 +2997,10 @@
         <v>0.5</v>
       </c>
       <c r="L62" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="63">
@@ -2850,7 +3038,10 @@
         <v>0.5</v>
       </c>
       <c r="L63" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="64">
@@ -2890,6 +3081,9 @@
       <c r="L64" t="n">
         <v>0.5</v>
       </c>
+      <c r="M64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2926,7 +3120,10 @@
         <v>0.5</v>
       </c>
       <c r="L65" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="66">
@@ -2966,6 +3163,9 @@
       <c r="L66" t="n">
         <v>0.5</v>
       </c>
+      <c r="M66" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3004,6 +3204,9 @@
       <c r="L67" t="n">
         <v>0.5</v>
       </c>
+      <c r="M67" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3040,6 +3243,9 @@
         <v>-1</v>
       </c>
       <c r="L68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3078,6 +3284,9 @@
         <v>-1</v>
       </c>
       <c r="L69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M69" t="n">
         <v>4.75</v>
       </c>
     </row>
@@ -3116,6 +3325,9 @@
         <v>-1</v>
       </c>
       <c r="L70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3154,6 +3366,9 @@
         <v>-1</v>
       </c>
       <c r="L71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M71" t="n">
         <v>6.25</v>
       </c>
     </row>
@@ -3192,7 +3407,10 @@
         <v>0.5</v>
       </c>
       <c r="L72" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="73">
@@ -3230,7 +3448,10 @@
         <v>0.5</v>
       </c>
       <c r="L73" t="n">
-        <v>1.375</v>
+        <v>0.5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.277777777777778</v>
       </c>
     </row>
     <row r="74">
@@ -3268,7 +3489,10 @@
         <v>0.5</v>
       </c>
       <c r="L74" t="n">
-        <v>1.125</v>
+        <v>0.5</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.055555555555556</v>
       </c>
     </row>
     <row r="75">
@@ -3306,7 +3530,10 @@
         <v>0.5</v>
       </c>
       <c r="L75" t="n">
-        <v>0.875</v>
+        <v>0.5</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="76">
@@ -3344,7 +3571,10 @@
         <v>0.5</v>
       </c>
       <c r="L76" t="n">
-        <v>0.875</v>
+        <v>0.5</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="77">
@@ -3382,7 +3612,10 @@
         <v>0.5</v>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="78">
@@ -3420,6 +3653,9 @@
         <v>-1</v>
       </c>
       <c r="L78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3458,6 +3694,9 @@
         <v>-1</v>
       </c>
       <c r="L79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M79" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3496,6 +3735,9 @@
         <v>-1</v>
       </c>
       <c r="L80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3534,6 +3776,9 @@
         <v>-1</v>
       </c>
       <c r="L81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3572,7 +3817,10 @@
         <v>0.5</v>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>3.5</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3.055555555555555</v>
       </c>
     </row>
     <row r="83">
@@ -3610,7 +3858,10 @@
         <v>0.5</v>
       </c>
       <c r="L83" t="n">
-        <v>1.375</v>
+        <v>0.5</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.277777777777778</v>
       </c>
     </row>
     <row r="84">
@@ -3648,7 +3899,10 @@
         <v>0.5</v>
       </c>
       <c r="L84" t="n">
-        <v>1.625</v>
+        <v>0.5</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="85">
@@ -3686,7 +3940,10 @@
         <v>3.5</v>
       </c>
       <c r="L85" t="n">
-        <v>2.125</v>
+        <v>0.5</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.944444444444444</v>
       </c>
     </row>
     <row r="86">
@@ -3724,7 +3981,10 @@
         <v>0.5</v>
       </c>
       <c r="L86" t="n">
-        <v>1.375</v>
+        <v>0.5</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.277777777777778</v>
       </c>
     </row>
     <row r="87">
@@ -3762,7 +4022,10 @@
         <v>0.5</v>
       </c>
       <c r="L87" t="n">
-        <v>2.125</v>
+        <v>0.5</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.944444444444444</v>
       </c>
     </row>
     <row r="88">
@@ -3800,6 +4063,9 @@
         <v>-1</v>
       </c>
       <c r="L88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3838,6 +4104,9 @@
         <v>-1</v>
       </c>
       <c r="L89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3876,6 +4145,9 @@
         <v>-1</v>
       </c>
       <c r="L90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3914,6 +4186,9 @@
         <v>-1</v>
       </c>
       <c r="L91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M91" t="n">
         <v>6.45</v>
       </c>
     </row>
@@ -3952,7 +4227,10 @@
         <v>1.5</v>
       </c>
       <c r="L92" t="n">
-        <v>2.125</v>
+        <v>0.5</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.944444444444444</v>
       </c>
     </row>
     <row r="93">
@@ -3990,7 +4268,10 @@
         <v>0.5</v>
       </c>
       <c r="L93" t="n">
-        <v>1.625</v>
+        <v>0.5</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="94">
@@ -4028,7 +4309,10 @@
         <v>4.5</v>
       </c>
       <c r="L94" t="n">
-        <v>2.875</v>
+        <v>1.5</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2.722222222222222</v>
       </c>
     </row>
     <row r="95">
@@ -4066,7 +4350,10 @@
         <v>1.5</v>
       </c>
       <c r="L95" t="n">
-        <v>3</v>
+        <v>7.5</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="96">
@@ -4104,7 +4391,10 @@
         <v>0.5</v>
       </c>
       <c r="L96" t="n">
-        <v>1.625</v>
+        <v>1.5</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.611111111111111</v>
       </c>
     </row>
     <row r="97">
@@ -4142,7 +4432,10 @@
         <v>0.5</v>
       </c>
       <c r="L97" t="n">
-        <v>2.125</v>
+        <v>0.5</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.944444444444444</v>
       </c>
     </row>
     <row r="98">
@@ -4180,6 +4473,9 @@
         <v>-1</v>
       </c>
       <c r="L98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4218,6 +4514,9 @@
         <v>-1</v>
       </c>
       <c r="L99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M99" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -4256,6 +4555,9 @@
         <v>-1</v>
       </c>
       <c r="L100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,6 +4596,9 @@
         <v>-1</v>
       </c>
       <c r="L101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M101" t="n">
         <v>6.7</v>
       </c>
     </row>
@@ -4332,7 +4637,10 @@
         <v>0.5</v>
       </c>
       <c r="L102" t="n">
-        <v>3.2</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3.663636363636364</v>
       </c>
     </row>
     <row r="103">
@@ -4370,7 +4678,10 @@
         <v>0.5</v>
       </c>
       <c r="L103" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="104">
@@ -4408,7 +4719,10 @@
         <v>4.5</v>
       </c>
       <c r="L104" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3.045454545454545</v>
       </c>
     </row>
     <row r="105">
@@ -4446,7 +4760,10 @@
         <v>1.5</v>
       </c>
       <c r="L105" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3.863636363636364</v>
       </c>
     </row>
     <row r="106">
@@ -4484,7 +4801,10 @@
         <v>0.5</v>
       </c>
       <c r="L106" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="107">
@@ -4522,7 +4842,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L107" t="n">
-        <v>4.38</v>
+        <v>3.5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="108">
@@ -4560,7 +4883,10 @@
         <v>1.5</v>
       </c>
       <c r="L108" t="n">
-        <v>2.666666666666667</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3.542857142857143</v>
       </c>
     </row>
     <row r="109">
@@ -4598,7 +4924,10 @@
         <v>3.5</v>
       </c>
       <c r="L109" t="n">
-        <v>5.48</v>
+        <v>1.5</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5.118181818181818</v>
       </c>
     </row>
     <row r="110">
@@ -4636,6 +4965,9 @@
         <v>-1</v>
       </c>
       <c r="L110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M110" t="n">
         <v>4.166666666666667</v>
       </c>
     </row>
@@ -4674,7 +5006,10 @@
         <v>4.5</v>
       </c>
       <c r="L111" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4.227272727272728</v>
       </c>
     </row>
     <row r="112">
@@ -4712,7 +5047,10 @@
         <v>6.5</v>
       </c>
       <c r="L112" t="n">
-        <v>5.840000000000001</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M112" t="n">
+        <v>6.063636363636363</v>
       </c>
     </row>
     <row r="113">
@@ -4750,7 +5088,10 @@
         <v>5.5</v>
       </c>
       <c r="L113" t="n">
-        <v>6.49</v>
+        <v>5.5</v>
+      </c>
+      <c r="M113" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="114">
@@ -4790,6 +5131,9 @@
       <c r="L114" t="n">
         <v>7.5</v>
       </c>
+      <c r="M114" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4826,7 +5170,10 @@
         <v>7.5</v>
       </c>
       <c r="L115" t="n">
-        <v>5.7</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5.936363636363637</v>
       </c>
     </row>
     <row r="116">
@@ -4864,7 +5211,10 @@
         <v>6.5</v>
       </c>
       <c r="L116" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5.590909090909091</v>
       </c>
     </row>
     <row r="117">
@@ -4902,7 +5252,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L117" t="n">
-        <v>6.344444444444444</v>
+        <v>3.5</v>
+      </c>
+      <c r="M117" t="n">
+        <v>6.06</v>
       </c>
     </row>
     <row r="118">
@@ -4940,7 +5293,10 @@
         <v>7.5</v>
       </c>
       <c r="L118" t="n">
-        <v>5.833333333333333</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M118" t="n">
+        <v>6.257142857142857</v>
       </c>
     </row>
     <row r="119">
@@ -4978,7 +5334,10 @@
         <v>7.5</v>
       </c>
       <c r="L119" t="n">
-        <v>6.877777777777778</v>
+        <v>1.5</v>
+      </c>
+      <c r="M119" t="n">
+        <v>6.340000000000001</v>
       </c>
     </row>
     <row r="120">
@@ -5016,6 +5375,9 @@
         <v>-1</v>
       </c>
       <c r="L120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M120" t="n">
         <v>4.166666666666667</v>
       </c>
     </row>
@@ -5054,7 +5416,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L121" t="n">
-        <v>7.677777777777779</v>
+        <v>5.5</v>
+      </c>
+      <c r="M121" t="n">
+        <v>7.460000000000001</v>
       </c>
     </row>
     <row r="122">
@@ -5092,7 +5457,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L122" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M122" t="n">
+        <v>8.118181818181817</v>
       </c>
     </row>
     <row r="123">
@@ -5130,7 +5498,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L123" t="n">
-        <v>7.909999999999999</v>
+        <v>7.5</v>
+      </c>
+      <c r="M123" t="n">
+        <v>7.872727272727272</v>
       </c>
     </row>
     <row r="124">
@@ -5170,6 +5541,9 @@
       <c r="L124" t="n">
         <v>7.5</v>
       </c>
+      <c r="M124" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5206,7 +5580,10 @@
         <v>7.5</v>
       </c>
       <c r="L125" t="n">
-        <v>7.68</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M125" t="n">
+        <v>7.736363636363635</v>
       </c>
     </row>
     <row r="126">
@@ -5244,7 +5621,10 @@
         <v>6.5</v>
       </c>
       <c r="L126" t="n">
-        <v>7.56</v>
+        <v>6.5</v>
+      </c>
+      <c r="M126" t="n">
+        <v>7.463636363636363</v>
       </c>
     </row>
     <row r="127">
@@ -5282,7 +5662,10 @@
         <v>4.5</v>
       </c>
       <c r="L127" t="n">
-        <v>7.644444444444446</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M127" t="n">
+        <v>7.710000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5320,7 +5703,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L128" t="n">
-        <v>7.220000000000001</v>
+        <v>5.5</v>
+      </c>
+      <c r="M128" t="n">
+        <v>6.933333333333334</v>
       </c>
     </row>
     <row r="129">
@@ -5358,7 +5744,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L129" t="n">
-        <v>7.44</v>
+        <v>7.5</v>
+      </c>
+      <c r="M129" t="n">
+        <v>7.445454545454544</v>
       </c>
     </row>
     <row r="130">
@@ -5396,6 +5785,9 @@
         <v>-1</v>
       </c>
       <c r="L130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M130" t="n">
         <v>8.4</v>
       </c>
     </row>
@@ -5434,7 +5826,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L131" t="n">
-        <v>8.044444444444444</v>
+        <v>5.5</v>
+      </c>
+      <c r="M131" t="n">
+        <v>7.790000000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5472,7 +5867,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L132" t="n">
-        <v>6.56</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M132" t="n">
+        <v>6.718181818181818</v>
       </c>
     </row>
     <row r="133">
@@ -5510,7 +5908,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L133" t="n">
-        <v>5.32</v>
+        <v>1.5</v>
+      </c>
+      <c r="M133" t="n">
+        <v>4.972727272727273</v>
       </c>
     </row>
     <row r="134">
@@ -5548,7 +5949,10 @@
         <v>1.5</v>
       </c>
       <c r="L134" t="n">
-        <v>3</v>
+        <v>1.5</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2.863636363636364</v>
       </c>
     </row>
     <row r="135">
@@ -5586,7 +5990,10 @@
         <v>7.5</v>
       </c>
       <c r="L135" t="n">
-        <v>7.279999999999999</v>
+        <v>1.5</v>
+      </c>
+      <c r="M135" t="n">
+        <v>6.754545454545454</v>
       </c>
     </row>
     <row r="136">
@@ -5624,7 +6031,10 @@
         <v>0.5</v>
       </c>
       <c r="L136" t="n">
-        <v>6.659999999999999</v>
+        <v>0.5</v>
+      </c>
+      <c r="M136" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="137">
@@ -5662,7 +6072,10 @@
         <v>0.5</v>
       </c>
       <c r="L137" t="n">
-        <v>6.65</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M137" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="138">
@@ -5700,7 +6113,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L138" t="n">
-        <v>6.220000000000001</v>
+        <v>5.5</v>
+      </c>
+      <c r="M138" t="n">
+        <v>6.100000000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5738,7 +6154,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L139" t="n">
-        <v>6.788888888888888</v>
+        <v>7.5</v>
+      </c>
+      <c r="M139" t="n">
+        <v>6.859999999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5776,6 +6195,9 @@
         <v>-1</v>
       </c>
       <c r="L140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M140" t="n">
         <v>8.4</v>
       </c>
     </row>
@@ -5814,7 +6236,10 @@
         <v>0.5</v>
       </c>
       <c r="L141" t="n">
-        <v>4.890000000000001</v>
+        <v>5.5</v>
+      </c>
+      <c r="M141" t="n">
+        <v>4.945454545454546</v>
       </c>
     </row>
   </sheetData>
@@ -5828,7 +6253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5892,6 +6317,11 @@
           <t>2023-07-17</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -5943,6 +6373,11 @@
       <c r="K2" t="n">
         <v>85.28865385055542</v>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -5998,6 +6433,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -6053,6 +6493,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -6108,6 +6553,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -6163,6 +6613,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -6218,6 +6673,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -6253,6 +6713,9 @@
       <c r="K8" t="n">
         <v>0.3110344409942627</v>
       </c>
+      <c r="L8" t="n">
+        <v>0.4321067333221436</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -6288,6 +6751,9 @@
       <c r="K9" t="n">
         <v>0.3112995624542236</v>
       </c>
+      <c r="L9" t="n">
+        <v>0.4323821067810059</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -6323,6 +6789,9 @@
       <c r="K10" t="n">
         <v>0.3115518093109131</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.4326884746551514</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -6358,6 +6827,9 @@
       <c r="K11" t="n">
         <v>0.3117744922637939</v>
       </c>
+      <c r="L11" t="n">
+        <v>0.432938814163208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -6409,6 +6881,11 @@
       <c r="K12" t="n">
         <v>85.28914594650269</v>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -6464,6 +6941,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -6519,6 +7001,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -6570,6 +7057,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -6625,6 +7117,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -6680,6 +7177,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -6715,6 +7217,9 @@
       <c r="K18" t="n">
         <v>0.3121459484100342</v>
       </c>
+      <c r="L18" t="n">
+        <v>0.4334080219268799</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -6750,6 +7255,9 @@
       <c r="K19" t="n">
         <v>0.3124051094055176</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.433743953704834</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -6785,6 +7293,9 @@
       <c r="K20" t="n">
         <v>0.3126590251922607</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.4340572357177734</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -6820,6 +7331,9 @@
       <c r="K21" t="n">
         <v>0.312891960144043</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.4343032836914062</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -6873,6 +7387,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -6926,6 +7445,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -6977,6 +7501,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -7028,6 +7557,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -7081,6 +7615,11 @@
       <c r="K26" t="n">
         <v>7527.884927034378</v>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -7132,6 +7671,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -7167,6 +7711,9 @@
       <c r="K28" t="n">
         <v>0.3132364749908447</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.4347164630889893</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -7202,6 +7749,9 @@
       <c r="K29" t="n">
         <v>0.3134596347808838</v>
       </c>
+      <c r="L29" t="n">
+        <v>0.4350509643554688</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -7237,6 +7787,9 @@
       <c r="K30" t="n">
         <v>0.3136937618255615</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.435300350189209</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -7272,6 +7825,9 @@
       <c r="K31" t="n">
         <v>0.3139371871948242</v>
       </c>
+      <c r="L31" t="n">
+        <v>0.4355978965759277</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -7327,6 +7883,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -7382,6 +7943,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -7435,6 +8001,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -7488,6 +8059,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -7541,6 +8117,11 @@
       <c r="K36" t="n">
         <v>7527.885731935501</v>
       </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -7590,6 +8171,11 @@
       <c r="K37" t="n">
         <v>1153.799431085587</v>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -7625,6 +8211,9 @@
       <c r="K38" t="n">
         <v>0.3143126964569092</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.4360213279724121</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -7660,6 +8249,9 @@
       <c r="K39" t="n">
         <v>0.3145370483398438</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.4362690448760986</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -7695,6 +8287,9 @@
       <c r="K40" t="n">
         <v>0.3147566318511963</v>
       </c>
+      <c r="L40" t="n">
+        <v>0.4365458488464355</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -7730,6 +8325,9 @@
       <c r="K41" t="n">
         <v>0.3149847984313965</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.4367852210998535</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -7783,6 +8381,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -7836,6 +8439,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -7889,6 +8497,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -7942,6 +8555,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7995,6 +8613,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -8048,6 +8671,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -8083,6 +8711,9 @@
       <c r="K48" t="n">
         <v>0.3153231143951416</v>
       </c>
+      <c r="L48" t="n">
+        <v>0.437408447265625</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -8126,6 +8757,9 @@
       <c r="K49" t="n">
         <v>0.315544605255127</v>
       </c>
+      <c r="L49" t="n">
+        <v>0.4377083778381348</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -8161,6 +8795,9 @@
       <c r="K50" t="n">
         <v>0.3157632350921631</v>
       </c>
+      <c r="L50" t="n">
+        <v>0.4379770755767822</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -8202,6 +8839,9 @@
       <c r="K51" t="n">
         <v>0.315993070602417</v>
       </c>
+      <c r="L51" t="n">
+        <v>0.4382524490356445</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8251,6 +8891,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8302,6 +8947,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8353,6 +9003,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8404,6 +9059,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8455,6 +9115,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8506,6 +9171,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8541,6 +9211,9 @@
       <c r="K58" t="n">
         <v>0.316333532333374</v>
       </c>
+      <c r="L58" t="n">
+        <v>0.4387507438659668</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8580,6 +9253,9 @@
       <c r="K59" t="n">
         <v>0.3165769577026367</v>
       </c>
+      <c r="L59" t="n">
+        <v>0.4390482902526855</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8615,6 +9291,9 @@
       <c r="K60" t="n">
         <v>0.3168063163757324</v>
       </c>
+      <c r="L60" t="n">
+        <v>0.439288854598999</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8652,6 +9331,9 @@
       <c r="K61" t="n">
         <v>0.3170275688171387</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.4395842552185059</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8701,6 +9383,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8748,6 +9435,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8799,6 +9491,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8848,6 +9545,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8899,6 +9601,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8950,6 +9657,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -8985,6 +9697,9 @@
       <c r="K68" t="n">
         <v>0.3173661231994629</v>
       </c>
+      <c r="L68" t="n">
+        <v>0.4400091171264648</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -9020,6 +9735,9 @@
       <c r="K69" t="n">
         <v>0.3175899982452393</v>
       </c>
+      <c r="L69" t="n">
+        <v>0.4402551651000977</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -9055,6 +9773,9 @@
       <c r="K70" t="n">
         <v>0.3178191184997559</v>
       </c>
+      <c r="L70" t="n">
+        <v>0.4405338764190674</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -9090,6 +9811,9 @@
       <c r="K71" t="n">
         <v>0.3180418014526367</v>
       </c>
+      <c r="L71" t="n">
+        <v>0.4407713413238525</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -9137,6 +9861,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -9186,6 +9915,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -9235,6 +9969,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -9282,6 +10021,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -9329,6 +10073,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -9376,6 +10125,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -9411,6 +10165,9 @@
       <c r="K78" t="n">
         <v>0.3183803558349609</v>
       </c>
+      <c r="L78" t="n">
+        <v>0.4411942958831787</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -9446,6 +10203,9 @@
       <c r="K79" t="n">
         <v>0.3186004161834717</v>
       </c>
+      <c r="L79" t="n">
+        <v>0.4414761066436768</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -9481,6 +10241,9 @@
       <c r="K80" t="n">
         <v>0.318831205368042</v>
       </c>
+      <c r="L80" t="n">
+        <v>0.4417126178741455</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -9516,6 +10279,9 @@
       <c r="K81" t="n">
         <v>0.3190546035766602</v>
       </c>
+      <c r="L81" t="n">
+        <v>0.4419927597045898</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -9559,6 +10325,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L82" t="n">
+        <v>1759.767525672913</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -9602,6 +10371,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -9647,6 +10421,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -9690,6 +10469,11 @@
       <c r="K85" t="n">
         <v>606.2992749214172</v>
       </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -9737,6 +10521,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -9782,6 +10571,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -9817,6 +10611,9 @@
       <c r="K88" t="n">
         <v>0.3195133209228516</v>
       </c>
+      <c r="L88" t="n">
+        <v>0.4424059391021729</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -9852,6 +10649,9 @@
       <c r="K89" t="n">
         <v>0.3197429180145264</v>
       </c>
+      <c r="L89" t="n">
+        <v>0.4426496028900146</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -9887,6 +10687,9 @@
       <c r="K90" t="n">
         <v>0.3199770450592041</v>
       </c>
+      <c r="L90" t="n">
+        <v>0.4429285526275635</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -9922,6 +10725,9 @@
       <c r="K91" t="n">
         <v>0.3201994895935059</v>
       </c>
+      <c r="L91" t="n">
+        <v>0.4431748390197754</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -9963,6 +10769,11 @@
       <c r="K92" t="n">
         <v>7227.489417791367</v>
       </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -10006,6 +10817,11 @@
       <c r="K93" t="n">
         <v>12309.42152237892</v>
       </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -10047,6 +10863,9 @@
       <c r="K94" t="n">
         <v>484.5295195579529</v>
       </c>
+      <c r="L94" t="n">
+        <v>5725.579505205154</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -10084,6 +10903,9 @@
       <c r="K95" t="n">
         <v>4524.048715829849</v>
       </c>
+      <c r="L95" t="n">
+        <v>36.76333332061768</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -10131,6 +10953,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L96" t="n">
+        <v>5725.580008745193</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -10174,6 +10999,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -10209,6 +11039,9 @@
       <c r="K98" t="n">
         <v>0.3205544948577881</v>
       </c>
+      <c r="L98" t="n">
+        <v>0.4436154365539551</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -10244,6 +11077,9 @@
       <c r="K99" t="n">
         <v>0.320777416229248</v>
       </c>
+      <c r="L99" t="n">
+        <v>0.4438910484313965</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -10279,6 +11115,9 @@
       <c r="K100" t="n">
         <v>0.3210086822509766</v>
       </c>
+      <c r="L100" t="n">
+        <v>0.44413161277771</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -10314,6 +11153,9 @@
       <c r="K101" t="n">
         <v>0.3212282657623291</v>
       </c>
+      <c r="L101" t="n">
+        <v>0.4444019794464111</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -10357,6 +11199,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L102" t="n">
+        <v>18.07816457748413</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -10402,6 +11247,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L103" t="n">
+        <v>135.9257564544678</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -10445,6 +11293,9 @@
       <c r="K104" t="n">
         <v>484.5300431251526</v>
       </c>
+      <c r="L104" t="n">
+        <v>5725.580349683762</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -10484,6 +11335,9 @@
       <c r="K105" t="n">
         <v>4524.049172878265</v>
       </c>
+      <c r="L105" t="n">
+        <v>103.4772567749023</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -10527,6 +11381,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="L106" t="n">
+        <v>5725.580641508102</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -10566,6 +11423,9 @@
       <c r="K107" t="n">
         <v>29.01506066322327</v>
       </c>
+      <c r="L107" t="n">
+        <v>1699.089973926544</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -10605,6 +11465,9 @@
       <c r="K108" t="n">
         <v>10532.4744386673</v>
       </c>
+      <c r="L108" t="n">
+        <v>12.65465831756592</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -10640,6 +11503,9 @@
       <c r="K109" t="n">
         <v>1729.583037853241</v>
       </c>
+      <c r="L109" t="n">
+        <v>7828.30997300148</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -10677,6 +11543,9 @@
       <c r="K110" t="n">
         <v>0.3216018676757812</v>
       </c>
+      <c r="L110" t="n">
+        <v>0.4448466300964355</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -10718,6 +11587,9 @@
       <c r="K111" t="n">
         <v>392.9093477725983</v>
       </c>
+      <c r="L111" t="n">
+        <v>135.9262645244598</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -10755,6 +11627,9 @@
       <c r="K112" t="n">
         <v>63.43694496154785</v>
       </c>
+      <c r="L112" t="n">
+        <v>18.07884168624878</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -10790,6 +11665,9 @@
       <c r="K113" t="n">
         <v>168.7334537506104</v>
       </c>
+      <c r="L113" t="n">
+        <v>135.9265828132629</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -10825,6 +11703,9 @@
       <c r="K114" t="n">
         <v>392.9096970558167</v>
       </c>
+      <c r="L114" t="n">
+        <v>49.45992112159729</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -10860,6 +11741,9 @@
       <c r="K115" t="n">
         <v>38.12303781509399</v>
       </c>
+      <c r="L115" t="n">
+        <v>18.0792338848114</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -10897,6 +11781,9 @@
       <c r="K116" t="n">
         <v>73.92270088195801</v>
       </c>
+      <c r="L116" t="n">
+        <v>88.56563568115234</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -10932,6 +11819,9 @@
       <c r="K117" t="n">
         <v>29.01555895805359</v>
       </c>
+      <c r="L117" t="n">
+        <v>1668.757599115372</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -10967,6 +11857,9 @@
       <c r="K118" t="n">
         <v>50.76859855651855</v>
       </c>
+      <c r="L118" t="n">
+        <v>12.65514183044434</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -11002,6 +11895,9 @@
       <c r="K119" t="n">
         <v>41.57435822486877</v>
       </c>
+      <c r="L119" t="n">
+        <v>7828.31035399437</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -11039,6 +11935,9 @@
       <c r="K120" t="n">
         <v>0.3220047950744629</v>
       </c>
+      <c r="L120" t="n">
+        <v>0.4453220367431641</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -11074,6 +11973,9 @@
       <c r="K121" t="n">
         <v>21.50876808166504</v>
       </c>
+      <c r="L121" t="n">
+        <v>135.9269242286682</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -11109,6 +12011,9 @@
       <c r="K122" t="n">
         <v>17.50112342834473</v>
       </c>
+      <c r="L122" t="n">
+        <v>16.84992837905884</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -11144,6 +12049,9 @@
       <c r="K123" t="n">
         <v>20.34866261482239</v>
       </c>
+      <c r="L123" t="n">
+        <v>42.57404661178589</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -11179,6 +12087,9 @@
       <c r="K124" t="n">
         <v>454.3250255584717</v>
       </c>
+      <c r="L124" t="n">
+        <v>49.46042680740356</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -11214,6 +12125,9 @@
       <c r="K125" t="n">
         <v>56.5850236415863</v>
       </c>
+      <c r="L125" t="n">
+        <v>18.07976865768433</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -11249,6 +12163,9 @@
       <c r="K126" t="n">
         <v>73.92324900627136</v>
       </c>
+      <c r="L126" t="n">
+        <v>88.56610631942749</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -11284,6 +12201,9 @@
       <c r="K127" t="n">
         <v>545.106457233429</v>
       </c>
+      <c r="L127" t="n">
+        <v>21.66818618774414</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -11319,6 +12239,9 @@
       <c r="K128" t="n">
         <v>20.34911751747131</v>
       </c>
+      <c r="L128" t="n">
+        <v>199.660567522049</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -11354,6 +12277,9 @@
       <c r="K129" t="n">
         <v>15.19966745376587</v>
       </c>
+      <c r="L129" t="n">
+        <v>36.76425790786743</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -11389,6 +12315,9 @@
       <c r="K130" t="n">
         <v>0.3224718570709229</v>
       </c>
+      <c r="L130" t="n">
+        <v>0.445784330368042</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -11424,6 +12353,9 @@
       <c r="K131" t="n">
         <v>21.50934386253357</v>
       </c>
+      <c r="L131" t="n">
+        <v>177.8369293212891</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -11459,6 +12391,9 @@
       <c r="K132" t="n">
         <v>17.50164985656738</v>
       </c>
+      <c r="L132" t="n">
+        <v>16.85046625137329</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -11496,6 +12431,9 @@
       <c r="K133" t="n">
         <v>20.34942770004272</v>
       </c>
+      <c r="L133" t="n">
+        <v>3622.83340215683</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -11535,6 +12473,9 @@
       <c r="K134" t="n">
         <v>10532.47513890266</v>
       </c>
+      <c r="L134" t="n">
+        <v>6326.290040254593</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -11570,6 +12511,9 @@
       <c r="K135" t="n">
         <v>56.58557057380676</v>
       </c>
+      <c r="L135" t="n">
+        <v>8429.125302553177</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -11605,6 +12549,11 @@
       <c r="K136" t="n">
         <v>13564.30748772621</v>
       </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -11640,6 +12589,9 @@
       <c r="K137" t="n">
         <v>13864.72289514542</v>
       </c>
+      <c r="L137" t="n">
+        <v>21.66874051094055</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -11675,6 +12627,9 @@
       <c r="K138" t="n">
         <v>20.34975123405457</v>
       </c>
+      <c r="L138" t="n">
+        <v>199.6611375808716</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -11712,6 +12667,9 @@
       <c r="K139" t="n">
         <v>15.20037889480591</v>
       </c>
+      <c r="L139" t="n">
+        <v>36.76470804214478</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -11747,6 +12705,9 @@
       <c r="K140" t="n">
         <v>0.3228919506072998</v>
       </c>
+      <c r="L140" t="n">
+        <v>0.4462575912475586</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -11783,6 +12744,9 @@
       </c>
       <c r="K141" t="n">
         <v>12963.49436283112</v>
+      </c>
+      <c r="L141" t="n">
+        <v>177.8375203609467</v>
       </c>
     </row>
   </sheetData>
@@ -11796,7 +12760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W141"/>
+  <dimension ref="A1:Y141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11920,6 +12884,16 @@
           <t>2023-07-17</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -11999,6 +12973,12 @@
       <c r="W2" t="n">
         <v>85.28865385055542</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -12074,6 +13054,12 @@
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -12149,6 +13135,12 @@
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -12224,6 +13216,12 @@
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -12299,6 +13297,12 @@
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -12374,6 +13378,12 @@
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -12469,6 +13479,14 @@
       <c r="W8" t="n">
         <v>0.3110344409942627</v>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.4321067333221436</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -12564,6 +13582,14 @@
       <c r="W9" t="n">
         <v>0.3112995624542236</v>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.4323821067810059</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -12659,6 +13685,14 @@
       <c r="W10" t="n">
         <v>0.3115518093109131</v>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4326884746551514</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -12754,6 +13788,14 @@
       <c r="W11" t="n">
         <v>0.3117744922637939</v>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.432938814163208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -12833,6 +13875,12 @@
       <c r="W12" t="n">
         <v>85.28914594650269</v>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -12908,6 +13956,12 @@
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -12983,6 +14037,12 @@
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -13062,6 +14122,12 @@
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -13137,6 +14203,12 @@
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -13212,6 +14284,12 @@
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -13307,6 +14385,14 @@
       <c r="W18" t="n">
         <v>0.3121459484100342</v>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.4334080219268799</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -13402,6 +14488,14 @@
       <c r="W19" t="n">
         <v>0.3124051094055176</v>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.433743953704834</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -13497,6 +14591,14 @@
       <c r="W20" t="n">
         <v>0.3126590251922607</v>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.4340572357177734</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -13592,6 +14694,14 @@
       <c r="W21" t="n">
         <v>0.312891960144043</v>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.4343032836914062</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -13669,6 +14779,12 @@
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -13746,6 +14862,12 @@
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -13825,6 +14947,12 @@
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -13904,6 +15032,12 @@
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -13981,6 +15115,12 @@
       <c r="W26" t="n">
         <v>7527.884927034378</v>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -14060,6 +15200,12 @@
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -14155,6 +15301,14 @@
       <c r="W28" t="n">
         <v>0.3132364749908447</v>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.4347164630889893</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -14250,6 +15404,14 @@
       <c r="W29" t="n">
         <v>0.3134596347808838</v>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.4350509643554688</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -14345,6 +15507,14 @@
       <c r="W30" t="n">
         <v>0.3136937618255615</v>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.435300350189209</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -14440,6 +15610,14 @@
       <c r="W31" t="n">
         <v>0.3139371871948242</v>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.4355978965759277</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -14515,6 +15693,12 @@
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -14590,6 +15774,12 @@
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -14667,6 +15857,12 @@
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -14744,6 +15940,12 @@
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -14821,6 +16023,12 @@
       <c r="W36" t="n">
         <v>7527.885731935501</v>
       </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -14902,6 +16110,12 @@
       <c r="W37" t="n">
         <v>1153.799431085587</v>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -14997,6 +16211,14 @@
       <c r="W38" t="n">
         <v>0.3143126964569092</v>
       </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.4360213279724121</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -15092,6 +16314,14 @@
       <c r="W39" t="n">
         <v>0.3145370483398438</v>
       </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.4362690448760986</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -15187,6 +16417,14 @@
       <c r="W40" t="n">
         <v>0.3147566318511963</v>
       </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.4365458488464355</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -15282,6 +16520,14 @@
       <c r="W41" t="n">
         <v>0.3149847984313965</v>
       </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.4367852210998535</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -15359,6 +16605,12 @@
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -15436,6 +16688,12 @@
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -15513,6 +16771,12 @@
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -15590,6 +16854,12 @@
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -15667,6 +16937,12 @@
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -15744,6 +17020,12 @@
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -15839,6 +17121,14 @@
       <c r="W48" t="n">
         <v>0.3153231143951416</v>
       </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.437408447265625</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -15926,6 +17216,14 @@
       <c r="W49" t="n">
         <v>0.315544605255127</v>
       </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.4377083778381348</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -16021,6 +17319,14 @@
       <c r="W50" t="n">
         <v>0.3157632350921631</v>
       </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.4379770755767822</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -16110,6 +17416,14 @@
       <c r="W51" t="n">
         <v>0.315993070602417</v>
       </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.4382524490356445</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -16191,6 +17505,12 @@
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -16270,6 +17590,12 @@
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -16349,6 +17675,12 @@
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -16428,6 +17760,12 @@
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -16507,6 +17845,12 @@
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -16586,6 +17930,12 @@
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -16681,6 +18031,14 @@
       <c r="W58" t="n">
         <v>0.316333532333374</v>
       </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.4387507438659668</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -16772,6 +18130,14 @@
       <c r="W59" t="n">
         <v>0.3165769577026367</v>
       </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.4390482902526855</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -16867,6 +18233,14 @@
       <c r="W60" t="n">
         <v>0.3168063163757324</v>
       </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.439288854598999</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -16960,6 +18334,14 @@
       <c r="W61" t="n">
         <v>0.3170275688171387</v>
       </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.4395842552185059</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -17041,6 +18423,12 @@
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -17124,6 +18512,12 @@
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -17203,6 +18597,12 @@
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -17284,6 +18684,12 @@
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -17363,6 +18769,12 @@
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -17442,6 +18854,12 @@
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -17537,6 +18955,14 @@
       <c r="W68" t="n">
         <v>0.3173661231994629</v>
       </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.4400091171264648</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -17632,6 +19058,14 @@
       <c r="W69" t="n">
         <v>0.3175899982452393</v>
       </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.4402551651000977</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -17727,6 +19161,14 @@
       <c r="W70" t="n">
         <v>0.3178191184997559</v>
       </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.4405338764190674</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -17822,6 +19264,14 @@
       <c r="W71" t="n">
         <v>0.3180418014526367</v>
       </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.4407713413238525</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -17905,6 +19355,12 @@
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -17986,6 +19442,12 @@
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -18067,6 +19529,12 @@
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -18150,6 +19618,12 @@
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -18233,6 +19707,12 @@
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -18316,6 +19796,12 @@
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -18411,6 +19897,14 @@
       <c r="W78" t="n">
         <v>0.3183803558349609</v>
       </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y78" t="n">
+        <v>0.4411942958831787</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -18506,6 +20000,14 @@
       <c r="W79" t="n">
         <v>0.3186004161834717</v>
       </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.4414761066436768</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -18601,6 +20103,14 @@
       <c r="W80" t="n">
         <v>0.318831205368042</v>
       </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.4417126178741455</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -18696,6 +20206,14 @@
       <c r="W81" t="n">
         <v>0.3190546035766602</v>
       </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.4419927597045898</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -18783,6 +20301,14 @@
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y82" t="n">
+        <v>1759.767525672913</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -18870,6 +20396,12 @@
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -18955,6 +20487,12 @@
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -19042,6 +20580,12 @@
       <c r="W85" t="n">
         <v>606.2992749214172</v>
       </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -19125,6 +20669,12 @@
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -19210,6 +20760,12 @@
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -19305,6 +20861,14 @@
       <c r="W88" t="n">
         <v>0.3195133209228516</v>
       </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.4424059391021729</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -19400,6 +20964,14 @@
       <c r="W89" t="n">
         <v>0.3197429180145264</v>
       </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y89" t="n">
+        <v>0.4426496028900146</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -19495,6 +21067,14 @@
       <c r="W90" t="n">
         <v>0.3199770450592041</v>
       </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.4429285526275635</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -19590,6 +21170,14 @@
       <c r="W91" t="n">
         <v>0.3201994895935059</v>
       </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.4431748390197754</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -19679,6 +21267,12 @@
       <c r="W92" t="n">
         <v>7227.489417791367</v>
       </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -19766,6 +21360,12 @@
       <c r="W93" t="n">
         <v>12309.42152237892</v>
       </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -19855,6 +21455,14 @@
       <c r="W94" t="n">
         <v>484.5295195579529</v>
       </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y94" t="n">
+        <v>5725.579505205154</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -19948,6 +21556,14 @@
       <c r="W95" t="n">
         <v>4524.048715829849</v>
       </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y95" t="n">
+        <v>36.76333332061768</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -20031,6 +21647,14 @@
         </is>
       </c>
       <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y96" t="n">
+        <v>5725.580008745193</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -20118,6 +21742,12 @@
         </is>
       </c>
       <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -20213,6 +21843,14 @@
       <c r="W98" t="n">
         <v>0.3205544948577881</v>
       </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.4436154365539551</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -20308,6 +21946,14 @@
       <c r="W99" t="n">
         <v>0.320777416229248</v>
       </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y99" t="n">
+        <v>0.4438910484313965</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -20403,6 +22049,14 @@
       <c r="W100" t="n">
         <v>0.3210086822509766</v>
       </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y100" t="n">
+        <v>0.44413161277771</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -20498,6 +22152,14 @@
       <c r="W101" t="n">
         <v>0.3212282657623291</v>
       </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y101" t="n">
+        <v>0.4444019794464111</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -20585,6 +22247,14 @@
         </is>
       </c>
       <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y102" t="n">
+        <v>18.07816457748413</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -20670,6 +22340,14 @@
         </is>
       </c>
       <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y103" t="n">
+        <v>135.9257564544678</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -20757,6 +22435,14 @@
       <c r="W104" t="n">
         <v>484.5300431251526</v>
       </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y104" t="n">
+        <v>5725.580349683762</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -20848,6 +22534,14 @@
       <c r="W105" t="n">
         <v>4524.049172878265</v>
       </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y105" t="n">
+        <v>103.4772567749023</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -20935,6 +22629,14 @@
         </is>
       </c>
       <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y106" t="n">
+        <v>5725.580641508102</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -21026,6 +22728,14 @@
       <c r="W107" t="n">
         <v>29.01506066322327</v>
       </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y107" t="n">
+        <v>1699.089973926544</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -21117,6 +22827,14 @@
       <c r="W108" t="n">
         <v>10532.4744386673</v>
       </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y108" t="n">
+        <v>12.65465831756592</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -21212,6 +22930,14 @@
       <c r="W109" t="n">
         <v>1729.583037853241</v>
       </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y109" t="n">
+        <v>7828.30997300148</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -21305,6 +23031,14 @@
       <c r="W110" t="n">
         <v>0.3216018676757812</v>
       </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y110" t="n">
+        <v>0.4448466300964355</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -21394,6 +23128,14 @@
       <c r="W111" t="n">
         <v>392.9093477725983</v>
       </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y111" t="n">
+        <v>135.9262645244598</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -21487,6 +23229,14 @@
       <c r="W112" t="n">
         <v>63.43694496154785</v>
       </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y112" t="n">
+        <v>18.07884168624878</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -21582,6 +23332,14 @@
       <c r="W113" t="n">
         <v>168.7334537506104</v>
       </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y113" t="n">
+        <v>135.9265828132629</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -21677,6 +23435,14 @@
       <c r="W114" t="n">
         <v>392.9096970558167</v>
       </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y114" t="n">
+        <v>49.45992112159729</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -21772,6 +23538,14 @@
       <c r="W115" t="n">
         <v>38.12303781509399</v>
       </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y115" t="n">
+        <v>18.0792338848114</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -21865,6 +23639,14 @@
       <c r="W116" t="n">
         <v>73.92270088195801</v>
       </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y116" t="n">
+        <v>88.56563568115234</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -21960,6 +23742,14 @@
       <c r="W117" t="n">
         <v>29.01555895805359</v>
       </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y117" t="n">
+        <v>1668.757599115372</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -22055,6 +23845,14 @@
       <c r="W118" t="n">
         <v>50.76859855651855</v>
       </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y118" t="n">
+        <v>12.65514183044434</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -22150,6 +23948,14 @@
       <c r="W119" t="n">
         <v>41.57435822486877</v>
       </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y119" t="n">
+        <v>7828.31035399437</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -22243,6 +24049,14 @@
       <c r="W120" t="n">
         <v>0.3220047950744629</v>
       </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y120" t="n">
+        <v>0.4453220367431641</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -22338,6 +24152,14 @@
       <c r="W121" t="n">
         <v>21.50876808166504</v>
       </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y121" t="n">
+        <v>135.9269242286682</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -22433,6 +24255,14 @@
       <c r="W122" t="n">
         <v>17.50112342834473</v>
       </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y122" t="n">
+        <v>16.84992837905884</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -22528,6 +24358,14 @@
       <c r="W123" t="n">
         <v>20.34866261482239</v>
       </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y123" t="n">
+        <v>42.57404661178589</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -22623,6 +24461,14 @@
       <c r="W124" t="n">
         <v>454.3250255584717</v>
       </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y124" t="n">
+        <v>49.46042680740356</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -22718,6 +24564,14 @@
       <c r="W125" t="n">
         <v>56.5850236415863</v>
       </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y125" t="n">
+        <v>18.07976865768433</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -22813,6 +24667,14 @@
       <c r="W126" t="n">
         <v>73.92324900627136</v>
       </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y126" t="n">
+        <v>88.56610631942749</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -22908,6 +24770,14 @@
       <c r="W127" t="n">
         <v>545.106457233429</v>
       </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y127" t="n">
+        <v>21.66818618774414</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -23003,6 +24873,14 @@
       <c r="W128" t="n">
         <v>20.34911751747131</v>
       </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y128" t="n">
+        <v>199.660567522049</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -23098,6 +24976,14 @@
       <c r="W129" t="n">
         <v>15.19966745376587</v>
       </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y129" t="n">
+        <v>36.76425790786743</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -23193,6 +25079,14 @@
       <c r="W130" t="n">
         <v>0.3224718570709229</v>
       </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y130" t="n">
+        <v>0.445784330368042</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -23288,6 +25182,14 @@
       <c r="W131" t="n">
         <v>21.50934386253357</v>
       </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y131" t="n">
+        <v>177.8369293212891</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -23383,6 +25285,14 @@
       <c r="W132" t="n">
         <v>17.50164985656738</v>
       </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y132" t="n">
+        <v>16.85046625137329</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -23476,6 +25386,14 @@
       <c r="W133" t="n">
         <v>20.34942770004272</v>
       </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y133" t="n">
+        <v>3622.83340215683</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -23567,6 +25485,14 @@
       <c r="W134" t="n">
         <v>10532.47513890266</v>
       </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y134" t="n">
+        <v>6326.290040254593</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -23662,6 +25588,14 @@
       <c r="W135" t="n">
         <v>56.58557057380676</v>
       </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y135" t="n">
+        <v>8429.125302553177</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -23757,6 +25691,12 @@
       <c r="W136" t="n">
         <v>13564.30748772621</v>
       </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -23852,6 +25792,14 @@
       <c r="W137" t="n">
         <v>13864.72289514542</v>
       </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y137" t="n">
+        <v>21.66874051094055</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -23947,6 +25895,14 @@
       <c r="W138" t="n">
         <v>20.34975123405457</v>
       </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y138" t="n">
+        <v>199.6611375808716</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -24040,6 +25996,14 @@
       <c r="W139" t="n">
         <v>15.20037889480591</v>
       </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y139" t="n">
+        <v>36.76470804214478</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -24135,6 +26099,14 @@
       <c r="W140" t="n">
         <v>0.3228919506072998</v>
       </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y140" t="n">
+        <v>0.4462575912475586</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -24227,6 +26199,14 @@
       </c>
       <c r="W141" t="n">
         <v>12963.49436283112</v>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y141" t="n">
+        <v>177.8375203609467</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,11 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -540,7 +545,10 @@
         <v>0.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.590909090909091</v>
+        <v>0.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -583,6 +591,9 @@
       <c r="M3" t="n">
         <v>0.5</v>
       </c>
+      <c r="N3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -624,6 +635,9 @@
       <c r="M4" t="n">
         <v>0.5</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -665,6 +679,9 @@
       <c r="M5" t="n">
         <v>0.5</v>
       </c>
+      <c r="N5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -706,6 +723,9 @@
       <c r="M6" t="n">
         <v>0.5</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -747,6 +767,9 @@
       <c r="M7" t="n">
         <v>0.5</v>
       </c>
+      <c r="N7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -786,7 +809,10 @@
         <v>-1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
@@ -827,7 +853,10 @@
         <v>-1</v>
       </c>
       <c r="M9" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="10">
@@ -868,7 +897,10 @@
         <v>-1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -909,7 +941,10 @@
         <v>-1</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="12">
@@ -950,7 +985,10 @@
         <v>0.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.590909090909091</v>
+        <v>0.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -993,6 +1031,9 @@
       <c r="M13" t="n">
         <v>0.5</v>
       </c>
+      <c r="N13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1034,6 +1075,9 @@
       <c r="M14" t="n">
         <v>0.5</v>
       </c>
+      <c r="N14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1073,7 +1117,10 @@
         <v>0.5</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="16">
@@ -1116,6 +1163,9 @@
       <c r="M16" t="n">
         <v>0.5</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1157,6 +1207,9 @@
       <c r="M17" t="n">
         <v>0.5</v>
       </c>
+      <c r="N17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1196,7 +1249,10 @@
         <v>-1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
@@ -1237,7 +1293,10 @@
         <v>-1</v>
       </c>
       <c r="M19" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="20">
@@ -1278,7 +1337,10 @@
         <v>-1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="21">
@@ -1319,7 +1381,10 @@
         <v>-1</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="22">
@@ -1360,7 +1425,10 @@
         <v>0.5</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="23">
@@ -1401,7 +1469,10 @@
         <v>0.5</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="24">
@@ -1442,7 +1513,10 @@
         <v>0.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.045454545454545</v>
+        <v>0.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1483,7 +1557,10 @@
         <v>0.5</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9545454545454546</v>
+        <v>2.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.083333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -1524,7 +1601,10 @@
         <v>0.5</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5909090909090909</v>
+        <v>2.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="27">
@@ -1565,7 +1645,10 @@
         <v>0.5</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8636363636363636</v>
+        <v>1.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="28">
@@ -1606,7 +1689,10 @@
         <v>-1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="29">
@@ -1647,7 +1733,10 @@
         <v>-1</v>
       </c>
       <c r="M29" t="n">
-        <v>6</v>
+        <v>2.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="30">
@@ -1688,7 +1777,10 @@
         <v>-1</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">
@@ -1729,7 +1821,10 @@
         <v>-1</v>
       </c>
       <c r="M31" t="n">
-        <v>7.2</v>
+        <v>2.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6.26</v>
       </c>
     </row>
     <row r="32">
@@ -1772,6 +1867,9 @@
       <c r="M32" t="n">
         <v>0.5</v>
       </c>
+      <c r="N32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1813,6 +1911,9 @@
       <c r="M33" t="n">
         <v>0.5</v>
       </c>
+      <c r="N33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1852,7 +1953,10 @@
         <v>0.5</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="35">
@@ -1893,7 +1997,10 @@
         <v>0.5</v>
       </c>
       <c r="M35" t="n">
-        <v>0.8636363636363636</v>
+        <v>2.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1934,7 +2041,10 @@
         <v>0.5</v>
       </c>
       <c r="M36" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="37">
@@ -1975,7 +2085,10 @@
         <v>0.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.136363636363636</v>
+        <v>1.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -2016,7 +2129,10 @@
         <v>-1</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="39">
@@ -2057,7 +2173,10 @@
         <v>-1</v>
       </c>
       <c r="M39" t="n">
-        <v>6</v>
+        <v>2.5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="40">
@@ -2098,7 +2217,10 @@
         <v>-1</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="41">
@@ -2139,7 +2261,10 @@
         <v>-1</v>
       </c>
       <c r="M41" t="n">
-        <v>7.2</v>
+        <v>2.5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.26</v>
       </c>
     </row>
     <row r="42">
@@ -2182,6 +2307,9 @@
       <c r="M42" t="n">
         <v>0.5</v>
       </c>
+      <c r="N42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2223,6 +2351,9 @@
       <c r="M43" t="n">
         <v>0.5</v>
       </c>
+      <c r="N43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2264,6 +2395,9 @@
       <c r="M44" t="n">
         <v>0.5</v>
       </c>
+      <c r="N44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2305,6 +2439,9 @@
       <c r="M45" t="n">
         <v>0.5</v>
       </c>
+      <c r="N45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2346,6 +2483,9 @@
       <c r="M46" t="n">
         <v>0.5</v>
       </c>
+      <c r="N46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2387,6 +2527,9 @@
       <c r="M47" t="n">
         <v>0.5</v>
       </c>
+      <c r="N47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2426,7 +2569,10 @@
         <v>-1</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="49">
@@ -2467,7 +2613,10 @@
         <v>-1</v>
       </c>
       <c r="M49" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="50">
@@ -2508,7 +2657,10 @@
         <v>-1</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="51">
@@ -2549,7 +2701,10 @@
         <v>-1</v>
       </c>
       <c r="M51" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="52">
@@ -2590,7 +2745,10 @@
         <v>0.5</v>
       </c>
       <c r="M52" t="n">
-        <v>0.6111111111111112</v>
+        <v>2.5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="53">
@@ -2633,6 +2791,9 @@
       <c r="M53" t="n">
         <v>0.5</v>
       </c>
+      <c r="N53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2674,6 +2835,9 @@
       <c r="M54" t="n">
         <v>0.5</v>
       </c>
+      <c r="N54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2715,6 +2879,9 @@
       <c r="M55" t="n">
         <v>0.5</v>
       </c>
+      <c r="N55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2754,7 +2921,10 @@
         <v>0.5</v>
       </c>
       <c r="M56" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="57">
@@ -2795,7 +2965,10 @@
         <v>0.5</v>
       </c>
       <c r="M57" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="58">
@@ -2836,7 +3009,10 @@
         <v>-1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="59">
@@ -2877,7 +3053,10 @@
         <v>-1</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>2.5</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="60">
@@ -2918,7 +3097,10 @@
         <v>-1</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="61">
@@ -2959,7 +3141,10 @@
         <v>-1</v>
       </c>
       <c r="M61" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="62">
@@ -3000,7 +3185,10 @@
         <v>0.5</v>
       </c>
       <c r="M62" t="n">
-        <v>0.6111111111111112</v>
+        <v>2.5</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="63">
@@ -3041,7 +3229,10 @@
         <v>0.5</v>
       </c>
       <c r="M63" t="n">
-        <v>1.388888888888889</v>
+        <v>2.5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="64">
@@ -3082,7 +3273,10 @@
         <v>0.5</v>
       </c>
       <c r="M64" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="65">
@@ -3123,7 +3317,10 @@
         <v>0.5</v>
       </c>
       <c r="M65" t="n">
-        <v>0.6111111111111112</v>
+        <v>2.5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="66">
@@ -3164,7 +3361,10 @@
         <v>0.5</v>
       </c>
       <c r="M66" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="67">
@@ -3205,7 +3405,10 @@
         <v>0.5</v>
       </c>
       <c r="M67" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="68">
@@ -3246,7 +3449,10 @@
         <v>-1</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="69">
@@ -3287,7 +3493,10 @@
         <v>-1</v>
       </c>
       <c r="M69" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="70">
@@ -3328,7 +3537,10 @@
         <v>-1</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="71">
@@ -3369,7 +3581,10 @@
         <v>-1</v>
       </c>
       <c r="M71" t="n">
-        <v>6.25</v>
+        <v>2.5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="72">
@@ -3410,7 +3625,10 @@
         <v>0.5</v>
       </c>
       <c r="M72" t="n">
-        <v>1.166666666666667</v>
+        <v>2.5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="73">
@@ -3451,7 +3669,10 @@
         <v>0.5</v>
       </c>
       <c r="M73" t="n">
-        <v>1.277777777777778</v>
+        <v>2.5</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="74">
@@ -3492,7 +3713,10 @@
         <v>0.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.055555555555556</v>
+        <v>2.5</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="75">
@@ -3533,7 +3757,10 @@
         <v>0.5</v>
       </c>
       <c r="M75" t="n">
-        <v>0.8333333333333334</v>
+        <v>2.5</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3574,7 +3801,10 @@
         <v>0.5</v>
       </c>
       <c r="M76" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.5</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="77">
@@ -3615,7 +3845,10 @@
         <v>0.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.833333333333333</v>
+        <v>2.5</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="78">
@@ -3656,7 +3889,10 @@
         <v>-1</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="79">
@@ -3697,7 +3933,10 @@
         <v>-1</v>
       </c>
       <c r="M79" t="n">
-        <v>6</v>
+        <v>2.5</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="80">
@@ -3738,7 +3977,10 @@
         <v>-1</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="81">
@@ -3779,7 +4021,10 @@
         <v>-1</v>
       </c>
       <c r="M81" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="82">
@@ -3820,7 +4065,10 @@
         <v>3.5</v>
       </c>
       <c r="M82" t="n">
-        <v>3.055555555555555</v>
+        <v>2.5</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -3861,7 +4109,10 @@
         <v>0.5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.277777777777778</v>
+        <v>2.5</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="84">
@@ -3902,7 +4153,10 @@
         <v>0.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="85">
@@ -3943,7 +4197,10 @@
         <v>0.5</v>
       </c>
       <c r="M85" t="n">
-        <v>1.944444444444444</v>
+        <v>2.5</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -3984,7 +4241,10 @@
         <v>0.5</v>
       </c>
       <c r="M86" t="n">
-        <v>1.277777777777778</v>
+        <v>0.5</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="87">
@@ -4025,7 +4285,10 @@
         <v>0.5</v>
       </c>
       <c r="M87" t="n">
-        <v>1.944444444444444</v>
+        <v>1.5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="88">
@@ -4066,7 +4329,10 @@
         <v>-1</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="89">
@@ -4107,7 +4373,10 @@
         <v>-1</v>
       </c>
       <c r="M89" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="90">
@@ -4148,7 +4417,10 @@
         <v>-1</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="91">
@@ -4189,7 +4461,10 @@
         <v>-1</v>
       </c>
       <c r="M91" t="n">
-        <v>6.45</v>
+        <v>2.5</v>
+      </c>
+      <c r="N91" t="n">
+        <v>5.66</v>
       </c>
     </row>
     <row r="92">
@@ -4230,7 +4505,10 @@
         <v>0.5</v>
       </c>
       <c r="M92" t="n">
-        <v>1.944444444444444</v>
+        <v>2.5</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -4271,7 +4549,10 @@
         <v>0.5</v>
       </c>
       <c r="M93" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="94">
@@ -4312,7 +4593,10 @@
         <v>1.5</v>
       </c>
       <c r="M94" t="n">
-        <v>2.722222222222222</v>
+        <v>2.5</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="95">
@@ -4353,7 +4637,10 @@
         <v>7.5</v>
       </c>
       <c r="M95" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="96">
@@ -4394,7 +4681,10 @@
         <v>1.5</v>
       </c>
       <c r="M96" t="n">
-        <v>1.611111111111111</v>
+        <v>2.5</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="97">
@@ -4435,7 +4725,10 @@
         <v>0.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.944444444444444</v>
+        <v>1.5</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="98">
@@ -4476,7 +4769,10 @@
         <v>-1</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="99">
@@ -4517,7 +4813,10 @@
         <v>-1</v>
       </c>
       <c r="M99" t="n">
-        <v>7.2</v>
+        <v>2.5</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.26</v>
       </c>
     </row>
     <row r="100">
@@ -4558,7 +4857,10 @@
         <v>-1</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="101">
@@ -4599,7 +4901,10 @@
         <v>-1</v>
       </c>
       <c r="M101" t="n">
-        <v>6.7</v>
+        <v>2.5</v>
+      </c>
+      <c r="N101" t="n">
+        <v>5.86</v>
       </c>
     </row>
     <row r="102">
@@ -4640,7 +4945,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M102" t="n">
-        <v>3.663636363636364</v>
+        <v>2.5</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3.566666666666666</v>
       </c>
     </row>
     <row r="103">
@@ -4683,6 +4991,9 @@
       <c r="M103" t="n">
         <v>2.5</v>
       </c>
+      <c r="N103" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4722,7 +5033,10 @@
         <v>1.5</v>
       </c>
       <c r="M104" t="n">
-        <v>3.045454545454545</v>
+        <v>2.5</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -4763,7 +5077,10 @@
         <v>6.5</v>
       </c>
       <c r="M105" t="n">
-        <v>3.863636363636364</v>
+        <v>2.5</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="106">
@@ -4804,7 +5121,10 @@
         <v>1.5</v>
       </c>
       <c r="M106" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3.416666666666667</v>
       </c>
     </row>
     <row r="107">
@@ -4845,7 +5165,10 @@
         <v>3.5</v>
       </c>
       <c r="M107" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
+      </c>
+      <c r="N107" t="n">
+        <v>4.149999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4886,7 +5209,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M108" t="n">
-        <v>3.542857142857143</v>
+        <v>0.5</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3.1625</v>
       </c>
     </row>
     <row r="109">
@@ -4927,7 +5253,10 @@
         <v>1.5</v>
       </c>
       <c r="M109" t="n">
-        <v>5.118181818181818</v>
+        <v>2.5</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4.899999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4968,7 +5297,10 @@
         <v>-1</v>
       </c>
       <c r="M110" t="n">
-        <v>4.166666666666667</v>
+        <v>2.5</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="111">
@@ -5009,7 +5341,10 @@
         <v>5.5</v>
       </c>
       <c r="M111" t="n">
-        <v>4.227272727272728</v>
+        <v>2.5</v>
+      </c>
+      <c r="N111" t="n">
+        <v>4.083333333333333</v>
       </c>
     </row>
     <row r="112">
@@ -5050,7 +5385,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M112" t="n">
-        <v>6.063636363636363</v>
+        <v>2.5</v>
+      </c>
+      <c r="N112" t="n">
+        <v>5.766666666666667</v>
       </c>
     </row>
     <row r="113">
@@ -5091,7 +5429,10 @@
         <v>5.5</v>
       </c>
       <c r="M113" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
+      </c>
+      <c r="N113" t="n">
+        <v>6.075</v>
       </c>
     </row>
     <row r="114">
@@ -5132,7 +5473,10 @@
         <v>7.5</v>
       </c>
       <c r="M114" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N114" t="n">
+        <v>7.083333333333333</v>
       </c>
     </row>
     <row r="115">
@@ -5173,7 +5517,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M115" t="n">
-        <v>5.936363636363637</v>
+        <v>2.5</v>
+      </c>
+      <c r="N115" t="n">
+        <v>5.649999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -5214,7 +5561,10 @@
         <v>6.5</v>
       </c>
       <c r="M116" t="n">
-        <v>5.590909090909091</v>
+        <v>2.5</v>
+      </c>
+      <c r="N116" t="n">
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="117">
@@ -5255,7 +5605,10 @@
         <v>3.5</v>
       </c>
       <c r="M117" t="n">
-        <v>6.06</v>
+        <v>2.5</v>
+      </c>
+      <c r="N117" t="n">
+        <v>5.736363636363635</v>
       </c>
     </row>
     <row r="118">
@@ -5296,7 +5649,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M118" t="n">
-        <v>6.257142857142857</v>
+        <v>2.5</v>
+      </c>
+      <c r="N118" t="n">
+        <v>5.7875</v>
       </c>
     </row>
     <row r="119">
@@ -5337,7 +5693,10 @@
         <v>1.5</v>
       </c>
       <c r="M119" t="n">
-        <v>6.340000000000001</v>
+        <v>2.5</v>
+      </c>
+      <c r="N119" t="n">
+        <v>5.990909090909091</v>
       </c>
     </row>
     <row r="120">
@@ -5378,7 +5737,10 @@
         <v>-1</v>
       </c>
       <c r="M120" t="n">
-        <v>4.166666666666667</v>
+        <v>2.5</v>
+      </c>
+      <c r="N120" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="121">
@@ -5419,7 +5781,10 @@
         <v>5.5</v>
       </c>
       <c r="M121" t="n">
-        <v>7.460000000000001</v>
+        <v>2.5</v>
+      </c>
+      <c r="N121" t="n">
+        <v>7.00909090909091</v>
       </c>
     </row>
     <row r="122">
@@ -5460,7 +5825,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M122" t="n">
-        <v>8.118181818181817</v>
+        <v>2.5</v>
+      </c>
+      <c r="N122" t="n">
+        <v>7.649999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -5501,7 +5869,10 @@
         <v>7.5</v>
       </c>
       <c r="M123" t="n">
-        <v>7.872727272727272</v>
+        <v>2.5</v>
+      </c>
+      <c r="N123" t="n">
+        <v>7.425</v>
       </c>
     </row>
     <row r="124">
@@ -5542,7 +5913,10 @@
         <v>7.5</v>
       </c>
       <c r="M124" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="N124" t="n">
+        <v>7.045454545454546</v>
       </c>
     </row>
     <row r="125">
@@ -5583,7 +5957,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M125" t="n">
-        <v>7.736363636363635</v>
+        <v>2.5</v>
+      </c>
+      <c r="N125" t="n">
+        <v>7.3</v>
       </c>
     </row>
     <row r="126">
@@ -5624,7 +6001,10 @@
         <v>6.5</v>
       </c>
       <c r="M126" t="n">
-        <v>7.463636363636363</v>
+        <v>2.5</v>
+      </c>
+      <c r="N126" t="n">
+        <v>7.05</v>
       </c>
     </row>
     <row r="127">
@@ -5665,7 +6045,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M127" t="n">
-        <v>7.710000000000001</v>
+        <v>2.5</v>
+      </c>
+      <c r="N127" t="n">
+        <v>7.236363636363637</v>
       </c>
     </row>
     <row r="128">
@@ -5706,7 +6089,10 @@
         <v>5.5</v>
       </c>
       <c r="M128" t="n">
-        <v>6.933333333333334</v>
+        <v>2.5</v>
+      </c>
+      <c r="N128" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="129">
@@ -5747,7 +6133,10 @@
         <v>7.5</v>
       </c>
       <c r="M129" t="n">
-        <v>7.445454545454544</v>
+        <v>2.5</v>
+      </c>
+      <c r="N129" t="n">
+        <v>7.033333333333332</v>
       </c>
     </row>
     <row r="130">
@@ -5788,7 +6177,10 @@
         <v>-1</v>
       </c>
       <c r="M130" t="n">
-        <v>8.4</v>
+        <v>2.5</v>
+      </c>
+      <c r="N130" t="n">
+        <v>6.925</v>
       </c>
     </row>
     <row r="131">
@@ -5829,7 +6221,10 @@
         <v>5.5</v>
       </c>
       <c r="M131" t="n">
-        <v>7.790000000000001</v>
+        <v>2.5</v>
+      </c>
+      <c r="N131" t="n">
+        <v>7.30909090909091</v>
       </c>
     </row>
     <row r="132">
@@ -5870,7 +6265,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M132" t="n">
-        <v>6.718181818181818</v>
+        <v>2.5</v>
+      </c>
+      <c r="N132" t="n">
+        <v>6.366666666666666</v>
       </c>
     </row>
     <row r="133">
@@ -5911,7 +6309,10 @@
         <v>1.5</v>
       </c>
       <c r="M133" t="n">
-        <v>4.972727272727273</v>
+        <v>2.5</v>
+      </c>
+      <c r="N133" t="n">
+        <v>4.766666666666667</v>
       </c>
     </row>
     <row r="134">
@@ -5952,7 +6353,10 @@
         <v>1.5</v>
       </c>
       <c r="M134" t="n">
-        <v>2.863636363636364</v>
+        <v>2.5</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2.833333333333333</v>
       </c>
     </row>
     <row r="135">
@@ -5993,7 +6397,10 @@
         <v>1.5</v>
       </c>
       <c r="M135" t="n">
-        <v>6.754545454545454</v>
+        <v>2.5</v>
+      </c>
+      <c r="N135" t="n">
+        <v>6.399999999999999</v>
       </c>
     </row>
     <row r="136">
@@ -6034,7 +6441,10 @@
         <v>0.5</v>
       </c>
       <c r="M136" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
+      </c>
+      <c r="N136" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="137">
@@ -6075,7 +6485,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M137" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
+      </c>
+      <c r="N137" t="n">
+        <v>6.358333333333333</v>
       </c>
     </row>
     <row r="138">
@@ -6116,7 +6529,10 @@
         <v>5.5</v>
       </c>
       <c r="M138" t="n">
-        <v>6.100000000000001</v>
+        <v>2.5</v>
+      </c>
+      <c r="N138" t="n">
+        <v>5.585714285714286</v>
       </c>
     </row>
     <row r="139">
@@ -6157,7 +6573,10 @@
         <v>7.5</v>
       </c>
       <c r="M139" t="n">
-        <v>6.859999999999999</v>
+        <v>2.5</v>
+      </c>
+      <c r="N139" t="n">
+        <v>6.463636363636363</v>
       </c>
     </row>
     <row r="140">
@@ -6198,7 +6617,10 @@
         <v>-1</v>
       </c>
       <c r="M140" t="n">
-        <v>8.4</v>
+        <v>2.5</v>
+      </c>
+      <c r="N140" t="n">
+        <v>6.925</v>
       </c>
     </row>
     <row r="141">
@@ -6239,7 +6661,10 @@
         <v>5.5</v>
       </c>
       <c r="M141" t="n">
-        <v>4.945454545454546</v>
+        <v>2.5</v>
+      </c>
+      <c r="N141" t="n">
+        <v>4.741666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6253,7 +6678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6322,6 +6747,11 @@
           <t>2023-07-28</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -6378,6 +6808,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -6438,6 +6873,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -6498,6 +6938,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -6558,6 +7003,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -6618,6 +7068,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -6678,6 +7133,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -6716,6 +7176,9 @@
       <c r="L8" t="n">
         <v>0.4321067333221436</v>
       </c>
+      <c r="M8" t="n">
+        <v>2118.908829212189</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -6754,6 +7217,9 @@
       <c r="L9" t="n">
         <v>0.4323821067810059</v>
       </c>
+      <c r="M9" t="n">
+        <v>2118.909132480621</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -6792,6 +7258,9 @@
       <c r="L10" t="n">
         <v>0.4326884746551514</v>
       </c>
+      <c r="M10" t="n">
+        <v>2118.909402132034</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -6830,6 +7299,9 @@
       <c r="L11" t="n">
         <v>0.432938814163208</v>
       </c>
+      <c r="M11" t="n">
+        <v>2118.909704208374</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -6886,6 +7358,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -6946,6 +7423,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -7006,6 +7488,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -7062,6 +7549,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -7122,6 +7614,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -7182,6 +7679,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -7220,6 +7722,9 @@
       <c r="L18" t="n">
         <v>0.4334080219268799</v>
       </c>
+      <c r="M18" t="n">
+        <v>2118.910089492798</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -7258,6 +7763,9 @@
       <c r="L19" t="n">
         <v>0.433743953704834</v>
       </c>
+      <c r="M19" t="n">
+        <v>2118.910392999649</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -7296,6 +7804,9 @@
       <c r="L20" t="n">
         <v>0.4340572357177734</v>
       </c>
+      <c r="M20" t="n">
+        <v>2118.910715103149</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -7334,6 +7845,9 @@
       <c r="L21" t="n">
         <v>0.4343032836914062</v>
       </c>
+      <c r="M21" t="n">
+        <v>2118.910982370377</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -7392,6 +7906,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -7450,6 +7969,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -7506,6 +8030,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -7562,6 +8091,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>2118.911394119263</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -7620,6 +8152,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M26" t="n">
+        <v>3020.005268573761</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -7676,6 +8211,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M27" t="n">
+        <v>5723.39083981514</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -7714,6 +8252,9 @@
       <c r="L28" t="n">
         <v>0.4347164630889893</v>
       </c>
+      <c r="M28" t="n">
+        <v>2118.911779880524</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -7752,6 +8293,9 @@
       <c r="L29" t="n">
         <v>0.4350509643554688</v>
       </c>
+      <c r="M29" t="n">
+        <v>2118.912071466446</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -7790,6 +8334,9 @@
       <c r="L30" t="n">
         <v>0.435300350189209</v>
       </c>
+      <c r="M30" t="n">
+        <v>2118.912397384644</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -7828,6 +8375,9 @@
       <c r="L31" t="n">
         <v>0.4355978965759277</v>
       </c>
+      <c r="M31" t="n">
+        <v>2118.912741184235</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -7888,6 +8438,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -7948,6 +8503,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -8006,6 +8566,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -8064,6 +8629,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M35" t="n">
+        <v>2118.913089513779</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -8122,6 +8690,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -8176,6 +8749,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M37" t="n">
+        <v>5723.391342639923</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -8214,6 +8790,9 @@
       <c r="L38" t="n">
         <v>0.4360213279724121</v>
       </c>
+      <c r="M38" t="n">
+        <v>2118.913379907608</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -8252,6 +8831,9 @@
       <c r="L39" t="n">
         <v>0.4362690448760986</v>
       </c>
+      <c r="M39" t="n">
+        <v>2118.913651227951</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -8290,6 +8872,9 @@
       <c r="L40" t="n">
         <v>0.4365458488464355</v>
       </c>
+      <c r="M40" t="n">
+        <v>2118.913927793503</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -8328,6 +8913,9 @@
       <c r="L41" t="n">
         <v>0.4367852210998535</v>
       </c>
+      <c r="M41" t="n">
+        <v>2118.914192199707</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -8386,6 +8974,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -8444,6 +9037,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -8502,6 +9100,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -8560,6 +9163,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -8618,6 +9226,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -8676,6 +9289,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -8714,6 +9332,9 @@
       <c r="L48" t="n">
         <v>0.437408447265625</v>
       </c>
+      <c r="M48" t="n">
+        <v>2118.914573431015</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -8760,6 +9381,9 @@
       <c r="L49" t="n">
         <v>0.4377083778381348</v>
       </c>
+      <c r="M49" t="n">
+        <v>2118.914867639542</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -8798,6 +9422,9 @@
       <c r="L50" t="n">
         <v>0.4379770755767822</v>
       </c>
+      <c r="M50" t="n">
+        <v>2118.915170669556</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -8842,6 +9469,9 @@
       <c r="L51" t="n">
         <v>0.4382524490356445</v>
       </c>
+      <c r="M51" t="n">
+        <v>2118.915449380875</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8896,6 +9526,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M52" t="n">
+        <v>2719.647243976593</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8952,6 +9585,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -9008,6 +9646,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -9064,6 +9707,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -9120,6 +9768,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M56" t="n">
+        <v>8426.905537366867</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -9176,6 +9827,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M57" t="n">
+        <v>3020.006294250488</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -9214,6 +9868,9 @@
       <c r="L58" t="n">
         <v>0.4387507438659668</v>
       </c>
+      <c r="M58" t="n">
+        <v>2118.915885686874</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -9256,6 +9913,9 @@
       <c r="L59" t="n">
         <v>0.4390482902526855</v>
       </c>
+      <c r="M59" t="n">
+        <v>2118.916199207306</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -9294,6 +9954,9 @@
       <c r="L60" t="n">
         <v>0.439288854598999</v>
       </c>
+      <c r="M60" t="n">
+        <v>2118.916519403458</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9334,6 +9997,9 @@
       <c r="L61" t="n">
         <v>0.4395842552185059</v>
       </c>
+      <c r="M61" t="n">
+        <v>2118.916761398315</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9388,6 +10054,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M62" t="n">
+        <v>2118.917066812515</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9440,6 +10109,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M63" t="n">
+        <v>2118.917313098907</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9496,6 +10168,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M64" t="n">
+        <v>2118.91757440567</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9550,6 +10225,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M65" t="n">
+        <v>2419.294635057449</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9606,6 +10284,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M66" t="n">
+        <v>8426.906014204025</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9662,6 +10343,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M67" t="n">
+        <v>3320.350281238556</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -9700,6 +10384,9 @@
       <c r="L68" t="n">
         <v>0.4400091171264648</v>
       </c>
+      <c r="M68" t="n">
+        <v>2118.917942523956</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -9738,6 +10425,9 @@
       <c r="L69" t="n">
         <v>0.4402551651000977</v>
       </c>
+      <c r="M69" t="n">
+        <v>2118.919122219086</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -9776,6 +10466,9 @@
       <c r="L70" t="n">
         <v>0.4405338764190674</v>
       </c>
+      <c r="M70" t="n">
+        <v>2118.919516563416</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -9814,6 +10507,9 @@
       <c r="L71" t="n">
         <v>0.4407713413238525</v>
       </c>
+      <c r="M71" t="n">
+        <v>2118.919838190079</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -9866,6 +10562,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M72" t="n">
+        <v>2118.920157194138</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -9920,6 +10619,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M73" t="n">
+        <v>2118.92049908638</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -9974,6 +10676,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M74" t="n">
+        <v>2118.920833110809</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -10026,6 +10731,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M75" t="n">
+        <v>2419.295176029205</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -10078,6 +10786,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M76" t="n">
+        <v>7525.71390080452</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -10130,6 +10841,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M77" t="n">
+        <v>3320.350743293762</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -10168,6 +10882,9 @@
       <c r="L78" t="n">
         <v>0.4411942958831787</v>
       </c>
+      <c r="M78" t="n">
+        <v>2118.921287059784</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -10206,6 +10923,9 @@
       <c r="L79" t="n">
         <v>0.4414761066436768</v>
       </c>
+      <c r="M79" t="n">
+        <v>2118.921692848206</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -10244,6 +10964,9 @@
       <c r="L80" t="n">
         <v>0.4417126178741455</v>
       </c>
+      <c r="M80" t="n">
+        <v>2118.922087669373</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -10282,6 +11005,9 @@
       <c r="L81" t="n">
         <v>0.4419927597045898</v>
       </c>
+      <c r="M81" t="n">
+        <v>2118.922473907471</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -10328,6 +11054,9 @@
       <c r="L82" t="n">
         <v>1759.767525672913</v>
       </c>
+      <c r="M82" t="n">
+        <v>2118.922859430313</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -10376,6 +11105,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M83" t="n">
+        <v>2419.295603513718</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -10426,6 +11158,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M84" t="n">
+        <v>2719.647948026657</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -10474,6 +11209,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M85" t="n">
+        <v>2419.295924663544</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -10526,6 +11264,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -10576,6 +11319,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M87" t="n">
+        <v>10229.24403214455</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -10614,6 +11360,9 @@
       <c r="L88" t="n">
         <v>0.4424059391021729</v>
       </c>
+      <c r="M88" t="n">
+        <v>2118.923390388489</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -10652,6 +11401,9 @@
       <c r="L89" t="n">
         <v>0.4426496028900146</v>
       </c>
+      <c r="M89" t="n">
+        <v>2118.923810005188</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -10690,6 +11442,9 @@
       <c r="L90" t="n">
         <v>0.4429285526275635</v>
       </c>
+      <c r="M90" t="n">
+        <v>2118.924181938171</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -10728,6 +11483,9 @@
       <c r="L91" t="n">
         <v>0.4431748390197754</v>
       </c>
+      <c r="M91" t="n">
+        <v>2118.924461841583</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -10774,6 +11532,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M92" t="n">
+        <v>2118.924777746201</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -10822,6 +11583,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M93" t="n">
+        <v>2719.648337602615</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -10866,6 +11630,9 @@
       <c r="L94" t="n">
         <v>5725.579505205154</v>
       </c>
+      <c r="M94" t="n">
+        <v>2118.925076007843</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -10906,6 +11673,9 @@
       <c r="L95" t="n">
         <v>36.76333332061768</v>
       </c>
+      <c r="M95" t="n">
+        <v>2419.296315193176</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -10956,6 +11726,9 @@
       <c r="L96" t="n">
         <v>5725.580008745193</v>
       </c>
+      <c r="M96" t="n">
+        <v>2419.296602010727</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -11004,6 +11777,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M97" t="n">
+        <v>10229.24444651604</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -11042,6 +11818,9 @@
       <c r="L98" t="n">
         <v>0.4436154365539551</v>
       </c>
+      <c r="M98" t="n">
+        <v>2118.925510406494</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -11080,6 +11859,9 @@
       <c r="L99" t="n">
         <v>0.4438910484313965</v>
       </c>
+      <c r="M99" t="n">
+        <v>2118.925804138184</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -11118,6 +11900,9 @@
       <c r="L100" t="n">
         <v>0.44413161277771</v>
       </c>
+      <c r="M100" t="n">
+        <v>2118.926077842712</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -11156,6 +11941,9 @@
       <c r="L101" t="n">
         <v>0.4444019794464111</v>
       </c>
+      <c r="M101" t="n">
+        <v>2118.926336288452</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -11202,6 +11990,9 @@
       <c r="L102" t="n">
         <v>18.07816457748413</v>
       </c>
+      <c r="M102" t="n">
+        <v>2419.296947717667</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -11250,6 +12041,9 @@
       <c r="L103" t="n">
         <v>135.9257564544678</v>
       </c>
+      <c r="M103" t="n">
+        <v>2719.648698091507</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -11296,6 +12090,9 @@
       <c r="L104" t="n">
         <v>5725.580349683762</v>
       </c>
+      <c r="M104" t="n">
+        <v>2419.297241449356</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -11338,6 +12135,9 @@
       <c r="L105" t="n">
         <v>103.4772567749023</v>
       </c>
+      <c r="M105" t="n">
+        <v>2118.926656723022</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -11384,6 +12184,9 @@
       <c r="L106" t="n">
         <v>5725.580641508102</v>
       </c>
+      <c r="M106" t="n">
+        <v>2419.297559976578</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -11426,6 +12229,9 @@
       <c r="L107" t="n">
         <v>1699.089973926544</v>
       </c>
+      <c r="M107" t="n">
+        <v>2419.297909498215</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -11468,6 +12274,11 @@
       <c r="L108" t="n">
         <v>12.65465831756592</v>
       </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -11506,6 +12317,9 @@
       <c r="L109" t="n">
         <v>7828.30997300148</v>
       </c>
+      <c r="M109" t="n">
+        <v>2118.926999807358</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -11546,6 +12360,9 @@
       <c r="L110" t="n">
         <v>0.4448466300964355</v>
       </c>
+      <c r="M110" t="n">
+        <v>2719.649039268494</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -11590,6 +12407,9 @@
       <c r="L111" t="n">
         <v>135.9262645244598</v>
       </c>
+      <c r="M111" t="n">
+        <v>2118.927280426025</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -11630,6 +12450,9 @@
       <c r="L112" t="n">
         <v>18.07884168624878</v>
       </c>
+      <c r="M112" t="n">
+        <v>2419.298286437988</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -11668,6 +12491,9 @@
       <c r="L113" t="n">
         <v>135.9265828132629</v>
       </c>
+      <c r="M113" t="n">
+        <v>2118.927564620972</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -11706,6 +12532,9 @@
       <c r="L114" t="n">
         <v>49.45992112159729</v>
       </c>
+      <c r="M114" t="n">
+        <v>2419.298585176468</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -11744,6 +12573,9 @@
       <c r="L115" t="n">
         <v>18.0792338848114</v>
       </c>
+      <c r="M115" t="n">
+        <v>2118.927836179733</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -11784,6 +12616,9 @@
       <c r="L116" t="n">
         <v>88.56563568115234</v>
       </c>
+      <c r="M116" t="n">
+        <v>2419.298912525177</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -11822,6 +12657,9 @@
       <c r="L117" t="n">
         <v>1668.757599115372</v>
       </c>
+      <c r="M117" t="n">
+        <v>2118.928186893463</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -11860,6 +12698,9 @@
       <c r="L118" t="n">
         <v>12.65514183044434</v>
       </c>
+      <c r="M118" t="n">
+        <v>2719.649339914322</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -11898,6 +12739,9 @@
       <c r="L119" t="n">
         <v>7828.31035399437</v>
       </c>
+      <c r="M119" t="n">
+        <v>2118.928508520126</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -11938,6 +12782,9 @@
       <c r="L120" t="n">
         <v>0.4453220367431641</v>
       </c>
+      <c r="M120" t="n">
+        <v>2719.649606466293</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -11976,6 +12823,9 @@
       <c r="L121" t="n">
         <v>135.9269242286682</v>
       </c>
+      <c r="M121" t="n">
+        <v>2118.928824901581</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -12014,6 +12864,9 @@
       <c r="L122" t="n">
         <v>16.84992837905884</v>
       </c>
+      <c r="M122" t="n">
+        <v>2419.299294233322</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -12052,6 +12905,9 @@
       <c r="L123" t="n">
         <v>42.57404661178589</v>
       </c>
+      <c r="M123" t="n">
+        <v>2118.929177761078</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -12090,6 +12946,9 @@
       <c r="L124" t="n">
         <v>49.46042680740356</v>
       </c>
+      <c r="M124" t="n">
+        <v>2118.929441213608</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -12128,6 +12987,9 @@
       <c r="L125" t="n">
         <v>18.07976865768433</v>
       </c>
+      <c r="M125" t="n">
+        <v>2118.929679632187</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -12166,6 +13028,9 @@
       <c r="L126" t="n">
         <v>88.56610631942749</v>
       </c>
+      <c r="M126" t="n">
+        <v>2419.299621343613</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -12204,6 +13069,9 @@
       <c r="L127" t="n">
         <v>21.66818618774414</v>
       </c>
+      <c r="M127" t="n">
+        <v>2118.929953575134</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -12242,6 +13110,9 @@
       <c r="L128" t="n">
         <v>199.660567522049</v>
       </c>
+      <c r="M128" t="n">
+        <v>2419.299931049347</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -12280,6 +13151,9 @@
       <c r="L129" t="n">
         <v>36.76425790786743</v>
       </c>
+      <c r="M129" t="n">
+        <v>2118.930288076401</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -12318,6 +13192,9 @@
       <c r="L130" t="n">
         <v>0.445784330368042</v>
       </c>
+      <c r="M130" t="n">
+        <v>2419.300242424011</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -12356,6 +13233,9 @@
       <c r="L131" t="n">
         <v>177.8369293212891</v>
       </c>
+      <c r="M131" t="n">
+        <v>2118.93057012558</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -12394,6 +13274,9 @@
       <c r="L132" t="n">
         <v>16.85046625137329</v>
       </c>
+      <c r="M132" t="n">
+        <v>2419.300495147705</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -12434,6 +13317,9 @@
       <c r="L133" t="n">
         <v>3622.83340215683</v>
       </c>
+      <c r="M133" t="n">
+        <v>2719.650045394897</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -12476,6 +13362,9 @@
       <c r="L134" t="n">
         <v>6326.290040254593</v>
       </c>
+      <c r="M134" t="n">
+        <v>2118.930949926376</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -12514,6 +13403,9 @@
       <c r="L135" t="n">
         <v>8429.125302553177</v>
       </c>
+      <c r="M135" t="n">
+        <v>2118.931334495544</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -12554,6 +13446,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="M136" t="n">
+        <v>2419.300802707672</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -12592,6 +13487,9 @@
       <c r="L137" t="n">
         <v>21.66874051094055</v>
       </c>
+      <c r="M137" t="n">
+        <v>6324.134830474854</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -12630,6 +13528,9 @@
       <c r="L138" t="n">
         <v>199.6611375808716</v>
       </c>
+      <c r="M138" t="n">
+        <v>2419.301120042801</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -12670,6 +13571,9 @@
       <c r="L139" t="n">
         <v>36.76470804214478</v>
       </c>
+      <c r="M139" t="n">
+        <v>2118.931766748428</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -12708,6 +13612,9 @@
       <c r="L140" t="n">
         <v>0.4462575912475586</v>
       </c>
+      <c r="M140" t="n">
+        <v>2419.301509618759</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -12747,6 +13654,9 @@
       </c>
       <c r="L141" t="n">
         <v>177.8375203609467</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2118.932112932205</v>
       </c>
     </row>
   </sheetData>
@@ -12760,7 +13670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y141"/>
+  <dimension ref="A1:AA141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12894,6 +13804,16 @@
           <t>2023-07-28</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12979,6 +13899,12 @@
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -13060,6 +13986,12 @@
         </is>
       </c>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -13141,6 +14073,12 @@
         </is>
       </c>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -13222,6 +14160,12 @@
         </is>
       </c>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -13303,6 +14247,12 @@
         </is>
       </c>
       <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -13384,6 +14334,12 @@
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -13487,6 +14443,14 @@
       <c r="Y8" t="n">
         <v>0.4321067333221436</v>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
+        <v>2118.908829212189</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -13590,6 +14554,14 @@
       <c r="Y9" t="n">
         <v>0.4323821067810059</v>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
+        <v>2118.909132480621</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -13693,6 +14665,14 @@
       <c r="Y10" t="n">
         <v>0.4326884746551514</v>
       </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
+        <v>2118.909402132034</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -13796,6 +14776,14 @@
       <c r="Y11" t="n">
         <v>0.432938814163208</v>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
+        <v>2118.909704208374</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -13881,6 +14869,12 @@
         </is>
       </c>
       <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -13962,6 +14956,12 @@
         </is>
       </c>
       <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -14043,6 +15043,12 @@
         </is>
       </c>
       <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -14128,6 +15134,12 @@
         </is>
       </c>
       <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -14209,6 +15221,12 @@
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -14290,6 +15308,12 @@
         </is>
       </c>
       <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -14393,6 +15417,14 @@
       <c r="Y18" t="n">
         <v>0.4334080219268799</v>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA18" t="n">
+        <v>2118.910089492798</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -14496,6 +15528,14 @@
       <c r="Y19" t="n">
         <v>0.433743953704834</v>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA19" t="n">
+        <v>2118.910392999649</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -14599,6 +15639,14 @@
       <c r="Y20" t="n">
         <v>0.4340572357177734</v>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA20" t="n">
+        <v>2118.910715103149</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -14702,6 +15750,14 @@
       <c r="Y21" t="n">
         <v>0.4343032836914062</v>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA21" t="n">
+        <v>2118.910982370377</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -14785,6 +15841,12 @@
         </is>
       </c>
       <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -14868,6 +15930,12 @@
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -14953,6 +16021,12 @@
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -15038,6 +16112,14 @@
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA25" t="n">
+        <v>2118.911394119263</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -15121,6 +16203,14 @@
         </is>
       </c>
       <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA26" t="n">
+        <v>3020.005268573761</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -15206,6 +16296,14 @@
         </is>
       </c>
       <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA27" t="n">
+        <v>5723.39083981514</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -15309,6 +16407,14 @@
       <c r="Y28" t="n">
         <v>0.4347164630889893</v>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA28" t="n">
+        <v>2118.911779880524</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -15412,6 +16518,14 @@
       <c r="Y29" t="n">
         <v>0.4350509643554688</v>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA29" t="n">
+        <v>2118.912071466446</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -15515,6 +16629,14 @@
       <c r="Y30" t="n">
         <v>0.435300350189209</v>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA30" t="n">
+        <v>2118.912397384644</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -15618,6 +16740,14 @@
       <c r="Y31" t="n">
         <v>0.4355978965759277</v>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA31" t="n">
+        <v>2118.912741184235</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -15699,6 +16829,12 @@
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -15780,6 +16916,12 @@
         </is>
       </c>
       <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -15863,6 +17005,12 @@
         </is>
       </c>
       <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -15946,6 +17094,14 @@
         </is>
       </c>
       <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA35" t="n">
+        <v>2118.913089513779</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -16029,6 +17185,12 @@
         </is>
       </c>
       <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -16116,6 +17278,14 @@
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA37" t="n">
+        <v>5723.391342639923</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -16219,6 +17389,14 @@
       <c r="Y38" t="n">
         <v>0.4360213279724121</v>
       </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA38" t="n">
+        <v>2118.913379907608</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -16322,6 +17500,14 @@
       <c r="Y39" t="n">
         <v>0.4362690448760986</v>
       </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA39" t="n">
+        <v>2118.913651227951</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -16425,6 +17611,14 @@
       <c r="Y40" t="n">
         <v>0.4365458488464355</v>
       </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA40" t="n">
+        <v>2118.913927793503</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -16528,6 +17722,14 @@
       <c r="Y41" t="n">
         <v>0.4367852210998535</v>
       </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA41" t="n">
+        <v>2118.914192199707</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -16611,6 +17813,12 @@
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -16694,6 +17902,12 @@
         </is>
       </c>
       <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -16777,6 +17991,12 @@
         </is>
       </c>
       <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -16860,6 +18080,12 @@
         </is>
       </c>
       <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -16943,6 +18169,12 @@
         </is>
       </c>
       <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -17026,6 +18258,12 @@
         </is>
       </c>
       <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -17129,6 +18367,14 @@
       <c r="Y48" t="n">
         <v>0.437408447265625</v>
       </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA48" t="n">
+        <v>2118.914573431015</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -17224,6 +18470,14 @@
       <c r="Y49" t="n">
         <v>0.4377083778381348</v>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA49" t="n">
+        <v>2118.914867639542</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -17327,6 +18581,14 @@
       <c r="Y50" t="n">
         <v>0.4379770755767822</v>
       </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA50" t="n">
+        <v>2118.915170669556</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -17424,6 +18686,14 @@
       <c r="Y51" t="n">
         <v>0.4382524490356445</v>
       </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA51" t="n">
+        <v>2118.915449380875</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -17511,6 +18781,14 @@
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA52" t="n">
+        <v>2719.647243976593</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -17596,6 +18874,12 @@
         </is>
       </c>
       <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -17681,6 +18965,12 @@
         </is>
       </c>
       <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -17766,6 +19056,12 @@
         </is>
       </c>
       <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -17851,6 +19147,14 @@
         </is>
       </c>
       <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA56" t="n">
+        <v>8426.905537366867</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -17936,6 +19240,14 @@
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA57" t="n">
+        <v>3020.006294250488</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -18039,6 +19351,14 @@
       <c r="Y58" t="n">
         <v>0.4387507438659668</v>
       </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA58" t="n">
+        <v>2118.915885686874</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -18138,6 +19458,14 @@
       <c r="Y59" t="n">
         <v>0.4390482902526855</v>
       </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA59" t="n">
+        <v>2118.916199207306</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -18241,6 +19569,14 @@
       <c r="Y60" t="n">
         <v>0.439288854598999</v>
       </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA60" t="n">
+        <v>2118.916519403458</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -18342,6 +19678,14 @@
       <c r="Y61" t="n">
         <v>0.4395842552185059</v>
       </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA61" t="n">
+        <v>2118.916761398315</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -18429,6 +19773,14 @@
         </is>
       </c>
       <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA62" t="n">
+        <v>2118.917066812515</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -18518,6 +19870,14 @@
         </is>
       </c>
       <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA63" t="n">
+        <v>2118.917313098907</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -18603,6 +19963,14 @@
         </is>
       </c>
       <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA64" t="n">
+        <v>2118.91757440567</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -18690,6 +20058,14 @@
         </is>
       </c>
       <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA65" t="n">
+        <v>2419.294635057449</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -18775,6 +20151,14 @@
         </is>
       </c>
       <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA66" t="n">
+        <v>8426.906014204025</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -18860,6 +20244,14 @@
         </is>
       </c>
       <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA67" t="n">
+        <v>3320.350281238556</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -18963,6 +20355,14 @@
       <c r="Y68" t="n">
         <v>0.4400091171264648</v>
       </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA68" t="n">
+        <v>2118.917942523956</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -19066,6 +20466,14 @@
       <c r="Y69" t="n">
         <v>0.4402551651000977</v>
       </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA69" t="n">
+        <v>2118.919122219086</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -19169,6 +20577,14 @@
       <c r="Y70" t="n">
         <v>0.4405338764190674</v>
       </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA70" t="n">
+        <v>2118.919516563416</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -19272,6 +20688,14 @@
       <c r="Y71" t="n">
         <v>0.4407713413238525</v>
       </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA71" t="n">
+        <v>2118.919838190079</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -19361,6 +20785,14 @@
         </is>
       </c>
       <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA72" t="n">
+        <v>2118.920157194138</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -19448,6 +20880,14 @@
         </is>
       </c>
       <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA73" t="n">
+        <v>2118.92049908638</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -19535,6 +20975,14 @@
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA74" t="n">
+        <v>2118.920833110809</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -19624,6 +21072,14 @@
         </is>
       </c>
       <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA75" t="n">
+        <v>2419.295176029205</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -19713,6 +21169,14 @@
         </is>
       </c>
       <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA76" t="n">
+        <v>7525.71390080452</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -19802,6 +21266,14 @@
         </is>
       </c>
       <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA77" t="n">
+        <v>3320.350743293762</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -19905,6 +21377,14 @@
       <c r="Y78" t="n">
         <v>0.4411942958831787</v>
       </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA78" t="n">
+        <v>2118.921287059784</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -20008,6 +21488,14 @@
       <c r="Y79" t="n">
         <v>0.4414761066436768</v>
       </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA79" t="n">
+        <v>2118.921692848206</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -20111,6 +21599,14 @@
       <c r="Y80" t="n">
         <v>0.4417126178741455</v>
       </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA80" t="n">
+        <v>2118.922087669373</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -20214,6 +21710,14 @@
       <c r="Y81" t="n">
         <v>0.4419927597045898</v>
       </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA81" t="n">
+        <v>2118.922473907471</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -20309,6 +21813,14 @@
       <c r="Y82" t="n">
         <v>1759.767525672913</v>
       </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA82" t="n">
+        <v>2118.922859430313</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -20402,6 +21914,14 @@
         </is>
       </c>
       <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA83" t="n">
+        <v>2419.295603513718</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -20493,6 +22013,14 @@
         </is>
       </c>
       <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA84" t="n">
+        <v>2719.647948026657</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -20586,6 +22114,14 @@
         </is>
       </c>
       <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA85" t="n">
+        <v>2419.295924663544</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -20675,6 +22211,12 @@
         </is>
       </c>
       <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -20766,6 +22308,14 @@
         </is>
       </c>
       <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA87" t="n">
+        <v>10229.24403214455</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -20869,6 +22419,14 @@
       <c r="Y88" t="n">
         <v>0.4424059391021729</v>
       </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA88" t="n">
+        <v>2118.923390388489</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -20972,6 +22530,14 @@
       <c r="Y89" t="n">
         <v>0.4426496028900146</v>
       </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA89" t="n">
+        <v>2118.923810005188</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -21075,6 +22641,14 @@
       <c r="Y90" t="n">
         <v>0.4429285526275635</v>
       </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA90" t="n">
+        <v>2118.924181938171</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -21178,6 +22752,14 @@
       <c r="Y91" t="n">
         <v>0.4431748390197754</v>
       </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA91" t="n">
+        <v>2118.924461841583</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -21273,6 +22855,14 @@
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA92" t="n">
+        <v>2118.924777746201</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -21366,6 +22956,14 @@
         </is>
       </c>
       <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA93" t="n">
+        <v>2719.648337602615</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -21463,6 +23061,14 @@
       <c r="Y94" t="n">
         <v>5725.579505205154</v>
       </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA94" t="n">
+        <v>2118.925076007843</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -21564,6 +23170,14 @@
       <c r="Y95" t="n">
         <v>36.76333332061768</v>
       </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA95" t="n">
+        <v>2419.296315193176</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -21655,6 +23269,14 @@
       <c r="Y96" t="n">
         <v>5725.580008745193</v>
       </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA96" t="n">
+        <v>2419.296602010727</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -21748,6 +23370,14 @@
         </is>
       </c>
       <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA97" t="n">
+        <v>10229.24444651604</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -21851,6 +23481,14 @@
       <c r="Y98" t="n">
         <v>0.4436154365539551</v>
       </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA98" t="n">
+        <v>2118.925510406494</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -21954,6 +23592,14 @@
       <c r="Y99" t="n">
         <v>0.4438910484313965</v>
       </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA99" t="n">
+        <v>2118.925804138184</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -22057,6 +23703,14 @@
       <c r="Y100" t="n">
         <v>0.44413161277771</v>
       </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA100" t="n">
+        <v>2118.926077842712</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -22160,6 +23814,14 @@
       <c r="Y101" t="n">
         <v>0.4444019794464111</v>
       </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA101" t="n">
+        <v>2118.926336288452</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -22255,6 +23917,14 @@
       <c r="Y102" t="n">
         <v>18.07816457748413</v>
       </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA102" t="n">
+        <v>2419.296947717667</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -22348,6 +24018,14 @@
       <c r="Y103" t="n">
         <v>135.9257564544678</v>
       </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA103" t="n">
+        <v>2719.648698091507</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -22443,6 +24121,14 @@
       <c r="Y104" t="n">
         <v>5725.580349683762</v>
       </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA104" t="n">
+        <v>2419.297241449356</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -22542,6 +24228,14 @@
       <c r="Y105" t="n">
         <v>103.4772567749023</v>
       </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA105" t="n">
+        <v>2118.926656723022</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -22637,6 +24331,14 @@
       <c r="Y106" t="n">
         <v>5725.580641508102</v>
       </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA106" t="n">
+        <v>2419.297559976578</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -22736,6 +24438,14 @@
       <c r="Y107" t="n">
         <v>1699.089973926544</v>
       </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA107" t="n">
+        <v>2419.297909498215</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -22835,6 +24545,12 @@
       <c r="Y108" t="n">
         <v>12.65465831756592</v>
       </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -22938,6 +24654,14 @@
       <c r="Y109" t="n">
         <v>7828.30997300148</v>
       </c>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA109" t="n">
+        <v>2118.926999807358</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -23039,6 +24763,14 @@
       <c r="Y110" t="n">
         <v>0.4448466300964355</v>
       </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA110" t="n">
+        <v>2719.649039268494</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -23136,6 +24868,14 @@
       <c r="Y111" t="n">
         <v>135.9262645244598</v>
       </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA111" t="n">
+        <v>2118.927280426025</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -23237,6 +24977,14 @@
       <c r="Y112" t="n">
         <v>18.07884168624878</v>
       </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA112" t="n">
+        <v>2419.298286437988</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -23340,6 +25088,14 @@
       <c r="Y113" t="n">
         <v>135.9265828132629</v>
       </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA113" t="n">
+        <v>2118.927564620972</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -23443,6 +25199,14 @@
       <c r="Y114" t="n">
         <v>49.45992112159729</v>
       </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA114" t="n">
+        <v>2419.298585176468</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -23546,6 +25310,14 @@
       <c r="Y115" t="n">
         <v>18.0792338848114</v>
       </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA115" t="n">
+        <v>2118.927836179733</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -23647,6 +25419,14 @@
       <c r="Y116" t="n">
         <v>88.56563568115234</v>
       </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA116" t="n">
+        <v>2419.298912525177</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -23750,6 +25530,14 @@
       <c r="Y117" t="n">
         <v>1668.757599115372</v>
       </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA117" t="n">
+        <v>2118.928186893463</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -23853,6 +25641,14 @@
       <c r="Y118" t="n">
         <v>12.65514183044434</v>
       </c>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA118" t="n">
+        <v>2719.649339914322</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -23956,6 +25752,14 @@
       <c r="Y119" t="n">
         <v>7828.31035399437</v>
       </c>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA119" t="n">
+        <v>2118.928508520126</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -24057,6 +25861,14 @@
       <c r="Y120" t="n">
         <v>0.4453220367431641</v>
       </c>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA120" t="n">
+        <v>2719.649606466293</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -24160,6 +25972,14 @@
       <c r="Y121" t="n">
         <v>135.9269242286682</v>
       </c>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA121" t="n">
+        <v>2118.928824901581</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -24263,6 +26083,14 @@
       <c r="Y122" t="n">
         <v>16.84992837905884</v>
       </c>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA122" t="n">
+        <v>2419.299294233322</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -24366,6 +26194,14 @@
       <c r="Y123" t="n">
         <v>42.57404661178589</v>
       </c>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA123" t="n">
+        <v>2118.929177761078</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -24469,6 +26305,14 @@
       <c r="Y124" t="n">
         <v>49.46042680740356</v>
       </c>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA124" t="n">
+        <v>2118.929441213608</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -24572,6 +26416,14 @@
       <c r="Y125" t="n">
         <v>18.07976865768433</v>
       </c>
+      <c r="Z125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA125" t="n">
+        <v>2118.929679632187</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -24675,6 +26527,14 @@
       <c r="Y126" t="n">
         <v>88.56610631942749</v>
       </c>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA126" t="n">
+        <v>2419.299621343613</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -24778,6 +26638,14 @@
       <c r="Y127" t="n">
         <v>21.66818618774414</v>
       </c>
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA127" t="n">
+        <v>2118.929953575134</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -24881,6 +26749,14 @@
       <c r="Y128" t="n">
         <v>199.660567522049</v>
       </c>
+      <c r="Z128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA128" t="n">
+        <v>2419.299931049347</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -24984,6 +26860,14 @@
       <c r="Y129" t="n">
         <v>36.76425790786743</v>
       </c>
+      <c r="Z129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA129" t="n">
+        <v>2118.930288076401</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -25087,6 +26971,14 @@
       <c r="Y130" t="n">
         <v>0.445784330368042</v>
       </c>
+      <c r="Z130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA130" t="n">
+        <v>2419.300242424011</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -25190,6 +27082,14 @@
       <c r="Y131" t="n">
         <v>177.8369293212891</v>
       </c>
+      <c r="Z131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA131" t="n">
+        <v>2118.93057012558</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -25293,6 +27193,14 @@
       <c r="Y132" t="n">
         <v>16.85046625137329</v>
       </c>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA132" t="n">
+        <v>2419.300495147705</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -25394,6 +27302,14 @@
       <c r="Y133" t="n">
         <v>3622.83340215683</v>
       </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA133" t="n">
+        <v>2719.650045394897</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -25493,6 +27409,14 @@
       <c r="Y134" t="n">
         <v>6326.290040254593</v>
       </c>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA134" t="n">
+        <v>2118.930949926376</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -25596,6 +27520,14 @@
       <c r="Y135" t="n">
         <v>8429.125302553177</v>
       </c>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA135" t="n">
+        <v>2118.931334495544</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -25697,6 +27629,14 @@
         </is>
       </c>
       <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA136" t="n">
+        <v>2419.300802707672</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -25800,6 +27740,14 @@
       <c r="Y137" t="n">
         <v>21.66874051094055</v>
       </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA137" t="n">
+        <v>6324.134830474854</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -25903,6 +27851,14 @@
       <c r="Y138" t="n">
         <v>199.6611375808716</v>
       </c>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA138" t="n">
+        <v>2419.301120042801</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -26004,6 +27960,14 @@
       <c r="Y139" t="n">
         <v>36.76470804214478</v>
       </c>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA139" t="n">
+        <v>2118.931766748428</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -26107,6 +28071,14 @@
       <c r="Y140" t="n">
         <v>0.4462575912475586</v>
       </c>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA140" t="n">
+        <v>2419.301509618759</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -26207,6 +28179,14 @@
       </c>
       <c r="Y141" t="n">
         <v>177.8375203609467</v>
+      </c>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA141" t="n">
+        <v>2118.932112932205</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -488,17 +488,17 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>2023-07-28</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -539,10 +539,10 @@
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -809,10 +809,10 @@
         <v>-1</v>
       </c>
       <c r="M8" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -853,10 +853,10 @@
         <v>-1</v>
       </c>
       <c r="M9" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10">
@@ -897,10 +897,10 @@
         <v>-1</v>
       </c>
       <c r="M10" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -941,10 +941,10 @@
         <v>-1</v>
       </c>
       <c r="M11" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -979,16 +979,16 @@
         <v>0.5</v>
       </c>
       <c r="K12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L12" t="n">
         <v>6.5</v>
       </c>
-      <c r="L12" t="n">
-        <v>0.5</v>
-      </c>
       <c r="M12" t="n">
         <v>0.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.5</v>
+        <v>1.583333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -1249,10 +1249,10 @@
         <v>-1</v>
       </c>
       <c r="M18" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1293,10 +1293,10 @@
         <v>-1</v>
       </c>
       <c r="M19" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20">
@@ -1337,10 +1337,10 @@
         <v>-1</v>
       </c>
       <c r="M20" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1381,10 +1381,10 @@
         <v>-1</v>
       </c>
       <c r="M21" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1551,16 +1551,16 @@
         <v>0.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="L25" t="n">
         <v>0.5</v>
       </c>
       <c r="M25" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.083333333333333</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -1595,16 +1595,16 @@
         <v>0.5</v>
       </c>
       <c r="K26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L26" t="n">
         <v>1.5</v>
       </c>
-      <c r="L26" t="n">
-        <v>0.5</v>
-      </c>
       <c r="M26" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.75</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="27">
@@ -1645,10 +1645,10 @@
         <v>0.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="28">
@@ -1689,10 +1689,10 @@
         <v>-1</v>
       </c>
       <c r="M28" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1733,10 +1733,10 @@
         <v>-1</v>
       </c>
       <c r="M29" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1777,10 +1777,10 @@
         <v>-1</v>
       </c>
       <c r="M30" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1821,10 +1821,10 @@
         <v>-1</v>
       </c>
       <c r="M31" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N31" t="n">
-        <v>6.26</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="32">
@@ -1991,16 +1991,16 @@
         <v>0.5</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="L35" t="n">
         <v>0.5</v>
       </c>
       <c r="M35" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
     </row>
     <row r="36">
@@ -2035,16 +2035,16 @@
         <v>0.5</v>
       </c>
       <c r="K36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L36" t="n">
         <v>1.5</v>
       </c>
-      <c r="L36" t="n">
-        <v>0.5</v>
-      </c>
       <c r="M36" t="n">
         <v>0.5</v>
       </c>
       <c r="N36" t="n">
-        <v>0.5833333333333334</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="37">
@@ -2079,16 +2079,16 @@
         <v>0.5</v>
       </c>
       <c r="K37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L37" t="n">
         <v>3.5</v>
       </c>
-      <c r="L37" t="n">
-        <v>0.5</v>
-      </c>
       <c r="M37" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N37" t="n">
-        <v>1.166666666666667</v>
+        <v>1.083333333333333</v>
       </c>
     </row>
     <row r="38">
@@ -2129,10 +2129,10 @@
         <v>-1</v>
       </c>
       <c r="M38" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N38" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2173,10 +2173,10 @@
         <v>-1</v>
       </c>
       <c r="M39" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N39" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2217,10 +2217,10 @@
         <v>-1</v>
       </c>
       <c r="M40" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2261,10 +2261,10 @@
         <v>-1</v>
       </c>
       <c r="M41" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N41" t="n">
-        <v>6.26</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="42">
@@ -2569,10 +2569,10 @@
         <v>-1</v>
       </c>
       <c r="M48" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N48" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2613,10 +2613,10 @@
         <v>-1</v>
       </c>
       <c r="M49" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N49" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50">
@@ -2657,10 +2657,10 @@
         <v>-1</v>
       </c>
       <c r="M50" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N50" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2701,10 +2701,10 @@
         <v>-1</v>
       </c>
       <c r="M51" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N51" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="52">
@@ -2739,16 +2739,16 @@
         <v>0.5</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L52" t="n">
         <v>0.5</v>
       </c>
       <c r="M52" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N52" t="n">
-        <v>0.8</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="53">
@@ -2921,10 +2921,10 @@
         <v>0.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N56" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57">
@@ -2965,10 +2965,10 @@
         <v>0.5</v>
       </c>
       <c r="M57" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N57" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58">
@@ -3009,10 +3009,10 @@
         <v>-1</v>
       </c>
       <c r="M58" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N58" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3053,10 +3053,10 @@
         <v>-1</v>
       </c>
       <c r="M59" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N59" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3097,10 +3097,10 @@
         <v>-1</v>
       </c>
       <c r="M60" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N60" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3141,10 +3141,10 @@
         <v>-1</v>
       </c>
       <c r="M61" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N61" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="62">
@@ -3179,16 +3179,16 @@
         <v>0.5</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L62" t="n">
         <v>0.5</v>
       </c>
       <c r="M62" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N62" t="n">
-        <v>0.8</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="63">
@@ -3229,10 +3229,10 @@
         <v>0.5</v>
       </c>
       <c r="M63" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="64">
@@ -3273,10 +3273,10 @@
         <v>0.5</v>
       </c>
       <c r="M64" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N64" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65">
@@ -3317,10 +3317,10 @@
         <v>0.5</v>
       </c>
       <c r="M65" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N65" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="66">
@@ -3355,16 +3355,16 @@
         <v>0.5</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="L66" t="n">
         <v>0.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N66" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="67">
@@ -3405,10 +3405,10 @@
         <v>0.5</v>
       </c>
       <c r="M67" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N67" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68">
@@ -3449,10 +3449,10 @@
         <v>-1</v>
       </c>
       <c r="M68" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N68" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3493,10 +3493,10 @@
         <v>-1</v>
       </c>
       <c r="M69" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N69" t="n">
-        <v>4.3</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="70">
@@ -3537,10 +3537,10 @@
         <v>-1</v>
       </c>
       <c r="M70" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N70" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3581,10 +3581,10 @@
         <v>-1</v>
       </c>
       <c r="M71" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N71" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="72">
@@ -3625,10 +3625,10 @@
         <v>0.5</v>
       </c>
       <c r="M72" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N72" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="73">
@@ -3663,13 +3663,13 @@
         <v>0.5</v>
       </c>
       <c r="K73" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="L73" t="n">
         <v>0.5</v>
       </c>
       <c r="M73" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N73" t="n">
         <v>1.4</v>
@@ -3713,10 +3713,10 @@
         <v>0.5</v>
       </c>
       <c r="M74" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N74" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3757,10 +3757,10 @@
         <v>0.5</v>
       </c>
       <c r="M75" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76">
@@ -3795,16 +3795,16 @@
         <v>0.5</v>
       </c>
       <c r="K76" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="L76" t="n">
         <v>0.5</v>
       </c>
       <c r="M76" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N76" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3845,10 +3845,10 @@
         <v>0.5</v>
       </c>
       <c r="M77" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N77" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="78">
@@ -3889,10 +3889,10 @@
         <v>-1</v>
       </c>
       <c r="M78" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N78" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3933,10 +3933,10 @@
         <v>-1</v>
       </c>
       <c r="M79" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N79" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -3977,10 +3977,10 @@
         <v>-1</v>
       </c>
       <c r="M80" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N80" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -4021,10 +4021,10 @@
         <v>-1</v>
       </c>
       <c r="M81" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N81" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="82">
@@ -4059,16 +4059,16 @@
         <v>0.5</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="L82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M82" t="n">
         <v>3.5</v>
       </c>
-      <c r="M82" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N82" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="83">
@@ -4103,13 +4103,13 @@
         <v>0.5</v>
       </c>
       <c r="K83" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="L83" t="n">
         <v>0.5</v>
       </c>
       <c r="M83" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N83" t="n">
         <v>1.4</v>
@@ -4153,10 +4153,10 @@
         <v>0.5</v>
       </c>
       <c r="M84" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N84" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="85">
@@ -4191,16 +4191,16 @@
         <v>0.5</v>
       </c>
       <c r="K85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L85" t="n">
         <v>3.5</v>
       </c>
-      <c r="L85" t="n">
-        <v>0.5</v>
-      </c>
       <c r="M85" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N85" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="86">
@@ -4285,10 +4285,10 @@
         <v>0.5</v>
       </c>
       <c r="M87" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N87" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="88">
@@ -4329,10 +4329,10 @@
         <v>-1</v>
       </c>
       <c r="M88" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N88" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4373,10 +4373,10 @@
         <v>-1</v>
       </c>
       <c r="M89" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N89" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="90">
@@ -4417,10 +4417,10 @@
         <v>-1</v>
       </c>
       <c r="M90" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N90" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4461,10 +4461,10 @@
         <v>-1</v>
       </c>
       <c r="M91" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N91" t="n">
-        <v>5.66</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="92">
@@ -4499,16 +4499,16 @@
         <v>2.5</v>
       </c>
       <c r="K92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L92" t="n">
         <v>1.5</v>
       </c>
-      <c r="L92" t="n">
-        <v>0.5</v>
-      </c>
       <c r="M92" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="93">
@@ -4549,10 +4549,10 @@
         <v>0.5</v>
       </c>
       <c r="M93" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N93" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="94">
@@ -4587,16 +4587,16 @@
         <v>0.5</v>
       </c>
       <c r="K94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L94" t="n">
         <v>4.5</v>
       </c>
-      <c r="L94" t="n">
+      <c r="M94" t="n">
         <v>1.5</v>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>2.5</v>
-      </c>
-      <c r="N94" t="n">
-        <v>2.7</v>
       </c>
     </row>
     <row r="95">
@@ -4631,16 +4631,16 @@
         <v>0.5</v>
       </c>
       <c r="K95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L95" t="n">
         <v>1.5</v>
       </c>
-      <c r="L95" t="n">
+      <c r="M95" t="n">
         <v>7.5</v>
       </c>
-      <c r="M95" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N95" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="96">
@@ -4678,13 +4678,13 @@
         <v>0.5</v>
       </c>
       <c r="L96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M96" t="n">
         <v>1.5</v>
       </c>
-      <c r="M96" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N96" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="97">
@@ -4725,10 +4725,10 @@
         <v>0.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N97" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="98">
@@ -4769,10 +4769,10 @@
         <v>-1</v>
       </c>
       <c r="M98" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N98" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4813,10 +4813,10 @@
         <v>-1</v>
       </c>
       <c r="M99" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N99" t="n">
-        <v>6.26</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="100">
@@ -4857,10 +4857,10 @@
         <v>-1</v>
       </c>
       <c r="M100" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N100" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4901,10 +4901,10 @@
         <v>-1</v>
       </c>
       <c r="M101" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N101" t="n">
-        <v>5.86</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="102">
@@ -4942,13 +4942,13 @@
         <v>0.5</v>
       </c>
       <c r="L102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M102" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="M102" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N102" t="n">
-        <v>3.566666666666666</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="103">
@@ -4986,13 +4986,13 @@
         <v>0.5</v>
       </c>
       <c r="L103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M103" t="n">
         <v>5.5</v>
       </c>
-      <c r="M103" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N103" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="104">
@@ -5027,16 +5027,16 @@
         <v>0.5</v>
       </c>
       <c r="K104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L104" t="n">
         <v>4.5</v>
       </c>
-      <c r="L104" t="n">
+      <c r="M104" t="n">
         <v>1.5</v>
       </c>
-      <c r="M104" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N104" t="n">
-        <v>3</v>
+        <v>2.833333333333333</v>
       </c>
     </row>
     <row r="105">
@@ -5074,13 +5074,13 @@
         <v>1.5</v>
       </c>
       <c r="L105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M105" t="n">
         <v>6.5</v>
       </c>
-      <c r="M105" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N105" t="n">
-        <v>3.75</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="106">
@@ -5118,13 +5118,13 @@
         <v>0.5</v>
       </c>
       <c r="L106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M106" t="n">
         <v>1.5</v>
       </c>
-      <c r="M106" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N106" t="n">
-        <v>3.416666666666667</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="107">
@@ -5159,16 +5159,16 @@
         <v>0.5</v>
       </c>
       <c r="K107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L107" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="L107" t="n">
+      <c r="M107" t="n">
         <v>3.5</v>
       </c>
-      <c r="M107" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N107" t="n">
-        <v>4.149999999999999</v>
+        <v>3.983333333333333</v>
       </c>
     </row>
     <row r="108">
@@ -5203,16 +5203,16 @@
         <v>1.5</v>
       </c>
       <c r="K108" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L108" t="n">
         <v>1.5</v>
       </c>
-      <c r="L108" t="n">
+      <c r="M108" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="M108" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N108" t="n">
-        <v>3.1625</v>
+        <v>4.0375</v>
       </c>
     </row>
     <row r="109">
@@ -5247,13 +5247,13 @@
         <v>1.5</v>
       </c>
       <c r="K109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L109" t="n">
         <v>3.5</v>
       </c>
-      <c r="L109" t="n">
+      <c r="M109" t="n">
         <v>1.5</v>
-      </c>
-      <c r="M109" t="n">
-        <v>2.5</v>
       </c>
       <c r="N109" t="n">
         <v>4.899999999999999</v>
@@ -5291,16 +5291,16 @@
         <v>0.5</v>
       </c>
       <c r="K110" t="n">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="L110" t="n">
         <v>-1</v>
       </c>
       <c r="M110" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N110" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
@@ -5335,16 +5335,16 @@
         <v>5.5</v>
       </c>
       <c r="K111" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L111" t="n">
         <v>4.5</v>
       </c>
-      <c r="L111" t="n">
+      <c r="M111" t="n">
         <v>5.5</v>
       </c>
-      <c r="M111" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N111" t="n">
-        <v>4.083333333333333</v>
+        <v>4.566666666666666</v>
       </c>
     </row>
     <row r="112">
@@ -5379,16 +5379,16 @@
         <v>2.5</v>
       </c>
       <c r="K112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L112" t="n">
         <v>6.5</v>
       </c>
-      <c r="L112" t="n">
+      <c r="M112" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="M112" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N112" t="n">
-        <v>5.766666666666667</v>
+        <v>5.600000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -5423,16 +5423,16 @@
         <v>8.6</v>
       </c>
       <c r="K113" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L113" t="n">
         <v>5.5</v>
       </c>
       <c r="M113" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N113" t="n">
-        <v>6.075</v>
+        <v>6.158333333333334</v>
       </c>
     </row>
     <row r="114">
@@ -5467,16 +5467,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L114" t="n">
         <v>4.5</v>
       </c>
-      <c r="L114" t="n">
+      <c r="M114" t="n">
         <v>7.5</v>
       </c>
-      <c r="M114" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N114" t="n">
-        <v>7.083333333333333</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -5511,16 +5511,16 @@
         <v>6.5</v>
       </c>
       <c r="K115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L115" t="n">
         <v>7.5</v>
       </c>
-      <c r="L115" t="n">
+      <c r="M115" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="M115" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N115" t="n">
-        <v>5.649999999999999</v>
+        <v>5.566666666666666</v>
       </c>
     </row>
     <row r="116">
@@ -5555,16 +5555,16 @@
         <v>7.5</v>
       </c>
       <c r="K116" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L116" t="n">
         <v>6.5</v>
       </c>
       <c r="M116" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N116" t="n">
-        <v>5.333333333333333</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="117">
@@ -5602,13 +5602,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L117" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M117" t="n">
         <v>3.5</v>
       </c>
-      <c r="M117" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N117" t="n">
-        <v>5.736363636363635</v>
+        <v>6.263636363636363</v>
       </c>
     </row>
     <row r="118">
@@ -5646,13 +5646,13 @@
         <v>7.5</v>
       </c>
       <c r="L118" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M118" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="M118" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N118" t="n">
-        <v>5.7875</v>
+        <v>6.4125</v>
       </c>
     </row>
     <row r="119">
@@ -5687,13 +5687,13 @@
         <v>1.5</v>
       </c>
       <c r="K119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L119" t="n">
         <v>7.5</v>
       </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
         <v>1.5</v>
-      </c>
-      <c r="M119" t="n">
-        <v>2.5</v>
       </c>
       <c r="N119" t="n">
         <v>5.990909090909091</v>
@@ -5731,16 +5731,16 @@
         <v>0.5</v>
       </c>
       <c r="K120" t="n">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="L120" t="n">
         <v>-1</v>
       </c>
       <c r="M120" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N120" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -5778,13 +5778,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L121" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M121" t="n">
         <v>5.5</v>
       </c>
-      <c r="M121" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N121" t="n">
-        <v>7.00909090909091</v>
+        <v>7.536363636363637</v>
       </c>
     </row>
     <row r="122">
@@ -5819,16 +5819,16 @@
         <v>7.5</v>
       </c>
       <c r="K122" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="L122" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M122" t="n">
-        <v>2.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N122" t="n">
-        <v>7.649999999999999</v>
+        <v>8.066666666666666</v>
       </c>
     </row>
     <row r="123">
@@ -5863,16 +5863,16 @@
         <v>8.6</v>
       </c>
       <c r="K123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L123" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="L123" t="n">
+      <c r="M123" t="n">
         <v>7.5</v>
       </c>
-      <c r="M123" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N123" t="n">
-        <v>7.425</v>
+        <v>7.508333333333333</v>
       </c>
     </row>
     <row r="124">
@@ -5907,16 +5907,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L124" t="n">
         <v>4.5</v>
       </c>
-      <c r="L124" t="n">
+      <c r="M124" t="n">
         <v>7.5</v>
       </c>
-      <c r="M124" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N124" t="n">
-        <v>7.045454545454546</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="125">
@@ -5951,16 +5951,16 @@
         <v>6.5</v>
       </c>
       <c r="K125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L125" t="n">
         <v>7.5</v>
       </c>
-      <c r="L125" t="n">
+      <c r="M125" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="M125" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N125" t="n">
-        <v>7.3</v>
+        <v>7.383333333333333</v>
       </c>
     </row>
     <row r="126">
@@ -5995,16 +5995,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L126" t="n">
         <v>6.5</v>
       </c>
       <c r="M126" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N126" t="n">
-        <v>7.05</v>
+        <v>7.216666666666666</v>
       </c>
     </row>
     <row r="127">
@@ -6039,16 +6039,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K127" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L127" t="n">
         <v>4.5</v>
       </c>
-      <c r="L127" t="n">
+      <c r="M127" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="M127" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N127" t="n">
-        <v>7.236363636363637</v>
+        <v>7.763636363636365</v>
       </c>
     </row>
     <row r="128">
@@ -6083,16 +6083,16 @@
         <v>-1</v>
       </c>
       <c r="K128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L128" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="L128" t="n">
+      <c r="M128" t="n">
         <v>5.5</v>
       </c>
-      <c r="M128" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N128" t="n">
-        <v>6.3</v>
+        <v>6.442857142857143</v>
       </c>
     </row>
     <row r="129">
@@ -6127,13 +6127,13 @@
         <v>6.5</v>
       </c>
       <c r="K129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L129" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="L129" t="n">
+      <c r="M129" t="n">
         <v>7.5</v>
-      </c>
-      <c r="M129" t="n">
-        <v>2.5</v>
       </c>
       <c r="N129" t="n">
         <v>7.033333333333332</v>
@@ -6171,16 +6171,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>-1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L130" t="n">
         <v>-1</v>
       </c>
       <c r="M130" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N130" t="n">
-        <v>6.925</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="131">
@@ -6215,16 +6215,16 @@
         <v>5.5</v>
       </c>
       <c r="K131" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L131" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="L131" t="n">
+      <c r="M131" t="n">
         <v>5.5</v>
       </c>
-      <c r="M131" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N131" t="n">
-        <v>7.30909090909091</v>
+        <v>7.581818181818182</v>
       </c>
     </row>
     <row r="132">
@@ -6259,16 +6259,16 @@
         <v>7.5</v>
       </c>
       <c r="K132" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="L132" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M132" t="n">
-        <v>2.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N132" t="n">
-        <v>6.366666666666666</v>
+        <v>6.783333333333332</v>
       </c>
     </row>
     <row r="133">
@@ -6303,16 +6303,16 @@
         <v>0.5</v>
       </c>
       <c r="K133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L133" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="L133" t="n">
+      <c r="M133" t="n">
         <v>1.5</v>
       </c>
-      <c r="M133" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N133" t="n">
-        <v>4.766666666666667</v>
+        <v>4.683333333333334</v>
       </c>
     </row>
     <row r="134">
@@ -6347,16 +6347,16 @@
         <v>0.5</v>
       </c>
       <c r="K134" t="n">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="L134" t="n">
         <v>1.5</v>
       </c>
       <c r="M134" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N134" t="n">
-        <v>2.833333333333333</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="135">
@@ -6391,16 +6391,16 @@
         <v>4.5</v>
       </c>
       <c r="K135" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L135" t="n">
         <v>7.5</v>
       </c>
-      <c r="L135" t="n">
+      <c r="M135" t="n">
         <v>1.5</v>
       </c>
-      <c r="M135" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N135" t="n">
-        <v>6.399999999999999</v>
+        <v>6.483333333333333</v>
       </c>
     </row>
     <row r="136">
@@ -6435,13 +6435,13 @@
         <v>8.699999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="L136" t="n">
         <v>0.5</v>
       </c>
       <c r="M136" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N136" t="n">
         <v>5.8</v>
@@ -6479,13 +6479,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M137" t="n">
         <v>8.300000000000001</v>
-      </c>
-      <c r="M137" t="n">
-        <v>1.5</v>
       </c>
       <c r="N137" t="n">
         <v>6.358333333333333</v>
@@ -6523,16 +6523,16 @@
         <v>-1</v>
       </c>
       <c r="K138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L138" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="L138" t="n">
+      <c r="M138" t="n">
         <v>5.5</v>
       </c>
-      <c r="M138" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N138" t="n">
-        <v>5.585714285714286</v>
+        <v>5.728571428571429</v>
       </c>
     </row>
     <row r="139">
@@ -6567,13 +6567,13 @@
         <v>6.5</v>
       </c>
       <c r="K139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L139" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="L139" t="n">
+      <c r="M139" t="n">
         <v>7.5</v>
-      </c>
-      <c r="M139" t="n">
-        <v>2.5</v>
       </c>
       <c r="N139" t="n">
         <v>6.463636363636363</v>
@@ -6611,16 +6611,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>-1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L140" t="n">
         <v>-1</v>
       </c>
       <c r="M140" t="n">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N140" t="n">
-        <v>6.925</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="141">
@@ -6655,16 +6655,16 @@
         <v>5.5</v>
       </c>
       <c r="K141" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="L141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M141" t="n">
         <v>5.5</v>
       </c>
-      <c r="M141" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N141" t="n">
-        <v>4.741666666666667</v>
+        <v>4.991666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>2023-07-28</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
         </is>
       </c>
     </row>
@@ -6800,13 +6800,13 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>85.28865385055542</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -7171,13 +7171,13 @@
         <v>0.2425973415374756</v>
       </c>
       <c r="K8" t="n">
+        <v>0.2547714710235596</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.3110344409942627</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.4321067333221436</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2118.908829212189</v>
       </c>
     </row>
     <row r="9">
@@ -7212,13 +7212,13 @@
         <v>0.2428357601165771</v>
       </c>
       <c r="K9" t="n">
+        <v>0.2550680637359619</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.3112995624542236</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.4323821067810059</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2118.909132480621</v>
       </c>
     </row>
     <row r="10">
@@ -7253,13 +7253,13 @@
         <v>0.2431895732879639</v>
       </c>
       <c r="K10" t="n">
+        <v>0.2552876472473145</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.3115518093109131</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.4326884746551514</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2118.909402132034</v>
       </c>
     </row>
     <row r="11">
@@ -7294,13 +7294,13 @@
         <v>0.2434747219085693</v>
       </c>
       <c r="K11" t="n">
+        <v>0.2555205821990967</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.3117744922637939</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>0.432938814163208</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2118.909704208374</v>
       </c>
     </row>
     <row r="12">
@@ -7351,12 +7351,10 @@
         </is>
       </c>
       <c r="K12" t="n">
+        <v>4522.586128234863</v>
+      </c>
+      <c r="L12" t="n">
         <v>85.28914594650269</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -7717,13 +7715,13 @@
         <v>0.2438995838165283</v>
       </c>
       <c r="K18" t="n">
+        <v>0.2558555603027344</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.3121459484100342</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>0.4334080219268799</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2118.910089492798</v>
       </c>
     </row>
     <row r="19">
@@ -7758,13 +7756,13 @@
         <v>0.2441244125366211</v>
       </c>
       <c r="K19" t="n">
+        <v>0.2560756206512451</v>
+      </c>
+      <c r="L19" t="n">
         <v>0.3124051094055176</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>0.433743953704834</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2118.910392999649</v>
       </c>
     </row>
     <row r="20">
@@ -7799,13 +7797,13 @@
         <v>0.2443902492523193</v>
       </c>
       <c r="K20" t="n">
+        <v>0.2562932968139648</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.3126590251922607</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>0.4340572357177734</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2118.910715103149</v>
       </c>
     </row>
     <row r="21">
@@ -7840,13 +7838,13 @@
         <v>0.2446908950805664</v>
       </c>
       <c r="K21" t="n">
+        <v>0.2568173408508301</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.312891960144043</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>0.4343032836914062</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2118.910982370377</v>
       </c>
     </row>
     <row r="22">
@@ -8081,18 +8079,18 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K25" t="n">
+        <v>44.6381676197052</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>2118.911394119263</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -8145,15 +8143,15 @@
         </is>
       </c>
       <c r="K26" t="n">
+        <v>30.8824405670166</v>
+      </c>
+      <c r="L26" t="n">
         <v>7527.884927034378</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>3020.005268573761</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -8211,8 +8209,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>5723.39083981514</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -8247,13 +8247,13 @@
         <v>0.2451252937316895</v>
       </c>
       <c r="K28" t="n">
+        <v>0.2572808265686035</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.3132364749908447</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>0.4347164630889893</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2118.911779880524</v>
       </c>
     </row>
     <row r="29">
@@ -8288,13 +8288,13 @@
         <v>0.2454361915588379</v>
       </c>
       <c r="K29" t="n">
+        <v>0.2575099468231201</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.3134596347808838</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>0.4350509643554688</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2118.912071466446</v>
       </c>
     </row>
     <row r="30">
@@ -8329,13 +8329,13 @@
         <v>0.2456734180450439</v>
       </c>
       <c r="K30" t="n">
+        <v>0.2577338218688965</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.3136937618255615</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>0.435300350189209</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2118.912397384644</v>
       </c>
     </row>
     <row r="31">
@@ -8370,13 +8370,13 @@
         <v>0.2459306716918945</v>
       </c>
       <c r="K31" t="n">
+        <v>0.2579574584960938</v>
+      </c>
+      <c r="L31" t="n">
         <v>0.3139371871948242</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>0.4355978965759277</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2118.912741184235</v>
       </c>
     </row>
     <row r="32">
@@ -8619,18 +8619,18 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K35" t="n">
+        <v>44.63868474960327</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>2118.913089513779</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -8683,12 +8683,10 @@
         </is>
       </c>
       <c r="K36" t="n">
+        <v>30.88311243057251</v>
+      </c>
+      <c r="L36" t="n">
         <v>7527.885731935501</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -8741,16 +8739,18 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
         <v>1153.799431085587</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>5723.391342639923</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -8785,13 +8785,13 @@
         <v>0.2463030815124512</v>
       </c>
       <c r="K38" t="n">
+        <v>0.2583372592926025</v>
+      </c>
+      <c r="L38" t="n">
         <v>0.3143126964569092</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>0.4360213279724121</v>
-      </c>
-      <c r="M38" t="n">
-        <v>2118.913379907608</v>
       </c>
     </row>
     <row r="39">
@@ -8826,13 +8826,13 @@
         <v>0.2467327117919922</v>
       </c>
       <c r="K39" t="n">
+        <v>0.2586774826049805</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.3145370483398438</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>0.4362690448760986</v>
-      </c>
-      <c r="M39" t="n">
-        <v>2118.913651227951</v>
       </c>
     </row>
     <row r="40">
@@ -8867,13 +8867,13 @@
         <v>0.2469608783721924</v>
       </c>
       <c r="K40" t="n">
+        <v>0.2589805126190186</v>
+      </c>
+      <c r="L40" t="n">
         <v>0.3147566318511963</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>0.4365458488464355</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2118.913927793503</v>
       </c>
     </row>
     <row r="41">
@@ -8908,13 +8908,13 @@
         <v>0.2473015785217285</v>
       </c>
       <c r="K41" t="n">
+        <v>0.2592060565948486</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.3149847984313965</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>0.4367852210998535</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2118.914192199707</v>
       </c>
     </row>
     <row r="42">
@@ -9327,13 +9327,13 @@
         <v>0.2476944923400879</v>
       </c>
       <c r="K48" t="n">
+        <v>0.2595772743225098</v>
+      </c>
+      <c r="L48" t="n">
         <v>0.3153231143951416</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>0.437408447265625</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2118.914573431015</v>
       </c>
     </row>
     <row r="49">
@@ -9376,13 +9376,13 @@
         <v>0.2479016780853271</v>
       </c>
       <c r="K49" t="n">
+        <v>0.2597823143005371</v>
+      </c>
+      <c r="L49" t="n">
         <v>0.315544605255127</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>0.4377083778381348</v>
-      </c>
-      <c r="M49" t="n">
-        <v>2118.914867639542</v>
       </c>
     </row>
     <row r="50">
@@ -9417,13 +9417,13 @@
         <v>0.2482509613037109</v>
       </c>
       <c r="K50" t="n">
+        <v>0.2600057125091553</v>
+      </c>
+      <c r="L50" t="n">
         <v>0.3157632350921631</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>0.4379770755767822</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2118.915170669556</v>
       </c>
     </row>
     <row r="51">
@@ -9464,13 +9464,13 @@
         <v>0.2485277652740479</v>
       </c>
       <c r="K51" t="n">
+        <v>0.2602136135101318</v>
+      </c>
+      <c r="L51" t="n">
         <v>0.315993070602417</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>0.4382524490356445</v>
-      </c>
-      <c r="M51" t="n">
-        <v>2118.915449380875</v>
       </c>
     </row>
     <row r="52">
@@ -9516,18 +9516,18 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K52" t="n">
+        <v>27.48540115356445</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>2719.647243976593</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -9768,8 +9768,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>8426.905537366867</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -9827,8 +9829,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>3020.006294250488</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -9863,13 +9867,13 @@
         <v>0.2489433288574219</v>
       </c>
       <c r="K58" t="n">
+        <v>0.2606728076934814</v>
+      </c>
+      <c r="L58" t="n">
         <v>0.316333532333374</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>0.4387507438659668</v>
-      </c>
-      <c r="M58" t="n">
-        <v>2118.915885686874</v>
       </c>
     </row>
     <row r="59">
@@ -9908,13 +9912,13 @@
         <v>0.2491748332977295</v>
       </c>
       <c r="K59" t="n">
+        <v>0.2609367370605469</v>
+      </c>
+      <c r="L59" t="n">
         <v>0.3165769577026367</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>0.4390482902526855</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2118.916199207306</v>
       </c>
     </row>
     <row r="60">
@@ -9949,13 +9953,13 @@
         <v>0.2494485378265381</v>
       </c>
       <c r="K60" t="n">
+        <v>0.2611565589904785</v>
+      </c>
+      <c r="L60" t="n">
         <v>0.3168063163757324</v>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
         <v>0.439288854598999</v>
-      </c>
-      <c r="M60" t="n">
-        <v>2118.916519403458</v>
       </c>
     </row>
     <row r="61">
@@ -9992,13 +9996,13 @@
         <v>0.2497260570526123</v>
       </c>
       <c r="K61" t="n">
+        <v>0.2614157199859619</v>
+      </c>
+      <c r="L61" t="n">
         <v>0.3170275688171387</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>0.4395842552185059</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2118.916761398315</v>
       </c>
     </row>
     <row r="62">
@@ -10044,18 +10048,18 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K62" t="n">
+        <v>27.48578238487244</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>2118.917066812515</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -10109,8 +10113,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>2118.917313098907</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -10168,8 +10174,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>2118.91757440567</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -10225,8 +10233,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>2419.294635057449</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -10274,18 +10284,18 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K66" t="n">
+        <v>2419.836743116379</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>8426.906014204025</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -10343,8 +10353,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>3320.350281238556</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -10379,13 +10391,13 @@
         <v>0.2501823902130127</v>
       </c>
       <c r="K68" t="n">
+        <v>0.2618887424468994</v>
+      </c>
+      <c r="L68" t="n">
         <v>0.3173661231994629</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>0.4400091171264648</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2118.917942523956</v>
       </c>
     </row>
     <row r="69">
@@ -10420,13 +10432,13 @@
         <v>0.2504763603210449</v>
       </c>
       <c r="K69" t="n">
+        <v>0.2621550559997559</v>
+      </c>
+      <c r="L69" t="n">
         <v>0.3175899982452393</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>0.4402551651000977</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2118.919122219086</v>
       </c>
     </row>
     <row r="70">
@@ -10461,13 +10473,13 @@
         <v>0.2506935596466064</v>
       </c>
       <c r="K70" t="n">
+        <v>0.2624545097351074</v>
+      </c>
+      <c r="L70" t="n">
         <v>0.3178191184997559</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>0.4405338764190674</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2118.919516563416</v>
       </c>
     </row>
     <row r="71">
@@ -10502,13 +10514,13 @@
         <v>0.2508988380432129</v>
       </c>
       <c r="K71" t="n">
+        <v>0.2629044055938721</v>
+      </c>
+      <c r="L71" t="n">
         <v>0.3180418014526367</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>0.4407713413238525</v>
-      </c>
-      <c r="M71" t="n">
-        <v>2118.919838190079</v>
       </c>
     </row>
     <row r="72">
@@ -10562,8 +10574,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>2118.920157194138</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -10609,18 +10623,18 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K73" t="n">
+        <v>3020.604822635651</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>2118.92049908638</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -10676,8 +10690,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>2118.920833110809</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -10731,8 +10747,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>2419.295176029205</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -10776,18 +10794,18 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K76" t="n">
+        <v>2419.837288379669</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>7525.71390080452</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -10841,8 +10859,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>3320.350743293762</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -10877,13 +10897,13 @@
         <v>0.2512526512145996</v>
       </c>
       <c r="K78" t="n">
+        <v>0.2633147239685059</v>
+      </c>
+      <c r="L78" t="n">
         <v>0.3183803558349609</v>
       </c>
-      <c r="L78" t="n">
+      <c r="M78" t="n">
         <v>0.4411942958831787</v>
-      </c>
-      <c r="M78" t="n">
-        <v>2118.921287059784</v>
       </c>
     </row>
     <row r="79">
@@ -10918,13 +10938,13 @@
         <v>0.2515327930450439</v>
       </c>
       <c r="K79" t="n">
+        <v>0.263580322265625</v>
+      </c>
+      <c r="L79" t="n">
         <v>0.3186004161834717</v>
       </c>
-      <c r="L79" t="n">
+      <c r="M79" t="n">
         <v>0.4414761066436768</v>
-      </c>
-      <c r="M79" t="n">
-        <v>2118.921692848206</v>
       </c>
     </row>
     <row r="80">
@@ -10959,13 +10979,13 @@
         <v>0.2517576217651367</v>
       </c>
       <c r="K80" t="n">
+        <v>0.2637920379638672</v>
+      </c>
+      <c r="L80" t="n">
         <v>0.318831205368042</v>
       </c>
-      <c r="L80" t="n">
+      <c r="M80" t="n">
         <v>0.4417126178741455</v>
-      </c>
-      <c r="M80" t="n">
-        <v>2118.922087669373</v>
       </c>
     </row>
     <row r="81">
@@ -11000,13 +11020,13 @@
         <v>0.2519690990447998</v>
       </c>
       <c r="K81" t="n">
+        <v>0.2640562057495117</v>
+      </c>
+      <c r="L81" t="n">
         <v>0.3190546035766602</v>
       </c>
-      <c r="L81" t="n">
+      <c r="M81" t="n">
         <v>0.4419927597045898</v>
-      </c>
-      <c r="M81" t="n">
-        <v>2118.922473907471</v>
       </c>
     </row>
     <row r="82">
@@ -11046,16 +11066,16 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
+      <c r="K82" t="n">
+        <v>361.6760399341583</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1759.767525672913</v>
-      </c>
-      <c r="M82" t="n">
-        <v>2118.922859430313</v>
       </c>
     </row>
     <row r="83">
@@ -11095,18 +11115,18 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K83" t="n">
+        <v>3020.605338573456</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>2419.295603513718</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -11158,8 +11178,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>2719.647948026657</v>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -11201,16 +11223,18 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K85" t="n">
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
         <v>606.2992749214172</v>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>2419.295924663544</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -11319,8 +11343,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>10229.24403214455</v>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -11355,13 +11381,13 @@
         <v>0.2525191307067871</v>
       </c>
       <c r="K88" t="n">
+        <v>0.2644338607788086</v>
+      </c>
+      <c r="L88" t="n">
         <v>0.3195133209228516</v>
       </c>
-      <c r="L88" t="n">
+      <c r="M88" t="n">
         <v>0.4424059391021729</v>
-      </c>
-      <c r="M88" t="n">
-        <v>2118.923390388489</v>
       </c>
     </row>
     <row r="89">
@@ -11396,13 +11422,13 @@
         <v>0.2527885437011719</v>
       </c>
       <c r="K89" t="n">
+        <v>0.2648203372955322</v>
+      </c>
+      <c r="L89" t="n">
         <v>0.3197429180145264</v>
       </c>
-      <c r="L89" t="n">
+      <c r="M89" t="n">
         <v>0.4426496028900146</v>
-      </c>
-      <c r="M89" t="n">
-        <v>2118.923810005188</v>
       </c>
     </row>
     <row r="90">
@@ -11437,13 +11463,13 @@
         <v>0.2530832290649414</v>
       </c>
       <c r="K90" t="n">
+        <v>0.265042781829834</v>
+      </c>
+      <c r="L90" t="n">
         <v>0.3199770450592041</v>
       </c>
-      <c r="L90" t="n">
+      <c r="M90" t="n">
         <v>0.4429285526275635</v>
-      </c>
-      <c r="M90" t="n">
-        <v>2118.924181938171</v>
       </c>
     </row>
     <row r="91">
@@ -11478,13 +11504,13 @@
         <v>0.253345251083374</v>
       </c>
       <c r="K91" t="n">
+        <v>0.2652473449707031</v>
+      </c>
+      <c r="L91" t="n">
         <v>0.3201994895935059</v>
       </c>
-      <c r="L91" t="n">
+      <c r="M91" t="n">
         <v>0.4431748390197754</v>
-      </c>
-      <c r="M91" t="n">
-        <v>2118.924461841583</v>
       </c>
     </row>
     <row r="92">
@@ -11524,16 +11550,18 @@
       <c r="J92" t="n">
         <v>3326.028279066086</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
         <v>7227.489417791367</v>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>2118.924777746201</v>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -11575,16 +11603,18 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K93" t="n">
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
         <v>12309.42152237892</v>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>2719.648337602615</v>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -11624,14 +11654,16 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K94" t="n">
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
         <v>484.5295195579529</v>
       </c>
-      <c r="L94" t="n">
+      <c r="M94" t="n">
         <v>5725.579505205154</v>
-      </c>
-      <c r="M94" t="n">
-        <v>2118.925076007843</v>
       </c>
     </row>
     <row r="95">
@@ -11667,14 +11699,16 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K95" t="n">
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
         <v>4524.048715829849</v>
       </c>
-      <c r="L95" t="n">
+      <c r="M95" t="n">
         <v>36.76333332061768</v>
-      </c>
-      <c r="M95" t="n">
-        <v>2419.296315193176</v>
       </c>
     </row>
     <row r="96">
@@ -11723,11 +11757,13 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="L96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>5725.580008745193</v>
-      </c>
-      <c r="M96" t="n">
-        <v>2419.296602010727</v>
       </c>
     </row>
     <row r="97">
@@ -11777,8 +11813,10 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>10229.24444651604</v>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -11813,13 +11851,13 @@
         <v>0.2537009716033936</v>
       </c>
       <c r="K98" t="n">
+        <v>0.2655956745147705</v>
+      </c>
+      <c r="L98" t="n">
         <v>0.3205544948577881</v>
       </c>
-      <c r="L98" t="n">
+      <c r="M98" t="n">
         <v>0.4436154365539551</v>
-      </c>
-      <c r="M98" t="n">
-        <v>2118.925510406494</v>
       </c>
     </row>
     <row r="99">
@@ -11854,13 +11892,13 @@
         <v>0.2539138793945312</v>
       </c>
       <c r="K99" t="n">
+        <v>0.2658011913299561</v>
+      </c>
+      <c r="L99" t="n">
         <v>0.320777416229248</v>
       </c>
-      <c r="L99" t="n">
+      <c r="M99" t="n">
         <v>0.4438910484313965</v>
-      </c>
-      <c r="M99" t="n">
-        <v>2118.925804138184</v>
       </c>
     </row>
     <row r="100">
@@ -11895,13 +11933,13 @@
         <v>0.2541427612304688</v>
       </c>
       <c r="K100" t="n">
+        <v>0.2660391330718994</v>
+      </c>
+      <c r="L100" t="n">
         <v>0.3210086822509766</v>
       </c>
-      <c r="L100" t="n">
+      <c r="M100" t="n">
         <v>0.44413161277771</v>
-      </c>
-      <c r="M100" t="n">
-        <v>2118.926077842712</v>
       </c>
     </row>
     <row r="101">
@@ -11936,13 +11974,13 @@
         <v>0.2543821334838867</v>
       </c>
       <c r="K101" t="n">
+        <v>0.2662560939788818</v>
+      </c>
+      <c r="L101" t="n">
         <v>0.3212282657623291</v>
       </c>
-      <c r="L101" t="n">
+      <c r="M101" t="n">
         <v>0.4444019794464111</v>
-      </c>
-      <c r="M101" t="n">
-        <v>2118.926336288452</v>
       </c>
     </row>
     <row r="102">
@@ -11987,11 +12025,13 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="L102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>18.07816457748413</v>
-      </c>
-      <c r="M102" t="n">
-        <v>2419.296947717667</v>
       </c>
     </row>
     <row r="103">
@@ -12038,11 +12078,13 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="L103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>135.9257564544678</v>
-      </c>
-      <c r="M103" t="n">
-        <v>2719.648698091507</v>
       </c>
     </row>
     <row r="104">
@@ -12084,14 +12126,16 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K104" t="n">
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
         <v>484.5300431251526</v>
       </c>
-      <c r="L104" t="n">
+      <c r="M104" t="n">
         <v>5725.580349683762</v>
-      </c>
-      <c r="M104" t="n">
-        <v>2419.297241449356</v>
       </c>
     </row>
     <row r="105">
@@ -12130,13 +12174,13 @@
         <v>9334.138869524002</v>
       </c>
       <c r="K105" t="n">
+        <v>4822.991480350494</v>
+      </c>
+      <c r="L105" t="n">
         <v>4524.049172878265</v>
       </c>
-      <c r="L105" t="n">
+      <c r="M105" t="n">
         <v>103.4772567749023</v>
-      </c>
-      <c r="M105" t="n">
-        <v>2118.926656723022</v>
       </c>
     </row>
     <row r="106">
@@ -12181,11 +12225,13 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="L106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>5725.580641508102</v>
-      </c>
-      <c r="M106" t="n">
-        <v>2419.297559976578</v>
       </c>
     </row>
     <row r="107">
@@ -12223,14 +12269,16 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K107" t="n">
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
         <v>29.01506066322327</v>
       </c>
-      <c r="L107" t="n">
+      <c r="M107" t="n">
         <v>1699.089973926544</v>
-      </c>
-      <c r="M107" t="n">
-        <v>2419.297909498215</v>
       </c>
     </row>
     <row r="108">
@@ -12269,15 +12317,13 @@
         <v>5729.306091547012</v>
       </c>
       <c r="K108" t="n">
+        <v>33.16918206214905</v>
+      </c>
+      <c r="L108" t="n">
         <v>10532.4744386673</v>
       </c>
-      <c r="L108" t="n">
+      <c r="M108" t="n">
         <v>12.65465831756592</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
       </c>
     </row>
     <row r="109">
@@ -12312,13 +12358,13 @@
         <v>9334.139220237732</v>
       </c>
       <c r="K109" t="n">
+        <v>3020.606062412262</v>
+      </c>
+      <c r="L109" t="n">
         <v>1729.583037853241</v>
       </c>
-      <c r="L109" t="n">
+      <c r="M109" t="n">
         <v>7828.30997300148</v>
-      </c>
-      <c r="M109" t="n">
-        <v>2118.926999807358</v>
       </c>
     </row>
     <row r="110">
@@ -12355,13 +12401,13 @@
         </is>
       </c>
       <c r="K110" t="n">
+        <v>43.4967303276062</v>
+      </c>
+      <c r="L110" t="n">
         <v>0.3216018676757812</v>
       </c>
-      <c r="L110" t="n">
+      <c r="M110" t="n">
         <v>0.4448466300964355</v>
-      </c>
-      <c r="M110" t="n">
-        <v>2719.649039268494</v>
       </c>
     </row>
     <row r="111">
@@ -12402,13 +12448,13 @@
         <v>219.1100292205811</v>
       </c>
       <c r="K111" t="n">
+        <v>27.48669004440308</v>
+      </c>
+      <c r="L111" t="n">
         <v>392.9093477725983</v>
       </c>
-      <c r="L111" t="n">
+      <c r="M111" t="n">
         <v>135.9262645244598</v>
-      </c>
-      <c r="M111" t="n">
-        <v>2118.927280426025</v>
       </c>
     </row>
     <row r="112">
@@ -12444,14 +12490,16 @@
       <c r="J112" t="n">
         <v>3025.61471581459</v>
       </c>
-      <c r="K112" t="n">
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
         <v>63.43694496154785</v>
       </c>
-      <c r="L112" t="n">
+      <c r="M112" t="n">
         <v>18.07884168624878</v>
-      </c>
-      <c r="M112" t="n">
-        <v>2419.298286437988</v>
       </c>
     </row>
     <row r="113">
@@ -12486,13 +12534,13 @@
         <v>14.54750967025757</v>
       </c>
       <c r="K113" t="n">
+        <v>1484.819798231125</v>
+      </c>
+      <c r="L113" t="n">
         <v>168.7334537506104</v>
       </c>
-      <c r="L113" t="n">
+      <c r="M113" t="n">
         <v>135.9265828132629</v>
-      </c>
-      <c r="M113" t="n">
-        <v>2118.927564620972</v>
       </c>
     </row>
     <row r="114">
@@ -12527,13 +12575,13 @@
         <v>20.36714148521423</v>
       </c>
       <c r="K114" t="n">
+        <v>7526.496210575104</v>
+      </c>
+      <c r="L114" t="n">
         <v>392.9096970558167</v>
       </c>
-      <c r="L114" t="n">
+      <c r="M114" t="n">
         <v>49.45992112159729</v>
-      </c>
-      <c r="M114" t="n">
-        <v>2419.298585176468</v>
       </c>
     </row>
     <row r="115">
@@ -12568,13 +12616,13 @@
         <v>84.522376537323</v>
       </c>
       <c r="K115" t="n">
+        <v>4822.992220401764</v>
+      </c>
+      <c r="L115" t="n">
         <v>38.12303781509399</v>
       </c>
-      <c r="L115" t="n">
+      <c r="M115" t="n">
         <v>18.0792338848114</v>
-      </c>
-      <c r="M115" t="n">
-        <v>2118.927836179733</v>
       </c>
     </row>
     <row r="116">
@@ -12611,13 +12659,13 @@
         <v>59.48797988891602</v>
       </c>
       <c r="K116" t="n">
+        <v>573.7977001667023</v>
+      </c>
+      <c r="L116" t="n">
         <v>73.92270088195801</v>
       </c>
-      <c r="L116" t="n">
+      <c r="M116" t="n">
         <v>88.56563568115234</v>
-      </c>
-      <c r="M116" t="n">
-        <v>2419.298912525177</v>
       </c>
     </row>
     <row r="117">
@@ -12652,13 +12700,13 @@
         <v>59.48833703994751</v>
       </c>
       <c r="K117" t="n">
+        <v>19.44137167930603</v>
+      </c>
+      <c r="L117" t="n">
         <v>29.01555895805359</v>
       </c>
-      <c r="L117" t="n">
+      <c r="M117" t="n">
         <v>1668.757599115372</v>
-      </c>
-      <c r="M117" t="n">
-        <v>2118.928186893463</v>
       </c>
     </row>
     <row r="118">
@@ -12693,13 +12741,13 @@
         <v>5729.306501865387</v>
       </c>
       <c r="K118" t="n">
+        <v>33.16979122161865</v>
+      </c>
+      <c r="L118" t="n">
         <v>50.76859855651855</v>
       </c>
-      <c r="L118" t="n">
+      <c r="M118" t="n">
         <v>12.65514183044434</v>
-      </c>
-      <c r="M118" t="n">
-        <v>2719.649339914322</v>
       </c>
     </row>
     <row r="119">
@@ -12734,13 +12782,13 @@
         <v>9334.139669179916</v>
       </c>
       <c r="K119" t="n">
+        <v>3020.606498003006</v>
+      </c>
+      <c r="L119" t="n">
         <v>41.57435822486877</v>
       </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
         <v>7828.31035399437</v>
-      </c>
-      <c r="M119" t="n">
-        <v>2118.928508520126</v>
       </c>
     </row>
     <row r="120">
@@ -12777,13 +12825,13 @@
         </is>
       </c>
       <c r="K120" t="n">
+        <v>43.49737238883972</v>
+      </c>
+      <c r="L120" t="n">
         <v>0.3220047950744629</v>
       </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
         <v>0.4453220367431641</v>
-      </c>
-      <c r="M120" t="n">
-        <v>2719.649606466293</v>
       </c>
     </row>
     <row r="121">
@@ -12818,13 +12866,13 @@
         <v>219.110648393631</v>
       </c>
       <c r="K121" t="n">
+        <v>28.62104821205139</v>
+      </c>
+      <c r="L121" t="n">
         <v>21.50876808166504</v>
       </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
         <v>135.9269242286682</v>
-      </c>
-      <c r="M121" t="n">
-        <v>2118.928824901581</v>
       </c>
     </row>
     <row r="122">
@@ -12859,13 +12907,13 @@
         <v>39.85473084449768</v>
       </c>
       <c r="K122" t="n">
+        <v>30.88500189781189</v>
+      </c>
+      <c r="L122" t="n">
         <v>17.50112342834473</v>
       </c>
-      <c r="L122" t="n">
+      <c r="M122" t="n">
         <v>16.84992837905884</v>
-      </c>
-      <c r="M122" t="n">
-        <v>2419.299294233322</v>
       </c>
     </row>
     <row r="123">
@@ -12900,13 +12948,13 @@
         <v>14.54829001426697</v>
       </c>
       <c r="K123" t="n">
+        <v>1484.820410728455</v>
+      </c>
+      <c r="L123" t="n">
         <v>20.34866261482239</v>
       </c>
-      <c r="L123" t="n">
+      <c r="M123" t="n">
         <v>42.57404661178589</v>
-      </c>
-      <c r="M123" t="n">
-        <v>2118.929177761078</v>
       </c>
     </row>
     <row r="124">
@@ -12941,13 +12989,13 @@
         <v>20.36783313751221</v>
       </c>
       <c r="K124" t="n">
+        <v>36.6516420841217</v>
+      </c>
+      <c r="L124" t="n">
         <v>454.3250255584717</v>
       </c>
-      <c r="L124" t="n">
+      <c r="M124" t="n">
         <v>49.46042680740356</v>
-      </c>
-      <c r="M124" t="n">
-        <v>2118.929441213608</v>
       </c>
     </row>
     <row r="125">
@@ -12982,13 +13030,13 @@
         <v>84.52291917800903</v>
       </c>
       <c r="K125" t="n">
+        <v>1515.102303981781</v>
+      </c>
+      <c r="L125" t="n">
         <v>56.5850236415863</v>
       </c>
-      <c r="L125" t="n">
+      <c r="M125" t="n">
         <v>18.07976865768433</v>
-      </c>
-      <c r="M125" t="n">
-        <v>2118.929679632187</v>
       </c>
     </row>
     <row r="126">
@@ -13023,13 +13071,13 @@
         <v>13.38175630569458</v>
       </c>
       <c r="K126" t="n">
+        <v>573.7982382774353</v>
+      </c>
+      <c r="L126" t="n">
         <v>73.92324900627136</v>
       </c>
-      <c r="L126" t="n">
+      <c r="M126" t="n">
         <v>88.56610631942749</v>
-      </c>
-      <c r="M126" t="n">
-        <v>2419.299621343613</v>
       </c>
     </row>
     <row r="127">
@@ -13064,13 +13112,13 @@
         <v>16.86820554733276</v>
       </c>
       <c r="K127" t="n">
+        <v>19.44201183319092</v>
+      </c>
+      <c r="L127" t="n">
         <v>545.106457233429</v>
       </c>
-      <c r="L127" t="n">
+      <c r="M127" t="n">
         <v>21.66818618774414</v>
-      </c>
-      <c r="M127" t="n">
-        <v>2118.929953575134</v>
       </c>
     </row>
     <row r="128">
@@ -13105,13 +13153,13 @@
         <v>0.2551817893981934</v>
       </c>
       <c r="K128" t="n">
+        <v>1363.624016523361</v>
+      </c>
+      <c r="L128" t="n">
         <v>20.34911751747131</v>
       </c>
-      <c r="L128" t="n">
+      <c r="M128" t="n">
         <v>199.660567522049</v>
-      </c>
-      <c r="M128" t="n">
-        <v>2419.299931049347</v>
       </c>
     </row>
     <row r="129">
@@ -13146,13 +13194,13 @@
         <v>83.38333916664124</v>
       </c>
       <c r="K129" t="n">
+        <v>2419.838578939438</v>
+      </c>
+      <c r="L129" t="n">
         <v>15.19966745376587</v>
       </c>
-      <c r="L129" t="n">
+      <c r="M129" t="n">
         <v>36.76425790786743</v>
-      </c>
-      <c r="M129" t="n">
-        <v>2118.930288076401</v>
       </c>
     </row>
     <row r="130">
@@ -13187,13 +13235,13 @@
         <v>25.0237500667572</v>
       </c>
       <c r="K130" t="n">
+        <v>15.9610002040863</v>
+      </c>
+      <c r="L130" t="n">
         <v>0.3224718570709229</v>
       </c>
-      <c r="L130" t="n">
+      <c r="M130" t="n">
         <v>0.445784330368042</v>
-      </c>
-      <c r="M130" t="n">
-        <v>2419.300242424011</v>
       </c>
     </row>
     <row r="131">
@@ -13228,13 +13276,13 @@
         <v>133.2313759326935</v>
       </c>
       <c r="K131" t="n">
+        <v>137.7088394165039</v>
+      </c>
+      <c r="L131" t="n">
         <v>21.50934386253357</v>
       </c>
-      <c r="L131" t="n">
+      <c r="M131" t="n">
         <v>177.8369293212891</v>
-      </c>
-      <c r="M131" t="n">
-        <v>2118.93057012558</v>
       </c>
     </row>
     <row r="132">
@@ -13269,13 +13317,13 @@
         <v>39.85525155067444</v>
       </c>
       <c r="K132" t="n">
+        <v>30.88544416427612</v>
+      </c>
+      <c r="L132" t="n">
         <v>17.50164985656738</v>
       </c>
-      <c r="L132" t="n">
+      <c r="M132" t="n">
         <v>16.85046625137329</v>
-      </c>
-      <c r="M132" t="n">
-        <v>2419.300495147705</v>
       </c>
     </row>
     <row r="133">
@@ -13312,13 +13360,13 @@
         </is>
       </c>
       <c r="K133" t="n">
+        <v>6024.535497188568</v>
+      </c>
+      <c r="L133" t="n">
         <v>20.34942770004272</v>
       </c>
-      <c r="L133" t="n">
+      <c r="M133" t="n">
         <v>3622.83340215683</v>
-      </c>
-      <c r="M133" t="n">
-        <v>2719.650045394897</v>
       </c>
     </row>
     <row r="134">
@@ -13357,13 +13405,13 @@
         </is>
       </c>
       <c r="K134" t="n">
+        <v>36.65237998962402</v>
+      </c>
+      <c r="L134" t="n">
         <v>10532.47513890266</v>
       </c>
-      <c r="L134" t="n">
+      <c r="M134" t="n">
         <v>6326.290040254593</v>
-      </c>
-      <c r="M134" t="n">
-        <v>2118.930949926376</v>
       </c>
     </row>
     <row r="135">
@@ -13398,13 +13446,13 @@
         <v>574.6699085235596</v>
       </c>
       <c r="K135" t="n">
+        <v>1515.102699279785</v>
+      </c>
+      <c r="L135" t="n">
         <v>56.58557057380676</v>
       </c>
-      <c r="L135" t="n">
+      <c r="M135" t="n">
         <v>8429.125302553177</v>
-      </c>
-      <c r="M135" t="n">
-        <v>2118.931334495544</v>
       </c>
     </row>
     <row r="136">
@@ -13439,15 +13487,15 @@
         <v>13.38233351707458</v>
       </c>
       <c r="K136" t="n">
+        <v>2119.508789539337</v>
+      </c>
+      <c r="L136" t="n">
         <v>13564.30748772621</v>
       </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>2419.300802707672</v>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -13482,13 +13530,13 @@
         <v>16.86874127388</v>
       </c>
       <c r="K137" t="n">
+        <v>4522.588118553162</v>
+      </c>
+      <c r="L137" t="n">
         <v>13864.72289514542</v>
       </c>
-      <c r="L137" t="n">
+      <c r="M137" t="n">
         <v>21.66874051094055</v>
-      </c>
-      <c r="M137" t="n">
-        <v>6324.134830474854</v>
       </c>
     </row>
     <row r="138">
@@ -13523,13 +13571,13 @@
         <v>0.2556257247924805</v>
       </c>
       <c r="K138" t="n">
+        <v>1363.624585151672</v>
+      </c>
+      <c r="L138" t="n">
         <v>20.34975123405457</v>
       </c>
-      <c r="L138" t="n">
+      <c r="M138" t="n">
         <v>199.6611375808716</v>
-      </c>
-      <c r="M138" t="n">
-        <v>2419.301120042801</v>
       </c>
     </row>
     <row r="139">
@@ -13566,13 +13614,13 @@
         <v>83.38384914398193</v>
       </c>
       <c r="K139" t="n">
+        <v>2419.83913064003</v>
+      </c>
+      <c r="L139" t="n">
         <v>15.20037889480591</v>
       </c>
-      <c r="L139" t="n">
+      <c r="M139" t="n">
         <v>36.76470804214478</v>
-      </c>
-      <c r="M139" t="n">
-        <v>2118.931766748428</v>
       </c>
     </row>
     <row r="140">
@@ -13607,13 +13655,13 @@
         <v>25.02422308921814</v>
       </c>
       <c r="K140" t="n">
+        <v>15.96157431602478</v>
+      </c>
+      <c r="L140" t="n">
         <v>0.3228919506072998</v>
       </c>
-      <c r="L140" t="n">
+      <c r="M140" t="n">
         <v>0.4462575912475586</v>
-      </c>
-      <c r="M140" t="n">
-        <v>2419.301509618759</v>
       </c>
     </row>
     <row r="141">
@@ -13650,13 +13698,13 @@
         <v>133.2318179607391</v>
       </c>
       <c r="K141" t="n">
+        <v>137.7093040943146</v>
+      </c>
+      <c r="L141" t="n">
         <v>12963.49436283112</v>
       </c>
-      <c r="L141" t="n">
+      <c r="M141" t="n">
         <v>177.8375203609467</v>
-      </c>
-      <c r="M141" t="n">
-        <v>2118.932112932205</v>
       </c>
     </row>
   </sheetData>
@@ -13791,27 +13839,27 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>statues</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>2023-07-28</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>statues</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
         </is>
       </c>
     </row>
@@ -13887,18 +13935,18 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
         <v>85.28865385055542</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
           <t>showed</t>
@@ -14433,23 +14481,23 @@
         </is>
       </c>
       <c r="W8" t="n">
+        <v>0.2547714710235596</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
         <v>0.3110344409942627</v>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
         <v>0.4321067333221436</v>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA8" t="n">
-        <v>2118.908829212189</v>
       </c>
     </row>
     <row r="9">
@@ -14544,23 +14592,23 @@
         </is>
       </c>
       <c r="W9" t="n">
+        <v>0.2550680637359619</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
         <v>0.3112995624542236</v>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
         <v>0.4323821067810059</v>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA9" t="n">
-        <v>2118.909132480621</v>
       </c>
     </row>
     <row r="10">
@@ -14655,23 +14703,23 @@
         </is>
       </c>
       <c r="W10" t="n">
+        <v>0.2552876472473145</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
         <v>0.3115518093109131</v>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
         <v>0.4326884746551514</v>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA10" t="n">
-        <v>2118.909402132034</v>
       </c>
     </row>
     <row r="11">
@@ -14766,23 +14814,23 @@
         </is>
       </c>
       <c r="W11" t="n">
+        <v>0.2555205821990967</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
         <v>0.3117744922637939</v>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
         <v>0.432938814163208</v>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v>2118.909704208374</v>
       </c>
     </row>
     <row r="12">
@@ -14861,14 +14909,16 @@
         </is>
       </c>
       <c r="W12" t="n">
+        <v>4522.586128234863</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y12" t="n">
         <v>85.28914594650269</v>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>showed</t>
@@ -15407,23 +15457,23 @@
         </is>
       </c>
       <c r="W18" t="n">
+        <v>0.2558555603027344</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y18" t="n">
         <v>0.3121459484100342</v>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA18" t="n">
         <v>0.4334080219268799</v>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA18" t="n">
-        <v>2118.910089492798</v>
       </c>
     </row>
     <row r="19">
@@ -15518,23 +15568,23 @@
         </is>
       </c>
       <c r="W19" t="n">
+        <v>0.2560756206512451</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
         <v>0.3124051094055176</v>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA19" t="n">
         <v>0.433743953704834</v>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA19" t="n">
-        <v>2118.910392999649</v>
       </c>
     </row>
     <row r="20">
@@ -15629,23 +15679,23 @@
         </is>
       </c>
       <c r="W20" t="n">
+        <v>0.2562932968139648</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
         <v>0.3126590251922607</v>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA20" t="n">
         <v>0.4340572357177734</v>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA20" t="n">
-        <v>2118.910715103149</v>
       </c>
     </row>
     <row r="21">
@@ -15740,23 +15790,23 @@
         </is>
       </c>
       <c r="W21" t="n">
+        <v>0.2568173408508301</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
         <v>0.312891960144043</v>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA21" t="n">
         <v>0.4343032836914062</v>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA21" t="n">
-        <v>2118.910982370377</v>
       </c>
     </row>
     <row r="22">
@@ -16102,10 +16152,12 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>44.6381676197052</v>
+      </c>
       <c r="X25" t="inlineStr">
         <is>
           <t>showed</t>
@@ -16114,12 +16166,10 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA25" t="n">
-        <v>2118.911394119263</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -16195,22 +16245,22 @@
         </is>
       </c>
       <c r="W26" t="n">
+        <v>30.8824405670166</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y26" t="n">
         <v>7527.884927034378</v>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA26" t="n">
-        <v>3020.005268573761</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -16298,12 +16348,10 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA27" t="n">
-        <v>5723.39083981514</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -16397,23 +16445,23 @@
         </is>
       </c>
       <c r="W28" t="n">
+        <v>0.2572808265686035</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y28" t="n">
         <v>0.3132364749908447</v>
       </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y28" t="n">
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA28" t="n">
         <v>0.4347164630889893</v>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA28" t="n">
-        <v>2118.911779880524</v>
       </c>
     </row>
     <row r="29">
@@ -16508,23 +16556,23 @@
         </is>
       </c>
       <c r="W29" t="n">
+        <v>0.2575099468231201</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y29" t="n">
         <v>0.3134596347808838</v>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y29" t="n">
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA29" t="n">
         <v>0.4350509643554688</v>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA29" t="n">
-        <v>2118.912071466446</v>
       </c>
     </row>
     <row r="30">
@@ -16619,23 +16667,23 @@
         </is>
       </c>
       <c r="W30" t="n">
+        <v>0.2577338218688965</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y30" t="n">
         <v>0.3136937618255615</v>
       </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y30" t="n">
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA30" t="n">
         <v>0.435300350189209</v>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA30" t="n">
-        <v>2118.912397384644</v>
       </c>
     </row>
     <row r="31">
@@ -16730,23 +16778,23 @@
         </is>
       </c>
       <c r="W31" t="n">
+        <v>0.2579574584960938</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y31" t="n">
         <v>0.3139371871948242</v>
       </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA31" t="n">
         <v>0.4355978965759277</v>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA31" t="n">
-        <v>2118.912741184235</v>
       </c>
     </row>
     <row r="32">
@@ -17084,10 +17132,12 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>44.63868474960327</v>
+      </c>
       <c r="X35" t="inlineStr">
         <is>
           <t>showed</t>
@@ -17096,12 +17146,10 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA35" t="n">
-        <v>2118.913089513779</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -17177,14 +17225,16 @@
         </is>
       </c>
       <c r="W36" t="n">
+        <v>30.88311243057251</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y36" t="n">
         <v>7527.885731935501</v>
       </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
           <t>showed</t>
@@ -17266,26 +17316,24 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="W37" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y37" t="n">
         <v>1153.799431085587</v>
       </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA37" t="n">
-        <v>5723.391342639923</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -17379,23 +17427,23 @@
         </is>
       </c>
       <c r="W38" t="n">
+        <v>0.2583372592926025</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y38" t="n">
         <v>0.3143126964569092</v>
       </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA38" t="n">
         <v>0.4360213279724121</v>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA38" t="n">
-        <v>2118.913379907608</v>
       </c>
     </row>
     <row r="39">
@@ -17490,23 +17538,23 @@
         </is>
       </c>
       <c r="W39" t="n">
+        <v>0.2586774826049805</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y39" t="n">
         <v>0.3145370483398438</v>
       </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y39" t="n">
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA39" t="n">
         <v>0.4362690448760986</v>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA39" t="n">
-        <v>2118.913651227951</v>
       </c>
     </row>
     <row r="40">
@@ -17601,23 +17649,23 @@
         </is>
       </c>
       <c r="W40" t="n">
+        <v>0.2589805126190186</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y40" t="n">
         <v>0.3147566318511963</v>
       </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA40" t="n">
         <v>0.4365458488464355</v>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA40" t="n">
-        <v>2118.913927793503</v>
       </c>
     </row>
     <row r="41">
@@ -17712,23 +17760,23 @@
         </is>
       </c>
       <c r="W41" t="n">
+        <v>0.2592060565948486</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y41" t="n">
         <v>0.3149847984313965</v>
       </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA41" t="n">
         <v>0.4367852210998535</v>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA41" t="n">
-        <v>2118.914192199707</v>
       </c>
     </row>
     <row r="42">
@@ -18357,23 +18405,23 @@
         </is>
       </c>
       <c r="W48" t="n">
+        <v>0.2595772743225098</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y48" t="n">
         <v>0.3153231143951416</v>
       </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y48" t="n">
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA48" t="n">
         <v>0.437408447265625</v>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA48" t="n">
-        <v>2118.914573431015</v>
       </c>
     </row>
     <row r="49">
@@ -18460,23 +18508,23 @@
         </is>
       </c>
       <c r="W49" t="n">
+        <v>0.2597823143005371</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y49" t="n">
         <v>0.315544605255127</v>
       </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y49" t="n">
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA49" t="n">
         <v>0.4377083778381348</v>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA49" t="n">
-        <v>2118.914867639542</v>
       </c>
     </row>
     <row r="50">
@@ -18571,23 +18619,23 @@
         </is>
       </c>
       <c r="W50" t="n">
+        <v>0.2600057125091553</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y50" t="n">
         <v>0.3157632350921631</v>
       </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y50" t="n">
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA50" t="n">
         <v>0.4379770755767822</v>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA50" t="n">
-        <v>2118.915170669556</v>
       </c>
     </row>
     <row r="51">
@@ -18676,23 +18724,23 @@
         </is>
       </c>
       <c r="W51" t="n">
+        <v>0.2602136135101318</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y51" t="n">
         <v>0.315993070602417</v>
       </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y51" t="n">
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA51" t="n">
         <v>0.4382524490356445</v>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA51" t="n">
-        <v>2118.915449380875</v>
       </c>
     </row>
     <row r="52">
@@ -18771,10 +18819,12 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="W52" t="n">
+        <v>27.48540115356445</v>
+      </c>
       <c r="X52" t="inlineStr">
         <is>
           <t>showed</t>
@@ -18783,12 +18833,10 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA52" t="n">
-        <v>2719.647243976593</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -19149,12 +19197,10 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA56" t="n">
-        <v>8426.905537366867</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -19242,12 +19288,10 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA57" t="n">
-        <v>3020.006294250488</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -19341,23 +19385,23 @@
         </is>
       </c>
       <c r="W58" t="n">
+        <v>0.2606728076934814</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y58" t="n">
         <v>0.316333532333374</v>
       </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y58" t="n">
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA58" t="n">
         <v>0.4387507438659668</v>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA58" t="n">
-        <v>2118.915885686874</v>
       </c>
     </row>
     <row r="59">
@@ -19448,23 +19492,23 @@
         </is>
       </c>
       <c r="W59" t="n">
+        <v>0.2609367370605469</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y59" t="n">
         <v>0.3165769577026367</v>
       </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y59" t="n">
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA59" t="n">
         <v>0.4390482902526855</v>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA59" t="n">
-        <v>2118.916199207306</v>
       </c>
     </row>
     <row r="60">
@@ -19559,23 +19603,23 @@
         </is>
       </c>
       <c r="W60" t="n">
+        <v>0.2611565589904785</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y60" t="n">
         <v>0.3168063163757324</v>
       </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y60" t="n">
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA60" t="n">
         <v>0.439288854598999</v>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA60" t="n">
-        <v>2118.916519403458</v>
       </c>
     </row>
     <row r="61">
@@ -19668,23 +19712,23 @@
         </is>
       </c>
       <c r="W61" t="n">
+        <v>0.2614157199859619</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y61" t="n">
         <v>0.3170275688171387</v>
       </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y61" t="n">
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA61" t="n">
         <v>0.4395842552185059</v>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA61" t="n">
-        <v>2118.916761398315</v>
       </c>
     </row>
     <row r="62">
@@ -19763,10 +19807,12 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="W62" t="n">
+        <v>27.48578238487244</v>
+      </c>
       <c r="X62" t="inlineStr">
         <is>
           <t>showed</t>
@@ -19775,12 +19821,10 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA62" t="n">
-        <v>2118.917066812515</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -19872,12 +19916,10 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA63" t="n">
-        <v>2118.917313098907</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -19965,12 +20007,10 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA64" t="n">
-        <v>2118.91757440567</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -20060,12 +20100,10 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA65" t="n">
-        <v>2419.294635057449</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -20141,10 +20179,12 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="W66" t="n">
+        <v>2419.836743116379</v>
+      </c>
       <c r="X66" t="inlineStr">
         <is>
           <t>showed</t>
@@ -20153,12 +20193,10 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA66" t="n">
-        <v>8426.906014204025</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -20246,12 +20284,10 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA67" t="n">
-        <v>3320.350281238556</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -20345,23 +20381,23 @@
         </is>
       </c>
       <c r="W68" t="n">
+        <v>0.2618887424468994</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y68" t="n">
         <v>0.3173661231994629</v>
       </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y68" t="n">
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA68" t="n">
         <v>0.4400091171264648</v>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA68" t="n">
-        <v>2118.917942523956</v>
       </c>
     </row>
     <row r="69">
@@ -20456,23 +20492,23 @@
         </is>
       </c>
       <c r="W69" t="n">
+        <v>0.2621550559997559</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y69" t="n">
         <v>0.3175899982452393</v>
       </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y69" t="n">
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA69" t="n">
         <v>0.4402551651000977</v>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA69" t="n">
-        <v>2118.919122219086</v>
       </c>
     </row>
     <row r="70">
@@ -20567,23 +20603,23 @@
         </is>
       </c>
       <c r="W70" t="n">
+        <v>0.2624545097351074</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y70" t="n">
         <v>0.3178191184997559</v>
       </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y70" t="n">
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA70" t="n">
         <v>0.4405338764190674</v>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA70" t="n">
-        <v>2118.919516563416</v>
       </c>
     </row>
     <row r="71">
@@ -20678,23 +20714,23 @@
         </is>
       </c>
       <c r="W71" t="n">
+        <v>0.2629044055938721</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y71" t="n">
         <v>0.3180418014526367</v>
       </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y71" t="n">
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA71" t="n">
         <v>0.4407713413238525</v>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA71" t="n">
-        <v>2118.919838190079</v>
       </c>
     </row>
     <row r="72">
@@ -20787,12 +20823,10 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA72" t="n">
-        <v>2118.920157194138</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -20870,10 +20904,12 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="W73" t="n">
+        <v>3020.604822635651</v>
+      </c>
       <c r="X73" t="inlineStr">
         <is>
           <t>showed</t>
@@ -20882,12 +20918,10 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA73" t="n">
-        <v>2118.92049908638</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -20977,12 +21011,10 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA74" t="n">
-        <v>2118.920833110809</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -21074,12 +21106,10 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA75" t="n">
-        <v>2419.295176029205</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -21159,10 +21189,12 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="W76" t="n">
+        <v>2419.837288379669</v>
+      </c>
       <c r="X76" t="inlineStr">
         <is>
           <t>showed</t>
@@ -21171,12 +21203,10 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA76" t="n">
-        <v>7525.71390080452</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -21268,12 +21298,10 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA77" t="n">
-        <v>3320.350743293762</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -21367,23 +21395,23 @@
         </is>
       </c>
       <c r="W78" t="n">
+        <v>0.2633147239685059</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y78" t="n">
         <v>0.3183803558349609</v>
       </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y78" t="n">
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA78" t="n">
         <v>0.4411942958831787</v>
-      </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA78" t="n">
-        <v>2118.921287059784</v>
       </c>
     </row>
     <row r="79">
@@ -21478,23 +21506,23 @@
         </is>
       </c>
       <c r="W79" t="n">
+        <v>0.263580322265625</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y79" t="n">
         <v>0.3186004161834717</v>
       </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y79" t="n">
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA79" t="n">
         <v>0.4414761066436768</v>
-      </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA79" t="n">
-        <v>2118.921692848206</v>
       </c>
     </row>
     <row r="80">
@@ -21589,23 +21617,23 @@
         </is>
       </c>
       <c r="W80" t="n">
+        <v>0.2637920379638672</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y80" t="n">
         <v>0.318831205368042</v>
       </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y80" t="n">
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA80" t="n">
         <v>0.4417126178741455</v>
-      </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA80" t="n">
-        <v>2118.922087669373</v>
       </c>
     </row>
     <row r="81">
@@ -21700,23 +21728,23 @@
         </is>
       </c>
       <c r="W81" t="n">
+        <v>0.2640562057495117</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y81" t="n">
         <v>0.3190546035766602</v>
       </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y81" t="n">
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA81" t="n">
         <v>0.4419927597045898</v>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA81" t="n">
-        <v>2118.922473907471</v>
       </c>
     </row>
     <row r="82">
@@ -21801,25 +21829,25 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="W82" t="n">
+        <v>361.6760399341583</v>
+      </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y82" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA82" t="n">
         <v>1759.767525672913</v>
-      </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA82" t="n">
-        <v>2118.922859430313</v>
       </c>
     </row>
     <row r="83">
@@ -21904,10 +21932,12 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="W83" t="n">
+        <v>3020.605338573456</v>
+      </c>
       <c r="X83" t="inlineStr">
         <is>
           <t>showed</t>
@@ -21916,12 +21946,10 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA83" t="n">
-        <v>2419.295603513718</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -22015,12 +22043,10 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA84" t="n">
-        <v>2719.647948026657</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -22102,26 +22128,24 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="W85" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y85" t="n">
         <v>606.2992749214172</v>
       </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA85" t="n">
-        <v>2419.295924663544</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -22310,12 +22334,10 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA87" t="n">
-        <v>10229.24403214455</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -22409,23 +22431,23 @@
         </is>
       </c>
       <c r="W88" t="n">
+        <v>0.2644338607788086</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y88" t="n">
         <v>0.3195133209228516</v>
       </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y88" t="n">
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA88" t="n">
         <v>0.4424059391021729</v>
-      </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA88" t="n">
-        <v>2118.923390388489</v>
       </c>
     </row>
     <row r="89">
@@ -22520,23 +22542,23 @@
         </is>
       </c>
       <c r="W89" t="n">
+        <v>0.2648203372955322</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y89" t="n">
         <v>0.3197429180145264</v>
       </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y89" t="n">
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA89" t="n">
         <v>0.4426496028900146</v>
-      </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA89" t="n">
-        <v>2118.923810005188</v>
       </c>
     </row>
     <row r="90">
@@ -22631,23 +22653,23 @@
         </is>
       </c>
       <c r="W90" t="n">
+        <v>0.265042781829834</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y90" t="n">
         <v>0.3199770450592041</v>
       </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y90" t="n">
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA90" t="n">
         <v>0.4429285526275635</v>
-      </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA90" t="n">
-        <v>2118.924181938171</v>
       </c>
     </row>
     <row r="91">
@@ -22742,23 +22764,23 @@
         </is>
       </c>
       <c r="W91" t="n">
+        <v>0.2652473449707031</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y91" t="n">
         <v>0.3201994895935059</v>
       </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y91" t="n">
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA91" t="n">
         <v>0.4431748390197754</v>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA91" t="n">
-        <v>2118.924461841583</v>
       </c>
     </row>
     <row r="92">
@@ -22843,26 +22865,24 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="W92" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y92" t="n">
         <v>7227.489417791367</v>
       </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA92" t="n">
-        <v>2118.924777746201</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -22944,26 +22964,24 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="W93" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y93" t="n">
         <v>12309.42152237892</v>
       </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA93" t="n">
-        <v>2719.648337602615</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -23047,27 +23065,25 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="W94" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y94" t="n">
         <v>484.5295195579529</v>
       </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y94" t="n">
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA94" t="n">
         <v>5725.579505205154</v>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA94" t="n">
-        <v>2118.925076007843</v>
       </c>
     </row>
     <row r="95">
@@ -23156,27 +23172,25 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="W95" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y95" t="n">
         <v>4524.048715829849</v>
       </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y95" t="n">
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA95" t="n">
         <v>36.76333332061768</v>
-      </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA95" t="n">
-        <v>2419.296315193176</v>
       </c>
     </row>
     <row r="96">
@@ -23263,19 +23277,17 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y96" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA96" t="n">
         <v>5725.580008745193</v>
-      </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA96" t="n">
-        <v>2419.296602010727</v>
       </c>
     </row>
     <row r="97">
@@ -23372,12 +23384,10 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA97" t="n">
-        <v>10229.24444651604</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -23471,23 +23481,23 @@
         </is>
       </c>
       <c r="W98" t="n">
+        <v>0.2655956745147705</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y98" t="n">
         <v>0.3205544948577881</v>
       </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y98" t="n">
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA98" t="n">
         <v>0.4436154365539551</v>
-      </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA98" t="n">
-        <v>2118.925510406494</v>
       </c>
     </row>
     <row r="99">
@@ -23582,23 +23592,23 @@
         </is>
       </c>
       <c r="W99" t="n">
+        <v>0.2658011913299561</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y99" t="n">
         <v>0.320777416229248</v>
       </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y99" t="n">
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA99" t="n">
         <v>0.4438910484313965</v>
-      </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA99" t="n">
-        <v>2118.925804138184</v>
       </c>
     </row>
     <row r="100">
@@ -23693,23 +23703,23 @@
         </is>
       </c>
       <c r="W100" t="n">
+        <v>0.2660391330718994</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y100" t="n">
         <v>0.3210086822509766</v>
       </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y100" t="n">
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA100" t="n">
         <v>0.44413161277771</v>
-      </c>
-      <c r="Z100" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA100" t="n">
-        <v>2118.926077842712</v>
       </c>
     </row>
     <row r="101">
@@ -23804,23 +23814,23 @@
         </is>
       </c>
       <c r="W101" t="n">
+        <v>0.2662560939788818</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y101" t="n">
         <v>0.3212282657623291</v>
       </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y101" t="n">
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA101" t="n">
         <v>0.4444019794464111</v>
-      </c>
-      <c r="Z101" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA101" t="n">
-        <v>2118.926336288452</v>
       </c>
     </row>
     <row r="102">
@@ -23911,19 +23921,17 @@
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y102" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA102" t="n">
         <v>18.07816457748413</v>
-      </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA102" t="n">
-        <v>2419.296947717667</v>
       </c>
     </row>
     <row r="103">
@@ -24012,19 +24020,17 @@
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y103" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA103" t="n">
         <v>135.9257564544678</v>
-      </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA103" t="n">
-        <v>2719.648698091507</v>
       </c>
     </row>
     <row r="104">
@@ -24107,27 +24113,25 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="W104" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y104" t="n">
         <v>484.5300431251526</v>
       </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y104" t="n">
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA104" t="n">
         <v>5725.580349683762</v>
-      </c>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA104" t="n">
-        <v>2419.297241449356</v>
       </c>
     </row>
     <row r="105">
@@ -24218,23 +24222,23 @@
         </is>
       </c>
       <c r="W105" t="n">
+        <v>4822.991480350494</v>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y105" t="n">
         <v>4524.049172878265</v>
       </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y105" t="n">
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA105" t="n">
         <v>103.4772567749023</v>
-      </c>
-      <c r="Z105" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA105" t="n">
-        <v>2118.926656723022</v>
       </c>
     </row>
     <row r="106">
@@ -24325,19 +24329,17 @@
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y106" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA106" t="n">
         <v>5725.580641508102</v>
-      </c>
-      <c r="Z106" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA106" t="n">
-        <v>2419.297559976578</v>
       </c>
     </row>
     <row r="107">
@@ -24424,27 +24426,25 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="W107" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y107" t="n">
         <v>29.01506066322327</v>
       </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y107" t="n">
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA107" t="n">
         <v>1699.089973926544</v>
-      </c>
-      <c r="Z107" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA107" t="n">
-        <v>2419.297909498215</v>
       </c>
     </row>
     <row r="108">
@@ -24535,22 +24535,24 @@
         </is>
       </c>
       <c r="W108" t="n">
+        <v>33.16918206214905</v>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y108" t="n">
         <v>10532.4744386673</v>
       </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y108" t="n">
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA108" t="n">
         <v>12.65465831756592</v>
       </c>
-      <c r="Z108" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="AA108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -24644,23 +24646,23 @@
         </is>
       </c>
       <c r="W109" t="n">
+        <v>3020.606062412262</v>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y109" t="n">
         <v>1729.583037853241</v>
       </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y109" t="n">
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA109" t="n">
         <v>7828.30997300148</v>
-      </c>
-      <c r="Z109" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA109" t="n">
-        <v>2118.926999807358</v>
       </c>
     </row>
     <row r="110">
@@ -24753,23 +24755,23 @@
         </is>
       </c>
       <c r="W110" t="n">
+        <v>43.4967303276062</v>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y110" t="n">
         <v>0.3216018676757812</v>
       </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y110" t="n">
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA110" t="n">
         <v>0.4448466300964355</v>
-      </c>
-      <c r="Z110" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA110" t="n">
-        <v>2719.649039268494</v>
       </c>
     </row>
     <row r="111">
@@ -24858,23 +24860,23 @@
         </is>
       </c>
       <c r="W111" t="n">
+        <v>27.48669004440308</v>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y111" t="n">
         <v>392.9093477725983</v>
       </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y111" t="n">
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA111" t="n">
         <v>135.9262645244598</v>
-      </c>
-      <c r="Z111" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA111" t="n">
-        <v>2118.927280426025</v>
       </c>
     </row>
     <row r="112">
@@ -24963,27 +24965,25 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="W112" t="n">
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y112" t="n">
         <v>63.43694496154785</v>
       </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y112" t="n">
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA112" t="n">
         <v>18.07884168624878</v>
-      </c>
-      <c r="Z112" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA112" t="n">
-        <v>2419.298286437988</v>
       </c>
     </row>
     <row r="113">
@@ -25078,23 +25078,23 @@
         </is>
       </c>
       <c r="W113" t="n">
+        <v>1484.819798231125</v>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y113" t="n">
         <v>168.7334537506104</v>
       </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y113" t="n">
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA113" t="n">
         <v>135.9265828132629</v>
-      </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA113" t="n">
-        <v>2118.927564620972</v>
       </c>
     </row>
     <row r="114">
@@ -25189,23 +25189,23 @@
         </is>
       </c>
       <c r="W114" t="n">
+        <v>7526.496210575104</v>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y114" t="n">
         <v>392.9096970558167</v>
       </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y114" t="n">
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA114" t="n">
         <v>49.45992112159729</v>
-      </c>
-      <c r="Z114" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA114" t="n">
-        <v>2419.298585176468</v>
       </c>
     </row>
     <row r="115">
@@ -25300,23 +25300,23 @@
         </is>
       </c>
       <c r="W115" t="n">
+        <v>4822.992220401764</v>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y115" t="n">
         <v>38.12303781509399</v>
       </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y115" t="n">
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA115" t="n">
         <v>18.0792338848114</v>
-      </c>
-      <c r="Z115" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA115" t="n">
-        <v>2118.927836179733</v>
       </c>
     </row>
     <row r="116">
@@ -25409,23 +25409,23 @@
         </is>
       </c>
       <c r="W116" t="n">
+        <v>573.7977001667023</v>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y116" t="n">
         <v>73.92270088195801</v>
       </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y116" t="n">
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA116" t="n">
         <v>88.56563568115234</v>
-      </c>
-      <c r="Z116" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA116" t="n">
-        <v>2419.298912525177</v>
       </c>
     </row>
     <row r="117">
@@ -25520,23 +25520,23 @@
         </is>
       </c>
       <c r="W117" t="n">
+        <v>19.44137167930603</v>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y117" t="n">
         <v>29.01555895805359</v>
       </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y117" t="n">
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA117" t="n">
         <v>1668.757599115372</v>
-      </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA117" t="n">
-        <v>2118.928186893463</v>
       </c>
     </row>
     <row r="118">
@@ -25631,23 +25631,23 @@
         </is>
       </c>
       <c r="W118" t="n">
+        <v>33.16979122161865</v>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y118" t="n">
         <v>50.76859855651855</v>
       </c>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y118" t="n">
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA118" t="n">
         <v>12.65514183044434</v>
-      </c>
-      <c r="Z118" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA118" t="n">
-        <v>2719.649339914322</v>
       </c>
     </row>
     <row r="119">
@@ -25742,23 +25742,23 @@
         </is>
       </c>
       <c r="W119" t="n">
+        <v>3020.606498003006</v>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y119" t="n">
         <v>41.57435822486877</v>
       </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y119" t="n">
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA119" t="n">
         <v>7828.31035399437</v>
-      </c>
-      <c r="Z119" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA119" t="n">
-        <v>2118.928508520126</v>
       </c>
     </row>
     <row r="120">
@@ -25851,23 +25851,23 @@
         </is>
       </c>
       <c r="W120" t="n">
+        <v>43.49737238883972</v>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y120" t="n">
         <v>0.3220047950744629</v>
       </c>
-      <c r="X120" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y120" t="n">
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA120" t="n">
         <v>0.4453220367431641</v>
-      </c>
-      <c r="Z120" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA120" t="n">
-        <v>2719.649606466293</v>
       </c>
     </row>
     <row r="121">
@@ -25962,23 +25962,23 @@
         </is>
       </c>
       <c r="W121" t="n">
+        <v>28.62104821205139</v>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y121" t="n">
         <v>21.50876808166504</v>
       </c>
-      <c r="X121" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y121" t="n">
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA121" t="n">
         <v>135.9269242286682</v>
-      </c>
-      <c r="Z121" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA121" t="n">
-        <v>2118.928824901581</v>
       </c>
     </row>
     <row r="122">
@@ -26073,23 +26073,23 @@
         </is>
       </c>
       <c r="W122" t="n">
+        <v>30.88500189781189</v>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y122" t="n">
         <v>17.50112342834473</v>
       </c>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y122" t="n">
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA122" t="n">
         <v>16.84992837905884</v>
-      </c>
-      <c r="Z122" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA122" t="n">
-        <v>2419.299294233322</v>
       </c>
     </row>
     <row r="123">
@@ -26184,23 +26184,23 @@
         </is>
       </c>
       <c r="W123" t="n">
+        <v>1484.820410728455</v>
+      </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y123" t="n">
         <v>20.34866261482239</v>
       </c>
-      <c r="X123" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y123" t="n">
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA123" t="n">
         <v>42.57404661178589</v>
-      </c>
-      <c r="Z123" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA123" t="n">
-        <v>2118.929177761078</v>
       </c>
     </row>
     <row r="124">
@@ -26295,23 +26295,23 @@
         </is>
       </c>
       <c r="W124" t="n">
+        <v>36.6516420841217</v>
+      </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y124" t="n">
         <v>454.3250255584717</v>
       </c>
-      <c r="X124" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y124" t="n">
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA124" t="n">
         <v>49.46042680740356</v>
-      </c>
-      <c r="Z124" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA124" t="n">
-        <v>2118.929441213608</v>
       </c>
     </row>
     <row r="125">
@@ -26406,23 +26406,23 @@
         </is>
       </c>
       <c r="W125" t="n">
+        <v>1515.102303981781</v>
+      </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y125" t="n">
         <v>56.5850236415863</v>
       </c>
-      <c r="X125" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y125" t="n">
+      <c r="Z125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA125" t="n">
         <v>18.07976865768433</v>
-      </c>
-      <c r="Z125" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA125" t="n">
-        <v>2118.929679632187</v>
       </c>
     </row>
     <row r="126">
@@ -26517,23 +26517,23 @@
         </is>
       </c>
       <c r="W126" t="n">
+        <v>573.7982382774353</v>
+      </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y126" t="n">
         <v>73.92324900627136</v>
       </c>
-      <c r="X126" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y126" t="n">
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA126" t="n">
         <v>88.56610631942749</v>
-      </c>
-      <c r="Z126" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA126" t="n">
-        <v>2419.299621343613</v>
       </c>
     </row>
     <row r="127">
@@ -26628,23 +26628,23 @@
         </is>
       </c>
       <c r="W127" t="n">
+        <v>19.44201183319092</v>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y127" t="n">
         <v>545.106457233429</v>
       </c>
-      <c r="X127" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y127" t="n">
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA127" t="n">
         <v>21.66818618774414</v>
-      </c>
-      <c r="Z127" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA127" t="n">
-        <v>2118.929953575134</v>
       </c>
     </row>
     <row r="128">
@@ -26739,23 +26739,23 @@
         </is>
       </c>
       <c r="W128" t="n">
+        <v>1363.624016523361</v>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y128" t="n">
         <v>20.34911751747131</v>
       </c>
-      <c r="X128" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y128" t="n">
+      <c r="Z128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA128" t="n">
         <v>199.660567522049</v>
-      </c>
-      <c r="Z128" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA128" t="n">
-        <v>2419.299931049347</v>
       </c>
     </row>
     <row r="129">
@@ -26850,23 +26850,23 @@
         </is>
       </c>
       <c r="W129" t="n">
+        <v>2419.838578939438</v>
+      </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y129" t="n">
         <v>15.19966745376587</v>
       </c>
-      <c r="X129" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y129" t="n">
+      <c r="Z129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA129" t="n">
         <v>36.76425790786743</v>
-      </c>
-      <c r="Z129" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA129" t="n">
-        <v>2118.930288076401</v>
       </c>
     </row>
     <row r="130">
@@ -26961,23 +26961,23 @@
         </is>
       </c>
       <c r="W130" t="n">
+        <v>15.9610002040863</v>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y130" t="n">
         <v>0.3224718570709229</v>
       </c>
-      <c r="X130" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y130" t="n">
+      <c r="Z130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA130" t="n">
         <v>0.445784330368042</v>
-      </c>
-      <c r="Z130" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA130" t="n">
-        <v>2419.300242424011</v>
       </c>
     </row>
     <row r="131">
@@ -27072,23 +27072,23 @@
         </is>
       </c>
       <c r="W131" t="n">
+        <v>137.7088394165039</v>
+      </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y131" t="n">
         <v>21.50934386253357</v>
       </c>
-      <c r="X131" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y131" t="n">
+      <c r="Z131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA131" t="n">
         <v>177.8369293212891</v>
-      </c>
-      <c r="Z131" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA131" t="n">
-        <v>2118.93057012558</v>
       </c>
     </row>
     <row r="132">
@@ -27183,23 +27183,23 @@
         </is>
       </c>
       <c r="W132" t="n">
+        <v>30.88544416427612</v>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y132" t="n">
         <v>17.50164985656738</v>
       </c>
-      <c r="X132" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y132" t="n">
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA132" t="n">
         <v>16.85046625137329</v>
-      </c>
-      <c r="Z132" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA132" t="n">
-        <v>2419.300495147705</v>
       </c>
     </row>
     <row r="133">
@@ -27292,23 +27292,23 @@
         </is>
       </c>
       <c r="W133" t="n">
+        <v>6024.535497188568</v>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y133" t="n">
         <v>20.34942770004272</v>
       </c>
-      <c r="X133" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y133" t="n">
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA133" t="n">
         <v>3622.83340215683</v>
-      </c>
-      <c r="Z133" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA133" t="n">
-        <v>2719.650045394897</v>
       </c>
     </row>
     <row r="134">
@@ -27399,23 +27399,23 @@
         </is>
       </c>
       <c r="W134" t="n">
+        <v>36.65237998962402</v>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y134" t="n">
         <v>10532.47513890266</v>
       </c>
-      <c r="X134" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y134" t="n">
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA134" t="n">
         <v>6326.290040254593</v>
-      </c>
-      <c r="Z134" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA134" t="n">
-        <v>2118.930949926376</v>
       </c>
     </row>
     <row r="135">
@@ -27510,23 +27510,23 @@
         </is>
       </c>
       <c r="W135" t="n">
+        <v>1515.102699279785</v>
+      </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y135" t="n">
         <v>56.58557057380676</v>
       </c>
-      <c r="X135" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y135" t="n">
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA135" t="n">
         <v>8429.125302553177</v>
-      </c>
-      <c r="Z135" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA135" t="n">
-        <v>2118.931334495544</v>
       </c>
     </row>
     <row r="136">
@@ -27621,22 +27621,22 @@
         </is>
       </c>
       <c r="W136" t="n">
+        <v>2119.508789539337</v>
+      </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y136" t="n">
         <v>13564.30748772621</v>
       </c>
-      <c r="X136" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA136" t="n">
-        <v>2419.300802707672</v>
-      </c>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AA136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -27730,23 +27730,23 @@
         </is>
       </c>
       <c r="W137" t="n">
+        <v>4522.588118553162</v>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y137" t="n">
         <v>13864.72289514542</v>
       </c>
-      <c r="X137" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y137" t="n">
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA137" t="n">
         <v>21.66874051094055</v>
-      </c>
-      <c r="Z137" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA137" t="n">
-        <v>6324.134830474854</v>
       </c>
     </row>
     <row r="138">
@@ -27841,23 +27841,23 @@
         </is>
       </c>
       <c r="W138" t="n">
+        <v>1363.624585151672</v>
+      </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y138" t="n">
         <v>20.34975123405457</v>
       </c>
-      <c r="X138" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y138" t="n">
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA138" t="n">
         <v>199.6611375808716</v>
-      </c>
-      <c r="Z138" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA138" t="n">
-        <v>2419.301120042801</v>
       </c>
     </row>
     <row r="139">
@@ -27950,23 +27950,23 @@
         </is>
       </c>
       <c r="W139" t="n">
+        <v>2419.83913064003</v>
+      </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y139" t="n">
         <v>15.20037889480591</v>
       </c>
-      <c r="X139" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y139" t="n">
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA139" t="n">
         <v>36.76470804214478</v>
-      </c>
-      <c r="Z139" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA139" t="n">
-        <v>2118.931766748428</v>
       </c>
     </row>
     <row r="140">
@@ -28061,23 +28061,23 @@
         </is>
       </c>
       <c r="W140" t="n">
+        <v>15.96157431602478</v>
+      </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y140" t="n">
         <v>0.3228919506072998</v>
       </c>
-      <c r="X140" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y140" t="n">
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA140" t="n">
         <v>0.4462575912475586</v>
-      </c>
-      <c r="Z140" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA140" t="n">
-        <v>2419.301509618759</v>
       </c>
     </row>
     <row r="141">
@@ -28170,23 +28170,23 @@
         </is>
       </c>
       <c r="W141" t="n">
+        <v>137.7093040943146</v>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="Y141" t="n">
         <v>12963.49436283112</v>
       </c>
-      <c r="X141" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="Y141" t="n">
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AA141" t="n">
         <v>177.8375203609467</v>
-      </c>
-      <c r="Z141" t="inlineStr">
-        <is>
-          <t>showed-booked</t>
-        </is>
-      </c>
-      <c r="AA141" t="n">
-        <v>2118.932112932205</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -3399,7 +3399,7 @@
         <v>0.5</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L67" t="n">
         <v>0.5</v>
@@ -3408,7 +3408,7 @@
         <v>0.5</v>
       </c>
       <c r="N67" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="68">
@@ -3839,7 +3839,7 @@
         <v>0.5</v>
       </c>
       <c r="K77" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L77" t="n">
         <v>0.5</v>
@@ -3848,7 +3848,7 @@
         <v>0.5</v>
       </c>
       <c r="N77" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="78">
@@ -10343,10 +10343,8 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K67" t="n">
+        <v>8728.113198757172</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -10849,10 +10847,8 @@
           <t>inf</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="K77" t="n">
+        <v>8728.113696336746</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -20272,10 +20268,12 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="W67" t="n">
+        <v>8728.113198757172</v>
+      </c>
       <c r="X67" t="inlineStr">
         <is>
           <t>showed</t>
@@ -21286,10 +21284,12 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr"/>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="W77" t="n">
+        <v>8728.113696336746</v>
+      </c>
       <c r="X77" t="inlineStr">
         <is>
           <t>showed</t>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:S141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -580,7 +585,10 @@
         <v>-1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.423076923076923</v>
       </c>
     </row>
     <row r="3">
@@ -638,6 +646,9 @@
       <c r="R3" t="n">
         <v>0.5</v>
       </c>
+      <c r="S3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -694,6 +705,9 @@
       <c r="R4" t="n">
         <v>0.5</v>
       </c>
+      <c r="S4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -750,6 +764,9 @@
       <c r="R5" t="n">
         <v>0.5</v>
       </c>
+      <c r="S5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -806,6 +823,9 @@
       <c r="R6" t="n">
         <v>0.5</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -862,6 +882,9 @@
       <c r="R7" t="n">
         <v>0.5</v>
       </c>
+      <c r="S7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -916,6 +939,9 @@
         <v>-1</v>
       </c>
       <c r="R8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -972,6 +998,9 @@
         <v>-1</v>
       </c>
       <c r="R9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S9" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1028,6 +1057,9 @@
         <v>-1</v>
       </c>
       <c r="R10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,6 +1116,9 @@
         <v>-1</v>
       </c>
       <c r="R11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1140,7 +1175,10 @@
         <v>-1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.583333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -1198,6 +1236,9 @@
       <c r="R13" t="n">
         <v>0.5</v>
       </c>
+      <c r="S13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1254,6 +1295,9 @@
       <c r="R14" t="n">
         <v>0.5</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1308,7 +1352,10 @@
         <v>-1</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="16">
@@ -1366,6 +1413,9 @@
       <c r="R16" t="n">
         <v>0.5</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1422,6 +1472,9 @@
       <c r="R17" t="n">
         <v>0.5</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1476,6 +1529,9 @@
         <v>-1</v>
       </c>
       <c r="R18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1532,6 +1588,9 @@
         <v>-1</v>
       </c>
       <c r="R19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S19" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1588,6 +1647,9 @@
         <v>-1</v>
       </c>
       <c r="R20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1644,6 +1706,9 @@
         <v>-1</v>
       </c>
       <c r="R21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1700,7 +1765,10 @@
         <v>-1</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="23">
@@ -1756,7 +1824,10 @@
         <v>-1</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="24">
@@ -1812,7 +1883,10 @@
         <v>-1</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="25">
@@ -1868,7 +1942,10 @@
         <v>-1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.423076923076923</v>
       </c>
     </row>
     <row r="26">
@@ -1924,7 +2001,10 @@
         <v>-1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.166666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.115384615384615</v>
       </c>
     </row>
     <row r="27">
@@ -1980,7 +2060,10 @@
         <v>-1</v>
       </c>
       <c r="R27" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="28">
@@ -2036,6 +2119,9 @@
         <v>-1</v>
       </c>
       <c r="R28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2092,6 +2178,9 @@
         <v>-1</v>
       </c>
       <c r="R29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S29" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2148,6 +2237,9 @@
         <v>-1</v>
       </c>
       <c r="R30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2204,6 +2296,9 @@
         <v>-1</v>
       </c>
       <c r="R31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S31" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -2262,6 +2357,9 @@
       <c r="R32" t="n">
         <v>0.5</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2318,6 +2416,9 @@
       <c r="R33" t="n">
         <v>0.5</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2372,7 +2473,10 @@
         <v>-1</v>
       </c>
       <c r="R34" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="35">
@@ -2428,7 +2532,10 @@
         <v>-1</v>
       </c>
       <c r="R35" t="n">
-        <v>1.416666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.346153846153846</v>
       </c>
     </row>
     <row r="36">
@@ -2484,7 +2591,10 @@
         <v>-1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.166666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.115384615384615</v>
       </c>
     </row>
     <row r="37">
@@ -2540,7 +2650,10 @@
         <v>-1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.083333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.038461538461539</v>
       </c>
     </row>
     <row r="38">
@@ -2596,6 +2709,9 @@
         <v>-1</v>
       </c>
       <c r="R38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2652,6 +2768,9 @@
         <v>-1</v>
       </c>
       <c r="R39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S39" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2708,6 +2827,9 @@
         <v>-1</v>
       </c>
       <c r="R40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2764,6 +2886,9 @@
         <v>-1</v>
       </c>
       <c r="R41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S41" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -2822,6 +2947,9 @@
       <c r="R42" t="n">
         <v>0.5</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2878,6 +3006,9 @@
       <c r="R43" t="n">
         <v>0.5</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2934,6 +3065,9 @@
       <c r="R44" t="n">
         <v>0.5</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2990,6 +3124,9 @@
       <c r="R45" t="n">
         <v>0.5</v>
       </c>
+      <c r="S45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3046,6 +3183,9 @@
       <c r="R46" t="n">
         <v>0.5</v>
       </c>
+      <c r="S46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3102,6 +3242,9 @@
       <c r="R47" t="n">
         <v>0.5</v>
       </c>
+      <c r="S47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3156,6 +3299,9 @@
         <v>-1</v>
       </c>
       <c r="R48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3212,6 +3358,9 @@
         <v>-1</v>
       </c>
       <c r="R49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S49" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -3268,6 +3417,9 @@
         <v>-1</v>
       </c>
       <c r="R50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3324,6 +3476,9 @@
         <v>-1</v>
       </c>
       <c r="R51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S51" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -3380,7 +3535,10 @@
         <v>-1</v>
       </c>
       <c r="R52" t="n">
-        <v>1.38</v>
+        <v>0.5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="53">
@@ -3438,6 +3596,9 @@
       <c r="R53" t="n">
         <v>0.5</v>
       </c>
+      <c r="S53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3494,6 +3655,9 @@
       <c r="R54" t="n">
         <v>0.5</v>
       </c>
+      <c r="S54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3550,6 +3714,9 @@
       <c r="R55" t="n">
         <v>0.5</v>
       </c>
+      <c r="S55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3606,6 +3773,9 @@
       <c r="R56" t="n">
         <v>0.5</v>
       </c>
+      <c r="S56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3662,6 +3832,9 @@
       <c r="R57" t="n">
         <v>0.5</v>
       </c>
+      <c r="S57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3716,6 +3889,9 @@
         <v>-1</v>
       </c>
       <c r="R58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3772,6 +3948,9 @@
         <v>-1</v>
       </c>
       <c r="R59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3828,6 +4007,9 @@
         <v>-1</v>
       </c>
       <c r="R60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3884,6 +4066,9 @@
         <v>-1</v>
       </c>
       <c r="R61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S61" t="n">
         <v>3.25</v>
       </c>
     </row>
@@ -3940,7 +4125,10 @@
         <v>-1</v>
       </c>
       <c r="R62" t="n">
-        <v>1.38</v>
+        <v>0.5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="63">
@@ -3996,7 +4184,10 @@
         <v>-1</v>
       </c>
       <c r="R63" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.227272727272727</v>
       </c>
     </row>
     <row r="64">
@@ -4054,6 +4245,9 @@
       <c r="R64" t="n">
         <v>0.5</v>
       </c>
+      <c r="S64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4108,7 +4302,10 @@
         <v>-1</v>
       </c>
       <c r="R65" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.6818181818181818</v>
       </c>
     </row>
     <row r="66">
@@ -4164,7 +4361,10 @@
         <v>-1</v>
       </c>
       <c r="R66" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.6818181818181818</v>
       </c>
     </row>
     <row r="67">
@@ -4220,7 +4420,10 @@
         <v>-1</v>
       </c>
       <c r="R67" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="68">
@@ -4276,6 +4479,9 @@
         <v>-1</v>
       </c>
       <c r="R68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4332,6 +4538,9 @@
         <v>-1</v>
       </c>
       <c r="R69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S69" t="n">
         <v>4.75</v>
       </c>
     </row>
@@ -4388,6 +4597,9 @@
         <v>-1</v>
       </c>
       <c r="R70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4444,6 +4656,9 @@
         <v>-1</v>
       </c>
       <c r="R71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S71" t="n">
         <v>6.25</v>
       </c>
     </row>
@@ -4500,7 +4715,10 @@
         <v>-1</v>
       </c>
       <c r="R72" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.136363636363636</v>
       </c>
     </row>
     <row r="73">
@@ -4556,7 +4774,10 @@
         <v>-1</v>
       </c>
       <c r="R73" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.681818181818182</v>
       </c>
     </row>
     <row r="74">
@@ -4612,7 +4833,10 @@
         <v>-1</v>
       </c>
       <c r="R74" t="n">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="75">
@@ -4668,7 +4892,10 @@
         <v>-1</v>
       </c>
       <c r="R75" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="76">
@@ -4724,7 +4951,10 @@
         <v>-1</v>
       </c>
       <c r="R76" t="n">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="77">
@@ -4780,7 +5010,10 @@
         <v>-1</v>
       </c>
       <c r="R77" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.681818181818182</v>
       </c>
     </row>
     <row r="78">
@@ -4836,6 +5069,9 @@
         <v>-1</v>
       </c>
       <c r="R78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,6 +5128,9 @@
         <v>-1</v>
       </c>
       <c r="R79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S79" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4948,6 +5187,9 @@
         <v>-1</v>
       </c>
       <c r="R80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5004,6 +5246,9 @@
         <v>-1</v>
       </c>
       <c r="R81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5060,7 +5305,10 @@
         <v>-1</v>
       </c>
       <c r="R82" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.590909090909091</v>
       </c>
     </row>
     <row r="83">
@@ -5116,7 +5364,10 @@
         <v>-1</v>
       </c>
       <c r="R83" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.681818181818182</v>
       </c>
     </row>
     <row r="84">
@@ -5172,7 +5423,10 @@
         <v>-1</v>
       </c>
       <c r="R84" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.318181818181818</v>
       </c>
     </row>
     <row r="85">
@@ -5228,7 +5482,10 @@
         <v>-1</v>
       </c>
       <c r="R85" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1.681818181818182</v>
       </c>
     </row>
     <row r="86">
@@ -5284,7 +5541,10 @@
         <v>-1</v>
       </c>
       <c r="R86" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.136363636363636</v>
       </c>
     </row>
     <row r="87">
@@ -5340,7 +5600,10 @@
         <v>-1</v>
       </c>
       <c r="R87" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.681818181818182</v>
       </c>
     </row>
     <row r="88">
@@ -5396,6 +5659,9 @@
         <v>-1</v>
       </c>
       <c r="R88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,6 +5718,9 @@
         <v>-1</v>
       </c>
       <c r="R89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5508,6 +5777,9 @@
         <v>-1</v>
       </c>
       <c r="R90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5564,6 +5836,9 @@
         <v>-1</v>
       </c>
       <c r="R91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S91" t="n">
         <v>6.45</v>
       </c>
     </row>
@@ -5620,7 +5895,10 @@
         <v>-1</v>
       </c>
       <c r="R92" t="n">
-        <v>1.8</v>
+        <v>7.5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2.318181818181818</v>
       </c>
     </row>
     <row r="93">
@@ -5676,7 +5954,10 @@
         <v>-1</v>
       </c>
       <c r="R93" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.318181818181818</v>
       </c>
     </row>
     <row r="94">
@@ -5732,7 +6013,10 @@
         <v>-1</v>
       </c>
       <c r="R94" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2.318181818181818</v>
       </c>
     </row>
     <row r="95">
@@ -5788,7 +6072,10 @@
         <v>-1</v>
       </c>
       <c r="R95" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.954545454545455</v>
       </c>
     </row>
     <row r="96">
@@ -5844,7 +6131,10 @@
         <v>-1</v>
       </c>
       <c r="R96" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1.409090909090909</v>
       </c>
     </row>
     <row r="97">
@@ -5900,7 +6190,10 @@
         <v>-1</v>
       </c>
       <c r="R97" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1.681818181818182</v>
       </c>
     </row>
     <row r="98">
@@ -5956,6 +6249,9 @@
         <v>-1</v>
       </c>
       <c r="R98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6012,6 +6308,9 @@
         <v>-1</v>
       </c>
       <c r="R99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S99" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -6068,6 +6367,9 @@
         <v>-1</v>
       </c>
       <c r="R100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6124,6 +6426,9 @@
         <v>-1</v>
       </c>
       <c r="R101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S101" t="n">
         <v>6.7</v>
       </c>
     </row>
@@ -6180,7 +6485,10 @@
         <v>-1</v>
       </c>
       <c r="R102" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3.176923076923077</v>
       </c>
     </row>
     <row r="103">
@@ -6236,7 +6544,10 @@
         <v>-1</v>
       </c>
       <c r="R103" t="n">
-        <v>2.333333333333333</v>
+        <v>1.5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2.269230769230769</v>
       </c>
     </row>
     <row r="104">
@@ -6292,7 +6603,10 @@
         <v>-1</v>
       </c>
       <c r="R104" t="n">
-        <v>2.833333333333333</v>
+        <v>1.5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2.730769230769231</v>
       </c>
     </row>
     <row r="105">
@@ -6348,7 +6662,10 @@
         <v>-1</v>
       </c>
       <c r="R105" t="n">
-        <v>3.666666666666667</v>
+        <v>1.5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="106">
@@ -6404,7 +6721,10 @@
         <v>-1</v>
       </c>
       <c r="R106" t="n">
-        <v>3.25</v>
+        <v>1.5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3.115384615384615</v>
       </c>
     </row>
     <row r="107">
@@ -6460,7 +6780,10 @@
         <v>-1</v>
       </c>
       <c r="R107" t="n">
-        <v>3.983333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3.715384615384615</v>
       </c>
     </row>
     <row r="108">
@@ -6516,7 +6839,10 @@
         <v>7.5</v>
       </c>
       <c r="R108" t="n">
-        <v>4.524999999999999</v>
+        <v>0.5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4.215384615384616</v>
       </c>
     </row>
     <row r="109">
@@ -6572,7 +6898,10 @@
         <v>6.5</v>
       </c>
       <c r="R109" t="n">
-        <v>4.7875</v>
+        <v>4.5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4.770588235294118</v>
       </c>
     </row>
     <row r="110">
@@ -6628,6 +6957,9 @@
         <v>6.5</v>
       </c>
       <c r="R110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S110" t="n">
         <v>5.357142857142857</v>
       </c>
     </row>
@@ -6684,7 +7016,10 @@
         <v>6.5</v>
       </c>
       <c r="R111" t="n">
-        <v>5.3375</v>
+        <v>7.5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5.464705882352941</v>
       </c>
     </row>
     <row r="112">
@@ -6740,7 +7075,10 @@
         <v>-1</v>
       </c>
       <c r="R112" t="n">
-        <v>5.600000000000001</v>
+        <v>4.5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5.515384615384615</v>
       </c>
     </row>
     <row r="113">
@@ -6796,7 +7134,10 @@
         <v>-1</v>
       </c>
       <c r="R113" t="n">
-        <v>6.158333333333334</v>
+        <v>1.5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -6852,7 +7193,10 @@
         <v>-1</v>
       </c>
       <c r="R114" t="n">
-        <v>7</v>
+        <v>1.5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>6.576923076923077</v>
       </c>
     </row>
     <row r="115">
@@ -6908,7 +7252,10 @@
         <v>-1</v>
       </c>
       <c r="R115" t="n">
-        <v>5.566666666666666</v>
+        <v>1.5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5.253846153846154</v>
       </c>
     </row>
     <row r="116">
@@ -6964,7 +7311,10 @@
         <v>-1</v>
       </c>
       <c r="R116" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5.192307692307693</v>
       </c>
     </row>
     <row r="117">
@@ -7020,7 +7370,10 @@
         <v>-1</v>
       </c>
       <c r="R117" t="n">
-        <v>6.263636363636363</v>
+        <v>1.5</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5.866666666666666</v>
       </c>
     </row>
     <row r="118">
@@ -7076,7 +7429,10 @@
         <v>7.5</v>
       </c>
       <c r="R118" t="n">
-        <v>6.258333333333333</v>
+        <v>5.5</v>
+      </c>
+      <c r="S118" t="n">
+        <v>6.199999999999999</v>
       </c>
     </row>
     <row r="119">
@@ -7132,7 +7488,10 @@
         <v>6.5</v>
       </c>
       <c r="R119" t="n">
-        <v>6.113333333333333</v>
+        <v>4.5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>6.0125</v>
       </c>
     </row>
     <row r="120">
@@ -7188,6 +7547,9 @@
         <v>6.5</v>
       </c>
       <c r="R120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S120" t="n">
         <v>5.357142857142857</v>
       </c>
     </row>
@@ -7244,7 +7606,10 @@
         <v>6.5</v>
       </c>
       <c r="R121" t="n">
-        <v>7.566666666666666</v>
+        <v>7.5</v>
+      </c>
+      <c r="S121" t="n">
+        <v>7.562500000000001</v>
       </c>
     </row>
     <row r="122">
@@ -7300,7 +7665,10 @@
         <v>-1</v>
       </c>
       <c r="R122" t="n">
-        <v>8.066666666666666</v>
+        <v>4.5</v>
+      </c>
+      <c r="S122" t="n">
+        <v>7.792307692307692</v>
       </c>
     </row>
     <row r="123">
@@ -7356,7 +7724,10 @@
         <v>-1</v>
       </c>
       <c r="R123" t="n">
-        <v>7.508333333333333</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S123" t="n">
+        <v>7.569230769230769</v>
       </c>
     </row>
     <row r="124">
@@ -7412,7 +7783,10 @@
         <v>-1</v>
       </c>
       <c r="R124" t="n">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S124" t="n">
+        <v>7.566666666666666</v>
       </c>
     </row>
     <row r="125">
@@ -7468,7 +7842,10 @@
         <v>-1</v>
       </c>
       <c r="R125" t="n">
-        <v>7.383333333333333</v>
+        <v>6.5</v>
+      </c>
+      <c r="S125" t="n">
+        <v>7.315384615384615</v>
       </c>
     </row>
     <row r="126">
@@ -7524,7 +7901,10 @@
         <v>-1</v>
       </c>
       <c r="R126" t="n">
-        <v>7.216666666666666</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S126" t="n">
+        <v>7.299999999999999</v>
       </c>
     </row>
     <row r="127">
@@ -7580,7 +7960,10 @@
         <v>-1</v>
       </c>
       <c r="R127" t="n">
-        <v>7.763636363636363</v>
+        <v>5.5</v>
+      </c>
+      <c r="S127" t="n">
+        <v>7.574999999999999</v>
       </c>
     </row>
     <row r="128">
@@ -7636,7 +8019,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="R128" t="n">
-        <v>7.118181818181818</v>
+        <v>5.5</v>
+      </c>
+      <c r="S128" t="n">
+        <v>6.983333333333333</v>
       </c>
     </row>
     <row r="129">
@@ -7692,7 +8078,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="R129" t="n">
-        <v>7.31875</v>
+        <v>6.5</v>
+      </c>
+      <c r="S129" t="n">
+        <v>7.270588235294118</v>
       </c>
     </row>
     <row r="130">
@@ -7748,6 +8137,9 @@
         <v>7.5</v>
       </c>
       <c r="R130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S130" t="n">
         <v>7.971428571428571</v>
       </c>
     </row>
@@ -7804,7 +8196,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="R131" t="n">
-        <v>7.653333333333333</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S131" t="n">
+        <v>7.693750000000001</v>
       </c>
     </row>
     <row r="132">
@@ -7860,7 +8255,10 @@
         <v>-1</v>
       </c>
       <c r="R132" t="n">
-        <v>6.783333333333332</v>
+        <v>3.5</v>
+      </c>
+      <c r="S132" t="n">
+        <v>6.53076923076923</v>
       </c>
     </row>
     <row r="133">
@@ -7916,7 +8314,10 @@
         <v>-1</v>
       </c>
       <c r="R133" t="n">
-        <v>4.683333333333334</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S133" t="n">
+        <v>4.961538461538462</v>
       </c>
     </row>
     <row r="134">
@@ -7972,7 +8373,10 @@
         <v>-1</v>
       </c>
       <c r="R134" t="n">
-        <v>3.25</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S134" t="n">
+        <v>3.638461538461538</v>
       </c>
     </row>
     <row r="135">
@@ -8028,7 +8432,10 @@
         <v>-1</v>
       </c>
       <c r="R135" t="n">
-        <v>6.483333333333333</v>
+        <v>6.5</v>
+      </c>
+      <c r="S135" t="n">
+        <v>6.484615384615385</v>
       </c>
     </row>
     <row r="136">
@@ -8084,7 +8491,10 @@
         <v>-1</v>
       </c>
       <c r="R136" t="n">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S136" t="n">
+        <v>5.992307692307691</v>
       </c>
     </row>
     <row r="137">
@@ -8140,7 +8550,10 @@
         <v>-1</v>
       </c>
       <c r="R137" t="n">
-        <v>6.358333333333333</v>
+        <v>5.5</v>
+      </c>
+      <c r="S137" t="n">
+        <v>6.292307692307692</v>
       </c>
     </row>
     <row r="138">
@@ -8196,7 +8609,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="R138" t="n">
-        <v>6.590909090909091</v>
+        <v>1.5</v>
+      </c>
+      <c r="S138" t="n">
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="139">
@@ -8252,7 +8668,10 @@
         <v>7.5</v>
       </c>
       <c r="R139" t="n">
-        <v>6.399999999999999</v>
+        <v>1.5</v>
+      </c>
+      <c r="S139" t="n">
+        <v>6.09375</v>
       </c>
     </row>
     <row r="140">
@@ -8308,6 +8727,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="R140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S140" t="n">
         <v>8.085714285714285</v>
       </c>
     </row>
@@ -8364,7 +8786,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="R141" t="n">
-        <v>5.706250000000001</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S141" t="n">
+        <v>5.858823529411765</v>
       </c>
     </row>
   </sheetData>
@@ -8378,7 +8803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8472,6 +8897,11 @@
           <t>2023-08-03</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -8545,6 +8975,11 @@
       <c r="Q2" t="n">
         <v>0.2642018795013428</v>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -8622,6 +9057,11 @@
       <c r="Q3" t="n">
         <v>0.2646105289459229</v>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -8699,6 +9139,11 @@
       <c r="Q4" t="n">
         <v>0.2649908065795898</v>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -8776,6 +9221,11 @@
       <c r="Q5" t="n">
         <v>0.2653696537017822</v>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -8853,6 +9303,11 @@
       <c r="Q6" t="n">
         <v>0.2657415866851807</v>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -8930,6 +9385,11 @@
       <c r="Q7" t="n">
         <v>0.2661240100860596</v>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -8983,6 +9443,9 @@
       <c r="Q8" t="n">
         <v>0.2664990425109863</v>
       </c>
+      <c r="R8" t="n">
+        <v>0.2946867942810059</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -9036,6 +9499,9 @@
       <c r="Q9" t="n">
         <v>0.2668774127960205</v>
       </c>
+      <c r="R9" t="n">
+        <v>0.2949433326721191</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -9089,6 +9555,9 @@
       <c r="Q10" t="n">
         <v>0.2672610282897949</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.295170783996582</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -9142,6 +9611,9 @@
       <c r="Q11" t="n">
         <v>0.26759934425354</v>
       </c>
+      <c r="R11" t="n">
+        <v>0.2953896522521973</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -9213,6 +9685,11 @@
       <c r="Q12" t="n">
         <v>0.2678332328796387</v>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -9290,6 +9767,11 @@
       <c r="Q13" t="n">
         <v>0.2680642604827881</v>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -9367,6 +9849,11 @@
       <c r="Q14" t="n">
         <v>0.2683277130126953</v>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -9440,6 +9927,11 @@
       <c r="Q15" t="n">
         <v>0.268552303314209</v>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -9517,6 +10009,11 @@
       <c r="Q16" t="n">
         <v>0.2687671184539795</v>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -9594,6 +10091,11 @@
       <c r="Q17" t="n">
         <v>0.2689907550811768</v>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -9647,6 +10149,9 @@
       <c r="Q18" t="n">
         <v>0.2692034244537354</v>
       </c>
+      <c r="R18" t="n">
+        <v>0.2957477569580078</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -9700,6 +10205,9 @@
       <c r="Q19" t="n">
         <v>0.2694571018218994</v>
       </c>
+      <c r="R19" t="n">
+        <v>0.2959611415863037</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -9753,6 +10261,9 @@
       <c r="Q20" t="n">
         <v>0.2696669101715088</v>
       </c>
+      <c r="R20" t="n">
+        <v>0.2962095737457275</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -9806,6 +10317,9 @@
       <c r="Q21" t="n">
         <v>0.2698757648468018</v>
       </c>
+      <c r="R21" t="n">
+        <v>0.2964210510253906</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -9881,6 +10395,11 @@
       <c r="Q22" t="n">
         <v>0.2700958251953125</v>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -9956,6 +10475,11 @@
       <c r="Q23" t="n">
         <v>0.2703220844268799</v>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -10029,6 +10553,11 @@
       <c r="Q24" t="n">
         <v>0.270540714263916</v>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -10100,6 +10629,11 @@
       <c r="Q25" t="n">
         <v>0.270747184753418</v>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -10173,6 +10707,11 @@
       <c r="Q26" t="n">
         <v>0.2709622383117676</v>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -10246,6 +10785,11 @@
       <c r="Q27" t="n">
         <v>0.2711715698242188</v>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -10299,6 +10843,9 @@
       <c r="Q28" t="n">
         <v>0.2714004516601562</v>
       </c>
+      <c r="R28" t="n">
+        <v>0.2967638969421387</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -10352,6 +10899,9 @@
       <c r="Q29" t="n">
         <v>0.2716078758239746</v>
       </c>
+      <c r="R29" t="n">
+        <v>0.2969684600830078</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -10405,6 +10955,9 @@
       <c r="Q30" t="n">
         <v>0.2718114852905273</v>
       </c>
+      <c r="R30" t="n">
+        <v>0.2971706390380859</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -10458,6 +11011,9 @@
       <c r="Q31" t="n">
         <v>0.2720263004302979</v>
       </c>
+      <c r="R31" t="n">
+        <v>0.2973921298980713</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -10535,6 +11091,11 @@
       <c r="Q32" t="n">
         <v>0.2722625732421875</v>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -10612,6 +11173,11 @@
       <c r="Q33" t="n">
         <v>0.2724933624267578</v>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -10687,6 +11253,11 @@
       <c r="Q34" t="n">
         <v>0.2726991176605225</v>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -10760,6 +11331,11 @@
       <c r="Q35" t="n">
         <v>0.2729029655456543</v>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -10833,6 +11409,11 @@
       <c r="Q36" t="n">
         <v>0.2731208801269531</v>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -10904,6 +11485,11 @@
       <c r="Q37" t="n">
         <v>0.2733490467071533</v>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -10957,6 +11543,9 @@
       <c r="Q38" t="n">
         <v>0.2735621929168701</v>
       </c>
+      <c r="R38" t="n">
+        <v>0.2977859973907471</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -11010,6 +11599,9 @@
       <c r="Q39" t="n">
         <v>0.273768424987793</v>
       </c>
+      <c r="R39" t="n">
+        <v>0.2980377674102783</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -11063,6 +11655,9 @@
       <c r="Q40" t="n">
         <v>0.2739832401275635</v>
       </c>
+      <c r="R40" t="n">
+        <v>0.2982783317565918</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -11116,6 +11711,9 @@
       <c r="Q41" t="n">
         <v>0.2741894721984863</v>
       </c>
+      <c r="R41" t="n">
+        <v>0.2984848022460938</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -11191,6 +11789,11 @@
       <c r="Q42" t="n">
         <v>0.2744166851043701</v>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -11266,6 +11869,11 @@
       <c r="Q43" t="n">
         <v>0.2746224403381348</v>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -11341,6 +11949,11 @@
       <c r="Q44" t="n">
         <v>0.2748260498046875</v>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -11416,6 +12029,11 @@
       <c r="Q45" t="n">
         <v>0.275040864944458</v>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -11491,6 +12109,11 @@
       <c r="Q46" t="n">
         <v>0.275249719619751</v>
       </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -11566,6 +12189,11 @@
       <c r="Q47" t="n">
         <v>0.2754719257354736</v>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -11619,6 +12247,9 @@
       <c r="Q48" t="n">
         <v>0.275676965713501</v>
       </c>
+      <c r="R48" t="n">
+        <v>0.2988297939300537</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -11680,6 +12311,9 @@
       <c r="Q49" t="n">
         <v>0.2758808135986328</v>
       </c>
+      <c r="R49" t="n">
+        <v>0.2990326881408691</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -11733,6 +12367,9 @@
       <c r="Q50" t="n">
         <v>0.2760975360870361</v>
       </c>
+      <c r="R50" t="n">
+        <v>0.2992334365844727</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -11792,6 +12429,9 @@
       <c r="Q51" t="n">
         <v>0.2763524055480957</v>
       </c>
+      <c r="R51" t="n">
+        <v>0.2994365692138672</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -11861,6 +12501,11 @@
       <c r="Q52" t="n">
         <v>0.2765660285949707</v>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -11934,6 +12579,11 @@
       <c r="Q53" t="n">
         <v>0.2767734527587891</v>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -12007,6 +12657,11 @@
       <c r="Q54" t="n">
         <v>0.276989221572876</v>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -12080,6 +12735,11 @@
       <c r="Q55" t="n">
         <v>0.2772705554962158</v>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -12153,6 +12813,11 @@
       <c r="Q56" t="n">
         <v>0.2776029109954834</v>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -12226,6 +12891,11 @@
       <c r="Q57" t="n">
         <v>0.2778654098510742</v>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -12279,6 +12949,9 @@
       <c r="Q58" t="n">
         <v>0.2781875133514404</v>
       </c>
+      <c r="R58" t="n">
+        <v>0.2998189926147461</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -12336,6 +13009,9 @@
       <c r="Q59" t="n">
         <v>0.2784793376922607</v>
       </c>
+      <c r="R59" t="n">
+        <v>0.3000307083129883</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -12389,6 +13065,9 @@
       <c r="Q60" t="n">
         <v>0.2787024974822998</v>
       </c>
+      <c r="R60" t="n">
+        <v>0.3002603054046631</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -12444,6 +13123,9 @@
       <c r="Q61" t="n">
         <v>0.2790086269378662</v>
       </c>
+      <c r="R61" t="n">
+        <v>0.3005084991455078</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -12513,6 +13195,11 @@
       <c r="Q62" t="n">
         <v>0.2793052196502686</v>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -12582,6 +13269,11 @@
       <c r="Q63" t="n">
         <v>0.2795262336730957</v>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -12655,6 +13347,11 @@
       <c r="Q64" t="n">
         <v>0.2797422409057617</v>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -12726,6 +13423,9 @@
       <c r="Q65" t="n">
         <v>0.2799639701843262</v>
       </c>
+      <c r="R65" t="n">
+        <v>3618.815064430237</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -12797,6 +13497,11 @@
       <c r="Q66" t="n">
         <v>0.2802367210388184</v>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -12868,6 +13573,11 @@
       <c r="Q67" t="n">
         <v>0.2805044651031494</v>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -12921,6 +13631,9 @@
       <c r="Q68" t="n">
         <v>0.2808258533477783</v>
       </c>
+      <c r="R68" t="n">
+        <v>0.3008646965026855</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -12974,6 +13687,9 @@
       <c r="Q69" t="n">
         <v>0.2810783386230469</v>
       </c>
+      <c r="R69" t="n">
+        <v>0.3010694980621338</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -13027,6 +13743,9 @@
       <c r="Q70" t="n">
         <v>0.281315803527832</v>
       </c>
+      <c r="R70" t="n">
+        <v>0.3012707233428955</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -13080,6 +13799,9 @@
       <c r="Q71" t="n">
         <v>0.281531810760498</v>
       </c>
+      <c r="R71" t="n">
+        <v>0.3014702796936035</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -13149,6 +13871,9 @@
       <c r="Q72" t="n">
         <v>0.2817432880401611</v>
       </c>
+      <c r="R72" t="n">
+        <v>6622.857825040817</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -13218,6 +13943,9 @@
       <c r="Q73" t="n">
         <v>0.281984806060791</v>
       </c>
+      <c r="R73" t="n">
+        <v>361.0179586410522</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -13289,6 +14017,11 @@
       <c r="Q74" t="n">
         <v>0.2822401523590088</v>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -13358,6 +14091,9 @@
       <c r="Q75" t="n">
         <v>0.2824544906616211</v>
       </c>
+      <c r="R75" t="n">
+        <v>3618.815569162369</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -13425,6 +14161,11 @@
       <c r="Q76" t="n">
         <v>0.2826635837554932</v>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -13492,6 +14233,11 @@
       <c r="Q77" t="n">
         <v>0.2828710079193115</v>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -13545,6 +14291,9 @@
       <c r="Q78" t="n">
         <v>0.2831213474273682</v>
       </c>
+      <c r="R78" t="n">
+        <v>0.3018677234649658</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -13598,6 +14347,9 @@
       <c r="Q79" t="n">
         <v>0.2833423614501953</v>
       </c>
+      <c r="R79" t="n">
+        <v>0.3020837306976318</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -13651,6 +14403,9 @@
       <c r="Q80" t="n">
         <v>0.2835500240325928</v>
       </c>
+      <c r="R80" t="n">
+        <v>0.3022892475128174</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -13704,6 +14459,9 @@
       <c r="Q81" t="n">
         <v>0.2837545871734619</v>
       </c>
+      <c r="R81" t="n">
+        <v>0.3024966716766357</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -13765,6 +14523,9 @@
       <c r="Q82" t="n">
         <v>0.2839672565460205</v>
       </c>
+      <c r="R82" t="n">
+        <v>59.41358256340027</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -13828,6 +14589,9 @@
       <c r="Q83" t="n">
         <v>0.2842347621917725</v>
       </c>
+      <c r="R83" t="n">
+        <v>361.0184092521667</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -13895,6 +14659,11 @@
       <c r="Q84" t="n">
         <v>0.284449577331543</v>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -13960,6 +14729,11 @@
       <c r="Q85" t="n">
         <v>0.2846570014953613</v>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -14029,6 +14803,11 @@
       <c r="Q86" t="n">
         <v>0.284862756729126</v>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -14096,6 +14875,11 @@
       <c r="Q87" t="n">
         <v>0.2850775718688965</v>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -14149,6 +14933,9 @@
       <c r="Q88" t="n">
         <v>0.2853164672851562</v>
       </c>
+      <c r="R88" t="n">
+        <v>0.3029336929321289</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -14202,6 +14989,9 @@
       <c r="Q89" t="n">
         <v>0.285529613494873</v>
       </c>
+      <c r="R89" t="n">
+        <v>0.303154468536377</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -14255,6 +15045,9 @@
       <c r="Q90" t="n">
         <v>0.2857353687286377</v>
       </c>
+      <c r="R90" t="n">
+        <v>0.3033607006072998</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -14308,6 +15101,9 @@
       <c r="Q91" t="n">
         <v>0.2859475612640381</v>
       </c>
+      <c r="R91" t="n">
+        <v>0.303617000579834</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -14371,6 +15167,9 @@
       <c r="Q92" t="n">
         <v>0.2861557006835938</v>
       </c>
+      <c r="R92" t="n">
+        <v>59.41411471366882</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -14436,6 +15235,11 @@
       <c r="Q93" t="n">
         <v>0.2863619327545166</v>
       </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -14497,6 +15301,11 @@
       <c r="Q94" t="n">
         <v>0.2865669727325439</v>
       </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -14554,6 +15363,11 @@
       <c r="Q95" t="n">
         <v>0.2867710590362549</v>
       </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -14621,6 +15435,11 @@
       <c r="Q96" t="n">
         <v>0.2870042324066162</v>
       </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -14686,6 +15505,11 @@
       <c r="Q97" t="n">
         <v>0.28725266456604</v>
       </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -14739,6 +15563,9 @@
       <c r="Q98" t="n">
         <v>0.2874629497528076</v>
       </c>
+      <c r="R98" t="n">
+        <v>0.3039741516113281</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -14792,6 +15619,9 @@
       <c r="Q99" t="n">
         <v>0.2876694202423096</v>
       </c>
+      <c r="R99" t="n">
+        <v>0.3042783737182617</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -14845,6 +15675,9 @@
       <c r="Q100" t="n">
         <v>0.287874698638916</v>
       </c>
+      <c r="R100" t="n">
+        <v>0.3045015335083008</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -14898,6 +15731,9 @@
       <c r="Q101" t="n">
         <v>0.2880961894989014</v>
       </c>
+      <c r="R101" t="n">
+        <v>0.3047170639038086</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -14961,6 +15797,11 @@
       <c r="Q102" t="n">
         <v>0.2883880138397217</v>
       </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -15026,6 +15867,9 @@
       <c r="Q103" t="n">
         <v>0.2886035442352295</v>
       </c>
+      <c r="R103" t="n">
+        <v>6622.858665943146</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -15089,6 +15933,9 @@
       <c r="Q104" t="n">
         <v>0.2888140678405762</v>
       </c>
+      <c r="R104" t="n">
+        <v>9927.227101325989</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -15146,6 +15993,9 @@
       <c r="Q105" t="n">
         <v>0.2890353202819824</v>
       </c>
+      <c r="R105" t="n">
+        <v>9326.431798458099</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -15209,6 +16059,9 @@
       <c r="Q106" t="n">
         <v>0.289311408996582</v>
       </c>
+      <c r="R106" t="n">
+        <v>9626.870551586151</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -15268,6 +16121,11 @@
       <c r="Q107" t="n">
         <v>0.2895371913909912</v>
       </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -15325,6 +16183,11 @@
       <c r="Q108" t="n">
         <v>42.29725432395935</v>
       </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -15378,6 +16241,9 @@
       <c r="Q109" t="n">
         <v>71.22087407112122</v>
       </c>
+      <c r="R109" t="n">
+        <v>573.2067339420319</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -15433,6 +16299,9 @@
       <c r="Q110" t="n">
         <v>118.7147679328918</v>
       </c>
+      <c r="R110" t="n">
+        <v>0.3051238059997559</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -15492,6 +16361,9 @@
       <c r="Q111" t="n">
         <v>92.17727446556091</v>
       </c>
+      <c r="R111" t="n">
+        <v>52.37163949012756</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -15549,6 +16421,9 @@
       <c r="Q112" t="n">
         <v>0.2898893356323242</v>
       </c>
+      <c r="R112" t="n">
+        <v>542.8648698329926</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -15602,6 +16477,9 @@
       <c r="Q113" t="n">
         <v>0.2901198863983154</v>
       </c>
+      <c r="R113" t="n">
+        <v>6622.85910987854</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -15655,6 +16533,9 @@
       <c r="Q114" t="n">
         <v>0.2903342247009277</v>
       </c>
+      <c r="R114" t="n">
+        <v>6322.430923223495</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -15708,6 +16589,9 @@
       <c r="Q115" t="n">
         <v>0.2905805110931396</v>
       </c>
+      <c r="R115" t="n">
+        <v>6622.859457731247</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -15763,6 +16647,9 @@
       <c r="Q116" t="n">
         <v>0.2908132076263428</v>
       </c>
+      <c r="R116" t="n">
+        <v>9626.871334075928</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -15816,6 +16703,9 @@
       <c r="Q117" t="n">
         <v>0.2910857200622559</v>
       </c>
+      <c r="R117" t="n">
+        <v>4820.467465877533</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -15869,6 +16759,9 @@
       <c r="Q118" t="n">
         <v>42.29779458045959</v>
       </c>
+      <c r="R118" t="n">
+        <v>249.9177541732788</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -15922,6 +16815,9 @@
       <c r="Q119" t="n">
         <v>71.2212975025177</v>
       </c>
+      <c r="R119" t="n">
+        <v>573.2072389125824</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -15977,6 +16873,9 @@
       <c r="Q120" t="n">
         <v>118.7152247428894</v>
       </c>
+      <c r="R120" t="n">
+        <v>0.3055601119995117</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -16030,6 +16929,9 @@
       <c r="Q121" t="n">
         <v>92.17780828475952</v>
       </c>
+      <c r="R121" t="n">
+        <v>52.37230944633484</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -16083,6 +16985,9 @@
       <c r="Q122" t="n">
         <v>0.2913877964019775</v>
       </c>
+      <c r="R122" t="n">
+        <v>542.8653843402863</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -16136,6 +17041,9 @@
       <c r="Q123" t="n">
         <v>0.2916021347045898</v>
       </c>
+      <c r="R123" t="n">
+        <v>16.49281525611877</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -16189,6 +17097,9 @@
       <c r="Q124" t="n">
         <v>0.2918102741241455</v>
       </c>
+      <c r="R124" t="n">
+        <v>24.55307412147522</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -16242,6 +17153,9 @@
       <c r="Q125" t="n">
         <v>0.2920315265655518</v>
       </c>
+      <c r="R125" t="n">
+        <v>111.4319410324097</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -16295,6 +17209,9 @@
       <c r="Q126" t="n">
         <v>0.2922945022583008</v>
       </c>
+      <c r="R126" t="n">
+        <v>18.81633281707764</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -16348,6 +17265,9 @@
       <c r="Q127" t="n">
         <v>0.2925090789794922</v>
       </c>
+      <c r="R127" t="n">
+        <v>127.3100459575653</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -16401,6 +17321,9 @@
       <c r="Q128" t="n">
         <v>23.70706582069397</v>
       </c>
+      <c r="R128" t="n">
+        <v>249.9181613922119</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -16454,6 +17377,9 @@
       <c r="Q129" t="n">
         <v>23.70742392539978</v>
       </c>
+      <c r="R129" t="n">
+        <v>110.286776304245</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -16507,6 +17433,9 @@
       <c r="Q130" t="n">
         <v>37.67345905303955</v>
       </c>
+      <c r="R130" t="n">
+        <v>0.3059885501861572</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -16560,6 +17489,9 @@
       <c r="Q131" t="n">
         <v>23.70780372619629</v>
       </c>
+      <c r="R131" t="n">
+        <v>16.49329090118408</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -16613,6 +17545,9 @@
       <c r="Q132" t="n">
         <v>0.2928054332733154</v>
       </c>
+      <c r="R132" t="n">
+        <v>1786.06192946434</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -16668,6 +17603,9 @@
       <c r="Q133" t="n">
         <v>0.2930972576141357</v>
       </c>
+      <c r="R133" t="n">
+        <v>16.49366760253906</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -16725,6 +17663,9 @@
       <c r="Q134" t="n">
         <v>0.293330192565918</v>
       </c>
+      <c r="R134" t="n">
+        <v>24.55350637435913</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -16778,6 +17719,9 @@
       <c r="Q135" t="n">
         <v>0.2935445308685303</v>
       </c>
+      <c r="R135" t="n">
+        <v>111.4323937892914</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -16833,6 +17777,9 @@
       <c r="Q136" t="n">
         <v>0.2937891483306885</v>
       </c>
+      <c r="R136" t="n">
+        <v>18.81708669662476</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -16886,6 +17833,9 @@
       <c r="Q137" t="n">
         <v>0.2940657138824463</v>
       </c>
+      <c r="R137" t="n">
+        <v>127.3105595111847</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -16939,6 +17889,9 @@
       <c r="Q138" t="n">
         <v>23.7081458568573</v>
       </c>
+      <c r="R138" t="n">
+        <v>10227.57175683975</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -16994,6 +17947,9 @@
       <c r="Q139" t="n">
         <v>37.67384815216064</v>
       </c>
+      <c r="R139" t="n">
+        <v>9626.87224650383</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -17047,6 +18003,9 @@
       <c r="Q140" t="n">
         <v>23.70847225189209</v>
       </c>
+      <c r="R140" t="n">
+        <v>0.3063802719116211</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -17101,6 +18060,9 @@
       </c>
       <c r="Q141" t="n">
         <v>22.56691265106201</v>
+      </c>
+      <c r="R141" t="n">
+        <v>16.49417400360107</v>
       </c>
     </row>
   </sheetData>
@@ -17114,7 +18076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI141"/>
+  <dimension ref="A1:AK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17298,6 +18260,16 @@
           <t>2023-08-03</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -17421,6 +18393,12 @@
       <c r="AI2" t="n">
         <v>0.2642018795013428</v>
       </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -17540,6 +18518,12 @@
       <c r="AI3" t="n">
         <v>0.2646105289459229</v>
       </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -17659,6 +18643,12 @@
       <c r="AI4" t="n">
         <v>0.2649908065795898</v>
       </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -17778,6 +18768,12 @@
       <c r="AI5" t="n">
         <v>0.2653696537017822</v>
       </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -17897,6 +18893,12 @@
       <c r="AI6" t="n">
         <v>0.2657415866851807</v>
       </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -18016,6 +19018,12 @@
       <c r="AI7" t="n">
         <v>0.2661240100860596</v>
       </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -18159,6 +19167,14 @@
       <c r="AI8" t="n">
         <v>0.2664990425109863</v>
       </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.2946867942810059</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -18302,6 +19318,14 @@
       <c r="AI9" t="n">
         <v>0.2668774127960205</v>
       </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.2949433326721191</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -18445,6 +19469,14 @@
       <c r="AI10" t="n">
         <v>0.2672610282897949</v>
       </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.295170783996582</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -18588,6 +19620,14 @@
       <c r="AI11" t="n">
         <v>0.26759934425354</v>
       </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.2953896522521973</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -18713,6 +19753,12 @@
       <c r="AI12" t="n">
         <v>0.2678332328796387</v>
       </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -18832,6 +19878,12 @@
       <c r="AI13" t="n">
         <v>0.2680642604827881</v>
       </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -18951,6 +20003,12 @@
       <c r="AI14" t="n">
         <v>0.2683277130126953</v>
       </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -19074,6 +20132,12 @@
       <c r="AI15" t="n">
         <v>0.268552303314209</v>
       </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -19193,6 +20257,12 @@
       <c r="AI16" t="n">
         <v>0.2687671184539795</v>
       </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -19312,6 +20382,12 @@
       <c r="AI17" t="n">
         <v>0.2689907550811768</v>
       </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -19455,6 +20531,14 @@
       <c r="AI18" t="n">
         <v>0.2692034244537354</v>
       </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.2957477569580078</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -19598,6 +20682,14 @@
       <c r="AI19" t="n">
         <v>0.2694571018218994</v>
       </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2959611415863037</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -19741,6 +20833,14 @@
       <c r="AI20" t="n">
         <v>0.2696669101715088</v>
       </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.2962095737457275</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -19884,6 +20984,14 @@
       <c r="AI21" t="n">
         <v>0.2698757648468018</v>
       </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.2964210510253906</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -20005,6 +21113,12 @@
       <c r="AI22" t="n">
         <v>0.2700958251953125</v>
       </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -20126,6 +21240,12 @@
       <c r="AI23" t="n">
         <v>0.2703220844268799</v>
       </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -20249,6 +21369,12 @@
       <c r="AI24" t="n">
         <v>0.270540714263916</v>
       </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -20374,6 +21500,12 @@
       <c r="AI25" t="n">
         <v>0.270747184753418</v>
       </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -20497,6 +21629,12 @@
       <c r="AI26" t="n">
         <v>0.2709622383117676</v>
       </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -20620,6 +21758,12 @@
       <c r="AI27" t="n">
         <v>0.2711715698242188</v>
       </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -20763,6 +21907,14 @@
       <c r="AI28" t="n">
         <v>0.2714004516601562</v>
       </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.2967638969421387</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -20906,6 +22058,14 @@
       <c r="AI29" t="n">
         <v>0.2716078758239746</v>
       </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.2969684600830078</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -21049,6 +22209,14 @@
       <c r="AI30" t="n">
         <v>0.2718114852905273</v>
       </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.2971706390380859</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -21192,6 +22360,14 @@
       <c r="AI31" t="n">
         <v>0.2720263004302979</v>
       </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.2973921298980713</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -21311,6 +22487,12 @@
       <c r="AI32" t="n">
         <v>0.2722625732421875</v>
       </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -21430,6 +22612,12 @@
       <c r="AI33" t="n">
         <v>0.2724933624267578</v>
       </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -21551,6 +22739,12 @@
       <c r="AI34" t="n">
         <v>0.2726991176605225</v>
       </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -21674,6 +22868,12 @@
       <c r="AI35" t="n">
         <v>0.2729029655456543</v>
       </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -21797,6 +22997,12 @@
       <c r="AI36" t="n">
         <v>0.2731208801269531</v>
       </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -21922,6 +23128,12 @@
       <c r="AI37" t="n">
         <v>0.2733490467071533</v>
       </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -22065,6 +23277,14 @@
       <c r="AI38" t="n">
         <v>0.2735621929168701</v>
       </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.2977859973907471</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -22208,6 +23428,14 @@
       <c r="AI39" t="n">
         <v>0.273768424987793</v>
       </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.2980377674102783</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -22351,6 +23579,14 @@
       <c r="AI40" t="n">
         <v>0.2739832401275635</v>
       </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.2982783317565918</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -22494,6 +23730,14 @@
       <c r="AI41" t="n">
         <v>0.2741894721984863</v>
       </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.2984848022460938</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -22615,6 +23859,12 @@
       <c r="AI42" t="n">
         <v>0.2744166851043701</v>
       </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -22736,6 +23986,12 @@
       <c r="AI43" t="n">
         <v>0.2746224403381348</v>
       </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -22857,6 +24113,12 @@
       <c r="AI44" t="n">
         <v>0.2748260498046875</v>
       </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -22978,6 +24240,12 @@
       <c r="AI45" t="n">
         <v>0.275040864944458</v>
       </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -23099,6 +24367,12 @@
       <c r="AI46" t="n">
         <v>0.275249719619751</v>
       </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -23220,6 +24494,12 @@
       <c r="AI47" t="n">
         <v>0.2754719257354736</v>
       </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -23363,6 +24643,14 @@
       <c r="AI48" t="n">
         <v>0.275676965713501</v>
       </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.2988297939300537</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -23498,6 +24786,14 @@
       <c r="AI49" t="n">
         <v>0.2758808135986328</v>
       </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.2990326881408691</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -23641,6 +24937,14 @@
       <c r="AI50" t="n">
         <v>0.2760975360870361</v>
       </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.2992334365844727</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -23778,6 +25082,14 @@
       <c r="AI51" t="n">
         <v>0.2763524055480957</v>
       </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.2994365692138672</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -23905,6 +25217,12 @@
       <c r="AI52" t="n">
         <v>0.2765660285949707</v>
       </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -24028,6 +25346,12 @@
       <c r="AI53" t="n">
         <v>0.2767734527587891</v>
       </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -24151,6 +25475,12 @@
       <c r="AI54" t="n">
         <v>0.276989221572876</v>
       </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -24274,6 +25604,12 @@
       <c r="AI55" t="n">
         <v>0.2772705554962158</v>
       </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -24397,6 +25733,12 @@
       <c r="AI56" t="n">
         <v>0.2776029109954834</v>
       </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -24520,6 +25862,12 @@
       <c r="AI57" t="n">
         <v>0.2778654098510742</v>
       </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -24663,6 +26011,14 @@
       <c r="AI58" t="n">
         <v>0.2781875133514404</v>
       </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.2998189926147461</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -24802,6 +26158,14 @@
       <c r="AI59" t="n">
         <v>0.2784793376922607</v>
       </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.3000307083129883</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -24945,6 +26309,14 @@
       <c r="AI60" t="n">
         <v>0.2787024974822998</v>
       </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.3002603054046631</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -25086,6 +26458,14 @@
       <c r="AI61" t="n">
         <v>0.2790086269378662</v>
       </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3005084991455078</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -25213,6 +26593,12 @@
       <c r="AI62" t="n">
         <v>0.2793052196502686</v>
       </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -25340,6 +26726,12 @@
       <c r="AI63" t="n">
         <v>0.2795262336730957</v>
       </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -25463,6 +26855,12 @@
       <c r="AI64" t="n">
         <v>0.2797422409057617</v>
       </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -25588,6 +26986,14 @@
       <c r="AI65" t="n">
         <v>0.2799639701843262</v>
       </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK65" t="n">
+        <v>3618.815064430237</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -25713,6 +27119,12 @@
       <c r="AI66" t="n">
         <v>0.2802367210388184</v>
       </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -25838,6 +27250,12 @@
       <c r="AI67" t="n">
         <v>0.2805044651031494</v>
       </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -25981,6 +27399,14 @@
       <c r="AI68" t="n">
         <v>0.2808258533477783</v>
       </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.3008646965026855</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -26124,6 +27550,14 @@
       <c r="AI69" t="n">
         <v>0.2810783386230469</v>
       </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.3010694980621338</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -26267,6 +27701,14 @@
       <c r="AI70" t="n">
         <v>0.281315803527832</v>
       </c>
+      <c r="AJ70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK70" t="n">
+        <v>0.3012707233428955</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -26410,6 +27852,14 @@
       <c r="AI71" t="n">
         <v>0.281531810760498</v>
       </c>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.3014702796936035</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -26537,6 +27987,14 @@
       <c r="AI72" t="n">
         <v>0.2817432880401611</v>
       </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK72" t="n">
+        <v>6622.857825040817</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -26664,6 +28122,14 @@
       <c r="AI73" t="n">
         <v>0.281984806060791</v>
       </c>
+      <c r="AJ73" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK73" t="n">
+        <v>361.0179586410522</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -26789,6 +28255,12 @@
       <c r="AI74" t="n">
         <v>0.2822401523590088</v>
       </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -26916,6 +28388,14 @@
       <c r="AI75" t="n">
         <v>0.2824544906616211</v>
       </c>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK75" t="n">
+        <v>3618.815569162369</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -27045,6 +28525,12 @@
       <c r="AI76" t="n">
         <v>0.2826635837554932</v>
       </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -27174,6 +28660,12 @@
       <c r="AI77" t="n">
         <v>0.2828710079193115</v>
       </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -27317,6 +28809,14 @@
       <c r="AI78" t="n">
         <v>0.2831213474273682</v>
       </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK78" t="n">
+        <v>0.3018677234649658</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -27460,6 +28960,14 @@
       <c r="AI79" t="n">
         <v>0.2833423614501953</v>
       </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK79" t="n">
+        <v>0.3020837306976318</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -27603,6 +29111,14 @@
       <c r="AI80" t="n">
         <v>0.2835500240325928</v>
       </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK80" t="n">
+        <v>0.3022892475128174</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -27746,6 +29262,14 @@
       <c r="AI81" t="n">
         <v>0.2837545871734619</v>
       </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK81" t="n">
+        <v>0.3024966716766357</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -27881,6 +29405,14 @@
       <c r="AI82" t="n">
         <v>0.2839672565460205</v>
       </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK82" t="n">
+        <v>59.41358256340027</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -28014,6 +29546,14 @@
       <c r="AI83" t="n">
         <v>0.2842347621917725</v>
       </c>
+      <c r="AJ83" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK83" t="n">
+        <v>361.0184092521667</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -28143,6 +29683,12 @@
       <c r="AI84" t="n">
         <v>0.284449577331543</v>
       </c>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -28274,6 +29820,12 @@
       <c r="AI85" t="n">
         <v>0.2846570014953613</v>
       </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -28401,6 +29953,12 @@
       <c r="AI86" t="n">
         <v>0.284862756729126</v>
       </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -28530,6 +30088,12 @@
       <c r="AI87" t="n">
         <v>0.2850775718688965</v>
       </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -28673,6 +30237,14 @@
       <c r="AI88" t="n">
         <v>0.2853164672851562</v>
       </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK88" t="n">
+        <v>0.3029336929321289</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -28816,6 +30388,14 @@
       <c r="AI89" t="n">
         <v>0.285529613494873</v>
       </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK89" t="n">
+        <v>0.303154468536377</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -28959,6 +30539,14 @@
       <c r="AI90" t="n">
         <v>0.2857353687286377</v>
       </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK90" t="n">
+        <v>0.3033607006072998</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -29102,6 +30690,14 @@
       <c r="AI91" t="n">
         <v>0.2859475612640381</v>
       </c>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK91" t="n">
+        <v>0.303617000579834</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -29235,6 +30831,14 @@
       <c r="AI92" t="n">
         <v>0.2861557006835938</v>
       </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK92" t="n">
+        <v>59.41411471366882</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -29366,6 +30970,12 @@
       <c r="AI93" t="n">
         <v>0.2863619327545166</v>
       </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -29501,6 +31111,12 @@
       <c r="AI94" t="n">
         <v>0.2865669727325439</v>
       </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -29640,6 +31256,12 @@
       <c r="AI95" t="n">
         <v>0.2867710590362549</v>
       </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -29769,6 +31391,12 @@
       <c r="AI96" t="n">
         <v>0.2870042324066162</v>
       </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -29900,6 +31528,12 @@
       <c r="AI97" t="n">
         <v>0.28725266456604</v>
       </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -30043,6 +31677,14 @@
       <c r="AI98" t="n">
         <v>0.2874629497528076</v>
       </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK98" t="n">
+        <v>0.3039741516113281</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -30186,6 +31828,14 @@
       <c r="AI99" t="n">
         <v>0.2876694202423096</v>
       </c>
+      <c r="AJ99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK99" t="n">
+        <v>0.3042783737182617</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -30329,6 +31979,14 @@
       <c r="AI100" t="n">
         <v>0.287874698638916</v>
       </c>
+      <c r="AJ100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK100" t="n">
+        <v>0.3045015335083008</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -30472,6 +32130,14 @@
       <c r="AI101" t="n">
         <v>0.2880961894989014</v>
       </c>
+      <c r="AJ101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK101" t="n">
+        <v>0.3047170639038086</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -30605,6 +32271,12 @@
       <c r="AI102" t="n">
         <v>0.2883880138397217</v>
       </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -30736,6 +32408,14 @@
       <c r="AI103" t="n">
         <v>0.2886035442352295</v>
       </c>
+      <c r="AJ103" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK103" t="n">
+        <v>6622.858665943146</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -30869,6 +32549,14 @@
       <c r="AI104" t="n">
         <v>0.2888140678405762</v>
       </c>
+      <c r="AJ104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK104" t="n">
+        <v>9927.227101325989</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -31008,6 +32696,14 @@
       <c r="AI105" t="n">
         <v>0.2890353202819824</v>
       </c>
+      <c r="AJ105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK105" t="n">
+        <v>9326.431798458099</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -31141,6 +32837,14 @@
       <c r="AI106" t="n">
         <v>0.289311408996582</v>
       </c>
+      <c r="AJ106" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK106" t="n">
+        <v>9626.870551586151</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -31278,6 +32982,12 @@
       <c r="AI107" t="n">
         <v>0.2895371913909912</v>
       </c>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -31417,6 +33127,12 @@
       <c r="AI108" t="n">
         <v>42.29725432395935</v>
       </c>
+      <c r="AJ108" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AK108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -31560,6 +33276,14 @@
       <c r="AI109" t="n">
         <v>71.22087407112122</v>
       </c>
+      <c r="AJ109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK109" t="n">
+        <v>573.2067339420319</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -31701,6 +33425,14 @@
       <c r="AI110" t="n">
         <v>118.7147679328918</v>
       </c>
+      <c r="AJ110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK110" t="n">
+        <v>0.3051238059997559</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -31838,6 +33570,14 @@
       <c r="AI111" t="n">
         <v>92.17727446556091</v>
       </c>
+      <c r="AJ111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK111" t="n">
+        <v>52.37163949012756</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -31977,6 +33717,14 @@
       <c r="AI112" t="n">
         <v>0.2898893356323242</v>
       </c>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK112" t="n">
+        <v>542.8648698329926</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -32120,6 +33868,14 @@
       <c r="AI113" t="n">
         <v>0.2901198863983154</v>
       </c>
+      <c r="AJ113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK113" t="n">
+        <v>6622.85910987854</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -32263,6 +34019,14 @@
       <c r="AI114" t="n">
         <v>0.2903342247009277</v>
       </c>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK114" t="n">
+        <v>6322.430923223495</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -32406,6 +34170,14 @@
       <c r="AI115" t="n">
         <v>0.2905805110931396</v>
       </c>
+      <c r="AJ115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK115" t="n">
+        <v>6622.859457731247</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -32547,6 +34319,14 @@
       <c r="AI116" t="n">
         <v>0.2908132076263428</v>
       </c>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK116" t="n">
+        <v>9626.871334075928</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -32690,6 +34470,14 @@
       <c r="AI117" t="n">
         <v>0.2910857200622559</v>
       </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK117" t="n">
+        <v>4820.467465877533</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -32833,6 +34621,14 @@
       <c r="AI118" t="n">
         <v>42.29779458045959</v>
       </c>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK118" t="n">
+        <v>249.9177541732788</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -32976,6 +34772,14 @@
       <c r="AI119" t="n">
         <v>71.2212975025177</v>
       </c>
+      <c r="AJ119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK119" t="n">
+        <v>573.2072389125824</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -33117,6 +34921,14 @@
       <c r="AI120" t="n">
         <v>118.7152247428894</v>
       </c>
+      <c r="AJ120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK120" t="n">
+        <v>0.3055601119995117</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -33260,6 +35072,14 @@
       <c r="AI121" t="n">
         <v>92.17780828475952</v>
       </c>
+      <c r="AJ121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK121" t="n">
+        <v>52.37230944633484</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -33403,6 +35223,14 @@
       <c r="AI122" t="n">
         <v>0.2913877964019775</v>
       </c>
+      <c r="AJ122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK122" t="n">
+        <v>542.8653843402863</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -33546,6 +35374,14 @@
       <c r="AI123" t="n">
         <v>0.2916021347045898</v>
       </c>
+      <c r="AJ123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK123" t="n">
+        <v>16.49281525611877</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -33689,6 +35525,14 @@
       <c r="AI124" t="n">
         <v>0.2918102741241455</v>
       </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK124" t="n">
+        <v>24.55307412147522</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -33832,6 +35676,14 @@
       <c r="AI125" t="n">
         <v>0.2920315265655518</v>
       </c>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK125" t="n">
+        <v>111.4319410324097</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -33975,6 +35827,14 @@
       <c r="AI126" t="n">
         <v>0.2922945022583008</v>
       </c>
+      <c r="AJ126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK126" t="n">
+        <v>18.81633281707764</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -34118,6 +35978,14 @@
       <c r="AI127" t="n">
         <v>0.2925090789794922</v>
       </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK127" t="n">
+        <v>127.3100459575653</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -34261,6 +36129,14 @@
       <c r="AI128" t="n">
         <v>23.70706582069397</v>
       </c>
+      <c r="AJ128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK128" t="n">
+        <v>249.9181613922119</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -34404,6 +36280,14 @@
       <c r="AI129" t="n">
         <v>23.70742392539978</v>
       </c>
+      <c r="AJ129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK129" t="n">
+        <v>110.286776304245</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -34547,6 +36431,14 @@
       <c r="AI130" t="n">
         <v>37.67345905303955</v>
       </c>
+      <c r="AJ130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK130" t="n">
+        <v>0.3059885501861572</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -34690,6 +36582,14 @@
       <c r="AI131" t="n">
         <v>23.70780372619629</v>
       </c>
+      <c r="AJ131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK131" t="n">
+        <v>16.49329090118408</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -34833,6 +36733,14 @@
       <c r="AI132" t="n">
         <v>0.2928054332733154</v>
       </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK132" t="n">
+        <v>1786.06192946434</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -34974,6 +36882,14 @@
       <c r="AI133" t="n">
         <v>0.2930972576141357</v>
       </c>
+      <c r="AJ133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK133" t="n">
+        <v>16.49366760253906</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -35113,6 +37029,14 @@
       <c r="AI134" t="n">
         <v>0.293330192565918</v>
       </c>
+      <c r="AJ134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK134" t="n">
+        <v>24.55350637435913</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -35256,6 +37180,14 @@
       <c r="AI135" t="n">
         <v>0.2935445308685303</v>
       </c>
+      <c r="AJ135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK135" t="n">
+        <v>111.4323937892914</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -35397,6 +37329,14 @@
       <c r="AI136" t="n">
         <v>0.2937891483306885</v>
       </c>
+      <c r="AJ136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK136" t="n">
+        <v>18.81708669662476</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -35540,6 +37480,14 @@
       <c r="AI137" t="n">
         <v>0.2940657138824463</v>
       </c>
+      <c r="AJ137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK137" t="n">
+        <v>127.3105595111847</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -35683,6 +37631,14 @@
       <c r="AI138" t="n">
         <v>23.7081458568573</v>
       </c>
+      <c r="AJ138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK138" t="n">
+        <v>10227.57175683975</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -35824,6 +37780,14 @@
       <c r="AI139" t="n">
         <v>37.67384815216064</v>
       </c>
+      <c r="AJ139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK139" t="n">
+        <v>9626.87224650383</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -35967,6 +37931,14 @@
       <c r="AI140" t="n">
         <v>23.70847225189209</v>
       </c>
+      <c r="AJ140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK140" t="n">
+        <v>0.3063802719116211</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -36107,6 +38079,14 @@
       </c>
       <c r="AI141" t="n">
         <v>22.56691265106201</v>
+      </c>
+      <c r="AJ141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AK141" t="n">
+        <v>16.49417400360107</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S141"/>
+  <dimension ref="A1:T141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,11 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -588,7 +593,10 @@
         <v>0.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.423076923076923</v>
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="3">
@@ -649,6 +657,9 @@
       <c r="S3" t="n">
         <v>0.5</v>
       </c>
+      <c r="T3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -708,6 +719,9 @@
       <c r="S4" t="n">
         <v>0.5</v>
       </c>
+      <c r="T4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -767,6 +781,9 @@
       <c r="S5" t="n">
         <v>0.5</v>
       </c>
+      <c r="T5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -826,6 +843,9 @@
       <c r="S6" t="n">
         <v>0.5</v>
       </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -885,6 +905,9 @@
       <c r="S7" t="n">
         <v>0.5</v>
       </c>
+      <c r="T7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -942,7 +965,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="9">
@@ -1001,7 +1027,10 @@
         <v>-1</v>
       </c>
       <c r="S9" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="10">
@@ -1060,7 +1089,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="11">
@@ -1119,7 +1151,10 @@
         <v>-1</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>6.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="12">
@@ -1178,7 +1213,10 @@
         <v>0.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="13">
@@ -1239,6 +1277,9 @@
       <c r="S13" t="n">
         <v>0.5</v>
       </c>
+      <c r="T13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1298,6 +1339,9 @@
       <c r="S14" t="n">
         <v>0.5</v>
       </c>
+      <c r="T14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1355,7 +1399,10 @@
         <v>0.5</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="16">
@@ -1416,6 +1463,9 @@
       <c r="S16" t="n">
         <v>0.5</v>
       </c>
+      <c r="T16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1475,6 +1525,9 @@
       <c r="S17" t="n">
         <v>0.5</v>
       </c>
+      <c r="T17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1532,7 +1585,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="19">
@@ -1591,7 +1647,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="20">
@@ -1650,7 +1709,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="21">
@@ -1709,7 +1771,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>6.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="22">
@@ -1768,7 +1833,10 @@
         <v>0.5</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5769230769230769</v>
+        <v>3.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="23">
@@ -1827,7 +1895,10 @@
         <v>0.5</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="24">
@@ -1886,7 +1957,10 @@
         <v>0.5</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="25">
@@ -1945,7 +2019,10 @@
         <v>0.5</v>
       </c>
       <c r="S25" t="n">
-        <v>1.423076923076923</v>
+        <v>0.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.357142857142857</v>
       </c>
     </row>
     <row r="26">
@@ -2004,7 +2081,10 @@
         <v>0.5</v>
       </c>
       <c r="S26" t="n">
-        <v>1.115384615384615</v>
+        <v>1.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="27">
@@ -2063,7 +2143,10 @@
         <v>0.5</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="28">
@@ -2122,7 +2205,10 @@
         <v>-1</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="29">
@@ -2181,7 +2267,10 @@
         <v>-1</v>
       </c>
       <c r="S29" t="n">
-        <v>6</v>
+        <v>6.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="30">
@@ -2240,7 +2329,10 @@
         <v>-1</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="31">
@@ -2299,7 +2391,10 @@
         <v>-1</v>
       </c>
       <c r="S31" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>7.06</v>
       </c>
     </row>
     <row r="32">
@@ -2358,7 +2453,10 @@
         <v>0.5</v>
       </c>
       <c r="S32" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="33">
@@ -2419,6 +2517,9 @@
       <c r="S33" t="n">
         <v>0.5</v>
       </c>
+      <c r="T33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2476,7 +2577,10 @@
         <v>0.5</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="35">
@@ -2535,7 +2639,10 @@
         <v>0.5</v>
       </c>
       <c r="S35" t="n">
-        <v>1.346153846153846</v>
+        <v>0.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="36">
@@ -2594,7 +2701,10 @@
         <v>0.5</v>
       </c>
       <c r="S36" t="n">
-        <v>1.115384615384615</v>
+        <v>0.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.071428571428571</v>
       </c>
     </row>
     <row r="37">
@@ -2653,7 +2763,10 @@
         <v>0.5</v>
       </c>
       <c r="S37" t="n">
-        <v>1.038461538461539</v>
+        <v>0.5</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2712,7 +2825,10 @@
         <v>-1</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="39">
@@ -2771,7 +2887,10 @@
         <v>-1</v>
       </c>
       <c r="S39" t="n">
-        <v>6</v>
+        <v>6.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="40">
@@ -2830,7 +2949,10 @@
         <v>-1</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="41">
@@ -2889,7 +3011,10 @@
         <v>-1</v>
       </c>
       <c r="S41" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>7.06</v>
       </c>
     </row>
     <row r="42">
@@ -2950,6 +3075,9 @@
       <c r="S42" t="n">
         <v>0.5</v>
       </c>
+      <c r="T42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3009,6 +3137,9 @@
       <c r="S43" t="n">
         <v>0.5</v>
       </c>
+      <c r="T43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3068,6 +3199,9 @@
       <c r="S44" t="n">
         <v>0.5</v>
       </c>
+      <c r="T44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3127,6 +3261,9 @@
       <c r="S45" t="n">
         <v>0.5</v>
       </c>
+      <c r="T45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3186,6 +3323,9 @@
       <c r="S46" t="n">
         <v>0.5</v>
       </c>
+      <c r="T46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3245,6 +3385,9 @@
       <c r="S47" t="n">
         <v>0.5</v>
       </c>
+      <c r="T47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3302,7 +3445,10 @@
         <v>-1</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T48" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="49">
@@ -3361,7 +3507,10 @@
         <v>-1</v>
       </c>
       <c r="S49" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="50">
@@ -3420,7 +3569,10 @@
         <v>-1</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="51">
@@ -3479,7 +3631,10 @@
         <v>-1</v>
       </c>
       <c r="S51" t="n">
-        <v>1.25</v>
+        <v>6.5</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="52">
@@ -3538,7 +3693,10 @@
         <v>0.5</v>
       </c>
       <c r="S52" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.233333333333333</v>
       </c>
     </row>
     <row r="53">
@@ -3599,6 +3757,9 @@
       <c r="S53" t="n">
         <v>0.5</v>
       </c>
+      <c r="T53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3658,6 +3819,9 @@
       <c r="S54" t="n">
         <v>0.5</v>
       </c>
+      <c r="T54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3717,6 +3881,9 @@
       <c r="S55" t="n">
         <v>0.5</v>
       </c>
+      <c r="T55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3776,6 +3943,9 @@
       <c r="S56" t="n">
         <v>0.5</v>
       </c>
+      <c r="T56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3835,6 +4005,9 @@
       <c r="S57" t="n">
         <v>0.5</v>
       </c>
+      <c r="T57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3892,7 +4065,10 @@
         <v>-1</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T58" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="59">
@@ -3951,7 +4127,10 @@
         <v>-1</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>6.5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="60">
@@ -4010,7 +4189,10 @@
         <v>-1</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="61">
@@ -4069,7 +4251,10 @@
         <v>-1</v>
       </c>
       <c r="S61" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="62">
@@ -4128,7 +4313,10 @@
         <v>0.5</v>
       </c>
       <c r="S62" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.233333333333333</v>
       </c>
     </row>
     <row r="63">
@@ -4187,7 +4375,10 @@
         <v>0.5</v>
       </c>
       <c r="S63" t="n">
-        <v>1.227272727272727</v>
+        <v>0.5</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="64">
@@ -4248,6 +4439,9 @@
       <c r="S64" t="n">
         <v>0.5</v>
       </c>
+      <c r="T64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4305,7 +4499,10 @@
         <v>1.5</v>
       </c>
       <c r="S65" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.5</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="66">
@@ -4364,7 +4561,10 @@
         <v>0.5</v>
       </c>
       <c r="S66" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.5</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="67">
@@ -4423,7 +4623,10 @@
         <v>0.5</v>
       </c>
       <c r="S67" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="68">
@@ -4482,7 +4685,10 @@
         <v>-1</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="69">
@@ -4541,7 +4747,10 @@
         <v>-1</v>
       </c>
       <c r="S69" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="70">
@@ -4600,7 +4809,10 @@
         <v>-1</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T70" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="71">
@@ -4659,7 +4871,10 @@
         <v>-1</v>
       </c>
       <c r="S71" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="72">
@@ -4718,7 +4933,10 @@
         <v>1.5</v>
       </c>
       <c r="S72" t="n">
-        <v>1.136363636363636</v>
+        <v>5.5</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="73">
@@ -4777,7 +4995,10 @@
         <v>4.5</v>
       </c>
       <c r="S73" t="n">
-        <v>1.681818181818182</v>
+        <v>0.5</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.583333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -4836,7 +5057,10 @@
         <v>0.5</v>
       </c>
       <c r="S74" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.5</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="75">
@@ -4895,7 +5119,10 @@
         <v>1.5</v>
       </c>
       <c r="S75" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="76">
@@ -4954,7 +5181,10 @@
         <v>0.5</v>
       </c>
       <c r="S76" t="n">
-        <v>0.9545454545454546</v>
+        <v>1.5</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -5013,7 +5243,10 @@
         <v>0.5</v>
       </c>
       <c r="S77" t="n">
-        <v>1.681818181818182</v>
+        <v>0.5</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.583333333333333</v>
       </c>
     </row>
     <row r="78">
@@ -5072,7 +5305,10 @@
         <v>-1</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T78" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="79">
@@ -5131,7 +5367,10 @@
         <v>-1</v>
       </c>
       <c r="S79" t="n">
-        <v>6</v>
+        <v>6.5</v>
+      </c>
+      <c r="T79" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="80">
@@ -5190,7 +5429,10 @@
         <v>-1</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T80" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="81">
@@ -5251,6 +5493,9 @@
       <c r="S81" t="n">
         <v>6.5</v>
       </c>
+      <c r="T81" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5308,7 +5553,10 @@
         <v>7.5</v>
       </c>
       <c r="S82" t="n">
-        <v>3.590909090909091</v>
+        <v>5.5</v>
+      </c>
+      <c r="T82" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="83">
@@ -5367,7 +5615,10 @@
         <v>4.5</v>
       </c>
       <c r="S83" t="n">
-        <v>1.681818181818182</v>
+        <v>0.5</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.583333333333333</v>
       </c>
     </row>
     <row r="84">
@@ -5426,7 +5677,10 @@
         <v>0.5</v>
       </c>
       <c r="S84" t="n">
-        <v>1.318181818181818</v>
+        <v>0.5</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="85">
@@ -5485,7 +5739,10 @@
         <v>0.5</v>
       </c>
       <c r="S85" t="n">
-        <v>1.681818181818182</v>
+        <v>0.5</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.583333333333333</v>
       </c>
     </row>
     <row r="86">
@@ -5544,7 +5801,10 @@
         <v>0.5</v>
       </c>
       <c r="S86" t="n">
-        <v>1.136363636363636</v>
+        <v>0.5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.083333333333333</v>
       </c>
     </row>
     <row r="87">
@@ -5603,7 +5863,10 @@
         <v>0.5</v>
       </c>
       <c r="S87" t="n">
-        <v>1.681818181818182</v>
+        <v>4.5</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.916666666666667</v>
       </c>
     </row>
     <row r="88">
@@ -5662,7 +5925,10 @@
         <v>-1</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T88" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="89">
@@ -5723,6 +5989,9 @@
       <c r="S89" t="n">
         <v>6.5</v>
       </c>
+      <c r="T89" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5780,7 +6049,10 @@
         <v>-1</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T90" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="91">
@@ -5839,7 +6111,10 @@
         <v>-1</v>
       </c>
       <c r="S91" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
+      </c>
+      <c r="T91" t="n">
+        <v>6.459999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -5898,7 +6173,10 @@
         <v>7.5</v>
       </c>
       <c r="S92" t="n">
-        <v>2.318181818181818</v>
+        <v>5.5</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.583333333333333</v>
       </c>
     </row>
     <row r="93">
@@ -5957,7 +6235,10 @@
         <v>0.5</v>
       </c>
       <c r="S93" t="n">
-        <v>1.318181818181818</v>
+        <v>0.5</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="94">
@@ -6016,7 +6297,10 @@
         <v>0.5</v>
       </c>
       <c r="S94" t="n">
-        <v>2.318181818181818</v>
+        <v>0.5</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.166666666666667</v>
       </c>
     </row>
     <row r="95">
@@ -6075,7 +6359,10 @@
         <v>0.5</v>
       </c>
       <c r="S95" t="n">
-        <v>2.954545454545455</v>
+        <v>0.5</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="96">
@@ -6134,7 +6421,10 @@
         <v>0.5</v>
       </c>
       <c r="S96" t="n">
-        <v>1.409090909090909</v>
+        <v>0.5</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="97">
@@ -6193,7 +6483,10 @@
         <v>0.5</v>
       </c>
       <c r="S97" t="n">
-        <v>1.681818181818182</v>
+        <v>4.5</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.916666666666667</v>
       </c>
     </row>
     <row r="98">
@@ -6252,7 +6545,10 @@
         <v>-1</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T98" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="99">
@@ -6311,7 +6607,10 @@
         <v>-1</v>
       </c>
       <c r="S99" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
+      </c>
+      <c r="T99" t="n">
+        <v>7.06</v>
       </c>
     </row>
     <row r="100">
@@ -6370,7 +6669,10 @@
         <v>-1</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="T100" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="101">
@@ -6429,7 +6731,10 @@
         <v>-1</v>
       </c>
       <c r="S101" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
+      </c>
+      <c r="T101" t="n">
+        <v>6.659999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -6488,7 +6793,10 @@
         <v>0.5</v>
       </c>
       <c r="S102" t="n">
-        <v>3.176923076923077</v>
+        <v>5.5</v>
+      </c>
+      <c r="T102" t="n">
+        <v>3.342857142857143</v>
       </c>
     </row>
     <row r="103">
@@ -6547,7 +6855,10 @@
         <v>1.5</v>
       </c>
       <c r="S103" t="n">
-        <v>2.269230769230769</v>
+        <v>4.5</v>
+      </c>
+      <c r="T103" t="n">
+        <v>2.428571428571428</v>
       </c>
     </row>
     <row r="104">
@@ -6606,7 +6917,10 @@
         <v>1.5</v>
       </c>
       <c r="S104" t="n">
-        <v>2.730769230769231</v>
+        <v>3.5</v>
+      </c>
+      <c r="T104" t="n">
+        <v>2.785714285714286</v>
       </c>
     </row>
     <row r="105">
@@ -6667,6 +6981,9 @@
       <c r="S105" t="n">
         <v>3.5</v>
       </c>
+      <c r="T105" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6724,7 +7041,10 @@
         <v>1.5</v>
       </c>
       <c r="S106" t="n">
-        <v>3.115384615384615</v>
+        <v>0.5</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.928571428571428</v>
       </c>
     </row>
     <row r="107">
@@ -6783,7 +7103,10 @@
         <v>0.5</v>
       </c>
       <c r="S107" t="n">
-        <v>3.715384615384615</v>
+        <v>0.5</v>
+      </c>
+      <c r="T107" t="n">
+        <v>3.485714285714285</v>
       </c>
     </row>
     <row r="108">
@@ -6842,7 +7165,10 @@
         <v>0.5</v>
       </c>
       <c r="S108" t="n">
-        <v>4.215384615384616</v>
+        <v>5.5</v>
+      </c>
+      <c r="T108" t="n">
+        <v>4.307142857142857</v>
       </c>
     </row>
     <row r="109">
@@ -6901,7 +7227,10 @@
         <v>4.5</v>
       </c>
       <c r="S109" t="n">
-        <v>4.770588235294118</v>
+        <v>4.5</v>
+      </c>
+      <c r="T109" t="n">
+        <v>4.755555555555556</v>
       </c>
     </row>
     <row r="110">
@@ -6960,7 +7289,10 @@
         <v>-1</v>
       </c>
       <c r="S110" t="n">
-        <v>5.357142857142857</v>
+        <v>3.5</v>
+      </c>
+      <c r="T110" t="n">
+        <v>5.125</v>
       </c>
     </row>
     <row r="111">
@@ -7019,7 +7351,10 @@
         <v>7.5</v>
       </c>
       <c r="S111" t="n">
-        <v>5.464705882352941</v>
+        <v>5.5</v>
+      </c>
+      <c r="T111" t="n">
+        <v>5.466666666666667</v>
       </c>
     </row>
     <row r="112">
@@ -7078,7 +7413,10 @@
         <v>4.5</v>
       </c>
       <c r="S112" t="n">
-        <v>5.515384615384615</v>
+        <v>3.5</v>
+      </c>
+      <c r="T112" t="n">
+        <v>5.371428571428572</v>
       </c>
     </row>
     <row r="113">
@@ -7137,7 +7475,10 @@
         <v>1.5</v>
       </c>
       <c r="S113" t="n">
-        <v>5.800000000000001</v>
+        <v>4.5</v>
+      </c>
+      <c r="T113" t="n">
+        <v>5.707142857142857</v>
       </c>
     </row>
     <row r="114">
@@ -7196,7 +7537,10 @@
         <v>1.5</v>
       </c>
       <c r="S114" t="n">
-        <v>6.576923076923077</v>
+        <v>3.5</v>
+      </c>
+      <c r="T114" t="n">
+        <v>6.357142857142857</v>
       </c>
     </row>
     <row r="115">
@@ -7255,7 +7599,10 @@
         <v>1.5</v>
       </c>
       <c r="S115" t="n">
-        <v>5.253846153846154</v>
+        <v>3.5</v>
+      </c>
+      <c r="T115" t="n">
+        <v>5.128571428571428</v>
       </c>
     </row>
     <row r="116">
@@ -7314,7 +7661,10 @@
         <v>1.5</v>
       </c>
       <c r="S116" t="n">
-        <v>5.192307692307693</v>
+        <v>3.5</v>
+      </c>
+      <c r="T116" t="n">
+        <v>5.071428571428571</v>
       </c>
     </row>
     <row r="117">
@@ -7373,7 +7723,10 @@
         <v>1.5</v>
       </c>
       <c r="S117" t="n">
-        <v>5.866666666666666</v>
+        <v>5.5</v>
+      </c>
+      <c r="T117" t="n">
+        <v>5.838461538461538</v>
       </c>
     </row>
     <row r="118">
@@ -7432,7 +7785,10 @@
         <v>5.5</v>
       </c>
       <c r="S118" t="n">
-        <v>6.199999999999999</v>
+        <v>5.5</v>
+      </c>
+      <c r="T118" t="n">
+        <v>6.149999999999999</v>
       </c>
     </row>
     <row r="119">
@@ -7491,7 +7847,10 @@
         <v>4.5</v>
       </c>
       <c r="S119" t="n">
-        <v>6.0125</v>
+        <v>4.5</v>
+      </c>
+      <c r="T119" t="n">
+        <v>5.923529411764706</v>
       </c>
     </row>
     <row r="120">
@@ -7550,7 +7909,10 @@
         <v>-1</v>
       </c>
       <c r="S120" t="n">
-        <v>5.357142857142857</v>
+        <v>3.5</v>
+      </c>
+      <c r="T120" t="n">
+        <v>5.125</v>
       </c>
     </row>
     <row r="121">
@@ -7609,7 +7971,10 @@
         <v>7.5</v>
       </c>
       <c r="S121" t="n">
-        <v>7.562500000000001</v>
+        <v>5.5</v>
+      </c>
+      <c r="T121" t="n">
+        <v>7.441176470588236</v>
       </c>
     </row>
     <row r="122">
@@ -7668,7 +8033,10 @@
         <v>4.5</v>
       </c>
       <c r="S122" t="n">
-        <v>7.792307692307692</v>
+        <v>3.5</v>
+      </c>
+      <c r="T122" t="n">
+        <v>7.485714285714286</v>
       </c>
     </row>
     <row r="123">
@@ -7727,7 +8095,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="S123" t="n">
-        <v>7.569230769230769</v>
+        <v>1.5</v>
+      </c>
+      <c r="T123" t="n">
+        <v>7.135714285714285</v>
       </c>
     </row>
     <row r="124">
@@ -7786,7 +8157,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="S124" t="n">
-        <v>7.566666666666666</v>
+        <v>1.5</v>
+      </c>
+      <c r="T124" t="n">
+        <v>7.1</v>
       </c>
     </row>
     <row r="125">
@@ -7845,7 +8219,10 @@
         <v>6.5</v>
       </c>
       <c r="S125" t="n">
-        <v>7.315384615384615</v>
+        <v>0.5</v>
+      </c>
+      <c r="T125" t="n">
+        <v>6.828571428571428</v>
       </c>
     </row>
     <row r="126">
@@ -7904,7 +8281,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="S126" t="n">
-        <v>7.299999999999999</v>
+        <v>3.5</v>
+      </c>
+      <c r="T126" t="n">
+        <v>7.028571428571428</v>
       </c>
     </row>
     <row r="127">
@@ -7963,7 +8343,10 @@
         <v>5.5</v>
       </c>
       <c r="S127" t="n">
-        <v>7.574999999999999</v>
+        <v>5.5</v>
+      </c>
+      <c r="T127" t="n">
+        <v>7.415384615384615</v>
       </c>
     </row>
     <row r="128">
@@ -8022,7 +8405,10 @@
         <v>5.5</v>
       </c>
       <c r="S128" t="n">
-        <v>6.983333333333333</v>
+        <v>5.5</v>
+      </c>
+      <c r="T128" t="n">
+        <v>6.869230769230769</v>
       </c>
     </row>
     <row r="129">
@@ -8081,7 +8467,10 @@
         <v>6.5</v>
       </c>
       <c r="S129" t="n">
-        <v>7.270588235294118</v>
+        <v>5.5</v>
+      </c>
+      <c r="T129" t="n">
+        <v>7.172222222222222</v>
       </c>
     </row>
     <row r="130">
@@ -8140,7 +8529,10 @@
         <v>-1</v>
       </c>
       <c r="S130" t="n">
-        <v>7.971428571428571</v>
+        <v>3.5</v>
+      </c>
+      <c r="T130" t="n">
+        <v>7.4125</v>
       </c>
     </row>
     <row r="131">
@@ -8199,7 +8591,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="S131" t="n">
-        <v>7.693750000000001</v>
+        <v>3.5</v>
+      </c>
+      <c r="T131" t="n">
+        <v>7.447058823529412</v>
       </c>
     </row>
     <row r="132">
@@ -8258,7 +8653,10 @@
         <v>3.5</v>
       </c>
       <c r="S132" t="n">
-        <v>6.53076923076923</v>
+        <v>1.5</v>
+      </c>
+      <c r="T132" t="n">
+        <v>6.171428571428571</v>
       </c>
     </row>
     <row r="133">
@@ -8317,7 +8715,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="S133" t="n">
-        <v>4.961538461538462</v>
+        <v>1.5</v>
+      </c>
+      <c r="T133" t="n">
+        <v>4.714285714285714</v>
       </c>
     </row>
     <row r="134">
@@ -8376,7 +8777,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="S134" t="n">
-        <v>3.638461538461538</v>
+        <v>1.5</v>
+      </c>
+      <c r="T134" t="n">
+        <v>3.485714285714285</v>
       </c>
     </row>
     <row r="135">
@@ -8435,7 +8839,10 @@
         <v>6.5</v>
       </c>
       <c r="S135" t="n">
-        <v>6.484615384615385</v>
+        <v>0.5</v>
+      </c>
+      <c r="T135" t="n">
+        <v>6.057142857142857</v>
       </c>
     </row>
     <row r="136">
@@ -8494,7 +8901,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="S136" t="n">
-        <v>5.992307692307691</v>
+        <v>0.5</v>
+      </c>
+      <c r="T136" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="137">
@@ -8553,7 +8963,10 @@
         <v>5.5</v>
       </c>
       <c r="S137" t="n">
-        <v>6.292307692307692</v>
+        <v>0.5</v>
+      </c>
+      <c r="T137" t="n">
+        <v>5.878571428571428</v>
       </c>
     </row>
     <row r="138">
@@ -8612,7 +9025,10 @@
         <v>1.5</v>
       </c>
       <c r="S138" t="n">
-        <v>6.166666666666667</v>
+        <v>5.5</v>
+      </c>
+      <c r="T138" t="n">
+        <v>6.115384615384615</v>
       </c>
     </row>
     <row r="139">
@@ -8671,7 +9087,10 @@
         <v>1.5</v>
       </c>
       <c r="S139" t="n">
-        <v>6.09375</v>
+        <v>5.5</v>
+      </c>
+      <c r="T139" t="n">
+        <v>6.058823529411764</v>
       </c>
     </row>
     <row r="140">
@@ -8730,7 +9149,10 @@
         <v>-1</v>
       </c>
       <c r="S140" t="n">
-        <v>8.085714285714285</v>
+        <v>3.5</v>
+      </c>
+      <c r="T140" t="n">
+        <v>7.5125</v>
       </c>
     </row>
     <row r="141">
@@ -8789,7 +9211,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="S141" t="n">
-        <v>5.858823529411765</v>
+        <v>1.5</v>
+      </c>
+      <c r="T141" t="n">
+        <v>5.616666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -8803,7 +9228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:S141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8902,6 +9327,11 @@
           <t>2023-08-04</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -8980,6 +9410,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S2" t="n">
+        <v>9849.65266251564</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -9062,6 +9495,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -9144,6 +9582,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -9226,6 +9669,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -9308,6 +9756,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -9390,6 +9843,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -9446,6 +9904,9 @@
       <c r="R8" t="n">
         <v>0.2946867942810059</v>
       </c>
+      <c r="S8" t="n">
+        <v>69.2667064666748</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -9502,6 +9963,9 @@
       <c r="R9" t="n">
         <v>0.2949433326721191</v>
       </c>
+      <c r="S9" t="n">
+        <v>69.26703596115112</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -9558,6 +10022,9 @@
       <c r="R10" t="n">
         <v>0.295170783996582</v>
       </c>
+      <c r="S10" t="n">
+        <v>69.2673556804657</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -9614,6 +10081,9 @@
       <c r="R11" t="n">
         <v>0.2953896522521973</v>
       </c>
+      <c r="S11" t="n">
+        <v>69.26759672164917</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -9690,6 +10160,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -9772,6 +10247,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -9854,6 +10334,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -9932,6 +10417,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -10014,6 +10504,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -10096,6 +10591,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -10152,6 +10652,9 @@
       <c r="R18" t="n">
         <v>0.2957477569580078</v>
       </c>
+      <c r="S18" t="n">
+        <v>69.26804113388062</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -10208,6 +10711,9 @@
       <c r="R19" t="n">
         <v>0.2959611415863037</v>
       </c>
+      <c r="S19" t="n">
+        <v>69.26840591430664</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -10264,6 +10770,9 @@
       <c r="R20" t="n">
         <v>0.2962095737457275</v>
       </c>
+      <c r="S20" t="n">
+        <v>69.26866126060486</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -10320,6 +10829,9 @@
       <c r="R21" t="n">
         <v>0.2964210510253906</v>
       </c>
+      <c r="S21" t="n">
+        <v>69.26889848709106</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -10400,6 +10912,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S22" t="n">
+        <v>949.451828956604</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -10480,6 +10995,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -10558,6 +11078,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -10634,6 +11159,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -10712,6 +11242,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S26" t="n">
+        <v>5046.528620004654</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -10790,6 +11323,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -10846,6 +11384,9 @@
       <c r="R28" t="n">
         <v>0.2967638969421387</v>
       </c>
+      <c r="S28" t="n">
+        <v>69.26935029029846</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -10902,6 +11443,9 @@
       <c r="R29" t="n">
         <v>0.2969684600830078</v>
       </c>
+      <c r="S29" t="n">
+        <v>69.2695894241333</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -10958,6 +11502,9 @@
       <c r="R30" t="n">
         <v>0.2971706390380859</v>
       </c>
+      <c r="S30" t="n">
+        <v>69.26984047889709</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -11014,6 +11561,9 @@
       <c r="R31" t="n">
         <v>0.2973921298980713</v>
       </c>
+      <c r="S31" t="n">
+        <v>69.27007579803467</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -11096,6 +11646,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S32" t="n">
+        <v>949.4523429870605</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -11178,6 +11731,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -11258,6 +11816,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -11336,6 +11899,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -11414,6 +11982,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -11490,6 +12063,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -11546,6 +12124,9 @@
       <c r="R38" t="n">
         <v>0.2977859973907471</v>
       </c>
+      <c r="S38" t="n">
+        <v>69.27047896385193</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -11602,6 +12183,9 @@
       <c r="R39" t="n">
         <v>0.2980377674102783</v>
       </c>
+      <c r="S39" t="n">
+        <v>69.27070736885071</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -11658,6 +12242,9 @@
       <c r="R40" t="n">
         <v>0.2982783317565918</v>
       </c>
+      <c r="S40" t="n">
+        <v>69.27103447914124</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -11714,6 +12301,9 @@
       <c r="R41" t="n">
         <v>0.2984848022460938</v>
       </c>
+      <c r="S41" t="n">
+        <v>69.27133059501648</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -11794,6 +12384,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -11874,6 +12469,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -11954,6 +12554,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -12034,6 +12639,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -12114,6 +12724,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -12194,6 +12809,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -12250,6 +12870,9 @@
       <c r="R48" t="n">
         <v>0.2988297939300537</v>
       </c>
+      <c r="S48" t="n">
+        <v>69.27177786827087</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -12314,6 +12937,9 @@
       <c r="R49" t="n">
         <v>0.2990326881408691</v>
       </c>
+      <c r="S49" t="n">
+        <v>69.27205610275269</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -12370,6 +12996,9 @@
       <c r="R50" t="n">
         <v>0.2992334365844727</v>
       </c>
+      <c r="S50" t="n">
+        <v>69.27239108085632</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -12432,6 +13061,9 @@
       <c r="R51" t="n">
         <v>0.2994365692138672</v>
       </c>
+      <c r="S51" t="n">
+        <v>69.27273154258728</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -12506,6 +13138,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -12584,6 +13221,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -12662,6 +13304,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -12740,6 +13387,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -12818,6 +13470,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -12896,6 +13553,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -12952,6 +13614,9 @@
       <c r="R58" t="n">
         <v>0.2998189926147461</v>
       </c>
+      <c r="S58" t="n">
+        <v>69.27323770523071</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -13012,6 +13677,9 @@
       <c r="R59" t="n">
         <v>0.3000307083129883</v>
       </c>
+      <c r="S59" t="n">
+        <v>69.27354645729065</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -13068,6 +13736,9 @@
       <c r="R60" t="n">
         <v>0.3002603054046631</v>
       </c>
+      <c r="S60" t="n">
+        <v>69.27390217781067</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -13126,6 +13797,9 @@
       <c r="R61" t="n">
         <v>0.3005084991455078</v>
       </c>
+      <c r="S61" t="n">
+        <v>69.27414083480835</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -13200,6 +13874,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -13274,6 +13953,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -13352,6 +14036,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -13426,6 +14115,11 @@
       <c r="R65" t="n">
         <v>3618.815064430237</v>
       </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -13502,6 +14196,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -13578,6 +14277,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -13634,6 +14338,9 @@
       <c r="R68" t="n">
         <v>0.3008646965026855</v>
       </c>
+      <c r="S68" t="n">
+        <v>69.27453517913818</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -13690,6 +14397,9 @@
       <c r="R69" t="n">
         <v>0.3010694980621338</v>
       </c>
+      <c r="S69" t="n">
+        <v>69.27475953102112</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -13746,6 +14456,9 @@
       <c r="R70" t="n">
         <v>0.3012707233428955</v>
       </c>
+      <c r="S70" t="n">
+        <v>69.27503871917725</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -13802,6 +14515,9 @@
       <c r="R71" t="n">
         <v>0.3014702796936035</v>
       </c>
+      <c r="S71" t="n">
+        <v>69.27527785301208</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -13874,6 +14590,9 @@
       <c r="R72" t="n">
         <v>6622.857825040817</v>
       </c>
+      <c r="S72" t="n">
+        <v>215.9156215190887</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -13946,6 +14665,11 @@
       <c r="R73" t="n">
         <v>361.0179586410522</v>
       </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -14022,6 +14746,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -14094,6 +14823,11 @@
       <c r="R75" t="n">
         <v>3618.815569162369</v>
       </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -14166,6 +14900,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S76" t="n">
+        <v>5046.529879331589</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -14238,6 +14975,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -14294,6 +15036,9 @@
       <c r="R78" t="n">
         <v>0.3018677234649658</v>
       </c>
+      <c r="S78" t="n">
+        <v>69.275714635849</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -14350,6 +15095,9 @@
       <c r="R79" t="n">
         <v>0.3020837306976318</v>
       </c>
+      <c r="S79" t="n">
+        <v>69.27596163749695</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -14406,6 +15154,9 @@
       <c r="R80" t="n">
         <v>0.3022892475128174</v>
       </c>
+      <c r="S80" t="n">
+        <v>69.27622437477112</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -14462,6 +15213,9 @@
       <c r="R81" t="n">
         <v>0.3024966716766357</v>
       </c>
+      <c r="S81" t="n">
+        <v>69.27648234367371</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -14526,6 +15280,9 @@
       <c r="R82" t="n">
         <v>59.41358256340027</v>
       </c>
+      <c r="S82" t="n">
+        <v>215.9160602092743</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -14592,6 +15349,11 @@
       <c r="R83" t="n">
         <v>361.0184092521667</v>
       </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -14664,6 +15426,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -14734,6 +15501,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -14808,6 +15580,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -14880,6 +15657,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S87" t="n">
+        <v>390.4059536457062</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -14936,6 +15716,9 @@
       <c r="R88" t="n">
         <v>0.3029336929321289</v>
       </c>
+      <c r="S88" t="n">
+        <v>69.27687525749207</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -14992,6 +15775,9 @@
       <c r="R89" t="n">
         <v>0.303154468536377</v>
       </c>
+      <c r="S89" t="n">
+        <v>69.27714729309082</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -15048,6 +15834,9 @@
       <c r="R90" t="n">
         <v>0.3033607006072998</v>
       </c>
+      <c r="S90" t="n">
+        <v>69.27741694450378</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -15104,6 +15893,9 @@
       <c r="R91" t="n">
         <v>0.303617000579834</v>
       </c>
+      <c r="S91" t="n">
+        <v>69.27765297889709</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -15170,6 +15962,9 @@
       <c r="R92" t="n">
         <v>59.41411471366882</v>
       </c>
+      <c r="S92" t="n">
+        <v>215.9164936542511</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -15240,6 +16035,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -15306,6 +16106,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -15368,6 +16173,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -15440,6 +16250,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -15510,6 +16325,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S97" t="n">
+        <v>390.4063901901245</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -15566,6 +16384,9 @@
       <c r="R98" t="n">
         <v>0.3039741516113281</v>
       </c>
+      <c r="S98" t="n">
+        <v>69.27804446220398</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -15622,6 +16443,9 @@
       <c r="R99" t="n">
         <v>0.3042783737182617</v>
       </c>
+      <c r="S99" t="n">
+        <v>69.2783088684082</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -15678,6 +16502,9 @@
       <c r="R100" t="n">
         <v>0.3045015335083008</v>
       </c>
+      <c r="S100" t="n">
+        <v>69.27856850624084</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -15734,6 +16561,9 @@
       <c r="R101" t="n">
         <v>0.3047170639038086</v>
       </c>
+      <c r="S101" t="n">
+        <v>69.27878999710083</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -15802,6 +16632,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S102" t="n">
+        <v>215.916880607605</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -15870,6 +16703,9 @@
       <c r="R103" t="n">
         <v>6622.858665943146</v>
       </c>
+      <c r="S103" t="n">
+        <v>390.4066956043243</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -15936,6 +16772,9 @@
       <c r="R104" t="n">
         <v>9927.227101325989</v>
       </c>
+      <c r="S104" t="n">
+        <v>669.7345926761627</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -15996,6 +16835,9 @@
       <c r="R105" t="n">
         <v>9326.431798458099</v>
       </c>
+      <c r="S105" t="n">
+        <v>1421.01070189476</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -16062,6 +16904,11 @@
       <c r="R106" t="n">
         <v>9626.870551586151</v>
       </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -16126,6 +16973,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -16188,6 +17040,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="S108" t="n">
+        <v>215.9172470569611</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -16244,6 +17099,9 @@
       <c r="R109" t="n">
         <v>573.2067339420319</v>
       </c>
+      <c r="S109" t="n">
+        <v>390.4070582389832</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -16302,6 +17160,9 @@
       <c r="R110" t="n">
         <v>0.3051238059997559</v>
       </c>
+      <c r="S110" t="n">
+        <v>949.4537813663483</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -16364,6 +17225,9 @@
       <c r="R111" t="n">
         <v>52.37163949012756</v>
       </c>
+      <c r="S111" t="n">
+        <v>215.9175391197205</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -16424,6 +17288,9 @@
       <c r="R112" t="n">
         <v>542.8648698329926</v>
       </c>
+      <c r="S112" t="n">
+        <v>1761.271523952484</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -16480,6 +17347,9 @@
       <c r="R113" t="n">
         <v>6622.85910987854</v>
       </c>
+      <c r="S113" t="n">
+        <v>390.4073667526245</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -16536,6 +17406,9 @@
       <c r="R114" t="n">
         <v>6322.430923223495</v>
       </c>
+      <c r="S114" t="n">
+        <v>669.7350463867188</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -16592,6 +17465,9 @@
       <c r="R115" t="n">
         <v>6622.859457731247</v>
       </c>
+      <c r="S115" t="n">
+        <v>1421.011140584946</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -16650,6 +17526,9 @@
       <c r="R116" t="n">
         <v>9626.871334075928</v>
       </c>
+      <c r="S116" t="n">
+        <v>949.4541816711426</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -16706,6 +17585,9 @@
       <c r="R117" t="n">
         <v>4820.467465877533</v>
       </c>
+      <c r="S117" t="n">
+        <v>215.9179031848907</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -16762,6 +17644,9 @@
       <c r="R118" t="n">
         <v>249.9177541732788</v>
       </c>
+      <c r="S118" t="n">
+        <v>215.9181520938873</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -16818,6 +17703,9 @@
       <c r="R119" t="n">
         <v>573.2072389125824</v>
       </c>
+      <c r="S119" t="n">
+        <v>390.4077007770538</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -16876,6 +17764,9 @@
       <c r="R120" t="n">
         <v>0.3055601119995117</v>
       </c>
+      <c r="S120" t="n">
+        <v>949.4544866085052</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -16932,6 +17823,9 @@
       <c r="R121" t="n">
         <v>52.37230944633484</v>
       </c>
+      <c r="S121" t="n">
+        <v>215.9184427261353</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -16988,6 +17882,9 @@
       <c r="R122" t="n">
         <v>542.8653843402863</v>
       </c>
+      <c r="S122" t="n">
+        <v>1761.272316217422</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -17044,6 +17941,9 @@
       <c r="R123" t="n">
         <v>16.49281525611877</v>
       </c>
+      <c r="S123" t="n">
+        <v>9849.654876947403</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -17100,6 +18000,9 @@
       <c r="R124" t="n">
         <v>24.55307412147522</v>
       </c>
+      <c r="S124" t="n">
+        <v>5046.530739784241</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -17156,6 +18059,11 @@
       <c r="R125" t="n">
         <v>111.4319410324097</v>
       </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -17212,6 +18120,9 @@
       <c r="R126" t="n">
         <v>18.81633281707764</v>
       </c>
+      <c r="S126" t="n">
+        <v>949.4549496173859</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -17268,6 +18179,9 @@
       <c r="R127" t="n">
         <v>127.3100459575653</v>
       </c>
+      <c r="S127" t="n">
+        <v>215.9188644886017</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -17324,6 +18238,9 @@
       <c r="R128" t="n">
         <v>249.9181613922119</v>
       </c>
+      <c r="S128" t="n">
+        <v>215.9191324710846</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -17380,6 +18297,9 @@
       <c r="R129" t="n">
         <v>110.286776304245</v>
       </c>
+      <c r="S129" t="n">
+        <v>215.9193994998932</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -17436,6 +18356,9 @@
       <c r="R130" t="n">
         <v>0.3059885501861572</v>
       </c>
+      <c r="S130" t="n">
+        <v>669.7355291843414</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -17492,6 +18415,9 @@
       <c r="R131" t="n">
         <v>16.49329090118408</v>
       </c>
+      <c r="S131" t="n">
+        <v>1166.973711013794</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -17548,6 +18474,9 @@
       <c r="R132" t="n">
         <v>1786.06192946434</v>
       </c>
+      <c r="S132" t="n">
+        <v>9849.65530371666</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -17606,6 +18535,9 @@
       <c r="R133" t="n">
         <v>16.49366760253906</v>
       </c>
+      <c r="S133" t="n">
+        <v>9849.655610084534</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -17666,6 +18598,9 @@
       <c r="R134" t="n">
         <v>24.55350637435913</v>
       </c>
+      <c r="S134" t="n">
+        <v>5046.531135082245</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -17722,6 +18657,11 @@
       <c r="R135" t="n">
         <v>111.4323937892914</v>
       </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -17780,6 +18720,11 @@
       <c r="R136" t="n">
         <v>18.81708669662476</v>
       </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -17836,6 +18781,11 @@
       <c r="R137" t="n">
         <v>127.3105595111847</v>
       </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -17892,6 +18842,9 @@
       <c r="R138" t="n">
         <v>10227.57175683975</v>
       </c>
+      <c r="S138" t="n">
+        <v>215.9198086261749</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -17950,6 +18903,9 @@
       <c r="R139" t="n">
         <v>9626.87224650383</v>
       </c>
+      <c r="S139" t="n">
+        <v>215.9200961589813</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -18006,6 +18962,9 @@
       <c r="R140" t="n">
         <v>0.3063802719116211</v>
       </c>
+      <c r="S140" t="n">
+        <v>669.7359595298767</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -18063,6 +19022,9 @@
       </c>
       <c r="R141" t="n">
         <v>16.49417400360107</v>
+      </c>
+      <c r="S141" t="n">
+        <v>5046.531538724899</v>
       </c>
     </row>
   </sheetData>
@@ -18076,7 +19038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK141"/>
+  <dimension ref="A1:AM141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18270,6 +19232,16 @@
           <t>2023-08-04</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -18399,6 +19371,14 @@
         </is>
       </c>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM2" t="n">
+        <v>9849.65266251564</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -18524,6 +19504,12 @@
         </is>
       </c>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -18649,6 +19635,12 @@
         </is>
       </c>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -18774,6 +19766,12 @@
         </is>
       </c>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -18899,6 +19897,12 @@
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -19024,6 +20028,12 @@
         </is>
       </c>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -19175,6 +20185,14 @@
       <c r="AK8" t="n">
         <v>0.2946867942810059</v>
       </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM8" t="n">
+        <v>69.2667064666748</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -19326,6 +20344,14 @@
       <c r="AK9" t="n">
         <v>0.2949433326721191</v>
       </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM9" t="n">
+        <v>69.26703596115112</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -19477,6 +20503,14 @@
       <c r="AK10" t="n">
         <v>0.295170783996582</v>
       </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM10" t="n">
+        <v>69.2673556804657</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -19628,6 +20662,14 @@
       <c r="AK11" t="n">
         <v>0.2953896522521973</v>
       </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM11" t="n">
+        <v>69.26759672164917</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -19759,6 +20801,12 @@
         </is>
       </c>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -19884,6 +20932,12 @@
         </is>
       </c>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -20009,6 +21063,12 @@
         </is>
       </c>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -20138,6 +21198,12 @@
         </is>
       </c>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -20263,6 +21329,12 @@
         </is>
       </c>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -20388,6 +21460,12 @@
         </is>
       </c>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -20539,6 +21617,14 @@
       <c r="AK18" t="n">
         <v>0.2957477569580078</v>
       </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM18" t="n">
+        <v>69.26804113388062</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -20690,6 +21776,14 @@
       <c r="AK19" t="n">
         <v>0.2959611415863037</v>
       </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM19" t="n">
+        <v>69.26840591430664</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -20841,6 +21935,14 @@
       <c r="AK20" t="n">
         <v>0.2962095737457275</v>
       </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM20" t="n">
+        <v>69.26866126060486</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -20992,6 +22094,14 @@
       <c r="AK21" t="n">
         <v>0.2964210510253906</v>
       </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM21" t="n">
+        <v>69.26889848709106</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -21119,6 +22229,14 @@
         </is>
       </c>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM22" t="n">
+        <v>949.451828956604</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -21246,6 +22364,12 @@
         </is>
       </c>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -21375,6 +22499,12 @@
         </is>
       </c>
       <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -21506,6 +22636,12 @@
         </is>
       </c>
       <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -21635,6 +22771,14 @@
         </is>
       </c>
       <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM26" t="n">
+        <v>5046.528620004654</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -21764,6 +22908,12 @@
         </is>
       </c>
       <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -21915,6 +23065,14 @@
       <c r="AK28" t="n">
         <v>0.2967638969421387</v>
       </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM28" t="n">
+        <v>69.26935029029846</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -22066,6 +23224,14 @@
       <c r="AK29" t="n">
         <v>0.2969684600830078</v>
       </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM29" t="n">
+        <v>69.2695894241333</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -22217,6 +23383,14 @@
       <c r="AK30" t="n">
         <v>0.2971706390380859</v>
       </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM30" t="n">
+        <v>69.26984047889709</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -22368,6 +23542,14 @@
       <c r="AK31" t="n">
         <v>0.2973921298980713</v>
       </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM31" t="n">
+        <v>69.27007579803467</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -22493,6 +23675,14 @@
         </is>
       </c>
       <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM32" t="n">
+        <v>949.4523429870605</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -22618,6 +23808,12 @@
         </is>
       </c>
       <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -22745,6 +23941,12 @@
         </is>
       </c>
       <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -22874,6 +24076,12 @@
         </is>
       </c>
       <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -23003,6 +24211,12 @@
         </is>
       </c>
       <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -23134,6 +24348,12 @@
         </is>
       </c>
       <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -23285,6 +24505,14 @@
       <c r="AK38" t="n">
         <v>0.2977859973907471</v>
       </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM38" t="n">
+        <v>69.27047896385193</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -23436,6 +24664,14 @@
       <c r="AK39" t="n">
         <v>0.2980377674102783</v>
       </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM39" t="n">
+        <v>69.27070736885071</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -23587,6 +24823,14 @@
       <c r="AK40" t="n">
         <v>0.2982783317565918</v>
       </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM40" t="n">
+        <v>69.27103447914124</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -23738,6 +24982,14 @@
       <c r="AK41" t="n">
         <v>0.2984848022460938</v>
       </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM41" t="n">
+        <v>69.27133059501648</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -23865,6 +25117,12 @@
         </is>
       </c>
       <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -23992,6 +25250,12 @@
         </is>
       </c>
       <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -24119,6 +25383,12 @@
         </is>
       </c>
       <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -24246,6 +25516,12 @@
         </is>
       </c>
       <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -24373,6 +25649,12 @@
         </is>
       </c>
       <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -24500,6 +25782,12 @@
         </is>
       </c>
       <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -24651,6 +25939,14 @@
       <c r="AK48" t="n">
         <v>0.2988297939300537</v>
       </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM48" t="n">
+        <v>69.27177786827087</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -24794,6 +26090,14 @@
       <c r="AK49" t="n">
         <v>0.2990326881408691</v>
       </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM49" t="n">
+        <v>69.27205610275269</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -24945,6 +26249,14 @@
       <c r="AK50" t="n">
         <v>0.2992334365844727</v>
       </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM50" t="n">
+        <v>69.27239108085632</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -25090,6 +26402,14 @@
       <c r="AK51" t="n">
         <v>0.2994365692138672</v>
       </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM51" t="n">
+        <v>69.27273154258728</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -25223,6 +26543,12 @@
         </is>
       </c>
       <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -25352,6 +26678,12 @@
         </is>
       </c>
       <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -25481,6 +26813,12 @@
         </is>
       </c>
       <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -25610,6 +26948,12 @@
         </is>
       </c>
       <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -25739,6 +27083,12 @@
         </is>
       </c>
       <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -25868,6 +27218,12 @@
         </is>
       </c>
       <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -26019,6 +27375,14 @@
       <c r="AK58" t="n">
         <v>0.2998189926147461</v>
       </c>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM58" t="n">
+        <v>69.27323770523071</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -26166,6 +27530,14 @@
       <c r="AK59" t="n">
         <v>0.3000307083129883</v>
       </c>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM59" t="n">
+        <v>69.27354645729065</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -26317,6 +27689,14 @@
       <c r="AK60" t="n">
         <v>0.3002603054046631</v>
       </c>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM60" t="n">
+        <v>69.27390217781067</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -26466,6 +27846,14 @@
       <c r="AK61" t="n">
         <v>0.3005084991455078</v>
       </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM61" t="n">
+        <v>69.27414083480835</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -26599,6 +27987,12 @@
         </is>
       </c>
       <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -26732,6 +28126,12 @@
         </is>
       </c>
       <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -26861,6 +28261,12 @@
         </is>
       </c>
       <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -26994,6 +28400,12 @@
       <c r="AK65" t="n">
         <v>3618.815064430237</v>
       </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -27125,6 +28537,12 @@
         </is>
       </c>
       <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -27256,6 +28674,12 @@
         </is>
       </c>
       <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -27407,6 +28831,14 @@
       <c r="AK68" t="n">
         <v>0.3008646965026855</v>
       </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM68" t="n">
+        <v>69.27453517913818</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -27558,6 +28990,14 @@
       <c r="AK69" t="n">
         <v>0.3010694980621338</v>
       </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM69" t="n">
+        <v>69.27475953102112</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -27709,6 +29149,14 @@
       <c r="AK70" t="n">
         <v>0.3012707233428955</v>
       </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM70" t="n">
+        <v>69.27503871917725</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -27860,6 +29308,14 @@
       <c r="AK71" t="n">
         <v>0.3014702796936035</v>
       </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM71" t="n">
+        <v>69.27527785301208</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -27995,6 +29451,14 @@
       <c r="AK72" t="n">
         <v>6622.857825040817</v>
       </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM72" t="n">
+        <v>215.9156215190887</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -28130,6 +29594,12 @@
       <c r="AK73" t="n">
         <v>361.0179586410522</v>
       </c>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -28261,6 +29731,12 @@
         </is>
       </c>
       <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -28396,6 +29872,12 @@
       <c r="AK75" t="n">
         <v>3618.815569162369</v>
       </c>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -28531,6 +30013,14 @@
         </is>
       </c>
       <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM76" t="n">
+        <v>5046.529879331589</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -28666,6 +30156,12 @@
         </is>
       </c>
       <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -28817,6 +30313,14 @@
       <c r="AK78" t="n">
         <v>0.3018677234649658</v>
       </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM78" t="n">
+        <v>69.275714635849</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -28968,6 +30472,14 @@
       <c r="AK79" t="n">
         <v>0.3020837306976318</v>
       </c>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM79" t="n">
+        <v>69.27596163749695</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -29119,6 +30631,14 @@
       <c r="AK80" t="n">
         <v>0.3022892475128174</v>
       </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM80" t="n">
+        <v>69.27622437477112</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -29270,6 +30790,14 @@
       <c r="AK81" t="n">
         <v>0.3024966716766357</v>
       </c>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM81" t="n">
+        <v>69.27648234367371</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -29413,6 +30941,14 @@
       <c r="AK82" t="n">
         <v>59.41358256340027</v>
       </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM82" t="n">
+        <v>215.9160602092743</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -29554,6 +31090,12 @@
       <c r="AK83" t="n">
         <v>361.0184092521667</v>
       </c>
+      <c r="AL83" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -29689,6 +31231,12 @@
         </is>
       </c>
       <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -29826,6 +31374,12 @@
         </is>
       </c>
       <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -29959,6 +31513,12 @@
         </is>
       </c>
       <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -30094,6 +31654,14 @@
         </is>
       </c>
       <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM87" t="n">
+        <v>390.4059536457062</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -30245,6 +31813,14 @@
       <c r="AK88" t="n">
         <v>0.3029336929321289</v>
       </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM88" t="n">
+        <v>69.27687525749207</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -30396,6 +31972,14 @@
       <c r="AK89" t="n">
         <v>0.303154468536377</v>
       </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM89" t="n">
+        <v>69.27714729309082</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -30547,6 +32131,14 @@
       <c r="AK90" t="n">
         <v>0.3033607006072998</v>
       </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM90" t="n">
+        <v>69.27741694450378</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -30698,6 +32290,14 @@
       <c r="AK91" t="n">
         <v>0.303617000579834</v>
       </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM91" t="n">
+        <v>69.27765297889709</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -30839,6 +32439,14 @@
       <c r="AK92" t="n">
         <v>59.41411471366882</v>
       </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM92" t="n">
+        <v>215.9164936542511</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -30976,6 +32584,12 @@
         </is>
       </c>
       <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -31117,6 +32731,12 @@
         </is>
       </c>
       <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -31262,6 +32882,12 @@
         </is>
       </c>
       <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -31397,6 +33023,12 @@
         </is>
       </c>
       <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -31534,6 +33166,14 @@
         </is>
       </c>
       <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM97" t="n">
+        <v>390.4063901901245</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -31685,6 +33325,14 @@
       <c r="AK98" t="n">
         <v>0.3039741516113281</v>
       </c>
+      <c r="AL98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM98" t="n">
+        <v>69.27804446220398</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -31836,6 +33484,14 @@
       <c r="AK99" t="n">
         <v>0.3042783737182617</v>
       </c>
+      <c r="AL99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM99" t="n">
+        <v>69.2783088684082</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -31987,6 +33643,14 @@
       <c r="AK100" t="n">
         <v>0.3045015335083008</v>
       </c>
+      <c r="AL100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM100" t="n">
+        <v>69.27856850624084</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -32138,6 +33802,14 @@
       <c r="AK101" t="n">
         <v>0.3047170639038086</v>
       </c>
+      <c r="AL101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM101" t="n">
+        <v>69.27878999710083</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -32277,6 +33949,14 @@
         </is>
       </c>
       <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM102" t="n">
+        <v>215.916880607605</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -32416,6 +34096,14 @@
       <c r="AK103" t="n">
         <v>6622.858665943146</v>
       </c>
+      <c r="AL103" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM103" t="n">
+        <v>390.4066956043243</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -32557,6 +34245,14 @@
       <c r="AK104" t="n">
         <v>9927.227101325989</v>
       </c>
+      <c r="AL104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM104" t="n">
+        <v>669.7345926761627</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -32704,6 +34400,14 @@
       <c r="AK105" t="n">
         <v>9326.431798458099</v>
       </c>
+      <c r="AL105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM105" t="n">
+        <v>1421.01070189476</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -32845,6 +34549,12 @@
       <c r="AK106" t="n">
         <v>9626.870551586151</v>
       </c>
+      <c r="AL106" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -32988,6 +34698,12 @@
         </is>
       </c>
       <c r="AK107" t="inlineStr"/>
+      <c r="AL107" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -33133,6 +34849,14 @@
         </is>
       </c>
       <c r="AK108" t="inlineStr"/>
+      <c r="AL108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM108" t="n">
+        <v>215.9172470569611</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -33284,6 +35008,14 @@
       <c r="AK109" t="n">
         <v>573.2067339420319</v>
       </c>
+      <c r="AL109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM109" t="n">
+        <v>390.4070582389832</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -33433,6 +35165,14 @@
       <c r="AK110" t="n">
         <v>0.3051238059997559</v>
       </c>
+      <c r="AL110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM110" t="n">
+        <v>949.4537813663483</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -33578,6 +35318,14 @@
       <c r="AK111" t="n">
         <v>52.37163949012756</v>
       </c>
+      <c r="AL111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM111" t="n">
+        <v>215.9175391197205</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -33725,6 +35473,14 @@
       <c r="AK112" t="n">
         <v>542.8648698329926</v>
       </c>
+      <c r="AL112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM112" t="n">
+        <v>1761.271523952484</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -33876,6 +35632,14 @@
       <c r="AK113" t="n">
         <v>6622.85910987854</v>
       </c>
+      <c r="AL113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM113" t="n">
+        <v>390.4073667526245</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -34027,6 +35791,14 @@
       <c r="AK114" t="n">
         <v>6322.430923223495</v>
       </c>
+      <c r="AL114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM114" t="n">
+        <v>669.7350463867188</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -34178,6 +35950,14 @@
       <c r="AK115" t="n">
         <v>6622.859457731247</v>
       </c>
+      <c r="AL115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM115" t="n">
+        <v>1421.011140584946</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -34327,6 +36107,14 @@
       <c r="AK116" t="n">
         <v>9626.871334075928</v>
       </c>
+      <c r="AL116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM116" t="n">
+        <v>949.4541816711426</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -34478,6 +36266,14 @@
       <c r="AK117" t="n">
         <v>4820.467465877533</v>
       </c>
+      <c r="AL117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM117" t="n">
+        <v>215.9179031848907</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -34629,6 +36425,14 @@
       <c r="AK118" t="n">
         <v>249.9177541732788</v>
       </c>
+      <c r="AL118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM118" t="n">
+        <v>215.9181520938873</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -34780,6 +36584,14 @@
       <c r="AK119" t="n">
         <v>573.2072389125824</v>
       </c>
+      <c r="AL119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM119" t="n">
+        <v>390.4077007770538</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -34929,6 +36741,14 @@
       <c r="AK120" t="n">
         <v>0.3055601119995117</v>
       </c>
+      <c r="AL120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM120" t="n">
+        <v>949.4544866085052</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -35080,6 +36900,14 @@
       <c r="AK121" t="n">
         <v>52.37230944633484</v>
       </c>
+      <c r="AL121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM121" t="n">
+        <v>215.9184427261353</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -35231,6 +37059,14 @@
       <c r="AK122" t="n">
         <v>542.8653843402863</v>
       </c>
+      <c r="AL122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM122" t="n">
+        <v>1761.272316217422</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -35382,6 +37218,14 @@
       <c r="AK123" t="n">
         <v>16.49281525611877</v>
       </c>
+      <c r="AL123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM123" t="n">
+        <v>9849.654876947403</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -35533,6 +37377,14 @@
       <c r="AK124" t="n">
         <v>24.55307412147522</v>
       </c>
+      <c r="AL124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM124" t="n">
+        <v>5046.530739784241</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -35684,6 +37536,12 @@
       <c r="AK125" t="n">
         <v>111.4319410324097</v>
       </c>
+      <c r="AL125" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -35835,6 +37693,14 @@
       <c r="AK126" t="n">
         <v>18.81633281707764</v>
       </c>
+      <c r="AL126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM126" t="n">
+        <v>949.4549496173859</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -35986,6 +37852,14 @@
       <c r="AK127" t="n">
         <v>127.3100459575653</v>
       </c>
+      <c r="AL127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM127" t="n">
+        <v>215.9188644886017</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -36137,6 +38011,14 @@
       <c r="AK128" t="n">
         <v>249.9181613922119</v>
       </c>
+      <c r="AL128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM128" t="n">
+        <v>215.9191324710846</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -36288,6 +38170,14 @@
       <c r="AK129" t="n">
         <v>110.286776304245</v>
       </c>
+      <c r="AL129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM129" t="n">
+        <v>215.9193994998932</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -36439,6 +38329,14 @@
       <c r="AK130" t="n">
         <v>0.3059885501861572</v>
       </c>
+      <c r="AL130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM130" t="n">
+        <v>669.7355291843414</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -36590,6 +38488,14 @@
       <c r="AK131" t="n">
         <v>16.49329090118408</v>
       </c>
+      <c r="AL131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM131" t="n">
+        <v>1166.973711013794</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -36741,6 +38647,14 @@
       <c r="AK132" t="n">
         <v>1786.06192946434</v>
       </c>
+      <c r="AL132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM132" t="n">
+        <v>9849.65530371666</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -36890,6 +38804,14 @@
       <c r="AK133" t="n">
         <v>16.49366760253906</v>
       </c>
+      <c r="AL133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM133" t="n">
+        <v>9849.655610084534</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -37037,6 +38959,14 @@
       <c r="AK134" t="n">
         <v>24.55350637435913</v>
       </c>
+      <c r="AL134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM134" t="n">
+        <v>5046.531135082245</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -37188,6 +39118,12 @@
       <c r="AK135" t="n">
         <v>111.4323937892914</v>
       </c>
+      <c r="AL135" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -37337,6 +39273,12 @@
       <c r="AK136" t="n">
         <v>18.81708669662476</v>
       </c>
+      <c r="AL136" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -37488,6 +39430,12 @@
       <c r="AK137" t="n">
         <v>127.3105595111847</v>
       </c>
+      <c r="AL137" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AM137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -37639,6 +39587,14 @@
       <c r="AK138" t="n">
         <v>10227.57175683975</v>
       </c>
+      <c r="AL138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM138" t="n">
+        <v>215.9198086261749</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -37788,6 +39744,14 @@
       <c r="AK139" t="n">
         <v>9626.87224650383</v>
       </c>
+      <c r="AL139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM139" t="n">
+        <v>215.9200961589813</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -37939,6 +39903,14 @@
       <c r="AK140" t="n">
         <v>0.3063802719116211</v>
       </c>
+      <c r="AL140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM140" t="n">
+        <v>669.7359595298767</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -38087,6 +40059,14 @@
       </c>
       <c r="AK141" t="n">
         <v>16.49417400360107</v>
+      </c>
+      <c r="AL141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AM141" t="n">
+        <v>5046.531538724899</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T141"/>
+  <dimension ref="A1:U141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,11 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -596,7 +601,10 @@
         <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.428571428571429</v>
+        <v>0.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.366666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -660,6 +668,9 @@
       <c r="T3" t="n">
         <v>0.5</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -722,6 +733,9 @@
       <c r="T4" t="n">
         <v>0.5</v>
       </c>
+      <c r="U4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -784,6 +798,9 @@
       <c r="T5" t="n">
         <v>0.5</v>
       </c>
+      <c r="U5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -846,6 +863,9 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +928,9 @@
       <c r="T7" t="n">
         <v>0.5</v>
       </c>
+      <c r="U7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -968,6 +991,9 @@
         <v>6.5</v>
       </c>
       <c r="T8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U8" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1030,6 +1056,9 @@
         <v>6.5</v>
       </c>
       <c r="T9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U9" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1092,6 +1121,9 @@
         <v>6.5</v>
       </c>
       <c r="T10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U10" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1154,6 +1186,9 @@
         <v>6.5</v>
       </c>
       <c r="T11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U11" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1216,7 +1251,10 @@
         <v>0.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.428571428571429</v>
+        <v>0.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.366666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -1280,6 +1318,9 @@
       <c r="T13" t="n">
         <v>0.5</v>
       </c>
+      <c r="U13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1342,6 +1383,9 @@
       <c r="T14" t="n">
         <v>0.5</v>
       </c>
+      <c r="U14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1402,7 +1446,10 @@
         <v>0.5</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -1466,6 +1513,9 @@
       <c r="T16" t="n">
         <v>0.5</v>
       </c>
+      <c r="U16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1528,6 +1578,9 @@
       <c r="T17" t="n">
         <v>0.5</v>
       </c>
+      <c r="U17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1588,6 +1641,9 @@
         <v>6.5</v>
       </c>
       <c r="T18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U18" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1650,6 +1706,9 @@
         <v>6.5</v>
       </c>
       <c r="T19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U19" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1712,6 +1771,9 @@
         <v>6.5</v>
       </c>
       <c r="T20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U20" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1774,6 +1836,9 @@
         <v>6.5</v>
       </c>
       <c r="T21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U21" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1836,7 +1901,10 @@
         <v>3.5</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -1898,7 +1966,10 @@
         <v>0.5</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6428571428571429</v>
+        <v>3.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="24">
@@ -1960,7 +2031,10 @@
         <v>0.5</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="25">
@@ -2022,7 +2096,10 @@
         <v>0.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.357142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="26">
@@ -2084,7 +2161,10 @@
         <v>1.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.142857142857143</v>
+        <v>3.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="27">
@@ -2146,7 +2226,10 @@
         <v>0.5</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="28">
@@ -2208,6 +2291,9 @@
         <v>6.5</v>
       </c>
       <c r="T28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U28" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2270,6 +2356,9 @@
         <v>6.5</v>
       </c>
       <c r="T29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U29" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -2332,6 +2421,9 @@
         <v>6.5</v>
       </c>
       <c r="T30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U30" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2394,6 +2486,9 @@
         <v>6.5</v>
       </c>
       <c r="T31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U31" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -2456,7 +2551,10 @@
         <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="33">
@@ -2518,7 +2616,10 @@
         <v>0.5</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="34">
@@ -2580,7 +2681,10 @@
         <v>0.5</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="35">
@@ -2642,7 +2746,10 @@
         <v>0.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.285714285714286</v>
+        <v>0.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.233333333333333</v>
       </c>
     </row>
     <row r="36">
@@ -2704,7 +2811,10 @@
         <v>0.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.071428571428571</v>
+        <v>3.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.233333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -2766,7 +2876,10 @@
         <v>0.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -2828,6 +2941,9 @@
         <v>6.5</v>
       </c>
       <c r="T38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U38" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2890,6 +3006,9 @@
         <v>6.5</v>
       </c>
       <c r="T39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U39" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -2952,6 +3071,9 @@
         <v>6.5</v>
       </c>
       <c r="T40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U40" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3014,6 +3136,9 @@
         <v>6.5</v>
       </c>
       <c r="T41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U41" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -3078,6 +3203,9 @@
       <c r="T42" t="n">
         <v>0.5</v>
       </c>
+      <c r="U42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3140,6 +3268,9 @@
       <c r="T43" t="n">
         <v>0.5</v>
       </c>
+      <c r="U43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3200,7 +3331,10 @@
         <v>0.5</v>
       </c>
       <c r="T44" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="45">
@@ -3264,6 +3398,9 @@
       <c r="T45" t="n">
         <v>0.5</v>
       </c>
+      <c r="U45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3326,6 +3463,9 @@
       <c r="T46" t="n">
         <v>0.5</v>
       </c>
+      <c r="U46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3388,6 +3528,9 @@
       <c r="T47" t="n">
         <v>0.5</v>
       </c>
+      <c r="U47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3448,6 +3591,9 @@
         <v>6.5</v>
       </c>
       <c r="T48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U48" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3510,6 +3656,9 @@
         <v>6.5</v>
       </c>
       <c r="T49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U49" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -3572,6 +3721,9 @@
         <v>6.5</v>
       </c>
       <c r="T50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U50" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3634,6 +3786,9 @@
         <v>6.5</v>
       </c>
       <c r="T51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U51" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -3696,7 +3851,10 @@
         <v>0.5</v>
       </c>
       <c r="T52" t="n">
-        <v>1.233333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.176923076923077</v>
       </c>
     </row>
     <row r="53">
@@ -3760,6 +3918,9 @@
       <c r="T53" t="n">
         <v>0.5</v>
       </c>
+      <c r="U53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3822,6 +3983,9 @@
       <c r="T54" t="n">
         <v>0.5</v>
       </c>
+      <c r="U54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3884,6 +4048,9 @@
       <c r="T55" t="n">
         <v>0.5</v>
       </c>
+      <c r="U55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3946,6 +4113,9 @@
       <c r="T56" t="n">
         <v>0.5</v>
       </c>
+      <c r="U56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4008,6 +4178,9 @@
       <c r="T57" t="n">
         <v>0.5</v>
       </c>
+      <c r="U57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4068,6 +4241,9 @@
         <v>6.5</v>
       </c>
       <c r="T58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U58" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4130,6 +4306,9 @@
         <v>6.5</v>
       </c>
       <c r="T59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U59" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -4192,6 +4371,9 @@
         <v>6.5</v>
       </c>
       <c r="T60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U60" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4254,6 +4436,9 @@
         <v>6.5</v>
       </c>
       <c r="T61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U61" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -4316,7 +4501,10 @@
         <v>0.5</v>
       </c>
       <c r="T62" t="n">
-        <v>1.233333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.176923076923077</v>
       </c>
     </row>
     <row r="63">
@@ -4378,7 +4566,10 @@
         <v>0.5</v>
       </c>
       <c r="T63" t="n">
-        <v>1.166666666666667</v>
+        <v>3.5</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.346153846153846</v>
       </c>
     </row>
     <row r="64">
@@ -4442,6 +4633,9 @@
       <c r="T64" t="n">
         <v>0.5</v>
       </c>
+      <c r="U64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4502,7 +4696,10 @@
         <v>0.5</v>
       </c>
       <c r="T65" t="n">
-        <v>0.6666666666666666</v>
+        <v>7.5</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.192307692307692</v>
       </c>
     </row>
     <row r="66">
@@ -4564,7 +4761,10 @@
         <v>0.5</v>
       </c>
       <c r="T66" t="n">
-        <v>0.6666666666666666</v>
+        <v>7.5</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.192307692307692</v>
       </c>
     </row>
     <row r="67">
@@ -4626,7 +4826,10 @@
         <v>0.5</v>
       </c>
       <c r="T67" t="n">
-        <v>0.5833333333333334</v>
+        <v>1.5</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="68">
@@ -4688,6 +4891,9 @@
         <v>6.5</v>
       </c>
       <c r="T68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U68" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4750,6 +4956,9 @@
         <v>6.5</v>
       </c>
       <c r="T69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U69" t="n">
         <v>5.1</v>
       </c>
     </row>
@@ -4812,6 +5021,9 @@
         <v>6.5</v>
       </c>
       <c r="T70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U70" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4874,6 +5086,9 @@
         <v>6.5</v>
       </c>
       <c r="T71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U71" t="n">
         <v>6.3</v>
       </c>
     </row>
@@ -4936,7 +5151,10 @@
         <v>5.5</v>
       </c>
       <c r="T72" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.423076923076923</v>
       </c>
     </row>
     <row r="73">
@@ -4998,7 +5216,10 @@
         <v>0.5</v>
       </c>
       <c r="T73" t="n">
-        <v>1.583333333333333</v>
+        <v>3.5</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.730769230769231</v>
       </c>
     </row>
     <row r="74">
@@ -5060,7 +5281,10 @@
         <v>0.5</v>
       </c>
       <c r="T74" t="n">
-        <v>0.9166666666666666</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1.484615384615385</v>
       </c>
     </row>
     <row r="75">
@@ -5122,7 +5346,10 @@
         <v>0.5</v>
       </c>
       <c r="T75" t="n">
-        <v>0.8333333333333334</v>
+        <v>7.5</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.346153846153846</v>
       </c>
     </row>
     <row r="76">
@@ -5184,7 +5411,10 @@
         <v>1.5</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="77">
@@ -5246,7 +5476,10 @@
         <v>0.5</v>
       </c>
       <c r="T77" t="n">
-        <v>1.583333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="78">
@@ -5308,6 +5541,9 @@
         <v>6.5</v>
       </c>
       <c r="T78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U78" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5370,6 +5606,9 @@
         <v>6.5</v>
       </c>
       <c r="T79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U79" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -5432,6 +5671,9 @@
         <v>6.5</v>
       </c>
       <c r="T80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U80" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5494,6 +5736,9 @@
         <v>6.5</v>
       </c>
       <c r="T81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5556,7 +5801,10 @@
         <v>5.5</v>
       </c>
       <c r="T82" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3.730769230769231</v>
       </c>
     </row>
     <row r="83">
@@ -5618,7 +5866,10 @@
         <v>0.5</v>
       </c>
       <c r="T83" t="n">
-        <v>1.583333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="84">
@@ -5680,7 +5931,10 @@
         <v>0.5</v>
       </c>
       <c r="T84" t="n">
-        <v>1.25</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.792307692307692</v>
       </c>
     </row>
     <row r="85">
@@ -5742,7 +5996,10 @@
         <v>0.5</v>
       </c>
       <c r="T85" t="n">
-        <v>1.583333333333333</v>
+        <v>1.5</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.576923076923077</v>
       </c>
     </row>
     <row r="86">
@@ -5804,7 +6061,10 @@
         <v>0.5</v>
       </c>
       <c r="T86" t="n">
-        <v>1.083333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.038461538461539</v>
       </c>
     </row>
     <row r="87">
@@ -5866,7 +6126,10 @@
         <v>4.5</v>
       </c>
       <c r="T87" t="n">
-        <v>1.916666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1.807692307692308</v>
       </c>
     </row>
     <row r="88">
@@ -5928,6 +6191,9 @@
         <v>6.5</v>
       </c>
       <c r="T88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U88" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5990,6 +6256,9 @@
         <v>6.5</v>
       </c>
       <c r="T89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6052,6 +6321,9 @@
         <v>6.5</v>
       </c>
       <c r="T90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U90" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6114,6 +6386,9 @@
         <v>6.5</v>
       </c>
       <c r="T91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U91" t="n">
         <v>6.459999999999999</v>
       </c>
     </row>
@@ -6176,7 +6451,10 @@
         <v>5.5</v>
       </c>
       <c r="T92" t="n">
-        <v>2.583333333333333</v>
+        <v>3.5</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.653846153846154</v>
       </c>
     </row>
     <row r="93">
@@ -6238,7 +6516,10 @@
         <v>0.5</v>
       </c>
       <c r="T93" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.192307692307692</v>
       </c>
     </row>
     <row r="94">
@@ -6300,7 +6581,10 @@
         <v>0.5</v>
       </c>
       <c r="T94" t="n">
-        <v>2.166666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.038461538461538</v>
       </c>
     </row>
     <row r="95">
@@ -6362,7 +6646,10 @@
         <v>0.5</v>
       </c>
       <c r="T95" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.653846153846154</v>
       </c>
     </row>
     <row r="96">
@@ -6424,7 +6711,10 @@
         <v>0.5</v>
       </c>
       <c r="T96" t="n">
-        <v>1.333333333333333</v>
+        <v>1.5</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1.346153846153846</v>
       </c>
     </row>
     <row r="97">
@@ -6486,7 +6776,10 @@
         <v>4.5</v>
       </c>
       <c r="T97" t="n">
-        <v>1.916666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1.807692307692308</v>
       </c>
     </row>
     <row r="98">
@@ -6548,6 +6841,9 @@
         <v>6.5</v>
       </c>
       <c r="T98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U98" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6610,6 +6906,9 @@
         <v>6.5</v>
       </c>
       <c r="T99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U99" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -6672,6 +6971,9 @@
         <v>6.5</v>
       </c>
       <c r="T100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U100" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6734,6 +7036,9 @@
         <v>6.5</v>
       </c>
       <c r="T101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U101" t="n">
         <v>6.659999999999999</v>
       </c>
     </row>
@@ -6796,7 +7101,10 @@
         <v>5.5</v>
       </c>
       <c r="T102" t="n">
-        <v>3.342857142857143</v>
+        <v>0.5</v>
+      </c>
+      <c r="U102" t="n">
+        <v>3.153333333333333</v>
       </c>
     </row>
     <row r="103">
@@ -6858,7 +7166,10 @@
         <v>4.5</v>
       </c>
       <c r="T103" t="n">
-        <v>2.428571428571428</v>
+        <v>1.5</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.366666666666667</v>
       </c>
     </row>
     <row r="104">
@@ -6920,7 +7231,10 @@
         <v>3.5</v>
       </c>
       <c r="T104" t="n">
-        <v>2.785714285714286</v>
+        <v>1.5</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="105">
@@ -6982,7 +7296,10 @@
         <v>3.5</v>
       </c>
       <c r="T105" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="U105" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="106">
@@ -7044,7 +7361,10 @@
         <v>0.5</v>
       </c>
       <c r="T106" t="n">
-        <v>2.928571428571428</v>
+        <v>0.5</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.766666666666667</v>
       </c>
     </row>
     <row r="107">
@@ -7106,7 +7426,10 @@
         <v>0.5</v>
       </c>
       <c r="T107" t="n">
-        <v>3.485714285714285</v>
+        <v>6.5</v>
+      </c>
+      <c r="U107" t="n">
+        <v>3.686666666666667</v>
       </c>
     </row>
     <row r="108">
@@ -7168,7 +7491,10 @@
         <v>5.5</v>
       </c>
       <c r="T108" t="n">
-        <v>4.307142857142857</v>
+        <v>6.5</v>
+      </c>
+      <c r="U108" t="n">
+        <v>4.453333333333333</v>
       </c>
     </row>
     <row r="109">
@@ -7230,7 +7556,10 @@
         <v>4.5</v>
       </c>
       <c r="T109" t="n">
-        <v>4.755555555555556</v>
+        <v>7.5</v>
+      </c>
+      <c r="U109" t="n">
+        <v>4.899999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -7292,7 +7621,10 @@
         <v>3.5</v>
       </c>
       <c r="T110" t="n">
-        <v>5.125</v>
+        <v>0.5</v>
+      </c>
+      <c r="U110" t="n">
+        <v>4.611111111111111</v>
       </c>
     </row>
     <row r="111">
@@ -7354,6 +7686,9 @@
         <v>5.5</v>
       </c>
       <c r="T111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U111" t="n">
         <v>5.466666666666667</v>
       </c>
     </row>
@@ -7416,7 +7751,10 @@
         <v>3.5</v>
       </c>
       <c r="T112" t="n">
-        <v>5.371428571428572</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U112" t="n">
+        <v>5.566666666666666</v>
       </c>
     </row>
     <row r="113">
@@ -7478,7 +7816,10 @@
         <v>4.5</v>
       </c>
       <c r="T113" t="n">
-        <v>5.707142857142857</v>
+        <v>1.5</v>
+      </c>
+      <c r="U113" t="n">
+        <v>5.426666666666667</v>
       </c>
     </row>
     <row r="114">
@@ -7540,7 +7881,10 @@
         <v>3.5</v>
       </c>
       <c r="T114" t="n">
-        <v>6.357142857142857</v>
+        <v>1.5</v>
+      </c>
+      <c r="U114" t="n">
+        <v>6.033333333333333</v>
       </c>
     </row>
     <row r="115">
@@ -7602,7 +7946,10 @@
         <v>3.5</v>
       </c>
       <c r="T115" t="n">
-        <v>5.128571428571428</v>
+        <v>2.5</v>
+      </c>
+      <c r="U115" t="n">
+        <v>4.953333333333333</v>
       </c>
     </row>
     <row r="116">
@@ -7664,7 +8011,10 @@
         <v>3.5</v>
       </c>
       <c r="T116" t="n">
-        <v>5.071428571428571</v>
+        <v>3.5</v>
+      </c>
+      <c r="U116" t="n">
+        <v>4.966666666666667</v>
       </c>
     </row>
     <row r="117">
@@ -7726,7 +8076,10 @@
         <v>5.5</v>
       </c>
       <c r="T117" t="n">
-        <v>5.838461538461538</v>
+        <v>6.5</v>
+      </c>
+      <c r="U117" t="n">
+        <v>5.885714285714285</v>
       </c>
     </row>
     <row r="118">
@@ -7788,7 +8141,10 @@
         <v>5.5</v>
       </c>
       <c r="T118" t="n">
-        <v>6.149999999999999</v>
+        <v>6.5</v>
+      </c>
+      <c r="U118" t="n">
+        <v>6.173333333333333</v>
       </c>
     </row>
     <row r="119">
@@ -7850,7 +8206,10 @@
         <v>4.5</v>
       </c>
       <c r="T119" t="n">
-        <v>5.923529411764706</v>
+        <v>7.5</v>
+      </c>
+      <c r="U119" t="n">
+        <v>6.011111111111111</v>
       </c>
     </row>
     <row r="120">
@@ -7912,7 +8271,10 @@
         <v>3.5</v>
       </c>
       <c r="T120" t="n">
-        <v>5.125</v>
+        <v>7.5</v>
+      </c>
+      <c r="U120" t="n">
+        <v>5.388888888888889</v>
       </c>
     </row>
     <row r="121">
@@ -7974,6 +8336,9 @@
         <v>5.5</v>
       </c>
       <c r="T121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U121" t="n">
         <v>7.441176470588236</v>
       </c>
     </row>
@@ -8036,7 +8401,10 @@
         <v>3.5</v>
       </c>
       <c r="T122" t="n">
-        <v>7.485714285714286</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U122" t="n">
+        <v>7.54</v>
       </c>
     </row>
     <row r="123">
@@ -8098,7 +8466,10 @@
         <v>1.5</v>
       </c>
       <c r="T123" t="n">
-        <v>7.135714285714285</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U123" t="n">
+        <v>7.213333333333333</v>
       </c>
     </row>
     <row r="124">
@@ -8160,7 +8531,10 @@
         <v>1.5</v>
       </c>
       <c r="T124" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
+      </c>
+      <c r="U124" t="n">
+        <v>7.128571428571428</v>
       </c>
     </row>
     <row r="125">
@@ -8222,7 +8596,10 @@
         <v>0.5</v>
       </c>
       <c r="T125" t="n">
-        <v>6.828571428571428</v>
+        <v>2.5</v>
+      </c>
+      <c r="U125" t="n">
+        <v>6.54</v>
       </c>
     </row>
     <row r="126">
@@ -8284,7 +8661,10 @@
         <v>3.5</v>
       </c>
       <c r="T126" t="n">
-        <v>7.028571428571428</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U126" t="n">
+        <v>7.113333333333332</v>
       </c>
     </row>
     <row r="127">
@@ -8346,6 +8726,9 @@
         <v>5.5</v>
       </c>
       <c r="T127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U127" t="n">
         <v>7.415384615384615</v>
       </c>
     </row>
@@ -8408,7 +8791,10 @@
         <v>5.5</v>
       </c>
       <c r="T128" t="n">
-        <v>6.869230769230769</v>
+        <v>5.5</v>
+      </c>
+      <c r="U128" t="n">
+        <v>6.771428571428571</v>
       </c>
     </row>
     <row r="129">
@@ -8470,7 +8856,10 @@
         <v>5.5</v>
       </c>
       <c r="T129" t="n">
-        <v>7.172222222222222</v>
+        <v>1.5</v>
+      </c>
+      <c r="U129" t="n">
+        <v>6.873684210526315</v>
       </c>
     </row>
     <row r="130">
@@ -8532,7 +8921,10 @@
         <v>3.5</v>
       </c>
       <c r="T130" t="n">
-        <v>7.4125</v>
+        <v>7.5</v>
+      </c>
+      <c r="U130" t="n">
+        <v>7.422222222222222</v>
       </c>
     </row>
     <row r="131">
@@ -8594,6 +8986,9 @@
         <v>3.5</v>
       </c>
       <c r="T131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U131" t="n">
         <v>7.447058823529412</v>
       </c>
     </row>
@@ -8656,7 +9051,10 @@
         <v>1.5</v>
       </c>
       <c r="T132" t="n">
-        <v>6.171428571428571</v>
+        <v>0.5</v>
+      </c>
+      <c r="U132" t="n">
+        <v>5.793333333333333</v>
       </c>
     </row>
     <row r="133">
@@ -8718,7 +9116,10 @@
         <v>1.5</v>
       </c>
       <c r="T133" t="n">
-        <v>4.714285714285714</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U133" t="n">
+        <v>4.953333333333333</v>
       </c>
     </row>
     <row r="134">
@@ -8780,7 +9181,10 @@
         <v>1.5</v>
       </c>
       <c r="T134" t="n">
-        <v>3.485714285714285</v>
+        <v>7.5</v>
+      </c>
+      <c r="U134" t="n">
+        <v>3.753333333333333</v>
       </c>
     </row>
     <row r="135">
@@ -8842,7 +9246,10 @@
         <v>0.5</v>
       </c>
       <c r="T135" t="n">
-        <v>6.057142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="U135" t="n">
+        <v>5.686666666666667</v>
       </c>
     </row>
     <row r="136">
@@ -8904,7 +9311,10 @@
         <v>0.5</v>
       </c>
       <c r="T136" t="n">
-        <v>5.6</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U136" t="n">
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="137">
@@ -8966,6 +9376,9 @@
         <v>0.5</v>
       </c>
       <c r="T137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U137" t="n">
         <v>5.878571428571428</v>
       </c>
     </row>
@@ -9028,7 +9441,10 @@
         <v>5.5</v>
       </c>
       <c r="T138" t="n">
-        <v>6.115384615384615</v>
+        <v>5.5</v>
+      </c>
+      <c r="U138" t="n">
+        <v>6.071428571428571</v>
       </c>
     </row>
     <row r="139">
@@ -9090,7 +9506,10 @@
         <v>5.5</v>
       </c>
       <c r="T139" t="n">
-        <v>6.058823529411764</v>
+        <v>1.5</v>
+      </c>
+      <c r="U139" t="n">
+        <v>5.805555555555555</v>
       </c>
     </row>
     <row r="140">
@@ -9152,7 +9571,10 @@
         <v>3.5</v>
       </c>
       <c r="T140" t="n">
-        <v>7.5125</v>
+        <v>1.5</v>
+      </c>
+      <c r="U140" t="n">
+        <v>6.844444444444445</v>
       </c>
     </row>
     <row r="141">
@@ -9214,6 +9636,9 @@
         <v>1.5</v>
       </c>
       <c r="T141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U141" t="n">
         <v>5.616666666666667</v>
       </c>
     </row>
@@ -9228,7 +9653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S141"/>
+  <dimension ref="A1:T141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9332,6 +9757,11 @@
           <t>2023-08-05</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -9413,6 +9843,11 @@
       <c r="S2" t="n">
         <v>9849.65266251564</v>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -9500,6 +9935,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -9587,6 +10027,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -9674,6 +10119,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -9761,6 +10211,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -9848,6 +10303,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -9907,6 +10367,9 @@
       <c r="S8" t="n">
         <v>69.2667064666748</v>
       </c>
+      <c r="T8" t="n">
+        <v>0.3309614658355713</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -9966,6 +10429,9 @@
       <c r="S9" t="n">
         <v>69.26703596115112</v>
       </c>
+      <c r="T9" t="n">
+        <v>0.3312861919403076</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -10025,6 +10491,9 @@
       <c r="S10" t="n">
         <v>69.2673556804657</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.3315701484680176</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -10084,6 +10553,9 @@
       <c r="S11" t="n">
         <v>69.26759672164917</v>
       </c>
+      <c r="T11" t="n">
+        <v>0.33182692527771</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -10165,6 +10637,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -10252,6 +10729,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -10339,6 +10821,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -10422,6 +10909,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -10509,6 +11001,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -10596,6 +11093,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -10655,6 +11157,9 @@
       <c r="S18" t="n">
         <v>69.26804113388062</v>
       </c>
+      <c r="T18" t="n">
+        <v>0.3322572708129883</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -10714,6 +11219,9 @@
       <c r="S19" t="n">
         <v>69.26840591430664</v>
       </c>
+      <c r="T19" t="n">
+        <v>0.3325254917144775</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -10773,6 +11281,9 @@
       <c r="S20" t="n">
         <v>69.26866126060486</v>
       </c>
+      <c r="T20" t="n">
+        <v>0.3327574729919434</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -10832,6 +11343,9 @@
       <c r="S21" t="n">
         <v>69.26889848709106</v>
       </c>
+      <c r="T21" t="n">
+        <v>0.3329973220825195</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -10915,6 +11429,11 @@
       <c r="S22" t="n">
         <v>949.451828956604</v>
       </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -11000,6 +11519,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T23" t="n">
+        <v>696.2873520851135</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -11083,6 +11605,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -11164,6 +11691,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -11245,6 +11777,9 @@
       <c r="S26" t="n">
         <v>5046.528620004654</v>
       </c>
+      <c r="T26" t="n">
+        <v>665.9823403358459</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -11328,6 +11863,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -11387,6 +11927,9 @@
       <c r="S28" t="n">
         <v>69.26935029029846</v>
       </c>
+      <c r="T28" t="n">
+        <v>0.3333635330200195</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -11446,6 +11989,9 @@
       <c r="S29" t="n">
         <v>69.2695894241333</v>
       </c>
+      <c r="T29" t="n">
+        <v>0.3336594104766846</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -11505,6 +12051,9 @@
       <c r="S30" t="n">
         <v>69.26984047889709</v>
       </c>
+      <c r="T30" t="n">
+        <v>0.3339364528656006</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -11564,6 +12113,9 @@
       <c r="S31" t="n">
         <v>69.27007579803467</v>
       </c>
+      <c r="T31" t="n">
+        <v>0.3341646194458008</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -11649,6 +12201,11 @@
       <c r="S32" t="n">
         <v>949.4523429870605</v>
       </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -11736,6 +12293,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T33" t="n">
+        <v>696.2877736091614</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -11821,6 +12381,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -11904,6 +12469,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -11987,6 +12557,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T36" t="n">
+        <v>665.9828178882599</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -12068,6 +12641,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -12127,6 +12705,9 @@
       <c r="S38" t="n">
         <v>69.27047896385193</v>
       </c>
+      <c r="T38" t="n">
+        <v>0.3345532417297363</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -12186,6 +12767,9 @@
       <c r="S39" t="n">
         <v>69.27070736885071</v>
       </c>
+      <c r="T39" t="n">
+        <v>0.3347995281219482</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -12245,6 +12829,9 @@
       <c r="S40" t="n">
         <v>69.27103447914124</v>
       </c>
+      <c r="T40" t="n">
+        <v>0.3350331783294678</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -12304,6 +12891,9 @@
       <c r="S41" t="n">
         <v>69.27133059501648</v>
       </c>
+      <c r="T41" t="n">
+        <v>0.3352701663970947</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -12389,6 +12979,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -12474,6 +13069,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -12559,6 +13159,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T44" t="n">
+        <v>9327.192644834518</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -12644,6 +13247,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -12729,6 +13337,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -12814,6 +13427,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -12873,6 +13491,9 @@
       <c r="S48" t="n">
         <v>69.27177786827087</v>
       </c>
+      <c r="T48" t="n">
+        <v>0.3356804847717285</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -12940,6 +13561,9 @@
       <c r="S49" t="n">
         <v>69.27205610275269</v>
       </c>
+      <c r="T49" t="n">
+        <v>0.3359401226043701</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -12999,6 +13623,9 @@
       <c r="S50" t="n">
         <v>69.27239108085632</v>
       </c>
+      <c r="T50" t="n">
+        <v>0.3361854553222656</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -13064,6 +13691,9 @@
       <c r="S51" t="n">
         <v>69.27273154258728</v>
       </c>
+      <c r="T51" t="n">
+        <v>0.3364145755767822</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -13143,6 +13773,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -13226,6 +13861,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -13309,6 +13949,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -13392,6 +14037,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -13475,6 +14125,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -13558,6 +14213,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -13617,6 +14277,9 @@
       <c r="S58" t="n">
         <v>69.27323770523071</v>
       </c>
+      <c r="T58" t="n">
+        <v>0.3368353843688965</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -13680,6 +14343,9 @@
       <c r="S59" t="n">
         <v>69.27354645729065</v>
       </c>
+      <c r="T59" t="n">
+        <v>0.337080717086792</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -13739,6 +14405,9 @@
       <c r="S60" t="n">
         <v>69.27390217781067</v>
       </c>
+      <c r="T60" t="n">
+        <v>0.3373246192932129</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -13800,6 +14469,9 @@
       <c r="S61" t="n">
         <v>69.27414083480835</v>
       </c>
+      <c r="T61" t="n">
+        <v>0.3375518321990967</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -13879,6 +14551,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -13958,6 +14635,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T63" t="n">
+        <v>635.6762068271637</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -14041,6 +14721,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -14120,6 +14805,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T65" t="n">
+        <v>36.12454319000244</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -14201,6 +14889,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T66" t="n">
+        <v>59.16469860076904</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -14282,6 +14973,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T67" t="n">
+        <v>8125.598339319229</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -14341,6 +15035,9 @@
       <c r="S68" t="n">
         <v>69.27453517913818</v>
       </c>
+      <c r="T68" t="n">
+        <v>0.3379480838775635</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -14400,6 +15097,9 @@
       <c r="S69" t="n">
         <v>69.27475953102112</v>
       </c>
+      <c r="T69" t="n">
+        <v>0.3381791114807129</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -14459,6 +15159,9 @@
       <c r="S70" t="n">
         <v>69.27503871917725</v>
       </c>
+      <c r="T70" t="n">
+        <v>0.3384037017822266</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -14518,6 +15221,9 @@
       <c r="S71" t="n">
         <v>69.27527785301208</v>
       </c>
+      <c r="T71" t="n">
+        <v>0.3386387825012207</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -14593,6 +15299,11 @@
       <c r="S72" t="n">
         <v>215.9156215190887</v>
       </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -14670,6 +15381,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T73" t="n">
+        <v>635.6766347885132</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -14751,6 +15465,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T74" t="n">
+        <v>28.12811851501465</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -14828,6 +15545,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T75" t="n">
+        <v>36.1251208782196</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -14903,6 +15623,11 @@
       <c r="S76" t="n">
         <v>5046.529879331589</v>
       </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -14980,6 +15705,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -15039,6 +15769,9 @@
       <c r="S78" t="n">
         <v>69.275714635849</v>
       </c>
+      <c r="T78" t="n">
+        <v>0.339055061340332</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -15098,6 +15831,9 @@
       <c r="S79" t="n">
         <v>69.27596163749695</v>
       </c>
+      <c r="T79" t="n">
+        <v>0.3392820358276367</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -15157,6 +15893,9 @@
       <c r="S80" t="n">
         <v>69.27622437477112</v>
       </c>
+      <c r="T80" t="n">
+        <v>0.3395049571990967</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -15216,6 +15955,9 @@
       <c r="S81" t="n">
         <v>69.27648234367371</v>
       </c>
+      <c r="T81" t="n">
+        <v>0.3397276401519775</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -15283,6 +16025,9 @@
       <c r="S82" t="n">
         <v>215.9160602092743</v>
       </c>
+      <c r="T82" t="n">
+        <v>1484.273001909256</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -15354,6 +16099,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -15431,6 +16181,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T84" t="n">
+        <v>28.12871408462524</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -15506,6 +16259,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T85" t="n">
+        <v>9327.193452596664</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -15585,6 +16341,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -15660,6 +16421,11 @@
       <c r="S87" t="n">
         <v>390.4059536457062</v>
       </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -15719,6 +16485,9 @@
       <c r="S88" t="n">
         <v>69.27687525749207</v>
       </c>
+      <c r="T88" t="n">
+        <v>0.3401272296905518</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -15778,6 +16547,9 @@
       <c r="S89" t="n">
         <v>69.27714729309082</v>
       </c>
+      <c r="T89" t="n">
+        <v>0.3403844833374023</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -15837,6 +16609,9 @@
       <c r="S90" t="n">
         <v>69.27741694450378</v>
       </c>
+      <c r="T90" t="n">
+        <v>0.3406198024749756</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -15896,6 +16671,9 @@
       <c r="S91" t="n">
         <v>69.27765297889709</v>
       </c>
+      <c r="T91" t="n">
+        <v>0.3408374786376953</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -15965,6 +16743,9 @@
       <c r="S92" t="n">
         <v>215.9164936542511</v>
       </c>
+      <c r="T92" t="n">
+        <v>1484.273565530777</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -16040,6 +16821,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -16111,6 +16897,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -16178,6 +16969,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T95" t="n">
+        <v>9327.193837165833</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -16255,6 +17049,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T96" t="n">
+        <v>6022.771978139877</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -16328,6 +17125,11 @@
       <c r="S97" t="n">
         <v>390.4063901901245</v>
       </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -16387,6 +17189,9 @@
       <c r="S98" t="n">
         <v>69.27804446220398</v>
       </c>
+      <c r="T98" t="n">
+        <v>0.3412449359893799</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -16446,6 +17251,9 @@
       <c r="S99" t="n">
         <v>69.2783088684082</v>
       </c>
+      <c r="T99" t="n">
+        <v>0.3414735794067383</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -16505,6 +17313,9 @@
       <c r="S100" t="n">
         <v>69.27856850624084</v>
       </c>
+      <c r="T100" t="n">
+        <v>0.3417279720306396</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -16564,6 +17375,9 @@
       <c r="S101" t="n">
         <v>69.27878999710083</v>
       </c>
+      <c r="T101" t="n">
+        <v>0.3419837951660156</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -16635,6 +17449,11 @@
       <c r="S102" t="n">
         <v>215.916880607605</v>
       </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -16706,6 +17525,9 @@
       <c r="S103" t="n">
         <v>390.4066956043243</v>
       </c>
+      <c r="T103" t="n">
+        <v>3619.668974637985</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -16775,6 +17597,9 @@
       <c r="S104" t="n">
         <v>669.7345926761627</v>
       </c>
+      <c r="T104" t="n">
+        <v>3920.04616189003</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -16838,6 +17663,11 @@
       <c r="S105" t="n">
         <v>1421.01070189476</v>
       </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -16909,6 +17739,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -16978,6 +17813,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T107" t="n">
+        <v>68.36622977256775</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -17043,6 +17881,9 @@
       <c r="S108" t="n">
         <v>215.9172470569611</v>
       </c>
+      <c r="T108" t="n">
+        <v>100.5986478328705</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -17102,6 +17943,9 @@
       <c r="S109" t="n">
         <v>390.4070582389832</v>
       </c>
+      <c r="T109" t="n">
+        <v>46.45414757728577</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -17163,6 +18007,11 @@
       <c r="S110" t="n">
         <v>949.4537813663483</v>
       </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -17228,6 +18077,9 @@
       <c r="S111" t="n">
         <v>215.9175391197205</v>
       </c>
+      <c r="T111" t="n">
+        <v>0.3424909114837646</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -17291,6 +18143,9 @@
       <c r="S112" t="n">
         <v>1761.271523952484</v>
       </c>
+      <c r="T112" t="n">
+        <v>22.39334273338318</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -17350,6 +18205,9 @@
       <c r="S113" t="n">
         <v>390.4073667526245</v>
       </c>
+      <c r="T113" t="n">
+        <v>3619.669440031052</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -17409,6 +18267,9 @@
       <c r="S114" t="n">
         <v>669.7350463867188</v>
       </c>
+      <c r="T114" t="n">
+        <v>3920.046698331833</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -17468,6 +18329,9 @@
       <c r="S115" t="n">
         <v>1421.011140584946</v>
       </c>
+      <c r="T115" t="n">
+        <v>3319.237409353256</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -17529,6 +18393,9 @@
       <c r="S116" t="n">
         <v>949.4541816711426</v>
       </c>
+      <c r="T116" t="n">
+        <v>1453.974230289459</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -17588,6 +18455,9 @@
       <c r="S117" t="n">
         <v>215.9179031848907</v>
       </c>
+      <c r="T117" t="n">
+        <v>68.36682605743408</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -17647,6 +18517,9 @@
       <c r="S118" t="n">
         <v>215.9181520938873</v>
       </c>
+      <c r="T118" t="n">
+        <v>100.5992238521576</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -17706,6 +18579,9 @@
       <c r="S119" t="n">
         <v>390.4077007770538</v>
       </c>
+      <c r="T119" t="n">
+        <v>47.59105610847473</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -17767,6 +18643,9 @@
       <c r="S120" t="n">
         <v>949.4544866085052</v>
       </c>
+      <c r="T120" t="n">
+        <v>46.45486497879028</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -17826,6 +18705,9 @@
       <c r="S121" t="n">
         <v>215.9184427261353</v>
       </c>
+      <c r="T121" t="n">
+        <v>0.3429574966430664</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -17885,6 +18767,9 @@
       <c r="S122" t="n">
         <v>1761.272316217422</v>
       </c>
+      <c r="T122" t="n">
+        <v>22.39390254020691</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -17944,6 +18829,9 @@
       <c r="S123" t="n">
         <v>9849.654876947403</v>
       </c>
+      <c r="T123" t="n">
+        <v>16.59382224082947</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -18003,6 +18891,9 @@
       <c r="S124" t="n">
         <v>5046.530739784241</v>
       </c>
+      <c r="T124" t="n">
+        <v>31.55760145187378</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -18064,6 +18955,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T125" t="n">
+        <v>3319.237944602966</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -18123,6 +19017,9 @@
       <c r="S126" t="n">
         <v>949.4549496173859</v>
       </c>
+      <c r="T126" t="n">
+        <v>16.59454321861267</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -18182,6 +19079,9 @@
       <c r="S127" t="n">
         <v>215.9188644886017</v>
       </c>
+      <c r="T127" t="n">
+        <v>0.3433325290679932</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -18241,6 +19141,9 @@
       <c r="S128" t="n">
         <v>215.9191324710846</v>
       </c>
+      <c r="T128" t="n">
+        <v>185.036116361618</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -18300,6 +19203,9 @@
       <c r="S129" t="n">
         <v>215.9193994998932</v>
       </c>
+      <c r="T129" t="n">
+        <v>4520.790694475174</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -18359,6 +19265,9 @@
       <c r="S130" t="n">
         <v>669.7355291843414</v>
       </c>
+      <c r="T130" t="n">
+        <v>46.45536112785339</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -18418,6 +19327,9 @@
       <c r="S131" t="n">
         <v>1166.973711013794</v>
       </c>
+      <c r="T131" t="n">
+        <v>0.3436167240142822</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -18477,6 +19389,11 @@
       <c r="S132" t="n">
         <v>9849.65530371666</v>
       </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -18538,6 +19455,9 @@
       <c r="S133" t="n">
         <v>9849.655610084534</v>
       </c>
+      <c r="T133" t="n">
+        <v>16.59505081176758</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -18601,6 +19521,9 @@
       <c r="S134" t="n">
         <v>5046.531135082245</v>
       </c>
+      <c r="T134" t="n">
+        <v>31.55826711654663</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -18662,6 +19585,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -18725,6 +19653,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T136" t="n">
+        <v>16.59540486335754</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -18786,6 +19717,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="T137" t="n">
+        <v>0.3439445495605469</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -18845,6 +19779,9 @@
       <c r="S138" t="n">
         <v>215.9198086261749</v>
       </c>
+      <c r="T138" t="n">
+        <v>185.0368554592133</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -18906,6 +19843,9 @@
       <c r="S139" t="n">
         <v>215.9200961589813</v>
       </c>
+      <c r="T139" t="n">
+        <v>4520.791137695312</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -18965,6 +19905,9 @@
       <c r="S140" t="n">
         <v>669.7359595298767</v>
       </c>
+      <c r="T140" t="n">
+        <v>9026.793451070786</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -19025,6 +19968,9 @@
       </c>
       <c r="S141" t="n">
         <v>5046.531538724899</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0.3443026542663574</v>
       </c>
     </row>
   </sheetData>
@@ -19038,7 +19984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM141"/>
+  <dimension ref="A1:AO141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19242,6 +20188,16 @@
           <t>2023-08-05</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -19379,6 +20335,12 @@
       <c r="AM2" t="n">
         <v>9849.65266251564</v>
       </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -19510,6 +20472,12 @@
         </is>
       </c>
       <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -19641,6 +20609,12 @@
         </is>
       </c>
       <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -19772,6 +20746,12 @@
         </is>
       </c>
       <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -19903,6 +20883,12 @@
         </is>
       </c>
       <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -20034,6 +21020,12 @@
         </is>
       </c>
       <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -20193,6 +21185,14 @@
       <c r="AM8" t="n">
         <v>69.2667064666748</v>
       </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.3309614658355713</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -20352,6 +21352,14 @@
       <c r="AM9" t="n">
         <v>69.26703596115112</v>
       </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.3312861919403076</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -20511,6 +21519,14 @@
       <c r="AM10" t="n">
         <v>69.2673556804657</v>
       </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3315701484680176</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -20670,6 +21686,14 @@
       <c r="AM11" t="n">
         <v>69.26759672164917</v>
       </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.33182692527771</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -20807,6 +21831,12 @@
         </is>
       </c>
       <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -20938,6 +21968,12 @@
         </is>
       </c>
       <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -21069,6 +22105,12 @@
         </is>
       </c>
       <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -21204,6 +22246,12 @@
         </is>
       </c>
       <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -21335,6 +22383,12 @@
         </is>
       </c>
       <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -21466,6 +22520,12 @@
         </is>
       </c>
       <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -21625,6 +22685,14 @@
       <c r="AM18" t="n">
         <v>69.26804113388062</v>
       </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.3322572708129883</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -21784,6 +22852,14 @@
       <c r="AM19" t="n">
         <v>69.26840591430664</v>
       </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.3325254917144775</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -21943,6 +23019,14 @@
       <c r="AM20" t="n">
         <v>69.26866126060486</v>
       </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.3327574729919434</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -22102,6 +23186,14 @@
       <c r="AM21" t="n">
         <v>69.26889848709106</v>
       </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.3329973220825195</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -22237,6 +23329,12 @@
       <c r="AM22" t="n">
         <v>949.451828956604</v>
       </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -22370,6 +23468,14 @@
         </is>
       </c>
       <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
+        <v>696.2873520851135</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -22505,6 +23611,12 @@
         </is>
       </c>
       <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -22642,6 +23754,12 @@
         </is>
       </c>
       <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -22779,6 +23897,14 @@
       <c r="AM26" t="n">
         <v>5046.528620004654</v>
       </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO26" t="n">
+        <v>665.9823403358459</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -22914,6 +24040,12 @@
         </is>
       </c>
       <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -23073,6 +24205,14 @@
       <c r="AM28" t="n">
         <v>69.26935029029846</v>
       </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.3333635330200195</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -23232,6 +24372,14 @@
       <c r="AM29" t="n">
         <v>69.2695894241333</v>
       </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.3336594104766846</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -23391,6 +24539,14 @@
       <c r="AM30" t="n">
         <v>69.26984047889709</v>
       </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.3339364528656006</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -23550,6 +24706,14 @@
       <c r="AM31" t="n">
         <v>69.27007579803467</v>
       </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.3341646194458008</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -23683,6 +24847,12 @@
       <c r="AM32" t="n">
         <v>949.4523429870605</v>
       </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -23814,6 +24984,14 @@
         </is>
       </c>
       <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO33" t="n">
+        <v>696.2877736091614</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -23947,6 +25125,12 @@
         </is>
       </c>
       <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -24082,6 +25266,12 @@
         </is>
       </c>
       <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -24217,6 +25407,14 @@
         </is>
       </c>
       <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO36" t="n">
+        <v>665.9828178882599</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -24354,6 +25552,12 @@
         </is>
       </c>
       <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -24513,6 +25717,14 @@
       <c r="AM38" t="n">
         <v>69.27047896385193</v>
       </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.3345532417297363</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -24672,6 +25884,14 @@
       <c r="AM39" t="n">
         <v>69.27070736885071</v>
       </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.3347995281219482</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -24831,6 +26051,14 @@
       <c r="AM40" t="n">
         <v>69.27103447914124</v>
       </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.3350331783294678</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -24990,6 +26218,14 @@
       <c r="AM41" t="n">
         <v>69.27133059501648</v>
       </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.3352701663970947</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -25123,6 +26359,12 @@
         </is>
       </c>
       <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -25256,6 +26498,12 @@
         </is>
       </c>
       <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -25389,6 +26637,14 @@
         </is>
       </c>
       <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO44" t="n">
+        <v>9327.192644834518</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -25522,6 +26778,12 @@
         </is>
       </c>
       <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -25655,6 +26917,12 @@
         </is>
       </c>
       <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -25788,6 +27056,12 @@
         </is>
       </c>
       <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -25947,6 +27221,14 @@
       <c r="AM48" t="n">
         <v>69.27177786827087</v>
       </c>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.3356804847717285</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -26098,6 +27380,14 @@
       <c r="AM49" t="n">
         <v>69.27205610275269</v>
       </c>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.3359401226043701</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -26257,6 +27547,14 @@
       <c r="AM50" t="n">
         <v>69.27239108085632</v>
       </c>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.3361854553222656</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -26410,6 +27708,14 @@
       <c r="AM51" t="n">
         <v>69.27273154258728</v>
       </c>
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.3364145755767822</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -26549,6 +27855,12 @@
         </is>
       </c>
       <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -26684,6 +27996,12 @@
         </is>
       </c>
       <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -26819,6 +28137,12 @@
         </is>
       </c>
       <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -26954,6 +28278,12 @@
         </is>
       </c>
       <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -27089,6 +28419,12 @@
         </is>
       </c>
       <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -27224,6 +28560,12 @@
         </is>
       </c>
       <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -27383,6 +28725,14 @@
       <c r="AM58" t="n">
         <v>69.27323770523071</v>
       </c>
+      <c r="AN58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.3368353843688965</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -27538,6 +28888,14 @@
       <c r="AM59" t="n">
         <v>69.27354645729065</v>
       </c>
+      <c r="AN59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.337080717086792</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -27697,6 +29055,14 @@
       <c r="AM60" t="n">
         <v>69.27390217781067</v>
       </c>
+      <c r="AN60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.3373246192932129</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -27854,6 +29220,14 @@
       <c r="AM61" t="n">
         <v>69.27414083480835</v>
       </c>
+      <c r="AN61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3375518321990967</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -27993,6 +29367,12 @@
         </is>
       </c>
       <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -28132,6 +29512,14 @@
         </is>
       </c>
       <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO63" t="n">
+        <v>635.6762068271637</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -28267,6 +29655,12 @@
         </is>
       </c>
       <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -28406,6 +29800,14 @@
         </is>
       </c>
       <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO65" t="n">
+        <v>36.12454319000244</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -28543,6 +29945,14 @@
         </is>
       </c>
       <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO66" t="n">
+        <v>59.16469860076904</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -28680,6 +30090,14 @@
         </is>
       </c>
       <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO67" t="n">
+        <v>8125.598339319229</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -28839,6 +30257,14 @@
       <c r="AM68" t="n">
         <v>69.27453517913818</v>
       </c>
+      <c r="AN68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.3379480838775635</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -28998,6 +30424,14 @@
       <c r="AM69" t="n">
         <v>69.27475953102112</v>
       </c>
+      <c r="AN69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.3381791114807129</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -29157,6 +30591,14 @@
       <c r="AM70" t="n">
         <v>69.27503871917725</v>
       </c>
+      <c r="AN70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.3384037017822266</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -29316,6 +30758,14 @@
       <c r="AM71" t="n">
         <v>69.27527785301208</v>
       </c>
+      <c r="AN71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.3386387825012207</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -29459,6 +30909,12 @@
       <c r="AM72" t="n">
         <v>215.9156215190887</v>
       </c>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -29600,6 +31056,14 @@
         </is>
       </c>
       <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO73" t="n">
+        <v>635.6766347885132</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -29737,6 +31201,14 @@
         </is>
       </c>
       <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO74" t="n">
+        <v>28.12811851501465</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -29878,6 +31350,14 @@
         </is>
       </c>
       <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO75" t="n">
+        <v>36.1251208782196</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -30021,6 +31501,12 @@
       <c r="AM76" t="n">
         <v>5046.529879331589</v>
       </c>
+      <c r="AN76" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -30162,6 +31648,12 @@
         </is>
       </c>
       <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -30321,6 +31813,14 @@
       <c r="AM78" t="n">
         <v>69.275714635849</v>
       </c>
+      <c r="AN78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.339055061340332</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -30480,6 +31980,14 @@
       <c r="AM79" t="n">
         <v>69.27596163749695</v>
       </c>
+      <c r="AN79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.3392820358276367</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -30639,6 +32147,14 @@
       <c r="AM80" t="n">
         <v>69.27622437477112</v>
       </c>
+      <c r="AN80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.3395049571990967</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -30798,6 +32314,14 @@
       <c r="AM81" t="n">
         <v>69.27648234367371</v>
       </c>
+      <c r="AN81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.3397276401519775</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -30949,6 +32473,14 @@
       <c r="AM82" t="n">
         <v>215.9160602092743</v>
       </c>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO82" t="n">
+        <v>1484.273001909256</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -31096,6 +32628,12 @@
         </is>
       </c>
       <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -31237,6 +32775,14 @@
         </is>
       </c>
       <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO84" t="n">
+        <v>28.12871408462524</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -31380,6 +32926,14 @@
         </is>
       </c>
       <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO85" t="n">
+        <v>9327.193452596664</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -31519,6 +33073,12 @@
         </is>
       </c>
       <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -31662,6 +33222,12 @@
       <c r="AM87" t="n">
         <v>390.4059536457062</v>
       </c>
+      <c r="AN87" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -31821,6 +33387,14 @@
       <c r="AM88" t="n">
         <v>69.27687525749207</v>
       </c>
+      <c r="AN88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.3401272296905518</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -31980,6 +33554,14 @@
       <c r="AM89" t="n">
         <v>69.27714729309082</v>
       </c>
+      <c r="AN89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.3403844833374023</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -32139,6 +33721,14 @@
       <c r="AM90" t="n">
         <v>69.27741694450378</v>
       </c>
+      <c r="AN90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.3406198024749756</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -32298,6 +33888,14 @@
       <c r="AM91" t="n">
         <v>69.27765297889709</v>
       </c>
+      <c r="AN91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.3408374786376953</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -32447,6 +34045,14 @@
       <c r="AM92" t="n">
         <v>215.9164936542511</v>
       </c>
+      <c r="AN92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO92" t="n">
+        <v>1484.273565530777</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -32590,6 +34196,12 @@
         </is>
       </c>
       <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -32737,6 +34349,12 @@
         </is>
       </c>
       <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -32888,6 +34506,14 @@
         </is>
       </c>
       <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO95" t="n">
+        <v>9327.193837165833</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -33029,6 +34655,14 @@
         </is>
       </c>
       <c r="AM96" t="inlineStr"/>
+      <c r="AN96" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO96" t="n">
+        <v>6022.771978139877</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -33174,6 +34808,12 @@
       <c r="AM97" t="n">
         <v>390.4063901901245</v>
       </c>
+      <c r="AN97" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -33333,6 +34973,14 @@
       <c r="AM98" t="n">
         <v>69.27804446220398</v>
       </c>
+      <c r="AN98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.3412449359893799</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -33492,6 +35140,14 @@
       <c r="AM99" t="n">
         <v>69.2783088684082</v>
       </c>
+      <c r="AN99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO99" t="n">
+        <v>0.3414735794067383</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -33651,6 +35307,14 @@
       <c r="AM100" t="n">
         <v>69.27856850624084</v>
       </c>
+      <c r="AN100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.3417279720306396</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -33810,6 +35474,14 @@
       <c r="AM101" t="n">
         <v>69.27878999710083</v>
       </c>
+      <c r="AN101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.3419837951660156</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -33957,6 +35629,12 @@
       <c r="AM102" t="n">
         <v>215.916880607605</v>
       </c>
+      <c r="AN102" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -34104,6 +35782,14 @@
       <c r="AM103" t="n">
         <v>390.4066956043243</v>
       </c>
+      <c r="AN103" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO103" t="n">
+        <v>3619.668974637985</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -34253,6 +35939,14 @@
       <c r="AM104" t="n">
         <v>669.7345926761627</v>
       </c>
+      <c r="AN104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO104" t="n">
+        <v>3920.04616189003</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -34408,6 +36102,12 @@
       <c r="AM105" t="n">
         <v>1421.01070189476</v>
       </c>
+      <c r="AN105" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -34555,6 +36255,12 @@
         </is>
       </c>
       <c r="AM106" t="inlineStr"/>
+      <c r="AN106" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -34704,6 +36410,14 @@
         </is>
       </c>
       <c r="AM107" t="inlineStr"/>
+      <c r="AN107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO107" t="n">
+        <v>68.36622977256775</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -34857,6 +36571,14 @@
       <c r="AM108" t="n">
         <v>215.9172470569611</v>
       </c>
+      <c r="AN108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO108" t="n">
+        <v>100.5986478328705</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -35016,6 +36738,14 @@
       <c r="AM109" t="n">
         <v>390.4070582389832</v>
       </c>
+      <c r="AN109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO109" t="n">
+        <v>46.45414757728577</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -35173,6 +36903,12 @@
       <c r="AM110" t="n">
         <v>949.4537813663483</v>
       </c>
+      <c r="AN110" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -35326,6 +37062,14 @@
       <c r="AM111" t="n">
         <v>215.9175391197205</v>
       </c>
+      <c r="AN111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO111" t="n">
+        <v>0.3424909114837646</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -35481,6 +37225,14 @@
       <c r="AM112" t="n">
         <v>1761.271523952484</v>
       </c>
+      <c r="AN112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO112" t="n">
+        <v>22.39334273338318</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -35640,6 +37392,14 @@
       <c r="AM113" t="n">
         <v>390.4073667526245</v>
       </c>
+      <c r="AN113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO113" t="n">
+        <v>3619.669440031052</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -35799,6 +37559,14 @@
       <c r="AM114" t="n">
         <v>669.7350463867188</v>
       </c>
+      <c r="AN114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO114" t="n">
+        <v>3920.046698331833</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -35958,6 +37726,14 @@
       <c r="AM115" t="n">
         <v>1421.011140584946</v>
       </c>
+      <c r="AN115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO115" t="n">
+        <v>3319.237409353256</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -36115,6 +37891,14 @@
       <c r="AM116" t="n">
         <v>949.4541816711426</v>
       </c>
+      <c r="AN116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO116" t="n">
+        <v>1453.974230289459</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -36274,6 +38058,14 @@
       <c r="AM117" t="n">
         <v>215.9179031848907</v>
       </c>
+      <c r="AN117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO117" t="n">
+        <v>68.36682605743408</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -36433,6 +38225,14 @@
       <c r="AM118" t="n">
         <v>215.9181520938873</v>
       </c>
+      <c r="AN118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO118" t="n">
+        <v>100.5992238521576</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -36592,6 +38392,14 @@
       <c r="AM119" t="n">
         <v>390.4077007770538</v>
       </c>
+      <c r="AN119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO119" t="n">
+        <v>47.59105610847473</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -36749,6 +38557,14 @@
       <c r="AM120" t="n">
         <v>949.4544866085052</v>
       </c>
+      <c r="AN120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO120" t="n">
+        <v>46.45486497879028</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -36908,6 +38724,14 @@
       <c r="AM121" t="n">
         <v>215.9184427261353</v>
       </c>
+      <c r="AN121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO121" t="n">
+        <v>0.3429574966430664</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -37067,6 +38891,14 @@
       <c r="AM122" t="n">
         <v>1761.272316217422</v>
       </c>
+      <c r="AN122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO122" t="n">
+        <v>22.39390254020691</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -37226,6 +39058,14 @@
       <c r="AM123" t="n">
         <v>9849.654876947403</v>
       </c>
+      <c r="AN123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO123" t="n">
+        <v>16.59382224082947</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -37385,6 +39225,14 @@
       <c r="AM124" t="n">
         <v>5046.530739784241</v>
       </c>
+      <c r="AN124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO124" t="n">
+        <v>31.55760145187378</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -37542,6 +39390,14 @@
         </is>
       </c>
       <c r="AM125" t="inlineStr"/>
+      <c r="AN125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO125" t="n">
+        <v>3319.237944602966</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -37701,6 +39557,14 @@
       <c r="AM126" t="n">
         <v>949.4549496173859</v>
       </c>
+      <c r="AN126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO126" t="n">
+        <v>16.59454321861267</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -37860,6 +39724,14 @@
       <c r="AM127" t="n">
         <v>215.9188644886017</v>
       </c>
+      <c r="AN127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO127" t="n">
+        <v>0.3433325290679932</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -38019,6 +39891,14 @@
       <c r="AM128" t="n">
         <v>215.9191324710846</v>
       </c>
+      <c r="AN128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO128" t="n">
+        <v>185.036116361618</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -38178,6 +40058,14 @@
       <c r="AM129" t="n">
         <v>215.9193994998932</v>
       </c>
+      <c r="AN129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO129" t="n">
+        <v>4520.790694475174</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -38337,6 +40225,14 @@
       <c r="AM130" t="n">
         <v>669.7355291843414</v>
       </c>
+      <c r="AN130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO130" t="n">
+        <v>46.45536112785339</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -38496,6 +40392,14 @@
       <c r="AM131" t="n">
         <v>1166.973711013794</v>
       </c>
+      <c r="AN131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO131" t="n">
+        <v>0.3436167240142822</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -38655,6 +40559,12 @@
       <c r="AM132" t="n">
         <v>9849.65530371666</v>
       </c>
+      <c r="AN132" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -38812,6 +40722,14 @@
       <c r="AM133" t="n">
         <v>9849.655610084534</v>
       </c>
+      <c r="AN133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO133" t="n">
+        <v>16.59505081176758</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -38967,6 +40885,14 @@
       <c r="AM134" t="n">
         <v>5046.531135082245</v>
       </c>
+      <c r="AN134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO134" t="n">
+        <v>31.55826711654663</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -39124,6 +41050,12 @@
         </is>
       </c>
       <c r="AM135" t="inlineStr"/>
+      <c r="AN135" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AO135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -39279,6 +41211,14 @@
         </is>
       </c>
       <c r="AM136" t="inlineStr"/>
+      <c r="AN136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO136" t="n">
+        <v>16.59540486335754</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -39436,6 +41376,14 @@
         </is>
       </c>
       <c r="AM137" t="inlineStr"/>
+      <c r="AN137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO137" t="n">
+        <v>0.3439445495605469</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -39595,6 +41543,14 @@
       <c r="AM138" t="n">
         <v>215.9198086261749</v>
       </c>
+      <c r="AN138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO138" t="n">
+        <v>185.0368554592133</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -39752,6 +41708,14 @@
       <c r="AM139" t="n">
         <v>215.9200961589813</v>
       </c>
+      <c r="AN139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO139" t="n">
+        <v>4520.791137695312</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -39911,6 +41875,14 @@
       <c r="AM140" t="n">
         <v>669.7359595298767</v>
       </c>
+      <c r="AN140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO140" t="n">
+        <v>9026.793451070786</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -40067,6 +42039,14 @@
       </c>
       <c r="AM141" t="n">
         <v>5046.531538724899</v>
+      </c>
+      <c r="AN141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AO141" t="n">
+        <v>0.3443026542663574</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U141"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +538,11 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -604,7 +609,10 @@
         <v>0.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.366666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.3125</v>
       </c>
     </row>
     <row r="3">
@@ -671,6 +679,9 @@
       <c r="U3" t="n">
         <v>0.5</v>
       </c>
+      <c r="V3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -736,6 +747,9 @@
       <c r="U4" t="n">
         <v>0.5</v>
       </c>
+      <c r="V4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -801,6 +815,9 @@
       <c r="U5" t="n">
         <v>0.5</v>
       </c>
+      <c r="V5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -866,6 +883,9 @@
       <c r="U6" t="n">
         <v>0.5</v>
       </c>
+      <c r="V6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -931,6 +951,9 @@
       <c r="U7" t="n">
         <v>0.5</v>
       </c>
+      <c r="V7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -994,6 +1017,9 @@
         <v>-1</v>
       </c>
       <c r="U8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V8" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1059,6 +1085,9 @@
         <v>-1</v>
       </c>
       <c r="U9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V9" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1124,6 +1153,9 @@
         <v>-1</v>
       </c>
       <c r="U10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V10" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1189,6 +1221,9 @@
         <v>-1</v>
       </c>
       <c r="U11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V11" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1254,7 +1289,10 @@
         <v>0.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.366666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.3125</v>
       </c>
     </row>
     <row r="13">
@@ -1321,6 +1359,9 @@
       <c r="U13" t="n">
         <v>0.5</v>
       </c>
+      <c r="V13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1386,6 +1427,9 @@
       <c r="U14" t="n">
         <v>0.5</v>
       </c>
+      <c r="V14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1449,7 +1493,10 @@
         <v>0.5</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
@@ -1516,6 +1563,9 @@
       <c r="U16" t="n">
         <v>0.5</v>
       </c>
+      <c r="V16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1581,6 +1631,9 @@
       <c r="U17" t="n">
         <v>0.5</v>
       </c>
+      <c r="V17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1644,6 +1697,9 @@
         <v>-1</v>
       </c>
       <c r="U18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V18" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1709,6 +1765,9 @@
         <v>-1</v>
       </c>
       <c r="U19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V19" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1774,6 +1833,9 @@
         <v>-1</v>
       </c>
       <c r="U20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V20" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1839,6 +1901,9 @@
         <v>-1</v>
       </c>
       <c r="U21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V21" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1904,7 +1969,10 @@
         <v>0.5</v>
       </c>
       <c r="U22" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="23">
@@ -1969,7 +2037,10 @@
         <v>3.5</v>
       </c>
       <c r="U23" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="24">
@@ -2034,7 +2105,10 @@
         <v>0.5</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="25">
@@ -2099,7 +2173,10 @@
         <v>0.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="26">
@@ -2164,7 +2241,10 @@
         <v>3.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="27">
@@ -2229,7 +2309,10 @@
         <v>0.5</v>
       </c>
       <c r="U27" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="28">
@@ -2294,6 +2377,9 @@
         <v>-1</v>
       </c>
       <c r="U28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V28" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2359,6 +2445,9 @@
         <v>-1</v>
       </c>
       <c r="U29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V29" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -2424,6 +2513,9 @@
         <v>-1</v>
       </c>
       <c r="U30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V30" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2489,6 +2581,9 @@
         <v>-1</v>
       </c>
       <c r="U31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V31" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -2554,7 +2649,10 @@
         <v>0.5</v>
       </c>
       <c r="U32" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.6875</v>
       </c>
     </row>
     <row r="33">
@@ -2619,7 +2717,10 @@
         <v>3.5</v>
       </c>
       <c r="U33" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.6875</v>
       </c>
     </row>
     <row r="34">
@@ -2684,7 +2785,10 @@
         <v>0.5</v>
       </c>
       <c r="U34" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="35">
@@ -2749,7 +2853,10 @@
         <v>0.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.233333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.1875</v>
       </c>
     </row>
     <row r="36">
@@ -2814,7 +2921,10 @@
         <v>3.5</v>
       </c>
       <c r="U36" t="n">
-        <v>1.233333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.1875</v>
       </c>
     </row>
     <row r="37">
@@ -2879,7 +2989,10 @@
         <v>0.5</v>
       </c>
       <c r="U37" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="38">
@@ -2944,6 +3057,9 @@
         <v>-1</v>
       </c>
       <c r="U38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V38" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3009,6 +3125,9 @@
         <v>-1</v>
       </c>
       <c r="U39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V39" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -3074,6 +3193,9 @@
         <v>-1</v>
       </c>
       <c r="U40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V40" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3139,6 +3261,9 @@
         <v>-1</v>
       </c>
       <c r="U41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V41" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -3206,6 +3331,9 @@
       <c r="U42" t="n">
         <v>0.5</v>
       </c>
+      <c r="V42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3271,6 +3399,9 @@
       <c r="U43" t="n">
         <v>0.5</v>
       </c>
+      <c r="V43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3334,7 +3465,10 @@
         <v>1.5</v>
       </c>
       <c r="U44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="45">
@@ -3401,6 +3535,9 @@
       <c r="U45" t="n">
         <v>0.5</v>
       </c>
+      <c r="V45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3466,6 +3603,9 @@
       <c r="U46" t="n">
         <v>0.5</v>
       </c>
+      <c r="V46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3531,6 +3671,9 @@
       <c r="U47" t="n">
         <v>0.5</v>
       </c>
+      <c r="V47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3594,6 +3737,9 @@
         <v>-1</v>
       </c>
       <c r="U48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V48" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3659,6 +3805,9 @@
         <v>-1</v>
       </c>
       <c r="U49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V49" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -3724,6 +3873,9 @@
         <v>-1</v>
       </c>
       <c r="U50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V50" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3789,6 +3941,9 @@
         <v>-1</v>
       </c>
       <c r="U51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V51" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -3854,7 +4009,10 @@
         <v>0.5</v>
       </c>
       <c r="U52" t="n">
-        <v>1.176923076923077</v>
+        <v>0.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.128571428571429</v>
       </c>
     </row>
     <row r="53">
@@ -3921,6 +4079,9 @@
       <c r="U53" t="n">
         <v>0.5</v>
       </c>
+      <c r="V53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3986,6 +4147,9 @@
       <c r="U54" t="n">
         <v>0.5</v>
       </c>
+      <c r="V54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4051,6 +4215,9 @@
       <c r="U55" t="n">
         <v>0.5</v>
       </c>
+      <c r="V55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4116,6 +4283,9 @@
       <c r="U56" t="n">
         <v>0.5</v>
       </c>
+      <c r="V56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4181,6 +4351,9 @@
       <c r="U57" t="n">
         <v>0.5</v>
       </c>
+      <c r="V57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4244,6 +4417,9 @@
         <v>-1</v>
       </c>
       <c r="U58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V58" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4309,6 +4485,9 @@
         <v>-1</v>
       </c>
       <c r="U59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V59" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -4374,6 +4553,9 @@
         <v>-1</v>
       </c>
       <c r="U60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V60" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4439,6 +4621,9 @@
         <v>-1</v>
       </c>
       <c r="U61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V61" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -4504,7 +4689,10 @@
         <v>0.5</v>
       </c>
       <c r="U62" t="n">
-        <v>1.176923076923077</v>
+        <v>5.5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.485714285714286</v>
       </c>
     </row>
     <row r="63">
@@ -4569,7 +4757,10 @@
         <v>3.5</v>
       </c>
       <c r="U63" t="n">
-        <v>1.346153846153846</v>
+        <v>0.5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="64">
@@ -4636,6 +4827,9 @@
       <c r="U64" t="n">
         <v>0.5</v>
       </c>
+      <c r="V64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4699,7 +4893,10 @@
         <v>7.5</v>
       </c>
       <c r="U65" t="n">
-        <v>1.192307692307692</v>
+        <v>0.5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="66">
@@ -4764,7 +4961,10 @@
         <v>7.5</v>
       </c>
       <c r="U66" t="n">
-        <v>1.192307692307692</v>
+        <v>0.5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="67">
@@ -4829,7 +5029,10 @@
         <v>1.5</v>
       </c>
       <c r="U67" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="68">
@@ -4894,6 +5097,9 @@
         <v>-1</v>
       </c>
       <c r="U68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V68" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4959,6 +5165,9 @@
         <v>-1</v>
       </c>
       <c r="U69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V69" t="n">
         <v>5.1</v>
       </c>
     </row>
@@ -5024,6 +5233,9 @@
         <v>-1</v>
       </c>
       <c r="U70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V70" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5089,6 +5301,9 @@
         <v>-1</v>
       </c>
       <c r="U71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V71" t="n">
         <v>6.3</v>
       </c>
     </row>
@@ -5154,7 +5369,10 @@
         <v>0.5</v>
       </c>
       <c r="U72" t="n">
-        <v>1.423076923076923</v>
+        <v>6.5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.785714285714286</v>
       </c>
     </row>
     <row r="73">
@@ -5219,7 +5437,10 @@
         <v>3.5</v>
       </c>
       <c r="U73" t="n">
-        <v>1.730769230769231</v>
+        <v>6.5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.071428571428572</v>
       </c>
     </row>
     <row r="74">
@@ -5284,7 +5505,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="U74" t="n">
-        <v>1.484615384615385</v>
+        <v>0.5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.414285714285714</v>
       </c>
     </row>
     <row r="75">
@@ -5349,7 +5573,10 @@
         <v>7.5</v>
       </c>
       <c r="U75" t="n">
-        <v>1.346153846153846</v>
+        <v>0.5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="76">
@@ -5414,7 +5641,10 @@
         <v>0.5</v>
       </c>
       <c r="U76" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="77">
@@ -5479,7 +5709,10 @@
         <v>0.5</v>
       </c>
       <c r="U77" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="78">
@@ -5544,6 +5777,9 @@
         <v>-1</v>
       </c>
       <c r="U78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V78" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5609,6 +5845,9 @@
         <v>-1</v>
       </c>
       <c r="U79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V79" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -5674,6 +5913,9 @@
         <v>-1</v>
       </c>
       <c r="U80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V80" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5739,6 +5981,9 @@
         <v>-1</v>
       </c>
       <c r="U81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5804,7 +6049,10 @@
         <v>3.5</v>
       </c>
       <c r="U82" t="n">
-        <v>3.730769230769231</v>
+        <v>6.5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.928571428571428</v>
       </c>
     </row>
     <row r="83">
@@ -5869,7 +6117,10 @@
         <v>0.5</v>
       </c>
       <c r="U83" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="84">
@@ -5934,7 +6185,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="U84" t="n">
-        <v>1.792307692307692</v>
+        <v>0.5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="85">
@@ -5999,7 +6253,10 @@
         <v>1.5</v>
       </c>
       <c r="U85" t="n">
-        <v>1.576923076923077</v>
+        <v>0.5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="86">
@@ -6064,7 +6321,10 @@
         <v>0.5</v>
       </c>
       <c r="U86" t="n">
-        <v>1.038461538461539</v>
+        <v>0.5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -6129,7 +6389,10 @@
         <v>0.5</v>
       </c>
       <c r="U87" t="n">
-        <v>1.807692307692308</v>
+        <v>1.5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>1.785714285714286</v>
       </c>
     </row>
     <row r="88">
@@ -6194,6 +6457,9 @@
         <v>-1</v>
       </c>
       <c r="U88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V88" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6259,6 +6525,9 @@
         <v>-1</v>
       </c>
       <c r="U89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6324,6 +6593,9 @@
         <v>-1</v>
       </c>
       <c r="U90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V90" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6389,6 +6661,9 @@
         <v>-1</v>
       </c>
       <c r="U91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V91" t="n">
         <v>6.459999999999999</v>
       </c>
     </row>
@@ -6454,7 +6729,10 @@
         <v>3.5</v>
       </c>
       <c r="U92" t="n">
-        <v>2.653846153846154</v>
+        <v>0.5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="93">
@@ -6519,7 +6797,10 @@
         <v>0.5</v>
       </c>
       <c r="U93" t="n">
-        <v>1.192307692307692</v>
+        <v>0.5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="94">
@@ -6584,7 +6865,10 @@
         <v>0.5</v>
       </c>
       <c r="U94" t="n">
-        <v>2.038461538461538</v>
+        <v>0.5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>1.928571428571429</v>
       </c>
     </row>
     <row r="95">
@@ -6649,7 +6933,10 @@
         <v>1.5</v>
       </c>
       <c r="U95" t="n">
-        <v>2.653846153846154</v>
+        <v>0.5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="96">
@@ -6714,7 +7001,10 @@
         <v>1.5</v>
       </c>
       <c r="U96" t="n">
-        <v>1.346153846153846</v>
+        <v>0.5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="97">
@@ -6779,7 +7069,10 @@
         <v>0.5</v>
       </c>
       <c r="U97" t="n">
-        <v>1.807692307692308</v>
+        <v>0.5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>1.714285714285714</v>
       </c>
     </row>
     <row r="98">
@@ -6844,6 +7137,9 @@
         <v>-1</v>
       </c>
       <c r="U98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V98" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6909,6 +7205,9 @@
         <v>-1</v>
       </c>
       <c r="U99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V99" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -6974,6 +7273,9 @@
         <v>-1</v>
       </c>
       <c r="U100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V100" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7039,6 +7341,9 @@
         <v>-1</v>
       </c>
       <c r="U101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V101" t="n">
         <v>6.659999999999999</v>
       </c>
     </row>
@@ -7104,7 +7409,10 @@
         <v>0.5</v>
       </c>
       <c r="U102" t="n">
-        <v>3.153333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.9875</v>
       </c>
     </row>
     <row r="103">
@@ -7169,7 +7477,10 @@
         <v>1.5</v>
       </c>
       <c r="U103" t="n">
-        <v>2.366666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="104">
@@ -7234,7 +7545,10 @@
         <v>1.5</v>
       </c>
       <c r="U104" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.5625</v>
       </c>
     </row>
     <row r="105">
@@ -7299,7 +7613,10 @@
         <v>0.5</v>
       </c>
       <c r="U105" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.1875</v>
       </c>
     </row>
     <row r="106">
@@ -7364,7 +7681,10 @@
         <v>0.5</v>
       </c>
       <c r="U106" t="n">
-        <v>2.766666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.625</v>
       </c>
     </row>
     <row r="107">
@@ -7429,7 +7749,10 @@
         <v>6.5</v>
       </c>
       <c r="U107" t="n">
-        <v>3.686666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.4875</v>
       </c>
     </row>
     <row r="108">
@@ -7494,7 +7817,10 @@
         <v>6.5</v>
       </c>
       <c r="U108" t="n">
-        <v>4.453333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>4.20625</v>
       </c>
     </row>
     <row r="109">
@@ -7559,7 +7885,10 @@
         <v>7.5</v>
       </c>
       <c r="U109" t="n">
-        <v>4.899999999999999</v>
+        <v>0.5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>4.68</v>
       </c>
     </row>
     <row r="110">
@@ -7624,7 +7953,10 @@
         <v>0.5</v>
       </c>
       <c r="U110" t="n">
-        <v>4.611111111111111</v>
+        <v>0.5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="111">
@@ -7689,7 +8021,10 @@
         <v>-1</v>
       </c>
       <c r="U111" t="n">
-        <v>5.466666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>5.205263157894737</v>
       </c>
     </row>
     <row r="112">
@@ -7754,7 +8089,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="U112" t="n">
-        <v>5.566666666666666</v>
+        <v>0.5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="113">
@@ -7819,7 +8157,10 @@
         <v>1.5</v>
       </c>
       <c r="U113" t="n">
-        <v>5.426666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>5.11875</v>
       </c>
     </row>
     <row r="114">
@@ -7884,7 +8225,10 @@
         <v>1.5</v>
       </c>
       <c r="U114" t="n">
-        <v>6.033333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>5.6875</v>
       </c>
     </row>
     <row r="115">
@@ -7949,7 +8293,10 @@
         <v>2.5</v>
       </c>
       <c r="U115" t="n">
-        <v>4.953333333333333</v>
+        <v>1.5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>4.7375</v>
       </c>
     </row>
     <row r="116">
@@ -8014,7 +8361,10 @@
         <v>3.5</v>
       </c>
       <c r="U116" t="n">
-        <v>4.966666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>4.6875</v>
       </c>
     </row>
     <row r="117">
@@ -8079,7 +8429,10 @@
         <v>6.5</v>
       </c>
       <c r="U117" t="n">
-        <v>5.885714285714285</v>
+        <v>0.5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>5.526666666666666</v>
       </c>
     </row>
     <row r="118">
@@ -8144,7 +8497,10 @@
         <v>6.5</v>
       </c>
       <c r="U118" t="n">
-        <v>6.173333333333333</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="V118" t="n">
+        <v>6.30625</v>
       </c>
     </row>
     <row r="119">
@@ -8209,7 +8565,10 @@
         <v>7.5</v>
       </c>
       <c r="U119" t="n">
-        <v>6.011111111111111</v>
+        <v>5.5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>5.984210526315789</v>
       </c>
     </row>
     <row r="120">
@@ -8274,7 +8633,10 @@
         <v>7.5</v>
       </c>
       <c r="U120" t="n">
-        <v>5.388888888888889</v>
+        <v>7.5</v>
+      </c>
+      <c r="V120" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="121">
@@ -8339,7 +8701,10 @@
         <v>-1</v>
       </c>
       <c r="U121" t="n">
-        <v>7.441176470588236</v>
+        <v>8.6</v>
+      </c>
+      <c r="V121" t="n">
+        <v>7.505555555555556</v>
       </c>
     </row>
     <row r="122">
@@ -8404,7 +8769,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="U122" t="n">
-        <v>7.54</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="V122" t="n">
+        <v>7.5875</v>
       </c>
     </row>
     <row r="123">
@@ -8469,7 +8837,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="U123" t="n">
-        <v>7.213333333333333</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="V123" t="n">
+        <v>7.28125</v>
       </c>
     </row>
     <row r="124">
@@ -8534,7 +8905,10 @@
         <v>7.5</v>
       </c>
       <c r="U124" t="n">
-        <v>7.128571428571428</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="V124" t="n">
+        <v>7.239999999999999</v>
       </c>
     </row>
     <row r="125">
@@ -8599,7 +8973,10 @@
         <v>2.5</v>
       </c>
       <c r="U125" t="n">
-        <v>6.54</v>
+        <v>7.5</v>
+      </c>
+      <c r="V125" t="n">
+        <v>6.6</v>
       </c>
     </row>
     <row r="126">
@@ -8664,7 +9041,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="U126" t="n">
-        <v>7.113333333333332</v>
+        <v>1.5</v>
+      </c>
+      <c r="V126" t="n">
+        <v>6.7625</v>
       </c>
     </row>
     <row r="127">
@@ -8729,7 +9109,10 @@
         <v>-1</v>
       </c>
       <c r="U127" t="n">
-        <v>7.415384615384615</v>
+        <v>6.5</v>
+      </c>
+      <c r="V127" t="n">
+        <v>7.35</v>
       </c>
     </row>
     <row r="128">
@@ -8794,7 +9177,10 @@
         <v>5.5</v>
       </c>
       <c r="U128" t="n">
-        <v>6.771428571428571</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="V128" t="n">
+        <v>6.873333333333333</v>
       </c>
     </row>
     <row r="129">
@@ -8859,7 +9245,10 @@
         <v>1.5</v>
       </c>
       <c r="U129" t="n">
-        <v>6.873684210526315</v>
+        <v>3.5</v>
+      </c>
+      <c r="V129" t="n">
+        <v>6.705</v>
       </c>
     </row>
     <row r="130">
@@ -8924,7 +9313,10 @@
         <v>7.5</v>
       </c>
       <c r="U130" t="n">
-        <v>7.422222222222222</v>
+        <v>7.5</v>
+      </c>
+      <c r="V130" t="n">
+        <v>7.43</v>
       </c>
     </row>
     <row r="131">
@@ -8989,7 +9381,10 @@
         <v>-1</v>
       </c>
       <c r="U131" t="n">
-        <v>7.447058823529412</v>
+        <v>8.6</v>
+      </c>
+      <c r="V131" t="n">
+        <v>7.511111111111112</v>
       </c>
     </row>
     <row r="132">
@@ -9054,7 +9449,10 @@
         <v>0.5</v>
       </c>
       <c r="U132" t="n">
-        <v>5.793333333333333</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="V132" t="n">
+        <v>5.95</v>
       </c>
     </row>
     <row r="133">
@@ -9119,7 +9517,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="U133" t="n">
-        <v>4.953333333333333</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="V133" t="n">
+        <v>5.162500000000001</v>
       </c>
     </row>
     <row r="134">
@@ -9184,7 +9585,10 @@
         <v>7.5</v>
       </c>
       <c r="U134" t="n">
-        <v>3.753333333333333</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="V134" t="n">
+        <v>4.06875</v>
       </c>
     </row>
     <row r="135">
@@ -9249,7 +9653,10 @@
         <v>0.5</v>
       </c>
       <c r="U135" t="n">
-        <v>5.686666666666667</v>
+        <v>7.5</v>
+      </c>
+      <c r="V135" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="136">
@@ -9314,7 +9721,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="U136" t="n">
-        <v>5.779999999999999</v>
+        <v>4.5</v>
+      </c>
+      <c r="V136" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="137">
@@ -9379,7 +9789,10 @@
         <v>-1</v>
       </c>
       <c r="U137" t="n">
-        <v>5.878571428571428</v>
+        <v>6.5</v>
+      </c>
+      <c r="V137" t="n">
+        <v>5.92</v>
       </c>
     </row>
     <row r="138">
@@ -9444,7 +9857,10 @@
         <v>5.5</v>
       </c>
       <c r="U138" t="n">
-        <v>6.071428571428571</v>
+        <v>0.5</v>
+      </c>
+      <c r="V138" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="139">
@@ -9509,7 +9925,10 @@
         <v>1.5</v>
       </c>
       <c r="U139" t="n">
-        <v>5.805555555555555</v>
+        <v>0.5</v>
+      </c>
+      <c r="V139" t="n">
+        <v>5.526315789473684</v>
       </c>
     </row>
     <row r="140">
@@ -9574,7 +9993,10 @@
         <v>1.5</v>
       </c>
       <c r="U140" t="n">
-        <v>6.844444444444445</v>
+        <v>4.5</v>
+      </c>
+      <c r="V140" t="n">
+        <v>6.609999999999999</v>
       </c>
     </row>
     <row r="141">
@@ -9639,7 +10061,10 @@
         <v>-1</v>
       </c>
       <c r="U141" t="n">
-        <v>5.616666666666667</v>
+        <v>5.5</v>
+      </c>
+      <c r="V141" t="n">
+        <v>5.610526315789474</v>
       </c>
     </row>
   </sheetData>
@@ -9653,7 +10078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T141"/>
+  <dimension ref="A1:U141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9762,6 +10187,11 @@
           <t>2023-08-06</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -9848,6 +10278,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -9940,6 +10375,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -10032,6 +10472,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -10124,6 +10569,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -10216,6 +10666,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -10308,6 +10763,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -10370,6 +10830,9 @@
       <c r="T8" t="n">
         <v>0.3309614658355713</v>
       </c>
+      <c r="U8" t="n">
+        <v>0.2603237628936768</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -10432,6 +10895,9 @@
       <c r="T9" t="n">
         <v>0.3312861919403076</v>
       </c>
+      <c r="U9" t="n">
+        <v>0.2606000900268555</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -10494,6 +10960,9 @@
       <c r="T10" t="n">
         <v>0.3315701484680176</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.2608792781829834</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -10556,6 +11025,9 @@
       <c r="T11" t="n">
         <v>0.33182692527771</v>
       </c>
+      <c r="U11" t="n">
+        <v>0.2611792087554932</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -10642,6 +11114,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -10734,6 +11211,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -10826,6 +11308,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -10914,6 +11401,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -11006,6 +11498,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -11098,6 +11595,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -11160,6 +11662,9 @@
       <c r="T18" t="n">
         <v>0.3322572708129883</v>
       </c>
+      <c r="U18" t="n">
+        <v>0.2619495391845703</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -11222,6 +11727,9 @@
       <c r="T19" t="n">
         <v>0.3325254917144775</v>
       </c>
+      <c r="U19" t="n">
+        <v>0.2623887062072754</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -11284,6 +11792,9 @@
       <c r="T20" t="n">
         <v>0.3327574729919434</v>
       </c>
+      <c r="U20" t="n">
+        <v>0.2627687454223633</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -11346,6 +11857,9 @@
       <c r="T21" t="n">
         <v>0.3329973220825195</v>
       </c>
+      <c r="U21" t="n">
+        <v>0.2631089687347412</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -11434,6 +11948,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -11522,6 +12041,11 @@
       <c r="T23" t="n">
         <v>696.2873520851135</v>
       </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -11610,6 +12134,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -11696,6 +12225,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -11780,6 +12314,11 @@
       <c r="T26" t="n">
         <v>665.9823403358459</v>
       </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -11868,6 +12407,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -11930,6 +12474,9 @@
       <c r="T28" t="n">
         <v>0.3333635330200195</v>
       </c>
+      <c r="U28" t="n">
+        <v>0.2636260986328125</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -11992,6 +12539,9 @@
       <c r="T29" t="n">
         <v>0.3336594104766846</v>
       </c>
+      <c r="U29" t="n">
+        <v>0.2639427185058594</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -12054,6 +12604,9 @@
       <c r="T30" t="n">
         <v>0.3339364528656006</v>
       </c>
+      <c r="U30" t="n">
+        <v>0.2642154693603516</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -12116,6 +12669,9 @@
       <c r="T31" t="n">
         <v>0.3341646194458008</v>
       </c>
+      <c r="U31" t="n">
+        <v>0.2644820213317871</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -12206,6 +12762,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -12296,6 +12857,11 @@
       <c r="T33" t="n">
         <v>696.2877736091614</v>
       </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -12386,6 +12952,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -12474,6 +13045,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -12560,6 +13136,11 @@
       <c r="T36" t="n">
         <v>665.9828178882599</v>
       </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -12646,6 +13227,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -12708,6 +13294,9 @@
       <c r="T38" t="n">
         <v>0.3345532417297363</v>
       </c>
+      <c r="U38" t="n">
+        <v>0.2648663520812988</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -12770,6 +13359,9 @@
       <c r="T39" t="n">
         <v>0.3347995281219482</v>
       </c>
+      <c r="U39" t="n">
+        <v>0.2651183605194092</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -12832,6 +13424,9 @@
       <c r="T40" t="n">
         <v>0.3350331783294678</v>
       </c>
+      <c r="U40" t="n">
+        <v>0.2653357982635498</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -12894,6 +13489,9 @@
       <c r="T41" t="n">
         <v>0.3352701663970947</v>
       </c>
+      <c r="U41" t="n">
+        <v>0.2655754089355469</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -12984,6 +13582,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -13074,6 +13677,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -13162,6 +13770,11 @@
       <c r="T44" t="n">
         <v>9327.192644834518</v>
       </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -13252,6 +13865,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -13342,6 +13960,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -13432,6 +14055,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -13494,6 +14122,9 @@
       <c r="T48" t="n">
         <v>0.3356804847717285</v>
       </c>
+      <c r="U48" t="n">
+        <v>0.2659468650817871</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -13564,6 +14195,9 @@
       <c r="T49" t="n">
         <v>0.3359401226043701</v>
       </c>
+      <c r="U49" t="n">
+        <v>0.2661952972412109</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -13626,6 +14260,9 @@
       <c r="T50" t="n">
         <v>0.3361854553222656</v>
       </c>
+      <c r="U50" t="n">
+        <v>0.2664756774902344</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -13694,6 +14331,9 @@
       <c r="T51" t="n">
         <v>0.3364145755767822</v>
       </c>
+      <c r="U51" t="n">
+        <v>0.2667264938354492</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -13778,6 +14418,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -13866,6 +14511,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -13954,6 +14604,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -14042,6 +14697,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -14130,6 +14790,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -14218,6 +14883,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -14280,6 +14950,9 @@
       <c r="T58" t="n">
         <v>0.3368353843688965</v>
       </c>
+      <c r="U58" t="n">
+        <v>0.26712965965271</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -14346,6 +15019,9 @@
       <c r="T59" t="n">
         <v>0.337080717086792</v>
       </c>
+      <c r="U59" t="n">
+        <v>0.2673943042755127</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -14408,6 +15084,9 @@
       <c r="T60" t="n">
         <v>0.3373246192932129</v>
       </c>
+      <c r="U60" t="n">
+        <v>0.2676663398742676</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -14472,6 +15151,9 @@
       <c r="T61" t="n">
         <v>0.3375518321990967</v>
       </c>
+      <c r="U61" t="n">
+        <v>0.2679383754730225</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -14556,6 +15238,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U62" t="n">
+        <v>131.2808773517609</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -14638,6 +15323,11 @@
       <c r="T63" t="n">
         <v>635.6762068271637</v>
       </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -14726,6 +15416,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -14808,6 +15503,11 @@
       <c r="T65" t="n">
         <v>36.12454319000244</v>
       </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -14892,6 +15592,11 @@
       <c r="T66" t="n">
         <v>59.16469860076904</v>
       </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -14976,6 +15681,11 @@
       <c r="T67" t="n">
         <v>8125.598339319229</v>
       </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -15038,6 +15748,9 @@
       <c r="T68" t="n">
         <v>0.3379480838775635</v>
       </c>
+      <c r="U68" t="n">
+        <v>0.2683510780334473</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -15100,6 +15813,9 @@
       <c r="T69" t="n">
         <v>0.3381791114807129</v>
       </c>
+      <c r="U69" t="n">
+        <v>0.2685701847076416</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -15162,6 +15878,9 @@
       <c r="T70" t="n">
         <v>0.3384037017822266</v>
       </c>
+      <c r="U70" t="n">
+        <v>0.2688069343566895</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -15224,6 +15943,9 @@
       <c r="T71" t="n">
         <v>0.3386387825012207</v>
       </c>
+      <c r="U71" t="n">
+        <v>0.2690942287445068</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -15304,6 +16026,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U72" t="n">
+        <v>76.6393895149231</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -15384,6 +16109,9 @@
       <c r="T73" t="n">
         <v>635.6766347885132</v>
       </c>
+      <c r="U73" t="n">
+        <v>76.63978743553162</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -15468,6 +16196,11 @@
       <c r="T74" t="n">
         <v>28.12811851501465</v>
       </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -15548,6 +16281,11 @@
       <c r="T75" t="n">
         <v>36.1251208782196</v>
       </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -15628,6 +16366,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -15710,6 +16453,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -15772,6 +16520,9 @@
       <c r="T78" t="n">
         <v>0.339055061340332</v>
       </c>
+      <c r="U78" t="n">
+        <v>0.2694320678710938</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -15834,6 +16585,9 @@
       <c r="T79" t="n">
         <v>0.3392820358276367</v>
       </c>
+      <c r="U79" t="n">
+        <v>0.2696394920349121</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -15896,6 +16650,9 @@
       <c r="T80" t="n">
         <v>0.3395049571990967</v>
       </c>
+      <c r="U80" t="n">
+        <v>0.2698719501495361</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -15958,6 +16715,9 @@
       <c r="T81" t="n">
         <v>0.3397276401519775</v>
       </c>
+      <c r="U81" t="n">
+        <v>0.2700943946838379</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -16028,6 +16788,9 @@
       <c r="T82" t="n">
         <v>1484.273001909256</v>
       </c>
+      <c r="U82" t="n">
+        <v>75.50225925445557</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -16104,6 +16867,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U83" t="n">
+        <v>76.64027118682861</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -16184,6 +16950,11 @@
       <c r="T84" t="n">
         <v>28.12871408462524</v>
       </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -16262,6 +17033,11 @@
       <c r="T85" t="n">
         <v>9327.193452596664</v>
       </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -16346,6 +17122,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -16426,6 +17207,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U87" t="n">
+        <v>7225.530418634415</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -16488,6 +17272,9 @@
       <c r="T88" t="n">
         <v>0.3401272296905518</v>
       </c>
+      <c r="U88" t="n">
+        <v>0.270451545715332</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -16550,6 +17337,9 @@
       <c r="T89" t="n">
         <v>0.3403844833374023</v>
       </c>
+      <c r="U89" t="n">
+        <v>0.2706630229949951</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -16612,6 +17402,9 @@
       <c r="T90" t="n">
         <v>0.3406198024749756</v>
       </c>
+      <c r="U90" t="n">
+        <v>0.2708775997161865</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -16674,6 +17467,9 @@
       <c r="T91" t="n">
         <v>0.3408374786376953</v>
       </c>
+      <c r="U91" t="n">
+        <v>0.2711296081542969</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -16746,6 +17542,11 @@
       <c r="T92" t="n">
         <v>1484.273565530777</v>
       </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -16826,6 +17627,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -16902,6 +17708,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -16972,6 +17783,11 @@
       <c r="T95" t="n">
         <v>9327.193837165833</v>
       </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -17052,6 +17868,11 @@
       <c r="T96" t="n">
         <v>6022.771978139877</v>
       </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -17130,6 +17951,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -17192,6 +18018,9 @@
       <c r="T98" t="n">
         <v>0.3412449359893799</v>
       </c>
+      <c r="U98" t="n">
+        <v>0.2714884281158447</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -17254,6 +18083,9 @@
       <c r="T99" t="n">
         <v>0.3414735794067383</v>
       </c>
+      <c r="U99" t="n">
+        <v>0.2717018127441406</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -17316,6 +18148,9 @@
       <c r="T100" t="n">
         <v>0.3417279720306396</v>
       </c>
+      <c r="U100" t="n">
+        <v>0.2719180583953857</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -17378,6 +18213,9 @@
       <c r="T101" t="n">
         <v>0.3419837951660156</v>
       </c>
+      <c r="U101" t="n">
+        <v>0.2721498012542725</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -17454,6 +18292,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -17528,6 +18371,11 @@
       <c r="T103" t="n">
         <v>3619.668974637985</v>
       </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -17600,6 +18448,11 @@
       <c r="T104" t="n">
         <v>3920.04616189003</v>
       </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -17668,6 +18521,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U105" t="n">
+        <v>6321.375195026398</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -17744,6 +18600,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -17816,6 +18677,11 @@
       <c r="T107" t="n">
         <v>68.36622977256775</v>
       </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -17884,6 +18750,11 @@
       <c r="T108" t="n">
         <v>100.5986478328705</v>
       </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -17946,6 +18817,11 @@
       <c r="T109" t="n">
         <v>46.45414757728577</v>
       </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -18012,6 +18888,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -18080,6 +18961,11 @@
       <c r="T111" t="n">
         <v>0.3424909114837646</v>
       </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -18146,6 +19032,11 @@
       <c r="T112" t="n">
         <v>22.39334273338318</v>
       </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -18208,6 +19099,11 @@
       <c r="T113" t="n">
         <v>3619.669440031052</v>
       </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -18270,6 +19166,11 @@
       <c r="T114" t="n">
         <v>3920.046698331833</v>
       </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -18332,6 +19233,9 @@
       <c r="T115" t="n">
         <v>3319.237409353256</v>
       </c>
+      <c r="U115" t="n">
+        <v>6321.375684261322</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -18396,6 +19300,11 @@
       <c r="T116" t="n">
         <v>1453.974230289459</v>
       </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -18458,6 +19367,11 @@
       <c r="T117" t="n">
         <v>68.36682605743408</v>
       </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -18520,6 +19434,9 @@
       <c r="T118" t="n">
         <v>100.5992238521576</v>
       </c>
+      <c r="U118" t="n">
+        <v>15.66722631454468</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -18582,6 +19499,9 @@
       <c r="T119" t="n">
         <v>47.59105610847473</v>
       </c>
+      <c r="U119" t="n">
+        <v>131.2827379703522</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -18646,6 +19566,9 @@
       <c r="T120" t="n">
         <v>46.45486497879028</v>
       </c>
+      <c r="U120" t="n">
+        <v>31.74294090270996</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -18708,6 +19631,9 @@
       <c r="T121" t="n">
         <v>0.3429574966430664</v>
       </c>
+      <c r="U121" t="n">
+        <v>14.50000286102295</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -18770,6 +19696,9 @@
       <c r="T122" t="n">
         <v>22.39390254020691</v>
       </c>
+      <c r="U122" t="n">
+        <v>15.66762948036194</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -18832,6 +19761,9 @@
       <c r="T123" t="n">
         <v>16.59382224082947</v>
       </c>
+      <c r="U123" t="n">
+        <v>22.56768751144409</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -18894,6 +19826,9 @@
       <c r="T124" t="n">
         <v>31.55760145187378</v>
       </c>
+      <c r="U124" t="n">
+        <v>12.10463213920593</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -18958,6 +19893,9 @@
       <c r="T125" t="n">
         <v>3319.237944602966</v>
       </c>
+      <c r="U125" t="n">
+        <v>45.55096387863159</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -19020,6 +19958,9 @@
       <c r="T126" t="n">
         <v>16.59454321861267</v>
       </c>
+      <c r="U126" t="n">
+        <v>6321.376111984253</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -19082,6 +20023,9 @@
       <c r="T127" t="n">
         <v>0.3433325290679932</v>
       </c>
+      <c r="U127" t="n">
+        <v>67.48600339889526</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -19144,6 +20088,9 @@
       <c r="T128" t="n">
         <v>185.036116361618</v>
       </c>
+      <c r="U128" t="n">
+        <v>15.66805243492126</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -19206,6 +20153,9 @@
       <c r="T129" t="n">
         <v>4520.790694475174</v>
       </c>
+      <c r="U129" t="n">
+        <v>1724.85836148262</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -19268,6 +20218,9 @@
       <c r="T130" t="n">
         <v>46.45536112785339</v>
       </c>
+      <c r="U130" t="n">
+        <v>31.74342679977417</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -19330,6 +20283,9 @@
       <c r="T131" t="n">
         <v>0.3436167240142822</v>
       </c>
+      <c r="U131" t="n">
+        <v>14.5005943775177</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -19394,6 +20350,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U132" t="n">
+        <v>16.8038170337677</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -19458,6 +20417,9 @@
       <c r="T133" t="n">
         <v>16.59505081176758</v>
       </c>
+      <c r="U133" t="n">
+        <v>22.56813859939575</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -19524,6 +20486,9 @@
       <c r="T134" t="n">
         <v>31.55826711654663</v>
       </c>
+      <c r="U134" t="n">
+        <v>12.10530471801758</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -19590,6 +20555,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="U135" t="n">
+        <v>45.55147242546082</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -19656,6 +20624,9 @@
       <c r="T136" t="n">
         <v>16.59540486335754</v>
       </c>
+      <c r="U136" t="n">
+        <v>330.5253598690033</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -19720,6 +20691,9 @@
       <c r="T137" t="n">
         <v>0.3439445495605469</v>
       </c>
+      <c r="U137" t="n">
+        <v>67.48646640777588</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -19782,6 +20756,11 @@
       <c r="T138" t="n">
         <v>185.0368554592133</v>
       </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -19846,6 +20825,11 @@
       <c r="T139" t="n">
         <v>4520.791137695312</v>
       </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -19908,6 +20892,9 @@
       <c r="T140" t="n">
         <v>9026.793451070786</v>
       </c>
+      <c r="U140" t="n">
+        <v>451.7372756004333</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -19971,6 +20958,9 @@
       </c>
       <c r="T141" t="n">
         <v>0.3443026542663574</v>
+      </c>
+      <c r="U141" t="n">
+        <v>233.3122282028198</v>
       </c>
     </row>
   </sheetData>
@@ -19984,7 +20974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO141"/>
+  <dimension ref="A1:AQ141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20198,6 +21188,16 @@
           <t>2023-08-06</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -20341,6 +21341,12 @@
         </is>
       </c>
       <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -20478,6 +21484,12 @@
         </is>
       </c>
       <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -20615,6 +21627,12 @@
         </is>
       </c>
       <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -20752,6 +21770,12 @@
         </is>
       </c>
       <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -20889,6 +21913,12 @@
         </is>
       </c>
       <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -21026,6 +22056,12 @@
         </is>
       </c>
       <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -21193,6 +22229,14 @@
       <c r="AO8" t="n">
         <v>0.3309614658355713</v>
       </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.2603237628936768</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -21360,6 +22404,14 @@
       <c r="AO9" t="n">
         <v>0.3312861919403076</v>
       </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.2606000900268555</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -21527,6 +22579,14 @@
       <c r="AO10" t="n">
         <v>0.3315701484680176</v>
       </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.2608792781829834</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -21694,6 +22754,14 @@
       <c r="AO11" t="n">
         <v>0.33182692527771</v>
       </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.2611792087554932</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -21837,6 +22905,12 @@
         </is>
       </c>
       <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -21974,6 +23048,12 @@
         </is>
       </c>
       <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -22111,6 +23191,12 @@
         </is>
       </c>
       <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -22252,6 +23338,12 @@
         </is>
       </c>
       <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -22389,6 +23481,12 @@
         </is>
       </c>
       <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -22526,6 +23624,12 @@
         </is>
       </c>
       <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -22693,6 +23797,14 @@
       <c r="AO18" t="n">
         <v>0.3322572708129883</v>
       </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.2619495391845703</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -22860,6 +23972,14 @@
       <c r="AO19" t="n">
         <v>0.3325254917144775</v>
       </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2623887062072754</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -23027,6 +24147,14 @@
       <c r="AO20" t="n">
         <v>0.3327574729919434</v>
       </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.2627687454223633</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -23194,6 +24322,14 @@
       <c r="AO21" t="n">
         <v>0.3329973220825195</v>
       </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.2631089687347412</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -23335,6 +24471,12 @@
         </is>
       </c>
       <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -23476,6 +24618,12 @@
       <c r="AO23" t="n">
         <v>696.2873520851135</v>
       </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -23617,6 +24765,12 @@
         </is>
       </c>
       <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -23760,6 +24914,12 @@
         </is>
       </c>
       <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -23905,6 +25065,12 @@
       <c r="AO26" t="n">
         <v>665.9823403358459</v>
       </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -24046,6 +25212,12 @@
         </is>
       </c>
       <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -24213,6 +25385,14 @@
       <c r="AO28" t="n">
         <v>0.3333635330200195</v>
       </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.2636260986328125</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -24380,6 +25560,14 @@
       <c r="AO29" t="n">
         <v>0.3336594104766846</v>
       </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.2639427185058594</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -24547,6 +25735,14 @@
       <c r="AO30" t="n">
         <v>0.3339364528656006</v>
       </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.2642154693603516</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -24714,6 +25910,14 @@
       <c r="AO31" t="n">
         <v>0.3341646194458008</v>
       </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.2644820213317871</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -24853,6 +26057,12 @@
         </is>
       </c>
       <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -24992,6 +26202,12 @@
       <c r="AO33" t="n">
         <v>696.2877736091614</v>
       </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -25131,6 +26347,12 @@
         </is>
       </c>
       <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -25272,6 +26494,12 @@
         </is>
       </c>
       <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -25415,6 +26643,12 @@
       <c r="AO36" t="n">
         <v>665.9828178882599</v>
       </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -25558,6 +26792,12 @@
         </is>
       </c>
       <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -25725,6 +26965,14 @@
       <c r="AO38" t="n">
         <v>0.3345532417297363</v>
       </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.2648663520812988</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -25892,6 +27140,14 @@
       <c r="AO39" t="n">
         <v>0.3347995281219482</v>
       </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.2651183605194092</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -26059,6 +27315,14 @@
       <c r="AO40" t="n">
         <v>0.3350331783294678</v>
       </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.2653357982635498</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -26226,6 +27490,14 @@
       <c r="AO41" t="n">
         <v>0.3352701663970947</v>
       </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.2655754089355469</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -26365,6 +27637,12 @@
         </is>
       </c>
       <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -26504,6 +27782,12 @@
         </is>
       </c>
       <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -26645,6 +27929,12 @@
       <c r="AO44" t="n">
         <v>9327.192644834518</v>
       </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -26784,6 +28074,12 @@
         </is>
       </c>
       <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -26923,6 +28219,12 @@
         </is>
       </c>
       <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -27062,6 +28364,12 @@
         </is>
       </c>
       <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -27229,6 +28537,14 @@
       <c r="AO48" t="n">
         <v>0.3356804847717285</v>
       </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.2659468650817871</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -27388,6 +28704,14 @@
       <c r="AO49" t="n">
         <v>0.3359401226043701</v>
       </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.2661952972412109</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -27555,6 +28879,14 @@
       <c r="AO50" t="n">
         <v>0.3361854553222656</v>
       </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.2664756774902344</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -27716,6 +29048,14 @@
       <c r="AO51" t="n">
         <v>0.3364145755767822</v>
       </c>
+      <c r="AP51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.2667264938354492</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -27861,6 +29201,12 @@
         </is>
       </c>
       <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -28002,6 +29348,12 @@
         </is>
       </c>
       <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -28143,6 +29495,12 @@
         </is>
       </c>
       <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -28284,6 +29642,12 @@
         </is>
       </c>
       <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -28425,6 +29789,12 @@
         </is>
       </c>
       <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -28566,6 +29936,12 @@
         </is>
       </c>
       <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -28733,6 +30109,14 @@
       <c r="AO58" t="n">
         <v>0.3368353843688965</v>
       </c>
+      <c r="AP58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.26712965965271</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -28896,6 +30280,14 @@
       <c r="AO59" t="n">
         <v>0.337080717086792</v>
       </c>
+      <c r="AP59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.2673943042755127</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -29063,6 +30455,14 @@
       <c r="AO60" t="n">
         <v>0.3373246192932129</v>
       </c>
+      <c r="AP60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.2676663398742676</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -29228,6 +30628,14 @@
       <c r="AO61" t="n">
         <v>0.3375518321990967</v>
       </c>
+      <c r="AP61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.2679383754730225</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -29373,6 +30781,14 @@
         </is>
       </c>
       <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ62" t="n">
+        <v>131.2808773517609</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -29520,6 +30936,12 @@
       <c r="AO63" t="n">
         <v>635.6762068271637</v>
       </c>
+      <c r="AP63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -29661,6 +31083,12 @@
         </is>
       </c>
       <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -29808,6 +31236,12 @@
       <c r="AO65" t="n">
         <v>36.12454319000244</v>
       </c>
+      <c r="AP65" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -29953,6 +31387,12 @@
       <c r="AO66" t="n">
         <v>59.16469860076904</v>
       </c>
+      <c r="AP66" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -30098,6 +31538,12 @@
       <c r="AO67" t="n">
         <v>8125.598339319229</v>
       </c>
+      <c r="AP67" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -30265,6 +31711,14 @@
       <c r="AO68" t="n">
         <v>0.3379480838775635</v>
       </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.2683510780334473</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -30432,6 +31886,14 @@
       <c r="AO69" t="n">
         <v>0.3381791114807129</v>
       </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.2685701847076416</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -30599,6 +32061,14 @@
       <c r="AO70" t="n">
         <v>0.3384037017822266</v>
       </c>
+      <c r="AP70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.2688069343566895</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -30766,6 +32236,14 @@
       <c r="AO71" t="n">
         <v>0.3386387825012207</v>
       </c>
+      <c r="AP71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.2690942287445068</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -30915,6 +32393,14 @@
         </is>
       </c>
       <c r="AO72" t="inlineStr"/>
+      <c r="AP72" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ72" t="n">
+        <v>76.6393895149231</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -31064,6 +32550,14 @@
       <c r="AO73" t="n">
         <v>635.6766347885132</v>
       </c>
+      <c r="AP73" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ73" t="n">
+        <v>76.63978743553162</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -31209,6 +32703,12 @@
       <c r="AO74" t="n">
         <v>28.12811851501465</v>
       </c>
+      <c r="AP74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -31358,6 +32858,12 @@
       <c r="AO75" t="n">
         <v>36.1251208782196</v>
       </c>
+      <c r="AP75" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -31507,6 +33013,12 @@
         </is>
       </c>
       <c r="AO76" t="inlineStr"/>
+      <c r="AP76" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -31654,6 +33166,12 @@
         </is>
       </c>
       <c r="AO77" t="inlineStr"/>
+      <c r="AP77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -31821,6 +33339,14 @@
       <c r="AO78" t="n">
         <v>0.339055061340332</v>
       </c>
+      <c r="AP78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.2694320678710938</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -31988,6 +33514,14 @@
       <c r="AO79" t="n">
         <v>0.3392820358276367</v>
       </c>
+      <c r="AP79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.2696394920349121</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -32155,6 +33689,14 @@
       <c r="AO80" t="n">
         <v>0.3395049571990967</v>
       </c>
+      <c r="AP80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.2698719501495361</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -32322,6 +33864,14 @@
       <c r="AO81" t="n">
         <v>0.3397276401519775</v>
       </c>
+      <c r="AP81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.2700943946838379</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -32481,6 +34031,14 @@
       <c r="AO82" t="n">
         <v>1484.273001909256</v>
       </c>
+      <c r="AP82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ82" t="n">
+        <v>75.50225925445557</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -32634,6 +34192,14 @@
         </is>
       </c>
       <c r="AO83" t="inlineStr"/>
+      <c r="AP83" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ83" t="n">
+        <v>76.64027118682861</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -32783,6 +34349,12 @@
       <c r="AO84" t="n">
         <v>28.12871408462524</v>
       </c>
+      <c r="AP84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -32934,6 +34506,12 @@
       <c r="AO85" t="n">
         <v>9327.193452596664</v>
       </c>
+      <c r="AP85" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -33079,6 +34657,12 @@
         </is>
       </c>
       <c r="AO86" t="inlineStr"/>
+      <c r="AP86" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -33228,6 +34812,14 @@
         </is>
       </c>
       <c r="AO87" t="inlineStr"/>
+      <c r="AP87" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ87" t="n">
+        <v>7225.530418634415</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -33395,6 +34987,14 @@
       <c r="AO88" t="n">
         <v>0.3401272296905518</v>
       </c>
+      <c r="AP88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.270451545715332</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -33562,6 +35162,14 @@
       <c r="AO89" t="n">
         <v>0.3403844833374023</v>
       </c>
+      <c r="AP89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.2706630229949951</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -33729,6 +35337,14 @@
       <c r="AO90" t="n">
         <v>0.3406198024749756</v>
       </c>
+      <c r="AP90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.2708775997161865</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -33896,6 +35512,14 @@
       <c r="AO91" t="n">
         <v>0.3408374786376953</v>
       </c>
+      <c r="AP91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.2711296081542969</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -34053,6 +35677,12 @@
       <c r="AO92" t="n">
         <v>1484.273565530777</v>
       </c>
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -34202,6 +35832,12 @@
         </is>
       </c>
       <c r="AO93" t="inlineStr"/>
+      <c r="AP93" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -34355,6 +35991,12 @@
         </is>
       </c>
       <c r="AO94" t="inlineStr"/>
+      <c r="AP94" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -34514,6 +36156,12 @@
       <c r="AO95" t="n">
         <v>9327.193837165833</v>
       </c>
+      <c r="AP95" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -34663,6 +36311,12 @@
       <c r="AO96" t="n">
         <v>6022.771978139877</v>
       </c>
+      <c r="AP96" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -34814,6 +36468,12 @@
         </is>
       </c>
       <c r="AO97" t="inlineStr"/>
+      <c r="AP97" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -34981,6 +36641,14 @@
       <c r="AO98" t="n">
         <v>0.3412449359893799</v>
       </c>
+      <c r="AP98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.2714884281158447</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -35148,6 +36816,14 @@
       <c r="AO99" t="n">
         <v>0.3414735794067383</v>
       </c>
+      <c r="AP99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0.2717018127441406</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -35315,6 +36991,14 @@
       <c r="AO100" t="n">
         <v>0.3417279720306396</v>
       </c>
+      <c r="AP100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.2719180583953857</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -35482,6 +37166,14 @@
       <c r="AO101" t="n">
         <v>0.3419837951660156</v>
       </c>
+      <c r="AP101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.2721498012542725</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -35635,6 +37327,12 @@
         </is>
       </c>
       <c r="AO102" t="inlineStr"/>
+      <c r="AP102" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -35790,6 +37488,12 @@
       <c r="AO103" t="n">
         <v>3619.668974637985</v>
       </c>
+      <c r="AP103" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -35947,6 +37651,12 @@
       <c r="AO104" t="n">
         <v>3920.04616189003</v>
       </c>
+      <c r="AP104" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -36108,6 +37818,14 @@
         </is>
       </c>
       <c r="AO105" t="inlineStr"/>
+      <c r="AP105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ105" t="n">
+        <v>6321.375195026398</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -36261,6 +37979,12 @@
         </is>
       </c>
       <c r="AO106" t="inlineStr"/>
+      <c r="AP106" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -36418,6 +38142,12 @@
       <c r="AO107" t="n">
         <v>68.36622977256775</v>
       </c>
+      <c r="AP107" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -36579,6 +38309,12 @@
       <c r="AO108" t="n">
         <v>100.5986478328705</v>
       </c>
+      <c r="AP108" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -36746,6 +38482,12 @@
       <c r="AO109" t="n">
         <v>46.45414757728577</v>
       </c>
+      <c r="AP109" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -36909,6 +38651,12 @@
         </is>
       </c>
       <c r="AO110" t="inlineStr"/>
+      <c r="AP110" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -37070,6 +38818,12 @@
       <c r="AO111" t="n">
         <v>0.3424909114837646</v>
       </c>
+      <c r="AP111" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -37233,6 +38987,12 @@
       <c r="AO112" t="n">
         <v>22.39334273338318</v>
       </c>
+      <c r="AP112" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -37400,6 +39160,12 @@
       <c r="AO113" t="n">
         <v>3619.669440031052</v>
       </c>
+      <c r="AP113" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -37567,6 +39333,12 @@
       <c r="AO114" t="n">
         <v>3920.046698331833</v>
       </c>
+      <c r="AP114" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -37734,6 +39506,14 @@
       <c r="AO115" t="n">
         <v>3319.237409353256</v>
       </c>
+      <c r="AP115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ115" t="n">
+        <v>6321.375684261322</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -37899,6 +39679,12 @@
       <c r="AO116" t="n">
         <v>1453.974230289459</v>
       </c>
+      <c r="AP116" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -38066,6 +39852,12 @@
       <c r="AO117" t="n">
         <v>68.36682605743408</v>
       </c>
+      <c r="AP117" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -38233,6 +40025,14 @@
       <c r="AO118" t="n">
         <v>100.5992238521576</v>
       </c>
+      <c r="AP118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ118" t="n">
+        <v>15.66722631454468</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -38400,6 +40200,14 @@
       <c r="AO119" t="n">
         <v>47.59105610847473</v>
       </c>
+      <c r="AP119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ119" t="n">
+        <v>131.2827379703522</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -38565,6 +40373,14 @@
       <c r="AO120" t="n">
         <v>46.45486497879028</v>
       </c>
+      <c r="AP120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ120" t="n">
+        <v>31.74294090270996</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -38732,6 +40548,14 @@
       <c r="AO121" t="n">
         <v>0.3429574966430664</v>
       </c>
+      <c r="AP121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ121" t="n">
+        <v>14.50000286102295</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -38899,6 +40723,14 @@
       <c r="AO122" t="n">
         <v>22.39390254020691</v>
       </c>
+      <c r="AP122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ122" t="n">
+        <v>15.66762948036194</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -39066,6 +40898,14 @@
       <c r="AO123" t="n">
         <v>16.59382224082947</v>
       </c>
+      <c r="AP123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ123" t="n">
+        <v>22.56768751144409</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -39233,6 +41073,14 @@
       <c r="AO124" t="n">
         <v>31.55760145187378</v>
       </c>
+      <c r="AP124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ124" t="n">
+        <v>12.10463213920593</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -39398,6 +41246,14 @@
       <c r="AO125" t="n">
         <v>3319.237944602966</v>
       </c>
+      <c r="AP125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ125" t="n">
+        <v>45.55096387863159</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -39565,6 +41421,14 @@
       <c r="AO126" t="n">
         <v>16.59454321861267</v>
       </c>
+      <c r="AP126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ126" t="n">
+        <v>6321.376111984253</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -39732,6 +41596,14 @@
       <c r="AO127" t="n">
         <v>0.3433325290679932</v>
       </c>
+      <c r="AP127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ127" t="n">
+        <v>67.48600339889526</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -39899,6 +41771,14 @@
       <c r="AO128" t="n">
         <v>185.036116361618</v>
       </c>
+      <c r="AP128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ128" t="n">
+        <v>15.66805243492126</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -40066,6 +41946,14 @@
       <c r="AO129" t="n">
         <v>4520.790694475174</v>
       </c>
+      <c r="AP129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1724.85836148262</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -40233,6 +42121,14 @@
       <c r="AO130" t="n">
         <v>46.45536112785339</v>
       </c>
+      <c r="AP130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ130" t="n">
+        <v>31.74342679977417</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -40400,6 +42296,14 @@
       <c r="AO131" t="n">
         <v>0.3436167240142822</v>
       </c>
+      <c r="AP131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ131" t="n">
+        <v>14.5005943775177</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -40565,6 +42469,14 @@
         </is>
       </c>
       <c r="AO132" t="inlineStr"/>
+      <c r="AP132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ132" t="n">
+        <v>16.8038170337677</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -40730,6 +42642,14 @@
       <c r="AO133" t="n">
         <v>16.59505081176758</v>
       </c>
+      <c r="AP133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ133" t="n">
+        <v>22.56813859939575</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -40893,6 +42813,14 @@
       <c r="AO134" t="n">
         <v>31.55826711654663</v>
       </c>
+      <c r="AP134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ134" t="n">
+        <v>12.10530471801758</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -41056,6 +42984,14 @@
         </is>
       </c>
       <c r="AO135" t="inlineStr"/>
+      <c r="AP135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ135" t="n">
+        <v>45.55147242546082</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -41219,6 +43155,14 @@
       <c r="AO136" t="n">
         <v>16.59540486335754</v>
       </c>
+      <c r="AP136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ136" t="n">
+        <v>330.5253598690033</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -41384,6 +43328,14 @@
       <c r="AO137" t="n">
         <v>0.3439445495605469</v>
       </c>
+      <c r="AP137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ137" t="n">
+        <v>67.48646640777588</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -41551,6 +43503,12 @@
       <c r="AO138" t="n">
         <v>185.0368554592133</v>
       </c>
+      <c r="AP138" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -41716,6 +43674,12 @@
       <c r="AO139" t="n">
         <v>4520.791137695312</v>
       </c>
+      <c r="AP139" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AQ139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -41883,6 +43847,14 @@
       <c r="AO140" t="n">
         <v>9026.793451070786</v>
       </c>
+      <c r="AP140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ140" t="n">
+        <v>451.7372756004333</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -42047,6 +44019,14 @@
       </c>
       <c r="AO141" t="n">
         <v>0.3443026542663574</v>
+      </c>
+      <c r="AP141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AQ141" t="n">
+        <v>233.3122282028198</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V141"/>
+  <dimension ref="A1:W141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,11 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -612,7 +617,10 @@
         <v>0.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.3125</v>
+        <v>0.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.264705882352941</v>
       </c>
     </row>
     <row r="3">
@@ -682,6 +690,9 @@
       <c r="V3" t="n">
         <v>0.5</v>
       </c>
+      <c r="W3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -750,6 +761,9 @@
       <c r="V4" t="n">
         <v>0.5</v>
       </c>
+      <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -818,6 +832,9 @@
       <c r="V5" t="n">
         <v>0.5</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -886,6 +903,9 @@
       <c r="V6" t="n">
         <v>0.5</v>
       </c>
+      <c r="W6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -954,6 +974,9 @@
       <c r="V7" t="n">
         <v>0.5</v>
       </c>
+      <c r="W7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1020,6 +1043,9 @@
         <v>-1</v>
       </c>
       <c r="V8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W8" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1088,6 +1114,9 @@
         <v>-1</v>
       </c>
       <c r="V9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W9" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1156,6 +1185,9 @@
         <v>-1</v>
       </c>
       <c r="V10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W10" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1224,6 +1256,9 @@
         <v>-1</v>
       </c>
       <c r="V11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W11" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1292,7 +1327,10 @@
         <v>0.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3125</v>
+        <v>0.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.264705882352941</v>
       </c>
     </row>
     <row r="13">
@@ -1362,6 +1400,9 @@
       <c r="V13" t="n">
         <v>0.5</v>
       </c>
+      <c r="W13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1430,6 +1471,9 @@
       <c r="V14" t="n">
         <v>0.5</v>
       </c>
+      <c r="W14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1496,7 +1540,10 @@
         <v>0.5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.7352941176470589</v>
       </c>
     </row>
     <row r="16">
@@ -1566,6 +1613,9 @@
       <c r="V16" t="n">
         <v>0.5</v>
       </c>
+      <c r="W16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1634,6 +1684,9 @@
       <c r="V17" t="n">
         <v>0.5</v>
       </c>
+      <c r="W17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1700,6 +1753,9 @@
         <v>-1</v>
       </c>
       <c r="V18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W18" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1768,6 +1824,9 @@
         <v>-1</v>
       </c>
       <c r="V19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W19" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1836,6 +1895,9 @@
         <v>-1</v>
       </c>
       <c r="V20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W20" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1904,6 +1966,9 @@
         <v>-1</v>
       </c>
       <c r="V21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W21" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1972,7 +2037,10 @@
         <v>0.5</v>
       </c>
       <c r="V22" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.7352941176470589</v>
       </c>
     </row>
     <row r="23">
@@ -2040,7 +2108,10 @@
         <v>0.5</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8125</v>
+        <v>0.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="24">
@@ -2108,7 +2179,10 @@
         <v>0.5</v>
       </c>
       <c r="V24" t="n">
-        <v>0.875</v>
+        <v>0.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.8529411764705882</v>
       </c>
     </row>
     <row r="25">
@@ -2176,7 +2250,10 @@
         <v>0.5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.205882352941176</v>
       </c>
     </row>
     <row r="26">
@@ -2244,7 +2321,10 @@
         <v>0.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.205882352941176</v>
       </c>
     </row>
     <row r="27">
@@ -2312,7 +2392,10 @@
         <v>0.5</v>
       </c>
       <c r="V27" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.7352941176470589</v>
       </c>
     </row>
     <row r="28">
@@ -2380,6 +2463,9 @@
         <v>-1</v>
       </c>
       <c r="V28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W28" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2448,6 +2534,9 @@
         <v>-1</v>
       </c>
       <c r="V29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W29" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -2516,6 +2605,9 @@
         <v>-1</v>
       </c>
       <c r="V30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W30" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2584,6 +2676,9 @@
         <v>-1</v>
       </c>
       <c r="V31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W31" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -2652,7 +2747,10 @@
         <v>0.5</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6875</v>
+        <v>0.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.6764705882352942</v>
       </c>
     </row>
     <row r="33">
@@ -2720,7 +2818,10 @@
         <v>0.5</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6875</v>
+        <v>0.5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.6764705882352942</v>
       </c>
     </row>
     <row r="34">
@@ -2788,7 +2889,10 @@
         <v>0.5</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8125</v>
+        <v>0.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="35">
@@ -2856,7 +2960,10 @@
         <v>0.5</v>
       </c>
       <c r="V35" t="n">
-        <v>1.1875</v>
+        <v>0.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.147058823529412</v>
       </c>
     </row>
     <row r="36">
@@ -2924,7 +3031,10 @@
         <v>0.5</v>
       </c>
       <c r="V36" t="n">
-        <v>1.1875</v>
+        <v>3.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.323529411764706</v>
       </c>
     </row>
     <row r="37">
@@ -2992,7 +3102,10 @@
         <v>0.5</v>
       </c>
       <c r="V37" t="n">
-        <v>0.9375</v>
+        <v>0.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.9117647058823529</v>
       </c>
     </row>
     <row r="38">
@@ -3060,6 +3173,9 @@
         <v>-1</v>
       </c>
       <c r="V38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W38" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3128,6 +3244,9 @@
         <v>-1</v>
       </c>
       <c r="V39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W39" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -3196,6 +3315,9 @@
         <v>-1</v>
       </c>
       <c r="V40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W40" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3264,6 +3386,9 @@
         <v>-1</v>
       </c>
       <c r="V41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W41" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -3334,6 +3459,9 @@
       <c r="V42" t="n">
         <v>0.5</v>
       </c>
+      <c r="W42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3402,6 +3530,9 @@
       <c r="V43" t="n">
         <v>0.5</v>
       </c>
+      <c r="W43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3468,7 +3599,10 @@
         <v>0.5</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="45">
@@ -3538,6 +3672,9 @@
       <c r="V45" t="n">
         <v>0.5</v>
       </c>
+      <c r="W45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3606,6 +3743,9 @@
       <c r="V46" t="n">
         <v>0.5</v>
       </c>
+      <c r="W46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3674,6 +3814,9 @@
       <c r="V47" t="n">
         <v>0.5</v>
       </c>
+      <c r="W47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3740,6 +3883,9 @@
         <v>-1</v>
       </c>
       <c r="V48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W48" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3808,6 +3954,9 @@
         <v>-1</v>
       </c>
       <c r="V49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W49" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -3876,6 +4025,9 @@
         <v>-1</v>
       </c>
       <c r="V50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W50" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3944,6 +4096,9 @@
         <v>-1</v>
       </c>
       <c r="V51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W51" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -4012,7 +4167,10 @@
         <v>0.5</v>
       </c>
       <c r="V52" t="n">
-        <v>1.128571428571429</v>
+        <v>0.5</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.086666666666667</v>
       </c>
     </row>
     <row r="53">
@@ -4082,6 +4240,9 @@
       <c r="V53" t="n">
         <v>0.5</v>
       </c>
+      <c r="W53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4150,6 +4311,9 @@
       <c r="V54" t="n">
         <v>0.5</v>
       </c>
+      <c r="W54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4218,6 +4382,9 @@
       <c r="V55" t="n">
         <v>0.5</v>
       </c>
+      <c r="W55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4284,7 +4451,10 @@
         <v>0.5</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -4354,6 +4524,9 @@
       <c r="V57" t="n">
         <v>0.5</v>
       </c>
+      <c r="W57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4420,6 +4593,9 @@
         <v>-1</v>
       </c>
       <c r="V58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W58" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4488,6 +4664,9 @@
         <v>-1</v>
       </c>
       <c r="V59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W59" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -4556,6 +4735,9 @@
         <v>-1</v>
       </c>
       <c r="V60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W60" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4624,6 +4806,9 @@
         <v>-1</v>
       </c>
       <c r="V61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W61" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -4692,7 +4877,10 @@
         <v>5.5</v>
       </c>
       <c r="V62" t="n">
-        <v>1.485714285714286</v>
+        <v>0.5</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="63">
@@ -4760,7 +4948,10 @@
         <v>0.5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.285714285714286</v>
+        <v>0.5</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.233333333333333</v>
       </c>
     </row>
     <row r="64">
@@ -4830,6 +5021,9 @@
       <c r="V64" t="n">
         <v>0.5</v>
       </c>
+      <c r="W64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4896,7 +5090,10 @@
         <v>0.5</v>
       </c>
       <c r="V65" t="n">
-        <v>1.142857142857143</v>
+        <v>0.5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="66">
@@ -4964,7 +5161,10 @@
         <v>0.5</v>
       </c>
       <c r="V66" t="n">
-        <v>1.142857142857143</v>
+        <v>4.5</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.366666666666667</v>
       </c>
     </row>
     <row r="67">
@@ -5032,7 +5232,10 @@
         <v>0.5</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="68">
@@ -5100,6 +5303,9 @@
         <v>-1</v>
       </c>
       <c r="V68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W68" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5168,6 +5374,9 @@
         <v>-1</v>
       </c>
       <c r="V69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W69" t="n">
         <v>5.1</v>
       </c>
     </row>
@@ -5236,6 +5445,9 @@
         <v>-1</v>
       </c>
       <c r="V70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W70" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5304,6 +5516,9 @@
         <v>-1</v>
       </c>
       <c r="V71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W71" t="n">
         <v>6.3</v>
       </c>
     </row>
@@ -5372,6 +5587,9 @@
         <v>6.5</v>
       </c>
       <c r="V72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W72" t="n">
         <v>1.785714285714286</v>
       </c>
     </row>
@@ -5440,7 +5658,10 @@
         <v>6.5</v>
       </c>
       <c r="V73" t="n">
-        <v>2.071428571428572</v>
+        <v>2.5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="74">
@@ -5508,7 +5729,10 @@
         <v>0.5</v>
       </c>
       <c r="V74" t="n">
-        <v>1.414285714285714</v>
+        <v>0.5</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.353333333333333</v>
       </c>
     </row>
     <row r="75">
@@ -5576,7 +5800,10 @@
         <v>0.5</v>
       </c>
       <c r="V75" t="n">
-        <v>1.285714285714286</v>
+        <v>0.5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.233333333333333</v>
       </c>
     </row>
     <row r="76">
@@ -5644,7 +5871,10 @@
         <v>0.5</v>
       </c>
       <c r="V76" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.5</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="77">
@@ -5712,7 +5942,10 @@
         <v>0.5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.428571428571429</v>
+        <v>0.5</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.366666666666667</v>
       </c>
     </row>
     <row r="78">
@@ -5780,6 +6013,9 @@
         <v>-1</v>
       </c>
       <c r="V78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W78" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5848,6 +6084,9 @@
         <v>-1</v>
       </c>
       <c r="V79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W79" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -5916,6 +6155,9 @@
         <v>-1</v>
       </c>
       <c r="V80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W80" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5984,6 +6226,9 @@
         <v>-1</v>
       </c>
       <c r="V81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6052,7 +6297,10 @@
         <v>6.5</v>
       </c>
       <c r="V82" t="n">
-        <v>3.928571428571428</v>
+        <v>0.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="83">
@@ -6120,7 +6368,10 @@
         <v>6.5</v>
       </c>
       <c r="V83" t="n">
-        <v>1.857142857142857</v>
+        <v>2.5</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="84">
@@ -6188,7 +6439,10 @@
         <v>0.5</v>
       </c>
       <c r="V84" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="85">
@@ -6256,7 +6510,10 @@
         <v>0.5</v>
       </c>
       <c r="V85" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.433333333333333</v>
       </c>
     </row>
     <row r="86">
@@ -6324,7 +6581,10 @@
         <v>0.5</v>
       </c>
       <c r="V86" t="n">
-        <v>1</v>
+        <v>3.5</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="87">
@@ -6392,7 +6652,10 @@
         <v>1.5</v>
       </c>
       <c r="V87" t="n">
-        <v>1.785714285714286</v>
+        <v>0.5</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="88">
@@ -6460,6 +6723,9 @@
         <v>-1</v>
       </c>
       <c r="V88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W88" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6528,6 +6794,9 @@
         <v>-1</v>
       </c>
       <c r="V89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6596,6 +6865,9 @@
         <v>-1</v>
       </c>
       <c r="V90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W90" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6664,6 +6936,9 @@
         <v>-1</v>
       </c>
       <c r="V91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W91" t="n">
         <v>6.459999999999999</v>
       </c>
     </row>
@@ -6732,7 +7007,10 @@
         <v>0.5</v>
       </c>
       <c r="V92" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="W92" t="n">
+        <v>2.366666666666667</v>
       </c>
     </row>
     <row r="93">
@@ -6800,7 +7078,10 @@
         <v>0.5</v>
       </c>
       <c r="V93" t="n">
-        <v>1.142857142857143</v>
+        <v>0.5</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="94">
@@ -6868,7 +7149,10 @@
         <v>0.5</v>
       </c>
       <c r="V94" t="n">
-        <v>1.928571428571429</v>
+        <v>0.5</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="95">
@@ -6936,7 +7220,10 @@
         <v>0.5</v>
       </c>
       <c r="V95" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="W95" t="n">
+        <v>2.366666666666667</v>
       </c>
     </row>
     <row r="96">
@@ -7004,7 +7291,10 @@
         <v>0.5</v>
       </c>
       <c r="V96" t="n">
-        <v>1.285714285714286</v>
+        <v>0.5</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.233333333333333</v>
       </c>
     </row>
     <row r="97">
@@ -7072,7 +7362,10 @@
         <v>0.5</v>
       </c>
       <c r="V97" t="n">
-        <v>1.714285714285714</v>
+        <v>0.5</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.633333333333333</v>
       </c>
     </row>
     <row r="98">
@@ -7140,6 +7433,9 @@
         <v>-1</v>
       </c>
       <c r="V98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W98" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7208,6 +7504,9 @@
         <v>-1</v>
       </c>
       <c r="V99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W99" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -7276,6 +7575,9 @@
         <v>-1</v>
       </c>
       <c r="V100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W100" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7344,6 +7646,9 @@
         <v>-1</v>
       </c>
       <c r="V101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W101" t="n">
         <v>6.659999999999999</v>
       </c>
     </row>
@@ -7412,7 +7717,10 @@
         <v>0.5</v>
       </c>
       <c r="V102" t="n">
-        <v>2.9875</v>
+        <v>0.5</v>
+      </c>
+      <c r="W102" t="n">
+        <v>2.841176470588235</v>
       </c>
     </row>
     <row r="103">
@@ -7480,7 +7788,10 @@
         <v>0.5</v>
       </c>
       <c r="V103" t="n">
-        <v>2.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>2.147058823529412</v>
       </c>
     </row>
     <row r="104">
@@ -7548,7 +7859,10 @@
         <v>0.5</v>
       </c>
       <c r="V104" t="n">
-        <v>2.5625</v>
+        <v>0.5</v>
+      </c>
+      <c r="W104" t="n">
+        <v>2.441176470588236</v>
       </c>
     </row>
     <row r="105">
@@ -7616,7 +7930,10 @@
         <v>1.5</v>
       </c>
       <c r="V105" t="n">
-        <v>3.1875</v>
+        <v>0.5</v>
+      </c>
+      <c r="W105" t="n">
+        <v>3.029411764705882</v>
       </c>
     </row>
     <row r="106">
@@ -7684,7 +8001,10 @@
         <v>0.5</v>
       </c>
       <c r="V106" t="n">
-        <v>2.625</v>
+        <v>0.5</v>
+      </c>
+      <c r="W106" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="107">
@@ -7752,7 +8072,10 @@
         <v>0.5</v>
       </c>
       <c r="V107" t="n">
-        <v>3.4875</v>
+        <v>0.5</v>
+      </c>
+      <c r="W107" t="n">
+        <v>3.311764705882353</v>
       </c>
     </row>
     <row r="108">
@@ -7820,7 +8143,10 @@
         <v>0.5</v>
       </c>
       <c r="V108" t="n">
-        <v>4.20625</v>
+        <v>0.5</v>
+      </c>
+      <c r="W108" t="n">
+        <v>3.988235294117647</v>
       </c>
     </row>
     <row r="109">
@@ -7888,6 +8214,9 @@
         <v>0.5</v>
       </c>
       <c r="V109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W109" t="n">
         <v>4.68</v>
       </c>
     </row>
@@ -7956,7 +8285,10 @@
         <v>0.5</v>
       </c>
       <c r="V110" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
+      </c>
+      <c r="W110" t="n">
+        <v>4.136363636363637</v>
       </c>
     </row>
     <row r="111">
@@ -8024,7 +8356,10 @@
         <v>0.5</v>
       </c>
       <c r="V111" t="n">
-        <v>5.205263157894737</v>
+        <v>6.5</v>
+      </c>
+      <c r="W111" t="n">
+        <v>5.27</v>
       </c>
     </row>
     <row r="112">
@@ -8092,7 +8427,10 @@
         <v>0.5</v>
       </c>
       <c r="V112" t="n">
-        <v>5.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="W112" t="n">
+        <v>4.970588235294118</v>
       </c>
     </row>
     <row r="113">
@@ -8160,6 +8498,9 @@
         <v>0.5</v>
       </c>
       <c r="V113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W113" t="n">
         <v>5.11875</v>
       </c>
     </row>
@@ -8228,7 +8569,10 @@
         <v>0.5</v>
       </c>
       <c r="V114" t="n">
-        <v>5.6875</v>
+        <v>0.5</v>
+      </c>
+      <c r="W114" t="n">
+        <v>5.382352941176471</v>
       </c>
     </row>
     <row r="115">
@@ -8296,7 +8640,10 @@
         <v>1.5</v>
       </c>
       <c r="V115" t="n">
-        <v>4.7375</v>
+        <v>0.5</v>
+      </c>
+      <c r="W115" t="n">
+        <v>4.488235294117647</v>
       </c>
     </row>
     <row r="116">
@@ -8364,7 +8711,10 @@
         <v>0.5</v>
       </c>
       <c r="V116" t="n">
-        <v>4.6875</v>
+        <v>0.5</v>
+      </c>
+      <c r="W116" t="n">
+        <v>4.441176470588236</v>
       </c>
     </row>
     <row r="117">
@@ -8432,7 +8782,10 @@
         <v>0.5</v>
       </c>
       <c r="V117" t="n">
-        <v>5.526666666666666</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="W117" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="118">
@@ -8500,6 +8853,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="V118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W118" t="n">
         <v>6.30625</v>
       </c>
     </row>
@@ -8568,6 +8924,9 @@
         <v>5.5</v>
       </c>
       <c r="V119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W119" t="n">
         <v>5.984210526315789</v>
       </c>
     </row>
@@ -8636,7 +8995,10 @@
         <v>7.5</v>
       </c>
       <c r="V120" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
+      </c>
+      <c r="W120" t="n">
+        <v>5.409090909090909</v>
       </c>
     </row>
     <row r="121">
@@ -8704,7 +9066,10 @@
         <v>8.6</v>
       </c>
       <c r="V121" t="n">
-        <v>7.505555555555556</v>
+        <v>6.5</v>
+      </c>
+      <c r="W121" t="n">
+        <v>7.452631578947369</v>
       </c>
     </row>
     <row r="122">
@@ -8772,7 +9137,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="V122" t="n">
-        <v>7.5875</v>
+        <v>0.5</v>
+      </c>
+      <c r="W122" t="n">
+        <v>7.170588235294118</v>
       </c>
     </row>
     <row r="123">
@@ -8840,6 +9208,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="V123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W123" t="n">
         <v>7.28125</v>
       </c>
     </row>
@@ -8908,7 +9279,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="V124" t="n">
-        <v>7.239999999999999</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="W124" t="n">
+        <v>7.30625</v>
       </c>
     </row>
     <row r="125">
@@ -8976,7 +9350,10 @@
         <v>7.5</v>
       </c>
       <c r="V125" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
+      </c>
+      <c r="W125" t="n">
+        <v>6.535294117647059</v>
       </c>
     </row>
     <row r="126">
@@ -9044,7 +9421,10 @@
         <v>1.5</v>
       </c>
       <c r="V126" t="n">
-        <v>6.7625</v>
+        <v>0.5</v>
+      </c>
+      <c r="W126" t="n">
+        <v>6.394117647058824</v>
       </c>
     </row>
     <row r="127">
@@ -9112,7 +9492,10 @@
         <v>6.5</v>
       </c>
       <c r="V127" t="n">
-        <v>7.35</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="W127" t="n">
+        <v>7.413333333333332</v>
       </c>
     </row>
     <row r="128">
@@ -9180,6 +9563,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="V128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W128" t="n">
         <v>6.873333333333333</v>
       </c>
     </row>
@@ -9248,7 +9634,10 @@
         <v>3.5</v>
       </c>
       <c r="V129" t="n">
-        <v>6.705</v>
+        <v>0.5</v>
+      </c>
+      <c r="W129" t="n">
+        <v>6.409523809523809</v>
       </c>
     </row>
     <row r="130">
@@ -9316,7 +9705,10 @@
         <v>7.5</v>
       </c>
       <c r="V130" t="n">
-        <v>7.43</v>
+        <v>3.5</v>
+      </c>
+      <c r="W130" t="n">
+        <v>7.072727272727272</v>
       </c>
     </row>
     <row r="131">
@@ -9384,7 +9776,10 @@
         <v>8.6</v>
       </c>
       <c r="V131" t="n">
-        <v>7.511111111111112</v>
+        <v>8.6</v>
+      </c>
+      <c r="W131" t="n">
+        <v>7.56842105263158</v>
       </c>
     </row>
     <row r="132">
@@ -9452,7 +9847,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="V132" t="n">
-        <v>5.95</v>
+        <v>0.5</v>
+      </c>
+      <c r="W132" t="n">
+        <v>5.629411764705883</v>
       </c>
     </row>
     <row r="133">
@@ -9520,6 +9918,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="V133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W133" t="n">
         <v>5.162500000000001</v>
       </c>
     </row>
@@ -9588,7 +9989,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="V134" t="n">
-        <v>4.06875</v>
+        <v>5.5</v>
+      </c>
+      <c r="W134" t="n">
+        <v>4.152941176470588</v>
       </c>
     </row>
     <row r="135">
@@ -9656,7 +10060,10 @@
         <v>7.5</v>
       </c>
       <c r="V135" t="n">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="W135" t="n">
+        <v>5.947058823529411</v>
       </c>
     </row>
     <row r="136">
@@ -9724,7 +10131,10 @@
         <v>4.5</v>
       </c>
       <c r="V136" t="n">
-        <v>5.7</v>
+        <v>2.5</v>
+      </c>
+      <c r="W136" t="n">
+        <v>5.511764705882353</v>
       </c>
     </row>
     <row r="137">
@@ -9792,7 +10202,10 @@
         <v>6.5</v>
       </c>
       <c r="V137" t="n">
-        <v>5.92</v>
+        <v>1.5</v>
+      </c>
+      <c r="W137" t="n">
+        <v>5.643750000000001</v>
       </c>
     </row>
     <row r="138">
@@ -9860,7 +10273,10 @@
         <v>0.5</v>
       </c>
       <c r="V138" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="W138" t="n">
+        <v>5.375</v>
       </c>
     </row>
     <row r="139">
@@ -9928,7 +10344,10 @@
         <v>0.5</v>
       </c>
       <c r="V139" t="n">
-        <v>5.526315789473684</v>
+        <v>0.5</v>
+      </c>
+      <c r="W139" t="n">
+        <v>5.275</v>
       </c>
     </row>
     <row r="140">
@@ -9996,7 +10415,10 @@
         <v>4.5</v>
       </c>
       <c r="V140" t="n">
-        <v>6.609999999999999</v>
+        <v>3.5</v>
+      </c>
+      <c r="W140" t="n">
+        <v>6.327272727272727</v>
       </c>
     </row>
     <row r="141">
@@ -10064,7 +10486,10 @@
         <v>5.5</v>
       </c>
       <c r="V141" t="n">
-        <v>5.610526315789474</v>
+        <v>8.6</v>
+      </c>
+      <c r="W141" t="n">
+        <v>5.76</v>
       </c>
     </row>
   </sheetData>
@@ -10078,7 +10503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U141"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10192,6 +10617,11 @@
           <t>2023-08-07</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -10283,6 +10713,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -10380,6 +10815,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -10477,6 +10917,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -10574,6 +11019,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -10671,6 +11121,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -10768,6 +11223,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -10833,6 +11293,9 @@
       <c r="U8" t="n">
         <v>0.2603237628936768</v>
       </c>
+      <c r="V8" t="n">
+        <v>0.2436995506286621</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -10898,6 +11361,9 @@
       <c r="U9" t="n">
         <v>0.2606000900268555</v>
       </c>
+      <c r="V9" t="n">
+        <v>0.2439451217651367</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -10963,6 +11429,9 @@
       <c r="U10" t="n">
         <v>0.2608792781829834</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.2442526817321777</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -11028,6 +11497,9 @@
       <c r="U11" t="n">
         <v>0.2611792087554932</v>
       </c>
+      <c r="V11" t="n">
+        <v>0.2444729804992676</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -11119,6 +11591,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -11216,6 +11693,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -11313,6 +11795,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -11406,6 +11893,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -11503,6 +11995,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -11600,6 +12097,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -11665,6 +12167,9 @@
       <c r="U18" t="n">
         <v>0.2619495391845703</v>
       </c>
+      <c r="V18" t="n">
+        <v>0.2448303699493408</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -11730,6 +12235,9 @@
       <c r="U19" t="n">
         <v>0.2623887062072754</v>
       </c>
+      <c r="V19" t="n">
+        <v>0.2450454235076904</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -11795,6 +12303,9 @@
       <c r="U20" t="n">
         <v>0.2627687454223633</v>
       </c>
+      <c r="V20" t="n">
+        <v>0.245286226272583</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -11860,6 +12371,9 @@
       <c r="U21" t="n">
         <v>0.2631089687347412</v>
       </c>
+      <c r="V21" t="n">
+        <v>0.2455065250396729</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -11953,6 +12467,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -12046,6 +12565,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -12139,6 +12663,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -12230,6 +12759,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -12319,6 +12853,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -12412,6 +12951,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -12477,6 +13021,9 @@
       <c r="U28" t="n">
         <v>0.2636260986328125</v>
       </c>
+      <c r="V28" t="n">
+        <v>0.2458975315093994</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -12542,6 +13089,9 @@
       <c r="U29" t="n">
         <v>0.2639427185058594</v>
       </c>
+      <c r="V29" t="n">
+        <v>0.2461168766021729</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -12607,6 +13157,9 @@
       <c r="U30" t="n">
         <v>0.2642154693603516</v>
       </c>
+      <c r="V30" t="n">
+        <v>0.2463674545288086</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -12672,6 +13225,9 @@
       <c r="U31" t="n">
         <v>0.2644820213317871</v>
       </c>
+      <c r="V31" t="n">
+        <v>0.2466087341308594</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -12767,6 +13323,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -12862,6 +13423,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -12957,6 +13523,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -13050,6 +13621,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -13141,6 +13717,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V36" t="n">
+        <v>1088.60012960434</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -13232,6 +13811,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -13297,6 +13881,9 @@
       <c r="U38" t="n">
         <v>0.2648663520812988</v>
       </c>
+      <c r="V38" t="n">
+        <v>0.2469854354858398</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -13362,6 +13949,9 @@
       <c r="U39" t="n">
         <v>0.2651183605194092</v>
       </c>
+      <c r="V39" t="n">
+        <v>0.2471981048583984</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -13427,6 +14017,9 @@
       <c r="U40" t="n">
         <v>0.2653357982635498</v>
       </c>
+      <c r="V40" t="n">
+        <v>0.2474958896636963</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -13492,6 +14085,9 @@
       <c r="U41" t="n">
         <v>0.2655754089355469</v>
       </c>
+      <c r="V41" t="n">
+        <v>0.2477536201477051</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -13587,6 +14183,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -13682,6 +14283,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -13775,6 +14381,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -13870,6 +14481,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -13965,6 +14581,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -14060,6 +14681,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -14125,6 +14751,9 @@
       <c r="U48" t="n">
         <v>0.2659468650817871</v>
       </c>
+      <c r="V48" t="n">
+        <v>0.2481350898742676</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -14198,6 +14827,9 @@
       <c r="U49" t="n">
         <v>0.2661952972412109</v>
       </c>
+      <c r="V49" t="n">
+        <v>0.2483866214752197</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -14263,6 +14895,9 @@
       <c r="U50" t="n">
         <v>0.2664756774902344</v>
       </c>
+      <c r="V50" t="n">
+        <v>0.2486059665679932</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -14334,6 +14969,9 @@
       <c r="U51" t="n">
         <v>0.2667264938354492</v>
       </c>
+      <c r="V51" t="n">
+        <v>0.248809814453125</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -14423,6 +15061,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -14516,6 +15159,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -14609,6 +15257,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -14702,6 +15355,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -14795,6 +15453,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V56" t="n">
+        <v>452.3873889446259</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -14888,6 +15549,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -14953,6 +15619,9 @@
       <c r="U58" t="n">
         <v>0.26712965965271</v>
       </c>
+      <c r="V58" t="n">
+        <v>0.2491388320922852</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -15022,6 +15691,9 @@
       <c r="U59" t="n">
         <v>0.2673943042755127</v>
       </c>
+      <c r="V59" t="n">
+        <v>0.2493448257446289</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -15087,6 +15759,9 @@
       <c r="U60" t="n">
         <v>0.2676663398742676</v>
       </c>
+      <c r="V60" t="n">
+        <v>0.2495594024658203</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -15154,6 +15829,9 @@
       <c r="U61" t="n">
         <v>0.2679383754730225</v>
       </c>
+      <c r="V61" t="n">
+        <v>0.2497642040252686</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -15241,6 +15919,11 @@
       <c r="U62" t="n">
         <v>131.2808773517609</v>
       </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -15328,6 +16011,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -15421,6 +16109,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -15508,6 +16201,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -15597,6 +16295,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V66" t="n">
+        <v>452.3878729343414</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -15686,6 +16387,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -15751,6 +16457,9 @@
       <c r="U68" t="n">
         <v>0.2683510780334473</v>
       </c>
+      <c r="V68" t="n">
+        <v>0.2500982284545898</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -15816,6 +16525,9 @@
       <c r="U69" t="n">
         <v>0.2685701847076416</v>
       </c>
+      <c r="V69" t="n">
+        <v>0.2503037452697754</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -15881,6 +16593,9 @@
       <c r="U70" t="n">
         <v>0.2688069343566895</v>
       </c>
+      <c r="V70" t="n">
+        <v>0.2505192756652832</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -15946,6 +16661,9 @@
       <c r="U71" t="n">
         <v>0.2690942287445068</v>
       </c>
+      <c r="V71" t="n">
+        <v>0.2507250308990479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -16029,6 +16747,9 @@
       <c r="U72" t="n">
         <v>76.6393895149231</v>
       </c>
+      <c r="V72" t="n">
+        <v>0.250927209854126</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -16112,6 +16833,9 @@
       <c r="U73" t="n">
         <v>76.63978743553162</v>
       </c>
+      <c r="V73" t="n">
+        <v>2115.904586076736</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -16201,6 +16925,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -16286,6 +17015,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -16371,6 +17105,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -16458,6 +17197,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -16523,6 +17267,9 @@
       <c r="U78" t="n">
         <v>0.2694320678710938</v>
       </c>
+      <c r="V78" t="n">
+        <v>0.2512335777282715</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -16588,6 +17335,9 @@
       <c r="U79" t="n">
         <v>0.2696394920349121</v>
       </c>
+      <c r="V79" t="n">
+        <v>0.2514386177062988</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -16653,6 +17403,9 @@
       <c r="U80" t="n">
         <v>0.2698719501495361</v>
       </c>
+      <c r="V80" t="n">
+        <v>0.2516529560089111</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -16718,6 +17471,9 @@
       <c r="U81" t="n">
         <v>0.2700943946838379</v>
       </c>
+      <c r="V81" t="n">
+        <v>0.2518558502197266</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -16791,6 +17547,11 @@
       <c r="U82" t="n">
         <v>75.50225925445557</v>
       </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -16870,6 +17631,9 @@
       <c r="U83" t="n">
         <v>76.64027118682861</v>
       </c>
+      <c r="V83" t="n">
+        <v>2115.905023336411</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -16955,6 +17719,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -17038,6 +17807,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -17127,6 +17901,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V86" t="n">
+        <v>1088.601164102554</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -17210,6 +17987,11 @@
       <c r="U87" t="n">
         <v>7225.530418634415</v>
       </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -17275,6 +18057,9 @@
       <c r="U88" t="n">
         <v>0.270451545715332</v>
       </c>
+      <c r="V88" t="n">
+        <v>0.2522072792053223</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -17340,6 +18125,9 @@
       <c r="U89" t="n">
         <v>0.2706630229949951</v>
       </c>
+      <c r="V89" t="n">
+        <v>0.2524189949035645</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -17405,6 +18193,9 @@
       <c r="U90" t="n">
         <v>0.2708775997161865</v>
       </c>
+      <c r="V90" t="n">
+        <v>0.2526497840881348</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -17470,6 +18261,9 @@
       <c r="U91" t="n">
         <v>0.2711296081542969</v>
       </c>
+      <c r="V91" t="n">
+        <v>0.252873420715332</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -17547,6 +18341,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -17632,6 +18431,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -17713,6 +18517,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -17788,6 +18597,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -17873,6 +18687,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -17956,6 +18775,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -18021,6 +18845,9 @@
       <c r="U98" t="n">
         <v>0.2714884281158447</v>
       </c>
+      <c r="V98" t="n">
+        <v>0.2532010078430176</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -18086,6 +18913,9 @@
       <c r="U99" t="n">
         <v>0.2717018127441406</v>
       </c>
+      <c r="V99" t="n">
+        <v>0.2534103393554688</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -18151,6 +18981,9 @@
       <c r="U100" t="n">
         <v>0.2719180583953857</v>
       </c>
+      <c r="V100" t="n">
+        <v>0.253626823425293</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -18216,6 +19049,9 @@
       <c r="U101" t="n">
         <v>0.2721498012542725</v>
       </c>
+      <c r="V101" t="n">
+        <v>0.2538316249847412</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -18297,6 +19133,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -18376,6 +19217,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -18453,6 +19299,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -18524,6 +19375,11 @@
       <c r="U105" t="n">
         <v>6321.375195026398</v>
       </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -18605,6 +19461,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -18682,6 +19543,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -18755,6 +19621,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -18822,6 +19693,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V109" t="n">
+        <v>0.2541840076446533</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -18893,6 +19767,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V110" t="n">
+        <v>603.9263534545898</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -18966,6 +19843,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V111" t="n">
+        <v>68.66626644134521</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -19037,6 +19917,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -19104,6 +19989,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V113" t="n">
+        <v>0.2544572353363037</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -19171,6 +20059,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -19236,6 +20129,11 @@
       <c r="U115" t="n">
         <v>6321.375684261322</v>
       </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -19305,6 +20203,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -19372,6 +20275,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V117" t="n">
+        <v>18.00550389289856</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -19437,6 +20343,9 @@
       <c r="U118" t="n">
         <v>15.66722631454468</v>
       </c>
+      <c r="V118" t="n">
+        <v>0.254758358001709</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -19502,6 +20411,9 @@
       <c r="U119" t="n">
         <v>131.2827379703522</v>
       </c>
+      <c r="V119" t="n">
+        <v>0.2549653053283691</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -19569,6 +20481,9 @@
       <c r="U120" t="n">
         <v>31.74294090270996</v>
       </c>
+      <c r="V120" t="n">
+        <v>603.9269244670868</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -19634,6 +20549,9 @@
       <c r="U121" t="n">
         <v>14.50000286102295</v>
       </c>
+      <c r="V121" t="n">
+        <v>68.66679787635803</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -19699,6 +20617,11 @@
       <c r="U122" t="n">
         <v>15.66762948036194</v>
       </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -19764,6 +20687,9 @@
       <c r="U123" t="n">
         <v>22.56768751144409</v>
       </c>
+      <c r="V123" t="n">
+        <v>0.2552347183227539</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -19829,6 +20755,9 @@
       <c r="U124" t="n">
         <v>12.10463213920593</v>
       </c>
+      <c r="V124" t="n">
+        <v>19.14550685882568</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -19896,6 +20825,9 @@
       <c r="U125" t="n">
         <v>45.55096387863159</v>
       </c>
+      <c r="V125" t="n">
+        <v>292.089067697525</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -19961,6 +20893,11 @@
       <c r="U126" t="n">
         <v>6321.376111984253</v>
       </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -20026,6 +20963,9 @@
       <c r="U127" t="n">
         <v>67.48600339889526</v>
       </c>
+      <c r="V127" t="n">
+        <v>18.0060498714447</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -20091,6 +21031,9 @@
       <c r="U128" t="n">
         <v>15.66805243492126</v>
       </c>
+      <c r="V128" t="n">
+        <v>0.25553297996521</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -20156,6 +21099,11 @@
       <c r="U129" t="n">
         <v>1724.85836148262</v>
       </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -20221,6 +21169,9 @@
       <c r="U130" t="n">
         <v>31.74342679977417</v>
       </c>
+      <c r="V130" t="n">
+        <v>906.9398565292358</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -20286,6 +21237,9 @@
       <c r="U131" t="n">
         <v>14.5005943775177</v>
       </c>
+      <c r="V131" t="n">
+        <v>14.54603743553162</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -20353,6 +21307,11 @@
       <c r="U132" t="n">
         <v>16.8038170337677</v>
       </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -20420,6 +21379,9 @@
       <c r="U133" t="n">
         <v>22.56813859939575</v>
       </c>
+      <c r="V133" t="n">
+        <v>0.2558276653289795</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -20489,6 +21451,9 @@
       <c r="U134" t="n">
         <v>12.10530471801758</v>
       </c>
+      <c r="V134" t="n">
+        <v>292.089503288269</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -20558,6 +21523,9 @@
       <c r="U135" t="n">
         <v>45.55147242546082</v>
       </c>
+      <c r="V135" t="n">
+        <v>19.14607906341553</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -20627,6 +21595,9 @@
       <c r="U136" t="n">
         <v>330.5253598690033</v>
       </c>
+      <c r="V136" t="n">
+        <v>3017.075641870499</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -20694,6 +21665,9 @@
       <c r="U137" t="n">
         <v>67.48646640777588</v>
       </c>
+      <c r="V137" t="n">
+        <v>3617.782154560089</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -20761,6 +21735,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -20830,6 +21809,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -20895,6 +21879,9 @@
       <c r="U140" t="n">
         <v>451.7372756004333</v>
       </c>
+      <c r="V140" t="n">
+        <v>906.9404404163361</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -20961,6 +21948,9 @@
       </c>
       <c r="U141" t="n">
         <v>233.3122282028198</v>
+      </c>
+      <c r="V141" t="n">
+        <v>14.54666066169739</v>
       </c>
     </row>
   </sheetData>
@@ -20974,7 +21964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ141"/>
+  <dimension ref="A1:AS141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21198,6 +22188,16 @@
           <t>2023-08-07</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -21347,6 +22347,12 @@
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -21490,6 +22496,12 @@
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -21633,6 +22645,12 @@
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -21776,6 +22794,12 @@
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -21919,6 +22943,12 @@
         </is>
       </c>
       <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -22062,6 +23092,12 @@
         </is>
       </c>
       <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -22237,6 +23273,14 @@
       <c r="AQ8" t="n">
         <v>0.2603237628936768</v>
       </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.2436995506286621</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -22412,6 +23456,14 @@
       <c r="AQ9" t="n">
         <v>0.2606000900268555</v>
       </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.2439451217651367</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -22587,6 +23639,14 @@
       <c r="AQ10" t="n">
         <v>0.2608792781829834</v>
       </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.2442526817321777</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -22762,6 +23822,14 @@
       <c r="AQ11" t="n">
         <v>0.2611792087554932</v>
       </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.2444729804992676</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -22911,6 +23979,12 @@
         </is>
       </c>
       <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -23054,6 +24128,12 @@
         </is>
       </c>
       <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -23197,6 +24277,12 @@
         </is>
       </c>
       <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -23344,6 +24430,12 @@
         </is>
       </c>
       <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -23487,6 +24579,12 @@
         </is>
       </c>
       <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -23630,6 +24728,12 @@
         </is>
       </c>
       <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -23805,6 +24909,14 @@
       <c r="AQ18" t="n">
         <v>0.2619495391845703</v>
       </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.2448303699493408</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -23980,6 +25092,14 @@
       <c r="AQ19" t="n">
         <v>0.2623887062072754</v>
       </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2450454235076904</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -24155,6 +25275,14 @@
       <c r="AQ20" t="n">
         <v>0.2627687454223633</v>
       </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.245286226272583</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -24330,6 +25458,14 @@
       <c r="AQ21" t="n">
         <v>0.2631089687347412</v>
       </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.2455065250396729</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -24477,6 +25613,12 @@
         </is>
       </c>
       <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -24624,6 +25766,12 @@
         </is>
       </c>
       <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -24771,6 +25919,12 @@
         </is>
       </c>
       <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -24920,6 +26074,12 @@
         </is>
       </c>
       <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -25071,6 +26231,12 @@
         </is>
       </c>
       <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -25218,6 +26384,12 @@
         </is>
       </c>
       <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -25393,6 +26565,14 @@
       <c r="AQ28" t="n">
         <v>0.2636260986328125</v>
       </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.2458975315093994</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -25568,6 +26748,14 @@
       <c r="AQ29" t="n">
         <v>0.2639427185058594</v>
       </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.2461168766021729</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -25743,6 +26931,14 @@
       <c r="AQ30" t="n">
         <v>0.2642154693603516</v>
       </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.2463674545288086</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -25918,6 +27114,14 @@
       <c r="AQ31" t="n">
         <v>0.2644820213317871</v>
       </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.2466087341308594</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -26063,6 +27267,12 @@
         </is>
       </c>
       <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -26208,6 +27418,12 @@
         </is>
       </c>
       <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -26353,6 +27569,12 @@
         </is>
       </c>
       <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -26500,6 +27722,12 @@
         </is>
       </c>
       <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -26649,6 +27877,14 @@
         </is>
       </c>
       <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS36" t="n">
+        <v>1088.60012960434</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -26798,6 +28034,12 @@
         </is>
       </c>
       <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -26973,6 +28215,14 @@
       <c r="AQ38" t="n">
         <v>0.2648663520812988</v>
       </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.2469854354858398</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -27148,6 +28398,14 @@
       <c r="AQ39" t="n">
         <v>0.2651183605194092</v>
       </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.2471981048583984</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -27323,6 +28581,14 @@
       <c r="AQ40" t="n">
         <v>0.2653357982635498</v>
       </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.2474958896636963</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -27498,6 +28764,14 @@
       <c r="AQ41" t="n">
         <v>0.2655754089355469</v>
       </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.2477536201477051</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -27643,6 +28917,12 @@
         </is>
       </c>
       <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -27788,6 +29068,12 @@
         </is>
       </c>
       <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -27935,6 +29221,12 @@
         </is>
       </c>
       <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -28080,6 +29372,12 @@
         </is>
       </c>
       <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -28225,6 +29523,12 @@
         </is>
       </c>
       <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -28370,6 +29674,12 @@
         </is>
       </c>
       <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -28545,6 +29855,14 @@
       <c r="AQ48" t="n">
         <v>0.2659468650817871</v>
       </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.2481350898742676</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -28712,6 +30030,14 @@
       <c r="AQ49" t="n">
         <v>0.2661952972412109</v>
       </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.2483866214752197</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -28887,6 +30213,14 @@
       <c r="AQ50" t="n">
         <v>0.2664756774902344</v>
       </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.2486059665679932</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -29056,6 +30390,14 @@
       <c r="AQ51" t="n">
         <v>0.2667264938354492</v>
       </c>
+      <c r="AR51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.248809814453125</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -29207,6 +30549,12 @@
         </is>
       </c>
       <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -29354,6 +30702,12 @@
         </is>
       </c>
       <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -29501,6 +30855,12 @@
         </is>
       </c>
       <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -29648,6 +31008,12 @@
         </is>
       </c>
       <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -29795,6 +31161,14 @@
         </is>
       </c>
       <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS56" t="n">
+        <v>452.3873889446259</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -29942,6 +31316,12 @@
         </is>
       </c>
       <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -30117,6 +31497,14 @@
       <c r="AQ58" t="n">
         <v>0.26712965965271</v>
       </c>
+      <c r="AR58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.2491388320922852</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -30288,6 +31676,14 @@
       <c r="AQ59" t="n">
         <v>0.2673943042755127</v>
       </c>
+      <c r="AR59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.2493448257446289</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -30463,6 +31859,14 @@
       <c r="AQ60" t="n">
         <v>0.2676663398742676</v>
       </c>
+      <c r="AR60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.2495594024658203</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -30636,6 +32040,14 @@
       <c r="AQ61" t="n">
         <v>0.2679383754730225</v>
       </c>
+      <c r="AR61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.2497642040252686</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -30789,6 +32201,12 @@
       <c r="AQ62" t="n">
         <v>131.2808773517609</v>
       </c>
+      <c r="AR62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -30942,6 +32360,12 @@
         </is>
       </c>
       <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -31089,6 +32513,12 @@
         </is>
       </c>
       <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -31242,6 +32672,12 @@
         </is>
       </c>
       <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -31393,6 +32829,14 @@
         </is>
       </c>
       <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS66" t="n">
+        <v>452.3878729343414</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -31544,6 +32988,12 @@
         </is>
       </c>
       <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -31719,6 +33169,14 @@
       <c r="AQ68" t="n">
         <v>0.2683510780334473</v>
       </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.2500982284545898</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -31894,6 +33352,14 @@
       <c r="AQ69" t="n">
         <v>0.2685701847076416</v>
       </c>
+      <c r="AR69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.2503037452697754</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -32069,6 +33535,14 @@
       <c r="AQ70" t="n">
         <v>0.2688069343566895</v>
       </c>
+      <c r="AR70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS70" t="n">
+        <v>0.2505192756652832</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -32244,6 +33718,14 @@
       <c r="AQ71" t="n">
         <v>0.2690942287445068</v>
       </c>
+      <c r="AR71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.2507250308990479</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -32401,6 +33883,14 @@
       <c r="AQ72" t="n">
         <v>76.6393895149231</v>
       </c>
+      <c r="AR72" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.250927209854126</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -32558,6 +34048,14 @@
       <c r="AQ73" t="n">
         <v>76.63978743553162</v>
       </c>
+      <c r="AR73" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS73" t="n">
+        <v>2115.904586076736</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -32709,6 +34207,12 @@
         </is>
       </c>
       <c r="AQ74" t="inlineStr"/>
+      <c r="AR74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -32864,6 +34368,12 @@
         </is>
       </c>
       <c r="AQ75" t="inlineStr"/>
+      <c r="AR75" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -33019,6 +34529,12 @@
         </is>
       </c>
       <c r="AQ76" t="inlineStr"/>
+      <c r="AR76" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -33172,6 +34688,12 @@
         </is>
       </c>
       <c r="AQ77" t="inlineStr"/>
+      <c r="AR77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -33347,6 +34869,14 @@
       <c r="AQ78" t="n">
         <v>0.2694320678710938</v>
       </c>
+      <c r="AR78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS78" t="n">
+        <v>0.2512335777282715</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -33522,6 +35052,14 @@
       <c r="AQ79" t="n">
         <v>0.2696394920349121</v>
       </c>
+      <c r="AR79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS79" t="n">
+        <v>0.2514386177062988</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -33697,6 +35235,14 @@
       <c r="AQ80" t="n">
         <v>0.2698719501495361</v>
       </c>
+      <c r="AR80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS80" t="n">
+        <v>0.2516529560089111</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -33872,6 +35418,14 @@
       <c r="AQ81" t="n">
         <v>0.2700943946838379</v>
       </c>
+      <c r="AR81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.2518558502197266</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -34039,6 +35593,12 @@
       <c r="AQ82" t="n">
         <v>75.50225925445557</v>
       </c>
+      <c r="AR82" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -34200,6 +35760,14 @@
       <c r="AQ83" t="n">
         <v>76.64027118682861</v>
       </c>
+      <c r="AR83" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS83" t="n">
+        <v>2115.905023336411</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -34355,6 +35923,12 @@
         </is>
       </c>
       <c r="AQ84" t="inlineStr"/>
+      <c r="AR84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -34512,6 +36086,12 @@
         </is>
       </c>
       <c r="AQ85" t="inlineStr"/>
+      <c r="AR85" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -34663,6 +36243,14 @@
         </is>
       </c>
       <c r="AQ86" t="inlineStr"/>
+      <c r="AR86" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS86" t="n">
+        <v>1088.601164102554</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -34820,6 +36408,12 @@
       <c r="AQ87" t="n">
         <v>7225.530418634415</v>
       </c>
+      <c r="AR87" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -34995,6 +36589,14 @@
       <c r="AQ88" t="n">
         <v>0.270451545715332</v>
       </c>
+      <c r="AR88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS88" t="n">
+        <v>0.2522072792053223</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -35170,6 +36772,14 @@
       <c r="AQ89" t="n">
         <v>0.2706630229949951</v>
       </c>
+      <c r="AR89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS89" t="n">
+        <v>0.2524189949035645</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -35345,6 +36955,14 @@
       <c r="AQ90" t="n">
         <v>0.2708775997161865</v>
       </c>
+      <c r="AR90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS90" t="n">
+        <v>0.2526497840881348</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -35520,6 +37138,14 @@
       <c r="AQ91" t="n">
         <v>0.2711296081542969</v>
       </c>
+      <c r="AR91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS91" t="n">
+        <v>0.252873420715332</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -35683,6 +37309,12 @@
         </is>
       </c>
       <c r="AQ92" t="inlineStr"/>
+      <c r="AR92" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -35838,6 +37470,12 @@
         </is>
       </c>
       <c r="AQ93" t="inlineStr"/>
+      <c r="AR93" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -35997,6 +37635,12 @@
         </is>
       </c>
       <c r="AQ94" t="inlineStr"/>
+      <c r="AR94" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -36162,6 +37806,12 @@
         </is>
       </c>
       <c r="AQ95" t="inlineStr"/>
+      <c r="AR95" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -36317,6 +37967,12 @@
         </is>
       </c>
       <c r="AQ96" t="inlineStr"/>
+      <c r="AR96" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -36474,6 +38130,12 @@
         </is>
       </c>
       <c r="AQ97" t="inlineStr"/>
+      <c r="AR97" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -36649,6 +38311,14 @@
       <c r="AQ98" t="n">
         <v>0.2714884281158447</v>
       </c>
+      <c r="AR98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS98" t="n">
+        <v>0.2532010078430176</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -36824,6 +38494,14 @@
       <c r="AQ99" t="n">
         <v>0.2717018127441406</v>
       </c>
+      <c r="AR99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS99" t="n">
+        <v>0.2534103393554688</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -36999,6 +38677,14 @@
       <c r="AQ100" t="n">
         <v>0.2719180583953857</v>
       </c>
+      <c r="AR100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS100" t="n">
+        <v>0.253626823425293</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -37174,6 +38860,14 @@
       <c r="AQ101" t="n">
         <v>0.2721498012542725</v>
       </c>
+      <c r="AR101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS101" t="n">
+        <v>0.2538316249847412</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -37333,6 +39027,12 @@
         </is>
       </c>
       <c r="AQ102" t="inlineStr"/>
+      <c r="AR102" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -37494,6 +39194,12 @@
         </is>
       </c>
       <c r="AQ103" t="inlineStr"/>
+      <c r="AR103" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -37657,6 +39363,12 @@
         </is>
       </c>
       <c r="AQ104" t="inlineStr"/>
+      <c r="AR104" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -37826,6 +39538,12 @@
       <c r="AQ105" t="n">
         <v>6321.375195026398</v>
       </c>
+      <c r="AR105" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -37985,6 +39703,12 @@
         </is>
       </c>
       <c r="AQ106" t="inlineStr"/>
+      <c r="AR106" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -38148,6 +39872,12 @@
         </is>
       </c>
       <c r="AQ107" t="inlineStr"/>
+      <c r="AR107" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -38315,6 +40045,12 @@
         </is>
       </c>
       <c r="AQ108" t="inlineStr"/>
+      <c r="AR108" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -38488,6 +40224,14 @@
         </is>
       </c>
       <c r="AQ109" t="inlineStr"/>
+      <c r="AR109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS109" t="n">
+        <v>0.2541840076446533</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -38657,6 +40401,14 @@
         </is>
       </c>
       <c r="AQ110" t="inlineStr"/>
+      <c r="AR110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS110" t="n">
+        <v>603.9263534545898</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -38824,6 +40576,14 @@
         </is>
       </c>
       <c r="AQ111" t="inlineStr"/>
+      <c r="AR111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS111" t="n">
+        <v>68.66626644134521</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -38993,6 +40753,12 @@
         </is>
       </c>
       <c r="AQ112" t="inlineStr"/>
+      <c r="AR112" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -39166,6 +40932,14 @@
         </is>
       </c>
       <c r="AQ113" t="inlineStr"/>
+      <c r="AR113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS113" t="n">
+        <v>0.2544572353363037</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -39339,6 +41113,12 @@
         </is>
       </c>
       <c r="AQ114" t="inlineStr"/>
+      <c r="AR114" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -39514,6 +41294,12 @@
       <c r="AQ115" t="n">
         <v>6321.375684261322</v>
       </c>
+      <c r="AR115" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -39685,6 +41471,12 @@
         </is>
       </c>
       <c r="AQ116" t="inlineStr"/>
+      <c r="AR116" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -39858,6 +41650,14 @@
         </is>
       </c>
       <c r="AQ117" t="inlineStr"/>
+      <c r="AR117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS117" t="n">
+        <v>18.00550389289856</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -40033,6 +41833,14 @@
       <c r="AQ118" t="n">
         <v>15.66722631454468</v>
       </c>
+      <c r="AR118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS118" t="n">
+        <v>0.254758358001709</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -40208,6 +42016,14 @@
       <c r="AQ119" t="n">
         <v>131.2827379703522</v>
       </c>
+      <c r="AR119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS119" t="n">
+        <v>0.2549653053283691</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -40381,6 +42197,14 @@
       <c r="AQ120" t="n">
         <v>31.74294090270996</v>
       </c>
+      <c r="AR120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS120" t="n">
+        <v>603.9269244670868</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -40556,6 +42380,14 @@
       <c r="AQ121" t="n">
         <v>14.50000286102295</v>
       </c>
+      <c r="AR121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS121" t="n">
+        <v>68.66679787635803</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -40731,6 +42563,12 @@
       <c r="AQ122" t="n">
         <v>15.66762948036194</v>
       </c>
+      <c r="AR122" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -40906,6 +42744,14 @@
       <c r="AQ123" t="n">
         <v>22.56768751144409</v>
       </c>
+      <c r="AR123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS123" t="n">
+        <v>0.2552347183227539</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -41081,6 +42927,14 @@
       <c r="AQ124" t="n">
         <v>12.10463213920593</v>
       </c>
+      <c r="AR124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS124" t="n">
+        <v>19.14550685882568</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -41254,6 +43108,14 @@
       <c r="AQ125" t="n">
         <v>45.55096387863159</v>
       </c>
+      <c r="AR125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS125" t="n">
+        <v>292.089067697525</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -41429,6 +43291,12 @@
       <c r="AQ126" t="n">
         <v>6321.376111984253</v>
       </c>
+      <c r="AR126" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -41604,6 +43472,14 @@
       <c r="AQ127" t="n">
         <v>67.48600339889526</v>
       </c>
+      <c r="AR127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS127" t="n">
+        <v>18.0060498714447</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -41779,6 +43655,14 @@
       <c r="AQ128" t="n">
         <v>15.66805243492126</v>
       </c>
+      <c r="AR128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS128" t="n">
+        <v>0.25553297996521</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -41954,6 +43838,12 @@
       <c r="AQ129" t="n">
         <v>1724.85836148262</v>
       </c>
+      <c r="AR129" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -42129,6 +44019,14 @@
       <c r="AQ130" t="n">
         <v>31.74342679977417</v>
       </c>
+      <c r="AR130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS130" t="n">
+        <v>906.9398565292358</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -42304,6 +44202,14 @@
       <c r="AQ131" t="n">
         <v>14.5005943775177</v>
       </c>
+      <c r="AR131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS131" t="n">
+        <v>14.54603743553162</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -42477,6 +44383,12 @@
       <c r="AQ132" t="n">
         <v>16.8038170337677</v>
       </c>
+      <c r="AR132" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -42650,6 +44562,14 @@
       <c r="AQ133" t="n">
         <v>22.56813859939575</v>
       </c>
+      <c r="AR133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS133" t="n">
+        <v>0.2558276653289795</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -42821,6 +44741,14 @@
       <c r="AQ134" t="n">
         <v>12.10530471801758</v>
       </c>
+      <c r="AR134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS134" t="n">
+        <v>292.089503288269</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -42992,6 +44920,14 @@
       <c r="AQ135" t="n">
         <v>45.55147242546082</v>
       </c>
+      <c r="AR135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS135" t="n">
+        <v>19.14607906341553</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -43163,6 +45099,14 @@
       <c r="AQ136" t="n">
         <v>330.5253598690033</v>
       </c>
+      <c r="AR136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS136" t="n">
+        <v>3017.075641870499</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -43336,6 +45280,14 @@
       <c r="AQ137" t="n">
         <v>67.48646640777588</v>
       </c>
+      <c r="AR137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS137" t="n">
+        <v>3617.782154560089</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -43509,6 +45461,12 @@
         </is>
       </c>
       <c r="AQ138" t="inlineStr"/>
+      <c r="AR138" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -43680,6 +45638,12 @@
         </is>
       </c>
       <c r="AQ139" t="inlineStr"/>
+      <c r="AR139" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AS139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -43855,6 +45819,14 @@
       <c r="AQ140" t="n">
         <v>451.7372756004333</v>
       </c>
+      <c r="AR140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS140" t="n">
+        <v>906.9404404163361</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -44027,6 +45999,14 @@
       </c>
       <c r="AQ141" t="n">
         <v>233.3122282028198</v>
+      </c>
+      <c r="AR141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AS141" t="n">
+        <v>14.54666066169739</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W141"/>
+  <dimension ref="A1:X141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,11 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -620,7 +625,10 @@
         <v>0.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.264705882352941</v>
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="3">
@@ -693,6 +701,9 @@
       <c r="W3" t="n">
         <v>0.5</v>
       </c>
+      <c r="X3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +775,9 @@
       <c r="W4" t="n">
         <v>0.5</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -835,6 +849,9 @@
       <c r="W5" t="n">
         <v>0.5</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -906,6 +923,9 @@
       <c r="W6" t="n">
         <v>0.5</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -977,6 +997,9 @@
       <c r="W7" t="n">
         <v>0.5</v>
       </c>
+      <c r="X7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1046,6 +1069,9 @@
         <v>-1</v>
       </c>
       <c r="W8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X8" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1117,6 +1143,9 @@
         <v>-1</v>
       </c>
       <c r="W9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X9" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1188,6 +1217,9 @@
         <v>-1</v>
       </c>
       <c r="W10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X10" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1259,6 +1291,9 @@
         <v>-1</v>
       </c>
       <c r="W11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X11" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1330,7 +1365,10 @@
         <v>0.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.264705882352941</v>
+        <v>0.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="13">
@@ -1403,6 +1441,9 @@
       <c r="W13" t="n">
         <v>0.5</v>
       </c>
+      <c r="X13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1474,6 +1515,9 @@
       <c r="W14" t="n">
         <v>0.5</v>
       </c>
+      <c r="X14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1543,7 +1587,10 @@
         <v>0.5</v>
       </c>
       <c r="W15" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="16">
@@ -1616,6 +1663,9 @@
       <c r="W16" t="n">
         <v>0.5</v>
       </c>
+      <c r="X16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1687,6 +1737,9 @@
       <c r="W17" t="n">
         <v>0.5</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1756,6 +1809,9 @@
         <v>-1</v>
       </c>
       <c r="W18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X18" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1827,6 +1883,9 @@
         <v>-1</v>
       </c>
       <c r="W19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X19" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1898,6 +1957,9 @@
         <v>-1</v>
       </c>
       <c r="W20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X20" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1969,6 +2031,9 @@
         <v>-1</v>
       </c>
       <c r="W21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X21" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -2040,7 +2105,10 @@
         <v>0.5</v>
       </c>
       <c r="W22" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="23">
@@ -2111,7 +2179,10 @@
         <v>0.5</v>
       </c>
       <c r="W23" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="24">
@@ -2182,7 +2253,10 @@
         <v>0.5</v>
       </c>
       <c r="W24" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="25">
@@ -2253,7 +2327,10 @@
         <v>0.5</v>
       </c>
       <c r="W25" t="n">
-        <v>1.205882352941176</v>
+        <v>2.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.277777777777778</v>
       </c>
     </row>
     <row r="26">
@@ -2324,7 +2401,10 @@
         <v>0.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.205882352941176</v>
+        <v>4.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.388888888888889</v>
       </c>
     </row>
     <row r="27">
@@ -2395,7 +2475,10 @@
         <v>0.5</v>
       </c>
       <c r="W27" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="28">
@@ -2466,6 +2549,9 @@
         <v>-1</v>
       </c>
       <c r="W28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X28" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2537,6 +2623,9 @@
         <v>-1</v>
       </c>
       <c r="W29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X29" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -2608,6 +2697,9 @@
         <v>-1</v>
       </c>
       <c r="W30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X30" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2679,6 +2771,9 @@
         <v>-1</v>
       </c>
       <c r="W31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X31" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -2750,7 +2845,10 @@
         <v>0.5</v>
       </c>
       <c r="W32" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="33">
@@ -2821,7 +2919,10 @@
         <v>0.5</v>
       </c>
       <c r="W33" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="34">
@@ -2892,7 +2993,10 @@
         <v>0.5</v>
       </c>
       <c r="W34" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="35">
@@ -2963,7 +3067,10 @@
         <v>0.5</v>
       </c>
       <c r="W35" t="n">
-        <v>1.147058823529412</v>
+        <v>0.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.111111111111111</v>
       </c>
     </row>
     <row r="36">
@@ -3034,7 +3141,10 @@
         <v>3.5</v>
       </c>
       <c r="W36" t="n">
-        <v>1.323529411764706</v>
+        <v>4.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="37">
@@ -3105,7 +3215,10 @@
         <v>0.5</v>
       </c>
       <c r="W37" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="38">
@@ -3176,6 +3289,9 @@
         <v>-1</v>
       </c>
       <c r="W38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X38" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3247,6 +3363,9 @@
         <v>-1</v>
       </c>
       <c r="W39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X39" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -3318,6 +3437,9 @@
         <v>-1</v>
       </c>
       <c r="W40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X40" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3389,6 +3511,9 @@
         <v>-1</v>
       </c>
       <c r="W41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X41" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -3462,6 +3587,9 @@
       <c r="W42" t="n">
         <v>0.5</v>
       </c>
+      <c r="X42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3533,6 +3661,9 @@
       <c r="W43" t="n">
         <v>0.5</v>
       </c>
+      <c r="X43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3602,7 +3733,10 @@
         <v>0.5</v>
       </c>
       <c r="W44" t="n">
-        <v>0.5625</v>
+        <v>0.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="45">
@@ -3675,6 +3809,9 @@
       <c r="W45" t="n">
         <v>0.5</v>
       </c>
+      <c r="X45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3746,6 +3883,9 @@
       <c r="W46" t="n">
         <v>0.5</v>
       </c>
+      <c r="X46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3817,6 +3957,9 @@
       <c r="W47" t="n">
         <v>0.5</v>
       </c>
+      <c r="X47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3886,6 +4029,9 @@
         <v>-1</v>
       </c>
       <c r="W48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X48" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3957,6 +4103,9 @@
         <v>-1</v>
       </c>
       <c r="W49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X49" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -4028,6 +4177,9 @@
         <v>-1</v>
       </c>
       <c r="W50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X50" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4099,6 +4251,9 @@
         <v>-1</v>
       </c>
       <c r="W51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X51" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -4170,7 +4325,10 @@
         <v>0.5</v>
       </c>
       <c r="W52" t="n">
-        <v>1.086666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="53">
@@ -4243,6 +4401,9 @@
       <c r="W53" t="n">
         <v>0.5</v>
       </c>
+      <c r="X53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4314,6 +4475,9 @@
       <c r="W54" t="n">
         <v>0.5</v>
       </c>
+      <c r="X54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4385,6 +4549,9 @@
       <c r="W55" t="n">
         <v>0.5</v>
       </c>
+      <c r="X55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4454,7 +4621,10 @@
         <v>4.5</v>
       </c>
       <c r="W56" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="57">
@@ -4527,6 +4697,9 @@
       <c r="W57" t="n">
         <v>0.5</v>
       </c>
+      <c r="X57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4596,6 +4769,9 @@
         <v>-1</v>
       </c>
       <c r="W58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X58" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4667,6 +4843,9 @@
         <v>-1</v>
       </c>
       <c r="W59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X59" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -4738,6 +4917,9 @@
         <v>-1</v>
       </c>
       <c r="W60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X60" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4809,6 +4991,9 @@
         <v>-1</v>
       </c>
       <c r="W61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X61" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -4880,7 +5065,10 @@
         <v>0.5</v>
       </c>
       <c r="W62" t="n">
-        <v>1.42</v>
+        <v>0.5</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.3625</v>
       </c>
     </row>
     <row r="63">
@@ -4951,7 +5139,10 @@
         <v>0.5</v>
       </c>
       <c r="W63" t="n">
-        <v>1.233333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.1875</v>
       </c>
     </row>
     <row r="64">
@@ -5024,6 +5215,9 @@
       <c r="W64" t="n">
         <v>0.5</v>
       </c>
+      <c r="X64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5093,7 +5287,10 @@
         <v>0.5</v>
       </c>
       <c r="W65" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.0625</v>
       </c>
     </row>
     <row r="66">
@@ -5164,7 +5361,10 @@
         <v>4.5</v>
       </c>
       <c r="W66" t="n">
-        <v>1.366666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.3125</v>
       </c>
     </row>
     <row r="67">
@@ -5235,7 +5435,10 @@
         <v>0.5</v>
       </c>
       <c r="W67" t="n">
-        <v>0.6333333333333333</v>
+        <v>1.5</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.6875</v>
       </c>
     </row>
     <row r="68">
@@ -5306,6 +5509,9 @@
         <v>-1</v>
       </c>
       <c r="W68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X68" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5377,6 +5583,9 @@
         <v>-1</v>
       </c>
       <c r="W69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X69" t="n">
         <v>5.1</v>
       </c>
     </row>
@@ -5448,6 +5657,9 @@
         <v>-1</v>
       </c>
       <c r="W70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X70" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5519,6 +5731,9 @@
         <v>-1</v>
       </c>
       <c r="W71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X71" t="n">
         <v>6.3</v>
       </c>
     </row>
@@ -5590,7 +5805,10 @@
         <v>-1</v>
       </c>
       <c r="W72" t="n">
-        <v>1.785714285714286</v>
+        <v>6.5</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="73">
@@ -5661,7 +5879,10 @@
         <v>2.5</v>
       </c>
       <c r="W73" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -5732,7 +5953,10 @@
         <v>0.5</v>
       </c>
       <c r="W74" t="n">
-        <v>1.353333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="75">
@@ -5803,7 +6027,10 @@
         <v>0.5</v>
       </c>
       <c r="W75" t="n">
-        <v>1.233333333333333</v>
+        <v>1.5</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="76">
@@ -5874,7 +6101,10 @@
         <v>0.5</v>
       </c>
       <c r="W76" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="77">
@@ -5945,7 +6175,10 @@
         <v>0.5</v>
       </c>
       <c r="W77" t="n">
-        <v>1.366666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="X77" t="n">
+        <v>1.3125</v>
       </c>
     </row>
     <row r="78">
@@ -6016,6 +6249,9 @@
         <v>-1</v>
       </c>
       <c r="W78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X78" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6087,6 +6323,9 @@
         <v>-1</v>
       </c>
       <c r="W79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X79" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -6158,6 +6397,9 @@
         <v>-1</v>
       </c>
       <c r="W80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X80" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6229,6 +6471,9 @@
         <v>-1</v>
       </c>
       <c r="W81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6300,7 +6545,10 @@
         <v>0.5</v>
       </c>
       <c r="W82" t="n">
-        <v>3.7</v>
+        <v>6.5</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.875</v>
       </c>
     </row>
     <row r="83">
@@ -6371,7 +6619,10 @@
         <v>2.5</v>
       </c>
       <c r="W83" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1.8125</v>
       </c>
     </row>
     <row r="84">
@@ -6442,7 +6693,10 @@
         <v>0.5</v>
       </c>
       <c r="W84" t="n">
-        <v>1.62</v>
+        <v>0.5</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="85">
@@ -6513,7 +6767,10 @@
         <v>0.5</v>
       </c>
       <c r="W85" t="n">
-        <v>1.433333333333333</v>
+        <v>1.5</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1.4375</v>
       </c>
     </row>
     <row r="86">
@@ -6584,7 +6841,10 @@
         <v>3.5</v>
       </c>
       <c r="W86" t="n">
-        <v>1.166666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="X86" t="n">
+        <v>1.125</v>
       </c>
     </row>
     <row r="87">
@@ -6655,7 +6915,10 @@
         <v>0.5</v>
       </c>
       <c r="W87" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="X87" t="n">
+        <v>1.625</v>
       </c>
     </row>
     <row r="88">
@@ -6726,6 +6989,9 @@
         <v>-1</v>
       </c>
       <c r="W88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X88" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6797,6 +7063,9 @@
         <v>-1</v>
       </c>
       <c r="W89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6868,6 +7137,9 @@
         <v>-1</v>
       </c>
       <c r="W90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X90" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6939,6 +7211,9 @@
         <v>-1</v>
       </c>
       <c r="W91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X91" t="n">
         <v>6.459999999999999</v>
       </c>
     </row>
@@ -7010,7 +7285,10 @@
         <v>0.5</v>
       </c>
       <c r="W92" t="n">
-        <v>2.366666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="93">
@@ -7081,7 +7359,10 @@
         <v>0.5</v>
       </c>
       <c r="W93" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.0625</v>
       </c>
     </row>
     <row r="94">
@@ -7152,7 +7433,10 @@
         <v>0.5</v>
       </c>
       <c r="W94" t="n">
-        <v>1.833333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="95">
@@ -7223,7 +7507,10 @@
         <v>0.5</v>
       </c>
       <c r="W95" t="n">
-        <v>2.366666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="96">
@@ -7294,7 +7581,10 @@
         <v>0.5</v>
       </c>
       <c r="W96" t="n">
-        <v>1.233333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.1875</v>
       </c>
     </row>
     <row r="97">
@@ -7365,7 +7655,10 @@
         <v>0.5</v>
       </c>
       <c r="W97" t="n">
-        <v>1.633333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.5625</v>
       </c>
     </row>
     <row r="98">
@@ -7436,6 +7729,9 @@
         <v>-1</v>
       </c>
       <c r="W98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X98" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7507,6 +7803,9 @@
         <v>-1</v>
       </c>
       <c r="W99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X99" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -7578,6 +7877,9 @@
         <v>-1</v>
       </c>
       <c r="W100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X100" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7649,6 +7951,9 @@
         <v>-1</v>
       </c>
       <c r="W101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X101" t="n">
         <v>6.659999999999999</v>
       </c>
     </row>
@@ -7720,7 +8025,10 @@
         <v>0.5</v>
       </c>
       <c r="W102" t="n">
-        <v>2.841176470588235</v>
+        <v>0.5</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.711111111111111</v>
       </c>
     </row>
     <row r="103">
@@ -7791,7 +8099,10 @@
         <v>0.5</v>
       </c>
       <c r="W103" t="n">
-        <v>2.147058823529412</v>
+        <v>0.5</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.055555555555555</v>
       </c>
     </row>
     <row r="104">
@@ -7862,7 +8173,10 @@
         <v>0.5</v>
       </c>
       <c r="W104" t="n">
-        <v>2.441176470588236</v>
+        <v>0.5</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="105">
@@ -7933,7 +8247,10 @@
         <v>0.5</v>
       </c>
       <c r="W105" t="n">
-        <v>3.029411764705882</v>
+        <v>0.5</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.888888888888889</v>
       </c>
     </row>
     <row r="106">
@@ -8004,7 +8321,10 @@
         <v>0.5</v>
       </c>
       <c r="W106" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.388888888888889</v>
       </c>
     </row>
     <row r="107">
@@ -8075,7 +8395,10 @@
         <v>0.5</v>
       </c>
       <c r="W107" t="n">
-        <v>3.311764705882353</v>
+        <v>0.5</v>
+      </c>
+      <c r="X107" t="n">
+        <v>3.155555555555555</v>
       </c>
     </row>
     <row r="108">
@@ -8146,7 +8469,10 @@
         <v>0.5</v>
       </c>
       <c r="W108" t="n">
-        <v>3.988235294117647</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X108" t="n">
+        <v>4.227777777777778</v>
       </c>
     </row>
     <row r="109">
@@ -8217,7 +8543,10 @@
         <v>-1</v>
       </c>
       <c r="W109" t="n">
-        <v>4.68</v>
+        <v>0.5</v>
+      </c>
+      <c r="X109" t="n">
+        <v>4.480952380952381</v>
       </c>
     </row>
     <row r="110">
@@ -8288,6 +8617,9 @@
         <v>3.5</v>
       </c>
       <c r="W110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X110" t="n">
         <v>4.136363636363637</v>
       </c>
     </row>
@@ -8359,7 +8691,10 @@
         <v>6.5</v>
       </c>
       <c r="W111" t="n">
-        <v>5.27</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X111" t="n">
+        <v>5.414285714285715</v>
       </c>
     </row>
     <row r="112">
@@ -8430,7 +8765,10 @@
         <v>0.5</v>
       </c>
       <c r="W112" t="n">
-        <v>4.970588235294118</v>
+        <v>0.5</v>
+      </c>
+      <c r="X112" t="n">
+        <v>4.722222222222222</v>
       </c>
     </row>
     <row r="113">
@@ -8501,7 +8839,10 @@
         <v>-1</v>
       </c>
       <c r="W113" t="n">
-        <v>5.11875</v>
+        <v>0.5</v>
+      </c>
+      <c r="X113" t="n">
+        <v>4.847058823529412</v>
       </c>
     </row>
     <row r="114">
@@ -8572,7 +8913,10 @@
         <v>0.5</v>
       </c>
       <c r="W114" t="n">
-        <v>5.382352941176471</v>
+        <v>0.5</v>
+      </c>
+      <c r="X114" t="n">
+        <v>5.111111111111111</v>
       </c>
     </row>
     <row r="115">
@@ -8643,7 +8987,10 @@
         <v>0.5</v>
       </c>
       <c r="W115" t="n">
-        <v>4.488235294117647</v>
+        <v>0.5</v>
+      </c>
+      <c r="X115" t="n">
+        <v>4.266666666666667</v>
       </c>
     </row>
     <row r="116">
@@ -8714,7 +9061,10 @@
         <v>0.5</v>
       </c>
       <c r="W116" t="n">
-        <v>4.441176470588236</v>
+        <v>1.5</v>
+      </c>
+      <c r="X116" t="n">
+        <v>4.277777777777778</v>
       </c>
     </row>
     <row r="117">
@@ -8785,6 +9135,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="W117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X117" t="n">
         <v>5.7</v>
       </c>
     </row>
@@ -8856,7 +9209,10 @@
         <v>-1</v>
       </c>
       <c r="W118" t="n">
-        <v>6.30625</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X118" t="n">
+        <v>6.423529411764706</v>
       </c>
     </row>
     <row r="119">
@@ -8927,7 +9283,10 @@
         <v>-1</v>
       </c>
       <c r="W119" t="n">
-        <v>5.984210526315789</v>
+        <v>7.5</v>
+      </c>
+      <c r="X119" t="n">
+        <v>6.06</v>
       </c>
     </row>
     <row r="120">
@@ -8998,6 +9357,9 @@
         <v>3.5</v>
       </c>
       <c r="W120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X120" t="n">
         <v>5.409090909090909</v>
       </c>
     </row>
@@ -9069,7 +9431,10 @@
         <v>6.5</v>
       </c>
       <c r="W121" t="n">
-        <v>7.452631578947369</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X121" t="n">
+        <v>7.495000000000002</v>
       </c>
     </row>
     <row r="122">
@@ -9140,7 +9505,10 @@
         <v>0.5</v>
       </c>
       <c r="W122" t="n">
-        <v>7.170588235294118</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X122" t="n">
+        <v>7.233333333333334</v>
       </c>
     </row>
     <row r="123">
@@ -9211,7 +9579,10 @@
         <v>-1</v>
       </c>
       <c r="W123" t="n">
-        <v>7.28125</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X123" t="n">
+        <v>7.341176470588235</v>
       </c>
     </row>
     <row r="124">
@@ -9282,7 +9653,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="W124" t="n">
-        <v>7.30625</v>
+        <v>3.5</v>
+      </c>
+      <c r="X124" t="n">
+        <v>7.082352941176471</v>
       </c>
     </row>
     <row r="125">
@@ -9353,7 +9727,10 @@
         <v>5.5</v>
       </c>
       <c r="W125" t="n">
-        <v>6.535294117647059</v>
+        <v>0.5</v>
+      </c>
+      <c r="X125" t="n">
+        <v>6.199999999999999</v>
       </c>
     </row>
     <row r="126">
@@ -9424,7 +9801,10 @@
         <v>0.5</v>
       </c>
       <c r="W126" t="n">
-        <v>6.394117647058824</v>
+        <v>1.5</v>
+      </c>
+      <c r="X126" t="n">
+        <v>6.122222222222223</v>
       </c>
     </row>
     <row r="127">
@@ -9495,6 +9875,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="W127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X127" t="n">
         <v>7.413333333333332</v>
       </c>
     </row>
@@ -9566,7 +9949,10 @@
         <v>-1</v>
       </c>
       <c r="W128" t="n">
-        <v>6.873333333333333</v>
+        <v>3.5</v>
+      </c>
+      <c r="X128" t="n">
+        <v>6.662500000000001</v>
       </c>
     </row>
     <row r="129">
@@ -9637,7 +10023,10 @@
         <v>0.5</v>
       </c>
       <c r="W129" t="n">
-        <v>6.409523809523809</v>
+        <v>7.5</v>
+      </c>
+      <c r="X129" t="n">
+        <v>6.459090909090909</v>
       </c>
     </row>
     <row r="130">
@@ -9708,6 +10097,9 @@
         <v>3.5</v>
       </c>
       <c r="W130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X130" t="n">
         <v>7.072727272727272</v>
       </c>
     </row>
@@ -9779,7 +10171,10 @@
         <v>8.6</v>
       </c>
       <c r="W131" t="n">
-        <v>7.56842105263158</v>
+        <v>3.5</v>
+      </c>
+      <c r="X131" t="n">
+        <v>7.365</v>
       </c>
     </row>
     <row r="132">
@@ -9850,7 +10245,10 @@
         <v>0.5</v>
       </c>
       <c r="W132" t="n">
-        <v>5.629411764705883</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X132" t="n">
+        <v>5.777777777777778</v>
       </c>
     </row>
     <row r="133">
@@ -9921,7 +10319,10 @@
         <v>-1</v>
       </c>
       <c r="W133" t="n">
-        <v>5.162500000000001</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X133" t="n">
+        <v>5.347058823529412</v>
       </c>
     </row>
     <row r="134">
@@ -9992,7 +10393,10 @@
         <v>5.5</v>
       </c>
       <c r="W134" t="n">
-        <v>4.152941176470588</v>
+        <v>3.5</v>
+      </c>
+      <c r="X134" t="n">
+        <v>4.116666666666666</v>
       </c>
     </row>
     <row r="135">
@@ -10063,6 +10467,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="W135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X135" t="n">
         <v>5.947058823529411</v>
       </c>
     </row>
@@ -10134,6 +10541,9 @@
         <v>2.5</v>
       </c>
       <c r="W136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X136" t="n">
         <v>5.511764705882353</v>
       </c>
     </row>
@@ -10205,7 +10615,10 @@
         <v>1.5</v>
       </c>
       <c r="W137" t="n">
-        <v>5.643750000000001</v>
+        <v>0.5</v>
+      </c>
+      <c r="X137" t="n">
+        <v>5.341176470588236</v>
       </c>
     </row>
     <row r="138">
@@ -10276,7 +10689,10 @@
         <v>0.5</v>
       </c>
       <c r="W138" t="n">
-        <v>5.375</v>
+        <v>3.5</v>
+      </c>
+      <c r="X138" t="n">
+        <v>5.264705882352941</v>
       </c>
     </row>
     <row r="139">
@@ -10347,7 +10763,10 @@
         <v>0.5</v>
       </c>
       <c r="W139" t="n">
-        <v>5.275</v>
+        <v>0.5</v>
+      </c>
+      <c r="X139" t="n">
+        <v>5.047619047619047</v>
       </c>
     </row>
     <row r="140">
@@ -10418,6 +10837,9 @@
         <v>3.5</v>
       </c>
       <c r="W140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X140" t="n">
         <v>6.327272727272727</v>
       </c>
     </row>
@@ -10489,7 +10911,10 @@
         <v>8.6</v>
       </c>
       <c r="W141" t="n">
-        <v>5.76</v>
+        <v>0.5</v>
+      </c>
+      <c r="X141" t="n">
+        <v>5.509523809523809</v>
       </c>
     </row>
   </sheetData>
@@ -10503,7 +10928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V141"/>
+  <dimension ref="A1:W141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10622,6 +11047,11 @@
           <t>2023-08-08</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -10718,6 +11148,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -10820,6 +11255,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -10922,6 +11362,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -11024,6 +11469,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -11126,6 +11576,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -11228,6 +11683,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -11296,6 +11756,9 @@
       <c r="V8" t="n">
         <v>0.2436995506286621</v>
       </c>
+      <c r="W8" t="n">
+        <v>0.237959623336792</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -11364,6 +11827,9 @@
       <c r="V9" t="n">
         <v>0.2439451217651367</v>
       </c>
+      <c r="W9" t="n">
+        <v>0.2382316589355469</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -11432,6 +11898,9 @@
       <c r="V10" t="n">
         <v>0.2442526817321777</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.2384979724884033</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -11500,6 +11969,9 @@
       <c r="V11" t="n">
         <v>0.2444729804992676</v>
       </c>
+      <c r="W11" t="n">
+        <v>0.2387583255767822</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -11596,6 +12068,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -11698,6 +12175,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -11800,6 +12282,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -11898,6 +12385,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -12000,6 +12492,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -12102,6 +12599,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -12170,6 +12672,9 @@
       <c r="V18" t="n">
         <v>0.2448303699493408</v>
       </c>
+      <c r="W18" t="n">
+        <v>0.2391164302825928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -12238,6 +12743,9 @@
       <c r="V19" t="n">
         <v>0.2450454235076904</v>
       </c>
+      <c r="W19" t="n">
+        <v>0.2393674850463867</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -12306,6 +12814,9 @@
       <c r="V20" t="n">
         <v>0.245286226272583</v>
       </c>
+      <c r="W20" t="n">
+        <v>0.2396228313446045</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -12374,6 +12885,9 @@
       <c r="V21" t="n">
         <v>0.2455065250396729</v>
       </c>
+      <c r="W21" t="n">
+        <v>0.2398662567138672</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -12472,6 +12986,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -12570,6 +13089,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -12668,6 +13192,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -12764,6 +13293,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W25" t="n">
+        <v>3018.265130996704</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -12858,6 +13390,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W26" t="n">
+        <v>574.6933753490448</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -12956,6 +13491,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -13024,6 +13564,9 @@
       <c r="V28" t="n">
         <v>0.2458975315093994</v>
       </c>
+      <c r="W28" t="n">
+        <v>0.2402615547180176</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -13092,6 +13635,9 @@
       <c r="V29" t="n">
         <v>0.2461168766021729</v>
       </c>
+      <c r="W29" t="n">
+        <v>0.2404866218566895</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -13160,6 +13706,9 @@
       <c r="V30" t="n">
         <v>0.2463674545288086</v>
       </c>
+      <c r="W30" t="n">
+        <v>0.2407341003417969</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -13228,6 +13777,9 @@
       <c r="V31" t="n">
         <v>0.2466087341308594</v>
       </c>
+      <c r="W31" t="n">
+        <v>0.2409789562225342</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -13328,6 +13880,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -13428,6 +13985,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -13528,6 +14090,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -13626,6 +14193,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -13720,6 +14292,9 @@
       <c r="V36" t="n">
         <v>1088.60012960434</v>
       </c>
+      <c r="W36" t="n">
+        <v>574.6938457489014</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -13816,6 +14391,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -13884,6 +14464,9 @@
       <c r="V38" t="n">
         <v>0.2469854354858398</v>
       </c>
+      <c r="W38" t="n">
+        <v>0.2413318157196045</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -13952,6 +14535,9 @@
       <c r="V39" t="n">
         <v>0.2471981048583984</v>
       </c>
+      <c r="W39" t="n">
+        <v>0.2416176795959473</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -14020,6 +14606,9 @@
       <c r="V40" t="n">
         <v>0.2474958896636963</v>
       </c>
+      <c r="W40" t="n">
+        <v>0.2418413162231445</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -14088,6 +14677,9 @@
       <c r="V41" t="n">
         <v>0.2477536201477051</v>
       </c>
+      <c r="W41" t="n">
+        <v>0.2420926094055176</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -14188,6 +14780,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -14288,6 +14885,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -14386,6 +14988,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -14486,6 +15093,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -14586,6 +15198,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -14686,6 +15303,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -14754,6 +15376,9 @@
       <c r="V48" t="n">
         <v>0.2481350898742676</v>
       </c>
+      <c r="W48" t="n">
+        <v>0.2424428462982178</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -14830,6 +15455,9 @@
       <c r="V49" t="n">
         <v>0.2483866214752197</v>
       </c>
+      <c r="W49" t="n">
+        <v>0.2427120208740234</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -14898,6 +15526,9 @@
       <c r="V50" t="n">
         <v>0.2486059665679932</v>
       </c>
+      <c r="W50" t="n">
+        <v>0.2429335117340088</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -14972,6 +15603,9 @@
       <c r="V51" t="n">
         <v>0.248809814453125</v>
       </c>
+      <c r="W51" t="n">
+        <v>0.2431466579437256</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -15066,6 +15700,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -15164,6 +15803,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -15262,6 +15906,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -15360,6 +16009,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -15456,6 +16110,11 @@
       <c r="V56" t="n">
         <v>452.3873889446259</v>
       </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -15554,6 +16213,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -15622,6 +16286,9 @@
       <c r="V58" t="n">
         <v>0.2491388320922852</v>
       </c>
+      <c r="W58" t="n">
+        <v>0.243492603302002</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -15694,6 +16361,9 @@
       <c r="V59" t="n">
         <v>0.2493448257446289</v>
       </c>
+      <c r="W59" t="n">
+        <v>0.2437410354614258</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -15762,6 +16432,9 @@
       <c r="V60" t="n">
         <v>0.2495594024658203</v>
       </c>
+      <c r="W60" t="n">
+        <v>0.2439610958099365</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -15832,6 +16505,9 @@
       <c r="V61" t="n">
         <v>0.2497642040252686</v>
       </c>
+      <c r="W61" t="n">
+        <v>0.2441952228546143</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -15924,6 +16600,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -16016,6 +16697,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -16114,6 +16800,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -16206,6 +16897,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -16298,6 +16994,11 @@
       <c r="V66" t="n">
         <v>452.3878729343414</v>
       </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -16392,6 +17093,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W67" t="n">
+        <v>8425.414584159851</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -16460,6 +17164,9 @@
       <c r="V68" t="n">
         <v>0.2500982284545898</v>
       </c>
+      <c r="W68" t="n">
+        <v>0.2445502281188965</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -16528,6 +17235,9 @@
       <c r="V69" t="n">
         <v>0.2503037452697754</v>
       </c>
+      <c r="W69" t="n">
+        <v>0.2447760105133057</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -16596,6 +17306,9 @@
       <c r="V70" t="n">
         <v>0.2505192756652832</v>
       </c>
+      <c r="W70" t="n">
+        <v>0.2449929714202881</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -16664,6 +17377,9 @@
       <c r="V71" t="n">
         <v>0.2507250308990479</v>
       </c>
+      <c r="W71" t="n">
+        <v>0.245206356048584</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -16750,6 +17466,9 @@
       <c r="V72" t="n">
         <v>0.250927209854126</v>
       </c>
+      <c r="W72" t="n">
+        <v>63.41740798950195</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -16836,6 +17555,11 @@
       <c r="V73" t="n">
         <v>2115.904586076736</v>
       </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -16930,6 +17654,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -17020,6 +17749,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W75" t="n">
+        <v>8125.016231536865</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -17110,6 +17842,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -17202,6 +17939,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -17270,6 +18012,9 @@
       <c r="V78" t="n">
         <v>0.2512335777282715</v>
       </c>
+      <c r="W78" t="n">
+        <v>0.2455496788024902</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -17338,6 +18083,9 @@
       <c r="V79" t="n">
         <v>0.2514386177062988</v>
       </c>
+      <c r="W79" t="n">
+        <v>0.2457723617553711</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -17406,6 +18154,9 @@
       <c r="V80" t="n">
         <v>0.2516529560089111</v>
       </c>
+      <c r="W80" t="n">
+        <v>0.2459845542907715</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -17474,6 +18225,9 @@
       <c r="V81" t="n">
         <v>0.2518558502197266</v>
       </c>
+      <c r="W81" t="n">
+        <v>0.2462038993835449</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -17552,6 +18306,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W82" t="n">
+        <v>63.41820287704468</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -17634,6 +18391,11 @@
       <c r="V83" t="n">
         <v>2115.905023336411</v>
       </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -17724,6 +18486,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -17812,6 +18579,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W85" t="n">
+        <v>8125.016712188721</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -17904,6 +18674,11 @@
       <c r="V86" t="n">
         <v>1088.601164102554</v>
       </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -17992,6 +18767,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -18060,6 +18840,9 @@
       <c r="V88" t="n">
         <v>0.2522072792053223</v>
       </c>
+      <c r="W88" t="n">
+        <v>0.2466933727264404</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -18128,6 +18911,9 @@
       <c r="V89" t="n">
         <v>0.2524189949035645</v>
       </c>
+      <c r="W89" t="n">
+        <v>0.2469594478607178</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -18196,6 +18982,9 @@
       <c r="V90" t="n">
         <v>0.2526497840881348</v>
       </c>
+      <c r="W90" t="n">
+        <v>0.2472026348114014</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -18264,6 +19053,9 @@
       <c r="V91" t="n">
         <v>0.252873420715332</v>
       </c>
+      <c r="W91" t="n">
+        <v>0.2474191188812256</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -18346,6 +19138,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -18436,6 +19233,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -18522,6 +19324,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -18602,6 +19409,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -18692,6 +19504,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -18780,6 +19597,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -18848,6 +19670,9 @@
       <c r="V98" t="n">
         <v>0.2532010078430176</v>
       </c>
+      <c r="W98" t="n">
+        <v>0.2478325366973877</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -18916,6 +19741,9 @@
       <c r="V99" t="n">
         <v>0.2534103393554688</v>
       </c>
+      <c r="W99" t="n">
+        <v>0.248131275177002</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -18984,6 +19812,9 @@
       <c r="V100" t="n">
         <v>0.253626823425293</v>
       </c>
+      <c r="W100" t="n">
+        <v>0.2484145164489746</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -19052,6 +19883,9 @@
       <c r="V101" t="n">
         <v>0.2538316249847412</v>
       </c>
+      <c r="W101" t="n">
+        <v>0.2487092018127441</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -19138,6 +19972,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -19222,6 +20061,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -19304,6 +20148,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -19380,6 +20229,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -19466,6 +20320,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -19548,6 +20407,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -19626,6 +20490,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W108" t="n">
+        <v>15.6370255947113</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -19696,6 +20563,11 @@
       <c r="V109" t="n">
         <v>0.2541840076446533</v>
       </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -19770,6 +20642,9 @@
       <c r="V110" t="n">
         <v>603.9263534545898</v>
       </c>
+      <c r="W110" t="n">
+        <v>0.2491660118103027</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -19846,6 +20721,9 @@
       <c r="V111" t="n">
         <v>68.66626644134521</v>
       </c>
+      <c r="W111" t="n">
+        <v>16.78798151016235</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -19922,6 +20800,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -19992,6 +20875,11 @@
       <c r="V113" t="n">
         <v>0.2544572353363037</v>
       </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -20064,6 +20952,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -20134,6 +21027,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -20208,6 +21106,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W116" t="n">
+        <v>9026.19703912735</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -20278,6 +21179,9 @@
       <c r="V117" t="n">
         <v>18.00550389289856</v>
       </c>
+      <c r="W117" t="n">
+        <v>0.2495720386505127</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -20346,6 +21250,9 @@
       <c r="V118" t="n">
         <v>0.254758358001709</v>
       </c>
+      <c r="W118" t="n">
+        <v>15.63751435279846</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -20414,6 +21321,9 @@
       <c r="V119" t="n">
         <v>0.2549653053283691</v>
       </c>
+      <c r="W119" t="n">
+        <v>34.05809783935547</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -20484,6 +21394,9 @@
       <c r="V120" t="n">
         <v>603.9269244670868</v>
       </c>
+      <c r="W120" t="n">
+        <v>0.2498793601989746</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -20552,6 +21465,9 @@
       <c r="V121" t="n">
         <v>68.66679787635803</v>
       </c>
+      <c r="W121" t="n">
+        <v>16.78857803344727</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -20622,6 +21538,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W122" t="n">
+        <v>15.63784575462341</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -20690,6 +21609,9 @@
       <c r="V123" t="n">
         <v>0.2552347183227539</v>
       </c>
+      <c r="W123" t="n">
+        <v>16.78889727592468</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -20758,6 +21680,9 @@
       <c r="V124" t="n">
         <v>19.14550685882568</v>
       </c>
+      <c r="W124" t="n">
+        <v>968.2448418140411</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -20828,6 +21753,11 @@
       <c r="V125" t="n">
         <v>292.089067697525</v>
       </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -20898,6 +21828,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W126" t="n">
+        <v>9026.197655200958</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -20966,6 +21899,9 @@
       <c r="V127" t="n">
         <v>18.0060498714447</v>
       </c>
+      <c r="W127" t="n">
+        <v>0.250236988067627</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -21034,6 +21970,9 @@
       <c r="V128" t="n">
         <v>0.25553297996521</v>
       </c>
+      <c r="W128" t="n">
+        <v>1604.651415348053</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -21104,6 +22043,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W129" t="n">
+        <v>34.05851936340332</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -21172,6 +22114,9 @@
       <c r="V130" t="n">
         <v>906.9398565292358</v>
       </c>
+      <c r="W130" t="n">
+        <v>0.2505085468292236</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -21240,6 +22185,9 @@
       <c r="V131" t="n">
         <v>14.54603743553162</v>
       </c>
+      <c r="W131" t="n">
+        <v>968.2452938556671</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -21312,6 +22260,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W132" t="n">
+        <v>15.63822650909424</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -21382,6 +22333,9 @@
       <c r="V133" t="n">
         <v>0.2558276653289795</v>
       </c>
+      <c r="W133" t="n">
+        <v>16.78933143615723</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -21454,6 +22408,9 @@
       <c r="V134" t="n">
         <v>292.089503288269</v>
       </c>
+      <c r="W134" t="n">
+        <v>968.2456200122833</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -21526,6 +22483,9 @@
       <c r="V135" t="n">
         <v>19.14607906341553</v>
       </c>
+      <c r="W135" t="n">
+        <v>0.2508552074432373</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -21598,6 +22558,9 @@
       <c r="V136" t="n">
         <v>3017.075641870499</v>
       </c>
+      <c r="W136" t="n">
+        <v>0.2510840892791748</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -21668,6 +22631,11 @@
       <c r="V137" t="n">
         <v>3617.782154560089</v>
       </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -21740,6 +22708,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W138" t="n">
+        <v>1604.651970386505</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -21814,6 +22785,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -21882,6 +22858,9 @@
       <c r="V140" t="n">
         <v>906.9404404163361</v>
       </c>
+      <c r="W140" t="n">
+        <v>0.2513799667358398</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -21951,6 +22930,11 @@
       </c>
       <c r="V141" t="n">
         <v>14.54666066169739</v>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -21964,7 +22948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS141"/>
+  <dimension ref="A1:AU141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22198,6 +23182,16 @@
           <t>2023-08-08</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -22353,6 +23347,12 @@
         </is>
       </c>
       <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -22502,6 +23502,12 @@
         </is>
       </c>
       <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -22651,6 +23657,12 @@
         </is>
       </c>
       <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -22800,6 +23812,12 @@
         </is>
       </c>
       <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -22949,6 +23967,12 @@
         </is>
       </c>
       <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -23098,6 +24122,12 @@
         </is>
       </c>
       <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -23281,6 +24311,14 @@
       <c r="AS8" t="n">
         <v>0.2436995506286621</v>
       </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.237959623336792</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -23464,6 +24502,14 @@
       <c r="AS9" t="n">
         <v>0.2439451217651367</v>
       </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.2382316589355469</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -23647,6 +24693,14 @@
       <c r="AS10" t="n">
         <v>0.2442526817321777</v>
       </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.2384979724884033</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -23830,6 +24884,14 @@
       <c r="AS11" t="n">
         <v>0.2444729804992676</v>
       </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.2387583255767822</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -23985,6 +25047,12 @@
         </is>
       </c>
       <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -24134,6 +25202,12 @@
         </is>
       </c>
       <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -24283,6 +25357,12 @@
         </is>
       </c>
       <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -24436,6 +25516,12 @@
         </is>
       </c>
       <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -24585,6 +25671,12 @@
         </is>
       </c>
       <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -24734,6 +25826,12 @@
         </is>
       </c>
       <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -24917,6 +26015,14 @@
       <c r="AS18" t="n">
         <v>0.2448303699493408</v>
       </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.2391164302825928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -25100,6 +26206,14 @@
       <c r="AS19" t="n">
         <v>0.2450454235076904</v>
       </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2393674850463867</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -25283,6 +26397,14 @@
       <c r="AS20" t="n">
         <v>0.245286226272583</v>
       </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.2396228313446045</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -25466,6 +26588,14 @@
       <c r="AS21" t="n">
         <v>0.2455065250396729</v>
       </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.2398662567138672</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -25619,6 +26749,12 @@
         </is>
       </c>
       <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -25772,6 +26908,12 @@
         </is>
       </c>
       <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -25925,6 +27067,12 @@
         </is>
       </c>
       <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -26080,6 +27228,14 @@
         </is>
       </c>
       <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU25" t="n">
+        <v>3018.265130996704</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -26237,6 +27393,14 @@
         </is>
       </c>
       <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU26" t="n">
+        <v>574.6933753490448</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -26390,6 +27554,12 @@
         </is>
       </c>
       <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -26573,6 +27743,14 @@
       <c r="AS28" t="n">
         <v>0.2458975315093994</v>
       </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.2402615547180176</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -26756,6 +27934,14 @@
       <c r="AS29" t="n">
         <v>0.2461168766021729</v>
       </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.2404866218566895</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -26939,6 +28125,14 @@
       <c r="AS30" t="n">
         <v>0.2463674545288086</v>
       </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.2407341003417969</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -27122,6 +28316,14 @@
       <c r="AS31" t="n">
         <v>0.2466087341308594</v>
       </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.2409789562225342</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -27273,6 +28475,12 @@
         </is>
       </c>
       <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -27424,6 +28632,12 @@
         </is>
       </c>
       <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -27575,6 +28789,12 @@
         </is>
       </c>
       <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -27728,6 +28948,12 @@
         </is>
       </c>
       <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -27885,6 +29111,14 @@
       <c r="AS36" t="n">
         <v>1088.60012960434</v>
       </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU36" t="n">
+        <v>574.6938457489014</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -28040,6 +29274,12 @@
         </is>
       </c>
       <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -28223,6 +29463,14 @@
       <c r="AS38" t="n">
         <v>0.2469854354858398</v>
       </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.2413318157196045</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -28406,6 +29654,14 @@
       <c r="AS39" t="n">
         <v>0.2471981048583984</v>
       </c>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.2416176795959473</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -28589,6 +29845,14 @@
       <c r="AS40" t="n">
         <v>0.2474958896636963</v>
       </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.2418413162231445</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -28772,6 +30036,14 @@
       <c r="AS41" t="n">
         <v>0.2477536201477051</v>
       </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.2420926094055176</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -28923,6 +30195,12 @@
         </is>
       </c>
       <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -29074,6 +30352,12 @@
         </is>
       </c>
       <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -29227,6 +30511,12 @@
         </is>
       </c>
       <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -29378,6 +30668,12 @@
         </is>
       </c>
       <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -29529,6 +30825,12 @@
         </is>
       </c>
       <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -29680,6 +30982,12 @@
         </is>
       </c>
       <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -29863,6 +31171,14 @@
       <c r="AS48" t="n">
         <v>0.2481350898742676</v>
       </c>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU48" t="n">
+        <v>0.2424428462982178</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -30038,6 +31354,14 @@
       <c r="AS49" t="n">
         <v>0.2483866214752197</v>
       </c>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.2427120208740234</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -30221,6 +31545,14 @@
       <c r="AS50" t="n">
         <v>0.2486059665679932</v>
       </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU50" t="n">
+        <v>0.2429335117340088</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -30398,6 +31730,14 @@
       <c r="AS51" t="n">
         <v>0.248809814453125</v>
       </c>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU51" t="n">
+        <v>0.2431466579437256</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -30555,6 +31895,12 @@
         </is>
       </c>
       <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -30708,6 +32054,12 @@
         </is>
       </c>
       <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -30861,6 +32213,12 @@
         </is>
       </c>
       <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -31014,6 +32372,12 @@
         </is>
       </c>
       <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -31169,6 +32533,12 @@
       <c r="AS56" t="n">
         <v>452.3873889446259</v>
       </c>
+      <c r="AT56" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -31322,6 +32692,12 @@
         </is>
       </c>
       <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -31505,6 +32881,14 @@
       <c r="AS58" t="n">
         <v>0.2491388320922852</v>
       </c>
+      <c r="AT58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU58" t="n">
+        <v>0.243492603302002</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -31684,6 +33068,14 @@
       <c r="AS59" t="n">
         <v>0.2493448257446289</v>
       </c>
+      <c r="AT59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU59" t="n">
+        <v>0.2437410354614258</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -31867,6 +33259,14 @@
       <c r="AS60" t="n">
         <v>0.2495594024658203</v>
       </c>
+      <c r="AT60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU60" t="n">
+        <v>0.2439610958099365</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -32048,6 +33448,14 @@
       <c r="AS61" t="n">
         <v>0.2497642040252686</v>
       </c>
+      <c r="AT61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.2441952228546143</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -32207,6 +33615,12 @@
         </is>
       </c>
       <c r="AS62" t="inlineStr"/>
+      <c r="AT62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -32366,6 +33780,12 @@
         </is>
       </c>
       <c r="AS63" t="inlineStr"/>
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -32519,6 +33939,12 @@
         </is>
       </c>
       <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -32678,6 +34104,12 @@
         </is>
       </c>
       <c r="AS65" t="inlineStr"/>
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -32837,6 +34269,12 @@
       <c r="AS66" t="n">
         <v>452.3878729343414</v>
       </c>
+      <c r="AT66" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -32994,6 +34432,14 @@
         </is>
       </c>
       <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU67" t="n">
+        <v>8425.414584159851</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -33177,6 +34623,14 @@
       <c r="AS68" t="n">
         <v>0.2500982284545898</v>
       </c>
+      <c r="AT68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU68" t="n">
+        <v>0.2445502281188965</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -33360,6 +34814,14 @@
       <c r="AS69" t="n">
         <v>0.2503037452697754</v>
       </c>
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU69" t="n">
+        <v>0.2447760105133057</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -33543,6 +35005,14 @@
       <c r="AS70" t="n">
         <v>0.2505192756652832</v>
       </c>
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.2449929714202881</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -33726,6 +35196,14 @@
       <c r="AS71" t="n">
         <v>0.2507250308990479</v>
       </c>
+      <c r="AT71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU71" t="n">
+        <v>0.245206356048584</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -33891,6 +35369,14 @@
       <c r="AS72" t="n">
         <v>0.250927209854126</v>
       </c>
+      <c r="AT72" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU72" t="n">
+        <v>63.41740798950195</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -34056,6 +35542,12 @@
       <c r="AS73" t="n">
         <v>2115.904586076736</v>
       </c>
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -34213,6 +35705,12 @@
         </is>
       </c>
       <c r="AS74" t="inlineStr"/>
+      <c r="AT74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -34374,6 +35872,14 @@
         </is>
       </c>
       <c r="AS75" t="inlineStr"/>
+      <c r="AT75" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU75" t="n">
+        <v>8125.016231536865</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -34535,6 +36041,12 @@
         </is>
       </c>
       <c r="AS76" t="inlineStr"/>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -34694,6 +36206,12 @@
         </is>
       </c>
       <c r="AS77" t="inlineStr"/>
+      <c r="AT77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -34877,6 +36395,14 @@
       <c r="AS78" t="n">
         <v>0.2512335777282715</v>
       </c>
+      <c r="AT78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU78" t="n">
+        <v>0.2455496788024902</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -35060,6 +36586,14 @@
       <c r="AS79" t="n">
         <v>0.2514386177062988</v>
       </c>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU79" t="n">
+        <v>0.2457723617553711</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -35243,6 +36777,14 @@
       <c r="AS80" t="n">
         <v>0.2516529560089111</v>
       </c>
+      <c r="AT80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU80" t="n">
+        <v>0.2459845542907715</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -35426,6 +36968,14 @@
       <c r="AS81" t="n">
         <v>0.2518558502197266</v>
       </c>
+      <c r="AT81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU81" t="n">
+        <v>0.2462038993835449</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -35599,6 +37149,14 @@
         </is>
       </c>
       <c r="AS82" t="inlineStr"/>
+      <c r="AT82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU82" t="n">
+        <v>63.41820287704468</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -35768,6 +37326,12 @@
       <c r="AS83" t="n">
         <v>2115.905023336411</v>
       </c>
+      <c r="AT83" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -35929,6 +37493,12 @@
         </is>
       </c>
       <c r="AS84" t="inlineStr"/>
+      <c r="AT84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -36092,6 +37662,14 @@
         </is>
       </c>
       <c r="AS85" t="inlineStr"/>
+      <c r="AT85" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU85" t="n">
+        <v>8125.016712188721</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -36251,6 +37829,12 @@
       <c r="AS86" t="n">
         <v>1088.601164102554</v>
       </c>
+      <c r="AT86" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -36414,6 +37998,12 @@
         </is>
       </c>
       <c r="AS87" t="inlineStr"/>
+      <c r="AT87" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -36597,6 +38187,14 @@
       <c r="AS88" t="n">
         <v>0.2522072792053223</v>
       </c>
+      <c r="AT88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU88" t="n">
+        <v>0.2466933727264404</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -36780,6 +38378,14 @@
       <c r="AS89" t="n">
         <v>0.2524189949035645</v>
       </c>
+      <c r="AT89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU89" t="n">
+        <v>0.2469594478607178</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -36963,6 +38569,14 @@
       <c r="AS90" t="n">
         <v>0.2526497840881348</v>
       </c>
+      <c r="AT90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU90" t="n">
+        <v>0.2472026348114014</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -37146,6 +38760,14 @@
       <c r="AS91" t="n">
         <v>0.252873420715332</v>
       </c>
+      <c r="AT91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU91" t="n">
+        <v>0.2474191188812256</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -37315,6 +38937,12 @@
         </is>
       </c>
       <c r="AS92" t="inlineStr"/>
+      <c r="AT92" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -37476,6 +39104,12 @@
         </is>
       </c>
       <c r="AS93" t="inlineStr"/>
+      <c r="AT93" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -37641,6 +39275,12 @@
         </is>
       </c>
       <c r="AS94" t="inlineStr"/>
+      <c r="AT94" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -37812,6 +39452,12 @@
         </is>
       </c>
       <c r="AS95" t="inlineStr"/>
+      <c r="AT95" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -37973,6 +39619,12 @@
         </is>
       </c>
       <c r="AS96" t="inlineStr"/>
+      <c r="AT96" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -38136,6 +39788,12 @@
         </is>
       </c>
       <c r="AS97" t="inlineStr"/>
+      <c r="AT97" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -38319,6 +39977,14 @@
       <c r="AS98" t="n">
         <v>0.2532010078430176</v>
       </c>
+      <c r="AT98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU98" t="n">
+        <v>0.2478325366973877</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -38502,6 +40168,14 @@
       <c r="AS99" t="n">
         <v>0.2534103393554688</v>
       </c>
+      <c r="AT99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU99" t="n">
+        <v>0.248131275177002</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -38685,6 +40359,14 @@
       <c r="AS100" t="n">
         <v>0.253626823425293</v>
       </c>
+      <c r="AT100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU100" t="n">
+        <v>0.2484145164489746</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -38868,6 +40550,14 @@
       <c r="AS101" t="n">
         <v>0.2538316249847412</v>
       </c>
+      <c r="AT101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU101" t="n">
+        <v>0.2487092018127441</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -39033,6 +40723,12 @@
         </is>
       </c>
       <c r="AS102" t="inlineStr"/>
+      <c r="AT102" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -39200,6 +40896,12 @@
         </is>
       </c>
       <c r="AS103" t="inlineStr"/>
+      <c r="AT103" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -39369,6 +41071,12 @@
         </is>
       </c>
       <c r="AS104" t="inlineStr"/>
+      <c r="AT104" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -39544,6 +41252,12 @@
         </is>
       </c>
       <c r="AS105" t="inlineStr"/>
+      <c r="AT105" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -39709,6 +41423,12 @@
         </is>
       </c>
       <c r="AS106" t="inlineStr"/>
+      <c r="AT106" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -39878,6 +41598,12 @@
         </is>
       </c>
       <c r="AS107" t="inlineStr"/>
+      <c r="AT107" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -40051,6 +41777,14 @@
         </is>
       </c>
       <c r="AS108" t="inlineStr"/>
+      <c r="AT108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU108" t="n">
+        <v>15.6370255947113</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -40232,6 +41966,12 @@
       <c r="AS109" t="n">
         <v>0.2541840076446533</v>
       </c>
+      <c r="AT109" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -40409,6 +42149,14 @@
       <c r="AS110" t="n">
         <v>603.9263534545898</v>
       </c>
+      <c r="AT110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU110" t="n">
+        <v>0.2491660118103027</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -40584,6 +42332,14 @@
       <c r="AS111" t="n">
         <v>68.66626644134521</v>
       </c>
+      <c r="AT111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU111" t="n">
+        <v>16.78798151016235</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -40759,6 +42515,12 @@
         </is>
       </c>
       <c r="AS112" t="inlineStr"/>
+      <c r="AT112" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -40940,6 +42702,12 @@
       <c r="AS113" t="n">
         <v>0.2544572353363037</v>
       </c>
+      <c r="AT113" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -41119,6 +42887,12 @@
         </is>
       </c>
       <c r="AS114" t="inlineStr"/>
+      <c r="AT114" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -41300,6 +43074,12 @@
         </is>
       </c>
       <c r="AS115" t="inlineStr"/>
+      <c r="AT115" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -41477,6 +43257,14 @@
         </is>
       </c>
       <c r="AS116" t="inlineStr"/>
+      <c r="AT116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU116" t="n">
+        <v>9026.19703912735</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -41658,6 +43446,14 @@
       <c r="AS117" t="n">
         <v>18.00550389289856</v>
       </c>
+      <c r="AT117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU117" t="n">
+        <v>0.2495720386505127</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -41841,6 +43637,14 @@
       <c r="AS118" t="n">
         <v>0.254758358001709</v>
       </c>
+      <c r="AT118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU118" t="n">
+        <v>15.63751435279846</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -42024,6 +43828,14 @@
       <c r="AS119" t="n">
         <v>0.2549653053283691</v>
       </c>
+      <c r="AT119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU119" t="n">
+        <v>34.05809783935547</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -42205,6 +44017,14 @@
       <c r="AS120" t="n">
         <v>603.9269244670868</v>
       </c>
+      <c r="AT120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU120" t="n">
+        <v>0.2498793601989746</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -42388,6 +44208,14 @@
       <c r="AS121" t="n">
         <v>68.66679787635803</v>
       </c>
+      <c r="AT121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU121" t="n">
+        <v>16.78857803344727</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -42569,6 +44397,14 @@
         </is>
       </c>
       <c r="AS122" t="inlineStr"/>
+      <c r="AT122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU122" t="n">
+        <v>15.63784575462341</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -42752,6 +44588,14 @@
       <c r="AS123" t="n">
         <v>0.2552347183227539</v>
       </c>
+      <c r="AT123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU123" t="n">
+        <v>16.78889727592468</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -42935,6 +44779,14 @@
       <c r="AS124" t="n">
         <v>19.14550685882568</v>
       </c>
+      <c r="AT124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU124" t="n">
+        <v>968.2448418140411</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -43116,6 +44968,12 @@
       <c r="AS125" t="n">
         <v>292.089067697525</v>
       </c>
+      <c r="AT125" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -43297,6 +45155,14 @@
         </is>
       </c>
       <c r="AS126" t="inlineStr"/>
+      <c r="AT126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU126" t="n">
+        <v>9026.197655200958</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -43480,6 +45346,14 @@
       <c r="AS127" t="n">
         <v>18.0060498714447</v>
       </c>
+      <c r="AT127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU127" t="n">
+        <v>0.250236988067627</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -43663,6 +45537,14 @@
       <c r="AS128" t="n">
         <v>0.25553297996521</v>
       </c>
+      <c r="AT128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU128" t="n">
+        <v>1604.651415348053</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -43844,6 +45726,14 @@
         </is>
       </c>
       <c r="AS129" t="inlineStr"/>
+      <c r="AT129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU129" t="n">
+        <v>34.05851936340332</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -44027,6 +45917,14 @@
       <c r="AS130" t="n">
         <v>906.9398565292358</v>
       </c>
+      <c r="AT130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU130" t="n">
+        <v>0.2505085468292236</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -44210,6 +46108,14 @@
       <c r="AS131" t="n">
         <v>14.54603743553162</v>
       </c>
+      <c r="AT131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU131" t="n">
+        <v>968.2452938556671</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -44389,6 +46295,14 @@
         </is>
       </c>
       <c r="AS132" t="inlineStr"/>
+      <c r="AT132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU132" t="n">
+        <v>15.63822650909424</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -44570,6 +46484,14 @@
       <c r="AS133" t="n">
         <v>0.2558276653289795</v>
       </c>
+      <c r="AT133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU133" t="n">
+        <v>16.78933143615723</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -44749,6 +46671,14 @@
       <c r="AS134" t="n">
         <v>292.089503288269</v>
       </c>
+      <c r="AT134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU134" t="n">
+        <v>968.2456200122833</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -44928,6 +46858,14 @@
       <c r="AS135" t="n">
         <v>19.14607906341553</v>
       </c>
+      <c r="AT135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU135" t="n">
+        <v>0.2508552074432373</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -45107,6 +47045,14 @@
       <c r="AS136" t="n">
         <v>3017.075641870499</v>
       </c>
+      <c r="AT136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU136" t="n">
+        <v>0.2510840892791748</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -45288,6 +47234,12 @@
       <c r="AS137" t="n">
         <v>3617.782154560089</v>
       </c>
+      <c r="AT137" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -45467,6 +47419,14 @@
         </is>
       </c>
       <c r="AS138" t="inlineStr"/>
+      <c r="AT138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU138" t="n">
+        <v>1604.651970386505</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -45644,6 +47604,12 @@
         </is>
       </c>
       <c r="AS139" t="inlineStr"/>
+      <c r="AT139" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -45827,6 +47793,14 @@
       <c r="AS140" t="n">
         <v>906.9404404163361</v>
       </c>
+      <c r="AT140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AU140" t="n">
+        <v>0.2513799667358398</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -46008,6 +47982,12 @@
       <c r="AS141" t="n">
         <v>14.54666066169739</v>
       </c>
+      <c r="AT141" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AU141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X141"/>
+  <dimension ref="A1:Y141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,11 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -628,7 +633,10 @@
         <v>0.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.222222222222222</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.184210526315789</v>
       </c>
     </row>
     <row r="3">
@@ -704,6 +712,9 @@
       <c r="X3" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -778,6 +789,9 @@
       <c r="X4" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -852,6 +866,9 @@
       <c r="X5" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -926,6 +943,9 @@
       <c r="X6" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1000,6 +1020,9 @@
       <c r="X7" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1095,9 @@
         <v>-1</v>
       </c>
       <c r="X8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1146,6 +1172,9 @@
         <v>-1</v>
       </c>
       <c r="X9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y9" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1220,6 +1249,9 @@
         <v>-1</v>
       </c>
       <c r="X10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1294,6 +1326,9 @@
         <v>-1</v>
       </c>
       <c r="X11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y11" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1368,7 +1403,10 @@
         <v>0.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.222222222222222</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.184210526315789</v>
       </c>
     </row>
     <row r="13">
@@ -1444,6 +1482,9 @@
       <c r="X13" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1518,6 +1559,9 @@
       <c r="X14" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1590,7 +1634,10 @@
         <v>0.5</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="16">
@@ -1666,6 +1713,9 @@
       <c r="X16" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1740,6 +1790,9 @@
       <c r="X17" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1812,6 +1865,9 @@
         <v>-1</v>
       </c>
       <c r="X18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1886,6 +1942,9 @@
         <v>-1</v>
       </c>
       <c r="X19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y19" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1960,6 +2019,9 @@
         <v>-1</v>
       </c>
       <c r="X20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y20" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2034,6 +2096,9 @@
         <v>-1</v>
       </c>
       <c r="X21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y21" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -2108,7 +2173,10 @@
         <v>0.5</v>
       </c>
       <c r="X22" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="23">
@@ -2182,7 +2250,10 @@
         <v>0.5</v>
       </c>
       <c r="X23" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.7631578947368421</v>
       </c>
     </row>
     <row r="24">
@@ -2256,7 +2327,10 @@
         <v>0.5</v>
       </c>
       <c r="X24" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="25">
@@ -2330,7 +2404,10 @@
         <v>2.5</v>
       </c>
       <c r="X25" t="n">
-        <v>1.277777777777778</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.236842105263158</v>
       </c>
     </row>
     <row r="26">
@@ -2404,7 +2481,10 @@
         <v>4.5</v>
       </c>
       <c r="X26" t="n">
-        <v>1.388888888888889</v>
+        <v>3.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="27">
@@ -2478,7 +2558,10 @@
         <v>0.5</v>
       </c>
       <c r="X27" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="28">
@@ -2552,6 +2635,9 @@
         <v>-1</v>
       </c>
       <c r="X28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2626,6 +2712,9 @@
         <v>-1</v>
       </c>
       <c r="X29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -2700,6 +2789,9 @@
         <v>-1</v>
       </c>
       <c r="X30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2774,6 +2866,9 @@
         <v>-1</v>
       </c>
       <c r="X31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -2848,7 +2943,10 @@
         <v>0.5</v>
       </c>
       <c r="X32" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.6578947368421053</v>
       </c>
     </row>
     <row r="33">
@@ -2922,7 +3020,10 @@
         <v>0.5</v>
       </c>
       <c r="X33" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.6578947368421053</v>
       </c>
     </row>
     <row r="34">
@@ -2996,7 +3097,10 @@
         <v>0.5</v>
       </c>
       <c r="X34" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.7631578947368421</v>
       </c>
     </row>
     <row r="35">
@@ -3070,7 +3174,10 @@
         <v>0.5</v>
       </c>
       <c r="X35" t="n">
-        <v>1.111111111111111</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.078947368421053</v>
       </c>
     </row>
     <row r="36">
@@ -3144,7 +3251,10 @@
         <v>4.5</v>
       </c>
       <c r="X36" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.605263157894737</v>
       </c>
     </row>
     <row r="37">
@@ -3218,7 +3328,10 @@
         <v>0.5</v>
       </c>
       <c r="X37" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.868421052631579</v>
       </c>
     </row>
     <row r="38">
@@ -3292,6 +3405,9 @@
         <v>-1</v>
       </c>
       <c r="X38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3366,6 +3482,9 @@
         <v>-1</v>
       </c>
       <c r="X39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -3440,6 +3559,9 @@
         <v>-1</v>
       </c>
       <c r="X40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3514,6 +3636,9 @@
         <v>-1</v>
       </c>
       <c r="X41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -3590,6 +3715,9 @@
       <c r="X42" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3664,6 +3792,9 @@
       <c r="X43" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3736,7 +3867,10 @@
         <v>0.5</v>
       </c>
       <c r="X44" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="45">
@@ -3812,6 +3946,9 @@
       <c r="X45" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3886,6 +4023,9 @@
       <c r="X46" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3960,6 +4100,9 @@
       <c r="X47" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4032,6 +4175,9 @@
         <v>-1</v>
       </c>
       <c r="X48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y48" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4106,6 +4252,9 @@
         <v>-1</v>
       </c>
       <c r="X49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y49" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -4180,6 +4329,9 @@
         <v>-1</v>
       </c>
       <c r="X50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y50" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4254,6 +4406,9 @@
         <v>-1</v>
       </c>
       <c r="X51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y51" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -4328,7 +4483,10 @@
         <v>0.5</v>
       </c>
       <c r="X52" t="n">
-        <v>1.05</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.017647058823529</v>
       </c>
     </row>
     <row r="53">
@@ -4404,6 +4562,9 @@
       <c r="X53" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4478,6 +4639,9 @@
       <c r="X54" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4550,7 +4714,10 @@
         <v>0.5</v>
       </c>
       <c r="X55" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="56">
@@ -4624,7 +4791,10 @@
         <v>0.5</v>
       </c>
       <c r="X56" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.7352941176470589</v>
       </c>
     </row>
     <row r="57">
@@ -4700,6 +4870,9 @@
       <c r="X57" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4772,6 +4945,9 @@
         <v>-1</v>
       </c>
       <c r="X58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y58" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4846,6 +5022,9 @@
         <v>-1</v>
       </c>
       <c r="X59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y59" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -4920,6 +5099,9 @@
         <v>-1</v>
       </c>
       <c r="X60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y60" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4994,6 +5176,9 @@
         <v>-1</v>
       </c>
       <c r="X61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y61" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -5068,7 +5253,10 @@
         <v>0.5</v>
       </c>
       <c r="X62" t="n">
-        <v>1.3625</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.311764705882353</v>
       </c>
     </row>
     <row r="63">
@@ -5142,7 +5330,10 @@
         <v>0.5</v>
       </c>
       <c r="X63" t="n">
-        <v>1.1875</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.147058823529412</v>
       </c>
     </row>
     <row r="64">
@@ -5218,6 +5409,9 @@
       <c r="X64" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5290,7 +5484,10 @@
         <v>0.5</v>
       </c>
       <c r="X65" t="n">
-        <v>1.0625</v>
+        <v>1.5</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.088235294117647</v>
       </c>
     </row>
     <row r="66">
@@ -5364,7 +5561,10 @@
         <v>0.5</v>
       </c>
       <c r="X66" t="n">
-        <v>1.3125</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.264705882352941</v>
       </c>
     </row>
     <row r="67">
@@ -5438,7 +5638,10 @@
         <v>1.5</v>
       </c>
       <c r="X67" t="n">
-        <v>0.6875</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.6764705882352942</v>
       </c>
     </row>
     <row r="68">
@@ -5512,6 +5715,9 @@
         <v>-1</v>
       </c>
       <c r="X68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y68" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5586,6 +5792,9 @@
         <v>-1</v>
       </c>
       <c r="X69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y69" t="n">
         <v>5.1</v>
       </c>
     </row>
@@ -5660,6 +5869,9 @@
         <v>-1</v>
       </c>
       <c r="X70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y70" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5734,6 +5946,9 @@
         <v>-1</v>
       </c>
       <c r="X71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y71" t="n">
         <v>6.3</v>
       </c>
     </row>
@@ -5808,7 +6023,10 @@
         <v>6.5</v>
       </c>
       <c r="X72" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -5882,7 +6100,10 @@
         <v>0.5</v>
       </c>
       <c r="X73" t="n">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.911764705882353</v>
       </c>
     </row>
     <row r="74">
@@ -5956,7 +6177,10 @@
         <v>0.5</v>
       </c>
       <c r="X74" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.252941176470588</v>
       </c>
     </row>
     <row r="75">
@@ -6030,7 +6254,10 @@
         <v>1.5</v>
       </c>
       <c r="X75" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.205882352941176</v>
       </c>
     </row>
     <row r="76">
@@ -6104,7 +6331,10 @@
         <v>0.5</v>
       </c>
       <c r="X76" t="n">
-        <v>0.875</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0.8529411764705882</v>
       </c>
     </row>
     <row r="77">
@@ -6178,7 +6408,10 @@
         <v>0.5</v>
       </c>
       <c r="X77" t="n">
-        <v>1.3125</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.264705882352941</v>
       </c>
     </row>
     <row r="78">
@@ -6252,6 +6485,9 @@
         <v>-1</v>
       </c>
       <c r="X78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6326,6 +6562,9 @@
         <v>-1</v>
       </c>
       <c r="X79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -6400,6 +6639,9 @@
         <v>-1</v>
       </c>
       <c r="X80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y80" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6474,6 +6716,9 @@
         <v>-1</v>
       </c>
       <c r="X81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6548,7 +6793,10 @@
         <v>6.5</v>
       </c>
       <c r="X82" t="n">
-        <v>3.875</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>3.676470588235294</v>
       </c>
     </row>
     <row r="83">
@@ -6622,7 +6870,10 @@
         <v>0.5</v>
       </c>
       <c r="X83" t="n">
-        <v>1.8125</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.735294117647059</v>
       </c>
     </row>
     <row r="84">
@@ -6696,7 +6947,10 @@
         <v>0.5</v>
       </c>
       <c r="X84" t="n">
-        <v>1.55</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.488235294117647</v>
       </c>
     </row>
     <row r="85">
@@ -6770,7 +7024,10 @@
         <v>1.5</v>
       </c>
       <c r="X85" t="n">
-        <v>1.4375</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.382352941176471</v>
       </c>
     </row>
     <row r="86">
@@ -6844,7 +7101,10 @@
         <v>0.5</v>
       </c>
       <c r="X86" t="n">
-        <v>1.125</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.088235294117647</v>
       </c>
     </row>
     <row r="87">
@@ -6918,7 +7178,10 @@
         <v>0.5</v>
       </c>
       <c r="X87" t="n">
-        <v>1.625</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.558823529411765</v>
       </c>
     </row>
     <row r="88">
@@ -6992,6 +7255,9 @@
         <v>-1</v>
       </c>
       <c r="X88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y88" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7066,6 +7332,9 @@
         <v>-1</v>
       </c>
       <c r="X89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7140,6 +7409,9 @@
         <v>-1</v>
       </c>
       <c r="X90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y90" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7214,6 +7486,9 @@
         <v>-1</v>
       </c>
       <c r="X91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y91" t="n">
         <v>6.459999999999999</v>
       </c>
     </row>
@@ -7288,7 +7563,10 @@
         <v>0.5</v>
       </c>
       <c r="X92" t="n">
-        <v>2.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.147058823529412</v>
       </c>
     </row>
     <row r="93">
@@ -7362,7 +7640,10 @@
         <v>0.5</v>
       </c>
       <c r="X93" t="n">
-        <v>1.0625</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.029411764705882</v>
       </c>
     </row>
     <row r="94">
@@ -7436,7 +7717,10 @@
         <v>0.5</v>
       </c>
       <c r="X94" t="n">
-        <v>1.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.676470588235294</v>
       </c>
     </row>
     <row r="95">
@@ -7510,7 +7794,10 @@
         <v>0.5</v>
       </c>
       <c r="X95" t="n">
-        <v>2.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.147058823529412</v>
       </c>
     </row>
     <row r="96">
@@ -7584,7 +7871,10 @@
         <v>0.5</v>
       </c>
       <c r="X96" t="n">
-        <v>1.1875</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.147058823529412</v>
       </c>
     </row>
     <row r="97">
@@ -7658,7 +7948,10 @@
         <v>0.5</v>
       </c>
       <c r="X97" t="n">
-        <v>1.5625</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="98">
@@ -7732,6 +8025,9 @@
         <v>-1</v>
       </c>
       <c r="X98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y98" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7806,6 +8102,9 @@
         <v>-1</v>
       </c>
       <c r="X99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y99" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -7880,6 +8179,9 @@
         <v>-1</v>
       </c>
       <c r="X100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y100" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7954,6 +8256,9 @@
         <v>-1</v>
       </c>
       <c r="X101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y101" t="n">
         <v>6.659999999999999</v>
       </c>
     </row>
@@ -8028,7 +8333,10 @@
         <v>0.5</v>
       </c>
       <c r="X102" t="n">
-        <v>2.711111111111111</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.594736842105263</v>
       </c>
     </row>
     <row r="103">
@@ -8102,7 +8410,10 @@
         <v>0.5</v>
       </c>
       <c r="X103" t="n">
-        <v>2.055555555555555</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.973684210526316</v>
       </c>
     </row>
     <row r="104">
@@ -8176,7 +8487,10 @@
         <v>0.5</v>
       </c>
       <c r="X104" t="n">
-        <v>2.333333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2.236842105263158</v>
       </c>
     </row>
     <row r="105">
@@ -8250,7 +8564,10 @@
         <v>0.5</v>
       </c>
       <c r="X105" t="n">
-        <v>2.888888888888889</v>
+        <v>1.5</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>2.815789473684211</v>
       </c>
     </row>
     <row r="106">
@@ -8324,7 +8641,10 @@
         <v>0.5</v>
       </c>
       <c r="X106" t="n">
-        <v>2.388888888888889</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>2.289473684210526</v>
       </c>
     </row>
     <row r="107">
@@ -8398,7 +8718,10 @@
         <v>0.5</v>
       </c>
       <c r="X107" t="n">
-        <v>3.155555555555555</v>
+        <v>7.5</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3.384210526315789</v>
       </c>
     </row>
     <row r="108">
@@ -8472,7 +8795,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X108" t="n">
-        <v>4.227777777777778</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>4.031578947368421</v>
       </c>
     </row>
     <row r="109">
@@ -8546,7 +8872,10 @@
         <v>0.5</v>
       </c>
       <c r="X109" t="n">
-        <v>4.480952380952381</v>
+        <v>5.5</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>4.527272727272727</v>
       </c>
     </row>
     <row r="110">
@@ -8620,7 +8949,10 @@
         <v>-1</v>
       </c>
       <c r="X110" t="n">
-        <v>4.136363636363637</v>
+        <v>5.5</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="111">
@@ -8694,7 +9026,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X111" t="n">
-        <v>5.414285714285715</v>
+        <v>4.5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>5.372727272727273</v>
       </c>
     </row>
     <row r="112">
@@ -8768,7 +9103,10 @@
         <v>0.5</v>
       </c>
       <c r="X112" t="n">
-        <v>4.722222222222222</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="113">
@@ -8842,7 +9180,10 @@
         <v>0.5</v>
       </c>
       <c r="X113" t="n">
-        <v>4.847058823529412</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>4.605555555555556</v>
       </c>
     </row>
     <row r="114">
@@ -8916,7 +9257,10 @@
         <v>0.5</v>
       </c>
       <c r="X114" t="n">
-        <v>5.111111111111111</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>4.868421052631579</v>
       </c>
     </row>
     <row r="115">
@@ -8990,7 +9334,10 @@
         <v>0.5</v>
       </c>
       <c r="X115" t="n">
-        <v>4.266666666666667</v>
+        <v>3.5</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>4.226315789473684</v>
       </c>
     </row>
     <row r="116">
@@ -9064,7 +9411,10 @@
         <v>1.5</v>
       </c>
       <c r="X116" t="n">
-        <v>4.277777777777778</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>4.078947368421052</v>
       </c>
     </row>
     <row r="117">
@@ -9138,7 +9488,10 @@
         <v>-1</v>
       </c>
       <c r="X117" t="n">
-        <v>5.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>5.805882352941176</v>
       </c>
     </row>
     <row r="118">
@@ -9212,7 +9565,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X118" t="n">
-        <v>6.423529411764706</v>
+        <v>6.5</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>6.427777777777778</v>
       </c>
     </row>
     <row r="119">
@@ -9286,7 +9642,10 @@
         <v>7.5</v>
       </c>
       <c r="X119" t="n">
-        <v>6.06</v>
+        <v>5.5</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>6.033333333333333</v>
       </c>
     </row>
     <row r="120">
@@ -9360,7 +9719,10 @@
         <v>-1</v>
       </c>
       <c r="X120" t="n">
-        <v>5.409090909090909</v>
+        <v>5.5</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>5.416666666666667</v>
       </c>
     </row>
     <row r="121">
@@ -9434,7 +9796,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X121" t="n">
-        <v>7.495000000000002</v>
+        <v>4.5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>7.352380952380954</v>
       </c>
     </row>
     <row r="122">
@@ -9508,7 +9873,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X122" t="n">
-        <v>7.233333333333334</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>6.878947368421054</v>
       </c>
     </row>
     <row r="123">
@@ -9582,6 +9950,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y123" t="n">
         <v>7.341176470588235</v>
       </c>
     </row>
@@ -9656,6 +10027,9 @@
         <v>3.5</v>
       </c>
       <c r="X124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y124" t="n">
         <v>7.082352941176471</v>
       </c>
     </row>
@@ -9730,7 +10104,10 @@
         <v>0.5</v>
       </c>
       <c r="X125" t="n">
-        <v>6.199999999999999</v>
+        <v>3.5</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>6.057894736842105</v>
       </c>
     </row>
     <row r="126">
@@ -9804,7 +10181,10 @@
         <v>1.5</v>
       </c>
       <c r="X126" t="n">
-        <v>6.122222222222223</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>6.236842105263158</v>
       </c>
     </row>
     <row r="127">
@@ -9878,7 +10258,10 @@
         <v>-1</v>
       </c>
       <c r="X127" t="n">
-        <v>7.413333333333332</v>
+        <v>5.5</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>7.29375</v>
       </c>
     </row>
     <row r="128">
@@ -9952,7 +10335,10 @@
         <v>3.5</v>
       </c>
       <c r="X128" t="n">
-        <v>6.662500000000001</v>
+        <v>6.5</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>6.652941176470589</v>
       </c>
     </row>
     <row r="129">
@@ -10026,7 +10412,10 @@
         <v>7.5</v>
       </c>
       <c r="X129" t="n">
-        <v>6.459090909090909</v>
+        <v>3.5</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>6.330434782608696</v>
       </c>
     </row>
     <row r="130">
@@ -10100,7 +10489,10 @@
         <v>-1</v>
       </c>
       <c r="X130" t="n">
-        <v>7.072727272727272</v>
+        <v>3.5</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>6.774999999999999</v>
       </c>
     </row>
     <row r="131">
@@ -10174,7 +10566,10 @@
         <v>3.5</v>
       </c>
       <c r="X131" t="n">
-        <v>7.365</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>7.409523809523811</v>
       </c>
     </row>
     <row r="132">
@@ -10248,6 +10643,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y132" t="n">
         <v>5.777777777777778</v>
       </c>
     </row>
@@ -10322,6 +10720,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y133" t="n">
         <v>5.347058823529412</v>
       </c>
     </row>
@@ -10396,6 +10797,9 @@
         <v>3.5</v>
       </c>
       <c r="X134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y134" t="n">
         <v>4.116666666666666</v>
       </c>
     </row>
@@ -10470,7 +10874,10 @@
         <v>-1</v>
       </c>
       <c r="X135" t="n">
-        <v>5.947058823529411</v>
+        <v>5.5</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>5.922222222222222</v>
       </c>
     </row>
     <row r="136">
@@ -10544,7 +10951,10 @@
         <v>-1</v>
       </c>
       <c r="X136" t="n">
-        <v>5.511764705882353</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="137">
@@ -10618,7 +11028,10 @@
         <v>0.5</v>
       </c>
       <c r="X137" t="n">
-        <v>5.341176470588236</v>
+        <v>5.5</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>5.350000000000001</v>
       </c>
     </row>
     <row r="138">
@@ -10692,7 +11105,10 @@
         <v>3.5</v>
       </c>
       <c r="X138" t="n">
-        <v>5.264705882352941</v>
+        <v>1.5</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>5.055555555555555</v>
       </c>
     </row>
     <row r="139">
@@ -10766,7 +11182,10 @@
         <v>0.5</v>
       </c>
       <c r="X139" t="n">
-        <v>5.047619047619047</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>4.840909090909091</v>
       </c>
     </row>
     <row r="140">
@@ -10840,7 +11259,10 @@
         <v>-1</v>
       </c>
       <c r="X140" t="n">
-        <v>6.327272727272727</v>
+        <v>3.5</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>6.091666666666666</v>
       </c>
     </row>
     <row r="141">
@@ -10914,7 +11336,10 @@
         <v>0.5</v>
       </c>
       <c r="X141" t="n">
-        <v>5.509523809523809</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>5.636363636363637</v>
       </c>
     </row>
   </sheetData>
@@ -10928,7 +11353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W141"/>
+  <dimension ref="A1:X141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11052,6 +11477,11 @@
           <t>2023-08-09</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -11153,6 +11583,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -11260,6 +11695,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -11367,6 +11807,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -11474,6 +11919,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -11581,6 +12031,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -11688,6 +12143,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -11759,6 +12219,9 @@
       <c r="W8" t="n">
         <v>0.237959623336792</v>
       </c>
+      <c r="X8" t="n">
+        <v>0.2595820426940918</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -11830,6 +12293,9 @@
       <c r="W9" t="n">
         <v>0.2382316589355469</v>
       </c>
+      <c r="X9" t="n">
+        <v>0.2598261833190918</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -11901,6 +12367,9 @@
       <c r="W10" t="n">
         <v>0.2384979724884033</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.260066032409668</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -11972,6 +12441,9 @@
       <c r="W11" t="n">
         <v>0.2387583255767822</v>
       </c>
+      <c r="X11" t="n">
+        <v>0.2603151798248291</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -12073,6 +12545,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -12180,6 +12657,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -12287,6 +12769,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -12390,6 +12877,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -12497,6 +12989,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -12604,6 +13101,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -12675,6 +13177,9 @@
       <c r="W18" t="n">
         <v>0.2391164302825928</v>
       </c>
+      <c r="X18" t="n">
+        <v>0.2606823444366455</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -12746,6 +13251,9 @@
       <c r="W19" t="n">
         <v>0.2393674850463867</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.2608931064605713</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -12817,6 +13325,9 @@
       <c r="W20" t="n">
         <v>0.2396228313446045</v>
       </c>
+      <c r="X20" t="n">
+        <v>0.2611105442047119</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -12888,6 +13399,9 @@
       <c r="W21" t="n">
         <v>0.2398662567138672</v>
       </c>
+      <c r="X21" t="n">
+        <v>0.2613153457641602</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -12991,6 +13505,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -13094,6 +13613,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -13197,6 +13721,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -13296,6 +13825,11 @@
       <c r="W25" t="n">
         <v>3018.265130996704</v>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -13393,6 +13927,9 @@
       <c r="W26" t="n">
         <v>574.6933753490448</v>
       </c>
+      <c r="X26" t="n">
+        <v>1031.053307533264</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -13496,6 +14033,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -13567,6 +14109,9 @@
       <c r="W28" t="n">
         <v>0.2402615547180176</v>
       </c>
+      <c r="X28" t="n">
+        <v>0.2616438865661621</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -13638,6 +14183,9 @@
       <c r="W29" t="n">
         <v>0.2404866218566895</v>
       </c>
+      <c r="X29" t="n">
+        <v>0.2619020938873291</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -13709,6 +14257,9 @@
       <c r="W30" t="n">
         <v>0.2407341003417969</v>
       </c>
+      <c r="X30" t="n">
+        <v>0.2621250152587891</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -13780,6 +14331,9 @@
       <c r="W31" t="n">
         <v>0.2409789562225342</v>
       </c>
+      <c r="X31" t="n">
+        <v>0.2623307704925537</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -13885,6 +14439,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -13990,6 +14549,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -14095,6 +14659,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -14198,6 +14767,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -14295,6 +14869,9 @@
       <c r="W36" t="n">
         <v>574.6938457489014</v>
       </c>
+      <c r="X36" t="n">
+        <v>1031.053874254227</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -14396,6 +14973,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -14467,6 +15049,9 @@
       <c r="W38" t="n">
         <v>0.2413318157196045</v>
       </c>
+      <c r="X38" t="n">
+        <v>0.2626578807830811</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -14538,6 +15123,9 @@
       <c r="W39" t="n">
         <v>0.2416176795959473</v>
       </c>
+      <c r="X39" t="n">
+        <v>0.2628662586212158</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -14609,6 +15197,9 @@
       <c r="W40" t="n">
         <v>0.2418413162231445</v>
       </c>
+      <c r="X40" t="n">
+        <v>0.2630825042724609</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -14680,6 +15271,9 @@
       <c r="W41" t="n">
         <v>0.2420926094055176</v>
       </c>
+      <c r="X41" t="n">
+        <v>0.2632880210876465</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -14785,6 +15379,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -14890,6 +15489,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -14993,6 +15597,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -15098,6 +15707,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -15203,6 +15817,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -15308,6 +15927,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -15379,6 +16003,9 @@
       <c r="W48" t="n">
         <v>0.2424428462982178</v>
       </c>
+      <c r="X48" t="n">
+        <v>0.263617992401123</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -15458,6 +16085,9 @@
       <c r="W49" t="n">
         <v>0.2427120208740234</v>
       </c>
+      <c r="X49" t="n">
+        <v>0.2638249397277832</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -15529,6 +16159,9 @@
       <c r="W50" t="n">
         <v>0.2429335117340088</v>
       </c>
+      <c r="X50" t="n">
+        <v>0.2640359401702881</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -15606,6 +16239,9 @@
       <c r="W51" t="n">
         <v>0.2431466579437256</v>
       </c>
+      <c r="X51" t="n">
+        <v>0.26426100730896</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -15705,6 +16341,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -15808,6 +16449,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -15911,6 +16557,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -16014,6 +16665,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X55" t="n">
+        <v>6325.516770839691</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -16115,6 +16769,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -16218,6 +16877,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -16289,6 +16953,9 @@
       <c r="W58" t="n">
         <v>0.243492603302002</v>
       </c>
+      <c r="X58" t="n">
+        <v>0.2645862102508545</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -16364,6 +17031,9 @@
       <c r="W59" t="n">
         <v>0.2437410354614258</v>
       </c>
+      <c r="X59" t="n">
+        <v>0.2647936344146729</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -16435,6 +17105,9 @@
       <c r="W60" t="n">
         <v>0.2439610958099365</v>
       </c>
+      <c r="X60" t="n">
+        <v>0.2650067806243896</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -16508,6 +17181,9 @@
       <c r="W61" t="n">
         <v>0.2441952228546143</v>
       </c>
+      <c r="X61" t="n">
+        <v>0.2652132511138916</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -16605,6 +17281,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -16702,6 +17383,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -16805,6 +17491,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -16902,6 +17593,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X65" t="n">
+        <v>6325.517239093781</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -16999,6 +17693,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -17096,6 +17795,11 @@
       <c r="W67" t="n">
         <v>8425.414584159851</v>
       </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -17167,6 +17871,9 @@
       <c r="W68" t="n">
         <v>0.2445502281188965</v>
       </c>
+      <c r="X68" t="n">
+        <v>0.2655401229858398</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -17238,6 +17945,9 @@
       <c r="W69" t="n">
         <v>0.2447760105133057</v>
       </c>
+      <c r="X69" t="n">
+        <v>0.2657699584960938</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -17309,6 +18019,9 @@
       <c r="W70" t="n">
         <v>0.2449929714202881</v>
       </c>
+      <c r="X70" t="n">
+        <v>0.2659990787506104</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -17380,6 +18093,9 @@
       <c r="W71" t="n">
         <v>0.245206356048584</v>
       </c>
+      <c r="X71" t="n">
+        <v>0.2662084102630615</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -17469,6 +18185,11 @@
       <c r="W72" t="n">
         <v>63.41740798950195</v>
       </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -17560,6 +18281,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -17659,6 +18385,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -17752,6 +18483,11 @@
       <c r="W75" t="n">
         <v>8125.016231536865</v>
       </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -17847,6 +18583,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -17944,6 +18685,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -18015,6 +18761,9 @@
       <c r="W78" t="n">
         <v>0.2455496788024902</v>
       </c>
+      <c r="X78" t="n">
+        <v>0.2665379047393799</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -18086,6 +18835,9 @@
       <c r="W79" t="n">
         <v>0.2457723617553711</v>
       </c>
+      <c r="X79" t="n">
+        <v>0.26678466796875</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -18157,6 +18909,9 @@
       <c r="W80" t="n">
         <v>0.2459845542907715</v>
       </c>
+      <c r="X80" t="n">
+        <v>0.2670032978057861</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -18228,6 +18983,9 @@
       <c r="W81" t="n">
         <v>0.2462038993835449</v>
       </c>
+      <c r="X81" t="n">
+        <v>0.2672119140625</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -18309,6 +19067,11 @@
       <c r="W82" t="n">
         <v>63.41820287704468</v>
       </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -18396,6 +19159,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -18491,6 +19259,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -18582,6 +19355,11 @@
       <c r="W85" t="n">
         <v>8125.016712188721</v>
       </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -18679,6 +19457,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -18772,6 +19555,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -18843,6 +19631,9 @@
       <c r="W88" t="n">
         <v>0.2466933727264404</v>
       </c>
+      <c r="X88" t="n">
+        <v>0.2675387859344482</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -18914,6 +19705,9 @@
       <c r="W89" t="n">
         <v>0.2469594478607178</v>
       </c>
+      <c r="X89" t="n">
+        <v>0.267744779586792</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -18985,6 +19779,9 @@
       <c r="W90" t="n">
         <v>0.2472026348114014</v>
       </c>
+      <c r="X90" t="n">
+        <v>0.2679481506347656</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -19056,6 +19853,9 @@
       <c r="W91" t="n">
         <v>0.2474191188812256</v>
       </c>
+      <c r="X91" t="n">
+        <v>0.2681779861450195</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -19143,6 +19943,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -19238,6 +20043,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -19329,6 +20139,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -19414,6 +20229,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -19509,6 +20329,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -19602,6 +20427,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -19673,6 +20503,9 @@
       <c r="W98" t="n">
         <v>0.2478325366973877</v>
       </c>
+      <c r="X98" t="n">
+        <v>0.2685093879699707</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -19744,6 +20577,9 @@
       <c r="W99" t="n">
         <v>0.248131275177002</v>
       </c>
+      <c r="X99" t="n">
+        <v>0.2687170505523682</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -19815,6 +20651,9 @@
       <c r="W100" t="n">
         <v>0.2484145164489746</v>
       </c>
+      <c r="X100" t="n">
+        <v>0.2689309120178223</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -19886,6 +20725,9 @@
       <c r="W101" t="n">
         <v>0.2487092018127441</v>
       </c>
+      <c r="X101" t="n">
+        <v>0.2692041397094727</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -19977,6 +20819,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -20066,6 +20913,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -20153,6 +21005,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -20234,6 +21091,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X105" t="n">
+        <v>7827.271791934967</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -20325,6 +21185,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -20412,6 +21277,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X107" t="n">
+        <v>30.43708419799805</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -20493,6 +21361,11 @@
       <c r="W108" t="n">
         <v>15.6370255947113</v>
       </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -20568,6 +21441,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X109" t="n">
+        <v>186.3942582607269</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -20645,6 +21521,9 @@
       <c r="W110" t="n">
         <v>0.2491660118103027</v>
       </c>
+      <c r="X110" t="n">
+        <v>145.0555529594421</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -20724,6 +21603,9 @@
       <c r="W111" t="n">
         <v>16.78798151016235</v>
       </c>
+      <c r="X111" t="n">
+        <v>513.6751191616058</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -20805,6 +21687,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X112" t="n">
+        <v>10831.27315044403</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -20880,6 +21765,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -20957,6 +21847,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -21032,6 +21927,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X115" t="n">
+        <v>849.0826246738434</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -21109,6 +22007,11 @@
       <c r="W116" t="n">
         <v>9026.19703912735</v>
       </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -21182,6 +22085,9 @@
       <c r="W117" t="n">
         <v>0.2495720386505127</v>
       </c>
+      <c r="X117" t="n">
+        <v>30.43765592575073</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -21253,6 +22159,9 @@
       <c r="W118" t="n">
         <v>15.63751435279846</v>
       </c>
+      <c r="X118" t="n">
+        <v>115.309916973114</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -21324,6 +22233,9 @@
       <c r="W119" t="n">
         <v>34.05809783935547</v>
       </c>
+      <c r="X119" t="n">
+        <v>186.3951060771942</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -21397,6 +22309,9 @@
       <c r="W120" t="n">
         <v>0.2498793601989746</v>
       </c>
+      <c r="X120" t="n">
+        <v>145.0561459064484</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -21468,6 +22383,9 @@
       <c r="W121" t="n">
         <v>16.78857803344727</v>
       </c>
+      <c r="X121" t="n">
+        <v>513.675549030304</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -21541,6 +22459,9 @@
       <c r="W122" t="n">
         <v>15.63784575462341</v>
       </c>
+      <c r="X122" t="n">
+        <v>10831.27362895012</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -21612,6 +22533,9 @@
       <c r="W123" t="n">
         <v>16.78889727592468</v>
       </c>
+      <c r="X123" t="n">
+        <v>0.2698595523834229</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -21683,6 +22607,9 @@
       <c r="W124" t="n">
         <v>968.2448418140411</v>
       </c>
+      <c r="X124" t="n">
+        <v>0.270087718963623</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -21758,6 +22685,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X125" t="n">
+        <v>849.0831797122955</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -21831,6 +22761,9 @@
       <c r="W126" t="n">
         <v>9026.197655200958</v>
       </c>
+      <c r="X126" t="n">
+        <v>15.459139585495</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -21902,6 +22835,9 @@
       <c r="W127" t="n">
         <v>0.250236988067627</v>
       </c>
+      <c r="X127" t="n">
+        <v>225.3064606189728</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -21973,6 +22909,9 @@
       <c r="W128" t="n">
         <v>1604.651415348053</v>
       </c>
+      <c r="X128" t="n">
+        <v>115.3104064464569</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -22046,6 +22985,9 @@
       <c r="W129" t="n">
         <v>34.05851936340332</v>
       </c>
+      <c r="X129" t="n">
+        <v>697.7290182113647</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -22117,6 +23059,9 @@
       <c r="W130" t="n">
         <v>0.2505085468292236</v>
       </c>
+      <c r="X130" t="n">
+        <v>1243.108473777771</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -22188,6 +23133,9 @@
       <c r="W131" t="n">
         <v>968.2452938556671</v>
       </c>
+      <c r="X131" t="n">
+        <v>27.01185441017151</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -22263,6 +23211,9 @@
       <c r="W132" t="n">
         <v>15.63822650909424</v>
       </c>
+      <c r="X132" t="n">
+        <v>0.2704393863677979</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -22336,6 +23287,9 @@
       <c r="W133" t="n">
         <v>16.78933143615723</v>
       </c>
+      <c r="X133" t="n">
+        <v>0.2706499099731445</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -22411,6 +23365,9 @@
       <c r="W134" t="n">
         <v>968.2456200122833</v>
       </c>
+      <c r="X134" t="n">
+        <v>0.2708561420440674</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -22486,6 +23443,9 @@
       <c r="W135" t="n">
         <v>0.2508552074432373</v>
       </c>
+      <c r="X135" t="n">
+        <v>203.6403179168701</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -22561,6 +23521,9 @@
       <c r="W136" t="n">
         <v>0.2510840892791748</v>
       </c>
+      <c r="X136" t="n">
+        <v>15.45958399772644</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -22636,6 +23599,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X137" t="n">
+        <v>225.3070523738861</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -22711,6 +23677,9 @@
       <c r="W138" t="n">
         <v>1604.651970386505</v>
       </c>
+      <c r="X138" t="n">
+        <v>5123.910646438599</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -22790,6 +23759,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -22861,6 +23835,9 @@
       <c r="W140" t="n">
         <v>0.2513799667358398</v>
       </c>
+      <c r="X140" t="n">
+        <v>1243.109000205994</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -22935,6 +23912,9 @@
         <is>
           <t>inf</t>
         </is>
+      </c>
+      <c r="X141" t="n">
+        <v>27.01241970062256</v>
       </c>
     </row>
   </sheetData>
@@ -22948,7 +23928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU141"/>
+  <dimension ref="A1:AW141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23192,6 +24172,16 @@
           <t>2023-08-09</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -23353,6 +24343,12 @@
         </is>
       </c>
       <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -23508,6 +24504,12 @@
         </is>
       </c>
       <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -23663,6 +24665,12 @@
         </is>
       </c>
       <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -23818,6 +24826,12 @@
         </is>
       </c>
       <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -23973,6 +24987,12 @@
         </is>
       </c>
       <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -24128,6 +25148,12 @@
         </is>
       </c>
       <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -24319,6 +25345,14 @@
       <c r="AU8" t="n">
         <v>0.237959623336792</v>
       </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.2595820426940918</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -24510,6 +25544,14 @@
       <c r="AU9" t="n">
         <v>0.2382316589355469</v>
       </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.2598261833190918</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -24701,6 +25743,14 @@
       <c r="AU10" t="n">
         <v>0.2384979724884033</v>
       </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.260066032409668</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -24892,6 +25942,14 @@
       <c r="AU11" t="n">
         <v>0.2387583255767822</v>
       </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.2603151798248291</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -25053,6 +26111,12 @@
         </is>
       </c>
       <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -25208,6 +26272,12 @@
         </is>
       </c>
       <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -25363,6 +26433,12 @@
         </is>
       </c>
       <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -25522,6 +26598,12 @@
         </is>
       </c>
       <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -25677,6 +26759,12 @@
         </is>
       </c>
       <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -25832,6 +26920,12 @@
         </is>
       </c>
       <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -26023,6 +27117,14 @@
       <c r="AU18" t="n">
         <v>0.2391164302825928</v>
       </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.2606823444366455</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -26214,6 +27316,14 @@
       <c r="AU19" t="n">
         <v>0.2393674850463867</v>
       </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.2608931064605713</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -26405,6 +27515,14 @@
       <c r="AU20" t="n">
         <v>0.2396228313446045</v>
       </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW20" t="n">
+        <v>0.2611105442047119</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -26596,6 +27714,14 @@
       <c r="AU21" t="n">
         <v>0.2398662567138672</v>
       </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW21" t="n">
+        <v>0.2613153457641602</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -26755,6 +27881,12 @@
         </is>
       </c>
       <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -26914,6 +28046,12 @@
         </is>
       </c>
       <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -27073,6 +28211,12 @@
         </is>
       </c>
       <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -27236,6 +28380,12 @@
       <c r="AU25" t="n">
         <v>3018.265130996704</v>
       </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -27401,6 +28551,14 @@
       <c r="AU26" t="n">
         <v>574.6933753490448</v>
       </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW26" t="n">
+        <v>1031.053307533264</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -27560,6 +28718,12 @@
         </is>
       </c>
       <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -27751,6 +28915,14 @@
       <c r="AU28" t="n">
         <v>0.2402615547180176</v>
       </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW28" t="n">
+        <v>0.2616438865661621</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -27942,6 +29114,14 @@
       <c r="AU29" t="n">
         <v>0.2404866218566895</v>
       </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW29" t="n">
+        <v>0.2619020938873291</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -28133,6 +29313,14 @@
       <c r="AU30" t="n">
         <v>0.2407341003417969</v>
       </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW30" t="n">
+        <v>0.2621250152587891</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -28324,6 +29512,14 @@
       <c r="AU31" t="n">
         <v>0.2409789562225342</v>
       </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW31" t="n">
+        <v>0.2623307704925537</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -28481,6 +29677,12 @@
         </is>
       </c>
       <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -28638,6 +29840,12 @@
         </is>
       </c>
       <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -28795,6 +30003,12 @@
         </is>
       </c>
       <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -28954,6 +30168,12 @@
         </is>
       </c>
       <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -29119,6 +30339,14 @@
       <c r="AU36" t="n">
         <v>574.6938457489014</v>
       </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW36" t="n">
+        <v>1031.053874254227</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -29280,6 +30508,12 @@
         </is>
       </c>
       <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -29471,6 +30705,14 @@
       <c r="AU38" t="n">
         <v>0.2413318157196045</v>
       </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW38" t="n">
+        <v>0.2626578807830811</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -29662,6 +30904,14 @@
       <c r="AU39" t="n">
         <v>0.2416176795959473</v>
       </c>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW39" t="n">
+        <v>0.2628662586212158</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -29853,6 +31103,14 @@
       <c r="AU40" t="n">
         <v>0.2418413162231445</v>
       </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW40" t="n">
+        <v>0.2630825042724609</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -30044,6 +31302,14 @@
       <c r="AU41" t="n">
         <v>0.2420926094055176</v>
       </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW41" t="n">
+        <v>0.2632880210876465</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -30201,6 +31467,12 @@
         </is>
       </c>
       <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -30358,6 +31630,12 @@
         </is>
       </c>
       <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -30517,6 +31795,12 @@
         </is>
       </c>
       <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -30674,6 +31958,12 @@
         </is>
       </c>
       <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -30831,6 +32121,12 @@
         </is>
       </c>
       <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -30988,6 +32284,12 @@
         </is>
       </c>
       <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -31179,6 +32481,14 @@
       <c r="AU48" t="n">
         <v>0.2424428462982178</v>
       </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW48" t="n">
+        <v>0.263617992401123</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -31362,6 +32672,14 @@
       <c r="AU49" t="n">
         <v>0.2427120208740234</v>
       </c>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW49" t="n">
+        <v>0.2638249397277832</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -31553,6 +32871,14 @@
       <c r="AU50" t="n">
         <v>0.2429335117340088</v>
       </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW50" t="n">
+        <v>0.2640359401702881</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -31738,6 +33064,14 @@
       <c r="AU51" t="n">
         <v>0.2431466579437256</v>
       </c>
+      <c r="AV51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW51" t="n">
+        <v>0.26426100730896</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -31901,6 +33235,12 @@
         </is>
       </c>
       <c r="AU52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -32060,6 +33400,12 @@
         </is>
       </c>
       <c r="AU53" t="inlineStr"/>
+      <c r="AV53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -32219,6 +33565,12 @@
         </is>
       </c>
       <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -32378,6 +33730,14 @@
         </is>
       </c>
       <c r="AU55" t="inlineStr"/>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW55" t="n">
+        <v>6325.516770839691</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -32539,6 +33899,12 @@
         </is>
       </c>
       <c r="AU56" t="inlineStr"/>
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -32698,6 +34064,12 @@
         </is>
       </c>
       <c r="AU57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -32889,6 +34261,14 @@
       <c r="AU58" t="n">
         <v>0.243492603302002</v>
       </c>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW58" t="n">
+        <v>0.2645862102508545</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -33076,6 +34456,14 @@
       <c r="AU59" t="n">
         <v>0.2437410354614258</v>
       </c>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW59" t="n">
+        <v>0.2647936344146729</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -33267,6 +34655,14 @@
       <c r="AU60" t="n">
         <v>0.2439610958099365</v>
       </c>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW60" t="n">
+        <v>0.2650067806243896</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -33456,6 +34852,14 @@
       <c r="AU61" t="n">
         <v>0.2441952228546143</v>
       </c>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW61" t="n">
+        <v>0.2652132511138916</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -33621,6 +35025,12 @@
         </is>
       </c>
       <c r="AU62" t="inlineStr"/>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -33786,6 +35196,12 @@
         </is>
       </c>
       <c r="AU63" t="inlineStr"/>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -33945,6 +35361,12 @@
         </is>
       </c>
       <c r="AU64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -34110,6 +35532,14 @@
         </is>
       </c>
       <c r="AU65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW65" t="n">
+        <v>6325.517239093781</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -34275,6 +35705,12 @@
         </is>
       </c>
       <c r="AU66" t="inlineStr"/>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -34440,6 +35876,12 @@
       <c r="AU67" t="n">
         <v>8425.414584159851</v>
       </c>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -34631,6 +36073,14 @@
       <c r="AU68" t="n">
         <v>0.2445502281188965</v>
       </c>
+      <c r="AV68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW68" t="n">
+        <v>0.2655401229858398</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -34822,6 +36272,14 @@
       <c r="AU69" t="n">
         <v>0.2447760105133057</v>
       </c>
+      <c r="AV69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW69" t="n">
+        <v>0.2657699584960938</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -35013,6 +36471,14 @@
       <c r="AU70" t="n">
         <v>0.2449929714202881</v>
       </c>
+      <c r="AV70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW70" t="n">
+        <v>0.2659990787506104</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -35204,6 +36670,14 @@
       <c r="AU71" t="n">
         <v>0.245206356048584</v>
       </c>
+      <c r="AV71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW71" t="n">
+        <v>0.2662084102630615</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -35377,6 +36851,12 @@
       <c r="AU72" t="n">
         <v>63.41740798950195</v>
       </c>
+      <c r="AV72" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -35548,6 +37028,12 @@
         </is>
       </c>
       <c r="AU73" t="inlineStr"/>
+      <c r="AV73" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -35711,6 +37197,12 @@
         </is>
       </c>
       <c r="AU74" t="inlineStr"/>
+      <c r="AV74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -35880,6 +37372,12 @@
       <c r="AU75" t="n">
         <v>8125.016231536865</v>
       </c>
+      <c r="AV75" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -36047,6 +37545,12 @@
         </is>
       </c>
       <c r="AU76" t="inlineStr"/>
+      <c r="AV76" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -36212,6 +37716,12 @@
         </is>
       </c>
       <c r="AU77" t="inlineStr"/>
+      <c r="AV77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -36403,6 +37913,14 @@
       <c r="AU78" t="n">
         <v>0.2455496788024902</v>
       </c>
+      <c r="AV78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW78" t="n">
+        <v>0.2665379047393799</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -36594,6 +38112,14 @@
       <c r="AU79" t="n">
         <v>0.2457723617553711</v>
       </c>
+      <c r="AV79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW79" t="n">
+        <v>0.26678466796875</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -36785,6 +38311,14 @@
       <c r="AU80" t="n">
         <v>0.2459845542907715</v>
       </c>
+      <c r="AV80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW80" t="n">
+        <v>0.2670032978057861</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -36976,6 +38510,14 @@
       <c r="AU81" t="n">
         <v>0.2462038993835449</v>
       </c>
+      <c r="AV81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW81" t="n">
+        <v>0.2672119140625</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -37157,6 +38699,12 @@
       <c r="AU82" t="n">
         <v>63.41820287704468</v>
       </c>
+      <c r="AV82" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -37332,6 +38880,12 @@
         </is>
       </c>
       <c r="AU83" t="inlineStr"/>
+      <c r="AV83" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -37499,6 +39053,12 @@
         </is>
       </c>
       <c r="AU84" t="inlineStr"/>
+      <c r="AV84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -37670,6 +39230,12 @@
       <c r="AU85" t="n">
         <v>8125.016712188721</v>
       </c>
+      <c r="AV85" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -37835,6 +39401,12 @@
         </is>
       </c>
       <c r="AU86" t="inlineStr"/>
+      <c r="AV86" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -38004,6 +39576,12 @@
         </is>
       </c>
       <c r="AU87" t="inlineStr"/>
+      <c r="AV87" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -38195,6 +39773,14 @@
       <c r="AU88" t="n">
         <v>0.2466933727264404</v>
       </c>
+      <c r="AV88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW88" t="n">
+        <v>0.2675387859344482</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -38386,6 +39972,14 @@
       <c r="AU89" t="n">
         <v>0.2469594478607178</v>
       </c>
+      <c r="AV89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW89" t="n">
+        <v>0.267744779586792</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -38577,6 +40171,14 @@
       <c r="AU90" t="n">
         <v>0.2472026348114014</v>
       </c>
+      <c r="AV90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW90" t="n">
+        <v>0.2679481506347656</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -38768,6 +40370,14 @@
       <c r="AU91" t="n">
         <v>0.2474191188812256</v>
       </c>
+      <c r="AV91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW91" t="n">
+        <v>0.2681779861450195</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -38943,6 +40553,12 @@
         </is>
       </c>
       <c r="AU92" t="inlineStr"/>
+      <c r="AV92" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -39110,6 +40726,12 @@
         </is>
       </c>
       <c r="AU93" t="inlineStr"/>
+      <c r="AV93" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -39281,6 +40903,12 @@
         </is>
       </c>
       <c r="AU94" t="inlineStr"/>
+      <c r="AV94" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -39458,6 +41086,12 @@
         </is>
       </c>
       <c r="AU95" t="inlineStr"/>
+      <c r="AV95" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -39625,6 +41259,12 @@
         </is>
       </c>
       <c r="AU96" t="inlineStr"/>
+      <c r="AV96" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -39794,6 +41434,12 @@
         </is>
       </c>
       <c r="AU97" t="inlineStr"/>
+      <c r="AV97" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -39985,6 +41631,14 @@
       <c r="AU98" t="n">
         <v>0.2478325366973877</v>
       </c>
+      <c r="AV98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW98" t="n">
+        <v>0.2685093879699707</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -40176,6 +41830,14 @@
       <c r="AU99" t="n">
         <v>0.248131275177002</v>
       </c>
+      <c r="AV99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW99" t="n">
+        <v>0.2687170505523682</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -40367,6 +42029,14 @@
       <c r="AU100" t="n">
         <v>0.2484145164489746</v>
       </c>
+      <c r="AV100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW100" t="n">
+        <v>0.2689309120178223</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -40558,6 +42228,14 @@
       <c r="AU101" t="n">
         <v>0.2487092018127441</v>
       </c>
+      <c r="AV101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW101" t="n">
+        <v>0.2692041397094727</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -40729,6 +42407,12 @@
         </is>
       </c>
       <c r="AU102" t="inlineStr"/>
+      <c r="AV102" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -40902,6 +42586,12 @@
         </is>
       </c>
       <c r="AU103" t="inlineStr"/>
+      <c r="AV103" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -41077,6 +42767,12 @@
         </is>
       </c>
       <c r="AU104" t="inlineStr"/>
+      <c r="AV104" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -41258,6 +42954,14 @@
         </is>
       </c>
       <c r="AU105" t="inlineStr"/>
+      <c r="AV105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW105" t="n">
+        <v>7827.271791934967</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -41429,6 +43133,12 @@
         </is>
       </c>
       <c r="AU106" t="inlineStr"/>
+      <c r="AV106" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -41604,6 +43314,14 @@
         </is>
       </c>
       <c r="AU107" t="inlineStr"/>
+      <c r="AV107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW107" t="n">
+        <v>30.43708419799805</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -41785,6 +43503,12 @@
       <c r="AU108" t="n">
         <v>15.6370255947113</v>
       </c>
+      <c r="AV108" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -41972,6 +43696,14 @@
         </is>
       </c>
       <c r="AU109" t="inlineStr"/>
+      <c r="AV109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW109" t="n">
+        <v>186.3942582607269</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -42157,6 +43889,14 @@
       <c r="AU110" t="n">
         <v>0.2491660118103027</v>
       </c>
+      <c r="AV110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW110" t="n">
+        <v>145.0555529594421</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -42340,6 +44080,14 @@
       <c r="AU111" t="n">
         <v>16.78798151016235</v>
       </c>
+      <c r="AV111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW111" t="n">
+        <v>513.6751191616058</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -42521,6 +44269,14 @@
         </is>
       </c>
       <c r="AU112" t="inlineStr"/>
+      <c r="AV112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW112" t="n">
+        <v>10831.27315044403</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -42708,6 +44464,12 @@
         </is>
       </c>
       <c r="AU113" t="inlineStr"/>
+      <c r="AV113" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -42893,6 +44655,12 @@
         </is>
       </c>
       <c r="AU114" t="inlineStr"/>
+      <c r="AV114" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -43080,6 +44848,14 @@
         </is>
       </c>
       <c r="AU115" t="inlineStr"/>
+      <c r="AV115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW115" t="n">
+        <v>849.0826246738434</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -43265,6 +45041,12 @@
       <c r="AU116" t="n">
         <v>9026.19703912735</v>
       </c>
+      <c r="AV116" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -43454,6 +45236,14 @@
       <c r="AU117" t="n">
         <v>0.2495720386505127</v>
       </c>
+      <c r="AV117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW117" t="n">
+        <v>30.43765592575073</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -43645,6 +45435,14 @@
       <c r="AU118" t="n">
         <v>15.63751435279846</v>
       </c>
+      <c r="AV118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW118" t="n">
+        <v>115.309916973114</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -43836,6 +45634,14 @@
       <c r="AU119" t="n">
         <v>34.05809783935547</v>
       </c>
+      <c r="AV119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW119" t="n">
+        <v>186.3951060771942</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -44025,6 +45831,14 @@
       <c r="AU120" t="n">
         <v>0.2498793601989746</v>
       </c>
+      <c r="AV120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW120" t="n">
+        <v>145.0561459064484</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -44216,6 +46030,14 @@
       <c r="AU121" t="n">
         <v>16.78857803344727</v>
       </c>
+      <c r="AV121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW121" t="n">
+        <v>513.675549030304</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -44405,6 +46227,14 @@
       <c r="AU122" t="n">
         <v>15.63784575462341</v>
       </c>
+      <c r="AV122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW122" t="n">
+        <v>10831.27362895012</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -44596,6 +46426,14 @@
       <c r="AU123" t="n">
         <v>16.78889727592468</v>
       </c>
+      <c r="AV123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW123" t="n">
+        <v>0.2698595523834229</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -44787,6 +46625,14 @@
       <c r="AU124" t="n">
         <v>968.2448418140411</v>
       </c>
+      <c r="AV124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW124" t="n">
+        <v>0.270087718963623</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -44974,6 +46820,14 @@
         </is>
       </c>
       <c r="AU125" t="inlineStr"/>
+      <c r="AV125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW125" t="n">
+        <v>849.0831797122955</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -45163,6 +47017,14 @@
       <c r="AU126" t="n">
         <v>9026.197655200958</v>
       </c>
+      <c r="AV126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW126" t="n">
+        <v>15.459139585495</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -45354,6 +47216,14 @@
       <c r="AU127" t="n">
         <v>0.250236988067627</v>
       </c>
+      <c r="AV127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW127" t="n">
+        <v>225.3064606189728</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -45545,6 +47415,14 @@
       <c r="AU128" t="n">
         <v>1604.651415348053</v>
       </c>
+      <c r="AV128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW128" t="n">
+        <v>115.3104064464569</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -45734,6 +47612,14 @@
       <c r="AU129" t="n">
         <v>34.05851936340332</v>
       </c>
+      <c r="AV129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW129" t="n">
+        <v>697.7290182113647</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -45925,6 +47811,14 @@
       <c r="AU130" t="n">
         <v>0.2505085468292236</v>
       </c>
+      <c r="AV130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW130" t="n">
+        <v>1243.108473777771</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -46116,6 +48010,14 @@
       <c r="AU131" t="n">
         <v>968.2452938556671</v>
       </c>
+      <c r="AV131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW131" t="n">
+        <v>27.01185441017151</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -46303,6 +48205,14 @@
       <c r="AU132" t="n">
         <v>15.63822650909424</v>
       </c>
+      <c r="AV132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW132" t="n">
+        <v>0.2704393863677979</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -46492,6 +48402,14 @@
       <c r="AU133" t="n">
         <v>16.78933143615723</v>
       </c>
+      <c r="AV133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW133" t="n">
+        <v>0.2706499099731445</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -46679,6 +48597,14 @@
       <c r="AU134" t="n">
         <v>968.2456200122833</v>
       </c>
+      <c r="AV134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW134" t="n">
+        <v>0.2708561420440674</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -46866,6 +48792,14 @@
       <c r="AU135" t="n">
         <v>0.2508552074432373</v>
       </c>
+      <c r="AV135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW135" t="n">
+        <v>203.6403179168701</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -47053,6 +48987,14 @@
       <c r="AU136" t="n">
         <v>0.2510840892791748</v>
       </c>
+      <c r="AV136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW136" t="n">
+        <v>15.45958399772644</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -47240,6 +49182,14 @@
         </is>
       </c>
       <c r="AU137" t="inlineStr"/>
+      <c r="AV137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW137" t="n">
+        <v>225.3070523738861</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -47427,6 +49377,14 @@
       <c r="AU138" t="n">
         <v>1604.651970386505</v>
       </c>
+      <c r="AV138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW138" t="n">
+        <v>5123.910646438599</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -47610,6 +49568,12 @@
         </is>
       </c>
       <c r="AU139" t="inlineStr"/>
+      <c r="AV139" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AW139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -47801,6 +49765,14 @@
       <c r="AU140" t="n">
         <v>0.2513799667358398</v>
       </c>
+      <c r="AV140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW140" t="n">
+        <v>1243.109000205994</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -47988,6 +49960,14 @@
         </is>
       </c>
       <c r="AU141" t="inlineStr"/>
+      <c r="AV141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AW141" t="n">
+        <v>27.01241970062256</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y141"/>
+  <dimension ref="A1:Z141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,6 +558,11 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -636,7 +641,10 @@
         <v>0.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.184210526315789</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="3">
@@ -715,6 +723,9 @@
       <c r="Y3" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -792,6 +803,9 @@
       <c r="Y4" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -869,6 +883,9 @@
       <c r="Y5" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -946,6 +963,9 @@
       <c r="Y6" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1023,6 +1043,9 @@
       <c r="Y7" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1098,6 +1121,9 @@
         <v>-1</v>
       </c>
       <c r="Y8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z8" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1175,6 +1201,9 @@
         <v>-1</v>
       </c>
       <c r="Y9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z9" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1252,6 +1281,9 @@
         <v>-1</v>
       </c>
       <c r="Y10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z10" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1329,6 +1361,9 @@
         <v>-1</v>
       </c>
       <c r="Y11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z11" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1406,7 +1441,10 @@
         <v>0.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.184210526315789</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="13">
@@ -1485,6 +1523,9 @@
       <c r="Y13" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1562,6 +1603,9 @@
       <c r="Y14" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1637,7 +1681,10 @@
         <v>0.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="16">
@@ -1716,6 +1763,9 @@
       <c r="Y16" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1793,6 +1843,9 @@
       <c r="Y17" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1868,6 +1921,9 @@
         <v>-1</v>
       </c>
       <c r="Y18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z18" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -1945,6 +2001,9 @@
         <v>-1</v>
       </c>
       <c r="Y19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z19" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -2022,6 +2081,9 @@
         <v>-1</v>
       </c>
       <c r="Y20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z20" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2099,6 +2161,9 @@
         <v>-1</v>
       </c>
       <c r="Y21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z21" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -2176,7 +2241,10 @@
         <v>0.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="23">
@@ -2253,7 +2321,10 @@
         <v>0.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="24">
@@ -2330,7 +2401,10 @@
         <v>0.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="25">
@@ -2407,7 +2481,10 @@
         <v>0.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.236842105263158</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="26">
@@ -2484,7 +2561,10 @@
         <v>3.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="27">
@@ -2561,7 +2641,10 @@
         <v>0.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="28">
@@ -2638,6 +2721,9 @@
         <v>-1</v>
       </c>
       <c r="Y28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z28" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2715,6 +2801,9 @@
         <v>-1</v>
       </c>
       <c r="Y29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z29" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -2792,6 +2881,9 @@
         <v>-1</v>
       </c>
       <c r="Y30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z30" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -2869,6 +2961,9 @@
         <v>-1</v>
       </c>
       <c r="Y31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z31" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -2946,7 +3041,10 @@
         <v>0.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.6578947368421053</v>
+        <v>1.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="33">
@@ -3023,7 +3121,10 @@
         <v>0.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="34">
@@ -3100,7 +3201,10 @@
         <v>0.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="35">
@@ -3177,7 +3281,10 @@
         <v>0.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.078947368421053</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="36">
@@ -3254,7 +3361,10 @@
         <v>3.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.605263157894737</v>
+        <v>4.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="37">
@@ -3331,7 +3441,10 @@
         <v>0.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.868421052631579</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="38">
@@ -3408,6 +3521,9 @@
         <v>-1</v>
       </c>
       <c r="Y38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z38" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3485,6 +3601,9 @@
         <v>-1</v>
       </c>
       <c r="Y39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z39" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -3562,6 +3681,9 @@
         <v>-1</v>
       </c>
       <c r="Y40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z40" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3639,6 +3761,9 @@
         <v>-1</v>
       </c>
       <c r="Y41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z41" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -3718,6 +3843,9 @@
       <c r="Y42" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3795,6 +3923,9 @@
       <c r="Y43" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3870,7 +4001,10 @@
         <v>0.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="45">
@@ -3949,6 +4083,9 @@
       <c r="Y45" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4026,6 +4163,9 @@
       <c r="Y46" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4103,6 +4243,9 @@
       <c r="Y47" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4178,6 +4321,9 @@
         <v>-1</v>
       </c>
       <c r="Y48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z48" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4255,6 +4401,9 @@
         <v>-1</v>
       </c>
       <c r="Y49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z49" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -4332,6 +4481,9 @@
         <v>-1</v>
       </c>
       <c r="Y50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z50" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -4409,6 +4561,9 @@
         <v>-1</v>
       </c>
       <c r="Y51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z51" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -4486,7 +4641,10 @@
         <v>0.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.017647058823529</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.9888888888888889</v>
       </c>
     </row>
     <row r="53">
@@ -4565,6 +4723,9 @@
       <c r="Y53" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4642,6 +4803,9 @@
       <c r="Y54" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4717,7 +4881,10 @@
         <v>1.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="56">
@@ -4794,7 +4961,10 @@
         <v>0.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="57">
@@ -4873,6 +5043,9 @@
       <c r="Y57" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4948,6 +5121,9 @@
         <v>-1</v>
       </c>
       <c r="Y58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z58" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5025,6 +5201,9 @@
         <v>-1</v>
       </c>
       <c r="Y59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z59" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -5102,6 +5281,9 @@
         <v>-1</v>
       </c>
       <c r="Y60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z60" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5179,6 +5361,9 @@
         <v>-1</v>
       </c>
       <c r="Y61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z61" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -5256,7 +5441,10 @@
         <v>0.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.311764705882353</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.266666666666667</v>
       </c>
     </row>
     <row r="63">
@@ -5333,7 +5521,10 @@
         <v>0.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.147058823529412</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.111111111111111</v>
       </c>
     </row>
     <row r="64">
@@ -5412,6 +5603,9 @@
       <c r="Y64" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z64" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5487,7 +5681,10 @@
         <v>1.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.088235294117647</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.055555555555556</v>
       </c>
     </row>
     <row r="66">
@@ -5564,7 +5761,10 @@
         <v>0.5</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.264705882352941</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="67">
@@ -5641,7 +5841,10 @@
         <v>0.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="68">
@@ -5718,6 +5921,9 @@
         <v>-1</v>
       </c>
       <c r="Y68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z68" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5795,6 +6001,9 @@
         <v>-1</v>
       </c>
       <c r="Y69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z69" t="n">
         <v>5.1</v>
       </c>
     </row>
@@ -5872,6 +6081,9 @@
         <v>-1</v>
       </c>
       <c r="Y70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z70" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -5949,6 +6161,9 @@
         <v>-1</v>
       </c>
       <c r="Y71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z71" t="n">
         <v>6.3</v>
       </c>
     </row>
@@ -6026,7 +6241,10 @@
         <v>0.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.970588235294118</v>
       </c>
     </row>
     <row r="73">
@@ -6103,7 +6321,10 @@
         <v>0.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.911764705882353</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -6180,7 +6401,10 @@
         <v>0.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.252941176470588</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.211111111111111</v>
       </c>
     </row>
     <row r="75">
@@ -6257,7 +6481,10 @@
         <v>0.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.205882352941176</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="76">
@@ -6334,7 +6561,10 @@
         <v>0.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="77">
@@ -6411,7 +6641,10 @@
         <v>0.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.264705882352941</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="78">
@@ -6488,6 +6721,9 @@
         <v>-1</v>
       </c>
       <c r="Y78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z78" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6565,6 +6801,9 @@
         <v>-1</v>
       </c>
       <c r="Y79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z79" t="n">
         <v>6.1</v>
       </c>
     </row>
@@ -6642,6 +6881,9 @@
         <v>-1</v>
       </c>
       <c r="Y80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z80" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6719,6 +6961,9 @@
         <v>-1</v>
       </c>
       <c r="Y81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6796,7 +7041,10 @@
         <v>0.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>3.676470588235294</v>
+        <v>1.5</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>3.555555555555555</v>
       </c>
     </row>
     <row r="83">
@@ -6873,7 +7121,10 @@
         <v>0.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.735294117647059</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="84">
@@ -6950,7 +7201,10 @@
         <v>0.5</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.488235294117647</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.433333333333333</v>
       </c>
     </row>
     <row r="85">
@@ -7027,7 +7281,10 @@
         <v>0.5</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.382352941176471</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="86">
@@ -7104,7 +7361,10 @@
         <v>0.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.088235294117647</v>
+        <v>4.5</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.277777777777778</v>
       </c>
     </row>
     <row r="87">
@@ -7181,7 +7441,10 @@
         <v>0.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.558823529411765</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="88">
@@ -7258,6 +7521,9 @@
         <v>-1</v>
       </c>
       <c r="Y88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z88" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7335,6 +7601,9 @@
         <v>-1</v>
       </c>
       <c r="Y89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7412,6 +7681,9 @@
         <v>-1</v>
       </c>
       <c r="Y90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z90" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7489,6 +7761,9 @@
         <v>-1</v>
       </c>
       <c r="Y91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z91" t="n">
         <v>6.459999999999999</v>
       </c>
     </row>
@@ -7566,7 +7841,10 @@
         <v>0.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>2.147058823529412</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>2.055555555555555</v>
       </c>
     </row>
     <row r="93">
@@ -7643,7 +7921,10 @@
         <v>0.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.029411764705882</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -7720,7 +8001,10 @@
         <v>0.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.676470588235294</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.611111111111111</v>
       </c>
     </row>
     <row r="95">
@@ -7797,7 +8081,10 @@
         <v>0.5</v>
       </c>
       <c r="Y95" t="n">
-        <v>2.147058823529412</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.055555555555555</v>
       </c>
     </row>
     <row r="96">
@@ -7874,7 +8161,10 @@
         <v>0.5</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.147058823529412</v>
+        <v>4.5</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="97">
@@ -7951,7 +8241,10 @@
         <v>0.5</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.444444444444444</v>
       </c>
     </row>
     <row r="98">
@@ -8028,6 +8321,9 @@
         <v>-1</v>
       </c>
       <c r="Y98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z98" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -8105,6 +8401,9 @@
         <v>-1</v>
       </c>
       <c r="Y99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z99" t="n">
         <v>7.06</v>
       </c>
     </row>
@@ -8182,6 +8481,9 @@
         <v>-1</v>
       </c>
       <c r="Y100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z100" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -8259,6 +8561,9 @@
         <v>-1</v>
       </c>
       <c r="Y101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z101" t="n">
         <v>6.659999999999999</v>
       </c>
     </row>
@@ -8336,7 +8641,10 @@
         <v>0.5</v>
       </c>
       <c r="Y102" t="n">
-        <v>2.594736842105263</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2.49</v>
       </c>
     </row>
     <row r="103">
@@ -8413,7 +8721,10 @@
         <v>0.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>1.973684210526316</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="104">
@@ -8490,6 +8801,9 @@
         <v>0.5</v>
       </c>
       <c r="Y104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z104" t="n">
         <v>2.236842105263158</v>
       </c>
     </row>
@@ -8567,7 +8881,10 @@
         <v>1.5</v>
       </c>
       <c r="Y105" t="n">
-        <v>2.815789473684211</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="106">
@@ -8644,7 +8961,10 @@
         <v>0.5</v>
       </c>
       <c r="Y106" t="n">
-        <v>2.289473684210526</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="107">
@@ -8721,7 +9041,10 @@
         <v>7.5</v>
       </c>
       <c r="Y107" t="n">
-        <v>3.384210526315789</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="108">
@@ -8798,7 +9121,10 @@
         <v>0.5</v>
       </c>
       <c r="Y108" t="n">
-        <v>4.031578947368421</v>
+        <v>5.5</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>4.105</v>
       </c>
     </row>
     <row r="109">
@@ -8875,7 +9201,10 @@
         <v>5.5</v>
       </c>
       <c r="Y109" t="n">
-        <v>4.527272727272727</v>
+        <v>5.5</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>4.569565217391304</v>
       </c>
     </row>
     <row r="110">
@@ -8952,6 +9281,9 @@
         <v>5.5</v>
       </c>
       <c r="Y110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z110" t="n">
         <v>4.25</v>
       </c>
     </row>
@@ -9029,7 +9361,10 @@
         <v>4.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>5.372727272727273</v>
+        <v>6.5</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>5.421739130434783</v>
       </c>
     </row>
     <row r="112">
@@ -9106,7 +9441,10 @@
         <v>0.5</v>
       </c>
       <c r="Y112" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>4.35</v>
       </c>
     </row>
     <row r="113">
@@ -9183,7 +9521,10 @@
         <v>0.5</v>
       </c>
       <c r="Y113" t="n">
-        <v>4.605555555555556</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>4.389473684210526</v>
       </c>
     </row>
     <row r="114">
@@ -9260,6 +9601,9 @@
         <v>0.5</v>
       </c>
       <c r="Y114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z114" t="n">
         <v>4.868421052631579</v>
       </c>
     </row>
@@ -9337,7 +9681,10 @@
         <v>3.5</v>
       </c>
       <c r="Y115" t="n">
-        <v>4.226315789473684</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="116">
@@ -9414,7 +9761,10 @@
         <v>0.5</v>
       </c>
       <c r="Y116" t="n">
-        <v>4.078947368421052</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="117">
@@ -9491,7 +9841,10 @@
         <v>7.5</v>
       </c>
       <c r="Y117" t="n">
-        <v>5.805882352941176</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>5.944444444444445</v>
       </c>
     </row>
     <row r="118">
@@ -9568,7 +9921,10 @@
         <v>6.5</v>
       </c>
       <c r="Y118" t="n">
-        <v>6.427777777777778</v>
+        <v>5.5</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>6.378947368421053</v>
       </c>
     </row>
     <row r="119">
@@ -9645,7 +10001,10 @@
         <v>5.5</v>
       </c>
       <c r="Y119" t="n">
-        <v>6.033333333333333</v>
+        <v>5.5</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>6.009090909090909</v>
       </c>
     </row>
     <row r="120">
@@ -9722,6 +10081,9 @@
         <v>5.5</v>
       </c>
       <c r="Y120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z120" t="n">
         <v>5.416666666666667</v>
       </c>
     </row>
@@ -9799,7 +10161,10 @@
         <v>4.5</v>
       </c>
       <c r="Y121" t="n">
-        <v>7.352380952380954</v>
+        <v>6.5</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>7.313636363636365</v>
       </c>
     </row>
     <row r="122">
@@ -9876,7 +10241,10 @@
         <v>0.5</v>
       </c>
       <c r="Y122" t="n">
-        <v>6.878947368421054</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>6.950000000000001</v>
       </c>
     </row>
     <row r="123">
@@ -9953,7 +10321,10 @@
         <v>-1</v>
       </c>
       <c r="Y123" t="n">
-        <v>7.341176470588235</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>7.394444444444444</v>
       </c>
     </row>
     <row r="124">
@@ -10030,6 +10401,9 @@
         <v>-1</v>
       </c>
       <c r="Y124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z124" t="n">
         <v>7.082352941176471</v>
       </c>
     </row>
@@ -10107,7 +10481,10 @@
         <v>3.5</v>
       </c>
       <c r="Y125" t="n">
-        <v>6.057894736842105</v>
+        <v>5.5</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>6.029999999999999</v>
       </c>
     </row>
     <row r="126">
@@ -10184,6 +10561,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Y126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z126" t="n">
         <v>6.236842105263158</v>
       </c>
     </row>
@@ -10261,7 +10641,10 @@
         <v>5.5</v>
       </c>
       <c r="Y127" t="n">
-        <v>7.29375</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>7.352941176470588</v>
       </c>
     </row>
     <row r="128">
@@ -10338,7 +10721,10 @@
         <v>6.5</v>
       </c>
       <c r="Y128" t="n">
-        <v>6.652941176470589</v>
+        <v>2.5</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>6.422222222222222</v>
       </c>
     </row>
     <row r="129">
@@ -10415,7 +10801,10 @@
         <v>3.5</v>
       </c>
       <c r="Y129" t="n">
-        <v>6.330434782608696</v>
+        <v>3.5</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>6.212500000000001</v>
       </c>
     </row>
     <row r="130">
@@ -10492,6 +10881,9 @@
         <v>3.5</v>
       </c>
       <c r="Y130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z130" t="n">
         <v>6.774999999999999</v>
       </c>
     </row>
@@ -10569,7 +10961,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Y131" t="n">
-        <v>7.409523809523811</v>
+        <v>3.5</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>7.231818181818183</v>
       </c>
     </row>
     <row r="132">
@@ -10646,7 +11041,10 @@
         <v>-1</v>
       </c>
       <c r="Y132" t="n">
-        <v>5.777777777777778</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>5.910526315789474</v>
       </c>
     </row>
     <row r="133">
@@ -10723,7 +11121,10 @@
         <v>-1</v>
       </c>
       <c r="Y133" t="n">
-        <v>5.347058823529412</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>5.511111111111111</v>
       </c>
     </row>
     <row r="134">
@@ -10800,6 +11201,9 @@
         <v>-1</v>
       </c>
       <c r="Y134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z134" t="n">
         <v>4.116666666666666</v>
       </c>
     </row>
@@ -10877,7 +11281,10 @@
         <v>5.5</v>
       </c>
       <c r="Y135" t="n">
-        <v>5.922222222222222</v>
+        <v>5.5</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="136">
@@ -10954,6 +11361,9 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Y136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z136" t="n">
         <v>5.666666666666667</v>
       </c>
     </row>
@@ -11031,7 +11441,10 @@
         <v>5.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>5.350000000000001</v>
+        <v>2.5</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="138">
@@ -11108,7 +11521,10 @@
         <v>1.5</v>
       </c>
       <c r="Y138" t="n">
-        <v>5.055555555555555</v>
+        <v>2.5</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>4.921052631578948</v>
       </c>
     </row>
     <row r="139">
@@ -11185,7 +11601,10 @@
         <v>0.5</v>
       </c>
       <c r="Y139" t="n">
-        <v>4.840909090909091</v>
+        <v>5.5</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>4.869565217391305</v>
       </c>
     </row>
     <row r="140">
@@ -11262,6 +11681,9 @@
         <v>3.5</v>
       </c>
       <c r="Y140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z140" t="n">
         <v>6.091666666666666</v>
       </c>
     </row>
@@ -11339,7 +11761,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Y141" t="n">
-        <v>5.636363636363637</v>
+        <v>3.5</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>5.543478260869565</v>
       </c>
     </row>
   </sheetData>
@@ -11353,7 +11778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X141"/>
+  <dimension ref="A1:Y141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11482,6 +11907,11 @@
           <t>2023-08-10</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -11588,6 +12018,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -11700,6 +12135,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -11812,6 +12252,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -11924,6 +12369,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -12036,6 +12486,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -12148,6 +12603,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -12222,6 +12682,9 @@
       <c r="X8" t="n">
         <v>0.2595820426940918</v>
       </c>
+      <c r="Y8" t="n">
+        <v>0.2699124813079834</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -12296,6 +12759,9 @@
       <c r="X9" t="n">
         <v>0.2598261833190918</v>
       </c>
+      <c r="Y9" t="n">
+        <v>0.2701585292816162</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -12370,6 +12836,9 @@
       <c r="X10" t="n">
         <v>0.260066032409668</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.2704739570617676</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -12444,6 +12913,9 @@
       <c r="X11" t="n">
         <v>0.2603151798248291</v>
       </c>
+      <c r="Y11" t="n">
+        <v>0.2708227634429932</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -12550,6 +13022,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -12662,6 +13139,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -12774,6 +13256,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -12882,6 +13369,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -12994,6 +13486,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -13106,6 +13603,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -13180,6 +13682,9 @@
       <c r="X18" t="n">
         <v>0.2606823444366455</v>
       </c>
+      <c r="Y18" t="n">
+        <v>0.2711892127990723</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -13254,6 +13759,9 @@
       <c r="X19" t="n">
         <v>0.2608931064605713</v>
       </c>
+      <c r="Y19" t="n">
+        <v>0.2714090347290039</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -13328,6 +13836,9 @@
       <c r="X20" t="n">
         <v>0.2611105442047119</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0.2716693878173828</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -13402,6 +13913,9 @@
       <c r="X21" t="n">
         <v>0.2613153457641602</v>
       </c>
+      <c r="Y21" t="n">
+        <v>0.2719383239746094</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -13510,6 +14024,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -13618,6 +14137,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -13726,6 +14250,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -13830,6 +14359,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -13930,6 +14464,9 @@
       <c r="X26" t="n">
         <v>1031.053307533264</v>
       </c>
+      <c r="Y26" t="n">
+        <v>573.4999620914459</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -14038,6 +14575,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -14112,6 +14654,9 @@
       <c r="X28" t="n">
         <v>0.2616438865661621</v>
       </c>
+      <c r="Y28" t="n">
+        <v>0.2723076343536377</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -14186,6 +14731,9 @@
       <c r="X29" t="n">
         <v>0.2619020938873291</v>
       </c>
+      <c r="Y29" t="n">
+        <v>0.2725217342376709</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -14260,6 +14808,9 @@
       <c r="X30" t="n">
         <v>0.2621250152587891</v>
       </c>
+      <c r="Y30" t="n">
+        <v>0.2727282047271729</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -14334,6 +14885,9 @@
       <c r="X31" t="n">
         <v>0.2623307704925537</v>
       </c>
+      <c r="Y31" t="n">
+        <v>0.2729418277740479</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -14444,6 +14998,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y32" t="n">
+        <v>5421.858630657196</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -14554,6 +15111,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -14664,6 +15226,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -14772,6 +15339,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -14872,6 +15444,9 @@
       <c r="X36" t="n">
         <v>1031.053874254227</v>
       </c>
+      <c r="Y36" t="n">
+        <v>573.5004658699036</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -14978,6 +15553,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -15052,6 +15632,9 @@
       <c r="X38" t="n">
         <v>0.2626578807830811</v>
       </c>
+      <c r="Y38" t="n">
+        <v>0.2732744216918945</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -15126,6 +15709,9 @@
       <c r="X39" t="n">
         <v>0.2628662586212158</v>
       </c>
+      <c r="Y39" t="n">
+        <v>0.2734801769256592</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -15200,6 +15786,9 @@
       <c r="X40" t="n">
         <v>0.2630825042724609</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.2736861705780029</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -15274,6 +15863,9 @@
       <c r="X41" t="n">
         <v>0.2632880210876465</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0.2739026546478271</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -15384,6 +15976,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -15494,6 +16091,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -15602,6 +16204,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -15712,6 +16319,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -15822,6 +16434,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -15932,6 +16549,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -16006,6 +16628,9 @@
       <c r="X48" t="n">
         <v>0.263617992401123</v>
       </c>
+      <c r="Y48" t="n">
+        <v>0.2742378711700439</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -16088,6 +16713,9 @@
       <c r="X49" t="n">
         <v>0.2638249397277832</v>
       </c>
+      <c r="Y49" t="n">
+        <v>0.2744545936584473</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -16162,6 +16790,9 @@
       <c r="X50" t="n">
         <v>0.2640359401702881</v>
       </c>
+      <c r="Y50" t="n">
+        <v>0.2747080326080322</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -16242,6 +16873,9 @@
       <c r="X51" t="n">
         <v>0.26426100730896</v>
       </c>
+      <c r="Y51" t="n">
+        <v>0.2749218940734863</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -16346,6 +16980,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -16454,6 +17093,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -16562,6 +17206,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -16668,6 +17317,11 @@
       <c r="X55" t="n">
         <v>6325.516770839691</v>
       </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -16774,6 +17428,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -16882,6 +17541,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -16956,6 +17620,9 @@
       <c r="X58" t="n">
         <v>0.2645862102508545</v>
       </c>
+      <c r="Y58" t="n">
+        <v>0.2752509117126465</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -17034,6 +17701,9 @@
       <c r="X59" t="n">
         <v>0.2647936344146729</v>
       </c>
+      <c r="Y59" t="n">
+        <v>0.2754569053649902</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -17108,6 +17778,9 @@
       <c r="X60" t="n">
         <v>0.2650067806243896</v>
       </c>
+      <c r="Y60" t="n">
+        <v>0.2756578922271729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -17184,6 +17857,9 @@
       <c r="X61" t="n">
         <v>0.2652132511138916</v>
       </c>
+      <c r="Y61" t="n">
+        <v>0.2758591175079346</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -17286,6 +17962,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -17388,6 +18069,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -17496,6 +18182,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -17596,6 +18287,11 @@
       <c r="X65" t="n">
         <v>6325.517239093781</v>
       </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -17698,6 +18394,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -17800,6 +18501,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -17874,6 +18580,9 @@
       <c r="X68" t="n">
         <v>0.2655401229858398</v>
       </c>
+      <c r="Y68" t="n">
+        <v>0.2762489318847656</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -17948,6 +18657,9 @@
       <c r="X69" t="n">
         <v>0.2657699584960938</v>
       </c>
+      <c r="Y69" t="n">
+        <v>0.2764670848846436</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -18022,6 +18734,9 @@
       <c r="X70" t="n">
         <v>0.2659990787506104</v>
       </c>
+      <c r="Y70" t="n">
+        <v>0.2766716480255127</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -18096,6 +18811,9 @@
       <c r="X71" t="n">
         <v>0.2662084102630615</v>
       </c>
+      <c r="Y71" t="n">
+        <v>0.276932954788208</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -18190,6 +18908,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y72" t="n">
+        <v>4220.187717914581</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -18286,6 +19007,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -18390,6 +19116,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -18488,6 +19219,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -18588,6 +19324,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -18690,6 +19431,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -18764,6 +19510,9 @@
       <c r="X78" t="n">
         <v>0.2665379047393799</v>
       </c>
+      <c r="Y78" t="n">
+        <v>0.2772848606109619</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -18838,6 +19587,9 @@
       <c r="X79" t="n">
         <v>0.26678466796875</v>
       </c>
+      <c r="Y79" t="n">
+        <v>0.2774927616119385</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -18912,6 +19664,9 @@
       <c r="X80" t="n">
         <v>0.2670032978057861</v>
       </c>
+      <c r="Y80" t="n">
+        <v>0.2776985168457031</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -18986,6 +19741,9 @@
       <c r="X81" t="n">
         <v>0.2672119140625</v>
       </c>
+      <c r="Y81" t="n">
+        <v>0.2779355049133301</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -19072,6 +19830,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y82" t="n">
+        <v>4220.188319921494</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -19164,6 +19925,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -19264,6 +20030,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -19360,6 +20131,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -19462,6 +20238,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y86" t="n">
+        <v>482.7471373081207</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -19560,6 +20339,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -19634,6 +20418,9 @@
       <c r="X88" t="n">
         <v>0.2675387859344482</v>
       </c>
+      <c r="Y88" t="n">
+        <v>0.2783095836639404</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -19708,6 +20495,9 @@
       <c r="X89" t="n">
         <v>0.267744779586792</v>
       </c>
+      <c r="Y89" t="n">
+        <v>0.2785215377807617</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -19782,6 +20572,9 @@
       <c r="X90" t="n">
         <v>0.2679481506347656</v>
       </c>
+      <c r="Y90" t="n">
+        <v>0.2787277698516846</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -19856,6 +20649,9 @@
       <c r="X91" t="n">
         <v>0.2681779861450195</v>
       </c>
+      <c r="Y91" t="n">
+        <v>0.2789428234100342</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -19948,6 +20744,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -20048,6 +20849,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -20144,6 +20950,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -20234,6 +21045,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -20334,6 +21150,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y96" t="n">
+        <v>482.7476863861084</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -20432,6 +21251,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -20506,6 +21330,9 @@
       <c r="X98" t="n">
         <v>0.2685093879699707</v>
       </c>
+      <c r="Y98" t="n">
+        <v>0.2793245315551758</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -20580,6 +21407,9 @@
       <c r="X99" t="n">
         <v>0.2687170505523682</v>
       </c>
+      <c r="Y99" t="n">
+        <v>0.2795345783233643</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -20654,6 +21484,9 @@
       <c r="X100" t="n">
         <v>0.2689309120178223</v>
       </c>
+      <c r="Y100" t="n">
+        <v>0.279740571975708</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -20728,6 +21561,9 @@
       <c r="X101" t="n">
         <v>0.2692041397094727</v>
       </c>
+      <c r="Y101" t="n">
+        <v>0.2799584865570068</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -20824,6 +21660,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -20918,6 +21759,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -21010,6 +21856,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y104" t="n">
+        <v>0.2802412509918213</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -21094,6 +21943,11 @@
       <c r="X105" t="n">
         <v>7827.271791934967</v>
       </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -21190,6 +22044,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -21280,6 +22139,11 @@
       <c r="X107" t="n">
         <v>30.43708419799805</v>
       </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -21366,6 +22230,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y108" t="n">
+        <v>198.5163114070892</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -21444,6 +22311,9 @@
       <c r="X109" t="n">
         <v>186.3942582607269</v>
       </c>
+      <c r="Y109" t="n">
+        <v>253.0248155593872</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -21524,6 +22394,9 @@
       <c r="X110" t="n">
         <v>145.0555529594421</v>
       </c>
+      <c r="Y110" t="n">
+        <v>0.2805571556091309</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -21606,6 +22479,9 @@
       <c r="X111" t="n">
         <v>513.6751191616058</v>
       </c>
+      <c r="Y111" t="n">
+        <v>95.96785521507263</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -21690,6 +22566,9 @@
       <c r="X112" t="n">
         <v>10831.27315044403</v>
       </c>
+      <c r="Y112" t="n">
+        <v>7224.180433750153</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -21770,6 +22649,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -21852,6 +22736,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y114" t="n">
+        <v>0.2808279991149902</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -21930,6 +22817,11 @@
       <c r="X115" t="n">
         <v>849.0826246738434</v>
       </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -22012,6 +22904,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -22088,6 +22985,9 @@
       <c r="X117" t="n">
         <v>30.43765592575073</v>
       </c>
+      <c r="Y117" t="n">
+        <v>18.7892484664917</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -22162,6 +23062,9 @@
       <c r="X118" t="n">
         <v>115.309916973114</v>
       </c>
+      <c r="Y118" t="n">
+        <v>198.5169472694397</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -22236,6 +23139,9 @@
       <c r="X119" t="n">
         <v>186.3951060771942</v>
       </c>
+      <c r="Y119" t="n">
+        <v>253.025591135025</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -22312,6 +23218,9 @@
       <c r="X120" t="n">
         <v>145.0561459064484</v>
       </c>
+      <c r="Y120" t="n">
+        <v>0.2811939716339111</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -22386,6 +23295,9 @@
       <c r="X121" t="n">
         <v>513.675549030304</v>
       </c>
+      <c r="Y121" t="n">
+        <v>95.96845507621765</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -22462,6 +23374,9 @@
       <c r="X122" t="n">
         <v>10831.27362895012</v>
       </c>
+      <c r="Y122" t="n">
+        <v>26.80010986328125</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -22536,6 +23451,9 @@
       <c r="X123" t="n">
         <v>0.2698595523834229</v>
       </c>
+      <c r="Y123" t="n">
+        <v>18.7896990776062</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -22610,6 +23528,9 @@
       <c r="X124" t="n">
         <v>0.270087718963623</v>
       </c>
+      <c r="Y124" t="n">
+        <v>0.281486988067627</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -22688,6 +23609,9 @@
       <c r="X125" t="n">
         <v>849.0831797122955</v>
       </c>
+      <c r="Y125" t="n">
+        <v>272.6221694946289</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -22764,6 +23688,9 @@
       <c r="X126" t="n">
         <v>15.459139585495</v>
       </c>
+      <c r="Y126" t="n">
+        <v>0.2817175388336182</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -22838,6 +23765,9 @@
       <c r="X127" t="n">
         <v>225.3064606189728</v>
       </c>
+      <c r="Y127" t="n">
+        <v>18.79001784324646</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -22912,6 +23842,9 @@
       <c r="X128" t="n">
         <v>115.3104064464569</v>
       </c>
+      <c r="Y128" t="n">
+        <v>3018.611888647079</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -22988,6 +23921,9 @@
       <c r="X129" t="n">
         <v>697.7290182113647</v>
       </c>
+      <c r="Y129" t="n">
+        <v>1635.147485017776</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -23062,6 +23998,9 @@
       <c r="X130" t="n">
         <v>1243.108473777771</v>
       </c>
+      <c r="Y130" t="n">
+        <v>0.2819995880126953</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -23136,6 +24075,9 @@
       <c r="X131" t="n">
         <v>27.01185441017151</v>
       </c>
+      <c r="Y131" t="n">
+        <v>1362.158052921295</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -23214,6 +24156,9 @@
       <c r="X132" t="n">
         <v>0.2704393863677979</v>
       </c>
+      <c r="Y132" t="n">
+        <v>26.80078125</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -23290,6 +24235,9 @@
       <c r="X133" t="n">
         <v>0.2706499099731445</v>
       </c>
+      <c r="Y133" t="n">
+        <v>18.79044222831726</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -23368,6 +24316,9 @@
       <c r="X134" t="n">
         <v>0.2708561420440674</v>
       </c>
+      <c r="Y134" t="n">
+        <v>0.2822721004486084</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -23446,6 +24397,9 @@
       <c r="X135" t="n">
         <v>203.6403179168701</v>
       </c>
+      <c r="Y135" t="n">
+        <v>272.6226706504822</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -23524,6 +24478,9 @@
       <c r="X136" t="n">
         <v>15.45958399772644</v>
       </c>
+      <c r="Y136" t="n">
+        <v>0.2825016975402832</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -23602,6 +24559,9 @@
       <c r="X137" t="n">
         <v>225.3070523738861</v>
       </c>
+      <c r="Y137" t="n">
+        <v>3018.612339496613</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -23680,6 +24640,9 @@
       <c r="X138" t="n">
         <v>5123.910646438599</v>
       </c>
+      <c r="Y138" t="n">
+        <v>3018.612622499466</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -23764,6 +24727,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Y139" t="n">
+        <v>211.6107234954834</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -23838,6 +24804,9 @@
       <c r="X140" t="n">
         <v>1243.109000205994</v>
       </c>
+      <c r="Y140" t="n">
+        <v>0.2827730178833008</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -23915,6 +24884,9 @@
       </c>
       <c r="X141" t="n">
         <v>27.01241970062256</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1362.158458709717</v>
       </c>
     </row>
   </sheetData>
@@ -23928,7 +24900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW141"/>
+  <dimension ref="A1:AY141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24182,6 +25154,16 @@
           <t>2023-08-10</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -24349,6 +25331,12 @@
         </is>
       </c>
       <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -24510,6 +25498,12 @@
         </is>
       </c>
       <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -24671,6 +25665,12 @@
         </is>
       </c>
       <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -24832,6 +25832,12 @@
         </is>
       </c>
       <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -24993,6 +25999,12 @@
         </is>
       </c>
       <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -25154,6 +26166,12 @@
         </is>
       </c>
       <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -25353,6 +26371,14 @@
       <c r="AW8" t="n">
         <v>0.2595820426940918</v>
       </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.2699124813079834</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -25552,6 +26578,14 @@
       <c r="AW9" t="n">
         <v>0.2598261833190918</v>
       </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.2701585292816162</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -25751,6 +26785,14 @@
       <c r="AW10" t="n">
         <v>0.260066032409668</v>
       </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.2704739570617676</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -25950,6 +26992,14 @@
       <c r="AW11" t="n">
         <v>0.2603151798248291</v>
       </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.2708227634429932</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -26117,6 +27167,12 @@
         </is>
       </c>
       <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -26278,6 +27334,12 @@
         </is>
       </c>
       <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -26439,6 +27501,12 @@
         </is>
       </c>
       <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -26604,6 +27672,12 @@
         </is>
       </c>
       <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -26765,6 +27839,12 @@
         </is>
       </c>
       <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -26926,6 +28006,12 @@
         </is>
       </c>
       <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -27125,6 +28211,14 @@
       <c r="AW18" t="n">
         <v>0.2606823444366455</v>
       </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.2711892127990723</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -27324,6 +28418,14 @@
       <c r="AW19" t="n">
         <v>0.2608931064605713</v>
       </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.2714090347290039</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -27523,6 +28625,14 @@
       <c r="AW20" t="n">
         <v>0.2611105442047119</v>
       </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.2716693878173828</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -27722,6 +28832,14 @@
       <c r="AW21" t="n">
         <v>0.2613153457641602</v>
       </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.2719383239746094</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -27887,6 +29005,12 @@
         </is>
       </c>
       <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -28052,6 +29176,12 @@
         </is>
       </c>
       <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -28217,6 +29347,12 @@
         </is>
       </c>
       <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -28386,6 +29522,12 @@
         </is>
       </c>
       <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -28559,6 +29701,14 @@
       <c r="AW26" t="n">
         <v>1031.053307533264</v>
       </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY26" t="n">
+        <v>573.4999620914459</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -28724,6 +29874,12 @@
         </is>
       </c>
       <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -28923,6 +30079,14 @@
       <c r="AW28" t="n">
         <v>0.2616438865661621</v>
       </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY28" t="n">
+        <v>0.2723076343536377</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -29122,6 +30286,14 @@
       <c r="AW29" t="n">
         <v>0.2619020938873291</v>
       </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY29" t="n">
+        <v>0.2725217342376709</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -29321,6 +30493,14 @@
       <c r="AW30" t="n">
         <v>0.2621250152587891</v>
       </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.2727282047271729</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -29520,6 +30700,14 @@
       <c r="AW31" t="n">
         <v>0.2623307704925537</v>
       </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY31" t="n">
+        <v>0.2729418277740479</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -29683,6 +30871,14 @@
         </is>
       </c>
       <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY32" t="n">
+        <v>5421.858630657196</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -29846,6 +31042,12 @@
         </is>
       </c>
       <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -30009,6 +31211,12 @@
         </is>
       </c>
       <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -30174,6 +31382,12 @@
         </is>
       </c>
       <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -30347,6 +31561,14 @@
       <c r="AW36" t="n">
         <v>1031.053874254227</v>
       </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY36" t="n">
+        <v>573.5004658699036</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -30514,6 +31736,12 @@
         </is>
       </c>
       <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -30713,6 +31941,14 @@
       <c r="AW38" t="n">
         <v>0.2626578807830811</v>
       </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY38" t="n">
+        <v>0.2732744216918945</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -30912,6 +32148,14 @@
       <c r="AW39" t="n">
         <v>0.2628662586212158</v>
       </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY39" t="n">
+        <v>0.2734801769256592</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -31111,6 +32355,14 @@
       <c r="AW40" t="n">
         <v>0.2630825042724609</v>
       </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY40" t="n">
+        <v>0.2736861705780029</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -31310,6 +32562,14 @@
       <c r="AW41" t="n">
         <v>0.2632880210876465</v>
       </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY41" t="n">
+        <v>0.2739026546478271</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -31473,6 +32733,12 @@
         </is>
       </c>
       <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -31636,6 +32902,12 @@
         </is>
       </c>
       <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -31801,6 +33073,12 @@
         </is>
       </c>
       <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -31964,6 +33242,12 @@
         </is>
       </c>
       <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -32127,6 +33411,12 @@
         </is>
       </c>
       <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -32290,6 +33580,12 @@
         </is>
       </c>
       <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -32489,6 +33785,14 @@
       <c r="AW48" t="n">
         <v>0.263617992401123</v>
       </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY48" t="n">
+        <v>0.2742378711700439</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -32680,6 +33984,14 @@
       <c r="AW49" t="n">
         <v>0.2638249397277832</v>
       </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY49" t="n">
+        <v>0.2744545936584473</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -32879,6 +34191,14 @@
       <c r="AW50" t="n">
         <v>0.2640359401702881</v>
       </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY50" t="n">
+        <v>0.2747080326080322</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -33072,6 +34392,14 @@
       <c r="AW51" t="n">
         <v>0.26426100730896</v>
       </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY51" t="n">
+        <v>0.2749218940734863</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -33241,6 +34569,12 @@
         </is>
       </c>
       <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -33406,6 +34740,12 @@
         </is>
       </c>
       <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -33571,6 +34911,12 @@
         </is>
       </c>
       <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -33738,6 +35084,12 @@
       <c r="AW55" t="n">
         <v>6325.516770839691</v>
       </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -33905,6 +35257,12 @@
         </is>
       </c>
       <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -34070,6 +35428,12 @@
         </is>
       </c>
       <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -34269,6 +35633,14 @@
       <c r="AW58" t="n">
         <v>0.2645862102508545</v>
       </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.2752509117126465</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -34464,6 +35836,14 @@
       <c r="AW59" t="n">
         <v>0.2647936344146729</v>
       </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.2754569053649902</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -34663,6 +36043,14 @@
       <c r="AW60" t="n">
         <v>0.2650067806243896</v>
       </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.2756578922271729</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -34860,6 +36248,14 @@
       <c r="AW61" t="n">
         <v>0.2652132511138916</v>
       </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.2758591175079346</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -35031,6 +36427,12 @@
         </is>
       </c>
       <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -35202,6 +36604,12 @@
         </is>
       </c>
       <c r="AW63" t="inlineStr"/>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -35367,6 +36775,12 @@
         </is>
       </c>
       <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -35540,6 +36954,12 @@
       <c r="AW65" t="n">
         <v>6325.517239093781</v>
       </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -35711,6 +37131,12 @@
         </is>
       </c>
       <c r="AW66" t="inlineStr"/>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -35882,6 +37308,12 @@
         </is>
       </c>
       <c r="AW67" t="inlineStr"/>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -36081,6 +37513,14 @@
       <c r="AW68" t="n">
         <v>0.2655401229858398</v>
       </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY68" t="n">
+        <v>0.2762489318847656</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -36280,6 +37720,14 @@
       <c r="AW69" t="n">
         <v>0.2657699584960938</v>
       </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY69" t="n">
+        <v>0.2764670848846436</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -36479,6 +37927,14 @@
       <c r="AW70" t="n">
         <v>0.2659990787506104</v>
       </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.2766716480255127</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -36678,6 +38134,14 @@
       <c r="AW71" t="n">
         <v>0.2662084102630615</v>
       </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY71" t="n">
+        <v>0.276932954788208</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -36857,6 +38321,14 @@
         </is>
       </c>
       <c r="AW72" t="inlineStr"/>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY72" t="n">
+        <v>4220.187717914581</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -37034,6 +38506,12 @@
         </is>
       </c>
       <c r="AW73" t="inlineStr"/>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -37203,6 +38681,12 @@
         </is>
       </c>
       <c r="AW74" t="inlineStr"/>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -37378,6 +38862,12 @@
         </is>
       </c>
       <c r="AW75" t="inlineStr"/>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -37551,6 +39041,12 @@
         </is>
       </c>
       <c r="AW76" t="inlineStr"/>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -37722,6 +39218,12 @@
         </is>
       </c>
       <c r="AW77" t="inlineStr"/>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -37921,6 +39423,14 @@
       <c r="AW78" t="n">
         <v>0.2665379047393799</v>
       </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY78" t="n">
+        <v>0.2772848606109619</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -38120,6 +39630,14 @@
       <c r="AW79" t="n">
         <v>0.26678466796875</v>
       </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY79" t="n">
+        <v>0.2774927616119385</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -38319,6 +39837,14 @@
       <c r="AW80" t="n">
         <v>0.2670032978057861</v>
       </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY80" t="n">
+        <v>0.2776985168457031</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -38518,6 +40044,14 @@
       <c r="AW81" t="n">
         <v>0.2672119140625</v>
       </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY81" t="n">
+        <v>0.2779355049133301</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -38705,6 +40239,14 @@
         </is>
       </c>
       <c r="AW82" t="inlineStr"/>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY82" t="n">
+        <v>4220.188319921494</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -38886,6 +40428,12 @@
         </is>
       </c>
       <c r="AW83" t="inlineStr"/>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -39059,6 +40607,12 @@
         </is>
       </c>
       <c r="AW84" t="inlineStr"/>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -39236,6 +40790,12 @@
         </is>
       </c>
       <c r="AW85" t="inlineStr"/>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -39407,6 +40967,14 @@
         </is>
       </c>
       <c r="AW86" t="inlineStr"/>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY86" t="n">
+        <v>482.7471373081207</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -39582,6 +41150,12 @@
         </is>
       </c>
       <c r="AW87" t="inlineStr"/>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -39781,6 +41355,14 @@
       <c r="AW88" t="n">
         <v>0.2675387859344482</v>
       </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY88" t="n">
+        <v>0.2783095836639404</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -39980,6 +41562,14 @@
       <c r="AW89" t="n">
         <v>0.267744779586792</v>
       </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY89" t="n">
+        <v>0.2785215377807617</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -40179,6 +41769,14 @@
       <c r="AW90" t="n">
         <v>0.2679481506347656</v>
       </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY90" t="n">
+        <v>0.2787277698516846</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -40378,6 +41976,14 @@
       <c r="AW91" t="n">
         <v>0.2681779861450195</v>
       </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY91" t="n">
+        <v>0.2789428234100342</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -40559,6 +42165,12 @@
         </is>
       </c>
       <c r="AW92" t="inlineStr"/>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -40732,6 +42344,12 @@
         </is>
       </c>
       <c r="AW93" t="inlineStr"/>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -40909,6 +42527,12 @@
         </is>
       </c>
       <c r="AW94" t="inlineStr"/>
+      <c r="AX94" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -41092,6 +42716,12 @@
         </is>
       </c>
       <c r="AW95" t="inlineStr"/>
+      <c r="AX95" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -41265,6 +42895,14 @@
         </is>
       </c>
       <c r="AW96" t="inlineStr"/>
+      <c r="AX96" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY96" t="n">
+        <v>482.7476863861084</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -41440,6 +43078,12 @@
         </is>
       </c>
       <c r="AW97" t="inlineStr"/>
+      <c r="AX97" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -41639,6 +43283,14 @@
       <c r="AW98" t="n">
         <v>0.2685093879699707</v>
       </c>
+      <c r="AX98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY98" t="n">
+        <v>0.2793245315551758</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -41838,6 +43490,14 @@
       <c r="AW99" t="n">
         <v>0.2687170505523682</v>
       </c>
+      <c r="AX99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY99" t="n">
+        <v>0.2795345783233643</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -42037,6 +43697,14 @@
       <c r="AW100" t="n">
         <v>0.2689309120178223</v>
       </c>
+      <c r="AX100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY100" t="n">
+        <v>0.279740571975708</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -42236,6 +43904,14 @@
       <c r="AW101" t="n">
         <v>0.2692041397094727</v>
       </c>
+      <c r="AX101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY101" t="n">
+        <v>0.2799584865570068</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -42413,6 +44089,12 @@
         </is>
       </c>
       <c r="AW102" t="inlineStr"/>
+      <c r="AX102" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -42592,6 +44274,12 @@
         </is>
       </c>
       <c r="AW103" t="inlineStr"/>
+      <c r="AX103" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -42773,6 +44461,14 @@
         </is>
       </c>
       <c r="AW104" t="inlineStr"/>
+      <c r="AX104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY104" t="n">
+        <v>0.2802412509918213</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -42962,6 +44658,12 @@
       <c r="AW105" t="n">
         <v>7827.271791934967</v>
       </c>
+      <c r="AX105" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -43139,6 +44841,12 @@
         </is>
       </c>
       <c r="AW106" t="inlineStr"/>
+      <c r="AX106" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -43322,6 +45030,12 @@
       <c r="AW107" t="n">
         <v>30.43708419799805</v>
       </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -43509,6 +45223,14 @@
         </is>
       </c>
       <c r="AW108" t="inlineStr"/>
+      <c r="AX108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY108" t="n">
+        <v>198.5163114070892</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -43704,6 +45426,14 @@
       <c r="AW109" t="n">
         <v>186.3942582607269</v>
       </c>
+      <c r="AX109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY109" t="n">
+        <v>253.0248155593872</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -43897,6 +45627,14 @@
       <c r="AW110" t="n">
         <v>145.0555529594421</v>
       </c>
+      <c r="AX110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY110" t="n">
+        <v>0.2805571556091309</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -44088,6 +45826,14 @@
       <c r="AW111" t="n">
         <v>513.6751191616058</v>
       </c>
+      <c r="AX111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY111" t="n">
+        <v>95.96785521507263</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -44277,6 +46023,14 @@
       <c r="AW112" t="n">
         <v>10831.27315044403</v>
       </c>
+      <c r="AX112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY112" t="n">
+        <v>7224.180433750153</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -44470,6 +46224,12 @@
         </is>
       </c>
       <c r="AW113" t="inlineStr"/>
+      <c r="AX113" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -44661,6 +46421,14 @@
         </is>
       </c>
       <c r="AW114" t="inlineStr"/>
+      <c r="AX114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY114" t="n">
+        <v>0.2808279991149902</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -44856,6 +46624,12 @@
       <c r="AW115" t="n">
         <v>849.0826246738434</v>
       </c>
+      <c r="AX115" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -45047,6 +46821,12 @@
         </is>
       </c>
       <c r="AW116" t="inlineStr"/>
+      <c r="AX116" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -45244,6 +47024,14 @@
       <c r="AW117" t="n">
         <v>30.43765592575073</v>
       </c>
+      <c r="AX117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY117" t="n">
+        <v>18.7892484664917</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -45443,6 +47231,14 @@
       <c r="AW118" t="n">
         <v>115.309916973114</v>
       </c>
+      <c r="AX118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY118" t="n">
+        <v>198.5169472694397</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -45642,6 +47438,14 @@
       <c r="AW119" t="n">
         <v>186.3951060771942</v>
       </c>
+      <c r="AX119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY119" t="n">
+        <v>253.025591135025</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -45839,6 +47643,14 @@
       <c r="AW120" t="n">
         <v>145.0561459064484</v>
       </c>
+      <c r="AX120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY120" t="n">
+        <v>0.2811939716339111</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -46038,6 +47850,14 @@
       <c r="AW121" t="n">
         <v>513.675549030304</v>
       </c>
+      <c r="AX121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY121" t="n">
+        <v>95.96845507621765</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -46235,6 +48055,14 @@
       <c r="AW122" t="n">
         <v>10831.27362895012</v>
       </c>
+      <c r="AX122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY122" t="n">
+        <v>26.80010986328125</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -46434,6 +48262,14 @@
       <c r="AW123" t="n">
         <v>0.2698595523834229</v>
       </c>
+      <c r="AX123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY123" t="n">
+        <v>18.7896990776062</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -46633,6 +48469,14 @@
       <c r="AW124" t="n">
         <v>0.270087718963623</v>
       </c>
+      <c r="AX124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY124" t="n">
+        <v>0.281486988067627</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -46828,6 +48672,14 @@
       <c r="AW125" t="n">
         <v>849.0831797122955</v>
       </c>
+      <c r="AX125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY125" t="n">
+        <v>272.6221694946289</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -47025,6 +48877,14 @@
       <c r="AW126" t="n">
         <v>15.459139585495</v>
       </c>
+      <c r="AX126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY126" t="n">
+        <v>0.2817175388336182</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -47224,6 +49084,14 @@
       <c r="AW127" t="n">
         <v>225.3064606189728</v>
       </c>
+      <c r="AX127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY127" t="n">
+        <v>18.79001784324646</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -47423,6 +49291,14 @@
       <c r="AW128" t="n">
         <v>115.3104064464569</v>
       </c>
+      <c r="AX128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY128" t="n">
+        <v>3018.611888647079</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -47620,6 +49496,14 @@
       <c r="AW129" t="n">
         <v>697.7290182113647</v>
       </c>
+      <c r="AX129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY129" t="n">
+        <v>1635.147485017776</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -47819,6 +49703,14 @@
       <c r="AW130" t="n">
         <v>1243.108473777771</v>
       </c>
+      <c r="AX130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY130" t="n">
+        <v>0.2819995880126953</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -48018,6 +49910,14 @@
       <c r="AW131" t="n">
         <v>27.01185441017151</v>
       </c>
+      <c r="AX131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY131" t="n">
+        <v>1362.158052921295</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -48213,6 +50113,14 @@
       <c r="AW132" t="n">
         <v>0.2704393863677979</v>
       </c>
+      <c r="AX132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY132" t="n">
+        <v>26.80078125</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -48410,6 +50318,14 @@
       <c r="AW133" t="n">
         <v>0.2706499099731445</v>
       </c>
+      <c r="AX133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY133" t="n">
+        <v>18.79044222831726</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -48605,6 +50521,14 @@
       <c r="AW134" t="n">
         <v>0.2708561420440674</v>
       </c>
+      <c r="AX134" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY134" t="n">
+        <v>0.2822721004486084</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -48800,6 +50724,14 @@
       <c r="AW135" t="n">
         <v>203.6403179168701</v>
       </c>
+      <c r="AX135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY135" t="n">
+        <v>272.6226706504822</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -48995,6 +50927,14 @@
       <c r="AW136" t="n">
         <v>15.45958399772644</v>
       </c>
+      <c r="AX136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY136" t="n">
+        <v>0.2825016975402832</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -49190,6 +51130,14 @@
       <c r="AW137" t="n">
         <v>225.3070523738861</v>
       </c>
+      <c r="AX137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY137" t="n">
+        <v>3018.612339496613</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -49385,6 +51333,14 @@
       <c r="AW138" t="n">
         <v>5123.910646438599</v>
       </c>
+      <c r="AX138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY138" t="n">
+        <v>3018.612622499466</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -49574,6 +51530,14 @@
         </is>
       </c>
       <c r="AW139" t="inlineStr"/>
+      <c r="AX139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY139" t="n">
+        <v>211.6107234954834</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -49773,6 +51737,14 @@
       <c r="AW140" t="n">
         <v>1243.109000205994</v>
       </c>
+      <c r="AX140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY140" t="n">
+        <v>0.2827730178833008</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -49967,6 +51939,14 @@
       </c>
       <c r="AW141" t="n">
         <v>27.01241970062256</v>
+      </c>
+      <c r="AX141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="AY141" t="n">
+        <v>1362.158458709717</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z141"/>
+  <dimension ref="A1:AA141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,11 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -644,7 +649,10 @@
         <v>0.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.15</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.119047619047619</v>
       </c>
     </row>
     <row r="3">
@@ -726,6 +734,9 @@
       <c r="Z3" t="n">
         <v>0.5</v>
       </c>
+      <c r="AA3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -806,6 +817,9 @@
       <c r="Z4" t="n">
         <v>0.5</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -886,6 +900,9 @@
       <c r="Z5" t="n">
         <v>0.5</v>
       </c>
+      <c r="AA5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -964,7 +981,10 @@
         <v>0.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.9476190476190476</v>
       </c>
     </row>
     <row r="7">
@@ -1044,7 +1064,10 @@
         <v>0.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.9476190476190476</v>
       </c>
     </row>
     <row r="8">
@@ -1124,7 +1147,10 @@
         <v>-1</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1204,7 +1230,10 @@
         <v>-1</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.9</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5.733333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -1284,7 +1313,10 @@
         <v>-1</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1364,7 +1396,10 @@
         <v>-1</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5.399999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1444,7 +1479,10 @@
         <v>0.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -1526,6 +1564,9 @@
       <c r="Z13" t="n">
         <v>0.5</v>
       </c>
+      <c r="AA13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1606,6 +1647,9 @@
       <c r="Z14" t="n">
         <v>0.5</v>
       </c>
+      <c r="AA14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1684,7 +1728,10 @@
         <v>0.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.6904761904761905</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1811,10 @@
         <v>0.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.9476190476190476</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1894,10 @@
         <v>0.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.9476190476190476</v>
       </c>
     </row>
     <row r="18">
@@ -1924,7 +1977,10 @@
         <v>-1</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2060,10 @@
         <v>-1</v>
       </c>
       <c r="Z19" t="n">
-        <v>4.9</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>5.733333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2143,10 @@
         <v>-1</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -2164,7 +2226,10 @@
         <v>-1</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5.399999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2244,7 +2309,10 @@
         <v>0.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.7380952380952381</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2392,10 @@
         <v>0.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.7380952380952381</v>
       </c>
     </row>
     <row r="24">
@@ -2404,7 +2475,10 @@
         <v>0.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="25">
@@ -2484,7 +2558,10 @@
         <v>0.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.357142857142857</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2641,10 @@
         <v>4.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.65</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2.042857142857143</v>
       </c>
     </row>
     <row r="27">
@@ -2644,7 +2724,10 @@
         <v>0.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.7</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1.138095238095238</v>
       </c>
     </row>
     <row r="28">
@@ -2724,7 +2807,10 @@
         <v>-1</v>
       </c>
       <c r="Z28" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2890,10 @@
         <v>-1</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.1</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.733333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -2884,7 +2973,10 @@
         <v>-1</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +3056,10 @@
         <v>-1</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.06</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7.533333333333332</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3139,10 @@
         <v>1.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.6904761904761905</v>
       </c>
     </row>
     <row r="33">
@@ -3124,7 +3222,10 @@
         <v>0.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.65</v>
+        <v>1.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.6904761904761905</v>
       </c>
     </row>
     <row r="34">
@@ -3204,7 +3305,10 @@
         <v>0.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.7380952380952381</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3388,10 @@
         <v>0.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.05</v>
+        <v>4.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.214285714285714</v>
       </c>
     </row>
     <row r="36">
@@ -3364,7 +3471,10 @@
         <v>4.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.75</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2.138095238095238</v>
       </c>
     </row>
     <row r="37">
@@ -3444,7 +3554,10 @@
         <v>0.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.85</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1.280952380952381</v>
       </c>
     </row>
     <row r="38">
@@ -3524,7 +3637,10 @@
         <v>-1</v>
       </c>
       <c r="Z38" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3604,7 +3720,10 @@
         <v>-1</v>
       </c>
       <c r="Z39" t="n">
-        <v>6.1</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6.733333333333333</v>
       </c>
     </row>
     <row r="40">
@@ -3684,7 +3803,10 @@
         <v>-1</v>
       </c>
       <c r="Z40" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3764,7 +3886,10 @@
         <v>-1</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.06</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7.533333333333332</v>
       </c>
     </row>
     <row r="42">
@@ -3844,7 +3969,10 @@
         <v>0.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="43">
@@ -3926,6 +4054,9 @@
       <c r="Z43" t="n">
         <v>0.5</v>
       </c>
+      <c r="AA43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4004,7 +4135,10 @@
         <v>0.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="45">
@@ -4086,6 +4220,9 @@
       <c r="Z45" t="n">
         <v>0.5</v>
       </c>
+      <c r="AA45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4164,7 +4301,10 @@
         <v>0.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="47">
@@ -4244,7 +4384,10 @@
         <v>0.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="48">
@@ -4324,7 +4467,10 @@
         <v>-1</v>
       </c>
       <c r="Z48" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -4404,7 +4550,10 @@
         <v>-1</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.7</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>3.066666666666666</v>
       </c>
     </row>
     <row r="50">
@@ -4484,7 +4633,10 @@
         <v>-1</v>
       </c>
       <c r="Z50" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -4564,7 +4716,10 @@
         <v>-1</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.3</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>3.566666666666666</v>
       </c>
     </row>
     <row r="52">
@@ -4644,7 +4799,10 @@
         <v>0.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.9888888888888889</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.9631578947368421</v>
       </c>
     </row>
     <row r="53">
@@ -4724,7 +4882,10 @@
         <v>0.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="54">
@@ -4804,7 +4965,10 @@
         <v>0.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="55">
@@ -4884,7 +5048,10 @@
         <v>0.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="56">
@@ -4964,7 +5131,10 @@
         <v>0.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.7222222222222222</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1.205263157894737</v>
       </c>
     </row>
     <row r="57">
@@ -5044,7 +5214,10 @@
         <v>0.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.994736842105263</v>
       </c>
     </row>
     <row r="58">
@@ -5124,7 +5297,10 @@
         <v>-1</v>
       </c>
       <c r="Z58" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -5204,7 +5380,10 @@
         <v>-1</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.9</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>4.066666666666666</v>
       </c>
     </row>
     <row r="60">
@@ -5284,7 +5463,10 @@
         <v>-1</v>
       </c>
       <c r="Z60" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -5364,7 +5546,10 @@
         <v>-1</v>
       </c>
       <c r="Z61" t="n">
-        <v>3.9</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>4.899999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -5444,7 +5629,10 @@
         <v>0.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.266666666666667</v>
+        <v>5.5</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1.489473684210526</v>
       </c>
     </row>
     <row r="63">
@@ -5524,7 +5712,10 @@
         <v>0.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.111111111111111</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1.394736842105263</v>
       </c>
     </row>
     <row r="64">
@@ -5604,7 +5795,10 @@
         <v>0.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="65">
@@ -5684,7 +5878,10 @@
         <v>0.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.055555555555556</v>
+        <v>7.5</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1.394736842105263</v>
       </c>
     </row>
     <row r="66">
@@ -5764,7 +5961,10 @@
         <v>0.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.222222222222222</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1.678947368421053</v>
       </c>
     </row>
     <row r="67">
@@ -5844,7 +6044,10 @@
         <v>0.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.6666666666666666</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1.152631578947368</v>
       </c>
     </row>
     <row r="68">
@@ -5924,7 +6127,10 @@
         <v>-1</v>
       </c>
       <c r="Z68" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -6004,7 +6210,10 @@
         <v>-1</v>
       </c>
       <c r="Z69" t="n">
-        <v>5.1</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -6084,7 +6293,10 @@
         <v>-1</v>
       </c>
       <c r="Z70" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -6164,7 +6376,10 @@
         <v>-1</v>
       </c>
       <c r="Z71" t="n">
-        <v>6.3</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.899999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -6244,7 +6459,10 @@
         <v>1.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.970588235294118</v>
+        <v>5.5</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>2.166666666666667</v>
       </c>
     </row>
     <row r="73">
@@ -6324,7 +6542,10 @@
         <v>0.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.833333333333333</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>2.078947368421053</v>
       </c>
     </row>
     <row r="74">
@@ -6404,7 +6625,10 @@
         <v>0.5</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.211111111111111</v>
+        <v>3.5</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1.331578947368421</v>
       </c>
     </row>
     <row r="75">
@@ -6484,7 +6708,10 @@
         <v>0.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.166666666666667</v>
+        <v>7.5</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="76">
@@ -6564,7 +6791,10 @@
         <v>0.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.8333333333333334</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>1.310526315789474</v>
       </c>
     </row>
     <row r="77">
@@ -6644,7 +6874,10 @@
         <v>0.5</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.222222222222222</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>1.678947368421053</v>
       </c>
     </row>
     <row r="78">
@@ -6724,7 +6957,10 @@
         <v>-1</v>
       </c>
       <c r="Z78" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -6804,7 +7040,10 @@
         <v>-1</v>
       </c>
       <c r="Z79" t="n">
-        <v>6.1</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>6.733333333333333</v>
       </c>
     </row>
     <row r="80">
@@ -6884,7 +7123,10 @@
         <v>-1</v>
       </c>
       <c r="Z80" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -6964,7 +7206,10 @@
         <v>-1</v>
       </c>
       <c r="Z81" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>7.066666666666666</v>
       </c>
     </row>
     <row r="82">
@@ -7044,7 +7289,10 @@
         <v>1.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>3.555555555555555</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>3.710526315789474</v>
       </c>
     </row>
     <row r="83">
@@ -7124,7 +7372,10 @@
         <v>0.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.666666666666667</v>
+        <v>4.5</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>1.815789473684211</v>
       </c>
     </row>
     <row r="84">
@@ -7204,7 +7455,10 @@
         <v>0.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.433333333333333</v>
+        <v>5.5</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>1.647368421052632</v>
       </c>
     </row>
     <row r="85">
@@ -7284,7 +7538,10 @@
         <v>0.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.333333333333333</v>
+        <v>7.5</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>1.657894736842105</v>
       </c>
     </row>
     <row r="86">
@@ -7364,7 +7621,10 @@
         <v>4.5</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.277777777777778</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>1.731578947368421</v>
       </c>
     </row>
     <row r="87">
@@ -7444,7 +7704,10 @@
         <v>0.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>1.942105263157895</v>
       </c>
     </row>
     <row r="88">
@@ -7524,7 +7787,10 @@
         <v>-1</v>
       </c>
       <c r="Z88" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -7604,7 +7870,10 @@
         <v>-1</v>
       </c>
       <c r="Z89" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>7.066666666666666</v>
       </c>
     </row>
     <row r="90">
@@ -7684,7 +7953,10 @@
         <v>-1</v>
       </c>
       <c r="Z90" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -7764,7 +8036,10 @@
         <v>-1</v>
       </c>
       <c r="Z91" t="n">
-        <v>6.459999999999999</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>7.033333333333332</v>
       </c>
     </row>
     <row r="92">
@@ -7844,7 +8119,10 @@
         <v>0.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>2.055555555555555</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>2.289473684210526</v>
       </c>
     </row>
     <row r="93">
@@ -7924,7 +8202,10 @@
         <v>0.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>1</v>
+        <v>4.5</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>1.184210526315789</v>
       </c>
     </row>
     <row r="94">
@@ -8004,7 +8285,10 @@
         <v>0.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>1.611111111111111</v>
+        <v>5.5</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>1.815789473684211</v>
       </c>
     </row>
     <row r="95">
@@ -8084,7 +8368,10 @@
         <v>0.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>2.055555555555555</v>
+        <v>7.5</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>2.342105263157895</v>
       </c>
     </row>
     <row r="96">
@@ -8164,7 +8451,10 @@
         <v>4.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.333333333333333</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>1.784210526315789</v>
       </c>
     </row>
     <row r="97">
@@ -8244,7 +8534,10 @@
         <v>0.5</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.444444444444444</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>1.889473684210526</v>
       </c>
     </row>
     <row r="98">
@@ -8324,7 +8617,10 @@
         <v>-1</v>
       </c>
       <c r="Z98" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="99">
@@ -8404,7 +8700,10 @@
         <v>-1</v>
       </c>
       <c r="Z99" t="n">
-        <v>7.06</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>7.533333333333332</v>
       </c>
     </row>
     <row r="100">
@@ -8484,7 +8783,10 @@
         <v>-1</v>
       </c>
       <c r="Z100" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -8564,7 +8866,10 @@
         <v>-1</v>
       </c>
       <c r="Z101" t="n">
-        <v>6.659999999999999</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>7.199999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -8644,7 +8949,10 @@
         <v>0.5</v>
       </c>
       <c r="Z102" t="n">
-        <v>2.49</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>2.680952380952381</v>
       </c>
     </row>
     <row r="103">
@@ -8724,7 +9032,10 @@
         <v>0.5</v>
       </c>
       <c r="Z103" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>1.976190476190476</v>
       </c>
     </row>
     <row r="104">
@@ -8804,7 +9115,10 @@
         <v>-1</v>
       </c>
       <c r="Z104" t="n">
-        <v>2.236842105263158</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row r="105">
@@ -8884,7 +9198,10 @@
         <v>0.5</v>
       </c>
       <c r="Z105" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>2.738095238095238</v>
       </c>
     </row>
     <row r="106">
@@ -8964,7 +9281,10 @@
         <v>0.5</v>
       </c>
       <c r="Z106" t="n">
-        <v>2.2</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>2.566666666666666</v>
       </c>
     </row>
     <row r="107">
@@ -9044,7 +9364,10 @@
         <v>0.5</v>
       </c>
       <c r="Z107" t="n">
-        <v>3.24</v>
+        <v>9.9</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.557142857142857</v>
       </c>
     </row>
     <row r="108">
@@ -9124,7 +9447,10 @@
         <v>5.5</v>
       </c>
       <c r="Z108" t="n">
-        <v>4.105</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>4.304761904761905</v>
       </c>
     </row>
     <row r="109">
@@ -9204,7 +9530,10 @@
         <v>5.5</v>
       </c>
       <c r="Z109" t="n">
-        <v>4.569565217391304</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>4.649999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -9284,7 +9613,10 @@
         <v>-1</v>
       </c>
       <c r="Z110" t="n">
-        <v>4.25</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>4.423076923076923</v>
       </c>
     </row>
     <row r="111">
@@ -9364,7 +9696,10 @@
         <v>6.5</v>
       </c>
       <c r="Z111" t="n">
-        <v>5.421739130434783</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>5.541666666666667</v>
       </c>
     </row>
     <row r="112">
@@ -9444,7 +9779,10 @@
         <v>1.5</v>
       </c>
       <c r="Z112" t="n">
-        <v>4.35</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="113">
@@ -9524,7 +9862,10 @@
         <v>0.5</v>
       </c>
       <c r="Z113" t="n">
-        <v>4.389473684210526</v>
+        <v>3.5</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>4.345000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -9604,7 +9945,10 @@
         <v>-1</v>
       </c>
       <c r="Z114" t="n">
-        <v>4.868421052631579</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>5.04</v>
       </c>
     </row>
     <row r="115">
@@ -9684,7 +10028,10 @@
         <v>0.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>4.04</v>
+        <v>7.5</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>4.204761904761905</v>
       </c>
     </row>
     <row r="116">
@@ -9764,7 +10111,10 @@
         <v>0.5</v>
       </c>
       <c r="Z116" t="n">
-        <v>3.9</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>4.023809523809524</v>
       </c>
     </row>
     <row r="117">
@@ -9844,7 +10194,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Z117" t="n">
-        <v>5.944444444444445</v>
+        <v>3.5</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>5.815789473684211</v>
       </c>
     </row>
     <row r="118">
@@ -9924,7 +10277,10 @@
         <v>5.5</v>
       </c>
       <c r="Z118" t="n">
-        <v>6.378947368421053</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>6.475</v>
       </c>
     </row>
     <row r="119">
@@ -10004,7 +10360,10 @@
         <v>5.5</v>
       </c>
       <c r="Z119" t="n">
-        <v>6.009090909090909</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>6.030434782608695</v>
       </c>
     </row>
     <row r="120">
@@ -10084,7 +10443,10 @@
         <v>-1</v>
       </c>
       <c r="Z120" t="n">
-        <v>5.416666666666667</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="121">
@@ -10164,7 +10526,10 @@
         <v>6.5</v>
       </c>
       <c r="Z121" t="n">
-        <v>7.313636363636365</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>7.356521739130437</v>
       </c>
     </row>
     <row r="122">
@@ -10244,7 +10609,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Z122" t="n">
-        <v>6.950000000000001</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>7.014285714285716</v>
       </c>
     </row>
     <row r="123">
@@ -10324,7 +10692,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Z123" t="n">
-        <v>7.394444444444444</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>7.442105263157895</v>
       </c>
     </row>
     <row r="124">
@@ -10404,7 +10775,10 @@
         <v>-1</v>
       </c>
       <c r="Z124" t="n">
-        <v>7.082352941176471</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>7.150000000000001</v>
       </c>
     </row>
     <row r="125">
@@ -10484,7 +10858,10 @@
         <v>5.5</v>
       </c>
       <c r="Z125" t="n">
-        <v>6.029999999999999</v>
+        <v>7.5</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="126">
@@ -10564,7 +10941,10 @@
         <v>-1</v>
       </c>
       <c r="Z126" t="n">
-        <v>6.236842105263158</v>
+        <v>6.5</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="127">
@@ -10644,7 +11024,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Z127" t="n">
-        <v>7.352941176470588</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>7.405555555555556</v>
       </c>
     </row>
     <row r="128">
@@ -10724,7 +11107,10 @@
         <v>2.5</v>
       </c>
       <c r="Z128" t="n">
-        <v>6.422222222222222</v>
+        <v>1.5</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>6.163157894736843</v>
       </c>
     </row>
     <row r="129">
@@ -10804,7 +11190,10 @@
         <v>3.5</v>
       </c>
       <c r="Z129" t="n">
-        <v>6.212500000000001</v>
+        <v>5.5</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>6.184000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -10884,7 +11273,10 @@
         <v>-1</v>
       </c>
       <c r="Z130" t="n">
-        <v>6.774999999999999</v>
+        <v>2.5</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>6.446153846153846</v>
       </c>
     </row>
     <row r="131">
@@ -10964,7 +11356,10 @@
         <v>3.5</v>
       </c>
       <c r="Z131" t="n">
-        <v>7.231818181818183</v>
+        <v>5.5</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>7.156521739130436</v>
       </c>
     </row>
     <row r="132">
@@ -11044,7 +11439,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Z132" t="n">
-        <v>5.910526315789474</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>6.029999999999999</v>
       </c>
     </row>
     <row r="133">
@@ -11124,7 +11522,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Z133" t="n">
-        <v>5.511111111111111</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>5.657894736842105</v>
       </c>
     </row>
     <row r="134">
@@ -11204,7 +11605,10 @@
         <v>-1</v>
       </c>
       <c r="Z134" t="n">
-        <v>4.116666666666666</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>3.926315789473684</v>
       </c>
     </row>
     <row r="135">
@@ -11284,7 +11688,10 @@
         <v>5.5</v>
       </c>
       <c r="Z135" t="n">
-        <v>5.899999999999999</v>
+        <v>0.5</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>5.63</v>
       </c>
     </row>
     <row r="136">
@@ -11364,7 +11771,10 @@
         <v>-1</v>
       </c>
       <c r="Z136" t="n">
-        <v>5.666666666666667</v>
+        <v>7.5</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>5.763157894736842</v>
       </c>
     </row>
     <row r="137">
@@ -11444,7 +11854,10 @@
         <v>2.5</v>
       </c>
       <c r="Z137" t="n">
-        <v>5.2</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>5.355</v>
       </c>
     </row>
     <row r="138">
@@ -11524,7 +11937,10 @@
         <v>2.5</v>
       </c>
       <c r="Z138" t="n">
-        <v>4.921052631578948</v>
+        <v>1.5</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="139">
@@ -11604,7 +12020,10 @@
         <v>5.5</v>
       </c>
       <c r="Z139" t="n">
-        <v>4.869565217391305</v>
+        <v>1.5</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>4.729166666666667</v>
       </c>
     </row>
     <row r="140">
@@ -11684,7 +12103,10 @@
         <v>-1</v>
       </c>
       <c r="Z140" t="n">
-        <v>6.091666666666666</v>
+        <v>2.5</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>5.815384615384615</v>
       </c>
     </row>
     <row r="141">
@@ -11764,7 +12186,10 @@
         <v>3.5</v>
       </c>
       <c r="Z141" t="n">
-        <v>5.543478260869565</v>
+        <v>5.5</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>5.541666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -11778,7 +12203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y141"/>
+  <dimension ref="A1:Z141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11912,6 +12337,11 @@
           <t>2023-08-11</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12023,6 +12453,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -12140,6 +12575,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -12257,6 +12697,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -12374,6 +12819,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -12491,6 +12941,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z6" t="n">
+        <v>1.364821672439575</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -12608,6 +13061,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z7" t="n">
+        <v>1.365082263946533</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -12685,6 +13141,9 @@
       <c r="Y8" t="n">
         <v>0.2699124813079834</v>
       </c>
+      <c r="Z8" t="n">
+        <v>1.365313768386841</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -12762,6 +13221,9 @@
       <c r="Y9" t="n">
         <v>0.2701585292816162</v>
       </c>
+      <c r="Z9" t="n">
+        <v>1.36553692817688</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -12839,6 +13301,9 @@
       <c r="Y10" t="n">
         <v>0.2704739570617676</v>
       </c>
+      <c r="Z10" t="n">
+        <v>1.365757465362549</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -12916,6 +13381,9 @@
       <c r="Y11" t="n">
         <v>0.2708227634429932</v>
       </c>
+      <c r="Z11" t="n">
+        <v>1.365986824035645</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -13027,6 +13495,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z12" t="n">
+        <v>6629.882129669189</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -13144,6 +13615,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -13261,6 +13737,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -13374,6 +13855,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -13491,6 +13977,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z16" t="n">
+        <v>1.366309642791748</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -13608,6 +14097,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z17" t="n">
+        <v>1.366554021835327</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -13685,6 +14177,9 @@
       <c r="Y18" t="n">
         <v>0.2711892127990723</v>
       </c>
+      <c r="Z18" t="n">
+        <v>1.366790771484375</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -13762,6 +14257,9 @@
       <c r="Y19" t="n">
         <v>0.2714090347290039</v>
       </c>
+      <c r="Z19" t="n">
+        <v>1.367022514343262</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -13839,6 +14337,9 @@
       <c r="Y20" t="n">
         <v>0.2716693878173828</v>
       </c>
+      <c r="Z20" t="n">
+        <v>1.367242813110352</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -13916,6 +14417,9 @@
       <c r="Y21" t="n">
         <v>0.2719383239746094</v>
       </c>
+      <c r="Z21" t="n">
+        <v>1.367549419403076</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -14029,6 +14533,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z22" t="n">
+        <v>6629.882705450058</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -14142,6 +14649,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -14255,6 +14767,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -14364,6 +14881,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z25" t="n">
+        <v>361.6628494262695</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -14467,6 +14987,9 @@
       <c r="Y26" t="n">
         <v>573.4999620914459</v>
       </c>
+      <c r="Z26" t="n">
+        <v>1.367879390716553</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -14580,6 +15103,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z27" t="n">
+        <v>1.368119955062866</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -14657,6 +15183,9 @@
       <c r="Y28" t="n">
         <v>0.2723076343536377</v>
       </c>
+      <c r="Z28" t="n">
+        <v>1.368373870849609</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -14734,6 +15263,9 @@
       <c r="Y29" t="n">
         <v>0.2725217342376709</v>
       </c>
+      <c r="Z29" t="n">
+        <v>1.368657827377319</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -14811,6 +15343,9 @@
       <c r="Y30" t="n">
         <v>0.2727282047271729</v>
       </c>
+      <c r="Z30" t="n">
+        <v>1.36888575553894</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -14888,6 +15423,9 @@
       <c r="Y31" t="n">
         <v>0.2729418277740479</v>
       </c>
+      <c r="Z31" t="n">
+        <v>1.369118452072144</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -15001,6 +15539,11 @@
       <c r="Y32" t="n">
         <v>5421.858630657196</v>
       </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -15116,6 +15659,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z33" t="n">
+        <v>7231.02760386467</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -15231,6 +15777,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -15344,6 +15895,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z35" t="n">
+        <v>361.6633343696594</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -15447,6 +16001,9 @@
       <c r="Y36" t="n">
         <v>573.5004658699036</v>
       </c>
+      <c r="Z36" t="n">
+        <v>1.36947226524353</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -15558,6 +16115,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z37" t="n">
+        <v>1.369710922241211</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -15635,6 +16195,9 @@
       <c r="Y38" t="n">
         <v>0.2732744216918945</v>
       </c>
+      <c r="Z38" t="n">
+        <v>1.369942188262939</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -15712,6 +16275,9 @@
       <c r="Y39" t="n">
         <v>0.2734801769256592</v>
       </c>
+      <c r="Z39" t="n">
+        <v>1.370190858840942</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -15789,6 +16355,9 @@
       <c r="Y40" t="n">
         <v>0.2736861705780029</v>
       </c>
+      <c r="Z40" t="n">
+        <v>1.370455503463745</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -15866,6 +16435,9 @@
       <c r="Y41" t="n">
         <v>0.2739026546478271</v>
       </c>
+      <c r="Z41" t="n">
+        <v>1.370805740356445</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -15981,6 +16553,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z42" t="n">
+        <v>100.4113233089447</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -16096,6 +16671,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -16209,6 +16789,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -16324,6 +16909,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -16439,6 +17029,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z46" t="n">
+        <v>1.371162414550781</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -16554,6 +17147,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z47" t="n">
+        <v>1.371392726898193</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -16631,6 +17227,9 @@
       <c r="Y48" t="n">
         <v>0.2742378711700439</v>
       </c>
+      <c r="Z48" t="n">
+        <v>1.371618509292603</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -16716,6 +17315,9 @@
       <c r="Y49" t="n">
         <v>0.2744545936584473</v>
       </c>
+      <c r="Z49" t="n">
+        <v>1.371843814849854</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -16793,6 +17395,9 @@
       <c r="Y50" t="n">
         <v>0.2747080326080322</v>
       </c>
+      <c r="Z50" t="n">
+        <v>1.372077941894531</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -16876,6 +17481,9 @@
       <c r="Y51" t="n">
         <v>0.2749218940734863</v>
       </c>
+      <c r="Z51" t="n">
+        <v>1.372332334518433</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -16985,6 +17593,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -17098,6 +17711,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z53" t="n">
+        <v>7231.028228759766</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -17211,6 +17827,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z54" t="n">
+        <v>62.3245964050293</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -17322,6 +17941,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -17433,6 +18057,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z56" t="n">
+        <v>1.372727870941162</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -17546,6 +18173,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z57" t="n">
+        <v>1.372986555099487</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -17623,6 +18253,9 @@
       <c r="Y58" t="n">
         <v>0.2752509117126465</v>
       </c>
+      <c r="Z58" t="n">
+        <v>1.37321662902832</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -17704,6 +18337,9 @@
       <c r="Y59" t="n">
         <v>0.2754569053649902</v>
       </c>
+      <c r="Z59" t="n">
+        <v>1.373439788818359</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -17781,6 +18417,9 @@
       <c r="Y60" t="n">
         <v>0.2756578922271729</v>
       </c>
+      <c r="Z60" t="n">
+        <v>1.37369704246521</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -17860,6 +18499,9 @@
       <c r="Y61" t="n">
         <v>0.2758591175079346</v>
       </c>
+      <c r="Z61" t="n">
+        <v>1.373922348022461</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -17967,6 +18609,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z62" t="n">
+        <v>192.8334245681763</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -18074,6 +18719,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z63" t="n">
+        <v>80.74509859085083</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -18187,6 +18835,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z64" t="n">
+        <v>62.32509541511536</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -18292,6 +18943,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z65" t="n">
+        <v>54.3575382232666</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -18399,6 +19053,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z66" t="n">
+        <v>1.37424898147583</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -18506,6 +19163,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z67" t="n">
+        <v>1.37447190284729</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -18583,6 +19243,9 @@
       <c r="Y68" t="n">
         <v>0.2762489318847656</v>
       </c>
+      <c r="Z68" t="n">
+        <v>1.374692916870117</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -18660,6 +19323,9 @@
       <c r="Y69" t="n">
         <v>0.2764670848846436</v>
       </c>
+      <c r="Z69" t="n">
+        <v>1.374911308288574</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -18737,6 +19403,9 @@
       <c r="Y70" t="n">
         <v>0.2766716480255127</v>
       </c>
+      <c r="Z70" t="n">
+        <v>1.375142335891724</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -18814,6 +19483,9 @@
       <c r="Y71" t="n">
         <v>0.276932954788208</v>
       </c>
+      <c r="Z71" t="n">
+        <v>1.375358104705811</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -18911,6 +19583,9 @@
       <c r="Y72" t="n">
         <v>4220.187717914581</v>
       </c>
+      <c r="Z72" t="n">
+        <v>192.8338243961334</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -19012,6 +19687,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z73" t="n">
+        <v>80.74548721313477</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -19121,6 +19799,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z74" t="n">
+        <v>937.1112661361694</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -19224,6 +19905,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z75" t="n">
+        <v>54.35806035995483</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -19329,6 +20013,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z76" t="n">
+        <v>1.375672101974487</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -19436,6 +20123,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z77" t="n">
+        <v>1.375894546508789</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -19513,6 +20203,9 @@
       <c r="Y78" t="n">
         <v>0.2772848606109619</v>
       </c>
+      <c r="Z78" t="n">
+        <v>1.376125812530518</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -19590,6 +20283,9 @@
       <c r="Y79" t="n">
         <v>0.2774927616119385</v>
       </c>
+      <c r="Z79" t="n">
+        <v>1.376377820968628</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -19667,6 +20363,9 @@
       <c r="Y80" t="n">
         <v>0.2776985168457031</v>
       </c>
+      <c r="Z80" t="n">
+        <v>1.376600027084351</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -19744,6 +20443,9 @@
       <c r="Y81" t="n">
         <v>0.2779355049133301</v>
       </c>
+      <c r="Z81" t="n">
+        <v>1.37682056427002</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -19833,6 +20535,9 @@
       <c r="Y82" t="n">
         <v>4220.188319921494</v>
       </c>
+      <c r="Z82" t="n">
+        <v>66.90325975418091</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -19930,6 +20635,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z83" t="n">
+        <v>391.9646635055542</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -20035,6 +20743,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z84" t="n">
+        <v>261.8697075843811</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -20136,6 +20847,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z85" t="n">
+        <v>48.44235372543335</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -20241,6 +20955,9 @@
       <c r="Y86" t="n">
         <v>482.7471373081207</v>
       </c>
+      <c r="Z86" t="n">
+        <v>1.377148389816284</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -20344,6 +21061,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z87" t="n">
+        <v>1.37737250328064</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -20421,6 +21141,9 @@
       <c r="Y88" t="n">
         <v>0.2783095836639404</v>
       </c>
+      <c r="Z88" t="n">
+        <v>1.377598285675049</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -20498,6 +21221,9 @@
       <c r="Y89" t="n">
         <v>0.2785215377807617</v>
       </c>
+      <c r="Z89" t="n">
+        <v>1.377877235412598</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -20575,6 +21301,9 @@
       <c r="Y90" t="n">
         <v>0.2787277698516846</v>
       </c>
+      <c r="Z90" t="n">
+        <v>1.378115653991699</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -20652,6 +21381,9 @@
       <c r="Y91" t="n">
         <v>0.2789428234100342</v>
       </c>
+      <c r="Z91" t="n">
+        <v>1.378339529037476</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -20749,6 +21481,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z92" t="n">
+        <v>66.90366888046265</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -20854,6 +21589,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z93" t="n">
+        <v>391.9650771617889</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -20955,6 +21693,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z94" t="n">
+        <v>281.6651742458344</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -21050,6 +21791,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z95" t="n">
+        <v>48.44297981262207</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -21153,6 +21897,9 @@
       <c r="Y96" t="n">
         <v>482.7476863861084</v>
       </c>
+      <c r="Z96" t="n">
+        <v>1.378737926483154</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -21256,6 +22003,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z97" t="n">
+        <v>1.37899374961853</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -21333,6 +22083,9 @@
       <c r="Y98" t="n">
         <v>0.2793245315551758</v>
       </c>
+      <c r="Z98" t="n">
+        <v>1.379220485687256</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -21410,6 +22163,9 @@
       <c r="Y99" t="n">
         <v>0.2795345783233643</v>
       </c>
+      <c r="Z99" t="n">
+        <v>1.379442691802979</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -21487,6 +22243,9 @@
       <c r="Y100" t="n">
         <v>0.279740571975708</v>
       </c>
+      <c r="Z100" t="n">
+        <v>1.379663944244385</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -21564,6 +22323,9 @@
       <c r="Y101" t="n">
         <v>0.2799584865570068</v>
       </c>
+      <c r="Z101" t="n">
+        <v>1.37988805770874</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -21665,6 +22427,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z102" t="n">
+        <v>100.4124481678009</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -21764,6 +22529,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z103" t="n">
+        <v>1301.126920700073</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -21859,6 +22627,9 @@
       <c r="Y104" t="n">
         <v>0.2802412509918213</v>
       </c>
+      <c r="Z104" t="n">
+        <v>1.380195140838623</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -21948,6 +22719,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z105" t="n">
+        <v>1635.342522621155</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -22049,6 +22823,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z106" t="n">
+        <v>1.380452156066895</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -22144,6 +22921,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z107" t="n">
+        <v>1.380736351013184</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -22233,6 +23013,9 @@
       <c r="Y108" t="n">
         <v>198.5163114070892</v>
       </c>
+      <c r="Z108" t="n">
+        <v>26.23248481750488</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -22314,6 +23097,9 @@
       <c r="Y109" t="n">
         <v>253.0248155593872</v>
       </c>
+      <c r="Z109" t="n">
+        <v>65.76677846908569</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -22397,6 +23183,9 @@
       <c r="Y110" t="n">
         <v>0.2805571556091309</v>
       </c>
+      <c r="Z110" t="n">
+        <v>113.0173676013947</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -22482,6 +23271,9 @@
       <c r="Y111" t="n">
         <v>95.96785521507263</v>
       </c>
+      <c r="Z111" t="n">
+        <v>16.91527056694031</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -22569,6 +23361,11 @@
       <c r="Y112" t="n">
         <v>7224.180433750153</v>
       </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -22654,6 +23451,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z113" t="n">
+        <v>1301.127336502075</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -22739,6 +23539,9 @@
       <c r="Y114" t="n">
         <v>0.2808279991149902</v>
       </c>
+      <c r="Z114" t="n">
+        <v>18.06602716445923</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -22822,6 +23625,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z115" t="n">
+        <v>42.62005090713501</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -22909,6 +23715,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="Z116" t="n">
+        <v>89.98352289199829</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -22988,6 +23797,9 @@
       <c r="Y117" t="n">
         <v>18.7892484664917</v>
       </c>
+      <c r="Z117" t="n">
+        <v>1635.343140602112</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -23065,6 +23877,9 @@
       <c r="Y118" t="n">
         <v>198.5169472694397</v>
       </c>
+      <c r="Z118" t="n">
+        <v>26.23319840431213</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -23142,6 +23957,9 @@
       <c r="Y119" t="n">
         <v>253.025591135025</v>
       </c>
+      <c r="Z119" t="n">
+        <v>65.76726222038269</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -23221,6 +24039,9 @@
       <c r="Y120" t="n">
         <v>0.2811939716339111</v>
       </c>
+      <c r="Z120" t="n">
+        <v>113.0179438591003</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -23298,6 +24119,9 @@
       <c r="Y121" t="n">
         <v>95.96845507621765</v>
       </c>
+      <c r="Z121" t="n">
+        <v>16.91582679748535</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -23377,6 +24201,9 @@
       <c r="Y122" t="n">
         <v>26.80010986328125</v>
       </c>
+      <c r="Z122" t="n">
+        <v>18.06651306152344</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -23454,6 +24281,9 @@
       <c r="Y123" t="n">
         <v>18.7896990776062</v>
       </c>
+      <c r="Z123" t="n">
+        <v>18.06680154800415</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -23531,6 +24361,9 @@
       <c r="Y124" t="n">
         <v>0.281486988067627</v>
       </c>
+      <c r="Z124" t="n">
+        <v>18.0670702457428</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -23612,6 +24445,9 @@
       <c r="Y125" t="n">
         <v>272.6221694946289</v>
       </c>
+      <c r="Z125" t="n">
+        <v>42.62059783935547</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -23691,6 +24527,9 @@
       <c r="Y126" t="n">
         <v>0.2817175388336182</v>
       </c>
+      <c r="Z126" t="n">
+        <v>66.9044942855835</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -23768,6 +24607,9 @@
       <c r="Y127" t="n">
         <v>18.79001784324646</v>
       </c>
+      <c r="Z127" t="n">
+        <v>23.95456314086914</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -23845,6 +24687,9 @@
       <c r="Y128" t="n">
         <v>3018.611888647079</v>
       </c>
+      <c r="Z128" t="n">
+        <v>6629.884414196014</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -23924,6 +24769,9 @@
       <c r="Y129" t="n">
         <v>1635.147485017776</v>
       </c>
+      <c r="Z129" t="n">
+        <v>292.4498031139374</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -24001,6 +24849,9 @@
       <c r="Y130" t="n">
         <v>0.2819995880126953</v>
       </c>
+      <c r="Z130" t="n">
+        <v>2724.467728853226</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -24078,6 +24929,9 @@
       <c r="Y131" t="n">
         <v>1362.158052921295</v>
       </c>
+      <c r="Z131" t="n">
+        <v>144.7551941871643</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -24159,6 +25013,9 @@
       <c r="Y132" t="n">
         <v>26.80078125</v>
       </c>
+      <c r="Z132" t="n">
+        <v>18.06747961044312</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -24238,6 +25095,9 @@
       <c r="Y133" t="n">
         <v>18.79044222831726</v>
       </c>
+      <c r="Z133" t="n">
+        <v>18.06773829460144</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -24319,6 +25179,11 @@
       <c r="Y134" t="n">
         <v>0.2822721004486084</v>
       </c>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -24400,6 +25265,11 @@
       <c r="Y135" t="n">
         <v>272.6226706504822</v>
       </c>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -24481,6 +25351,9 @@
       <c r="Y136" t="n">
         <v>0.2825016975402832</v>
       </c>
+      <c r="Z136" t="n">
+        <v>39.21018958091736</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -24562,6 +25435,9 @@
       <c r="Y137" t="n">
         <v>3018.612339496613</v>
       </c>
+      <c r="Z137" t="n">
+        <v>23.95519804954529</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -24643,6 +25519,9 @@
       <c r="Y138" t="n">
         <v>3018.612622499466</v>
       </c>
+      <c r="Z138" t="n">
+        <v>6629.884876489639</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -24730,6 +25609,9 @@
       <c r="Y139" t="n">
         <v>211.6107234954834</v>
       </c>
+      <c r="Z139" t="n">
+        <v>7531.465682268143</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -24807,6 +25689,9 @@
       <c r="Y140" t="n">
         <v>0.2827730178833008</v>
       </c>
+      <c r="Z140" t="n">
+        <v>2724.468281030655</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -24887,6 +25772,9 @@
       </c>
       <c r="Y141" t="n">
         <v>1362.158458709717</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>144.7556843757629</v>
       </c>
     </row>
   </sheetData>
@@ -24900,7 +25788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY141"/>
+  <dimension ref="A1:BA141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25164,6 +26052,16 @@
           <t>2023-08-11</t>
         </is>
       </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -25337,6 +26235,12 @@
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -25504,6 +26408,12 @@
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -25671,6 +26581,12 @@
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -25838,6 +26754,12 @@
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -26005,6 +26927,14 @@
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA6" t="n">
+        <v>1.364821672439575</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -26172,6 +27102,14 @@
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.365082263946533</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -26379,6 +27317,14 @@
       <c r="AY8" t="n">
         <v>0.2699124813079834</v>
       </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA8" t="n">
+        <v>1.365313768386841</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -26586,6 +27532,14 @@
       <c r="AY9" t="n">
         <v>0.2701585292816162</v>
       </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA9" t="n">
+        <v>1.36553692817688</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -26793,6 +27747,14 @@
       <c r="AY10" t="n">
         <v>0.2704739570617676</v>
       </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA10" t="n">
+        <v>1.365757465362549</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -27000,6 +27962,14 @@
       <c r="AY11" t="n">
         <v>0.2708227634429932</v>
       </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA11" t="n">
+        <v>1.365986824035645</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -27173,6 +28143,14 @@
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA12" t="n">
+        <v>6629.882129669189</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -27340,6 +28318,12 @@
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -27507,6 +28491,12 @@
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -27678,6 +28668,12 @@
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -27845,6 +28841,14 @@
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.366309642791748</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -28012,6 +29016,14 @@
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA17" t="n">
+        <v>1.366554021835327</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -28219,6 +29231,14 @@
       <c r="AY18" t="n">
         <v>0.2711892127990723</v>
       </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.366790771484375</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -28426,6 +29446,14 @@
       <c r="AY19" t="n">
         <v>0.2714090347290039</v>
       </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.367022514343262</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -28633,6 +29661,14 @@
       <c r="AY20" t="n">
         <v>0.2716693878173828</v>
       </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.367242813110352</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -28840,6 +29876,14 @@
       <c r="AY21" t="n">
         <v>0.2719383239746094</v>
       </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA21" t="n">
+        <v>1.367549419403076</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -29011,6 +30055,14 @@
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA22" t="n">
+        <v>6629.882705450058</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -29182,6 +30234,12 @@
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -29353,6 +30411,12 @@
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -29528,6 +30592,14 @@
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA25" t="n">
+        <v>361.6628494262695</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -29709,6 +30781,14 @@
       <c r="AY26" t="n">
         <v>573.4999620914459</v>
       </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.367879390716553</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -29880,6 +30960,14 @@
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.368119955062866</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -30087,6 +31175,14 @@
       <c r="AY28" t="n">
         <v>0.2723076343536377</v>
       </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.368373870849609</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -30294,6 +31390,14 @@
       <c r="AY29" t="n">
         <v>0.2725217342376709</v>
       </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.368657827377319</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -30501,6 +31605,14 @@
       <c r="AY30" t="n">
         <v>0.2727282047271729</v>
       </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.36888575553894</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -30708,6 +31820,14 @@
       <c r="AY31" t="n">
         <v>0.2729418277740479</v>
       </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.369118452072144</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -30879,6 +31999,12 @@
       <c r="AY32" t="n">
         <v>5421.858630657196</v>
       </c>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -31048,6 +32174,14 @@
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA33" t="n">
+        <v>7231.02760386467</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -31217,6 +32351,12 @@
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -31388,6 +32528,14 @@
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA35" t="n">
+        <v>361.6633343696594</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -31569,6 +32717,14 @@
       <c r="AY36" t="n">
         <v>573.5004658699036</v>
       </c>
+      <c r="AZ36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.36947226524353</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -31742,6 +32898,14 @@
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.369710922241211</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -31949,6 +33113,14 @@
       <c r="AY38" t="n">
         <v>0.2732744216918945</v>
       </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.369942188262939</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -32156,6 +33328,14 @@
       <c r="AY39" t="n">
         <v>0.2734801769256592</v>
       </c>
+      <c r="AZ39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.370190858840942</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -32363,6 +33543,14 @@
       <c r="AY40" t="n">
         <v>0.2736861705780029</v>
       </c>
+      <c r="AZ40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.370455503463745</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -32570,6 +33758,14 @@
       <c r="AY41" t="n">
         <v>0.2739026546478271</v>
       </c>
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.370805740356445</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -32739,6 +33935,14 @@
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA42" t="n">
+        <v>100.4113233089447</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -32908,6 +34112,12 @@
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -33079,6 +34289,12 @@
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
+      <c r="AZ44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -33248,6 +34464,12 @@
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
+      <c r="AZ45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -33417,6 +34639,14 @@
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.371162414550781</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -33586,6 +34816,14 @@
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
+      <c r="AZ47" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.371392726898193</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -33793,6 +35031,14 @@
       <c r="AY48" t="n">
         <v>0.2742378711700439</v>
       </c>
+      <c r="AZ48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.371618509292603</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -33992,6 +35238,14 @@
       <c r="AY49" t="n">
         <v>0.2744545936584473</v>
       </c>
+      <c r="AZ49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.371843814849854</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -34199,6 +35453,14 @@
       <c r="AY50" t="n">
         <v>0.2747080326080322</v>
       </c>
+      <c r="AZ50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.372077941894531</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -34400,6 +35662,14 @@
       <c r="AY51" t="n">
         <v>0.2749218940734863</v>
       </c>
+      <c r="AZ51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.372332334518433</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -34575,6 +35845,12 @@
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
+      <c r="AZ52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -34746,6 +36022,14 @@
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
+      <c r="AZ53" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA53" t="n">
+        <v>7231.028228759766</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -34917,6 +36201,14 @@
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
+      <c r="AZ54" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA54" t="n">
+        <v>62.3245964050293</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -35090,6 +36382,12 @@
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
+      <c r="AZ55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -35263,6 +36561,14 @@
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
+      <c r="AZ56" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.372727870941162</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -35434,6 +36740,14 @@
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
+      <c r="AZ57" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.372986555099487</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -35641,6 +36955,14 @@
       <c r="AY58" t="n">
         <v>0.2752509117126465</v>
       </c>
+      <c r="AZ58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.37321662902832</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -35844,6 +37166,14 @@
       <c r="AY59" t="n">
         <v>0.2754569053649902</v>
       </c>
+      <c r="AZ59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.373439788818359</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -36051,6 +37381,14 @@
       <c r="AY60" t="n">
         <v>0.2756578922271729</v>
       </c>
+      <c r="AZ60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.37369704246521</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -36256,6 +37594,14 @@
       <c r="AY61" t="n">
         <v>0.2758591175079346</v>
       </c>
+      <c r="AZ61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.373922348022461</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -36433,6 +37779,14 @@
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
+      <c r="AZ62" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA62" t="n">
+        <v>192.8334245681763</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -36610,6 +37964,14 @@
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
+      <c r="AZ63" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA63" t="n">
+        <v>80.74509859085083</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -36781,6 +38143,14 @@
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
+      <c r="AZ64" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA64" t="n">
+        <v>62.32509541511536</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -36960,6 +38330,14 @@
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
+      <c r="AZ65" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA65" t="n">
+        <v>54.3575382232666</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -37137,6 +38515,14 @@
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
+      <c r="AZ66" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.37424898147583</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -37314,6 +38700,14 @@
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
+      <c r="AZ67" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.37447190284729</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -37521,6 +38915,14 @@
       <c r="AY68" t="n">
         <v>0.2762489318847656</v>
       </c>
+      <c r="AZ68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.374692916870117</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -37728,6 +39130,14 @@
       <c r="AY69" t="n">
         <v>0.2764670848846436</v>
       </c>
+      <c r="AZ69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.374911308288574</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -37935,6 +39345,14 @@
       <c r="AY70" t="n">
         <v>0.2766716480255127</v>
       </c>
+      <c r="AZ70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.375142335891724</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -38142,6 +39560,14 @@
       <c r="AY71" t="n">
         <v>0.276932954788208</v>
       </c>
+      <c r="AZ71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.375358104705811</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -38329,6 +39755,14 @@
       <c r="AY72" t="n">
         <v>4220.187717914581</v>
       </c>
+      <c r="AZ72" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA72" t="n">
+        <v>192.8338243961334</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -38512,6 +39946,14 @@
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
+      <c r="AZ73" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA73" t="n">
+        <v>80.74548721313477</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -38687,6 +40129,14 @@
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
+      <c r="AZ74" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA74" t="n">
+        <v>937.1112661361694</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -38868,6 +40318,14 @@
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
+      <c r="AZ75" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA75" t="n">
+        <v>54.35806035995483</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -39047,6 +40505,14 @@
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
+      <c r="AZ76" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.375672101974487</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -39224,6 +40690,14 @@
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
+      <c r="AZ77" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.375894546508789</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -39431,6 +40905,14 @@
       <c r="AY78" t="n">
         <v>0.2772848606109619</v>
       </c>
+      <c r="AZ78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.376125812530518</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -39638,6 +41120,14 @@
       <c r="AY79" t="n">
         <v>0.2774927616119385</v>
       </c>
+      <c r="AZ79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.376377820968628</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -39845,6 +41335,14 @@
       <c r="AY80" t="n">
         <v>0.2776985168457031</v>
       </c>
+      <c r="AZ80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.376600027084351</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -40052,6 +41550,14 @@
       <c r="AY81" t="n">
         <v>0.2779355049133301</v>
       </c>
+      <c r="AZ81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.37682056427002</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -40247,6 +41753,14 @@
       <c r="AY82" t="n">
         <v>4220.188319921494</v>
       </c>
+      <c r="AZ82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA82" t="n">
+        <v>66.90325975418091</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -40434,6 +41948,14 @@
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
+      <c r="AZ83" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA83" t="n">
+        <v>391.9646635055542</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -40613,6 +42135,14 @@
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
+      <c r="AZ84" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA84" t="n">
+        <v>261.8697075843811</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -40796,6 +42326,14 @@
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
+      <c r="AZ85" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA85" t="n">
+        <v>48.44235372543335</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -40975,6 +42513,14 @@
       <c r="AY86" t="n">
         <v>482.7471373081207</v>
       </c>
+      <c r="AZ86" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.377148389816284</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -41156,6 +42702,14 @@
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
+      <c r="AZ87" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.37737250328064</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -41363,6 +42917,14 @@
       <c r="AY88" t="n">
         <v>0.2783095836639404</v>
       </c>
+      <c r="AZ88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.377598285675049</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -41570,6 +43132,14 @@
       <c r="AY89" t="n">
         <v>0.2785215377807617</v>
       </c>
+      <c r="AZ89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.377877235412598</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -41777,6 +43347,14 @@
       <c r="AY90" t="n">
         <v>0.2787277698516846</v>
       </c>
+      <c r="AZ90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.378115653991699</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -41984,6 +43562,14 @@
       <c r="AY91" t="n">
         <v>0.2789428234100342</v>
       </c>
+      <c r="AZ91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.378339529037476</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -42171,6 +43757,14 @@
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
+      <c r="AZ92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA92" t="n">
+        <v>66.90366888046265</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -42350,6 +43944,14 @@
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
+      <c r="AZ93" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA93" t="n">
+        <v>391.9650771617889</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -42533,6 +44135,14 @@
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
+      <c r="AZ94" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA94" t="n">
+        <v>281.6651742458344</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -42722,6 +44332,14 @@
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
+      <c r="AZ95" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA95" t="n">
+        <v>48.44297981262207</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -42903,6 +44521,14 @@
       <c r="AY96" t="n">
         <v>482.7476863861084</v>
       </c>
+      <c r="AZ96" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.378737926483154</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -43084,6 +44710,14 @@
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
+      <c r="AZ97" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.37899374961853</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -43291,6 +44925,14 @@
       <c r="AY98" t="n">
         <v>0.2793245315551758</v>
       </c>
+      <c r="AZ98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.379220485687256</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -43498,6 +45140,14 @@
       <c r="AY99" t="n">
         <v>0.2795345783233643</v>
       </c>
+      <c r="AZ99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.379442691802979</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -43705,6 +45355,14 @@
       <c r="AY100" t="n">
         <v>0.279740571975708</v>
       </c>
+      <c r="AZ100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.379663944244385</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -43912,6 +45570,14 @@
       <c r="AY101" t="n">
         <v>0.2799584865570068</v>
       </c>
+      <c r="AZ101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.37988805770874</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -44095,6 +45761,14 @@
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
+      <c r="AZ102" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA102" t="n">
+        <v>100.4124481678009</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -44280,6 +45954,14 @@
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
+      <c r="AZ103" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA103" t="n">
+        <v>1301.126920700073</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -44469,6 +46151,14 @@
       <c r="AY104" t="n">
         <v>0.2802412509918213</v>
       </c>
+      <c r="AZ104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.380195140838623</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -44664,6 +46354,14 @@
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
+      <c r="AZ105" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA105" t="n">
+        <v>1635.342522621155</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -44847,6 +46545,14 @@
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
+      <c r="AZ106" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.380452156066895</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -45036,6 +46742,14 @@
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
+      <c r="AZ107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.380736351013184</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -45231,6 +46945,14 @@
       <c r="AY108" t="n">
         <v>198.5163114070892</v>
       </c>
+      <c r="AZ108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA108" t="n">
+        <v>26.23248481750488</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -45434,6 +47156,14 @@
       <c r="AY109" t="n">
         <v>253.0248155593872</v>
       </c>
+      <c r="AZ109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA109" t="n">
+        <v>65.76677846908569</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -45635,6 +47365,14 @@
       <c r="AY110" t="n">
         <v>0.2805571556091309</v>
       </c>
+      <c r="AZ110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA110" t="n">
+        <v>113.0173676013947</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -45834,6 +47572,14 @@
       <c r="AY111" t="n">
         <v>95.96785521507263</v>
       </c>
+      <c r="AZ111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA111" t="n">
+        <v>16.91527056694031</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -46031,6 +47777,12 @@
       <c r="AY112" t="n">
         <v>7224.180433750153</v>
       </c>
+      <c r="AZ112" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -46230,6 +47982,14 @@
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
+      <c r="AZ113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA113" t="n">
+        <v>1301.127336502075</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -46429,6 +48189,14 @@
       <c r="AY114" t="n">
         <v>0.2808279991149902</v>
       </c>
+      <c r="AZ114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA114" t="n">
+        <v>18.06602716445923</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -46630,6 +48398,14 @@
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
+      <c r="AZ115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA115" t="n">
+        <v>42.62005090713501</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -46827,6 +48603,14 @@
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
+      <c r="AZ116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA116" t="n">
+        <v>89.98352289199829</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -47032,6 +48816,14 @@
       <c r="AY117" t="n">
         <v>18.7892484664917</v>
       </c>
+      <c r="AZ117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA117" t="n">
+        <v>1635.343140602112</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -47239,6 +49031,14 @@
       <c r="AY118" t="n">
         <v>198.5169472694397</v>
       </c>
+      <c r="AZ118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA118" t="n">
+        <v>26.23319840431213</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -47446,6 +49246,14 @@
       <c r="AY119" t="n">
         <v>253.025591135025</v>
       </c>
+      <c r="AZ119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA119" t="n">
+        <v>65.76726222038269</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -47651,6 +49459,14 @@
       <c r="AY120" t="n">
         <v>0.2811939716339111</v>
       </c>
+      <c r="AZ120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA120" t="n">
+        <v>113.0179438591003</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -47858,6 +49674,14 @@
       <c r="AY121" t="n">
         <v>95.96845507621765</v>
       </c>
+      <c r="AZ121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA121" t="n">
+        <v>16.91582679748535</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -48063,6 +49887,14 @@
       <c r="AY122" t="n">
         <v>26.80010986328125</v>
       </c>
+      <c r="AZ122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA122" t="n">
+        <v>18.06651306152344</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -48270,6 +50102,14 @@
       <c r="AY123" t="n">
         <v>18.7896990776062</v>
       </c>
+      <c r="AZ123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA123" t="n">
+        <v>18.06680154800415</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -48477,6 +50317,14 @@
       <c r="AY124" t="n">
         <v>0.281486988067627</v>
       </c>
+      <c r="AZ124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA124" t="n">
+        <v>18.0670702457428</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -48680,6 +50528,14 @@
       <c r="AY125" t="n">
         <v>272.6221694946289</v>
       </c>
+      <c r="AZ125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA125" t="n">
+        <v>42.62059783935547</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -48885,6 +50741,14 @@
       <c r="AY126" t="n">
         <v>0.2817175388336182</v>
       </c>
+      <c r="AZ126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA126" t="n">
+        <v>66.9044942855835</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -49092,6 +50956,14 @@
       <c r="AY127" t="n">
         <v>18.79001784324646</v>
       </c>
+      <c r="AZ127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA127" t="n">
+        <v>23.95456314086914</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -49299,6 +51171,14 @@
       <c r="AY128" t="n">
         <v>3018.611888647079</v>
       </c>
+      <c r="AZ128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA128" t="n">
+        <v>6629.884414196014</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -49504,6 +51384,14 @@
       <c r="AY129" t="n">
         <v>1635.147485017776</v>
       </c>
+      <c r="AZ129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA129" t="n">
+        <v>292.4498031139374</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -49711,6 +51599,14 @@
       <c r="AY130" t="n">
         <v>0.2819995880126953</v>
       </c>
+      <c r="AZ130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA130" t="n">
+        <v>2724.467728853226</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -49918,6 +51814,14 @@
       <c r="AY131" t="n">
         <v>1362.158052921295</v>
       </c>
+      <c r="AZ131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA131" t="n">
+        <v>144.7551941871643</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -50121,6 +52025,14 @@
       <c r="AY132" t="n">
         <v>26.80078125</v>
       </c>
+      <c r="AZ132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA132" t="n">
+        <v>18.06747961044312</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -50326,6 +52238,14 @@
       <c r="AY133" t="n">
         <v>18.79044222831726</v>
       </c>
+      <c r="AZ133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA133" t="n">
+        <v>18.06773829460144</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -50529,6 +52449,12 @@
       <c r="AY134" t="n">
         <v>0.2822721004486084</v>
       </c>
+      <c r="AZ134" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -50732,6 +52658,12 @@
       <c r="AY135" t="n">
         <v>272.6226706504822</v>
       </c>
+      <c r="AZ135" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BA135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -50935,6 +52867,14 @@
       <c r="AY136" t="n">
         <v>0.2825016975402832</v>
       </c>
+      <c r="AZ136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA136" t="n">
+        <v>39.21018958091736</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -51138,6 +53078,14 @@
       <c r="AY137" t="n">
         <v>3018.612339496613</v>
       </c>
+      <c r="AZ137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA137" t="n">
+        <v>23.95519804954529</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -51341,6 +53289,14 @@
       <c r="AY138" t="n">
         <v>3018.612622499466</v>
       </c>
+      <c r="AZ138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA138" t="n">
+        <v>6629.884876489639</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -51538,6 +53494,14 @@
       <c r="AY139" t="n">
         <v>211.6107234954834</v>
       </c>
+      <c r="AZ139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA139" t="n">
+        <v>7531.465682268143</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -51745,6 +53709,14 @@
       <c r="AY140" t="n">
         <v>0.2827730178833008</v>
       </c>
+      <c r="AZ140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA140" t="n">
+        <v>2724.468281030655</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -51947,6 +53919,14 @@
       </c>
       <c r="AY141" t="n">
         <v>1362.158458709717</v>
+      </c>
+      <c r="AZ141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BA141" t="n">
+        <v>144.7556843757629</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA141"/>
+  <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +568,11 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -652,7 +657,10 @@
         <v>0.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.119047619047619</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.090909090909091</v>
       </c>
     </row>
     <row r="3">
@@ -737,6 +745,9 @@
       <c r="AA3" t="n">
         <v>0.5</v>
       </c>
+      <c r="AB3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -820,6 +831,9 @@
       <c r="AA4" t="n">
         <v>0.5</v>
       </c>
+      <c r="AB4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -903,6 +917,9 @@
       <c r="AA5" t="n">
         <v>0.5</v>
       </c>
+      <c r="AB5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +1001,9 @@
         <v>9.9</v>
       </c>
       <c r="AA6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB6" t="n">
         <v>0.9476190476190476</v>
       </c>
     </row>
@@ -1067,6 +1087,9 @@
         <v>9.9</v>
       </c>
       <c r="AA7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB7" t="n">
         <v>0.9476190476190476</v>
       </c>
     </row>
@@ -1150,6 +1173,9 @@
         <v>9.9</v>
       </c>
       <c r="AA8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB8" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -1233,6 +1259,9 @@
         <v>9.9</v>
       </c>
       <c r="AA9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB9" t="n">
         <v>5.733333333333333</v>
       </c>
     </row>
@@ -1316,6 +1345,9 @@
         <v>9.9</v>
       </c>
       <c r="AA10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB10" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -1399,6 +1431,9 @@
         <v>9.9</v>
       </c>
       <c r="AA11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB11" t="n">
         <v>5.399999999999999</v>
       </c>
     </row>
@@ -1482,7 +1517,10 @@
         <v>1.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.166666666666667</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.136363636363636</v>
       </c>
     </row>
     <row r="13">
@@ -1567,6 +1605,9 @@
       <c r="AA13" t="n">
         <v>0.5</v>
       </c>
+      <c r="AB13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1648,7 +1689,10 @@
         <v>0.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1775,10 @@
         <v>0.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.6904761904761905</v>
+        <v>3.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="16">
@@ -1814,6 +1861,9 @@
         <v>9.9</v>
       </c>
       <c r="AA16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB16" t="n">
         <v>0.9476190476190476</v>
       </c>
     </row>
@@ -1897,6 +1947,9 @@
         <v>9.9</v>
       </c>
       <c r="AA17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB17" t="n">
         <v>0.9476190476190476</v>
       </c>
     </row>
@@ -1980,6 +2033,9 @@
         <v>9.9</v>
       </c>
       <c r="AA18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB18" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -2063,6 +2119,9 @@
         <v>9.9</v>
       </c>
       <c r="AA19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB19" t="n">
         <v>5.733333333333333</v>
       </c>
     </row>
@@ -2146,6 +2205,9 @@
         <v>9.9</v>
       </c>
       <c r="AA20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB20" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -2229,6 +2291,9 @@
         <v>9.9</v>
       </c>
       <c r="AA21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB21" t="n">
         <v>5.399999999999999</v>
       </c>
     </row>
@@ -2312,7 +2377,10 @@
         <v>1.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.7380952380952381</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.081818181818182</v>
       </c>
     </row>
     <row r="23">
@@ -2395,7 +2463,10 @@
         <v>0.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.7380952380952381</v>
+        <v>1.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.7727272727272727</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2549,10 @@
         <v>0.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.7857142857142857</v>
+        <v>1.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="25">
@@ -2561,7 +2635,10 @@
         <v>4.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.357142857142857</v>
+        <v>3.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.454545454545455</v>
       </c>
     </row>
     <row r="26">
@@ -2644,6 +2721,9 @@
         <v>9.9</v>
       </c>
       <c r="AA26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB26" t="n">
         <v>2.042857142857143</v>
       </c>
     </row>
@@ -2727,6 +2807,9 @@
         <v>9.9</v>
       </c>
       <c r="AA27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB27" t="n">
         <v>1.138095238095238</v>
       </c>
     </row>
@@ -2810,6 +2893,9 @@
         <v>9.9</v>
       </c>
       <c r="AA28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB28" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -2893,6 +2979,9 @@
         <v>9.9</v>
       </c>
       <c r="AA29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB29" t="n">
         <v>6.733333333333333</v>
       </c>
     </row>
@@ -2976,6 +3065,9 @@
         <v>9.9</v>
       </c>
       <c r="AA30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB30" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -3059,6 +3151,9 @@
         <v>9.9</v>
       </c>
       <c r="AA31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB31" t="n">
         <v>7.533333333333332</v>
       </c>
     </row>
@@ -3142,7 +3237,10 @@
         <v>0.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.6818181818181818</v>
       </c>
     </row>
     <row r="33">
@@ -3225,7 +3323,10 @@
         <v>1.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.6904761904761905</v>
+        <v>1.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="34">
@@ -3308,7 +3409,10 @@
         <v>0.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.7380952380952381</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="35">
@@ -3391,7 +3495,10 @@
         <v>4.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.214285714285714</v>
+        <v>1.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.227272727272727</v>
       </c>
     </row>
     <row r="36">
@@ -3474,6 +3581,9 @@
         <v>9.9</v>
       </c>
       <c r="AA36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB36" t="n">
         <v>2.138095238095238</v>
       </c>
     </row>
@@ -3557,6 +3667,9 @@
         <v>9.9</v>
       </c>
       <c r="AA37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB37" t="n">
         <v>1.280952380952381</v>
       </c>
     </row>
@@ -3640,6 +3753,9 @@
         <v>9.9</v>
       </c>
       <c r="AA38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB38" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -3723,6 +3839,9 @@
         <v>9.9</v>
       </c>
       <c r="AA39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB39" t="n">
         <v>6.733333333333333</v>
       </c>
     </row>
@@ -3806,6 +3925,9 @@
         <v>9.9</v>
       </c>
       <c r="AA40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB40" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -3889,6 +4011,9 @@
         <v>9.9</v>
       </c>
       <c r="AA41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB41" t="n">
         <v>7.533333333333332</v>
       </c>
     </row>
@@ -3972,7 +4097,10 @@
         <v>6.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="43">
@@ -4057,6 +4185,9 @@
       <c r="AA43" t="n">
         <v>0.5</v>
       </c>
+      <c r="AB43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4138,7 +4269,10 @@
         <v>0.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.5476190476190477</v>
       </c>
     </row>
     <row r="45">
@@ -4223,6 +4357,9 @@
       <c r="AA45" t="n">
         <v>0.5</v>
       </c>
+      <c r="AB45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4304,6 +4441,9 @@
         <v>9.9</v>
       </c>
       <c r="AA46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB46" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -4387,6 +4527,9 @@
         <v>9.9</v>
       </c>
       <c r="AA47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB47" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -4470,6 +4613,9 @@
         <v>9.9</v>
       </c>
       <c r="AA48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB48" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -4553,6 +4699,9 @@
         <v>9.9</v>
       </c>
       <c r="AA49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB49" t="n">
         <v>3.066666666666666</v>
       </c>
     </row>
@@ -4636,6 +4785,9 @@
         <v>9.9</v>
       </c>
       <c r="AA50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB50" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -4719,6 +4871,9 @@
         <v>9.9</v>
       </c>
       <c r="AA51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB51" t="n">
         <v>3.566666666666666</v>
       </c>
     </row>
@@ -4802,7 +4957,10 @@
         <v>0.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.9631578947368421</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -4885,7 +5043,10 @@
         <v>1.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="54">
@@ -4968,7 +5129,10 @@
         <v>6.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="55">
@@ -5051,7 +5215,10 @@
         <v>0.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="56">
@@ -5134,6 +5301,9 @@
         <v>9.9</v>
       </c>
       <c r="AA56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB56" t="n">
         <v>1.205263157894737</v>
       </c>
     </row>
@@ -5217,6 +5387,9 @@
         <v>9.9</v>
       </c>
       <c r="AA57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB57" t="n">
         <v>0.994736842105263</v>
       </c>
     </row>
@@ -5300,6 +5473,9 @@
         <v>9.9</v>
       </c>
       <c r="AA58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB58" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -5383,6 +5559,9 @@
         <v>9.9</v>
       </c>
       <c r="AA59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB59" t="n">
         <v>4.066666666666666</v>
       </c>
     </row>
@@ -5466,6 +5645,9 @@
         <v>9.9</v>
       </c>
       <c r="AA60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB60" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -5549,6 +5731,9 @@
         <v>9.9</v>
       </c>
       <c r="AA61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB61" t="n">
         <v>4.899999999999999</v>
       </c>
     </row>
@@ -5632,7 +5817,10 @@
         <v>5.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.489473684210526</v>
+        <v>5.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="63">
@@ -5715,7 +5903,10 @@
         <v>6.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>1.394736842105263</v>
+        <v>6.5</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="64">
@@ -5798,7 +5989,10 @@
         <v>6.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.8157894736842105</v>
+        <v>6.5</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="65">
@@ -5881,7 +6075,10 @@
         <v>7.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>1.394736842105263</v>
+        <v>7.5</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="66">
@@ -5964,6 +6161,9 @@
         <v>9.9</v>
       </c>
       <c r="AA66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB66" t="n">
         <v>1.678947368421053</v>
       </c>
     </row>
@@ -6047,6 +6247,9 @@
         <v>9.9</v>
       </c>
       <c r="AA67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB67" t="n">
         <v>1.152631578947368</v>
       </c>
     </row>
@@ -6130,6 +6333,9 @@
         <v>9.9</v>
       </c>
       <c r="AA68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB68" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -6213,6 +6419,9 @@
         <v>9.9</v>
       </c>
       <c r="AA69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB69" t="n">
         <v>5.899999999999999</v>
       </c>
     </row>
@@ -6296,6 +6505,9 @@
         <v>9.9</v>
       </c>
       <c r="AA70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB70" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -6379,6 +6591,9 @@
         <v>9.9</v>
       </c>
       <c r="AA71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB71" t="n">
         <v>6.899999999999999</v>
       </c>
     </row>
@@ -6462,6 +6677,9 @@
         <v>5.5</v>
       </c>
       <c r="AA72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB72" t="n">
         <v>2.166666666666667</v>
       </c>
     </row>
@@ -6545,7 +6763,10 @@
         <v>6.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>2.078947368421053</v>
+        <v>6.5</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="74">
@@ -6628,7 +6849,10 @@
         <v>3.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>1.331578947368421</v>
+        <v>6.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="75">
@@ -6711,7 +6935,10 @@
         <v>7.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>1.5</v>
+        <v>7.5</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="76">
@@ -6794,6 +7021,9 @@
         <v>9.9</v>
       </c>
       <c r="AA76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB76" t="n">
         <v>1.310526315789474</v>
       </c>
     </row>
@@ -6877,6 +7107,9 @@
         <v>9.9</v>
       </c>
       <c r="AA77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB77" t="n">
         <v>1.678947368421053</v>
       </c>
     </row>
@@ -6960,6 +7193,9 @@
         <v>9.9</v>
       </c>
       <c r="AA78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB78" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -7043,6 +7279,9 @@
         <v>9.9</v>
       </c>
       <c r="AA79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB79" t="n">
         <v>6.733333333333333</v>
       </c>
     </row>
@@ -7126,6 +7365,9 @@
         <v>9.9</v>
       </c>
       <c r="AA80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB80" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -7209,6 +7451,9 @@
         <v>9.9</v>
       </c>
       <c r="AA81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB81" t="n">
         <v>7.066666666666666</v>
       </c>
     </row>
@@ -7292,6 +7537,9 @@
         <v>6.5</v>
       </c>
       <c r="AA82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB82" t="n">
         <v>3.710526315789474</v>
       </c>
     </row>
@@ -7375,7 +7623,10 @@
         <v>4.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>1.815789473684211</v>
+        <v>4.5</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="84">
@@ -7458,7 +7709,10 @@
         <v>5.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>1.647368421052632</v>
+        <v>4.5</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="85">
@@ -7541,7 +7795,10 @@
         <v>7.5</v>
       </c>
       <c r="AA85" t="n">
-        <v>1.657894736842105</v>
+        <v>4.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="86">
@@ -7624,6 +7881,9 @@
         <v>9.9</v>
       </c>
       <c r="AA86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB86" t="n">
         <v>1.731578947368421</v>
       </c>
     </row>
@@ -7707,6 +7967,9 @@
         <v>9.9</v>
       </c>
       <c r="AA87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB87" t="n">
         <v>1.942105263157895</v>
       </c>
     </row>
@@ -7790,6 +8053,9 @@
         <v>9.9</v>
       </c>
       <c r="AA88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB88" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -7873,6 +8139,9 @@
         <v>9.9</v>
       </c>
       <c r="AA89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB89" t="n">
         <v>7.066666666666666</v>
       </c>
     </row>
@@ -7956,6 +8225,9 @@
         <v>9.9</v>
       </c>
       <c r="AA90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB90" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -8039,6 +8311,9 @@
         <v>9.9</v>
       </c>
       <c r="AA91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB91" t="n">
         <v>7.033333333333332</v>
       </c>
     </row>
@@ -8122,7 +8397,10 @@
         <v>6.5</v>
       </c>
       <c r="AA92" t="n">
-        <v>2.289473684210526</v>
+        <v>2.5</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="93">
@@ -8205,7 +8483,10 @@
         <v>4.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>1.184210526315789</v>
+        <v>4.5</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="94">
@@ -8288,7 +8569,10 @@
         <v>5.5</v>
       </c>
       <c r="AA94" t="n">
-        <v>1.815789473684211</v>
+        <v>4.5</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="95">
@@ -8371,7 +8655,10 @@
         <v>7.5</v>
       </c>
       <c r="AA95" t="n">
-        <v>2.342105263157895</v>
+        <v>4.5</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="96">
@@ -8454,6 +8741,9 @@
         <v>9.9</v>
       </c>
       <c r="AA96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB96" t="n">
         <v>1.784210526315789</v>
       </c>
     </row>
@@ -8537,6 +8827,9 @@
         <v>9.9</v>
       </c>
       <c r="AA97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB97" t="n">
         <v>1.889473684210526</v>
       </c>
     </row>
@@ -8620,6 +8913,9 @@
         <v>9.9</v>
       </c>
       <c r="AA98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB98" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -8703,6 +8999,9 @@
         <v>9.9</v>
       </c>
       <c r="AA99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB99" t="n">
         <v>7.533333333333332</v>
       </c>
     </row>
@@ -8786,6 +9085,9 @@
         <v>9.9</v>
       </c>
       <c r="AA100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB100" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -8869,6 +9171,9 @@
         <v>9.9</v>
       </c>
       <c r="AA101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB101" t="n">
         <v>7.199999999999999</v>
       </c>
     </row>
@@ -8952,7 +9257,10 @@
         <v>6.5</v>
       </c>
       <c r="AA102" t="n">
-        <v>2.680952380952381</v>
+        <v>3.5</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>2.718181818181818</v>
       </c>
     </row>
     <row r="103">
@@ -9035,7 +9343,10 @@
         <v>3.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>1.976190476190476</v>
+        <v>1.5</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.954545454545455</v>
       </c>
     </row>
     <row r="104">
@@ -9118,7 +9429,10 @@
         <v>9.9</v>
       </c>
       <c r="AA104" t="n">
-        <v>2.62</v>
+        <v>1.5</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>2.566666666666666</v>
       </c>
     </row>
     <row r="105">
@@ -9201,7 +9515,10 @@
         <v>3.5</v>
       </c>
       <c r="AA105" t="n">
-        <v>2.738095238095238</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>2.636363636363636</v>
       </c>
     </row>
     <row r="106">
@@ -9284,6 +9601,9 @@
         <v>9.9</v>
       </c>
       <c r="AA106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB106" t="n">
         <v>2.566666666666666</v>
       </c>
     </row>
@@ -9367,6 +9687,9 @@
         <v>9.9</v>
       </c>
       <c r="AA107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB107" t="n">
         <v>3.557142857142857</v>
       </c>
     </row>
@@ -9450,7 +9773,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA108" t="n">
-        <v>4.304761904761905</v>
+        <v>7.5</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>4.449999999999999</v>
       </c>
     </row>
     <row r="109">
@@ -9533,7 +9859,10 @@
         <v>6.5</v>
       </c>
       <c r="AA109" t="n">
-        <v>4.649999999999999</v>
+        <v>5.5</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>4.684</v>
       </c>
     </row>
     <row r="110">
@@ -9616,7 +9945,10 @@
         <v>6.5</v>
       </c>
       <c r="AA110" t="n">
-        <v>4.423076923076923</v>
+        <v>5.5</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="111">
@@ -9699,7 +10031,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA111" t="n">
-        <v>5.541666666666667</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>5.652</v>
       </c>
     </row>
     <row r="112">
@@ -9782,7 +10117,10 @@
         <v>0.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>4.166666666666667</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>4.354545454545454</v>
       </c>
     </row>
     <row r="113">
@@ -9865,7 +10203,10 @@
         <v>3.5</v>
       </c>
       <c r="AA113" t="n">
-        <v>4.345000000000001</v>
+        <v>1.5</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>4.20952380952381</v>
       </c>
     </row>
     <row r="114">
@@ -9948,7 +10289,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA114" t="n">
-        <v>5.04</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>5.195238095238095</v>
       </c>
     </row>
     <row r="115">
@@ -10031,7 +10375,10 @@
         <v>7.5</v>
       </c>
       <c r="AA115" t="n">
-        <v>4.204761904761905</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>4.390909090909091</v>
       </c>
     </row>
     <row r="116">
@@ -10114,7 +10461,10 @@
         <v>6.5</v>
       </c>
       <c r="AA116" t="n">
-        <v>4.023809523809524</v>
+        <v>6.5</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>4.136363636363637</v>
       </c>
     </row>
     <row r="117">
@@ -10197,7 +10547,10 @@
         <v>3.5</v>
       </c>
       <c r="AA117" t="n">
-        <v>5.815789473684211</v>
+        <v>3.5</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="118">
@@ -10280,7 +10633,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA118" t="n">
-        <v>6.475</v>
+        <v>4.5</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>6.380952380952381</v>
       </c>
     </row>
     <row r="119">
@@ -10363,7 +10719,10 @@
         <v>6.5</v>
       </c>
       <c r="AA119" t="n">
-        <v>6.030434782608695</v>
+        <v>5.5</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>6.008333333333333</v>
       </c>
     </row>
     <row r="120">
@@ -10448,6 +10807,9 @@
       <c r="AA120" t="n">
         <v>5.5</v>
       </c>
+      <c r="AB120" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -10529,7 +10891,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA121" t="n">
-        <v>7.356521739130437</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>7.395833333333333</v>
       </c>
     </row>
     <row r="122">
@@ -10612,7 +10977,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA122" t="n">
-        <v>7.014285714285716</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>7.072727272727275</v>
       </c>
     </row>
     <row r="123">
@@ -10695,7 +11063,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA123" t="n">
-        <v>7.442105263157895</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>7.485000000000001</v>
       </c>
     </row>
     <row r="124">
@@ -10778,7 +11149,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA124" t="n">
-        <v>7.150000000000001</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>7.210526315789475</v>
       </c>
     </row>
     <row r="125">
@@ -10861,7 +11235,10 @@
         <v>7.5</v>
       </c>
       <c r="AA125" t="n">
-        <v>6.1</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="126">
@@ -10944,7 +11321,10 @@
         <v>6.5</v>
       </c>
       <c r="AA126" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>6.309523809523809</v>
       </c>
     </row>
     <row r="127">
@@ -11027,7 +11407,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA127" t="n">
-        <v>7.405555555555556</v>
+        <v>7.5</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>7.410526315789475</v>
       </c>
     </row>
     <row r="128">
@@ -11110,7 +11493,10 @@
         <v>1.5</v>
       </c>
       <c r="AA128" t="n">
-        <v>6.163157894736843</v>
+        <v>7.5</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>6.23</v>
       </c>
     </row>
     <row r="129">
@@ -11193,7 +11579,10 @@
         <v>5.5</v>
       </c>
       <c r="AA129" t="n">
-        <v>6.184000000000001</v>
+        <v>6.5</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>6.196153846153847</v>
       </c>
     </row>
     <row r="130">
@@ -11276,7 +11665,10 @@
         <v>2.5</v>
       </c>
       <c r="AA130" t="n">
-        <v>6.446153846153846</v>
+        <v>4.5</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>6.307142857142857</v>
       </c>
     </row>
     <row r="131">
@@ -11359,7 +11751,10 @@
         <v>5.5</v>
       </c>
       <c r="AA131" t="n">
-        <v>7.156521739130436</v>
+        <v>6.5</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>7.129166666666667</v>
       </c>
     </row>
     <row r="132">
@@ -11442,7 +11837,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA132" t="n">
-        <v>6.029999999999999</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>6.138095238095238</v>
       </c>
     </row>
     <row r="133">
@@ -11525,7 +11923,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA133" t="n">
-        <v>5.657894736842105</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>5.79</v>
       </c>
     </row>
     <row r="134">
@@ -11608,7 +12009,10 @@
         <v>0.5</v>
       </c>
       <c r="AA134" t="n">
-        <v>3.926315789473684</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>3.755</v>
       </c>
     </row>
     <row r="135">
@@ -11691,7 +12095,10 @@
         <v>0.5</v>
       </c>
       <c r="AA135" t="n">
-        <v>5.63</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>5.385714285714285</v>
       </c>
     </row>
     <row r="136">
@@ -11774,7 +12181,10 @@
         <v>7.5</v>
       </c>
       <c r="AA136" t="n">
-        <v>5.763157894736842</v>
+        <v>7.5</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>5.85</v>
       </c>
     </row>
     <row r="137">
@@ -11857,7 +12267,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AA137" t="n">
-        <v>5.355</v>
+        <v>7.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>5.457142857142857</v>
       </c>
     </row>
     <row r="138">
@@ -11940,7 +12353,10 @@
         <v>1.5</v>
       </c>
       <c r="AA138" t="n">
-        <v>4.75</v>
+        <v>7.5</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>4.880952380952381</v>
       </c>
     </row>
     <row r="139">
@@ -12023,7 +12439,10 @@
         <v>1.5</v>
       </c>
       <c r="AA139" t="n">
-        <v>4.729166666666667</v>
+        <v>6.5</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="140">
@@ -12106,7 +12525,10 @@
         <v>2.5</v>
       </c>
       <c r="AA140" t="n">
-        <v>5.815384615384615</v>
+        <v>4.5</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>5.721428571428571</v>
       </c>
     </row>
     <row r="141">
@@ -12189,7 +12611,10 @@
         <v>5.5</v>
       </c>
       <c r="AA141" t="n">
-        <v>5.541666666666667</v>
+        <v>6.5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>5.58</v>
       </c>
     </row>
   </sheetData>
@@ -12203,7 +12628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z141"/>
+  <dimension ref="A1:AA141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12342,6 +12767,11 @@
           <t>2023-08-12</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12458,6 +12888,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -12580,6 +13015,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -12702,6 +13142,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -12824,6 +13269,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -12944,6 +13394,9 @@
       <c r="Z6" t="n">
         <v>1.364821672439575</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0.2816026210784912</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -13064,6 +13517,9 @@
       <c r="Z7" t="n">
         <v>1.365082263946533</v>
       </c>
+      <c r="AA7" t="n">
+        <v>0.2818853855133057</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -13144,6 +13600,9 @@
       <c r="Z8" t="n">
         <v>1.365313768386841</v>
       </c>
+      <c r="AA8" t="n">
+        <v>0.2821247577667236</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -13224,6 +13683,9 @@
       <c r="Z9" t="n">
         <v>1.36553692817688</v>
       </c>
+      <c r="AA9" t="n">
+        <v>0.2823524475097656</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -13304,6 +13766,9 @@
       <c r="Z10" t="n">
         <v>1.365757465362549</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.2825751304626465</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -13384,6 +13849,9 @@
       <c r="Z11" t="n">
         <v>1.365986824035645</v>
       </c>
+      <c r="AA11" t="n">
+        <v>0.2827928066253662</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -13498,6 +13966,11 @@
       <c r="Z12" t="n">
         <v>6629.882129669189</v>
       </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -13620,6 +14093,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -13742,6 +14220,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA14" t="n">
+        <v>9026.529903173447</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -13860,6 +14341,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA15" t="n">
+        <v>665.1760265827179</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -13980,6 +14464,9 @@
       <c r="Z16" t="n">
         <v>1.366309642791748</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0.2831618785858154</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -14100,6 +14587,9 @@
       <c r="Z17" t="n">
         <v>1.366554021835327</v>
       </c>
+      <c r="AA17" t="n">
+        <v>0.2833878993988037</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -14180,6 +14670,9 @@
       <c r="Z18" t="n">
         <v>1.366790771484375</v>
       </c>
+      <c r="AA18" t="n">
+        <v>0.2836096286773682</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -14260,6 +14753,9 @@
       <c r="Z19" t="n">
         <v>1.367022514343262</v>
       </c>
+      <c r="AA19" t="n">
+        <v>0.283926248550415</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -14340,6 +14836,9 @@
       <c r="Z20" t="n">
         <v>1.367242813110352</v>
       </c>
+      <c r="AA20" t="n">
+        <v>0.2842302322387695</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -14420,6 +14919,9 @@
       <c r="Z21" t="n">
         <v>1.367549419403076</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0.2844858169555664</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -14536,6 +15038,9 @@
       <c r="Z22" t="n">
         <v>6629.882705450058</v>
       </c>
+      <c r="AA22" t="n">
+        <v>15.02594757080078</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -14654,6 +15159,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA23" t="n">
+        <v>8125.265477180481</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -14772,6 +15280,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA24" t="n">
+        <v>9026.530355453491</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -14884,6 +15395,9 @@
       <c r="Z25" t="n">
         <v>361.6628494262695</v>
       </c>
+      <c r="AA25" t="n">
+        <v>665.1765220165253</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -14990,6 +15504,9 @@
       <c r="Z26" t="n">
         <v>1.367879390716553</v>
       </c>
+      <c r="AA26" t="n">
+        <v>0.2848033905029297</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -15106,6 +15623,9 @@
       <c r="Z27" t="n">
         <v>1.368119955062866</v>
       </c>
+      <c r="AA27" t="n">
+        <v>0.285062313079834</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -15186,6 +15706,9 @@
       <c r="Z28" t="n">
         <v>1.368373870849609</v>
       </c>
+      <c r="AA28" t="n">
+        <v>0.2853026390075684</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -15266,6 +15789,9 @@
       <c r="Z29" t="n">
         <v>1.368657827377319</v>
       </c>
+      <c r="AA29" t="n">
+        <v>0.2855231761932373</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -15346,6 +15872,9 @@
       <c r="Z30" t="n">
         <v>1.36888575553894</v>
       </c>
+      <c r="AA30" t="n">
+        <v>0.2857410907745361</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -15426,6 +15955,9 @@
       <c r="Z31" t="n">
         <v>1.369118452072144</v>
       </c>
+      <c r="AA31" t="n">
+        <v>0.2859745025634766</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -15544,6 +16076,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -15662,6 +16199,9 @@
       <c r="Z33" t="n">
         <v>7231.02760386467</v>
       </c>
+      <c r="AA33" t="n">
+        <v>8125.266026258469</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -15782,6 +16322,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -15898,6 +16443,9 @@
       <c r="Z35" t="n">
         <v>361.6633343696594</v>
       </c>
+      <c r="AA35" t="n">
+        <v>6623.40404009819</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -16004,6 +16552,9 @@
       <c r="Z36" t="n">
         <v>1.36947226524353</v>
       </c>
+      <c r="AA36" t="n">
+        <v>0.286341667175293</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -16118,6 +16669,9 @@
       <c r="Z37" t="n">
         <v>1.369710922241211</v>
       </c>
+      <c r="AA37" t="n">
+        <v>0.2865724563598633</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -16198,6 +16752,9 @@
       <c r="Z38" t="n">
         <v>1.369942188262939</v>
       </c>
+      <c r="AA38" t="n">
+        <v>0.2867946624755859</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -16278,6 +16835,9 @@
       <c r="Z39" t="n">
         <v>1.370190858840942</v>
       </c>
+      <c r="AA39" t="n">
+        <v>0.287024974822998</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -16358,6 +16918,9 @@
       <c r="Z40" t="n">
         <v>1.370455503463745</v>
       </c>
+      <c r="AA40" t="n">
+        <v>0.2872722148895264</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -16438,6 +17001,9 @@
       <c r="Z41" t="n">
         <v>1.370805740356445</v>
       </c>
+      <c r="AA41" t="n">
+        <v>0.2875030040740967</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -16556,6 +17122,11 @@
       <c r="Z42" t="n">
         <v>100.4113233089447</v>
       </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -16676,6 +17247,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -16794,6 +17370,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -16914,6 +17495,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -17032,6 +17618,9 @@
       <c r="Z46" t="n">
         <v>1.371162414550781</v>
       </c>
+      <c r="AA46" t="n">
+        <v>0.2878599166870117</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -17150,6 +17739,9 @@
       <c r="Z47" t="n">
         <v>1.371392726898193</v>
       </c>
+      <c r="AA47" t="n">
+        <v>0.288102388381958</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -17230,6 +17822,9 @@
       <c r="Z48" t="n">
         <v>1.371618509292603</v>
       </c>
+      <c r="AA48" t="n">
+        <v>0.2883834838867188</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -17318,6 +17913,9 @@
       <c r="Z49" t="n">
         <v>1.371843814849854</v>
       </c>
+      <c r="AA49" t="n">
+        <v>0.2886126041412354</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -17398,6 +17996,9 @@
       <c r="Z50" t="n">
         <v>1.372077941894531</v>
       </c>
+      <c r="AA50" t="n">
+        <v>0.2888789176940918</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -17484,6 +18085,9 @@
       <c r="Z51" t="n">
         <v>1.372332334518433</v>
       </c>
+      <c r="AA51" t="n">
+        <v>0.2891061305999756</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -17598,6 +18202,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -17714,6 +18323,11 @@
       <c r="Z53" t="n">
         <v>7231.028228759766</v>
       </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -17830,6 +18444,11 @@
       <c r="Z54" t="n">
         <v>62.3245964050293</v>
       </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -17946,6 +18565,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -18060,6 +18684,9 @@
       <c r="Z56" t="n">
         <v>1.372727870941162</v>
       </c>
+      <c r="AA56" t="n">
+        <v>0.2894484996795654</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -18176,6 +18803,9 @@
       <c r="Z57" t="n">
         <v>1.372986555099487</v>
       </c>
+      <c r="AA57" t="n">
+        <v>0.2896802425384521</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -18256,6 +18886,9 @@
       <c r="Z58" t="n">
         <v>1.37321662902832</v>
       </c>
+      <c r="AA58" t="n">
+        <v>0.2899096012115479</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -18340,6 +18973,9 @@
       <c r="Z59" t="n">
         <v>1.373439788818359</v>
       </c>
+      <c r="AA59" t="n">
+        <v>0.2901289463043213</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -18420,6 +19056,9 @@
       <c r="Z60" t="n">
         <v>1.37369704246521</v>
       </c>
+      <c r="AA60" t="n">
+        <v>0.2903447151184082</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -18502,6 +19141,9 @@
       <c r="Z61" t="n">
         <v>1.373922348022461</v>
       </c>
+      <c r="AA61" t="n">
+        <v>0.2905921936035156</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -18612,6 +19254,9 @@
       <c r="Z62" t="n">
         <v>192.8334245681763</v>
       </c>
+      <c r="AA62" t="n">
+        <v>261.3697416782379</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -18722,6 +19367,9 @@
       <c r="Z63" t="n">
         <v>80.74509859085083</v>
       </c>
+      <c r="AA63" t="n">
+        <v>65.86277770996094</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -18838,6 +19486,9 @@
       <c r="Z64" t="n">
         <v>62.32509541511536</v>
       </c>
+      <c r="AA64" t="n">
+        <v>113.6299557685852</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -18946,6 +19597,9 @@
       <c r="Z65" t="n">
         <v>54.3575382232666</v>
       </c>
+      <c r="AA65" t="n">
+        <v>50.91562366485596</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -19056,6 +19710,9 @@
       <c r="Z66" t="n">
         <v>1.37424898147583</v>
       </c>
+      <c r="AA66" t="n">
+        <v>0.2909383773803711</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -19166,6 +19823,9 @@
       <c r="Z67" t="n">
         <v>1.37447190284729</v>
       </c>
+      <c r="AA67" t="n">
+        <v>0.2911946773529053</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -19246,6 +19906,9 @@
       <c r="Z68" t="n">
         <v>1.374692916870117</v>
       </c>
+      <c r="AA68" t="n">
+        <v>0.2914154529571533</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -19326,6 +19989,9 @@
       <c r="Z69" t="n">
         <v>1.374911308288574</v>
       </c>
+      <c r="AA69" t="n">
+        <v>0.2916638851165771</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -19406,6 +20072,9 @@
       <c r="Z70" t="n">
         <v>1.375142335891724</v>
       </c>
+      <c r="AA70" t="n">
+        <v>0.2918972969055176</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -19486,6 +20155,9 @@
       <c r="Z71" t="n">
         <v>1.375358104705811</v>
       </c>
+      <c r="AA71" t="n">
+        <v>0.2921168804168701</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -19586,6 +20258,9 @@
       <c r="Z72" t="n">
         <v>192.8338243961334</v>
       </c>
+      <c r="AA72" t="n">
+        <v>0.2923588752746582</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -19690,6 +20365,9 @@
       <c r="Z73" t="n">
         <v>80.74548721313477</v>
       </c>
+      <c r="AA73" t="n">
+        <v>65.8631796836853</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -19802,6 +20480,9 @@
       <c r="Z74" t="n">
         <v>937.1112661361694</v>
       </c>
+      <c r="AA74" t="n">
+        <v>114.768404006958</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -19908,6 +20589,9 @@
       <c r="Z75" t="n">
         <v>54.35806035995483</v>
       </c>
+      <c r="AA75" t="n">
+        <v>50.91604042053223</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -20016,6 +20700,9 @@
       <c r="Z76" t="n">
         <v>1.375672101974487</v>
       </c>
+      <c r="AA76" t="n">
+        <v>0.2926743030548096</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -20126,6 +20813,9 @@
       <c r="Z77" t="n">
         <v>1.375894546508789</v>
       </c>
+      <c r="AA77" t="n">
+        <v>0.2929182052612305</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -20206,6 +20896,9 @@
       <c r="Z78" t="n">
         <v>1.376125812530518</v>
       </c>
+      <c r="AA78" t="n">
+        <v>0.2931423187255859</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -20286,6 +20979,9 @@
       <c r="Z79" t="n">
         <v>1.376377820968628</v>
       </c>
+      <c r="AA79" t="n">
+        <v>0.293360710144043</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -20366,6 +21062,9 @@
       <c r="Z80" t="n">
         <v>1.376600027084351</v>
       </c>
+      <c r="AA80" t="n">
+        <v>0.2935774326324463</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -20446,6 +21145,9 @@
       <c r="Z81" t="n">
         <v>1.37682056427002</v>
       </c>
+      <c r="AA81" t="n">
+        <v>0.2938511371612549</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -20538,6 +21240,9 @@
       <c r="Z82" t="n">
         <v>66.90325975418091</v>
       </c>
+      <c r="AA82" t="n">
+        <v>0.2940878868103027</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -20638,6 +21343,9 @@
       <c r="Z83" t="n">
         <v>391.9646635055542</v>
       </c>
+      <c r="AA83" t="n">
+        <v>544.1447138786316</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -20746,6 +21454,9 @@
       <c r="Z84" t="n">
         <v>261.8697075843811</v>
       </c>
+      <c r="AA84" t="n">
+        <v>453.2744514942169</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -20850,6 +21561,9 @@
       <c r="Z85" t="n">
         <v>48.44235372543335</v>
       </c>
+      <c r="AA85" t="n">
+        <v>392.6734266281128</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -20958,6 +21672,9 @@
       <c r="Z86" t="n">
         <v>1.377148389816284</v>
       </c>
+      <c r="AA86" t="n">
+        <v>0.294379711151123</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -21064,6 +21781,9 @@
       <c r="Z87" t="n">
         <v>1.37737250328064</v>
       </c>
+      <c r="AA87" t="n">
+        <v>0.294600248336792</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -21144,6 +21864,9 @@
       <c r="Z88" t="n">
         <v>1.377598285675049</v>
       </c>
+      <c r="AA88" t="n">
+        <v>0.2948174476623535</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -21224,6 +21947,9 @@
       <c r="Z89" t="n">
         <v>1.377877235412598</v>
       </c>
+      <c r="AA89" t="n">
+        <v>0.2950460910797119</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -21304,6 +22030,9 @@
       <c r="Z90" t="n">
         <v>1.378115653991699</v>
       </c>
+      <c r="AA90" t="n">
+        <v>0.2952637672424316</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -21384,6 +22113,9 @@
       <c r="Z91" t="n">
         <v>1.378339529037476</v>
       </c>
+      <c r="AA91" t="n">
+        <v>0.2954792976379395</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -21484,6 +22216,9 @@
       <c r="Z92" t="n">
         <v>66.90366888046265</v>
       </c>
+      <c r="AA92" t="n">
+        <v>2117.302278995514</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -21592,6 +22327,9 @@
       <c r="Z93" t="n">
         <v>391.9650771617889</v>
       </c>
+      <c r="AA93" t="n">
+        <v>544.1453330516815</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -21696,6 +22434,9 @@
       <c r="Z94" t="n">
         <v>281.6651742458344</v>
       </c>
+      <c r="AA94" t="n">
+        <v>453.2748937606812</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -21794,6 +22535,9 @@
       <c r="Z95" t="n">
         <v>48.44297981262207</v>
       </c>
+      <c r="AA95" t="n">
+        <v>392.6739559173584</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -21900,6 +22644,9 @@
       <c r="Z96" t="n">
         <v>1.378737926483154</v>
       </c>
+      <c r="AA96" t="n">
+        <v>0.2957887649536133</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -22006,6 +22753,9 @@
       <c r="Z97" t="n">
         <v>1.37899374961853</v>
       </c>
+      <c r="AA97" t="n">
+        <v>0.2960183620452881</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -22086,6 +22836,9 @@
       <c r="Z98" t="n">
         <v>1.379220485687256</v>
       </c>
+      <c r="AA98" t="n">
+        <v>0.2963159084320068</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -22166,6 +22919,9 @@
       <c r="Z99" t="n">
         <v>1.379442691802979</v>
       </c>
+      <c r="AA99" t="n">
+        <v>0.2965412139892578</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -22246,6 +23002,9 @@
       <c r="Z100" t="n">
         <v>1.379663944244385</v>
       </c>
+      <c r="AA100" t="n">
+        <v>0.2967579364776611</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -22326,6 +23085,9 @@
       <c r="Z101" t="n">
         <v>1.37988805770874</v>
       </c>
+      <c r="AA101" t="n">
+        <v>0.2969865798950195</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -22430,6 +23192,9 @@
       <c r="Z102" t="n">
         <v>100.4124481678009</v>
       </c>
+      <c r="AA102" t="n">
+        <v>1301.38201546669</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -22532,6 +23297,9 @@
       <c r="Z103" t="n">
         <v>1301.126920700073</v>
       </c>
+      <c r="AA103" t="n">
+        <v>3919.678191423416</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -22630,6 +23398,9 @@
       <c r="Z104" t="n">
         <v>1.380195140838623</v>
       </c>
+      <c r="AA104" t="n">
+        <v>9627.388622045517</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -22722,6 +23493,11 @@
       <c r="Z105" t="n">
         <v>1635.342522621155</v>
       </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -22826,6 +23602,9 @@
       <c r="Z106" t="n">
         <v>1.380452156066895</v>
       </c>
+      <c r="AA106" t="n">
+        <v>0.2973647117614746</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -22924,6 +23703,9 @@
       <c r="Z107" t="n">
         <v>1.380736351013184</v>
       </c>
+      <c r="AA107" t="n">
+        <v>0.2975928783416748</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -23016,6 +23798,9 @@
       <c r="Z108" t="n">
         <v>26.23248481750488</v>
       </c>
+      <c r="AA108" t="n">
+        <v>32.33815741539001</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -23100,6 +23885,9 @@
       <c r="Z109" t="n">
         <v>65.76677846908569</v>
       </c>
+      <c r="AA109" t="n">
+        <v>219.784875869751</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -23186,6 +23974,9 @@
       <c r="Z110" t="n">
         <v>113.0173676013947</v>
       </c>
+      <c r="AA110" t="n">
+        <v>193.9234411716461</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -23274,6 +24065,9 @@
       <c r="Z111" t="n">
         <v>16.91527056694031</v>
       </c>
+      <c r="AA111" t="n">
+        <v>23.11991882324219</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -23366,6 +24160,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA112" t="n">
+        <v>28.87780952453613</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -23454,6 +24251,9 @@
       <c r="Z113" t="n">
         <v>1301.127336502075</v>
       </c>
+      <c r="AA113" t="n">
+        <v>3919.67876791954</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -23542,6 +24342,9 @@
       <c r="Z114" t="n">
         <v>18.06602716445923</v>
       </c>
+      <c r="AA114" t="n">
+        <v>17.30252194404602</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -23628,6 +24431,9 @@
       <c r="Z115" t="n">
         <v>42.62005090713501</v>
       </c>
+      <c r="AA115" t="n">
+        <v>18.47332525253296</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -23718,6 +24524,9 @@
       <c r="Z116" t="n">
         <v>89.98352289199829</v>
       </c>
+      <c r="AA116" t="n">
+        <v>89.04936146736145</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -23800,6 +24609,9 @@
       <c r="Z117" t="n">
         <v>1635.343140602112</v>
       </c>
+      <c r="AA117" t="n">
+        <v>1513.707357645035</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -23880,6 +24692,9 @@
       <c r="Z118" t="n">
         <v>26.23319840431213</v>
       </c>
+      <c r="AA118" t="n">
+        <v>453.2755172252655</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -23960,6 +24775,9 @@
       <c r="Z119" t="n">
         <v>65.76726222038269</v>
       </c>
+      <c r="AA119" t="n">
+        <v>283.2544875144958</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -24042,6 +24860,9 @@
       <c r="Z120" t="n">
         <v>113.0179438591003</v>
       </c>
+      <c r="AA120" t="n">
+        <v>193.9240431785583</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -24122,6 +24943,9 @@
       <c r="Z121" t="n">
         <v>16.91582679748535</v>
       </c>
+      <c r="AA121" t="n">
+        <v>23.12044405937195</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -24204,6 +25028,9 @@
       <c r="Z122" t="n">
         <v>18.06651306152344</v>
       </c>
+      <c r="AA122" t="n">
+        <v>28.87843632698059</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -24284,6 +25111,9 @@
       <c r="Z123" t="n">
         <v>18.06680154800415</v>
       </c>
+      <c r="AA123" t="n">
+        <v>18.47390222549438</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -24364,6 +25194,9 @@
       <c r="Z124" t="n">
         <v>18.0670702457428</v>
       </c>
+      <c r="AA124" t="n">
+        <v>17.3031108379364</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -24448,6 +25281,9 @@
       <c r="Z125" t="n">
         <v>42.62059783935547</v>
       </c>
+      <c r="AA125" t="n">
+        <v>18.47423386573792</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -24530,6 +25366,9 @@
       <c r="Z126" t="n">
         <v>66.9044942855835</v>
       </c>
+      <c r="AA126" t="n">
+        <v>38.12558794021606</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -24610,6 +25449,9 @@
       <c r="Z127" t="n">
         <v>23.95456314086914</v>
       </c>
+      <c r="AA127" t="n">
+        <v>32.33901524543762</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -24690,6 +25532,9 @@
       <c r="Z128" t="n">
         <v>6629.884414196014</v>
       </c>
+      <c r="AA128" t="n">
+        <v>31.20240807533264</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -24772,6 +25617,9 @@
       <c r="Z129" t="n">
         <v>292.4498031139374</v>
       </c>
+      <c r="AA129" t="n">
+        <v>61.30613660812378</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -24852,6 +25700,9 @@
       <c r="Z130" t="n">
         <v>2724.467728853226</v>
       </c>
+      <c r="AA130" t="n">
+        <v>422.9511065483093</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -24932,6 +25783,9 @@
       <c r="Z131" t="n">
         <v>144.7551941871643</v>
       </c>
+      <c r="AA131" t="n">
+        <v>69.28211760520935</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -25016,6 +25870,9 @@
       <c r="Z132" t="n">
         <v>18.06747961044312</v>
       </c>
+      <c r="AA132" t="n">
+        <v>16.17376828193665</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -25098,6 +25955,9 @@
       <c r="Z133" t="n">
         <v>18.06773829460144</v>
       </c>
+      <c r="AA133" t="n">
+        <v>18.47468829154968</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -25184,6 +26044,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -25270,6 +26135,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AA135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -25354,6 +26224,9 @@
       <c r="Z136" t="n">
         <v>39.21018958091736</v>
       </c>
+      <c r="AA136" t="n">
+        <v>38.1260769367218</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -25438,6 +26311,9 @@
       <c r="Z137" t="n">
         <v>23.95519804954529</v>
       </c>
+      <c r="AA137" t="n">
+        <v>33.52422571182251</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -25522,6 +26398,9 @@
       <c r="Z138" t="n">
         <v>6629.884876489639</v>
       </c>
+      <c r="AA138" t="n">
+        <v>31.2029857635498</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -25612,6 +26491,9 @@
       <c r="Z139" t="n">
         <v>7531.465682268143</v>
       </c>
+      <c r="AA139" t="n">
+        <v>62.4418032169342</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -25692,6 +26574,9 @@
       <c r="Z140" t="n">
         <v>2724.468281030655</v>
       </c>
+      <c r="AA140" t="n">
+        <v>422.9515810012817</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -25775,6 +26660,9 @@
       </c>
       <c r="Z141" t="n">
         <v>144.7556843757629</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>69.28296208381653</v>
       </c>
     </row>
   </sheetData>
@@ -25788,7 +26676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA141"/>
+  <dimension ref="A1:BC141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26062,6 +26950,16 @@
           <t>2023-08-12</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -26241,6 +27139,12 @@
         </is>
       </c>
       <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -26414,6 +27318,12 @@
         </is>
       </c>
       <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -26587,6 +27497,12 @@
         </is>
       </c>
       <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -26760,6 +27676,12 @@
         </is>
       </c>
       <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -26935,6 +27857,14 @@
       <c r="BA6" t="n">
         <v>1.364821672439575</v>
       </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.2816026210784912</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -27110,6 +28040,14 @@
       <c r="BA7" t="n">
         <v>1.365082263946533</v>
       </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.2818853855133057</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -27325,6 +28263,14 @@
       <c r="BA8" t="n">
         <v>1.365313768386841</v>
       </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.2821247577667236</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -27540,6 +28486,14 @@
       <c r="BA9" t="n">
         <v>1.36553692817688</v>
       </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.2823524475097656</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -27755,6 +28709,14 @@
       <c r="BA10" t="n">
         <v>1.365757465362549</v>
       </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.2825751304626465</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -27970,6 +28932,14 @@
       <c r="BA11" t="n">
         <v>1.365986824035645</v>
       </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.2827928066253662</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -28151,6 +29121,12 @@
       <c r="BA12" t="n">
         <v>6629.882129669189</v>
       </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -28324,6 +29300,12 @@
         </is>
       </c>
       <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -28497,6 +29479,14 @@
         </is>
       </c>
       <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC14" t="n">
+        <v>9026.529903173447</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -28674,6 +29664,14 @@
         </is>
       </c>
       <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC15" t="n">
+        <v>665.1760265827179</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -28849,6 +29847,14 @@
       <c r="BA16" t="n">
         <v>1.366309642791748</v>
       </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.2831618785858154</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -29024,6 +30030,14 @@
       <c r="BA17" t="n">
         <v>1.366554021835327</v>
       </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.2833878993988037</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -29239,6 +30253,14 @@
       <c r="BA18" t="n">
         <v>1.366790771484375</v>
       </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.2836096286773682</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -29454,6 +30476,14 @@
       <c r="BA19" t="n">
         <v>1.367022514343262</v>
       </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.283926248550415</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -29669,6 +30699,14 @@
       <c r="BA20" t="n">
         <v>1.367242813110352</v>
       </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.2842302322387695</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -29884,6 +30922,14 @@
       <c r="BA21" t="n">
         <v>1.367549419403076</v>
       </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.2844858169555664</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -30063,6 +31109,14 @@
       <c r="BA22" t="n">
         <v>6629.882705450058</v>
       </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC22" t="n">
+        <v>15.02594757080078</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -30240,6 +31294,14 @@
         </is>
       </c>
       <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC23" t="n">
+        <v>8125.265477180481</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -30417,6 +31479,14 @@
         </is>
       </c>
       <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC24" t="n">
+        <v>9026.530355453491</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -30600,6 +31670,14 @@
       <c r="BA25" t="n">
         <v>361.6628494262695</v>
       </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC25" t="n">
+        <v>665.1765220165253</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -30789,6 +31867,14 @@
       <c r="BA26" t="n">
         <v>1.367879390716553</v>
       </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.2848033905029297</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -30968,6 +32054,14 @@
       <c r="BA27" t="n">
         <v>1.368119955062866</v>
       </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC27" t="n">
+        <v>0.285062313079834</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -31183,6 +32277,14 @@
       <c r="BA28" t="n">
         <v>1.368373870849609</v>
       </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC28" t="n">
+        <v>0.2853026390075684</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -31398,6 +32500,14 @@
       <c r="BA29" t="n">
         <v>1.368657827377319</v>
       </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC29" t="n">
+        <v>0.2855231761932373</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -31613,6 +32723,14 @@
       <c r="BA30" t="n">
         <v>1.36888575553894</v>
       </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC30" t="n">
+        <v>0.2857410907745361</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -31828,6 +32946,14 @@
       <c r="BA31" t="n">
         <v>1.369118452072144</v>
       </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC31" t="n">
+        <v>0.2859745025634766</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -32005,6 +33131,12 @@
         </is>
       </c>
       <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -32182,6 +33314,14 @@
       <c r="BA33" t="n">
         <v>7231.02760386467</v>
       </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC33" t="n">
+        <v>8125.266026258469</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -32357,6 +33497,12 @@
         </is>
       </c>
       <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -32536,6 +33682,14 @@
       <c r="BA35" t="n">
         <v>361.6633343696594</v>
       </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC35" t="n">
+        <v>6623.40404009819</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -32725,6 +33879,14 @@
       <c r="BA36" t="n">
         <v>1.36947226524353</v>
       </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC36" t="n">
+        <v>0.286341667175293</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -32906,6 +34068,14 @@
       <c r="BA37" t="n">
         <v>1.369710922241211</v>
       </c>
+      <c r="BB37" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC37" t="n">
+        <v>0.2865724563598633</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -33121,6 +34291,14 @@
       <c r="BA38" t="n">
         <v>1.369942188262939</v>
       </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC38" t="n">
+        <v>0.2867946624755859</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -33336,6 +34514,14 @@
       <c r="BA39" t="n">
         <v>1.370190858840942</v>
       </c>
+      <c r="BB39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC39" t="n">
+        <v>0.287024974822998</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -33551,6 +34737,14 @@
       <c r="BA40" t="n">
         <v>1.370455503463745</v>
       </c>
+      <c r="BB40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC40" t="n">
+        <v>0.2872722148895264</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -33766,6 +34960,14 @@
       <c r="BA41" t="n">
         <v>1.370805740356445</v>
       </c>
+      <c r="BB41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC41" t="n">
+        <v>0.2875030040740967</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -33943,6 +35145,12 @@
       <c r="BA42" t="n">
         <v>100.4113233089447</v>
       </c>
+      <c r="BB42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -34118,6 +35326,12 @@
         </is>
       </c>
       <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -34295,6 +35509,12 @@
         </is>
       </c>
       <c r="BA44" t="inlineStr"/>
+      <c r="BB44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -34470,6 +35690,12 @@
         </is>
       </c>
       <c r="BA45" t="inlineStr"/>
+      <c r="BB45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -34647,6 +35873,14 @@
       <c r="BA46" t="n">
         <v>1.371162414550781</v>
       </c>
+      <c r="BB46" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC46" t="n">
+        <v>0.2878599166870117</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -34824,6 +36058,14 @@
       <c r="BA47" t="n">
         <v>1.371392726898193</v>
       </c>
+      <c r="BB47" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC47" t="n">
+        <v>0.288102388381958</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -35039,6 +36281,14 @@
       <c r="BA48" t="n">
         <v>1.371618509292603</v>
       </c>
+      <c r="BB48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC48" t="n">
+        <v>0.2883834838867188</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -35246,6 +36496,14 @@
       <c r="BA49" t="n">
         <v>1.371843814849854</v>
       </c>
+      <c r="BB49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC49" t="n">
+        <v>0.2886126041412354</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -35461,6 +36719,14 @@
       <c r="BA50" t="n">
         <v>1.372077941894531</v>
       </c>
+      <c r="BB50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC50" t="n">
+        <v>0.2888789176940918</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -35670,6 +36936,14 @@
       <c r="BA51" t="n">
         <v>1.372332334518433</v>
       </c>
+      <c r="BB51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC51" t="n">
+        <v>0.2891061305999756</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -35851,6 +37125,12 @@
         </is>
       </c>
       <c r="BA52" t="inlineStr"/>
+      <c r="BB52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -36030,6 +37310,12 @@
       <c r="BA53" t="n">
         <v>7231.028228759766</v>
       </c>
+      <c r="BB53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -36209,6 +37495,12 @@
       <c r="BA54" t="n">
         <v>62.3245964050293</v>
       </c>
+      <c r="BB54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -36388,6 +37680,12 @@
         </is>
       </c>
       <c r="BA55" t="inlineStr"/>
+      <c r="BB55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -36569,6 +37867,14 @@
       <c r="BA56" t="n">
         <v>1.372727870941162</v>
       </c>
+      <c r="BB56" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC56" t="n">
+        <v>0.2894484996795654</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -36748,6 +38054,14 @@
       <c r="BA57" t="n">
         <v>1.372986555099487</v>
       </c>
+      <c r="BB57" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC57" t="n">
+        <v>0.2896802425384521</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -36963,6 +38277,14 @@
       <c r="BA58" t="n">
         <v>1.37321662902832</v>
       </c>
+      <c r="BB58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC58" t="n">
+        <v>0.2899096012115479</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -37174,6 +38496,14 @@
       <c r="BA59" t="n">
         <v>1.373439788818359</v>
       </c>
+      <c r="BB59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC59" t="n">
+        <v>0.2901289463043213</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -37389,6 +38719,14 @@
       <c r="BA60" t="n">
         <v>1.37369704246521</v>
       </c>
+      <c r="BB60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC60" t="n">
+        <v>0.2903447151184082</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -37602,6 +38940,14 @@
       <c r="BA61" t="n">
         <v>1.373922348022461</v>
       </c>
+      <c r="BB61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC61" t="n">
+        <v>0.2905921936035156</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -37787,6 +39133,14 @@
       <c r="BA62" t="n">
         <v>192.8334245681763</v>
       </c>
+      <c r="BB62" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC62" t="n">
+        <v>261.3697416782379</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -37972,6 +39326,14 @@
       <c r="BA63" t="n">
         <v>80.74509859085083</v>
       </c>
+      <c r="BB63" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC63" t="n">
+        <v>65.86277770996094</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -38151,6 +39513,14 @@
       <c r="BA64" t="n">
         <v>62.32509541511536</v>
       </c>
+      <c r="BB64" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC64" t="n">
+        <v>113.6299557685852</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -38338,6 +39708,14 @@
       <c r="BA65" t="n">
         <v>54.3575382232666</v>
       </c>
+      <c r="BB65" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC65" t="n">
+        <v>50.91562366485596</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -38523,6 +39901,14 @@
       <c r="BA66" t="n">
         <v>1.37424898147583</v>
       </c>
+      <c r="BB66" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC66" t="n">
+        <v>0.2909383773803711</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -38708,6 +40094,14 @@
       <c r="BA67" t="n">
         <v>1.37447190284729</v>
       </c>
+      <c r="BB67" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC67" t="n">
+        <v>0.2911946773529053</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -38923,6 +40317,14 @@
       <c r="BA68" t="n">
         <v>1.374692916870117</v>
       </c>
+      <c r="BB68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC68" t="n">
+        <v>0.2914154529571533</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -39138,6 +40540,14 @@
       <c r="BA69" t="n">
         <v>1.374911308288574</v>
       </c>
+      <c r="BB69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC69" t="n">
+        <v>0.2916638851165771</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -39353,6 +40763,14 @@
       <c r="BA70" t="n">
         <v>1.375142335891724</v>
       </c>
+      <c r="BB70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC70" t="n">
+        <v>0.2918972969055176</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -39568,6 +40986,14 @@
       <c r="BA71" t="n">
         <v>1.375358104705811</v>
       </c>
+      <c r="BB71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC71" t="n">
+        <v>0.2921168804168701</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -39763,6 +41189,14 @@
       <c r="BA72" t="n">
         <v>192.8338243961334</v>
       </c>
+      <c r="BB72" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC72" t="n">
+        <v>0.2923588752746582</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -39954,6 +41388,14 @@
       <c r="BA73" t="n">
         <v>80.74548721313477</v>
       </c>
+      <c r="BB73" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC73" t="n">
+        <v>65.8631796836853</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -40137,6 +41579,14 @@
       <c r="BA74" t="n">
         <v>937.1112661361694</v>
       </c>
+      <c r="BB74" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC74" t="n">
+        <v>114.768404006958</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -40326,6 +41776,14 @@
       <c r="BA75" t="n">
         <v>54.35806035995483</v>
       </c>
+      <c r="BB75" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC75" t="n">
+        <v>50.91604042053223</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -40513,6 +41971,14 @@
       <c r="BA76" t="n">
         <v>1.375672101974487</v>
       </c>
+      <c r="BB76" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC76" t="n">
+        <v>0.2926743030548096</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -40698,6 +42164,14 @@
       <c r="BA77" t="n">
         <v>1.375894546508789</v>
       </c>
+      <c r="BB77" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC77" t="n">
+        <v>0.2929182052612305</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -40913,6 +42387,14 @@
       <c r="BA78" t="n">
         <v>1.376125812530518</v>
       </c>
+      <c r="BB78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC78" t="n">
+        <v>0.2931423187255859</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -41128,6 +42610,14 @@
       <c r="BA79" t="n">
         <v>1.376377820968628</v>
       </c>
+      <c r="BB79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC79" t="n">
+        <v>0.293360710144043</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -41343,6 +42833,14 @@
       <c r="BA80" t="n">
         <v>1.376600027084351</v>
       </c>
+      <c r="BB80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC80" t="n">
+        <v>0.2935774326324463</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -41558,6 +43056,14 @@
       <c r="BA81" t="n">
         <v>1.37682056427002</v>
       </c>
+      <c r="BB81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC81" t="n">
+        <v>0.2938511371612549</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -41761,6 +43267,14 @@
       <c r="BA82" t="n">
         <v>66.90325975418091</v>
       </c>
+      <c r="BB82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC82" t="n">
+        <v>0.2940878868103027</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -41956,6 +43470,14 @@
       <c r="BA83" t="n">
         <v>391.9646635055542</v>
       </c>
+      <c r="BB83" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC83" t="n">
+        <v>544.1447138786316</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -42143,6 +43665,14 @@
       <c r="BA84" t="n">
         <v>261.8697075843811</v>
       </c>
+      <c r="BB84" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC84" t="n">
+        <v>453.2744514942169</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -42334,6 +43864,14 @@
       <c r="BA85" t="n">
         <v>48.44235372543335</v>
       </c>
+      <c r="BB85" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC85" t="n">
+        <v>392.6734266281128</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -42521,6 +44059,14 @@
       <c r="BA86" t="n">
         <v>1.377148389816284</v>
       </c>
+      <c r="BB86" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC86" t="n">
+        <v>0.294379711151123</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -42710,6 +44256,14 @@
       <c r="BA87" t="n">
         <v>1.37737250328064</v>
       </c>
+      <c r="BB87" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC87" t="n">
+        <v>0.294600248336792</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -42925,6 +44479,14 @@
       <c r="BA88" t="n">
         <v>1.377598285675049</v>
       </c>
+      <c r="BB88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC88" t="n">
+        <v>0.2948174476623535</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -43140,6 +44702,14 @@
       <c r="BA89" t="n">
         <v>1.377877235412598</v>
       </c>
+      <c r="BB89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC89" t="n">
+        <v>0.2950460910797119</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -43355,6 +44925,14 @@
       <c r="BA90" t="n">
         <v>1.378115653991699</v>
       </c>
+      <c r="BB90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC90" t="n">
+        <v>0.2952637672424316</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -43570,6 +45148,14 @@
       <c r="BA91" t="n">
         <v>1.378339529037476</v>
       </c>
+      <c r="BB91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC91" t="n">
+        <v>0.2954792976379395</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -43765,6 +45351,14 @@
       <c r="BA92" t="n">
         <v>66.90366888046265</v>
       </c>
+      <c r="BB92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC92" t="n">
+        <v>2117.302278995514</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -43952,6 +45546,14 @@
       <c r="BA93" t="n">
         <v>391.9650771617889</v>
       </c>
+      <c r="BB93" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC93" t="n">
+        <v>544.1453330516815</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -44143,6 +45745,14 @@
       <c r="BA94" t="n">
         <v>281.6651742458344</v>
       </c>
+      <c r="BB94" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC94" t="n">
+        <v>453.2748937606812</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -44340,6 +45950,14 @@
       <c r="BA95" t="n">
         <v>48.44297981262207</v>
       </c>
+      <c r="BB95" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC95" t="n">
+        <v>392.6739559173584</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -44529,6 +46147,14 @@
       <c r="BA96" t="n">
         <v>1.378737926483154</v>
       </c>
+      <c r="BB96" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC96" t="n">
+        <v>0.2957887649536133</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -44718,6 +46344,14 @@
       <c r="BA97" t="n">
         <v>1.37899374961853</v>
       </c>
+      <c r="BB97" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC97" t="n">
+        <v>0.2960183620452881</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -44933,6 +46567,14 @@
       <c r="BA98" t="n">
         <v>1.379220485687256</v>
       </c>
+      <c r="BB98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC98" t="n">
+        <v>0.2963159084320068</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -45148,6 +46790,14 @@
       <c r="BA99" t="n">
         <v>1.379442691802979</v>
       </c>
+      <c r="BB99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC99" t="n">
+        <v>0.2965412139892578</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -45363,6 +47013,14 @@
       <c r="BA100" t="n">
         <v>1.379663944244385</v>
       </c>
+      <c r="BB100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC100" t="n">
+        <v>0.2967579364776611</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -45578,6 +47236,14 @@
       <c r="BA101" t="n">
         <v>1.37988805770874</v>
       </c>
+      <c r="BB101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC101" t="n">
+        <v>0.2969865798950195</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -45769,6 +47435,14 @@
       <c r="BA102" t="n">
         <v>100.4124481678009</v>
       </c>
+      <c r="BB102" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC102" t="n">
+        <v>1301.38201546669</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -45962,6 +47636,14 @@
       <c r="BA103" t="n">
         <v>1301.126920700073</v>
       </c>
+      <c r="BB103" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC103" t="n">
+        <v>3919.678191423416</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -46159,6 +47841,14 @@
       <c r="BA104" t="n">
         <v>1.380195140838623</v>
       </c>
+      <c r="BB104" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC104" t="n">
+        <v>9627.388622045517</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -46362,6 +48052,12 @@
       <c r="BA105" t="n">
         <v>1635.342522621155</v>
       </c>
+      <c r="BB105" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -46553,6 +48249,14 @@
       <c r="BA106" t="n">
         <v>1.380452156066895</v>
       </c>
+      <c r="BB106" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC106" t="n">
+        <v>0.2973647117614746</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -46750,6 +48454,14 @@
       <c r="BA107" t="n">
         <v>1.380736351013184</v>
       </c>
+      <c r="BB107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC107" t="n">
+        <v>0.2975928783416748</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -46953,6 +48665,14 @@
       <c r="BA108" t="n">
         <v>26.23248481750488</v>
       </c>
+      <c r="BB108" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC108" t="n">
+        <v>32.33815741539001</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -47164,6 +48884,14 @@
       <c r="BA109" t="n">
         <v>65.76677846908569</v>
       </c>
+      <c r="BB109" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC109" t="n">
+        <v>219.784875869751</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -47373,6 +49101,14 @@
       <c r="BA110" t="n">
         <v>113.0173676013947</v>
       </c>
+      <c r="BB110" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC110" t="n">
+        <v>193.9234411716461</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -47580,6 +49316,14 @@
       <c r="BA111" t="n">
         <v>16.91527056694031</v>
       </c>
+      <c r="BB111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC111" t="n">
+        <v>23.11991882324219</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -47783,6 +49527,14 @@
         </is>
       </c>
       <c r="BA112" t="inlineStr"/>
+      <c r="BB112" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC112" t="n">
+        <v>28.87780952453613</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -47990,6 +49742,14 @@
       <c r="BA113" t="n">
         <v>1301.127336502075</v>
       </c>
+      <c r="BB113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC113" t="n">
+        <v>3919.67876791954</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -48197,6 +49957,14 @@
       <c r="BA114" t="n">
         <v>18.06602716445923</v>
       </c>
+      <c r="BB114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC114" t="n">
+        <v>17.30252194404602</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -48406,6 +50174,14 @@
       <c r="BA115" t="n">
         <v>42.62005090713501</v>
       </c>
+      <c r="BB115" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC115" t="n">
+        <v>18.47332525253296</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -48611,6 +50387,14 @@
       <c r="BA116" t="n">
         <v>89.98352289199829</v>
       </c>
+      <c r="BB116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC116" t="n">
+        <v>89.04936146736145</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -48824,6 +50608,14 @@
       <c r="BA117" t="n">
         <v>1635.343140602112</v>
       </c>
+      <c r="BB117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC117" t="n">
+        <v>1513.707357645035</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -49039,6 +50831,14 @@
       <c r="BA118" t="n">
         <v>26.23319840431213</v>
       </c>
+      <c r="BB118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC118" t="n">
+        <v>453.2755172252655</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -49254,6 +51054,14 @@
       <c r="BA119" t="n">
         <v>65.76726222038269</v>
       </c>
+      <c r="BB119" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC119" t="n">
+        <v>283.2544875144958</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -49467,6 +51275,14 @@
       <c r="BA120" t="n">
         <v>113.0179438591003</v>
       </c>
+      <c r="BB120" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC120" t="n">
+        <v>193.9240431785583</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -49682,6 +51498,14 @@
       <c r="BA121" t="n">
         <v>16.91582679748535</v>
       </c>
+      <c r="BB121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC121" t="n">
+        <v>23.12044405937195</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -49895,6 +51719,14 @@
       <c r="BA122" t="n">
         <v>18.06651306152344</v>
       </c>
+      <c r="BB122" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC122" t="n">
+        <v>28.87843632698059</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -50110,6 +51942,14 @@
       <c r="BA123" t="n">
         <v>18.06680154800415</v>
       </c>
+      <c r="BB123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC123" t="n">
+        <v>18.47390222549438</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -50325,6 +52165,14 @@
       <c r="BA124" t="n">
         <v>18.0670702457428</v>
       </c>
+      <c r="BB124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC124" t="n">
+        <v>17.3031108379364</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -50536,6 +52384,14 @@
       <c r="BA125" t="n">
         <v>42.62059783935547</v>
       </c>
+      <c r="BB125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC125" t="n">
+        <v>18.47423386573792</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -50749,6 +52605,14 @@
       <c r="BA126" t="n">
         <v>66.9044942855835</v>
       </c>
+      <c r="BB126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC126" t="n">
+        <v>38.12558794021606</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -50964,6 +52828,14 @@
       <c r="BA127" t="n">
         <v>23.95456314086914</v>
       </c>
+      <c r="BB127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC127" t="n">
+        <v>32.33901524543762</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -51179,6 +53051,14 @@
       <c r="BA128" t="n">
         <v>6629.884414196014</v>
       </c>
+      <c r="BB128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC128" t="n">
+        <v>31.20240807533264</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -51392,6 +53272,14 @@
       <c r="BA129" t="n">
         <v>292.4498031139374</v>
       </c>
+      <c r="BB129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC129" t="n">
+        <v>61.30613660812378</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -51607,6 +53495,14 @@
       <c r="BA130" t="n">
         <v>2724.467728853226</v>
       </c>
+      <c r="BB130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC130" t="n">
+        <v>422.9511065483093</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -51822,6 +53718,14 @@
       <c r="BA131" t="n">
         <v>144.7551941871643</v>
       </c>
+      <c r="BB131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC131" t="n">
+        <v>69.28211760520935</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -52033,6 +53937,14 @@
       <c r="BA132" t="n">
         <v>18.06747961044312</v>
       </c>
+      <c r="BB132" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC132" t="n">
+        <v>16.17376828193665</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -52246,6 +54158,14 @@
       <c r="BA133" t="n">
         <v>18.06773829460144</v>
       </c>
+      <c r="BB133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC133" t="n">
+        <v>18.47468829154968</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -52455,6 +54375,12 @@
         </is>
       </c>
       <c r="BA134" t="inlineStr"/>
+      <c r="BB134" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -52664,6 +54590,12 @@
         </is>
       </c>
       <c r="BA135" t="inlineStr"/>
+      <c r="BB135" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BC135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -52875,6 +54807,14 @@
       <c r="BA136" t="n">
         <v>39.21018958091736</v>
       </c>
+      <c r="BB136" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC136" t="n">
+        <v>38.1260769367218</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -53086,6 +55026,14 @@
       <c r="BA137" t="n">
         <v>23.95519804954529</v>
       </c>
+      <c r="BB137" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC137" t="n">
+        <v>33.52422571182251</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -53297,6 +55245,14 @@
       <c r="BA138" t="n">
         <v>6629.884876489639</v>
       </c>
+      <c r="BB138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC138" t="n">
+        <v>31.2029857635498</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -53502,6 +55458,14 @@
       <c r="BA139" t="n">
         <v>7531.465682268143</v>
       </c>
+      <c r="BB139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC139" t="n">
+        <v>62.4418032169342</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -53717,6 +55681,14 @@
       <c r="BA140" t="n">
         <v>2724.468281030655</v>
       </c>
+      <c r="BB140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC140" t="n">
+        <v>422.9515810012817</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -53927,6 +55899,14 @@
       </c>
       <c r="BA141" t="n">
         <v>144.7556843757629</v>
+      </c>
+      <c r="BB141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BC141" t="n">
+        <v>69.28296208381653</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB141"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +573,11 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -660,7 +665,10 @@
         <v>0.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.045454545454545</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.021739130434783</v>
       </c>
     </row>
     <row r="3">
@@ -748,6 +756,9 @@
       <c r="AB3" t="n">
         <v>0.5</v>
       </c>
+      <c r="AC3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -834,6 +845,9 @@
       <c r="AB4" t="n">
         <v>0.5</v>
       </c>
+      <c r="AC4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -920,6 +934,9 @@
       <c r="AB5" t="n">
         <v>0.5</v>
       </c>
+      <c r="AC5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1004,6 +1021,9 @@
         <v>-1</v>
       </c>
       <c r="AB6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC6" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1090,6 +1110,9 @@
         <v>-1</v>
       </c>
       <c r="AB7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC7" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1176,6 +1199,9 @@
         <v>-1</v>
       </c>
       <c r="AB8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1262,6 +1288,9 @@
         <v>-1</v>
       </c>
       <c r="AB9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC9" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1348,6 +1377,9 @@
         <v>-1</v>
       </c>
       <c r="AB10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,6 +1466,9 @@
         <v>-1</v>
       </c>
       <c r="AB11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1520,7 +1555,10 @@
         <v>0.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.136363636363636</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.108695652173913</v>
       </c>
     </row>
     <row r="13">
@@ -1608,6 +1646,9 @@
       <c r="AB13" t="n">
         <v>0.5</v>
       </c>
+      <c r="AC13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1692,7 +1733,10 @@
         <v>0.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.5434782608695652</v>
       </c>
     </row>
     <row r="15">
@@ -1778,7 +1822,10 @@
         <v>0.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.8181818181818182</v>
+        <v>3.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.9347826086956522</v>
       </c>
     </row>
     <row r="16">
@@ -1864,6 +1911,9 @@
         <v>-1</v>
       </c>
       <c r="AB16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC16" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1950,6 +2000,9 @@
         <v>-1</v>
       </c>
       <c r="AB17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC17" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2036,6 +2089,9 @@
         <v>-1</v>
       </c>
       <c r="AB18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2122,6 +2178,9 @@
         <v>-1</v>
       </c>
       <c r="AB19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC19" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -2208,6 +2267,9 @@
         <v>-1</v>
       </c>
       <c r="AB20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2294,6 +2356,9 @@
         <v>-1</v>
       </c>
       <c r="AB21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2380,7 +2445,10 @@
         <v>8.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.313636363636363</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.278260869565217</v>
       </c>
     </row>
     <row r="23">
@@ -2466,7 +2534,10 @@
         <v>0.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.7608695652173914</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2623,10 @@
         <v>1.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.8478260869565217</v>
       </c>
     </row>
     <row r="25">
@@ -2638,7 +2712,10 @@
         <v>0.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.454545454545455</v>
+        <v>3.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.543478260869565</v>
       </c>
     </row>
     <row r="26">
@@ -2724,6 +2801,9 @@
         <v>-1</v>
       </c>
       <c r="AB26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC26" t="n">
         <v>1.657894736842105</v>
       </c>
     </row>
@@ -2810,6 +2890,9 @@
         <v>-1</v>
       </c>
       <c r="AB27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC27" t="n">
         <v>0.7105263157894737</v>
       </c>
     </row>
@@ -2896,6 +2979,9 @@
         <v>-1</v>
       </c>
       <c r="AB28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,6 +3068,9 @@
         <v>-1</v>
       </c>
       <c r="AB29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC29" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3068,6 +3157,9 @@
         <v>-1</v>
       </c>
       <c r="AB30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3154,6 +3246,9 @@
         <v>-1</v>
       </c>
       <c r="AB31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC31" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -3240,7 +3335,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.8826086956521739</v>
       </c>
     </row>
     <row r="33">
@@ -3326,7 +3424,10 @@
         <v>0.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7173913043478261</v>
       </c>
     </row>
     <row r="34">
@@ -3412,7 +3513,10 @@
         <v>1.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.7608695652173914</v>
       </c>
     </row>
     <row r="35">
@@ -3498,7 +3602,10 @@
         <v>4.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.409090909090909</v>
+        <v>3.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="36">
@@ -3584,6 +3691,9 @@
         <v>-1</v>
       </c>
       <c r="AB36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC36" t="n">
         <v>1.815789473684211</v>
       </c>
     </row>
@@ -3670,6 +3780,9 @@
         <v>-1</v>
       </c>
       <c r="AB37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC37" t="n">
         <v>0.868421052631579</v>
       </c>
     </row>
@@ -3756,6 +3869,9 @@
         <v>-1</v>
       </c>
       <c r="AB38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3842,6 +3958,9 @@
         <v>-1</v>
       </c>
       <c r="AB39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC39" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3928,6 +4047,9 @@
         <v>-1</v>
       </c>
       <c r="AB40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4014,6 +4136,9 @@
         <v>-1</v>
       </c>
       <c r="AB41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC41" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -4100,7 +4225,10 @@
         <v>0.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.7727272727272727</v>
       </c>
     </row>
     <row r="43">
@@ -4188,6 +4316,9 @@
       <c r="AB43" t="n">
         <v>0.5</v>
       </c>
+      <c r="AC43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4272,7 +4403,10 @@
         <v>0.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="45">
@@ -4360,6 +4494,9 @@
       <c r="AB45" t="n">
         <v>0.5</v>
       </c>
+      <c r="AC45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4444,6 +4581,9 @@
         <v>-1</v>
       </c>
       <c r="AB46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC46" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4530,6 +4670,9 @@
         <v>-1</v>
       </c>
       <c r="AB47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC47" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4616,6 +4759,9 @@
         <v>-1</v>
       </c>
       <c r="AB48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4702,6 +4848,9 @@
         <v>-1</v>
       </c>
       <c r="AB49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC49" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4788,6 +4937,9 @@
         <v>-1</v>
       </c>
       <c r="AB50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4874,6 +5026,9 @@
         <v>-1</v>
       </c>
       <c r="AB51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC51" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -4960,7 +5115,10 @@
         <v>0.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.9190476190476191</v>
       </c>
     </row>
     <row r="53">
@@ -5046,7 +5204,10 @@
         <v>0.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.5476190476190477</v>
       </c>
     </row>
     <row r="54">
@@ -5132,7 +5293,10 @@
         <v>0.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="55">
@@ -5218,7 +5382,10 @@
         <v>0.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.5476190476190477</v>
       </c>
     </row>
     <row r="56">
@@ -5304,6 +5471,9 @@
         <v>-1</v>
       </c>
       <c r="AB56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC56" t="n">
         <v>0.7352941176470589</v>
       </c>
     </row>
@@ -5390,6 +5560,9 @@
         <v>-1</v>
       </c>
       <c r="AB57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC57" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -5476,6 +5649,9 @@
         <v>-1</v>
       </c>
       <c r="AB58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5562,6 +5738,9 @@
         <v>-1</v>
       </c>
       <c r="AB59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5648,6 +5827,9 @@
         <v>-1</v>
       </c>
       <c r="AB60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5734,6 +5916,9 @@
         <v>-1</v>
       </c>
       <c r="AB61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC61" t="n">
         <v>3.25</v>
       </c>
     </row>
@@ -5820,7 +6005,10 @@
         <v>0.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.69</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.633333333333333</v>
       </c>
     </row>
     <row r="63">
@@ -5906,7 +6094,10 @@
         <v>0.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>1.65</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.595238095238095</v>
       </c>
     </row>
     <row r="64">
@@ -5992,7 +6183,10 @@
         <v>0.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.071428571428571</v>
       </c>
     </row>
     <row r="65">
@@ -6078,7 +6272,10 @@
         <v>0.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.642857142857143</v>
       </c>
     </row>
     <row r="66">
@@ -6164,6 +6361,9 @@
         <v>4.5</v>
       </c>
       <c r="AB66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC66" t="n">
         <v>1.444444444444444</v>
       </c>
     </row>
@@ -6250,6 +6450,9 @@
         <v>0.5</v>
       </c>
       <c r="AB67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC67" t="n">
         <v>0.6666666666666666</v>
       </c>
     </row>
@@ -6336,6 +6539,9 @@
         <v>-1</v>
       </c>
       <c r="AB68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6422,6 +6628,9 @@
         <v>-1</v>
       </c>
       <c r="AB69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC69" t="n">
         <v>4.75</v>
       </c>
     </row>
@@ -6508,6 +6717,9 @@
         <v>-1</v>
       </c>
       <c r="AB70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6594,6 +6806,9 @@
         <v>-1</v>
       </c>
       <c r="AB71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC71" t="n">
         <v>6.25</v>
       </c>
     </row>
@@ -6680,7 +6895,10 @@
         <v>0.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>1.888888888888889</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.815789473684211</v>
       </c>
     </row>
     <row r="73">
@@ -6766,7 +6984,10 @@
         <v>0.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.214285714285714</v>
       </c>
     </row>
     <row r="74">
@@ -6852,7 +7073,10 @@
         <v>0.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>1.59</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.538095238095238</v>
       </c>
     </row>
     <row r="75">
@@ -6938,7 +7162,10 @@
         <v>0.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.738095238095238</v>
       </c>
     </row>
     <row r="76">
@@ -7024,6 +7251,9 @@
         <v>4.5</v>
       </c>
       <c r="AB76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7110,6 +7340,9 @@
         <v>0.5</v>
       </c>
       <c r="AB77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC77" t="n">
         <v>1.222222222222222</v>
       </c>
     </row>
@@ -7196,6 +7429,9 @@
         <v>-1</v>
       </c>
       <c r="AB78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7282,6 +7518,9 @@
         <v>-1</v>
       </c>
       <c r="AB79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC79" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7368,6 +7607,9 @@
         <v>-1</v>
       </c>
       <c r="AB80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,6 +7696,9 @@
         <v>-1</v>
       </c>
       <c r="AB81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7540,7 +7785,10 @@
         <v>0.5</v>
       </c>
       <c r="AB82" t="n">
-        <v>3.447368421052631</v>
+        <v>2.5</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="83">
@@ -7626,7 +7874,10 @@
         <v>0.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.976190476190476</v>
       </c>
     </row>
     <row r="84">
@@ -7712,7 +7963,10 @@
         <v>0.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>1.79</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.728571428571428</v>
       </c>
     </row>
     <row r="85">
@@ -7798,7 +8052,10 @@
         <v>4.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.928571428571429</v>
       </c>
     </row>
     <row r="86">
@@ -7884,6 +8141,9 @@
         <v>4.5</v>
       </c>
       <c r="AB86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC86" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7970,6 +8230,9 @@
         <v>0.5</v>
       </c>
       <c r="AB87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC87" t="n">
         <v>1.277777777777778</v>
       </c>
     </row>
@@ -8056,6 +8319,9 @@
         <v>-1</v>
       </c>
       <c r="AB88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8142,6 +8408,9 @@
         <v>-1</v>
       </c>
       <c r="AB89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -8228,6 +8497,9 @@
         <v>-1</v>
       </c>
       <c r="AB90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8314,6 +8586,9 @@
         <v>-1</v>
       </c>
       <c r="AB91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC91" t="n">
         <v>6.45</v>
       </c>
     </row>
@@ -8400,7 +8675,10 @@
         <v>0.5</v>
       </c>
       <c r="AB92" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2.071428571428572</v>
       </c>
     </row>
     <row r="93">
@@ -8486,7 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>1.35</v>
+        <v>2.5</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.404761904761905</v>
       </c>
     </row>
     <row r="94">
@@ -8572,7 +8853,10 @@
         <v>0.5</v>
       </c>
       <c r="AB94" t="n">
-        <v>1.95</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.880952380952381</v>
       </c>
     </row>
     <row r="95">
@@ -8658,7 +8942,10 @@
         <v>0.5</v>
       </c>
       <c r="AB95" t="n">
-        <v>2.45</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>2.357142857142857</v>
       </c>
     </row>
     <row r="96">
@@ -8744,6 +9031,9 @@
         <v>4.5</v>
       </c>
       <c r="AB96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC96" t="n">
         <v>1.555555555555556</v>
       </c>
     </row>
@@ -8830,6 +9120,9 @@
         <v>0.5</v>
       </c>
       <c r="AB97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC97" t="n">
         <v>1.222222222222222</v>
       </c>
     </row>
@@ -8916,6 +9209,9 @@
         <v>-1</v>
       </c>
       <c r="AB98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9002,6 +9298,9 @@
         <v>-1</v>
       </c>
       <c r="AB99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC99" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -9088,6 +9387,9 @@
         <v>-1</v>
       </c>
       <c r="AB100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9174,6 +9476,9 @@
         <v>-1</v>
       </c>
       <c r="AB101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC101" t="n">
         <v>6.7</v>
       </c>
     </row>
@@ -9260,7 +9565,10 @@
         <v>0.5</v>
       </c>
       <c r="AB102" t="n">
-        <v>2.490909090909091</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2.404347826086956</v>
       </c>
     </row>
     <row r="103">
@@ -9346,7 +9654,10 @@
         <v>0.5</v>
       </c>
       <c r="AB103" t="n">
-        <v>1.772727272727273</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.717391304347826</v>
       </c>
     </row>
     <row r="104">
@@ -9432,7 +9743,10 @@
         <v>0.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>2.05</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.976190476190476</v>
       </c>
     </row>
     <row r="105">
@@ -9518,7 +9832,10 @@
         <v>0.5</v>
       </c>
       <c r="AB105" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.41304347826087</v>
       </c>
     </row>
     <row r="106">
@@ -9604,6 +9921,9 @@
         <v>0.5</v>
       </c>
       <c r="AB106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC106" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -9690,6 +10010,9 @@
         <v>0.5</v>
       </c>
       <c r="AB107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC107" t="n">
         <v>3.24</v>
       </c>
     </row>
@@ -9776,7 +10099,10 @@
         <v>0.5</v>
       </c>
       <c r="AB108" t="n">
-        <v>4.222727272727273</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>4.060869565217391</v>
       </c>
     </row>
     <row r="109">
@@ -9862,7 +10188,10 @@
         <v>0.5</v>
       </c>
       <c r="AB109" t="n">
-        <v>4.524</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>4.369230769230769</v>
       </c>
     </row>
     <row r="110">
@@ -9948,7 +10277,10 @@
         <v>5.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>4.642857142857143</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>4.366666666666666</v>
       </c>
     </row>
     <row r="111">
@@ -10034,7 +10366,10 @@
         <v>6.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>5.692</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>5.792307692307693</v>
       </c>
     </row>
     <row r="112">
@@ -10120,7 +10455,10 @@
         <v>2.5</v>
       </c>
       <c r="AB112" t="n">
-        <v>4.309090909090909</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>4.143478260869565</v>
       </c>
     </row>
     <row r="113">
@@ -10206,7 +10544,10 @@
         <v>2.5</v>
       </c>
       <c r="AB113" t="n">
-        <v>4.114285714285715</v>
+        <v>1.5</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>3.995454545454546</v>
       </c>
     </row>
     <row r="114">
@@ -10292,7 +10633,10 @@
         <v>7.5</v>
       </c>
       <c r="AB114" t="n">
-        <v>5.385714285714285</v>
+        <v>2.5</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>5.254545454545454</v>
       </c>
     </row>
     <row r="115">
@@ -10378,7 +10722,10 @@
         <v>1.5</v>
       </c>
       <c r="AB115" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>4.134782608695652</v>
       </c>
     </row>
     <row r="116">
@@ -10464,7 +10811,10 @@
         <v>6.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>4.272727272727272</v>
+        <v>1.5</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>4.152173913043478</v>
       </c>
     </row>
     <row r="117">
@@ -10550,7 +10900,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AB117" t="n">
-        <v>5.84</v>
+        <v>1.5</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>5.633333333333333</v>
       </c>
     </row>
     <row r="118">
@@ -10636,7 +10989,10 @@
         <v>5.5</v>
       </c>
       <c r="AB118" t="n">
-        <v>6.380952380952381</v>
+        <v>1.5</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>6.159090909090909</v>
       </c>
     </row>
     <row r="119">
@@ -10722,7 +11078,10 @@
         <v>7.5</v>
       </c>
       <c r="AB119" t="n">
-        <v>6.133333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>5.907999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -10808,7 +11167,10 @@
         <v>5.5</v>
       </c>
       <c r="AB120" t="n">
-        <v>5.642857142857143</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="121">
@@ -10894,7 +11256,10 @@
         <v>6.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>7.4375</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>7.472</v>
       </c>
     </row>
     <row r="122">
@@ -10980,7 +11345,10 @@
         <v>1.5</v>
       </c>
       <c r="AB122" t="n">
-        <v>6.981818181818183</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>6.700000000000001</v>
       </c>
     </row>
     <row r="123">
@@ -11066,7 +11434,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AB123" t="n">
-        <v>7.825000000000003</v>
+        <v>8.6</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>7.861904761904764</v>
       </c>
     </row>
     <row r="124">
@@ -11152,7 +11523,10 @@
         <v>7.5</v>
       </c>
       <c r="AB124" t="n">
-        <v>7.526315789473684</v>
+        <v>2.5</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>7.275</v>
       </c>
     </row>
     <row r="125">
@@ -11238,7 +11612,10 @@
         <v>6.5</v>
       </c>
       <c r="AB125" t="n">
-        <v>6.472727272727273</v>
+        <v>2.5</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="126">
@@ -11324,7 +11701,10 @@
         <v>6.5</v>
       </c>
       <c r="AB126" t="n">
-        <v>6.452380952380953</v>
+        <v>1.5</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>6.227272727272728</v>
       </c>
     </row>
     <row r="127">
@@ -11410,7 +11790,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AB127" t="n">
-        <v>7.557894736842107</v>
+        <v>1.5</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>7.255000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -11496,7 +11879,10 @@
         <v>5.5</v>
       </c>
       <c r="AB128" t="n">
-        <v>6.23</v>
+        <v>6.5</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>6.242857142857144</v>
       </c>
     </row>
     <row r="129">
@@ -11582,7 +11968,10 @@
         <v>7.5</v>
       </c>
       <c r="AB129" t="n">
-        <v>6.273076923076924</v>
+        <v>6.5</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>6.281481481481483</v>
       </c>
     </row>
     <row r="130">
@@ -11668,7 +12057,10 @@
         <v>2.5</v>
       </c>
       <c r="AB130" t="n">
-        <v>6.235714285714286</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>6.373333333333333</v>
       </c>
     </row>
     <row r="131">
@@ -11754,7 +12146,10 @@
         <v>8.6</v>
       </c>
       <c r="AB131" t="n">
-        <v>7.341666666666666</v>
+        <v>5.5</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>7.268</v>
       </c>
     </row>
     <row r="132">
@@ -11840,7 +12235,10 @@
         <v>-1</v>
       </c>
       <c r="AB132" t="n">
-        <v>6.369999999999999</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>6.09047619047619</v>
       </c>
     </row>
     <row r="133">
@@ -11926,7 +12324,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AB133" t="n">
-        <v>6.13</v>
+        <v>8.6</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>6.247619047619047</v>
       </c>
     </row>
     <row r="134">
@@ -12012,7 +12413,10 @@
         <v>3.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>3.855</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>3.695238095238095</v>
       </c>
     </row>
     <row r="135">
@@ -12098,7 +12502,10 @@
         <v>0.5</v>
       </c>
       <c r="AB135" t="n">
-        <v>5.385714285714285</v>
+        <v>2.5</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>5.254545454545454</v>
       </c>
     </row>
     <row r="136">
@@ -12184,7 +12591,10 @@
         <v>0.5</v>
       </c>
       <c r="AB136" t="n">
-        <v>5.85</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>5.595238095238095</v>
       </c>
     </row>
     <row r="137">
@@ -12270,7 +12680,10 @@
         <v>0.5</v>
       </c>
       <c r="AB137" t="n">
-        <v>5.457142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>5.231818181818182</v>
       </c>
     </row>
     <row r="138">
@@ -12356,7 +12769,10 @@
         <v>3.5</v>
       </c>
       <c r="AB138" t="n">
-        <v>4.785714285714286</v>
+        <v>6.5</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>4.863636363636363</v>
       </c>
     </row>
     <row r="139">
@@ -12442,7 +12858,10 @@
         <v>3.5</v>
       </c>
       <c r="AB139" t="n">
-        <v>4.72</v>
+        <v>6.5</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>4.788461538461538</v>
       </c>
     </row>
     <row r="140">
@@ -12528,7 +12947,10 @@
         <v>2.5</v>
       </c>
       <c r="AB140" t="n">
-        <v>5.649999999999999</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>5.826666666666666</v>
       </c>
     </row>
     <row r="141">
@@ -12614,7 +13036,10 @@
         <v>8.6</v>
       </c>
       <c r="AB141" t="n">
-        <v>5.864</v>
+        <v>5.5</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>5.85</v>
       </c>
     </row>
   </sheetData>
@@ -12628,7 +13053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA141"/>
+  <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12772,6 +13197,11 @@
           <t>2023-08-14</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12895,6 +13325,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -13022,6 +13457,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -13149,6 +13589,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -13276,6 +13721,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -13397,6 +13847,9 @@
       <c r="AA6" t="n">
         <v>0.4004690647125244</v>
       </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -13518,6 +13971,9 @@
       <c r="AA7" t="n">
         <v>0.4007711410522461</v>
       </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -13601,6 +14057,9 @@
       <c r="AA8" t="n">
         <v>0.4010140895843506</v>
       </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -13684,6 +14143,9 @@
       <c r="AA9" t="n">
         <v>0.4012451171875</v>
       </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -13767,6 +14229,9 @@
       <c r="AA10" t="n">
         <v>0.4014859199523926</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -13850,6 +14315,9 @@
       <c r="AA11" t="n">
         <v>0.4017119407653809</v>
       </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -13969,6 +14437,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -14096,6 +14569,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -14221,6 +14699,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -14342,6 +14825,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB15" t="n">
+        <v>1634.089293003082</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -14463,6 +14949,9 @@
       <c r="AA16" t="n">
         <v>0.4020397663116455</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -14584,6 +15073,9 @@
       <c r="AA17" t="n">
         <v>0.4022707939147949</v>
       </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -14667,6 +15159,9 @@
       <c r="AA18" t="n">
         <v>0.4025065898895264</v>
       </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -14750,6 +15245,9 @@
       <c r="AA19" t="n">
         <v>0.4027285575866699</v>
       </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -14833,6 +15331,9 @@
       <c r="AA20" t="n">
         <v>0.4029481410980225</v>
       </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -14916,6 +15417,9 @@
       <c r="AA21" t="n">
         <v>0.4031715393066406</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -15035,6 +15539,11 @@
       <c r="AA22" t="n">
         <v>14.55303621292114</v>
       </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -15156,6 +15665,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -15275,6 +15789,11 @@
       <c r="AA24" t="n">
         <v>6626.635235309601</v>
       </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -15390,6 +15909,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB25" t="n">
+        <v>1391.694620609283</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -15499,6 +16021,9 @@
       <c r="AA26" t="n">
         <v>0.4034984111785889</v>
       </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -15616,6 +16141,9 @@
       <c r="AA27" t="n">
         <v>0.403721809387207</v>
       </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -15699,6 +16227,9 @@
       <c r="AA28" t="n">
         <v>0.4039404392242432</v>
       </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -15782,6 +16313,9 @@
       <c r="AA29" t="n">
         <v>0.404179573059082</v>
       </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -15865,6 +16399,9 @@
       <c r="AA30" t="n">
         <v>0.4044129848480225</v>
       </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -15948,6 +16485,9 @@
       <c r="AA31" t="n">
         <v>0.404630184173584</v>
       </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -16071,6 +16611,11 @@
       <c r="AA32" t="n">
         <v>15.74922466278076</v>
       </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -16192,6 +16737,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -16315,6 +16865,11 @@
       <c r="AA34" t="n">
         <v>6626.635793447495</v>
       </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -16432,6 +16987,9 @@
       <c r="AA35" t="n">
         <v>574.4148335456848</v>
       </c>
+      <c r="AB35" t="n">
+        <v>1391.695150375366</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -16539,6 +17097,9 @@
       <c r="AA36" t="n">
         <v>0.4049441814422607</v>
       </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -16654,6 +17215,9 @@
       <c r="AA37" t="n">
         <v>0.4051690101623535</v>
       </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -16737,6 +17301,9 @@
       <c r="AA38" t="n">
         <v>0.4054009914398193</v>
       </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -16820,6 +17387,9 @@
       <c r="AA39" t="n">
         <v>0.4056217670440674</v>
       </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -16903,6 +17473,9 @@
       <c r="AA40" t="n">
         <v>0.4058842658996582</v>
       </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -16986,6 +17559,9 @@
       <c r="AA41" t="n">
         <v>0.4061081409454346</v>
       </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -17109,6 +17685,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -17234,6 +17815,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -17357,6 +17943,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -17482,6 +18073,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -17601,6 +18197,9 @@
       <c r="AA46" t="n">
         <v>0.4065005779266357</v>
       </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -17720,6 +18319,9 @@
       <c r="AA47" t="n">
         <v>0.4067368507385254</v>
       </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -17803,6 +18405,9 @@
       <c r="AA48" t="n">
         <v>0.4069585800170898</v>
       </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -17894,6 +18499,9 @@
       <c r="AA49" t="n">
         <v>0.4071791172027588</v>
       </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -17977,6 +18585,9 @@
       <c r="AA50" t="n">
         <v>0.4074156284332275</v>
       </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -18066,6 +18677,9 @@
       <c r="AA51" t="n">
         <v>0.4076681137084961</v>
       </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -18185,6 +18799,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -18306,6 +18925,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -18427,6 +19051,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -18548,6 +19177,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -18663,6 +19297,9 @@
       <c r="AA56" t="n">
         <v>0.407984733581543</v>
       </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -18780,6 +19417,9 @@
       <c r="AA57" t="n">
         <v>0.4082357883453369</v>
       </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -18863,6 +19503,9 @@
       <c r="AA58" t="n">
         <v>0.4084720611572266</v>
       </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -18950,6 +19593,9 @@
       <c r="AA59" t="n">
         <v>0.4086930751800537</v>
       </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -19033,6 +19679,9 @@
       <c r="AA60" t="n">
         <v>0.4089109897613525</v>
       </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -19118,6 +19767,9 @@
       <c r="AA61" t="n">
         <v>0.4091281890869141</v>
       </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -19231,6 +19883,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -19344,6 +20001,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -19463,6 +20125,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -19574,6 +20241,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -19685,6 +20357,9 @@
       <c r="AA66" t="n">
         <v>453.1293711662292</v>
       </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -19798,6 +20473,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -19881,6 +20559,9 @@
       <c r="AA68" t="n">
         <v>0.4094955921173096</v>
       </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -19964,6 +20645,9 @@
       <c r="AA69" t="n">
         <v>0.4097146987915039</v>
       </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -20047,6 +20731,9 @@
       <c r="AA70" t="n">
         <v>0.4099314212799072</v>
       </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -20130,6 +20817,9 @@
       <c r="AA71" t="n">
         <v>0.4101510047912598</v>
       </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -20235,6 +20925,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -20342,6 +21037,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -20457,6 +21157,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -20566,6 +21271,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -20677,6 +21387,9 @@
       <c r="AA76" t="n">
         <v>453.1300458908081</v>
       </c>
+      <c r="AB76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -20790,6 +21503,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -20873,6 +21589,9 @@
       <c r="AA78" t="n">
         <v>0.4105226993560791</v>
       </c>
+      <c r="AB78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -20956,6 +21675,9 @@
       <c r="AA79" t="n">
         <v>0.4107518196105957</v>
       </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -21039,6 +21761,9 @@
       <c r="AA80" t="n">
         <v>0.4110291004180908</v>
       </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -21122,6 +21847,9 @@
       <c r="AA81" t="n">
         <v>0.4112539291381836</v>
       </c>
+      <c r="AB81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -21219,6 +21947,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB82" t="n">
+        <v>2717.111196756363</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -21322,6 +22053,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB83" t="n">
+        <v>2717.111611366272</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -21433,6 +22167,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -21538,6 +22277,11 @@
       <c r="AA85" t="n">
         <v>574.4162728786469</v>
       </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -21647,6 +22391,9 @@
       <c r="AA86" t="n">
         <v>483.441210269928</v>
       </c>
+      <c r="AB86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -21758,6 +22505,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -21841,6 +22591,9 @@
       <c r="AA88" t="n">
         <v>0.4116249084472656</v>
       </c>
+      <c r="AB88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -21924,6 +22677,9 @@
       <c r="AA89" t="n">
         <v>0.4118494987487793</v>
       </c>
+      <c r="AB89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -22007,6 +22763,9 @@
       <c r="AA90" t="n">
         <v>0.41206955909729</v>
       </c>
+      <c r="AB90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -22090,6 +22849,9 @@
       <c r="AA91" t="n">
         <v>0.4123268127441406</v>
       </c>
+      <c r="AB91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -22195,6 +22957,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB92" t="n">
+        <v>2717.112015008926</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -22306,6 +23071,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB93" t="n">
+        <v>2717.112334012985</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -22413,6 +23181,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -22514,6 +23287,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -22621,6 +23399,9 @@
       <c r="AA96" t="n">
         <v>483.4421005249023</v>
       </c>
+      <c r="AB96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -22732,6 +23513,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -22815,6 +23599,9 @@
       <c r="AA98" t="n">
         <v>0.4126811027526855</v>
       </c>
+      <c r="AB98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -22898,6 +23685,9 @@
       <c r="AA99" t="n">
         <v>0.4129047393798828</v>
       </c>
+      <c r="AB99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -22981,6 +23771,9 @@
       <c r="AA100" t="n">
         <v>0.4131240844726562</v>
       </c>
+      <c r="AB100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -23064,6 +23857,9 @@
       <c r="AA101" t="n">
         <v>0.4133563041687012</v>
       </c>
+      <c r="AB101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -23173,6 +23969,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -23280,6 +24081,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -23383,6 +24189,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -23482,6 +24293,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -23589,6 +24405,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -23690,6 +24509,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -23787,6 +24609,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -23876,6 +24703,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -23965,6 +24797,11 @@
       <c r="AA110" t="n">
         <v>192.3819510936737</v>
       </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -24056,6 +24893,9 @@
       <c r="AA111" t="n">
         <v>75.94068360328674</v>
       </c>
+      <c r="AB111" t="n">
+        <v>17.57513022422791</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -24151,6 +24991,11 @@
       <c r="AA112" t="n">
         <v>3021.881390333176</v>
       </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -24242,6 +25087,9 @@
       <c r="AA113" t="n">
         <v>3021.881950616837</v>
       </c>
+      <c r="AB113" t="n">
+        <v>9926.877980470657</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -24333,6 +25181,9 @@
       <c r="AA114" t="n">
         <v>40.12654948234558</v>
       </c>
+      <c r="AB114" t="n">
+        <v>2717.112966060638</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -24422,6 +25273,11 @@
       <c r="AA115" t="n">
         <v>5425.101967573166</v>
       </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -24515,6 +25371,9 @@
       <c r="AA116" t="n">
         <v>115.1502258777618</v>
       </c>
+      <c r="AB116" t="n">
+        <v>4820.306880712509</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -24600,6 +25459,9 @@
       <c r="AA117" t="n">
         <v>18.04906988143921</v>
       </c>
+      <c r="AB117" t="n">
+        <v>4820.307310581207</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -24683,6 +25545,9 @@
       <c r="AA118" t="n">
         <v>159.8706362247467</v>
       </c>
+      <c r="AB118" t="n">
+        <v>8725.346253633499</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -24766,6 +25631,11 @@
       <c r="AA119" t="n">
         <v>30.08470606803894</v>
       </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -24851,6 +25721,11 @@
       <c r="AA120" t="n">
         <v>192.3824262619019</v>
       </c>
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -24934,6 +25809,9 @@
       <c r="AA121" t="n">
         <v>75.94113612174988</v>
       </c>
+      <c r="AB121" t="n">
+        <v>17.57583785057068</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -25019,6 +25897,11 @@
       <c r="AA122" t="n">
         <v>3923.106054067612</v>
       </c>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -25102,6 +25985,9 @@
       <c r="AA123" t="n">
         <v>15.75093054771423</v>
       </c>
+      <c r="AB123" t="n">
+        <v>14.11087369918823</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -25185,6 +26071,9 @@
       <c r="AA124" t="n">
         <v>40.12707042694092</v>
       </c>
+      <c r="AB124" t="n">
+        <v>2717.113424301147</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -25270,6 +26159,9 @@
       <c r="AA125" t="n">
         <v>60.94409132003784</v>
       </c>
+      <c r="AB125" t="n">
+        <v>2717.113771438599</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -25355,6 +26247,9 @@
       <c r="AA126" t="n">
         <v>115.150675535202</v>
       </c>
+      <c r="AB126" t="n">
+        <v>4820.307750225067</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -25438,6 +26333,9 @@
       <c r="AA127" t="n">
         <v>18.04969668388367</v>
       </c>
+      <c r="AB127" t="n">
+        <v>4820.308057785034</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -25521,6 +26419,9 @@
       <c r="AA128" t="n">
         <v>159.8710415363312</v>
       </c>
+      <c r="AB128" t="n">
+        <v>101.6543424129486</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -25606,6 +26507,9 @@
       <c r="AA129" t="n">
         <v>30.08519005775452</v>
       </c>
+      <c r="AB129" t="n">
+        <v>77.48110437393188</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -25689,6 +26593,9 @@
       <c r="AA130" t="n">
         <v>2119.671706199646</v>
       </c>
+      <c r="AB130" t="n">
+        <v>26.78270888328552</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -25772,6 +26679,9 @@
       <c r="AA131" t="n">
         <v>14.55520033836365</v>
       </c>
+      <c r="AB131" t="n">
+        <v>267.8071165084839</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -25859,6 +26769,11 @@
       <c r="AA132" t="n">
         <v>0.4142112731933594</v>
       </c>
+      <c r="AB132" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -25944,6 +26859,9 @@
       <c r="AA133" t="n">
         <v>15.75137042999268</v>
       </c>
+      <c r="AB133" t="n">
+        <v>14.11166429519653</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -26035,6 +26953,11 @@
       <c r="AA134" t="n">
         <v>879.4308478832245</v>
       </c>
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -26126,6 +27049,9 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB135" t="n">
+        <v>2717.114238262177</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -26213,6 +27139,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB136" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -26300,6 +27231,11 @@
           <t>inf</t>
         </is>
       </c>
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -26387,6 +27323,9 @@
       <c r="AA138" t="n">
         <v>940.0502202510834</v>
       </c>
+      <c r="AB138" t="n">
+        <v>101.6550810337067</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -26480,6 +27419,9 @@
       <c r="AA139" t="n">
         <v>940.0506021976471</v>
       </c>
+      <c r="AB139" t="n">
+        <v>77.48172116279602</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -26563,6 +27505,9 @@
       <c r="AA140" t="n">
         <v>2119.672210931778</v>
       </c>
+      <c r="AB140" t="n">
+        <v>26.78330588340759</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -26649,6 +27594,9 @@
       </c>
       <c r="AA141" t="n">
         <v>14.55580353736877</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>267.807639837265</v>
       </c>
     </row>
   </sheetData>
@@ -26662,7 +27610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC141"/>
+  <dimension ref="A1:BE141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26946,6 +27894,16 @@
           <t>2023-08-14</t>
         </is>
       </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>statues</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -27129,6 +28087,12 @@
         </is>
       </c>
       <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -27308,6 +28272,12 @@
         </is>
       </c>
       <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -27487,6 +28457,12 @@
         </is>
       </c>
       <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -27666,6 +28642,12 @@
         </is>
       </c>
       <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -27851,6 +28833,14 @@
       <c r="BC6" t="n">
         <v>0.4004690647125244</v>
       </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -28036,6 +29026,14 @@
       <c r="BC7" t="n">
         <v>0.4007711410522461</v>
       </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -28259,6 +29257,14 @@
       <c r="BC8" t="n">
         <v>0.4010140895843506</v>
       </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -28482,6 +29488,14 @@
       <c r="BC9" t="n">
         <v>0.4012451171875</v>
       </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -28705,6 +29719,14 @@
       <c r="BC10" t="n">
         <v>0.4014859199523926</v>
       </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -28928,6 +29950,14 @@
       <c r="BC11" t="n">
         <v>0.4017119407653809</v>
       </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -29115,6 +30145,12 @@
         </is>
       </c>
       <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -29294,6 +30330,12 @@
         </is>
       </c>
       <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -29475,6 +30517,12 @@
         </is>
       </c>
       <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -29660,6 +30708,14 @@
         </is>
       </c>
       <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE15" t="n">
+        <v>1634.089293003082</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -29845,6 +30901,14 @@
       <c r="BC16" t="n">
         <v>0.4020397663116455</v>
       </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -30030,6 +31094,14 @@
       <c r="BC17" t="n">
         <v>0.4022707939147949</v>
       </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -30253,6 +31325,14 @@
       <c r="BC18" t="n">
         <v>0.4025065898895264</v>
       </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -30476,6 +31556,14 @@
       <c r="BC19" t="n">
         <v>0.4027285575866699</v>
       </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -30699,6 +31787,14 @@
       <c r="BC20" t="n">
         <v>0.4029481410980225</v>
       </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -30922,6 +32018,14 @@
       <c r="BC21" t="n">
         <v>0.4031715393066406</v>
       </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -31109,6 +32213,12 @@
       <c r="BC22" t="n">
         <v>14.55303621292114</v>
       </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -31294,6 +32404,12 @@
         </is>
       </c>
       <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -31481,6 +32597,12 @@
       <c r="BC24" t="n">
         <v>6626.635235309601</v>
       </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -31672,6 +32794,14 @@
         </is>
       </c>
       <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE25" t="n">
+        <v>1391.694620609283</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -31869,6 +32999,14 @@
       <c r="BC26" t="n">
         <v>0.4034984111785889</v>
       </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -32058,6 +33196,14 @@
       <c r="BC27" t="n">
         <v>0.403721809387207</v>
       </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -32281,6 +33427,14 @@
       <c r="BC28" t="n">
         <v>0.4039404392242432</v>
       </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -32504,6 +33658,14 @@
       <c r="BC29" t="n">
         <v>0.404179573059082</v>
       </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -32727,6 +33889,14 @@
       <c r="BC30" t="n">
         <v>0.4044129848480225</v>
       </c>
+      <c r="BD30" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -32950,6 +34120,14 @@
       <c r="BC31" t="n">
         <v>0.404630184173584</v>
       </c>
+      <c r="BD31" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -33133,6 +34311,12 @@
       <c r="BC32" t="n">
         <v>15.74922466278076</v>
       </c>
+      <c r="BD32" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -33318,6 +34502,12 @@
         </is>
       </c>
       <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -33501,6 +34691,12 @@
       <c r="BC34" t="n">
         <v>6626.635793447495</v>
       </c>
+      <c r="BD34" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -33690,6 +34886,14 @@
       <c r="BC35" t="n">
         <v>574.4148335456848</v>
       </c>
+      <c r="BD35" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE35" t="n">
+        <v>1391.695150375366</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -33889,6 +35093,14 @@
       <c r="BC36" t="n">
         <v>0.4049441814422607</v>
       </c>
+      <c r="BD36" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -34080,6 +35292,14 @@
       <c r="BC37" t="n">
         <v>0.4051690101623535</v>
       </c>
+      <c r="BD37" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -34303,6 +35523,14 @@
       <c r="BC38" t="n">
         <v>0.4054009914398193</v>
       </c>
+      <c r="BD38" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -34526,6 +35754,14 @@
       <c r="BC39" t="n">
         <v>0.4056217670440674</v>
       </c>
+      <c r="BD39" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -34749,6 +35985,14 @@
       <c r="BC40" t="n">
         <v>0.4058842658996582</v>
       </c>
+      <c r="BD40" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -34972,6 +36216,14 @@
       <c r="BC41" t="n">
         <v>0.4061081409454346</v>
       </c>
+      <c r="BD41" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -35155,6 +36407,12 @@
         </is>
       </c>
       <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -35336,6 +36594,12 @@
         </is>
       </c>
       <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -35519,6 +36783,12 @@
         </is>
       </c>
       <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -35700,6 +36970,12 @@
         </is>
       </c>
       <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -35887,6 +37163,14 @@
       <c r="BC46" t="n">
         <v>0.4065005779266357</v>
       </c>
+      <c r="BD46" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -36074,6 +37358,14 @@
       <c r="BC47" t="n">
         <v>0.4067368507385254</v>
       </c>
+      <c r="BD47" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -36297,6 +37589,14 @@
       <c r="BC48" t="n">
         <v>0.4069585800170898</v>
       </c>
+      <c r="BD48" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -36512,6 +37812,14 @@
       <c r="BC49" t="n">
         <v>0.4071791172027588</v>
       </c>
+      <c r="BD49" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -36735,6 +38043,14 @@
       <c r="BC50" t="n">
         <v>0.4074156284332275</v>
       </c>
+      <c r="BD50" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -36952,6 +38268,14 @@
       <c r="BC51" t="n">
         <v>0.4076681137084961</v>
       </c>
+      <c r="BD51" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -37139,6 +38463,12 @@
         </is>
       </c>
       <c r="BC52" t="inlineStr"/>
+      <c r="BD52" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -37324,6 +38654,12 @@
         </is>
       </c>
       <c r="BC53" t="inlineStr"/>
+      <c r="BD53" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -37509,6 +38845,12 @@
         </is>
       </c>
       <c r="BC54" t="inlineStr"/>
+      <c r="BD54" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -37694,6 +39036,12 @@
         </is>
       </c>
       <c r="BC55" t="inlineStr"/>
+      <c r="BD55" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -37885,6 +39233,14 @@
       <c r="BC56" t="n">
         <v>0.407984733581543</v>
       </c>
+      <c r="BD56" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -38074,6 +39430,14 @@
       <c r="BC57" t="n">
         <v>0.4082357883453369</v>
       </c>
+      <c r="BD57" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -38297,6 +39661,14 @@
       <c r="BC58" t="n">
         <v>0.4084720611572266</v>
       </c>
+      <c r="BD58" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -38516,6 +39888,14 @@
       <c r="BC59" t="n">
         <v>0.4086930751800537</v>
       </c>
+      <c r="BD59" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -38739,6 +40119,14 @@
       <c r="BC60" t="n">
         <v>0.4089109897613525</v>
       </c>
+      <c r="BD60" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -38960,6 +40348,14 @@
       <c r="BC61" t="n">
         <v>0.4091281890869141</v>
       </c>
+      <c r="BD61" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -39153,6 +40549,12 @@
         </is>
       </c>
       <c r="BC62" t="inlineStr"/>
+      <c r="BD62" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -39346,6 +40748,12 @@
         </is>
       </c>
       <c r="BC63" t="inlineStr"/>
+      <c r="BD63" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -39533,6 +40941,12 @@
         </is>
       </c>
       <c r="BC64" t="inlineStr"/>
+      <c r="BD64" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -39728,6 +41142,12 @@
         </is>
       </c>
       <c r="BC65" t="inlineStr"/>
+      <c r="BD65" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -39923,6 +41343,14 @@
       <c r="BC66" t="n">
         <v>453.1293711662292</v>
       </c>
+      <c r="BD66" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -40116,6 +41544,14 @@
         </is>
       </c>
       <c r="BC67" t="inlineStr"/>
+      <c r="BD67" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -40339,6 +41775,14 @@
       <c r="BC68" t="n">
         <v>0.4094955921173096</v>
       </c>
+      <c r="BD68" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -40562,6 +42006,14 @@
       <c r="BC69" t="n">
         <v>0.4097146987915039</v>
       </c>
+      <c r="BD69" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -40785,6 +42237,14 @@
       <c r="BC70" t="n">
         <v>0.4099314212799072</v>
       </c>
+      <c r="BD70" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -41008,6 +42468,14 @@
       <c r="BC71" t="n">
         <v>0.4101510047912598</v>
       </c>
+      <c r="BD71" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -41209,6 +42677,12 @@
         </is>
       </c>
       <c r="BC72" t="inlineStr"/>
+      <c r="BD72" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -41408,6 +42882,12 @@
         </is>
       </c>
       <c r="BC73" t="inlineStr"/>
+      <c r="BD73" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -41599,6 +43079,12 @@
         </is>
       </c>
       <c r="BC74" t="inlineStr"/>
+      <c r="BD74" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -41796,6 +43282,12 @@
         </is>
       </c>
       <c r="BC75" t="inlineStr"/>
+      <c r="BD75" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -41991,6 +43483,14 @@
       <c r="BC76" t="n">
         <v>453.1300458908081</v>
       </c>
+      <c r="BD76" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -42184,6 +43684,14 @@
         </is>
       </c>
       <c r="BC77" t="inlineStr"/>
+      <c r="BD77" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -42407,6 +43915,14 @@
       <c r="BC78" t="n">
         <v>0.4105226993560791</v>
       </c>
+      <c r="BD78" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -42630,6 +44146,14 @@
       <c r="BC79" t="n">
         <v>0.4107518196105957</v>
       </c>
+      <c r="BD79" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -42853,6 +44377,14 @@
       <c r="BC80" t="n">
         <v>0.4110291004180908</v>
       </c>
+      <c r="BD80" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -43076,6 +44608,14 @@
       <c r="BC81" t="n">
         <v>0.4112539291381836</v>
       </c>
+      <c r="BD81" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -43285,6 +44825,14 @@
         </is>
       </c>
       <c r="BC82" t="inlineStr"/>
+      <c r="BD82" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE82" t="n">
+        <v>2717.111196756363</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -43488,6 +45036,14 @@
         </is>
       </c>
       <c r="BC83" t="inlineStr"/>
+      <c r="BD83" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE83" t="n">
+        <v>2717.111611366272</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -43683,6 +45239,12 @@
         </is>
       </c>
       <c r="BC84" t="inlineStr"/>
+      <c r="BD84" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -43884,6 +45446,12 @@
       <c r="BC85" t="n">
         <v>574.4162728786469</v>
       </c>
+      <c r="BD85" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -44081,6 +45649,14 @@
       <c r="BC86" t="n">
         <v>483.441210269928</v>
       </c>
+      <c r="BD86" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -44276,6 +45852,14 @@
         </is>
       </c>
       <c r="BC87" t="inlineStr"/>
+      <c r="BD87" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -44499,6 +46083,14 @@
       <c r="BC88" t="n">
         <v>0.4116249084472656</v>
       </c>
+      <c r="BD88" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -44722,6 +46314,14 @@
       <c r="BC89" t="n">
         <v>0.4118494987487793</v>
       </c>
+      <c r="BD89" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -44945,6 +46545,14 @@
       <c r="BC90" t="n">
         <v>0.41206955909729</v>
       </c>
+      <c r="BD90" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -45168,6 +46776,14 @@
       <c r="BC91" t="n">
         <v>0.4123268127441406</v>
       </c>
+      <c r="BD91" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -45369,6 +46985,14 @@
         </is>
       </c>
       <c r="BC92" t="inlineStr"/>
+      <c r="BD92" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE92" t="n">
+        <v>2717.112015008926</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -45564,6 +47188,14 @@
         </is>
       </c>
       <c r="BC93" t="inlineStr"/>
+      <c r="BD93" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE93" t="n">
+        <v>2717.112334012985</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -45763,6 +47395,12 @@
         </is>
       </c>
       <c r="BC94" t="inlineStr"/>
+      <c r="BD94" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -45968,6 +47606,12 @@
         </is>
       </c>
       <c r="BC95" t="inlineStr"/>
+      <c r="BD95" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -46167,6 +47811,14 @@
       <c r="BC96" t="n">
         <v>483.4421005249023</v>
       </c>
+      <c r="BD96" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -46362,6 +48014,14 @@
         </is>
       </c>
       <c r="BC97" t="inlineStr"/>
+      <c r="BD97" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -46585,6 +48245,14 @@
       <c r="BC98" t="n">
         <v>0.4126811027526855</v>
       </c>
+      <c r="BD98" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -46808,6 +48476,14 @@
       <c r="BC99" t="n">
         <v>0.4129047393798828</v>
       </c>
+      <c r="BD99" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -47031,6 +48707,14 @@
       <c r="BC100" t="n">
         <v>0.4131240844726562</v>
       </c>
+      <c r="BD100" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -47254,6 +48938,14 @@
       <c r="BC101" t="n">
         <v>0.4133563041687012</v>
       </c>
+      <c r="BD101" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -47451,6 +49143,12 @@
         </is>
       </c>
       <c r="BC102" t="inlineStr"/>
+      <c r="BD102" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -47650,6 +49348,12 @@
         </is>
       </c>
       <c r="BC103" t="inlineStr"/>
+      <c r="BD103" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -47853,6 +49557,12 @@
         </is>
       </c>
       <c r="BC104" t="inlineStr"/>
+      <c r="BD104" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -48060,6 +49770,12 @@
         </is>
       </c>
       <c r="BC105" t="inlineStr"/>
+      <c r="BD105" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -48259,6 +49975,14 @@
         </is>
       </c>
       <c r="BC106" t="inlineStr"/>
+      <c r="BD106" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -48464,6 +50188,14 @@
         </is>
       </c>
       <c r="BC107" t="inlineStr"/>
+      <c r="BD107" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -48673,6 +50405,12 @@
         </is>
       </c>
       <c r="BC108" t="inlineStr"/>
+      <c r="BD108" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -48890,6 +50628,12 @@
         </is>
       </c>
       <c r="BC109" t="inlineStr"/>
+      <c r="BD109" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -49107,6 +50851,12 @@
       <c r="BC110" t="n">
         <v>192.3819510936737</v>
       </c>
+      <c r="BD110" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -49322,6 +51072,14 @@
       <c r="BC111" t="n">
         <v>75.94068360328674</v>
       </c>
+      <c r="BD111" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE111" t="n">
+        <v>17.57513022422791</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -49533,6 +51291,12 @@
       <c r="BC112" t="n">
         <v>3021.881390333176</v>
       </c>
+      <c r="BD112" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -49748,6 +51512,14 @@
       <c r="BC113" t="n">
         <v>3021.881950616837</v>
       </c>
+      <c r="BD113" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE113" t="n">
+        <v>9926.877980470657</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -49963,6 +51735,14 @@
       <c r="BC114" t="n">
         <v>40.12654948234558</v>
       </c>
+      <c r="BD114" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE114" t="n">
+        <v>2717.112966060638</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -50180,6 +51960,12 @@
       <c r="BC115" t="n">
         <v>5425.101967573166</v>
       </c>
+      <c r="BD115" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -50393,6 +52179,14 @@
       <c r="BC116" t="n">
         <v>115.1502258777618</v>
       </c>
+      <c r="BD116" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE116" t="n">
+        <v>4820.306880712509</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -50614,6 +52408,14 @@
       <c r="BC117" t="n">
         <v>18.04906988143921</v>
       </c>
+      <c r="BD117" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE117" t="n">
+        <v>4820.307310581207</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -50837,6 +52639,14 @@
       <c r="BC118" t="n">
         <v>159.8706362247467</v>
       </c>
+      <c r="BD118" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE118" t="n">
+        <v>8725.346253633499</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -51060,6 +52870,12 @@
       <c r="BC119" t="n">
         <v>30.08470606803894</v>
       </c>
+      <c r="BD119" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -51281,6 +53097,12 @@
       <c r="BC120" t="n">
         <v>192.3824262619019</v>
       </c>
+      <c r="BD120" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -51504,6 +53326,14 @@
       <c r="BC121" t="n">
         <v>75.94113612174988</v>
       </c>
+      <c r="BD121" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE121" t="n">
+        <v>17.57583785057068</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -51725,6 +53555,12 @@
       <c r="BC122" t="n">
         <v>3923.106054067612</v>
       </c>
+      <c r="BD122" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -51948,6 +53784,14 @@
       <c r="BC123" t="n">
         <v>15.75093054771423</v>
       </c>
+      <c r="BD123" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE123" t="n">
+        <v>14.11087369918823</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -52171,6 +54015,14 @@
       <c r="BC124" t="n">
         <v>40.12707042694092</v>
       </c>
+      <c r="BD124" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE124" t="n">
+        <v>2717.113424301147</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -52392,6 +54244,14 @@
       <c r="BC125" t="n">
         <v>60.94409132003784</v>
       </c>
+      <c r="BD125" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE125" t="n">
+        <v>2717.113771438599</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -52613,6 +54473,14 @@
       <c r="BC126" t="n">
         <v>115.150675535202</v>
       </c>
+      <c r="BD126" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE126" t="n">
+        <v>4820.307750225067</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -52836,6 +54704,14 @@
       <c r="BC127" t="n">
         <v>18.04969668388367</v>
       </c>
+      <c r="BD127" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE127" t="n">
+        <v>4820.308057785034</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -53059,6 +54935,14 @@
       <c r="BC128" t="n">
         <v>159.8710415363312</v>
       </c>
+      <c r="BD128" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE128" t="n">
+        <v>101.6543424129486</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -53280,6 +55164,14 @@
       <c r="BC129" t="n">
         <v>30.08519005775452</v>
       </c>
+      <c r="BD129" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE129" t="n">
+        <v>77.48110437393188</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -53503,6 +55395,14 @@
       <c r="BC130" t="n">
         <v>2119.671706199646</v>
       </c>
+      <c r="BD130" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE130" t="n">
+        <v>26.78270888328552</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -53726,6 +55626,14 @@
       <c r="BC131" t="n">
         <v>14.55520033836365</v>
       </c>
+      <c r="BD131" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE131" t="n">
+        <v>267.8071165084839</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -53945,6 +55853,12 @@
       <c r="BC132" t="n">
         <v>0.4142112731933594</v>
       </c>
+      <c r="BD132" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -54166,6 +56080,14 @@
       <c r="BC133" t="n">
         <v>15.75137042999268</v>
       </c>
+      <c r="BD133" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE133" t="n">
+        <v>14.11166429519653</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -54381,6 +56303,12 @@
       <c r="BC134" t="n">
         <v>879.4308478832245</v>
       </c>
+      <c r="BD134" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -54596,6 +56524,14 @@
         </is>
       </c>
       <c r="BC135" t="inlineStr"/>
+      <c r="BD135" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE135" t="n">
+        <v>2717.114238262177</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -54815,6 +56751,12 @@
         </is>
       </c>
       <c r="BC136" t="inlineStr"/>
+      <c r="BD136" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -55034,6 +56976,12 @@
         </is>
       </c>
       <c r="BC137" t="inlineStr"/>
+      <c r="BD137" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="BE137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -55253,6 +57201,14 @@
       <c r="BC138" t="n">
         <v>940.0502202510834</v>
       </c>
+      <c r="BD138" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE138" t="n">
+        <v>101.6550810337067</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -55466,6 +57422,14 @@
       <c r="BC139" t="n">
         <v>940.0506021976471</v>
       </c>
+      <c r="BD139" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE139" t="n">
+        <v>77.48172116279602</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -55689,6 +57653,14 @@
       <c r="BC140" t="n">
         <v>2119.672210931778</v>
       </c>
+      <c r="BD140" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE140" t="n">
+        <v>26.78330588340759</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -55907,6 +57879,14 @@
       </c>
       <c r="BC141" t="n">
         <v>14.55580353736877</v>
+      </c>
+      <c r="BD141" t="inlineStr">
+        <is>
+          <t>showed-booked</t>
+        </is>
+      </c>
+      <c r="BE141" t="n">
+        <v>267.807639837265</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/result_DataAnalysis.xlsx
+++ b/assets/data/result_DataAnalysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AD141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,6 +578,11 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>mean_score</t>
         </is>
       </c>
@@ -668,7 +673,10 @@
         <v>0.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.021739130434783</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -759,6 +767,9 @@
       <c r="AC3" t="n">
         <v>0.5</v>
       </c>
+      <c r="AD3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +859,9 @@
       <c r="AC4" t="n">
         <v>0.5</v>
       </c>
+      <c r="AD4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +951,9 @@
       <c r="AC5" t="n">
         <v>0.5</v>
       </c>
+      <c r="AD5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1024,6 +1041,9 @@
         <v>-1</v>
       </c>
       <c r="AC6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD6" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1113,6 +1133,9 @@
         <v>-1</v>
       </c>
       <c r="AC7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD7" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1202,6 +1225,9 @@
         <v>-1</v>
       </c>
       <c r="AC8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1291,6 +1317,9 @@
         <v>-1</v>
       </c>
       <c r="AC9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD9" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1380,6 +1409,9 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1469,6 +1501,9 @@
         <v>-1</v>
       </c>
       <c r="AC11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1558,7 +1593,10 @@
         <v>0.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.108695652173913</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.083333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -1649,6 +1687,9 @@
       <c r="AC13" t="n">
         <v>0.5</v>
       </c>
+      <c r="AD13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1736,7 +1777,10 @@
         <v>0.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.5434782608695652</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -1825,7 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="16">
@@ -1914,6 +1961,9 @@
         <v>-1</v>
       </c>
       <c r="AC16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD16" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2003,6 +2053,9 @@
         <v>-1</v>
       </c>
       <c r="AC17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD17" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2092,6 +2145,9 @@
         <v>-1</v>
       </c>
       <c r="AC18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2181,6 +2237,9 @@
         <v>-1</v>
       </c>
       <c r="AC19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD19" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -2270,6 +2329,9 @@
         <v>-1</v>
       </c>
       <c r="AC20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2359,6 +2421,9 @@
         <v>-1</v>
       </c>
       <c r="AC21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2448,7 +2513,10 @@
         <v>0.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.278260869565217</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1.245833333333333</v>
       </c>
     </row>
     <row r="23">
@@ -2537,7 +2605,10 @@
         <v>0.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="24">
@@ -2626,7 +2697,10 @@
         <v>0.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.8478260869565217</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="25">
@@ -2715,7 +2789,10 @@
         <v>3.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.543478260869565</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -2804,6 +2881,9 @@
         <v>-1</v>
       </c>
       <c r="AC26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD26" t="n">
         <v>1.657894736842105</v>
       </c>
     </row>
@@ -2893,6 +2973,9 @@
         <v>-1</v>
       </c>
       <c r="AC27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD27" t="n">
         <v>0.7105263157894737</v>
       </c>
     </row>
@@ -2982,6 +3065,9 @@
         <v>-1</v>
       </c>
       <c r="AC28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3071,6 +3157,9 @@
         <v>-1</v>
       </c>
       <c r="AC29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD29" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3160,6 +3249,9 @@
         <v>-1</v>
       </c>
       <c r="AC30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3249,6 +3341,9 @@
         <v>-1</v>
       </c>
       <c r="AC31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD31" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -3338,7 +3433,10 @@
         <v>0.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.8826086956521739</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="33">
@@ -3427,7 +3525,10 @@
         <v>0.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.7173913043478261</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="34">
@@ -3516,7 +3617,10 @@
         <v>0.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="35">
@@ -3605,7 +3709,10 @@
         <v>3.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.458333333333333</v>
       </c>
     </row>
     <row r="36">
@@ -3694,6 +3801,9 @@
         <v>-1</v>
       </c>
       <c r="AC36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD36" t="n">
         <v>1.815789473684211</v>
       </c>
     </row>
@@ -3783,6 +3893,9 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD37" t="n">
         <v>0.868421052631579</v>
       </c>
     </row>
@@ -3872,6 +3985,9 @@
         <v>-1</v>
       </c>
       <c r="AC38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3961,6 +4077,9 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD39" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4050,6 +4169,9 @@
         <v>-1</v>
       </c>
       <c r="AC40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4139,6 +4261,9 @@
         <v>-1</v>
       </c>
       <c r="AC41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD41" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -4228,7 +4353,10 @@
         <v>0.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.7608695652173914</v>
       </c>
     </row>
     <row r="43">
@@ -4319,6 +4447,9 @@
       <c r="AC43" t="n">
         <v>0.5</v>
       </c>
+      <c r="AD43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4406,7 +4537,10 @@
         <v>0.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.5434782608695652</v>
       </c>
     </row>
     <row r="45">
@@ -4497,6 +4631,9 @@
       <c r="AC45" t="n">
         <v>0.5</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4584,6 +4721,9 @@
         <v>-1</v>
       </c>
       <c r="AC46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD46" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4673,6 +4813,9 @@
         <v>-1</v>
       </c>
       <c r="AC47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD47" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4762,6 +4905,9 @@
         <v>-1</v>
       </c>
       <c r="AC48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4851,6 +4997,9 @@
         <v>-1</v>
       </c>
       <c r="AC49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD49" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4940,6 +5089,9 @@
         <v>-1</v>
       </c>
       <c r="AC50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5029,6 +5181,9 @@
         <v>-1</v>
       </c>
       <c r="AC51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD51" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -5118,7 +5273,10 @@
         <v>0.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.9190476190476191</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="53">
@@ -5207,7 +5365,10 @@
         <v>0.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="54">
@@ -5296,7 +5457,10 @@
         <v>0.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.7727272727272727</v>
       </c>
     </row>
     <row r="55">
@@ -5385,7 +5549,10 @@
         <v>0.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="56">
@@ -5474,6 +5641,9 @@
         <v>-1</v>
       </c>
       <c r="AC56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD56" t="n">
         <v>0.7352941176470589</v>
       </c>
     </row>
@@ -5563,6 +5733,9 @@
         <v>-1</v>
       </c>
       <c r="AC57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD57" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -5652,6 +5825,9 @@
         <v>-1</v>
       </c>
       <c r="AC58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5741,6 +5917,9 @@
         <v>-1</v>
       </c>
       <c r="AC59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5830,6 +6009,9 @@
         <v>-1</v>
       </c>
       <c r="AC60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5919,6 +6101,9 @@
         <v>-1</v>
       </c>
       <c r="AC61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD61" t="n">
         <v>3.25</v>
       </c>
     </row>
@@ -6008,7 +6193,10 @@
         <v>0.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.633333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1.581818181818182</v>
       </c>
     </row>
     <row r="63">
@@ -6097,7 +6285,10 @@
         <v>0.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>1.595238095238095</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="64">
@@ -6186,7 +6377,10 @@
         <v>0.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>1.071428571428571</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1.045454545454545</v>
       </c>
     </row>
     <row r="65">
@@ -6275,7 +6469,10 @@
         <v>0.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>1.642857142857143</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1.590909090909091</v>
       </c>
     </row>
     <row r="66">
@@ -6364,7 +6561,10 @@
         <v>-1</v>
       </c>
       <c r="AC66" t="n">
-        <v>1.444444444444444</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>1.447368421052632</v>
       </c>
     </row>
     <row r="67">
@@ -6453,7 +6653,10 @@
         <v>-1</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="68">
@@ -6542,6 +6745,9 @@
         <v>-1</v>
       </c>
       <c r="AC68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6631,6 +6837,9 @@
         <v>-1</v>
       </c>
       <c r="AC69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD69" t="n">
         <v>4.75</v>
       </c>
     </row>
@@ -6720,6 +6929,9 @@
         <v>-1</v>
       </c>
       <c r="AC70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6809,6 +7021,9 @@
         <v>-1</v>
       </c>
       <c r="AC71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD71" t="n">
         <v>6.25</v>
       </c>
     </row>
@@ -6898,7 +7113,10 @@
         <v>0.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>1.815789473684211</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="73">
@@ -6987,7 +7205,10 @@
         <v>0.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>2.214285714285714</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>2.181818181818182</v>
       </c>
     </row>
     <row r="74">
@@ -7076,7 +7297,10 @@
         <v>0.5</v>
       </c>
       <c r="AC74" t="n">
-        <v>1.538095238095238</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>1.490909090909091</v>
       </c>
     </row>
     <row r="75">
@@ -7165,7 +7389,10 @@
         <v>0.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.738095238095238</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>1.681818181818182</v>
       </c>
     </row>
     <row r="76">
@@ -7254,7 +7481,10 @@
         <v>-1</v>
       </c>
       <c r="AC76" t="n">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>1.026315789473684</v>
       </c>
     </row>
     <row r="77">
@@ -7343,7 +7573,10 @@
         <v>-1</v>
       </c>
       <c r="AC77" t="n">
-        <v>1.222222222222222</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>1.236842105263158</v>
       </c>
     </row>
     <row r="78">
@@ -7432,6 +7665,9 @@
         <v>-1</v>
       </c>
       <c r="AC78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7521,6 +7757,9 @@
         <v>-1</v>
       </c>
       <c r="AC79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD79" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7610,6 +7849,9 @@
         <v>-1</v>
       </c>
       <c r="AC80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7699,6 +7941,9 @@
         <v>-1</v>
       </c>
       <c r="AC81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD81" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -7788,7 +8033,10 @@
         <v>2.5</v>
       </c>
       <c r="AC82" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.261904761904762</v>
       </c>
     </row>
     <row r="83">
@@ -7877,7 +8125,10 @@
         <v>2.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>1.976190476190476</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>1.954545454545455</v>
       </c>
     </row>
     <row r="84">
@@ -7966,7 +8217,10 @@
         <v>0.5</v>
       </c>
       <c r="AC84" t="n">
-        <v>1.728571428571428</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>1.672727272727273</v>
       </c>
     </row>
     <row r="85">
@@ -8055,7 +8309,10 @@
         <v>0.5</v>
       </c>
       <c r="AC85" t="n">
-        <v>1.928571428571429</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>1.909090909090909</v>
       </c>
     </row>
     <row r="86">
@@ -8146,6 +8403,9 @@
       <c r="AC86" t="n">
         <v>1.5</v>
       </c>
+      <c r="AD86" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8233,7 +8493,10 @@
         <v>-1</v>
       </c>
       <c r="AC87" t="n">
-        <v>1.277777777777778</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>1.289473684210526</v>
       </c>
     </row>
     <row r="88">
@@ -8322,6 +8585,9 @@
         <v>-1</v>
       </c>
       <c r="AC88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8411,6 +8677,9 @@
         <v>-1</v>
       </c>
       <c r="AC89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD89" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -8500,6 +8769,9 @@
         <v>-1</v>
       </c>
       <c r="AC90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8589,6 +8861,9 @@
         <v>-1</v>
       </c>
       <c r="AC91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD91" t="n">
         <v>6.45</v>
       </c>
     </row>
@@ -8678,7 +8953,10 @@
         <v>2.5</v>
       </c>
       <c r="AC92" t="n">
-        <v>2.071428571428572</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -8767,7 +9045,10 @@
         <v>2.5</v>
       </c>
       <c r="AC93" t="n">
-        <v>1.404761904761905</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>1.409090909090909</v>
       </c>
     </row>
     <row r="94">
@@ -8856,7 +9137,10 @@
         <v>0.5</v>
       </c>
       <c r="AC94" t="n">
-        <v>1.880952380952381</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="95">
@@ -8945,7 +9229,10 @@
         <v>0.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>2.357142857142857</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="96">
@@ -9034,7 +9321,10 @@
         <v>-1</v>
       </c>
       <c r="AC96" t="n">
-        <v>1.555555555555556</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>1.552631578947368</v>
       </c>
     </row>
     <row r="97">
@@ -9123,7 +9413,10 @@
         <v>-1</v>
       </c>
       <c r="AC97" t="n">
-        <v>1.222222222222222</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>1.236842105263158</v>
       </c>
     </row>
     <row r="98">
@@ -9212,6 +9505,9 @@
         <v>-1</v>
       </c>
       <c r="AC98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9301,6 +9597,9 @@
         <v>-1</v>
       </c>
       <c r="AC99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD99" t="n">
         <v>7.2</v>
       </c>
     </row>
@@ -9390,6 +9689,9 @@
         <v>-1</v>
       </c>
       <c r="AC100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9479,6 +9781,9 @@
         <v>-1</v>
       </c>
       <c r="AC101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD101" t="n">
         <v>6.7</v>
       </c>
     </row>
@@ -9568,7 +9873,10 @@
         <v>0.5</v>
       </c>
       <c r="AC102" t="n">
-        <v>2.404347826086956</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>2.325</v>
       </c>
     </row>
     <row r="103">
@@ -9657,7 +9965,10 @@
         <v>0.5</v>
       </c>
       <c r="AC103" t="n">
-        <v>1.717391304347826</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>1.708333333333333</v>
       </c>
     </row>
     <row r="104">
@@ -9746,7 +10057,10 @@
         <v>0.5</v>
       </c>
       <c r="AC104" t="n">
-        <v>1.976190476190476</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>1.909090909090909</v>
       </c>
     </row>
     <row r="105">
@@ -9835,7 +10149,10 @@
         <v>0.5</v>
       </c>
       <c r="AC105" t="n">
-        <v>2.41304347826087</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="106">
@@ -9924,7 +10241,10 @@
         <v>-1</v>
       </c>
       <c r="AC106" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>2.119047619047619</v>
       </c>
     </row>
     <row r="107">
@@ -10013,7 +10333,10 @@
         <v>-1</v>
       </c>
       <c r="AC107" t="n">
-        <v>3.24</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.10952380952381</v>
       </c>
     </row>
     <row r="108">
@@ -10102,7 +10425,10 @@
         <v>0.5</v>
       </c>
       <c r="AC108" t="n">
-        <v>4.060869565217391</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.954166666666666</v>
       </c>
     </row>
     <row r="109">
@@ -10191,7 +10517,10 @@
         <v>0.5</v>
       </c>
       <c r="AC109" t="n">
-        <v>4.369230769230769</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>4.262962962962963</v>
       </c>
     </row>
     <row r="110">
@@ -10280,7 +10609,10 @@
         <v>0.5</v>
       </c>
       <c r="AC110" t="n">
-        <v>4.366666666666666</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>4.1875</v>
       </c>
     </row>
     <row r="111">
@@ -10369,7 +10701,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AC111" t="n">
-        <v>5.792307692307693</v>
+        <v>3.5</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>5.707407407407408</v>
       </c>
     </row>
     <row r="112">
@@ -10458,7 +10793,10 @@
         <v>0.5</v>
       </c>
       <c r="AC112" t="n">
-        <v>4.143478260869565</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>4.316666666666667</v>
       </c>
     </row>
     <row r="113">
@@ -10547,7 +10885,10 @@
         <v>1.5</v>
       </c>
       <c r="AC113" t="n">
-        <v>3.995454545454546</v>
+        <v>7.5</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>4.147826086956522</v>
       </c>
     </row>
     <row r="114">
@@ -10636,7 +10977,10 @@
         <v>2.5</v>
       </c>
       <c r="AC114" t="n">
-        <v>5.254545454545454</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>5.091304347826087</v>
       </c>
     </row>
     <row r="115">
@@ -10725,7 +11069,10 @@
         <v>0.5</v>
       </c>
       <c r="AC115" t="n">
-        <v>4.134782608695652</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.983333333333333</v>
       </c>
     </row>
     <row r="116">
@@ -10814,7 +11161,10 @@
         <v>1.5</v>
       </c>
       <c r="AC116" t="n">
-        <v>4.152173913043478</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>4.041666666666667</v>
       </c>
     </row>
     <row r="117">
@@ -10903,7 +11253,10 @@
         <v>1.5</v>
       </c>
       <c r="AC117" t="n">
-        <v>5.633333333333333</v>
+        <v>1.5</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>5.445454545454545</v>
       </c>
     </row>
     <row r="118">
@@ -10992,7 +11345,10 @@
         <v>1.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>6.159090909090909</v>
+        <v>4.5</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>6.086956521739131</v>
       </c>
     </row>
     <row r="119">
@@ -11081,7 +11437,10 @@
         <v>0.5</v>
       </c>
       <c r="AC119" t="n">
-        <v>5.907999999999999</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="120">
@@ -11170,7 +11529,10 @@
         <v>0.5</v>
       </c>
       <c r="AC120" t="n">
-        <v>5.3</v>
+        <v>1.5<